--- a/Selected_Downloads.xlsx
+++ b/Selected_Downloads.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Revistas" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Brasil_Pol" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Television" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Brasil_His" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Television" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="3079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3087" uniqueCount="3087">
   <si>
     <t>Index</t>
   </si>
@@ -9252,6 +9253,30 @@
   </si>
   <si>
     <t>Eugenia</t>
+  </si>
+  <si>
+    <t>bub_gb_6d0_7XDSscgC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historia da prouincia sancta Cruz a qui vulgarmente chamamos Brasil feita por Pero de Magalhaens de Gandauo, dirigida ao muito illustre senhor dom Lionis Pereira gouernador que foy di Malaca &amp; das mais partes do sul na India </t>
+  </si>
+  <si>
+    <t>europeanlibraries</t>
+  </si>
+  <si>
+    <t>tools.bub@tools.wmflabs.org</t>
+  </si>
+  <si>
+    <t>bub_upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-01-15 19:03:42</t>
+  </si>
+  <si>
+    <t>1576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro : de Magalhaens de Gandavo</t>
   </si>
 </sst>
 </file>
@@ -41414,7 +41439,7 @@
       <c r="B2" s="3" t="s">
         <v>2995</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2996</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -42028,6 +42053,170 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="5.57421875"/>
+    <col customWidth="1" min="3" max="3" width="110.00390625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3079</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3080</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3081</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3082</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>3083</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3084</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>3084</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3085</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>3086</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
+        <v>3085</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3079</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3080</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3081</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3082</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>3083</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>3084</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>3084</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>3085</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>3086</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>3085</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">

--- a/Selected_Downloads.xlsx
+++ b/Selected_Downloads.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3087" uniqueCount="3087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="3095">
   <si>
     <t>Index</t>
   </si>
@@ -9261,6 +9261,9 @@
     <t xml:space="preserve">Historia da prouincia sancta Cruz a qui vulgarmente chamamos Brasil feita por Pero de Magalhaens de Gandauo, dirigida ao muito illustre senhor dom Lionis Pereira gouernador que foy di Malaca &amp; das mais partes do sul na India </t>
   </si>
   <si>
+    <t>1576</t>
+  </si>
+  <si>
     <t>europeanlibraries</t>
   </si>
   <si>
@@ -9273,22 +9276,49 @@
     <t xml:space="preserve">2016-01-15 19:03:42</t>
   </si>
   <si>
-    <t>1576</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pedro : de Magalhaens de Gandavo</t>
+  </si>
+  <si>
+    <t>or298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diário da Navegação da  Armada que Foi a Terra do Brasil Em 1530 Sob a Capitania-Mor de Martim Affonso de Souza Escripto por seu irmão Pero Lopes de Souza Publicado por  Francisco Adolfo de Varnhagen Lisboa, Typographia da Socieadade Propagadora dos Conhecimentos Úteis 1839</t>
+  </si>
+  <si>
+    <t>1530</t>
+  </si>
+  <si>
+    <t>suiewendhausen@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Diário da Navegação', 'da  Armada que Foi a Terra do Brasil', 'Em 1530', 'Sob a Capitania-Mor de Martim Affonso de Souza', 'Escripto por seu irmão Pero Lopes de Souza', 'Publicado por  Francisco Adolfo de Varnhagen Lisboa', 'Nau Capitânea', 'Nau San Miguel', 'Galeão São Vicente', 'Caravela Rosa e Caravela Princesa  Dentre as 400 pessoas embarcadas nestes navios', 'poderemos somente mencionar', 'Jorge Pires']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-21 19:55:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pero Lopes de Souza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://objdigital.bn.br/objdigital2/acervo_digital/div_obrasraras/or298/or298.pdfDiário da Navegação da Armada que Foi a Terra do BrasilEm 1530 Sob a Capitania-Morde Martim Affonso de SouzaEscripto por seu irmãoPero Lopes de SouzaPublicado por Francisco Adolfo de VarnhagenLisboa, Typographia da Socieadade Propagadora dos Conhecimentos Úteis1839Nau Capitânea, Nau San Miguel, Galeão São Vicente, Caravela Rosa e Caravela PrincesaDentre as 400 pessoas embarcadas nestes navios, poderemos somente mencionar, Jorge Piresobjdigital.bn.br/objdigital2/acervo_digital/div_obrasraras/or298/or298.pdfviar a Portugal, e a seu irmão encarregou do cominan- ... c. p. 243, e um Nobiliário MS» ... tins Ferreira; Pedro Collaço; Jorge Pires; Heitor d'Al-.1.304 páginas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.000000"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -9298,12 +9328,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="2">
@@ -9330,12 +9363,15 @@
       <diagonal style="none"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0">
+      <alignment vertical="top"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
@@ -9345,12 +9381,11 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -42053,10 +42088,11 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="5.57421875"/>
-    <col customWidth="1" min="3" max="3" width="110.00390625"/>
+    <col customWidth="1" min="3" max="3" width="109.140625"/>
+    <col customWidth="1" min="4" max="4" width="14.00390625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -42070,28 +42106,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
@@ -42116,28 +42152,28 @@
       <c r="C2" s="3" t="s">
         <v>3080</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3081</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>3082</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>3082</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>3083</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>3083</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>3084</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>3084</v>
-      </c>
-      <c r="K2" s="2" t="s">
+        <v>3085</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>3085</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -42145,7 +42181,7 @@
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
-        <v>3085</v>
+        <v>3081</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -42161,31 +42197,31 @@
       <c r="B3" s="3" t="s">
         <v>3079</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3080</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3081</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>3082</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>3082</v>
+        <v>21</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>23</v>
+        <v>3083</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>3083</v>
+        <v>23</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>3084</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>3084</v>
-      </c>
-      <c r="K3" s="2" t="s">
+        <v>3085</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>3085</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -42193,7 +42229,7 @@
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>3085</v>
+        <v>3081</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -42202,7 +42238,64 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
+    <row r="4" ht="14.25">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3088</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3089</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>3021</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>3090</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>3091</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>3092</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>3092</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>3089</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>3094</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="S5"/>
+  </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/Selected_Downloads.xlsx
+++ b/Selected_Downloads.xlsx
@@ -7,16 +7,18 @@
   </bookViews>
   <sheets>
     <sheet name="Revistas" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Brasil_Pol" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Brasil_His" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Television" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Cristianismo" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Brasil_Pol" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Brasil+Portugal_His" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="X Board" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Television" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="3095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3430" uniqueCount="3430">
   <si>
     <t>Index</t>
   </si>
@@ -9000,307 +9002,1312 @@
     <t>96.30</t>
   </si>
   <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>10-biblia-vulgata-padre-antonio-pereira-de-figueiredo-05_202007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bíblia Sagrada (Volume V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padre Antônio Pereira de Figueiredo</t>
+  </si>
+  <si>
+    <t>Cristianismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teologia Tradicional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-31 15:17:33</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>11-biblia-vulgata-padre-antonio-pereira-de-figueiredo-06_20200731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bíblia Sagrada (Volume VI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-31 16:18:23</t>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>20-biblia-vulgata-padre-antonio-pereira-de-figueiredo-15_202007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bíblia Sagrada (Volume XV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-31 20:39:59</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>21-biblia-vulgata-padre-antonio-pereira-de-figueiredo-16_202007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bíblia Sagrada (Volume XVI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-31 20:43:21</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>22-biblia-vulgata-padre-antonio-pereira-de-figueiredo-17-biografias-dos-papas-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bíblia Sagrada (Volume XVII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-31 22:51:18</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>6-biblia-vulgata-padre-antonio-pereira-de-figueiredo-01_202007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bíblia Sagrada (Volume I)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-31 15:34:43</t>
+  </si>
+  <si>
+    <t>094</t>
+  </si>
+  <si>
+    <t>7-biblia-vulgata-padre-antonio-pereira-de-figueiredo-02_202007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bíblia Sagrada (Volume II)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-31 15:13:06</t>
+  </si>
+  <si>
+    <t>099</t>
+  </si>
+  <si>
+    <t>8-biblia-vulgata-padre-antonio-pereira-de-figueiredo-03_202007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bíblia Sagrada (Volume III)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-31 15:19:28</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>9-biblia-vulgata-padre-antonio-pereira-de-figueiredo-04_202007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bíblia Sagrada (Volume IV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-31 15:12:46</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>1-suma-contra-os-gentios-volume-i-livro-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma Contra os Gentios (Volume 1, Livro 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São Tomás de Aquino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-30 21:27:04</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>2-suma-contra-os-gentios-volume-i-livro-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma Contra os Gentios (Volume 1, Livro 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-30 21:40:46</t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>3-suma-contra-os-gentios-volume-ii-livro-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma Contra os Gentios (Volume 2, Livro 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-30 21:51:26</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>4-suma-contra-os-gentios-volume-ii-livro-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma Contra os Gentios (Volume 2, Livro 4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-30 22:11:07</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>arlindo-contra-jew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do Governo dos Judeus e De Regno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-29 04:28:48</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>tomas-de-aquino-suma-teologica-vol.-i-ed.-loyola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma Teológica (Volume 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-31 07:38:12</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>2.-santo-tomas-de-aquino-suma-teologica-vol.-ii-ed.-loy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma Teológica (Volume 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-31 07:26:56</t>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>3.-santo-tomas-de-aquino-suma-teologica-vol.-iii-ed.-loyola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma Teológica (Volume 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-31 07:17:57</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>4.-santo-tomas-de-aquino-suma-teologica-vol.-iv-ed.-loyola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma Teológica (Volume 4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-31 07:35:03</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>5.-santo-tomas-de-aquino-suma-teologica-vol.-v-ed.-loyola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma Teológica (Volume 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-31 07:32:16</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>6.-santo-tomas-de-aquino-suma-teologica-vol.-vi-ed.-loyola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma Teológica (Volume 6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-31 08:08:19</t>
+  </si>
+  <si>
+    <t>095</t>
+  </si>
+  <si>
+    <t>7.-santo-tomas-de-aquino-suma-teologica-vol.-vii-ed.-loyola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma Teológica (Volume 7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-31 08:21:37</t>
+  </si>
+  <si>
+    <t>8.-santo-tomas-de-aquino-suma-teologica-vol.-viii-ed.-loyola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma Teológica (Volume 8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-31 08:17:27</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>9.-santo-tomas-de-aquino-suma-teologica-vol..-ix-ed.-loyola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma Teológica (Volume 9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-31 08:42:42</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>cristandade-positiva-no-terceiro-imprio-germnico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristandade Positiva No Terceiro Imperio Germnico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igor von Mueller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/pol/ em Português</t>
+  </si>
+  <si>
+    <t>igor.mueller@tutanota.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primeira tradução para o português da visão oficial da religião no Terceiro Império Germânico</t>
+  </si>
+  <si>
+    <t>089</t>
+  </si>
+  <si>
+    <t>perguntas-e-respostas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perguntas e Respostas sobre o Nacional-Socialismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joseph Goebbels</t>
+  </si>
+  <si>
+    <t>096</t>
+  </si>
+  <si>
+    <t>roma-contra-judeia-por-eduardo-velasco-traduzido-para-o-portugues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roma Contra Judeia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduardo Velasco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judea delenda est</t>
+  </si>
+  <si>
+    <t>o-problema-eugenico-no-brasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Problema Eugênico No Brasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Renato Ferraz Kehl</t>
+  </si>
+  <si>
+    <t>1488</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>ramonbauosexosegundoonacionalsocialismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Sexo Segundo O Nacional Socialismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramón Bau</t>
+  </si>
+  <si>
+    <t>raphaelborgy@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Sexo Segundo o Nacional Socialismo</t>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>os-genocidas-do-seculo-xx-sergio-oliveira-z-library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Genocidas Do Século XX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergio Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conheça seu inimigo.</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>eugenia-e-medicina-social-problemas-da-vida-renato-ferraz-kehl-z-library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eugenia E Medicina Social ( Problemas Da Vida) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renato Ferraz Kehl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A solução para o Brasil.</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>eugenia-negativa-psiquiatria-e-catolicismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eugenia 'negativa', Psiquiatria E Catolicismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Wegner</t>
+  </si>
+  <si>
+    <t>Eugenia</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>blood-and-honor-field-manual-portuguese-translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sangue e Honra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Nationalist Archive</t>
+  </si>
+  <si>
+    <t>jakewheeler762223@yahoo.com</t>
+  </si>
+  <si>
+    <t>14/88</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>siege-por-james-mason</t>
+  </si>
+  <si>
+    <t>Siege</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Mason</t>
+  </si>
+  <si>
+    <t>archiveaf@protonmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portuguese translation of Siege by James Mason</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>judeus_e_suas_mentiras_lutero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dos Judeus e Suas Mentiras  Martinho Lutero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martinho Lutero</t>
+  </si>
+  <si>
+    <t>welffhen@gmail.com</t>
+  </si>
+  <si>
+    <t>1543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editora Revisão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Com esta publicação o leitor brasileiro tem o privilégio de travar conhecimento  –  pela  primeira  vez  em  língua  portuguesa  Dos Judeus e Suas Mentiras Martinho Lutero –,  com  esta polêmica obra do Reformador da Igreja, MARTIN LUTHER, ou Lutero,  datada de 1543.Este livreto  –  conforme definição do próprio Luther  –  apesar de esporadicamente citado, nunca esteve ao alcance dos brasileiros. Trata-se  de  uma  obra  “abafada”,  a  exemplo  de importantíssimas  edições  e reedições  trazidas a luz pela REVISÃO, em nosso país, e que forças do  obscurantismo, sob absurdas alegações, procuram manter escondidas nos   mais profundos escaninhos da História.A  presente  edição  de  um  escrito  com  mais  de  450  anos,  com termos  e expressões não usuais na língua alemã de hoje, foi traduzida ao  linguajar atual, sem perder a fidelidade do original  – em alemão  arcaico  com  letras  góticas  –  disponível  na  livraria  da   Universidade  de  Harvard, EUA, sob número catalográfico 1282.59.105. A  publicação desta obra se destina a  estudo e á pesquisa de uma época.   Certos  de  estarmos  contribuindo  para  a  ampliação  do   conhecimento  sobre  a  História,  passamos  a  palavra  ao  grande  Reformador. Com esta publicação o leitor brasileiro tem o privilégio de travar conhecimento  –  pela  primeira  vez  em  língua  portuguesa  –,  com  esta polêmica obra do Reformador da Igreja, MARTIN LUTHER, ou Lutero,  datada de 1543.Este livreto  –  conforme definição do próprio Luther  –  apesar de esporadicamente  citado, nunca esteve ao alcance dos brasileiros. Trata-se  de  uma   obra  “abafada”,  a  exemplo  de importantíssimas  edições  e reedições  trazidas a luz pela REVISÃO, em nosso país, e que forças do  obscurantismo, sob absurdas alegações, procuram manter escondidas nos   mais profundos escaninhos da História.A  presente  edição  de  um  escrito  com  mais  de  450  anos,  com termos  e expressões não usuais na língua alemã de hoje, foi traduzida ao  linguajar atual, sem perder a fidelidade do original  – em alemão  arcaico  com  letras  góticas  –  disponível  na  livraria  da   Universidade  de  Harvard, EUA, sob número catalográfico 1282.59.105. A  publicação desta obra se destina a  estudo e á pesquisa de uma época.   Certos  de  estarmos  contribuindo  para  a  ampliação  do   conhecimento  sobre  a  História,  passamos  a  palavra  ao  grande  Reformador.</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>AConspiraodaReservaFederal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Conspiração da Reserva Federal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eustace Mullins</t>
+  </si>
+  <si>
+    <t>gyouness@fellow-me.pw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neste livro, Mullins argumentou que havia uma conspiração entre Paul Warburg, Edward Mandell House, Woodrow Wilson, JP Morgan, Benjamin Strong, Otto Kahn, a família Rockefeller, a família Rothschild e outros banqueiros europeus e americanos que resultaram na criação do Sistema da Reserva Federal dos EUA. Ele argumentou que o Federal Reserve Act de 1913 desafia o Artigo 1, Seção 8, Parágrafo 5 da Constituição dos Estados Unidos, criando um "banco central de emissão" para os Estados Unidos. Mullins prosseguiu afirmando que a Primeira Guerra Mundial, a Depressão Agrícola de 1920, a Grande Depressão de 1929 foram provocadas por interesses bancários internacionais, a fim de lucrar com o conflito e a instabilidade econômica. Mullins também citou a firme oposição de Thomas Jefferson ao estabelecimento de um banco central nos Estados Unidos.</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>DestruaoAcusador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destrua o Acusador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frederick Seelig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em Destrua o Acusador, Seelig sustenta que numa tentativa de obter a custódia de seus dois filhos que viviam com sua mãe "lésbica auto-admitida" e seus amigos homossexualmente degenerados que ele descobriu "fundos secretos homossexuais-comunistas" usados na Califórnia e nas eleições nacionais. Ele relata seu encarceramento injusto - ordenado pelos próprios irmãos Kennedy - na Penitenciária Federal do Centro Médico de Springfield, uma prisão cheia de tortura psiquiátrica comunista - tendo em consideração que na época, os doentes mentais não possuíam direitos e estavam completamente submetidos aos psiquiatras. Ao ser encarcerado, ele corria o risco de ser fisicamente e mentalmente destruído e por consequência das torturas morto como vários outros prisioneiros, porém, ele sobrevive e consegue ser libertado e expõe todas as torturas que foi submetido.</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>GuerraPsicolgicaComunista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guerra Psicológica Comunista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edward Hunter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neste livro, Edward Hunter expõe as técnicas de guerra psicológica comunista.SR. HUNTER: "Os inquisidores comunistas nos campos de prisioneiros de guerra dependiam, antes de mais nada, de um processo de seleção para fornecer-lhes os homens com maior probabilidade de sucumbir à lavagem cerebral. Eles escolheram os que consideravam mais úteis entre eles. isso era necessário, juntamente com uma completa desconsideração pela ética; nenhuma inteligência especial ... Eles basearam sua técnica principalmente no completo abandono da moralidade ".</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>ManualDeResistnciaBranca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual De Resistência Branca</t>
+  </si>
+  <si>
+    <t>Anon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Manual da Resistência Branca é um manual da supremacia branca. Ele promove a fundação de pequenas células supremacistas brancas independentes e é um manual de instrução sobre atividades ilegais, como fabricação de armas e terrorismo, além da violenta guerra de guerrilhas contra o governo.</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>OperaesDeLimpezatnica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operações de Limpeza Étnica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neste livro o autor fala sobre os problemas raciais no Estados Unidos que possivelmente levará a uma guerra racial, ele comenta e explica sobre as estratégias dessas operações com exemplos históricos.</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>UmaHistriaDoMeuPrivilgioBranco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma História do Meu Privilégio Branco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev. James Logsdon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma história sobre a família de James Logsdon e o privilégio branco.</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>segundaguerracivil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segunda Guerra Civil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas W. Chittum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Segunda Guerra Civil não é mais apenas um pesadelo, mas uma realidade vindoura. Forças sociais, políticas e econômicas estão separando os EUA e levando-a a uma guerra sangrenta que pode dividir a nação em vários países diferentes, divididos em linhas étnicas. Tumultos, gangues, milicias, taxas explosivas de criminalidade, imigração em massa, aumento do desemprego, salários em queda, são fatores que alimentam os incêndios da guerra.Analise com atenção essas tendências perigosas com o analista militar Tom Chittum na Segunda Guerra Civil. Aprenda por que os EUA estão tendo problemas, como sua guerra mortal - que ainda está começando - está se moldando e o que você pode fazer para se proteger e família.</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>de-poncins-leon-as-forcas-secretas-da-revolucao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As Forças Secretas Da Revolução (1937)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Léon de Poncins</t>
+  </si>
+  <si>
+    <t>joaosilva741339@outlook.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For most of the works from Leon de Poncins in French:https://archive.org/details/de-poncins-leon-la-mysterieuse-internationale-juiveCheck the channel for further content</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>henri-delassus-a-conjuracao-anti-crista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Conjuração Anti-cristã</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henri Delassus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the channel for further content</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>a-grande-substituicao-the-great-replacement-portuguese-translation_202311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Grande Substituição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wehrwolf Library</t>
+  </si>
+  <si>
+    <t>jake96696996@gmail.com</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>manual-de-campo-de-sangue-e-honra-blood-and-honor-field-manual-portuguese-translation_202309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual De Campo De Sangue E Honra</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>marco-para-cima-do-pais-march-up-country-by-harold-covington-portuguese-translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marche Para Cima Do País</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>pontos-chave-do-cerco-key-points-of-siege-james-mason-portuguese-translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pontos Chave Do Cerco</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>artigos-nacional-socialistas-do-valhalla-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valhalla Nacional-Socialista - Artigos</t>
+  </si>
+  <si>
+    <t>Anônimo</t>
+  </si>
+  <si>
+    <t>jvm_mg@tuta.io</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>bolchevismo-de-moises-a-lenin_202310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolchevismo De Moisés A Lenin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dietrich Eckart</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>cristianismo-positivo-no-terceiro-reich-cajus-fabricius-i-88khans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristianismo Positivo no Terceiro Reich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cajus Fabricius</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>hitler-e-a-igreja-a-mentira-do-atei-smo-de-hitler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HITLER E A IGREJA A MENTIRA DO ATEÍSMO DE HITLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biblioteca Revelando O Oculto</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>livro-completo-editado-v-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem é Nacional-Socialista?</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>fundamentosdasabedoriahiperborea1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundamentos Da Sabedoria Hiperborea 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luiz Felipe Moyano</t>
+  </si>
+  <si>
+    <t>SchizoPosting</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>fundamentosdasabedoriahiperborea2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundamentos Da Sabedoria Hiperbórea 2</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>gerais-linhas-hiperborea-vol.-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiperbórea - Linhas Gerais</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>aatlantidaeoreinogigantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Atlântida E O Reino Dos Gigantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denis Saurat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Atlântida EO Reino Dos Gigantes</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>acortedeluciferottorahn.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Corte De Lucifer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otto Rahn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fascismo Exotérico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Corte de Lucifer Otto Rahn</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>miguelserranonaocelebraremosamortedosdeusesbrancos1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não Celebraremos A Morte Dos Deuses Brancos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel Serrano</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>miguelserranonsparaamericadosul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS Para America Do Sul</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>ns-para-a-america-do-sul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional Socialismo, única solução para os povos da América do Sul</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>oultimoavatarversaofinal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Último Avatar Versão Final</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>ametafisicadosexojuliusevola_202002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Metafisica Do Sexo Julius Evola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julius Evola</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>imperialismopagao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imperialismo Pagao</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>ojudeuinternacional_202002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Judeu Internacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry Ford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classico /pol/</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>ojudeunamusicaconvertido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Judeu Na Musica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard Wagner</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>dosjudeusesuasmentiras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dos Judeus E Suas Mentiras</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>mein-kampf-lux-edition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minha Luta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adolf Hitler</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>o-estado-corporativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado Corporativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benito Mussolini</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>castan26e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Holocausto Judeu ou Alemão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siegfried Ellwanger Castan</t>
+  </si>
+  <si>
+    <t>Revisionismo</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>adestruicaodedresdenconvertido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Destruição De Dresden Convertido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Irving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Destruição de Dresden</t>
+  </si>
+  <si>
+    <t>bub_gb_6d0_7XDSscgC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historia da prouincia sancta Cruz a qui vulgarmente chamamos Brasil feita por Pero de Magalhaens de Gandauo, dirigida ao muito illustre senhor dom Lionis Pereira gouernador que foy di Malaca &amp; das mais partes do sul na India </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro de Magalhaens de Gandavo</t>
+  </si>
+  <si>
+    <t>1576</t>
+  </si>
+  <si>
+    <t>europeanlibraries</t>
+  </si>
+  <si>
+    <t>tools.bub@tools.wmflabs.org</t>
+  </si>
+  <si>
+    <t>bub_upload</t>
+  </si>
+  <si>
+    <t>or298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diário da Navegação da  Armada que Foi a Terra do Brasil Em 1530 Sob a Capitania-Mor de Martim Affonso de Souza Escripto por seu irmão Pero Lopes de Souza Publicado por  Francisco Adolfo de Varnhagen Lisboa, Typographia da Socieadade Propagadora dos Conhecimentos Úteis 1839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pero Lopes de Souza</t>
+  </si>
+  <si>
+    <t>1530</t>
+  </si>
+  <si>
+    <t>opensource</t>
+  </si>
+  <si>
+    <t>suiewendhausen@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Diário da Navegação', 'da  Armada que Foi a Terra do Brasil', 'Em 1530', 'Sob a Capitania-Mor de Martim Affonso de Souza', 'Escripto por seu irmão Pero Lopes de Souza', 'Publicado por  Francisco Adolfo de Varnhagen Lisboa', 'Nau Capitânea', 'Nau San Miguel', 'Galeão São Vicente', 'Caravela Rosa e Caravela Princesa  Dentre as 400 pessoas embarcadas nestes navios', 'poderemos somente mencionar', 'Jorge Pires']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://objdigital.bn.br/objdigital2/acervo_digital/div_obrasraras/or298/or298.pdfDiário da Navegação da Armada que Foi a Terra do BrasilEm 1530 Sob a Capitania-Morde Martim Affonso de SouzaEscripto por seu irmãoPero Lopes de SouzaPublicado por Francisco Adolfo de VarnhagenLisboa, Typographia da Socieadade Propagadora dos Conhecimentos Úteis1839Nau Capitânea, Nau San Miguel, Galeão São Vicente, Caravela Rosa e Caravela PrincesaDentre as 400 pessoas embarcadas nestes navios, poderemos somente mencionar, Jorge Piresobjdigital.bn.br/objdigital2/acervo_digital/div_obrasraras/or298/or298.pdfviar a Portugal, e a seu irmão encarregou do cominan- ... c. p. 243, e um Nobiliário MS» ... tins Ferreira; Pedro Collaço; Jorge Pires; Heitor d'Al-.1.304 páginas</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>brasil-colonia-de-banqueiros-gustavo-barroso-original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brasil Colonia de Banqueiros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustavo Barroso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historia do Brasil &amp; Portugal</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>gustavo-barroso-judaismo-maconaria-e-comunismo-1937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judaísmo, Maçonaria E Comunismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['jews', 'freemasonry', 'portugal', 'bolshevism', 'communism', 'protocols of zion', 'NWO']</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>os-protocolos-dos-sabios-de-siao-gustavo-barroso-1936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Protocolos Dos Sábios De Sião</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['jews', 'zionism', 'NWO', 'protocols of zion']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check this link for the complete content about the Protocols of Zion:https://archive.org/details/the-protocols-of-the-learned-elders-of-zion-everything-you-need-to-knowCheck the channel for further content</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>reflexoes-de-um-bode-1937-gustavo-barroso-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflexões de um Bode</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>judaismo-maconaria-e-comunismo-gustavo-barroso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judaísmo, Maçonaria e Comunismo</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>a-historia-secreta-do-brasil-vol.-1-gustavo-barroso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A História Secreta do Brasil (Volume I)</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>a-historia-secreta-do-brasil-vol.-2-gustavo-barroso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A História Secreta do Brasil (Volume II)</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>a-historia-secreta-do-brasil-vol.-3-gustavo-barroso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A História Secreta do Brasil (Volume III)</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>a-historia-secreta-do-brasil-vol.-4-gustavo-barroso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A História Secreta do Brasil (Volume IV)</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>a-historia-secreta-do-brasil-vol.-5-gustavo-barroso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A História Secreta do Brasil (Volume V)</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>a-historia-secreta-do-brasil-vol.-6-gustavo-barroso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A História Secreta do Brasil (Volume VI)</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>a-sinagoga-paulista-gustavo-barroso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Sinagoga Paulista</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>a-maconaria-seita-judaica-l.-bertrand-traducao-g.-barroso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Maçonaria Seita Judaica</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>000018293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Maçonaria e os Jesuítas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dom Vital</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>o-bispo-de-olinda-e-os-seos-accusadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Bispo de Olinda e os seos accusadores no tribunal do bom senso, ou exame do aviso de 27 de setembro e da denuncia de 10 de outubro, e reflexôes acerca das relações entre a igreja e o estado</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>os-judeus-no-brasil-solidonio-leite-filho-z-library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Judeus No Brasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solidônio Leite Filho</t>
+  </si>
+  <si>
+    <t>judeus</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>084</t>
+  </si>
+  <si>
+    <t>os-cristaos-novos-povoamento-e-conquista-do-solo-brasileiro-1530-1680-jose-gonca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Cristãos Novos Povoamento E Conquista Do Solo Brasileiro ( 1530 1680) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Gonçalves Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">judeus cristãos novos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infiltração e invasão do Brasil.</t>
+  </si>
+  <si>
+    <t>os-magnatas-do-trafico-negreiro-seculos-xvi-e-xvii-jose-goncalves-salvador-z-library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Magnatas Do Tráfico Negreiro Séculos XVI E XVII </t>
+  </si>
+  <si>
+    <t xml:space="preserve">escravidão tráfico vitimização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conheça seus inimigos. Conluio entre judeus e negros contra os brancos.</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>a-saga-dos-cristaos-novos-na-paraiba-zilma-ferreira-pinto-z-library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Saga Dos Cristãos Novos Na Paraíba </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zilma Ferreira Pinto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">judeus cripto-judeus conspiração</t>
+  </si>
+  <si>
     <t>048</t>
   </si>
   <si>
     <t>inquisicao-rol-dos-culpados-fontes-para-a-historia-do-brasil-sec.-xviii-anita-novinsky-z-library</t>
   </si>
   <si>
-    <t xml:space="preserve">Inquisição Rol Dos Culpados Fontes Para A História Do Brasil (séc. XVIII) ( Anita Novinsky) ( Z Library)</t>
-  </si>
-  <si>
-    <t>igor.mueller@tutanota.com</t>
+    <t xml:space="preserve">Inquisição Rol Dos Culpados Fontes Para A História Do Brasil (séc. XVIII) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anita Novinsky</t>
   </si>
   <si>
     <t>inquisição</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-11-06 21:19:29</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lista negra.</t>
   </si>
   <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>cristandade-positiva-no-terceiro-imprio-germnico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristandade Positiva No Terceiro Imprio Germnico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['booksbylanguage_portuguese', 'booksbylanguage']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristandade Cristianismo Terceiro Reich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-10-24 11:56:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Igor von Mueller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primeira tradução para o português da visão oficial da religião no Terceiro Império Germânico</t>
-  </si>
-  <si>
-    <t>089</t>
-  </si>
-  <si>
-    <t>perguntas-e-respostas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perguntas e Respostas sobre o Nacional-Socialismo</t>
-  </si>
-  <si>
-    <t>Nacional-Socialismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-10-29 11:18:38</t>
-  </si>
-  <si>
-    <t>2021-10-27</t>
-  </si>
-  <si>
-    <t>93.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joseph Goebbels</t>
-  </si>
-  <si>
-    <t>096</t>
-  </si>
-  <si>
-    <t>roma-contra-judeia-por-eduardo-velasco-traduzido-para-o-portugues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roma Contra Judeia Por Eduardo Velasco Traduzido Para O Português</t>
-  </si>
-  <si>
-    <t>opensource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roma judeia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-15 00:14:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Judea delenda est</t>
-  </si>
-  <si>
-    <t>086</t>
-  </si>
-  <si>
-    <t>os-judeus-no-brasil-solidonio-leite-filho-z-library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os Judeus No Brasil ( Solidônio Leite Filho) ( Z Library)</t>
-  </si>
-  <si>
-    <t>judeus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-06 21:42:58</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>666</t>
-  </si>
-  <si>
-    <t>081</t>
-  </si>
-  <si>
-    <t>o-problema-eugenico-no-brasil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Problema Eugênico No Brasil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renato Ferraz Kehl eugenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-12 14:48:29</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>1488</t>
-  </si>
-  <si>
-    <t>082</t>
-  </si>
-  <si>
-    <t>o-sexo-segundo-o-nacional-socialismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Sexo Segundo O Nacional Socialismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-08 01:07:56</t>
-  </si>
-  <si>
-    <t>084</t>
-  </si>
-  <si>
-    <t>os-cristaos-novos-povoamento-e-conquista-do-solo-brasileiro-1530-1680-jose-gonca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os Cristãos Novos Povoamento E Conquista Do Solo Brasileiro ( 1530 1680) ( José Gonçalves Salvador) ( Z Library)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">judeus cristãos novos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-19 17:24:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infiltração e invasão do Brasil.</t>
-  </si>
-  <si>
-    <t>085</t>
-  </si>
-  <si>
-    <t>os-genocidas-do-seculo-xx-sergio-oliveira-z-library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os Genocidas Do Século XX ( Sergio Oliveira) ( Z Library)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">judeus genocidas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-19 17:23:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conheça seu inimigo.</t>
-  </si>
-  <si>
-    <t>087</t>
-  </si>
-  <si>
-    <t>os-magnatas-do-trafico-negreiro-seculos-xvi-e-xvii-jose-goncalves-salvador-z-library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os Magnatas Do Tráfico Negreiro Séculos XVI E XVII ( José Gonçalves Salvador) ( Z Library)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">escravidão tráfico vitimização</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-19 17:24:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conheça seus inimigos. Conluio entre judeus e negros contra os brancos.</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>a-saga-dos-cristaos-novos-na-paraiba-zilma-ferreira-pinto-z-library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Saga Dos Cristãos Novos Na Paraíba ( Zilma Ferreira Pinto) ( Z Library)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">judeus cripto-judeus conspiração</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-19 17:33:44</t>
-  </si>
-  <si>
-    <t>031</t>
-  </si>
-  <si>
-    <t>eugenia-e-medicina-social-problemas-da-vida-renato-ferraz-kehl-z-library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eugenia E Medicina Social ( Problemas Da Vida) ( Renato Ferraz Kehl) ( Z Library)</t>
-  </si>
-  <si>
-    <t>eugenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-04 15:35:07</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A solução para o Brasil.</t>
-  </si>
-  <si>
-    <t>032</t>
-  </si>
-  <si>
-    <t>eugenia-negativa-psiquiatria-e-catolicismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eugenia 'negativa', Psiquiatria E Catolicismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eugenia psiquiatria catolicismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-15 00:38:38</t>
-  </si>
-  <si>
-    <t>Eugenia</t>
-  </si>
-  <si>
-    <t>bub_gb_6d0_7XDSscgC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Historia da prouincia sancta Cruz a qui vulgarmente chamamos Brasil feita por Pero de Magalhaens de Gandauo, dirigida ao muito illustre senhor dom Lionis Pereira gouernador que foy di Malaca &amp; das mais partes do sul na India </t>
-  </si>
-  <si>
-    <t>1576</t>
-  </si>
-  <si>
-    <t>europeanlibraries</t>
-  </si>
-  <si>
-    <t>tools.bub@tools.wmflabs.org</t>
-  </si>
-  <si>
-    <t>bub_upload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-01-15 19:03:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro : de Magalhaens de Gandavo</t>
-  </si>
-  <si>
-    <t>or298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diário da Navegação da  Armada que Foi a Terra do Brasil Em 1530 Sob a Capitania-Mor de Martim Affonso de Souza Escripto por seu irmão Pero Lopes de Souza Publicado por  Francisco Adolfo de Varnhagen Lisboa, Typographia da Socieadade Propagadora dos Conhecimentos Úteis 1839</t>
-  </si>
-  <si>
-    <t>1530</t>
-  </si>
-  <si>
-    <t>suiewendhausen@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Diário da Navegação', 'da  Armada que Foi a Terra do Brasil', 'Em 1530', 'Sob a Capitania-Mor de Martim Affonso de Souza', 'Escripto por seu irmão Pero Lopes de Souza', 'Publicado por  Francisco Adolfo de Varnhagen Lisboa', 'Nau Capitânea', 'Nau San Miguel', 'Galeão São Vicente', 'Caravela Rosa e Caravela Princesa  Dentre as 400 pessoas embarcadas nestes navios', 'poderemos somente mencionar', 'Jorge Pires']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-21 19:55:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pero Lopes de Souza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://objdigital.bn.br/objdigital2/acervo_digital/div_obrasraras/or298/or298.pdfDiário da Navegação da Armada que Foi a Terra do BrasilEm 1530 Sob a Capitania-Morde Martim Affonso de SouzaEscripto por seu irmãoPero Lopes de SouzaPublicado por Francisco Adolfo de VarnhagenLisboa, Typographia da Socieadade Propagadora dos Conhecimentos Úteis1839Nau Capitânea, Nau San Miguel, Galeão São Vicente, Caravela Rosa e Caravela PrincesaDentre as 400 pessoas embarcadas nestes navios, poderemos somente mencionar, Jorge Piresobjdigital.bn.br/objdigital2/acervo_digital/div_obrasraras/or298/or298.pdfviar a Portugal, e a seu irmão encarregou do cominan- ... c. p. 243, e um Nobiliário MS» ... tins Ferreira; Pedro Collaço; Jorge Pires; Heitor d'Al-.1.304 páginas</t>
+    <t>2res-1199-p-0000-obra-completa-t-24-c-r-0150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doutrina catholica para instrucçaõ e cõfirmacaõ dos fieis e extincçaõ das seitas supersticiosas e em particular do Judaismo - Fernando Ximenes de Aragão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando Ximenes de Aragão</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>2sc-5517-p-0000-capa-capa-t-24-c-r-0150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breve discurso contra a heretica perfidia do iudaismo: continuada nos presentes apostatas de nossa Santa Fe, com o que conuem a expulsao dos delinquentes nella dos Reynos de Sua Magestade, co[m] suas molheres [et] filhos, conforme a Escriptura Sagrada, Santos Padres, Direito Civil, [et] Canonico, [et] muitos dos politicos - Vicente da Costa Matos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vicente da Costa Matos</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>a-propaganda-de-atrocidades-e-uma-propaganda-de-mentiras-sergio-de-oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Propaganda de Atrocidades é uma Propaganda de Mentiras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sérgio Oliveira</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>o-cristianismo-em-xeque-sergio-oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Cristianismo em Xeque</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>o-livro-branco-sobre-a-conspiracao-mundial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Livro Branco sobre a Conspiração Mundial </t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>o-massacre-de-katyn-sergio-oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Massacre de Katyn</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>sionismo-x-revisionismo-fantasia-x-realidade-sergio-oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sionismo X Revisionismo, Fantasia X Realidade</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>a-face-oculta-do-sacramento-sergio-oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Face Oculta do Sacramento</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>hitler-culpado-ou-inocente-sergio-oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitler Culpado ou Inocente?</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>discurso-em-defesa-da-liberdade-de-expressao-sergio-oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discurso em Defesa da Liberdade de Expressão</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>getulio-vargas-depoe-sergio-oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getúlio Vargas Depõe: O Brasil na Segunda Guerra Mundial</t>
   </si>
 </sst>
 </file>
@@ -9369,7 +10376,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -9380,6 +10387,25 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
   </cellXfs>
@@ -41398,30 +42424,31 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col bestFit="1" min="1" max="1" width="5.57421875"/>
-    <col customWidth="1" min="2" max="2" width="14.140625"/>
-    <col customWidth="1" min="3" max="3" width="86.8515625"/>
-    <col bestFit="1" min="4" max="4" width="20.7109375"/>
-    <col bestFit="1" min="5" max="5" width="10.8515625"/>
-    <col bestFit="1" min="6" max="6" width="24.7109375"/>
-    <col bestFit="1" min="7" max="7" width="8.8515625"/>
-    <col bestFit="1" min="8" max="8" width="9.28125"/>
-    <col bestFit="1" min="9" max="10" width="17.421875"/>
-    <col bestFit="1" min="11" max="11" width="4.7109375"/>
-    <col bestFit="1" min="12" max="12" width="7.140625"/>
-    <col bestFit="1" min="13" max="13" width="22.7109375"/>
-    <col bestFit="1" min="14" max="14" width="3.7109375"/>
-    <col bestFit="1" min="15" max="15" width="10.7109375"/>
+    <col customWidth="1" min="2" max="2" width="14.7109375"/>
+    <col customWidth="1" min="3" max="3" width="29.7109375"/>
+    <col bestFit="1" min="4" max="4" width="31.421875"/>
+    <col bestFit="1" min="5" max="5" width="20.7109375"/>
+    <col bestFit="1" min="6" max="6" width="10.8515625"/>
+    <col bestFit="1" min="7" max="7" width="28.140625"/>
+    <col bestFit="1" min="8" max="8" width="10.57421875"/>
+    <col bestFit="1" min="9" max="9" width="17.57421875"/>
+    <col bestFit="1" min="10" max="11" width="17.421875"/>
+    <col bestFit="1" min="12" max="12" width="4.7109375"/>
+    <col bestFit="1" min="13" max="13" width="18.421875"/>
+    <col bestFit="1" min="14" max="14" width="4.57421875"/>
+    <col bestFit="1" min="15" max="15" width="9.00390625"/>
+    <col bestFit="1" min="16" max="16" width="17.57421875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -41431,646 +42458,1021 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="14.25">
-      <c r="A2" s="3" t="s">
+    <row r="2">
+      <c r="A2" s="5" t="s">
         <v>2994</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2995</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>2996</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2862</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>2997</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>2998</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>2997</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>2863</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>2998</v>
+        <v>2864</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>2999</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>2999</v>
-      </c>
-      <c r="K2" s="3"/>
+        <v>3000</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>3000</v>
+      </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>3000</v>
-      </c>
-      <c r="O2" s="3" t="s">
+        <v>2868</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
         <v>3001</v>
       </c>
-    </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3002</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" t="s">
         <v>3003</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>2997</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>3004</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>3004</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>2868</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
         <v>3005</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>2997</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>3006</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>3007</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>3007</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>3008</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>3008</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>2868</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
         <v>3009</v>
       </c>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>3010</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C5" t="s">
         <v>3011</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>2997</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>3012</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>3005</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="K5" s="3" t="s">
+        <v>3012</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>2997</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>3013</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>3014</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>3014</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>3015</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>3008</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>3016</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="K6" s="3" t="s">
+        <v>3016</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
         <v>3017</v>
       </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>3018</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C7" t="s">
         <v>3019</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>2997</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>3020</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="K7" s="3" t="s">
+        <v>3020</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
         <v>3021</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>3022</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3023</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>2997</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>3022</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>3023</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>3023</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
-        <v>1903</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>3024</v>
       </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="3" t="s">
+      <c r="K8" s="3" t="s">
+        <v>3024</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
         <v>3025</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>3026</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C9" t="s">
         <v>3027</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>2862</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>2997</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>3028</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="K9" s="3" t="s">
+        <v>3028</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
         <v>3029</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>3029</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
-        <v>962</v>
-      </c>
-      <c r="N6" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>3030</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="C10" t="s">
         <v>3031</v>
       </c>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>2997</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>3032</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="K10" s="3" t="s">
+        <v>3032</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
         <v>3033</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>3034</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>3021</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>2997</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="C15" t="s">
         <v>3035</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>3036</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>3036</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
-        <v>3037</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>3038</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="3" t="s">
-        <v>3039</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>3040</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>3041</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>3021</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>2997</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3038</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3042</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3042</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="3" t="s">
-        <v>3043</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>3044</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>3045</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>2862</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>2997</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3046</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3047</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3047</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3" t="s">
-        <v>3037</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>2409</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>3048</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="3" t="s">
-        <v>3049</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>3050</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>3051</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>2862</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>2997</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3052</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3053</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3" t="s">
-        <v>2409</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>3054</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="3" t="s">
-        <v>3055</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>3056</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>3057</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>2862</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>2997</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>3058</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>3059</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>3059</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3" t="s">
-        <v>2409</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>2915</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>3060</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="A12" s="3" t="s">
-        <v>3061</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>3062</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>3063</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>2862</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>2997</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3064</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3065</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3065</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3" t="s">
-        <v>1909</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3030</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>3048</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="3" t="s">
-        <v>3066</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>3067</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>3068</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>2862</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>2997</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>3069</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>3070</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>3070</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>3071</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>3072</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="A14" s="3" t="s">
-        <v>3073</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>3074</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>3075</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>3021</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>2997</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3076</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3077</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3077</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3078</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="A15" s="3" t="s">
-        <v>2994</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>2995</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>2996</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>2862</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>21</v>
+        <v>2998</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>2997</v>
+        <v>21</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>23</v>
+        <v>2863</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>2998</v>
+        <v>2864</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>2999</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>2999</v>
-      </c>
-      <c r="K15" s="3"/>
+        <v>3037</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>3037</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>3000</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>3001</v>
+        <v>2868</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3040</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>3041</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>3041</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>2868</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>3042</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3044</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>3045</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>3045</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>3047</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3048</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3049</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>3049</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3052</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>3053</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>3053</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>3055</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3056</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3057</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>3057</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>3059</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3060</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3061</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3061</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3" t="s">
+        <v>2868</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>3063</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3065</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>3065</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>3067</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3068</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>3069</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>3069</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>3071</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3072</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3073</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>3073</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>3075</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3076</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>3077</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>3077</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>3079</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3080</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>3081</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>3081</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>3082</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3083</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>3084</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>3084</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3087</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>3088</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>3088</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3" t="s">
+        <v>2999</v>
       </c>
     </row>
   </sheetData>
@@ -42084,15 +43486,1422 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" min="1" max="1" width="5.57421875"/>
+    <col customWidth="1" min="2" max="2" width="14.140625"/>
+    <col customWidth="1" min="3" max="3" width="50.421875"/>
+    <col customWidth="1" min="4" max="4" width="23.7109375"/>
+    <col bestFit="1" min="5" max="5" width="20.7109375"/>
+    <col customWidth="1" min="6" max="6" width="18.140625"/>
+    <col bestFit="1" min="7" max="7" width="24.7109375"/>
+    <col customWidth="1" min="8" max="8" width="12.8515625"/>
+    <col bestFit="1" min="9" max="9" width="10.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="3" t="s">
+        <v>3089</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3091</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3092</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="3" t="s">
+        <v>3094</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="3" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3098</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3092</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="3" t="s">
+        <v>3094</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="3" t="s">
+        <v>3100</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3102</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3103</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="3" t="s">
+        <v>3094</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="3" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3105</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3106</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3107</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="3" t="s">
+        <v>3094</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="5" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3111</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3112</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="3" t="s">
+        <v>3113</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>3114</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="3" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3116</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>3117</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>3118</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="3" t="s">
+        <v>3094</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="3" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>3122</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="3" t="s">
+        <v>3094</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="3" t="s">
+        <v>3125</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>3127</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="3" t="s">
+        <v>3094</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="E10" s="6"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="E11" s="3"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" ht="14.25"/>
+    <row r="13" ht="14.25">
+      <c r="E13" s="6"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="E14" s="3"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="5" t="s">
+        <v>3130</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>3131</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>3132</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="3" t="s">
+        <v>3134</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3135</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="5" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>3137</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>3138</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3139</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="3" t="s">
+        <v>3140</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="5" t="s">
+        <v>3142</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>3143</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>3144</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3145</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="3" t="s">
+        <v>3146</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>3147</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>3148</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" ht="14.25"/>
+    <row r="20" ht="14.25">
+      <c r="A20" s="5" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>3153</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>3154</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="5" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>3157</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>3158</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3159</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>3154</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="5" t="s">
+        <v>3161</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>3162</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>3163</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>3164</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>3154</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" s="5" t="s">
+        <v>3166</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>3167</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>3168</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>3154</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="5" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>3172</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>3173</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>3154</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" s="5" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>3176</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>3177</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>3178</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>3154</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="5" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>3181</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>3182</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3183</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>3154</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25"/>
+    <row r="28" ht="14.25">
+      <c r="A28" s="5" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>3186</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>3187</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>3189</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="5" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>3192</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>3193</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>3194</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>3189</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3195</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31" s="5" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3198</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>3199</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>3200</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" s="5" t="s">
+        <v>3201</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3203</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>3199</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>3200</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" s="5" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3206</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>3199</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>3200</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="5" t="s">
+        <v>3207</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3209</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>3199</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>3200</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="E35" s="3"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="E36" s="3"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" ht="14.25"/>
+    <row r="39" ht="14.25">
+      <c r="A39" s="5" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>3212</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>3214</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40" s="5" t="s">
+        <v>3215</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>3216</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>3217</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>3218</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>3214</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" s="5" t="s">
+        <v>3219</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>3221</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>3222</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3" t="s">
+        <v>3214</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42" s="5" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>3224</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>3225</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>3214</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43" s="5" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>3228</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>3229</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3" t="s">
+        <v>3214</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45" s="5" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>3231</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>3232</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>3233</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F45" t="s">
+        <v>3234</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3113</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46" s="5" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>3236</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>3237</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>3233</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3234</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>3113</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47" s="5" t="s">
+        <v>3238</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>3239</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>3240</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3234</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3214</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" s="5" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>3242</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>3243</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>3244</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3234</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3113</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3245</v>
+      </c>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" ht="14.25"/>
+    <row r="50" ht="14.25">
+      <c r="A50" s="5" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>3247</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3248</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>3249</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>3250</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>3113</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>3251</v>
+      </c>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" s="5" t="s">
+        <v>3252</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3254</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>3250</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>3113</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52" s="5" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>3257</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3258</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3250</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3113</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" s="5" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>3260</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>3261</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>3250</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>3214</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" s="5" t="s">
+        <v>3262</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>3263</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>3264</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>3250</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>3113</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="A55" s="5" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>3266</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3267</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>3268</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>3250</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>3113</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="A56" s="5" t="s">
+        <v>3269</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>3270</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3271</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>3268</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>3250</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>3113</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25"/>
+    <row r="58" ht="14.25">
+      <c r="A58" s="5" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>3273</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3274</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>3275</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>3276</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3113</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="A59" s="5" t="s">
+        <v>3277</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>3279</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>3280</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F59" t="s">
+        <v>3276</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3113</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="A60" s="5" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>3282</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>3283</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>3145</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>3276</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>3113</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61" s="10" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>3285</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>3286</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>3287</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>3276</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>3214</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="A62" s="5" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>3289</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>3290</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>3291</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>3276</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25"/>
+    <row r="64" ht="14.25"/>
+    <row r="65" ht="14.25"/>
+    <row r="66" ht="14.25">
+      <c r="A66" s="5" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3294</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>3295</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F66" t="s">
+        <v>3296</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3113</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>3294</v>
+      </c>
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="A67" s="5" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>3298</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>3299</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>3300</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>3296</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>3113</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>3301</v>
+      </c>
+      <c r="J67" s="3"/>
+    </row>
+    <row r="69" ht="14.25"/>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="5.57421875"/>
-    <col customWidth="1" min="3" max="3" width="109.140625"/>
-    <col customWidth="1" min="4" max="4" width="14.00390625"/>
+    <col customWidth="1" min="3" max="3" width="44.8515625"/>
+    <col customWidth="1" min="4" max="4" width="29.140625"/>
+    <col customWidth="1" min="5" max="5" width="14.00390625"/>
+    <col customWidth="1" min="6" max="6" width="27.8515625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -42106,13 +44915,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -42124,21 +44933,6 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -42147,154 +44941,1020 @@
         <v>397</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3079</v>
+        <v>3302</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3080</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3081</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3082</v>
+        <v>3303</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3304</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3305</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>21</v>
+        <v>3306</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>3083</v>
+        <v>3307</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>3084</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>3085</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>3085</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>3086</v>
-      </c>
+        <v>3308</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
-        <v>3081</v>
-      </c>
+      <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>397</v>
-      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>3079</v>
+        <v>3309</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3080</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3081</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3082</v>
+        <v>3310</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3311</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3312</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>3313</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>3083</v>
+        <v>3314</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>3084</v>
+        <v>3315</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>3085</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>3085</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>3086</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
-        <v>3081</v>
-      </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="D4" s="3"/>
+        <v>539</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>3316</v>
+      </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="5" t="s">
+        <v>3317</v>
+      </c>
       <c r="B5" s="3" t="s">
-        <v>3087</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>3088</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3089</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>3021</v>
+        <v>3318</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3319</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3320</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>3321</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>3090</v>
+        <v>2863</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>23</v>
+        <v>2864</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>3091</v>
+        <v>2869</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>3092</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>3092</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>3093</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>3089</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" s="4" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="5" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3323</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>3324</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3320</v>
+      </c>
+      <c r="E6">
+        <v>1937</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>3189</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>3325</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="5" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3327</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>3328</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>3320</v>
+      </c>
+      <c r="E7">
+        <v>1936</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>3189</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>3329</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="5" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3332</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>3333</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3320</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="5" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3335</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>3336</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3320</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="5" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3338</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>3339</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3320</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="5" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>3341</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>3342</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3320</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>2873</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="5" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>3344</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>3345</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>3320</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>2873</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="5" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>3347</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>3348</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3320</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>2873</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="5" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>3350</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>3351</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3320</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>2873</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="5" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>3353</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>3354</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3320</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>2873</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="5" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>3357</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3320</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>2873</v>
+      </c>
+      <c r="K16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="5" t="s">
+        <v>3358</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>3359</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>3360</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3320</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25"/>
+    <row r="19" ht="14.25"/>
+    <row r="20" ht="14.25">
+      <c r="A20" s="5" t="s">
+        <v>3361</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>3362</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3363</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>3364</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="5" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3367</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3364</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25"/>
+    <row r="23" ht="14.25"/>
+    <row r="24" ht="14.25"/>
+    <row r="25" ht="14.25">
+      <c r="A25" s="5" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>3369</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3370</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>3371</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>3321</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>3094</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>3372</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25"/>
+    <row r="27" ht="14.25">
+      <c r="A27" s="3" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>3375</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>3376</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>3377</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>3094</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>3378</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="3" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>3380</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>3381</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>3377</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>3094</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>3382</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25"/>
+    <row r="30" ht="14.25"/>
+    <row r="31" ht="14.25"/>
+    <row r="32" ht="14.25"/>
+    <row r="33" ht="14.25">
+      <c r="A33" s="5" t="s">
+        <v>3384</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>3385</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3386</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>3387</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>3321</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>3094</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>3388</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="3" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>3390</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>3391</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>3392</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>3094</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>3393</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25"/>
+    <row r="37" ht="14.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="3" t="s">
+        <v>3395</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>3397</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" s="5" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>3399</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>3400</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>3401</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25"/>
+    <row r="40" ht="14.25"/>
+    <row r="41" ht="14.25">
+      <c r="A41" s="5" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>3403</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>3404</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42" s="5" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>3407</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>3408</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43" s="5" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>3410</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>3411</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="A44" s="5" t="s">
+        <v>3412</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>3413</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>3414</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45" s="5" t="s">
+        <v>3415</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>3416</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3417</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46" s="5" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3420</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47" s="5" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>3422</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3423</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" s="5" t="s">
+        <v>3424</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>3425</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3426</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" s="5" t="s">
+        <v>3427</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3429</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>2869</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="S5"/>
+    <hyperlink r:id="rId1" ref="N3"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -42303,7 +45963,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">

--- a/Selected_Downloads.xlsx
+++ b/Selected_Downloads.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3430" uniqueCount="3430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3558" uniqueCount="3558">
   <si>
     <t>Index</t>
   </si>
@@ -9020,9 +9020,6 @@
     <t xml:space="preserve">Teologia Tradicional</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-31 15:17:33</t>
-  </si>
-  <si>
     <t>042</t>
   </si>
   <si>
@@ -9032,9 +9029,6 @@
     <t xml:space="preserve">Bíblia Sagrada (Volume VI)</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-31 16:18:23</t>
-  </si>
-  <si>
     <t>063</t>
   </si>
   <si>
@@ -9044,9 +9038,6 @@
     <t xml:space="preserve">Bíblia Sagrada (Volume XV)</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-31 20:39:59</t>
-  </si>
-  <si>
     <t>066</t>
   </si>
   <si>
@@ -9056,9 +9047,6 @@
     <t xml:space="preserve">Bíblia Sagrada (Volume XVI)</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-31 20:43:21</t>
-  </si>
-  <si>
     <t>067</t>
   </si>
   <si>
@@ -9068,9 +9056,6 @@
     <t xml:space="preserve">Bíblia Sagrada (Volume XVII)</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-31 22:51:18</t>
-  </si>
-  <si>
     <t>090</t>
   </si>
   <si>
@@ -9080,9 +9065,6 @@
     <t xml:space="preserve">Bíblia Sagrada (Volume I)</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-31 15:34:43</t>
-  </si>
-  <si>
     <t>094</t>
   </si>
   <si>
@@ -9092,9 +9074,6 @@
     <t xml:space="preserve">Bíblia Sagrada (Volume II)</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-31 15:13:06</t>
-  </si>
-  <si>
     <t>099</t>
   </si>
   <si>
@@ -9104,9 +9083,6 @@
     <t xml:space="preserve">Bíblia Sagrada (Volume III)</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-31 15:19:28</t>
-  </si>
-  <si>
     <t>104</t>
   </si>
   <si>
@@ -9116,9 +9092,6 @@
     <t xml:space="preserve">Bíblia Sagrada (Volume IV)</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-31 15:12:46</t>
-  </si>
-  <si>
     <t>038</t>
   </si>
   <si>
@@ -9131,9 +9104,6 @@
     <t xml:space="preserve">São Tomás de Aquino</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-30 21:27:04</t>
-  </si>
-  <si>
     <t>061</t>
   </si>
   <si>
@@ -9143,9 +9113,6 @@
     <t xml:space="preserve">Suma Contra os Gentios (Volume 1, Livro 2)</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-30 21:40:46</t>
-  </si>
-  <si>
     <t>076</t>
   </si>
   <si>
@@ -9155,9 +9122,6 @@
     <t xml:space="preserve">Suma Contra os Gentios (Volume 2, Livro 3)</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-30 21:51:26</t>
-  </si>
-  <si>
     <t>081</t>
   </si>
   <si>
@@ -9167,9 +9131,6 @@
     <t xml:space="preserve">Suma Contra os Gentios (Volume 2, Livro 4)</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-30 22:11:07</t>
-  </si>
-  <si>
     <t>319</t>
   </si>
   <si>
@@ -9179,9 +9140,6 @@
     <t xml:space="preserve">Do Governo dos Judeus e De Regno</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-06-29 04:28:48</t>
-  </si>
-  <si>
     <t>393</t>
   </si>
   <si>
@@ -9191,9 +9149,6 @@
     <t xml:space="preserve">Suma Teológica (Volume 1)</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-31 07:38:12</t>
-  </si>
-  <si>
     <t>062</t>
   </si>
   <si>
@@ -9203,9 +9158,6 @@
     <t xml:space="preserve">Suma Teológica (Volume 2)</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-31 07:26:56</t>
-  </si>
-  <si>
     <t>077</t>
   </si>
   <si>
@@ -9215,9 +9167,6 @@
     <t xml:space="preserve">Suma Teológica (Volume 3)</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-31 07:17:57</t>
-  </si>
-  <si>
     <t>082</t>
   </si>
   <si>
@@ -9227,9 +9176,6 @@
     <t xml:space="preserve">Suma Teológica (Volume 4)</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-31 07:35:03</t>
-  </si>
-  <si>
     <t>087</t>
   </si>
   <si>
@@ -9239,9 +9185,6 @@
     <t xml:space="preserve">Suma Teológica (Volume 5)</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-31 07:32:16</t>
-  </si>
-  <si>
     <t>091</t>
   </si>
   <si>
@@ -9251,9 +9194,6 @@
     <t xml:space="preserve">Suma Teológica (Volume 6)</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-31 08:08:19</t>
-  </si>
-  <si>
     <t>095</t>
   </si>
   <si>
@@ -9263,18 +9203,12 @@
     <t xml:space="preserve">Suma Teológica (Volume 7)</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-31 08:21:37</t>
-  </si>
-  <si>
     <t>8.-santo-tomas-de-aquino-suma-teologica-vol.-viii-ed.-loyola</t>
   </si>
   <si>
     <t xml:space="preserve">Suma Teológica (Volume 8)</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-31 08:17:27</t>
-  </si>
-  <si>
     <t>105</t>
   </si>
   <si>
@@ -9284,7 +9218,463 @@
     <t xml:space="preserve">Suma Teológica (Volume 9)</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-07-31 08:42:42</t>
+    <t>cidade-de-deus-agostinho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cidade De Deus (Volume I)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santo Agostinho</t>
+  </si>
+  <si>
+    <t>a-cidade-de-deus-2-agostinho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Cidade De Deus (Volume II)</t>
+  </si>
+  <si>
+    <t>ireneu-de-liao-contra-as-heresia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contra as Heresias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santo Irineu de Lyon</t>
+  </si>
+  <si>
+    <t>p.-julio-maria-lombarde-balburdia-protestante-ou-respostas-a-diversos-ataques-co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balburdia Protestante, ou Respostas a Diversos Ataques Contra a Igreja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padre Julio Maria de Lombaerde</t>
+  </si>
+  <si>
+    <t>pe-julio-m-de-lombaerde-o-cristo-o-papa-e-a-igreja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Cristo, o Papa e a Igreja</t>
+  </si>
+  <si>
+    <t>pe-julio-m-de-lombaerde-o-fim-do-mundo-esta-proximo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Fim do Mundo Está Próximo?</t>
+  </si>
+  <si>
+    <t>pe-julio-ma-de-lombaerde-a-mulher-bendita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Mulher Bendita diante dos Ataques Protestantes: Respostas Irrefutáveis às Objeções Protestantes contra o Culto da Santíssima Virgem Maria</t>
+  </si>
+  <si>
+    <t>pe-julio-maria-o-diabo-lutero-e-o-protestantismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Diabo, Lutero e o Protestantismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padre Julio Maria De Lombaerde</t>
+  </si>
+  <si>
+    <t>pe.-julio-maria-de-lombaerde-luz-nas-trevas-respostas-irrefutaveis-as-objecoes-d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luz nas Trevas: Respostas Irrefutáveis às Objeções Protestantes</t>
+  </si>
+  <si>
+    <t>refutaodosp00mace_202006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refutação dos principios methafysicos, e moraes dos pedreiros livres illuminados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padre José Agostinho de Macedo</t>
+  </si>
+  <si>
+    <t>averdadeoupensa00macegoog_202006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A verdade, ou, Pensamentos filosoficos sobre os objectos mais importantes á religião, e ao estado</t>
+  </si>
+  <si>
+    <t>bestaesfolada00mace_202006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Besta Esfolada</t>
+  </si>
+  <si>
+    <t>objecoes_e_erros_protestantes_com_as_respectivas_respostas_irrefutaveis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objeções e Erros Protestantes</t>
+  </si>
+  <si>
+    <t>kb1004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sol Eucarístico e Trevas Protestantes</t>
+  </si>
+  <si>
+    <t>1988-a-quinta-coluna-no-setor-mineral-o-entreguismo-dos-minerios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Quinta-Coluna no Setor Mineral o Entreguismo dos Minérios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberto Gama e Silva</t>
+  </si>
+  <si>
+    <t>1991-olho-grande-na-amazonia-brasileira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olho Grande na Amazônia Brasileira</t>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>os-genocidas-do-seculo-xx-sergio-oliveira-z-library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Genocidas Do Século XX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergio Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/pol/ em Português</t>
+  </si>
+  <si>
+    <t>igor.mueller@tutanota.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conheça seu inimigo.</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>eugenia-e-medicina-social-problemas-da-vida-renato-ferraz-kehl-z-library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eugenia E Medicina Social ( Problemas Da Vida) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renato Ferraz Kehl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A solução para o Brasil.</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>eugenia-negativa-psiquiatria-e-catolicismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eugenia 'negativa', Psiquiatria E Catolicismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Wegner</t>
+  </si>
+  <si>
+    <t>Eugenia</t>
+  </si>
+  <si>
+    <t>o-problema-eugenico-no-brasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Problema Eugênico No Brasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Renato Ferraz Kehl</t>
+  </si>
+  <si>
+    <t>1488</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>a-propaganda-de-atrocidades-e-uma-propaganda-de-mentiras-sergio-de-oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Propaganda de Atrocidades é uma Propaganda de Mentiras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sérgio Oliveira</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>o-cristianismo-em-xeque-sergio-oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Cristianismo em Xeque</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>o-livro-branco-sobre-a-conspiracao-mundial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Livro Branco sobre a Conspiração Mundial </t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>o-massacre-de-katyn-sergio-oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Massacre de Katyn</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>sionismo-x-revisionismo-fantasia-x-realidade-sergio-oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sionismo X Revisionismo, Fantasia X Realidade</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>a-face-oculta-do-sacramento-sergio-oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Face Oculta do Sacramento</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>hitler-culpado-ou-inocente-sergio-oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitler Culpado ou Inocente?</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>discurso-em-defesa-da-liberdade-de-expressao-sergio-oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discurso em Defesa da Liberdade de Expressão</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>getulio-vargas-depoe-sergio-oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getúlio Vargas Depõe: O Brasil na Segunda Guerra Mundial</t>
+  </si>
+  <si>
+    <t>doc-go.-org-a-revolucao-gramscista-no-ocidente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Revolução Gramscista no Ocidente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sérgio Augusto de Avellar Coutinho</t>
+  </si>
+  <si>
+    <t>docslide.com.br_cadernos-da-liberdade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadernos da Liberdade</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>AConspiraodaReservaFederal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Conspiração da Reserva Federal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eustace Mullins</t>
+  </si>
+  <si>
+    <t>gyouness@fellow-me.pw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neste livro, Mullins argumentou que havia uma conspiração entre Paul Warburg, Edward Mandell House, Woodrow Wilson, JP Morgan, Benjamin Strong, Otto Kahn, a família Rockefeller, a família Rothschild e outros banqueiros europeus e americanos que resultaram na criação do Sistema da Reserva Federal dos EUA. Ele argumentou que o Federal Reserve Act de 1913 desafia o Artigo 1, Seção 8, Parágrafo 5 da Constituição dos Estados Unidos, criando um "banco central de emissão" para os Estados Unidos. Mullins prosseguiu afirmando que a Primeira Guerra Mundial, a Depressão Agrícola de 1920, a Grande Depressão de 1929 foram provocadas por interesses bancários internacionais, a fim de lucrar com o conflito e a instabilidade econômica. Mullins também citou a firme oposição de Thomas Jefferson ao estabelecimento de um banco central nos Estados Unidos.</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>DestruaoAcusador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destrua o Acusador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frederick Seelig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em Destrua o Acusador, Seelig sustenta que numa tentativa de obter a custódia de seus dois filhos que viviam com sua mãe "lésbica auto-admitida" e seus amigos homossexualmente degenerados que ele descobriu "fundos secretos homossexuais-comunistas" usados na Califórnia e nas eleições nacionais. Ele relata seu encarceramento injusto - ordenado pelos próprios irmãos Kennedy - na Penitenciária Federal do Centro Médico de Springfield, uma prisão cheia de tortura psiquiátrica comunista - tendo em consideração que na época, os doentes mentais não possuíam direitos e estavam completamente submetidos aos psiquiatras. Ao ser encarcerado, ele corria o risco de ser fisicamente e mentalmente destruído e por consequência das torturas morto como vários outros prisioneiros, porém, ele sobrevive e consegue ser libertado e expõe todas as torturas que foi submetido.</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>GuerraPsicolgicaComunista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guerra Psicológica Comunista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edward Hunter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neste livro, Edward Hunter expõe as técnicas de guerra psicológica comunista.SR. HUNTER: "Os inquisidores comunistas nos campos de prisioneiros de guerra dependiam, antes de mais nada, de um processo de seleção para fornecer-lhes os homens com maior probabilidade de sucumbir à lavagem cerebral. Eles escolheram os que consideravam mais úteis entre eles. isso era necessário, juntamente com uma completa desconsideração pela ética; nenhuma inteligência especial ... Eles basearam sua técnica principalmente no completo abandono da moralidade ".</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>ManualDeResistnciaBranca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual De Resistência Branca</t>
+  </si>
+  <si>
+    <t>Anon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Manual da Resistência Branca é um manual da supremacia branca. Ele promove a fundação de pequenas células supremacistas brancas independentes e é um manual de instrução sobre atividades ilegais, como fabricação de armas e terrorismo, além da violenta guerra de guerrilhas contra o governo.</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>OperaesDeLimpezatnica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operações de Limpeza Étnica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neste livro o autor fala sobre os problemas raciais no Estados Unidos que possivelmente levará a uma guerra racial, ele comenta e explica sobre as estratégias dessas operações com exemplos históricos.</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>UmaHistriaDoMeuPrivilgioBranco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma História do Meu Privilégio Branco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev. James Logsdon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma história sobre a família de James Logsdon e o privilégio branco.</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>segundaguerracivil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segunda Guerra Civil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas W. Chittum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Segunda Guerra Civil não é mais apenas um pesadelo, mas uma realidade vindoura. Forças sociais, políticas e econômicas estão separando os EUA e levando-a a uma guerra sangrenta que pode dividir a nação em vários países diferentes, divididos em linhas étnicas. Tumultos, gangues, milicias, taxas explosivas de criminalidade, imigração em massa, aumento do desemprego, salários em queda, são fatores que alimentam os incêndios da guerra.Analise com atenção essas tendências perigosas com o analista militar Tom Chittum na Segunda Guerra Civil. Aprenda por que os EUA estão tendo problemas, como sua guerra mortal - que ainda está começando - está se moldando e o que você pode fazer para se proteger e família.</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>de-poncins-leon-as-forcas-secretas-da-revolucao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As Forças Secretas Da Revolução (1937)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Léon de Poncins</t>
+  </si>
+  <si>
+    <t>joaosilva741339@outlook.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For most of the works from Leon de Poncins in French:https://archive.org/details/de-poncins-leon-la-mysterieuse-internationale-juiveCheck the channel for further content</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>henri-delassus-a-conjuracao-anti-crista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Conjuração Anti-cristã</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henri Delassus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the channel for further content</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>a-grande-substituicao-the-great-replacement-portuguese-translation_202311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Grande Substituição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wehrwolf Library</t>
+  </si>
+  <si>
+    <t>jake96696996@gmail.com</t>
+  </si>
+  <si>
+    <t>14/88</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>manual-de-campo-de-sangue-e-honra-blood-and-honor-field-manual-portuguese-translation_202309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual De Campo De Sangue E Honra</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>marco-para-cima-do-pais-march-up-country-by-harold-covington-portuguese-translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marche Para Cima Do País</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>pontos-chave-do-cerco-key-points-of-siege-james-mason-portuguese-translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pontos Chave Do Cerco</t>
   </si>
   <si>
     <t>013</t>
@@ -9299,10 +9689,7 @@
     <t xml:space="preserve">Igor von Mueller</t>
   </si>
   <si>
-    <t xml:space="preserve">/pol/ em Português</t>
-  </si>
-  <si>
-    <t>igor.mueller@tutanota.com</t>
+    <t xml:space="preserve">Literatura NatSoc</t>
   </si>
   <si>
     <t xml:space="preserve">Primeira tradução para o português da visão oficial da religião no Terceiro Império Germânico</t>
@@ -9320,6 +9707,432 @@
     <t xml:space="preserve">Joseph Goebbels</t>
   </si>
   <si>
+    <t>esses-malditos-nazistas-joseph-goebbels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esses Malditos Nazistas</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>ramonbauosexosegundoonacionalsocialismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Sexo Segundo O Nacional Socialismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramón Bau</t>
+  </si>
+  <si>
+    <t>raphaelborgy@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Sexo Segundo o Nacional Socialismo</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>bolchevismo-de-moises-a-lenin_202310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolchevismo De Moisés A Lenin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dietrich Eckart</t>
+  </si>
+  <si>
+    <t>jvm_mg@tuta.io</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>livro-completo-editado-v-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem é Nacional-Socialista?</t>
+  </si>
+  <si>
+    <t>Anônimo</t>
+  </si>
+  <si>
+    <t>a-economia-do-nacional-socialismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Economia do Nacional Socialismo</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>fundamentosdasabedoriahiperborea1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundamentos Da Sabedoria Hiperborea 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luiz Felipe Moyano</t>
+  </si>
+  <si>
+    <t>SchizoPosting</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>fundamentosdasabedoriahiperborea2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundamentos Da Sabedoria Hiperbórea 2</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>gerais-linhas-hiperborea-vol.-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiperbórea - Linhas Gerais</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>aatlantidaeoreinogigantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Atlântida E O Reino Dos Gigantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denis Saurat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Atlântida EO Reino Dos Gigantes</t>
+  </si>
+  <si>
+    <t>11-de-setembro-como-se-engana-a-humanidade-rene-bourbon-dalbuquerque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 de Setembro Como se engana a Humanidade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renê Bourbon D'Albuquerque</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>acortedeluciferottorahn.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Corte De Lucifer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otto Rahn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fascismo Exotérico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Corte de Lucifer Otto Rahn</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>miguelserranonaocelebraremosamortedosdeusesbrancos1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não Celebraremos A Morte Dos Deuses Brancos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel Serrano</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>miguelserranonsparaamericadosul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS Para America Do Sul</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>ns-para-a-america-do-sul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacional Socialismo, única solução para os povos da América do Sul</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>oultimoavatarversaofinal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Último Avatar Versão Final</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>ametafisicadosexojuliusevola_202002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Metafisica Do Sexo Julius Evola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julius Evola</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>imperialismopagao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imperialismo Pagao</t>
+  </si>
+  <si>
+    <t>osolnegrom.c.pereda_202002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Sol Negro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. C. Pereda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Sol Negro </t>
+  </si>
+  <si>
+    <t>omisteriodebelicenavillca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Misterio De Belicena Villca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luiz Felipe Moyano O Misterio de Belicena Villca</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>ojudeuinternacional_202002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Judeu Internacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry Ford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classico /pol/</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>ojudeunamusicaconvertido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Judeu Na Musica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard Wagner</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>dosjudeusesuasmentiras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dos Judeus E Suas Mentiras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martinho Lutero</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>mein-kampf-lux-edition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minha Luta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adolf Hitler</t>
+  </si>
+  <si>
+    <t>quatro-discursos-benito-mussolini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quatro Discursos sobre o Estado Corporativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benito Mussolini</t>
+  </si>
+  <si>
+    <t>mussolini-discursos-da-revolucao_202008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discursos Da Revolução - Benito Mussolini</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>o-estado-corporativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado Corporativo</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>siege-por-james-mason</t>
+  </si>
+  <si>
+    <t>Siege</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Mason</t>
+  </si>
+  <si>
+    <t>archiveaf@protonmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portuguese translation of Siege by James Mason</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>judeus_e_suas_mentiras_lutero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dos Judeus e Suas Mentiras  Martinho Lutero</t>
+  </si>
+  <si>
+    <t>welffhen@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Com esta publicação o leitor brasileiro tem o privilégio de travar conhecimento  –  pela  primeira  vez  em  língua  portuguesa  Dos Judeus e Suas Mentiras Martinho Lutero –,  com  esta polêmica obra do Reformador da Igreja, MARTIN LUTHER, ou Lutero,  datada de 1543.Este livreto  –  conforme definição do próprio Luther  –  apesar de esporadicamente citado, nunca esteve ao alcance dos brasileiros. Trata-se  de  uma  obra  “abafada”,  a  exemplo  de importantíssimas  edições  e reedições  trazidas a luz pela REVISÃO, em nosso país, e que forças do  obscurantismo, sob absurdas alegações, procuram manter escondidas nos   mais profundos escaninhos da História.A  presente  edição  de  um  escrito  com  mais  de  450  anos,  com termos  e expressões não usuais na língua alemã de hoje, foi traduzida ao  linguajar atual, sem perder a fidelidade do original  – em alemão  arcaico  com  letras  góticas  –  disponível  na  livraria  da   Universidade  de  Harvard, EUA, sob número catalográfico 1282.59.105. A  publicação desta obra se destina a  estudo e á pesquisa de uma época.   Certos  de  estarmos  contribuindo  para  a  ampliação  do   conhecimento  sobre  a  História,  passamos  a  palavra  ao  grande  Reformador. Com esta publicação o leitor brasileiro tem o privilégio de travar conhecimento  –  pela  primeira  vez  em  língua  portuguesa  –,  com  esta polêmica obra do Reformador da Igreja, MARTIN LUTHER, ou Lutero,  datada de 1543.Este livreto  –  conforme definição do próprio Luther  –  apesar de esporadicamente  citado, nunca esteve ao alcance dos brasileiros. Trata-se  de  uma   obra  “abafada”,  a  exemplo  de importantíssimas  edições  e reedições  trazidas a luz pela REVISÃO, em nosso país, e que forças do  obscurantismo, sob absurdas alegações, procuram manter escondidas nos   mais profundos escaninhos da História.A  presente  edição  de  um  escrito  com  mais  de  450  anos,  com termos  e expressões não usuais na língua alemã de hoje, foi traduzida ao  linguajar atual, sem perder a fidelidade do original  – em alemão  arcaico  com  letras  góticas  –  disponível  na  livraria  da   Universidade  de  Harvard, EUA, sob número catalográfico 1282.59.105. A  publicação desta obra se destina a  estudo e á pesquisa de uma época.   Certos  de  estarmos  contribuindo  para  a  ampliação  do   conhecimento  sobre  a  História,  passamos  a  palavra  ao  grande  Reformador.</t>
+  </si>
+  <si>
+    <t>4-circulari-si-manifeste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circulari Si Manifeste - Corneliu Zelea Codreanu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corneliu Zelea Codreanu</t>
+  </si>
+  <si>
+    <t>anotacoes-da-prisao-de-jilava-codreanu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anotações da Prisão de Jilava</t>
+  </si>
+  <si>
+    <t>uma-politica-nacional-oswald-mosley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma Política Nacional - Oswald Mosley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oswald Mosley</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>castan26e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Holocausto Judeu ou Alemão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siegfried Ellwanger Castan</t>
+  </si>
+  <si>
+    <t>Revisionismo</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>adestruicaodedresdenconvertido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Destruição De Dresden Convertido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Irving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Destruição de Dresden</t>
+  </si>
+  <si>
+    <t>o-livro-branco-alemao-sobre-os-antecedentes-da-guerra-com-a-uniao-sovietica-governo-alemao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Livro Branco Alemão sobre os Antecedentes da Guerra com a União Soviética</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governo Alemão</t>
+  </si>
+  <si>
+    <t>a-alemanha-luta-por...-razao-e-justica-servico-alemao-de-informacoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Alemanha Luta Por...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviço Alemão de Informações</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>cristianismo-positivo-no-terceiro-reich-cajus-fabricius-i-88khans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristianismo Positivo no Terceiro Reich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cajus Fabricius</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>hitler-e-a-igreja-a-mentira-do-atei-smo-de-hitler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitler e a Igreja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biblioteca Revelando O Oculto</t>
+  </si>
+  <si>
+    <t>a-verdade-proibida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Verdade Proibida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norman Finkelstein</t>
+  </si>
+  <si>
     <t>096</t>
   </si>
   <si>
@@ -9335,595 +10148,79 @@
     <t xml:space="preserve">Judea delenda est</t>
   </si>
   <si>
-    <t>o-problema-eugenico-no-brasil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Problema Eugênico No Brasil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Renato Ferraz Kehl</t>
-  </si>
-  <si>
-    <t>1488</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>ramonbauosexosegundoonacionalsocialismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Sexo Segundo O Nacional Socialismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramón Bau</t>
-  </si>
-  <si>
-    <t>raphaelborgy@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Sexo Segundo o Nacional Socialismo</t>
-  </si>
-  <si>
-    <t>085</t>
-  </si>
-  <si>
-    <t>os-genocidas-do-seculo-xx-sergio-oliveira-z-library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os Genocidas Do Século XX </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sergio Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conheça seu inimigo.</t>
-  </si>
-  <si>
-    <t>031</t>
-  </si>
-  <si>
-    <t>eugenia-e-medicina-social-problemas-da-vida-renato-ferraz-kehl-z-library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eugenia E Medicina Social ( Problemas Da Vida) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renato Ferraz Kehl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A solução para o Brasil.</t>
-  </si>
-  <si>
-    <t>032</t>
-  </si>
-  <si>
-    <t>eugenia-negativa-psiquiatria-e-catolicismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eugenia 'negativa', Psiquiatria E Catolicismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robert Wegner</t>
-  </si>
-  <si>
-    <t>Eugenia</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>blood-and-honor-field-manual-portuguese-translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sangue e Honra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White Nationalist Archive</t>
-  </si>
-  <si>
-    <t>jakewheeler762223@yahoo.com</t>
-  </si>
-  <si>
-    <t>14/88</t>
-  </si>
-  <si>
-    <t>387</t>
-  </si>
-  <si>
-    <t>siege-por-james-mason</t>
-  </si>
-  <si>
-    <t>Siege</t>
-  </si>
-  <si>
-    <t xml:space="preserve">James Mason</t>
-  </si>
-  <si>
-    <t>archiveaf@protonmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portuguese translation of Siege by James Mason</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>judeus_e_suas_mentiras_lutero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dos Judeus e Suas Mentiras  Martinho Lutero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martinho Lutero</t>
-  </si>
-  <si>
-    <t>welffhen@gmail.com</t>
-  </si>
-  <si>
-    <t>1543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editora Revisão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Com esta publicação o leitor brasileiro tem o privilégio de travar conhecimento  –  pela  primeira  vez  em  língua  portuguesa  Dos Judeus e Suas Mentiras Martinho Lutero –,  com  esta polêmica obra do Reformador da Igreja, MARTIN LUTHER, ou Lutero,  datada de 1543.Este livreto  –  conforme definição do próprio Luther  –  apesar de esporadicamente citado, nunca esteve ao alcance dos brasileiros. Trata-se  de  uma  obra  “abafada”,  a  exemplo  de importantíssimas  edições  e reedições  trazidas a luz pela REVISÃO, em nosso país, e que forças do  obscurantismo, sob absurdas alegações, procuram manter escondidas nos   mais profundos escaninhos da História.A  presente  edição  de  um  escrito  com  mais  de  450  anos,  com termos  e expressões não usuais na língua alemã de hoje, foi traduzida ao  linguajar atual, sem perder a fidelidade do original  – em alemão  arcaico  com  letras  góticas  –  disponível  na  livraria  da   Universidade  de  Harvard, EUA, sob número catalográfico 1282.59.105. A  publicação desta obra se destina a  estudo e á pesquisa de uma época.   Certos  de  estarmos  contribuindo  para  a  ampliação  do   conhecimento  sobre  a  História,  passamos  a  palavra  ao  grande  Reformador. Com esta publicação o leitor brasileiro tem o privilégio de travar conhecimento  –  pela  primeira  vez  em  língua  portuguesa  –,  com  esta polêmica obra do Reformador da Igreja, MARTIN LUTHER, ou Lutero,  datada de 1543.Este livreto  –  conforme definição do próprio Luther  –  apesar de esporadicamente  citado, nunca esteve ao alcance dos brasileiros. Trata-se  de  uma   obra  “abafada”,  a  exemplo  de importantíssimas  edições  e reedições  trazidas a luz pela REVISÃO, em nosso país, e que forças do  obscurantismo, sob absurdas alegações, procuram manter escondidas nos   mais profundos escaninhos da História.A  presente  edição  de  um  escrito  com  mais  de  450  anos,  com termos  e expressões não usuais na língua alemã de hoje, foi traduzida ao  linguajar atual, sem perder a fidelidade do original  – em alemão  arcaico  com  letras  góticas  –  disponível  na  livraria  da   Universidade  de  Harvard, EUA, sob número catalográfico 1282.59.105. A  publicação desta obra se destina a  estudo e á pesquisa de uma época.   Certos  de  estarmos  contribuindo  para  a  ampliação  do   conhecimento  sobre  a  História,  passamos  a  palavra  ao  grande  Reformador.</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>AConspiraodaReservaFederal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Conspiração da Reserva Federal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eustace Mullins</t>
-  </si>
-  <si>
-    <t>gyouness@fellow-me.pw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neste livro, Mullins argumentou que havia uma conspiração entre Paul Warburg, Edward Mandell House, Woodrow Wilson, JP Morgan, Benjamin Strong, Otto Kahn, a família Rockefeller, a família Rothschild e outros banqueiros europeus e americanos que resultaram na criação do Sistema da Reserva Federal dos EUA. Ele argumentou que o Federal Reserve Act de 1913 desafia o Artigo 1, Seção 8, Parágrafo 5 da Constituição dos Estados Unidos, criando um "banco central de emissão" para os Estados Unidos. Mullins prosseguiu afirmando que a Primeira Guerra Mundial, a Depressão Agrícola de 1920, a Grande Depressão de 1929 foram provocadas por interesses bancários internacionais, a fim de lucrar com o conflito e a instabilidade econômica. Mullins também citou a firme oposição de Thomas Jefferson ao estabelecimento de um banco central nos Estados Unidos.</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>DestruaoAcusador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destrua o Acusador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frederick Seelig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Em Destrua o Acusador, Seelig sustenta que numa tentativa de obter a custódia de seus dois filhos que viviam com sua mãe "lésbica auto-admitida" e seus amigos homossexualmente degenerados que ele descobriu "fundos secretos homossexuais-comunistas" usados na Califórnia e nas eleições nacionais. Ele relata seu encarceramento injusto - ordenado pelos próprios irmãos Kennedy - na Penitenciária Federal do Centro Médico de Springfield, uma prisão cheia de tortura psiquiátrica comunista - tendo em consideração que na época, os doentes mentais não possuíam direitos e estavam completamente submetidos aos psiquiatras. Ao ser encarcerado, ele corria o risco de ser fisicamente e mentalmente destruído e por consequência das torturas morto como vários outros prisioneiros, porém, ele sobrevive e consegue ser libertado e expõe todas as torturas que foi submetido.</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>GuerraPsicolgicaComunista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guerra Psicológica Comunista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edward Hunter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neste livro, Edward Hunter expõe as técnicas de guerra psicológica comunista.SR. HUNTER: "Os inquisidores comunistas nos campos de prisioneiros de guerra dependiam, antes de mais nada, de um processo de seleção para fornecer-lhes os homens com maior probabilidade de sucumbir à lavagem cerebral. Eles escolheram os que consideravam mais úteis entre eles. isso era necessário, juntamente com uma completa desconsideração pela ética; nenhuma inteligência especial ... Eles basearam sua técnica principalmente no completo abandono da moralidade ".</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>ManualDeResistnciaBranca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual De Resistência Branca</t>
-  </si>
-  <si>
-    <t>Anon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Manual da Resistência Branca é um manual da supremacia branca. Ele promove a fundação de pequenas células supremacistas brancas independentes e é um manual de instrução sobre atividades ilegais, como fabricação de armas e terrorismo, além da violenta guerra de guerrilhas contra o governo.</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>OperaesDeLimpezatnica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operações de Limpeza Étnica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neste livro o autor fala sobre os problemas raciais no Estados Unidos que possivelmente levará a uma guerra racial, ele comenta e explica sobre as estratégias dessas operações com exemplos históricos.</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>UmaHistriaDoMeuPrivilgioBranco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uma História do Meu Privilégio Branco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rev. James Logsdon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uma história sobre a família de James Logsdon e o privilégio branco.</t>
-  </si>
-  <si>
-    <t>382</t>
-  </si>
-  <si>
-    <t>segundaguerracivil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segunda Guerra Civil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas W. Chittum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Segunda Guerra Civil não é mais apenas um pesadelo, mas uma realidade vindoura. Forças sociais, políticas e econômicas estão separando os EUA e levando-a a uma guerra sangrenta que pode dividir a nação em vários países diferentes, divididos em linhas étnicas. Tumultos, gangues, milicias, taxas explosivas de criminalidade, imigração em massa, aumento do desemprego, salários em queda, são fatores que alimentam os incêndios da guerra.Analise com atenção essas tendências perigosas com o analista militar Tom Chittum na Segunda Guerra Civil. Aprenda por que os EUA estão tendo problemas, como sua guerra mortal - que ainda está começando - está se moldando e o que você pode fazer para se proteger e família.</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>de-poncins-leon-as-forcas-secretas-da-revolucao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As Forças Secretas Da Revolução (1937)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Léon de Poncins</t>
-  </si>
-  <si>
-    <t>joaosilva741339@outlook.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For most of the works from Leon de Poncins in French:https://archive.org/details/de-poncins-leon-la-mysterieuse-internationale-juiveCheck the channel for further content</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>henri-delassus-a-conjuracao-anti-crista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Conjuração Anti-cristã</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henri Delassus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the channel for further content</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>a-grande-substituicao-the-great-replacement-portuguese-translation_202311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Grande Substituição</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wehrwolf Library</t>
-  </si>
-  <si>
-    <t>jake96696996@gmail.com</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>manual-de-campo-de-sangue-e-honra-blood-and-honor-field-manual-portuguese-translation_202309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual De Campo De Sangue E Honra</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>marco-para-cima-do-pais-march-up-country-by-harold-covington-portuguese-translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marche Para Cima Do País</t>
-  </si>
-  <si>
-    <t>368</t>
-  </si>
-  <si>
-    <t>pontos-chave-do-cerco-key-points-of-siege-james-mason-portuguese-translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pontos Chave Do Cerco</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>artigos-nacional-socialistas-do-valhalla-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valhalla Nacional-Socialista - Artigos</t>
-  </si>
-  <si>
-    <t>Anônimo</t>
-  </si>
-  <si>
-    <t>jvm_mg@tuta.io</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>bolchevismo-de-moises-a-lenin_202310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolchevismo De Moisés A Lenin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dietrich Eckart</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>cristianismo-positivo-no-terceiro-reich-cajus-fabricius-i-88khans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristianismo Positivo no Terceiro Reich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cajus Fabricius</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>hitler-e-a-igreja-a-mentira-do-atei-smo-de-hitler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HITLER E A IGREJA A MENTIRA DO ATEÍSMO DE HITLER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biblioteca Revelando O Oculto</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>livro-completo-editado-v-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quem é Nacional-Socialista?</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>fundamentosdasabedoriahiperborea1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fundamentos Da Sabedoria Hiperborea 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luiz Felipe Moyano</t>
-  </si>
-  <si>
-    <t>SchizoPosting</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>fundamentosdasabedoriahiperborea2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fundamentos Da Sabedoria Hiperbórea 2</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>gerais-linhas-hiperborea-vol.-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiperbórea - Linhas Gerais</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>aatlantidaeoreinogigantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Atlântida E O Reino Dos Gigantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denis Saurat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Atlântida EO Reino Dos Gigantes</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>acortedeluciferottorahn.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Corte De Lucifer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otto Rahn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fascismo Exotérico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Corte de Lucifer Otto Rahn</t>
-  </si>
-  <si>
-    <t>283</t>
-  </si>
-  <si>
-    <t>miguelserranonaocelebraremosamortedosdeusesbrancos1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não Celebraremos A Morte Dos Deuses Brancos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miguel Serrano</t>
-  </si>
-  <si>
-    <t>284</t>
-  </si>
-  <si>
-    <t>miguelserranonsparaamericadosul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NS Para America Do Sul</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>ns-para-a-america-do-sul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacional Socialismo, única solução para os povos da América do Sul</t>
-  </si>
-  <si>
-    <t>358</t>
-  </si>
-  <si>
-    <t>oultimoavatarversaofinal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Último Avatar Versão Final</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>ametafisicadosexojuliusevola_202002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Metafisica Do Sexo Julius Evola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julius Evola</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>imperialismopagao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imperialismo Pagao</t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>ojudeuinternacional_202002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Judeu Internacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henry Ford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classico /pol/</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>ojudeunamusicaconvertido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Judeu Na Musica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richard Wagner</t>
-  </si>
-  <si>
-    <t>359</t>
-  </si>
-  <si>
-    <t>dosjudeusesuasmentiras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dos Judeus E Suas Mentiras</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>mein-kampf-lux-edition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minha Luta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adolf Hitler</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>o-estado-corporativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Estado Corporativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benito Mussolini</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>castan26e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Holocausto Judeu ou Alemão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siegfried Ellwanger Castan</t>
-  </si>
-  <si>
-    <t>Revisionismo</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>adestruicaodedresdenconvertido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Destruição De Dresden Convertido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Irving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Destruição de Dresden</t>
+    <t>a-maior-luta-da-historia-reich-alemao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Maior Luta da História!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviço de Informação do Governo Alemão</t>
+  </si>
+  <si>
+    <t>nao-a-mordaca-marcopollo-giordani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não à Mordaça</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcopollo Giordani</t>
+  </si>
+  <si>
+    <t>david-cole-voce-ainda-acredita-no-holocausto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você Ainda Acredita No Holocausto? - David Cole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Cole</t>
+  </si>
+  <si>
+    <t>a-paz-que-nao-houve-norberto-toedter-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Paz que não Houve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norberto Toedter</t>
+  </si>
+  <si>
+    <t>o-que-e-a-verdade-norberto-toedter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é a Verdade</t>
+  </si>
+  <si>
+    <t>o-catolicismo-traido-s.a-castan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Catolicismo Traído</t>
+  </si>
+  <si>
+    <t>acabou-o-gas-s.-e-castan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acabou o Gás</t>
+  </si>
+  <si>
+    <t>holocausto-judeu-ou-alemao-siegfried-ellwanger-castan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holocausto: Judeu ou Alemão?</t>
+  </si>
+  <si>
+    <t>1985-sao-mesmo-nossos-os-minerais-nao-energeticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São Mesmo Nossos os Minerais Não-Energéticos? </t>
+  </si>
+  <si>
+    <t>a_verdade_sobre_o_talmud_202007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Verdade sobre o Talmud </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael A. Hoffman II; Alan R. Critchley</t>
   </si>
   <si>
     <t>bub_gb_6d0_7XDSscgC</t>
@@ -9938,15 +10235,12 @@
     <t>1576</t>
   </si>
   <si>
-    <t>europeanlibraries</t>
+    <t xml:space="preserve">Historia do Brasil &amp; Portugal</t>
   </si>
   <si>
     <t>tools.bub@tools.wmflabs.org</t>
   </si>
   <si>
-    <t>bub_upload</t>
-  </si>
-  <si>
     <t>or298</t>
   </si>
   <si>
@@ -9959,15 +10253,9 @@
     <t>1530</t>
   </si>
   <si>
-    <t>opensource</t>
-  </si>
-  <si>
     <t>suiewendhausen@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">['Diário da Navegação', 'da  Armada que Foi a Terra do Brasil', 'Em 1530', 'Sob a Capitania-Mor de Martim Affonso de Souza', 'Escripto por seu irmão Pero Lopes de Souza', 'Publicado por  Francisco Adolfo de Varnhagen Lisboa', 'Nau Capitânea', 'Nau San Miguel', 'Galeão São Vicente', 'Caravela Rosa e Caravela Princesa  Dentre as 400 pessoas embarcadas nestes navios', 'poderemos somente mencionar', 'Jorge Pires']</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://objdigital.bn.br/objdigital2/acervo_digital/div_obrasraras/or298/or298.pdfDiário da Navegação da Armada que Foi a Terra do BrasilEm 1530 Sob a Capitania-Morde Martim Affonso de SouzaEscripto por seu irmãoPero Lopes de SouzaPublicado por Francisco Adolfo de VarnhagenLisboa, Typographia da Socieadade Propagadora dos Conhecimentos Úteis1839Nau Capitânea, Nau San Miguel, Galeão São Vicente, Caravela Rosa e Caravela PrincesaDentre as 400 pessoas embarcadas nestes navios, poderemos somente mencionar, Jorge Piresobjdigital.bn.br/objdigital2/acervo_digital/div_obrasraras/or298/or298.pdfviar a Portugal, e a seu irmão encarregou do cominan- ... c. p. 243, e um Nobiliário MS» ... tins Ferreira; Pedro Collaço; Jorge Pires; Heitor d'Al-.1.304 páginas</t>
   </si>
   <si>
@@ -9983,9 +10271,6 @@
     <t xml:space="preserve">Gustavo Barroso</t>
   </si>
   <si>
-    <t xml:space="preserve">Historia do Brasil &amp; Portugal</t>
-  </si>
-  <si>
     <t>245</t>
   </si>
   <si>
@@ -9995,9 +10280,6 @@
     <t xml:space="preserve">Judaísmo, Maçonaria E Comunismo</t>
   </si>
   <si>
-    <t xml:space="preserve">['jews', 'freemasonry', 'portugal', 'bolshevism', 'communism', 'protocols of zion', 'NWO']</t>
-  </si>
-  <si>
     <t>248</t>
   </si>
   <si>
@@ -10007,9 +10289,6 @@
     <t xml:space="preserve">Os Protocolos Dos Sábios De Sião</t>
   </si>
   <si>
-    <t xml:space="preserve">['jews', 'zionism', 'NWO', 'protocols of zion']</t>
-  </si>
-  <si>
     <t xml:space="preserve">Check this link for the complete content about the Protocols of Zion:https://archive.org/details/the-protocols-of-the-learned-elders-of-zion-everything-you-need-to-knowCheck the channel for further content</t>
   </si>
   <si>
@@ -10136,9 +10415,6 @@
     <t xml:space="preserve">Solidônio Leite Filho</t>
   </si>
   <si>
-    <t>judeus</t>
-  </si>
-  <si>
     <t>666</t>
   </si>
   <si>
@@ -10154,9 +10430,6 @@
     <t xml:space="preserve">José Gonçalves Salvador</t>
   </si>
   <si>
-    <t xml:space="preserve">judeus cristãos novos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Infiltração e invasão do Brasil.</t>
   </si>
   <si>
@@ -10166,9 +10439,6 @@
     <t xml:space="preserve">Os Magnatas Do Tráfico Negreiro Séculos XVI E XVII </t>
   </si>
   <si>
-    <t xml:space="preserve">escravidão tráfico vitimização</t>
-  </si>
-  <si>
     <t xml:space="preserve">Conheça seus inimigos. Conluio entre judeus e negros contra os brancos.</t>
   </si>
   <si>
@@ -10184,9 +10454,6 @@
     <t xml:space="preserve">Zilma Ferreira Pinto</t>
   </si>
   <si>
-    <t xml:space="preserve">judeus cripto-judeus conspiração</t>
-  </si>
-  <si>
     <t>048</t>
   </si>
   <si>
@@ -10199,9 +10466,6 @@
     <t xml:space="preserve">Anita Novinsky</t>
   </si>
   <si>
-    <t>inquisição</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lista negra.</t>
   </si>
   <si>
@@ -10226,88 +10490,208 @@
     <t xml:space="preserve">Vicente da Costa Matos</t>
   </si>
   <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>a-propaganda-de-atrocidades-e-uma-propaganda-de-mentiras-sergio-de-oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Propaganda de Atrocidades é uma Propaganda de Mentiras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sérgio Oliveira</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>o-cristianismo-em-xeque-sergio-oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Cristianismo em Xeque</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>o-livro-branco-sobre-a-conspiracao-mundial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Livro Branco sobre a Conspiração Mundial </t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>o-massacre-de-katyn-sergio-oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Massacre de Katyn</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>sionismo-x-revisionismo-fantasia-x-realidade-sergio-oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sionismo X Revisionismo, Fantasia X Realidade</t>
-  </si>
-  <si>
-    <t>348</t>
-  </si>
-  <si>
-    <t>a-face-oculta-do-sacramento-sergio-oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Face Oculta do Sacramento</t>
-  </si>
-  <si>
-    <t>349</t>
-  </si>
-  <si>
-    <t>hitler-culpado-ou-inocente-sergio-oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hitler Culpado ou Inocente?</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>discurso-em-defesa-da-liberdade-de-expressao-sergio-oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discurso em Defesa da Liberdade de Expressão</t>
-  </si>
-  <si>
-    <t>370</t>
-  </si>
-  <si>
-    <t>getulio-vargas-depoe-sergio-oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Getúlio Vargas Depõe: O Brasil na Segunda Guerra Mundial</t>
+    <t>historia-da-guerra-de-espanha-volume-2-r.-brasillach-e-m.-bardeche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">História da Guerra de Espanha (Volume II)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R. Brasillach E M. Bardèche</t>
+  </si>
+  <si>
+    <t>historia-dos-cristao-novos-portuguses-joao-lucio-azevedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">História dos Cristãos Novos Portugueses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">João Lúcio de Azevedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">História dos Cristãos Novos Portugueses - João Lúcio de Azevedo</t>
+  </si>
+  <si>
+    <t>justaacclamcaodo00bran_202007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Justa Acclamação do Muito Alto, e Muito Poderoso Rei, e Senhor Nosso, o Senhor D. Miguel I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mattheus Brandão da Assumpção</t>
+  </si>
+  <si>
+    <t>exorcismoscontra00sant_202006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exorcismos contra os incursos Maçonicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padre Luiz Gonçalves dos Santos</t>
+  </si>
+  <si>
+    <t>a-questao-judaica.-cabral-pe.-j.-1937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Questão Judaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padre J. Cabral</t>
+  </si>
+  <si>
+    <t>livro-padre-julio-maria-de-lombaerde-o-anjo-das-trevas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Anjo das Trevas </t>
+  </si>
+  <si>
+    <t>maconaria_202006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Franco-Maçonaria, em si e mesma e em suas relações com as outras sociedades secretas da Europa, principalmente com o carbonarismo Italiano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean Guillaume Gyr</t>
+  </si>
+  <si>
+    <t>manifestodesuama00migu_202007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manifesto de Sua Magestade Fidelissima, el-rei nosso senhor, o senhor Dom Miguel Primeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dom Miguel I de Portugal</t>
+  </si>
+  <si>
+    <t>manifestodogrand00mace_202006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manifesto do grande oriente lusitano contra a loja regeneração e circulares e protestos desta contra o Grande Oriente </t>
+  </si>
+  <si>
+    <t>osegredorevelado13barr_202006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Segredo Revelado, Ou Manifestação do Systema Dos Pedreiros Livres, e Illuminados, e Sua Influencia na Fatal Revolução Franceza (Parte I, II e III)</t>
+  </si>
+  <si>
+    <t>osegredorevelado45barr_202006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Segredo Revelado, Ou Manifestação do Systema Dos Pedreiros Livres, e Illuminados, e Sua Influencia na Fatal Revolução Franceza (Parte IV e V)</t>
+  </si>
+  <si>
+    <t>os-judeus-na-republica-mario-saa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Judeus na República</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mário Saa</t>
+  </si>
+  <si>
+    <t>a-invasao-dos-judeus-versao-completa-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Invasão Dos Judeus</t>
+  </si>
+  <si>
+    <t>11cod-8702-0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discurso Juridico Politico sobre os papeis que se deram a S. Mag[esta]de na occasiam do sucesso de S[an]ta Engracia, e roubo que nella houve do Sant[issi]mo Sacramento no anno de 1630 nos quaes se apontavam meios convenientes para se extinguir o Judaismo em Portugal - Padre Diogo de Areda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padre Diogo de Areda</t>
+  </si>
+  <si>
+    <t>1583625-0000-rosto-b-t-24-c-r-0150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exhortaçaõ dogmatica contra a perfidia judayca feyta aos reos penitenciados no Auto publico da Fè, que se celebrou na praça do Rocio junto aos paços da Inquisiçaõ desta Cidade de Lisboa em 9 de Julho de 1713 - Padre Francisco Pedrozo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padre Francisco Pedrozo</t>
+  </si>
+  <si>
+    <t>1r-29276-p-0000-obra-completa-t-24-c-r-0150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extinçam do judaismo, e mais seitas supersticiosas</t>
+  </si>
+  <si>
+    <t>23maonariaemport-00argu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Maçonaria em Portugal</t>
+  </si>
+  <si>
+    <t>Argus</t>
+  </si>
+  <si>
+    <t>2guerradecanudos-00soar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Guerra de Canudos - Henrique Duque-Estrada de Macedo Soares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henrique Duque-Estrada de Macedo Soares</t>
+  </si>
+  <si>
+    <t>a-organizacao-nacional-alberto-torres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Organização Nacional </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberto Torres</t>
+  </si>
+  <si>
+    <t>o-problema-nacional-brasileiro-alberto-torres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Problema Nacional Brasileiro</t>
+  </si>
+  <si>
+    <t>a-maconaria-em-opposicao-a-igreja-e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A maçonaria em opposição á igreja e ao estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dom Antônio de Macedo Costa</t>
+  </si>
+  <si>
+    <t>a-questao-religiosa-do-brasil-1886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A questão religiosa do Brazil perante a Santa Sé - Dom Antônio de Macedo Costa</t>
+  </si>
+  <si>
+    <t>memria-apresentada-a-s-m-o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Amazonia, meio de desenvolver sua civilisação - Dom Antônio de Macedo Costa</t>
+  </si>
+  <si>
+    <t>9hg-3912-p-0000-capa-capa-t-24-c-r-0150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Véo Levantado, Ou Maçonismo Desmascarado: Isto Hé, o Impio e Execrando Systema Dos Pedreiros-Livres, Conspirados Contra A Religião Catholica, e Contra o Throno Dos Soberanos - Anônimo</t>
+  </si>
+  <si>
+    <t>9bndigital-1541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Pedreiros-livres e os Illuminados, que mais propriamente se deverião dominar os Tenebrosos, de cujas Seitas se tem formado a pestilencial Irmandade, a que hoje se chama Jacobinismo - Anônimo</t>
+  </si>
+  <si>
+    <t>os-judeus-portugueses-em-amsterdam-mendes-dos-remedios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Judeus Portugueses em Amsterdam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joaquim Mendes dos Remédios</t>
   </si>
 </sst>
 </file>
@@ -10376,7 +10760,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -10394,6 +10778,19 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -10404,10 +10801,9 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -42424,27 +42820,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" min="1" max="1" width="5.57421875"/>
     <col customWidth="1" min="2" max="2" width="14.7109375"/>
-    <col customWidth="1" min="3" max="3" width="29.7109375"/>
-    <col bestFit="1" min="4" max="4" width="31.421875"/>
+    <col customWidth="1" min="3" max="3" width="39.140625"/>
+    <col customWidth="1" min="4" max="4" width="33.28125"/>
     <col bestFit="1" min="5" max="5" width="20.7109375"/>
-    <col bestFit="1" min="6" max="6" width="10.8515625"/>
+    <col min="6" max="6" width="20.7109375"/>
     <col bestFit="1" min="7" max="7" width="28.140625"/>
     <col bestFit="1" min="8" max="8" width="10.57421875"/>
     <col bestFit="1" min="9" max="9" width="17.57421875"/>
-    <col bestFit="1" min="10" max="11" width="17.421875"/>
-    <col bestFit="1" min="12" max="12" width="4.7109375"/>
-    <col bestFit="1" min="13" max="13" width="18.421875"/>
-    <col bestFit="1" min="14" max="14" width="4.57421875"/>
-    <col bestFit="1" min="15" max="15" width="9.00390625"/>
-    <col bestFit="1" min="16" max="16" width="17.57421875"/>
+    <col bestFit="1" min="10" max="10" width="4.7109375"/>
+    <col bestFit="1" min="11" max="11" width="4.57421875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -42464,7 +42856,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -42476,25 +42868,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -42510,12 +42887,10 @@
       <c r="D2" s="3" t="s">
         <v>2997</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
         <v>2863</v>
       </c>
@@ -42525,41 +42900,26 @@
       <c r="I2" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>3000</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>3000</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
-        <v>2868</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3001</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" t="s">
         <v>3002</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3003</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2997</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
         <v>2863</v>
       </c>
@@ -42569,31 +42929,18 @@
       <c r="I3" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>3004</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>3004</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
-        <v>2868</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C4" t="s">
         <v>3005</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3006</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3007</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2997</v>
@@ -42601,9 +42948,7 @@
       <c r="E4" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
         <v>2863</v>
       </c>
@@ -42613,31 +42958,18 @@
       <c r="I4" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>3008</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>3008</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3" t="s">
-        <v>2868</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="C5" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>2997</v>
@@ -42645,9 +42977,7 @@
       <c r="E5" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
         <v>2863</v>
       </c>
@@ -42657,29 +42987,18 @@
       <c r="I5" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>3012</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>3012</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>3013</v>
+        <v>3009</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3014</v>
+        <v>3010</v>
       </c>
       <c r="C6" t="s">
-        <v>3015</v>
+        <v>3011</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>2997</v>
@@ -42687,9 +43006,7 @@
       <c r="E6" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
         <v>2863</v>
       </c>
@@ -42699,29 +43016,18 @@
       <c r="I6" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>3016</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>3016</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>3017</v>
+        <v>3012</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>3018</v>
+        <v>3013</v>
       </c>
       <c r="C7" t="s">
-        <v>3019</v>
+        <v>3014</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>2997</v>
@@ -42729,9 +43035,7 @@
       <c r="E7" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
         <v>2863</v>
       </c>
@@ -42741,29 +43045,18 @@
       <c r="I7" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>3020</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>3020</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>3021</v>
+        <v>3015</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>3022</v>
+        <v>3016</v>
       </c>
       <c r="C8" t="s">
-        <v>3023</v>
+        <v>3017</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>2997</v>
@@ -42771,9 +43064,7 @@
       <c r="E8" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
         <v>2863</v>
       </c>
@@ -42783,29 +43074,18 @@
       <c r="I8" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3024</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3024</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>3025</v>
+        <v>3018</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>3026</v>
+        <v>3019</v>
       </c>
       <c r="C9" t="s">
-        <v>3027</v>
+        <v>3020</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>2997</v>
@@ -42813,9 +43093,7 @@
       <c r="E9" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
         <v>2863</v>
       </c>
@@ -42825,29 +43103,18 @@
       <c r="I9" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3028</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3028</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>3029</v>
+        <v>3021</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>3030</v>
+        <v>3022</v>
       </c>
       <c r="C10" t="s">
-        <v>3031</v>
+        <v>3023</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>2997</v>
@@ -42855,9 +43122,7 @@
       <c r="E10" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
         <v>2863</v>
       </c>
@@ -42867,39 +43132,55 @@
       <c r="I10" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3032</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3032</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3" t="s">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3027</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>2999</v>
       </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>3033</v>
+        <v>3028</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>3034</v>
+        <v>3029</v>
       </c>
       <c r="C15" t="s">
-        <v>3035</v>
+        <v>3030</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>3036</v>
+        <v>3027</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
         <v>2863</v>
       </c>
@@ -42909,41 +43190,26 @@
       <c r="I15" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3037</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>3037</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3" t="s">
-        <v>2868</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>3038</v>
+        <v>3031</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>3039</v>
+        <v>3032</v>
       </c>
       <c r="C16" t="s">
-        <v>3040</v>
+        <v>3033</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3036</v>
+        <v>3027</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
         <v>2863</v>
       </c>
@@ -42953,41 +43219,26 @@
       <c r="I16" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>3041</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>3041</v>
-      </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3" t="s">
-        <v>2868</v>
-      </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>3042</v>
+        <v>3034</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>3043</v>
+        <v>3035</v>
       </c>
       <c r="C17" t="s">
-        <v>3044</v>
+        <v>3036</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>3036</v>
+        <v>3027</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
         <v>2863</v>
       </c>
@@ -42997,39 +43248,26 @@
       <c r="I17" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3045</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3045</v>
-      </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>3046</v>
+        <v>3037</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3047</v>
+        <v>3038</v>
       </c>
       <c r="C18" t="s">
-        <v>3048</v>
+        <v>3039</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>3036</v>
+        <v>3027</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
         <v>2863</v>
       </c>
@@ -43039,39 +43277,26 @@
       <c r="I18" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3049</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3049</v>
-      </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>3050</v>
+        <v>3040</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>3051</v>
+        <v>3041</v>
       </c>
       <c r="C19" t="s">
-        <v>3052</v>
+        <v>3042</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>3036</v>
+        <v>3027</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
         <v>2863</v>
       </c>
@@ -43081,39 +43306,26 @@
       <c r="I19" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>3053</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>3053</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>3054</v>
+        <v>3043</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>3055</v>
+        <v>3044</v>
       </c>
       <c r="C20" t="s">
-        <v>3056</v>
+        <v>3045</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>3036</v>
+        <v>3027</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
         <v>2863</v>
       </c>
@@ -43123,39 +43335,26 @@
       <c r="I20" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3057</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3057</v>
-      </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>3058</v>
+        <v>3046</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>3059</v>
+        <v>3047</v>
       </c>
       <c r="C21" t="s">
-        <v>3060</v>
+        <v>3048</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>3036</v>
+        <v>3027</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
         <v>2863</v>
       </c>
@@ -43165,41 +43364,26 @@
       <c r="I21" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3061</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3061</v>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3" t="s">
-        <v>2868</v>
-      </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>3062</v>
+        <v>3049</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>3063</v>
+        <v>3050</v>
       </c>
       <c r="C22" t="s">
-        <v>3064</v>
+        <v>3051</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>3036</v>
+        <v>3027</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
         <v>2863</v>
       </c>
@@ -43209,39 +43393,26 @@
       <c r="I22" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3065</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3065</v>
-      </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>3066</v>
+        <v>3052</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>3067</v>
+        <v>3053</v>
       </c>
       <c r="C23" t="s">
-        <v>3068</v>
+        <v>3054</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>3036</v>
+        <v>3027</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
         <v>2863</v>
       </c>
@@ -43251,39 +43422,26 @@
       <c r="I23" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3069</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3069</v>
-      </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>3070</v>
+        <v>3055</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>3071</v>
+        <v>3056</v>
       </c>
       <c r="C24" t="s">
-        <v>3072</v>
+        <v>3057</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>3036</v>
+        <v>3027</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
         <v>2863</v>
       </c>
@@ -43293,39 +43451,26 @@
       <c r="I24" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3073</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3073</v>
-      </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>3074</v>
+        <v>3058</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>3075</v>
+        <v>3059</v>
       </c>
       <c r="C25" t="s">
-        <v>3076</v>
+        <v>3060</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>3036</v>
+        <v>3027</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
         <v>2863</v>
       </c>
@@ -43335,39 +43480,26 @@
       <c r="I25" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>3077</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>3077</v>
-      </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>3078</v>
+        <v>2409</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>3079</v>
+        <v>3061</v>
       </c>
       <c r="C26" t="s">
-        <v>3080</v>
+        <v>3062</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3036</v>
+        <v>3027</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
         <v>2863</v>
       </c>
@@ -43377,39 +43509,26 @@
       <c r="I26" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3081</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3081</v>
-      </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>2409</v>
+        <v>3063</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>3082</v>
+        <v>3064</v>
       </c>
       <c r="C27" t="s">
-        <v>3083</v>
+        <v>3065</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>3036</v>
+        <v>3027</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
         <v>2863</v>
       </c>
@@ -43419,61 +43538,367 @@
       <c r="I27" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" ht="14.25"/>
+    <row r="30" ht="14.25">
+      <c r="A30" s="5">
+        <v>112</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>3066</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>3067</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>3068</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31" s="5">
+        <v>132</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>3070</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>3068</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" s="5">
+        <v>141</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>3071</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3072</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>3073</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25"/>
+    <row r="36" ht="14.25">
+      <c r="A36" s="5">
+        <v>78</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>3074</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>3075</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" s="5">
+        <v>79</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>3077</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>3078</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" s="5">
+        <v>80</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>3079</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>3080</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" s="5">
+        <v>82</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>3081</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40" s="5">
+        <v>84</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>3084</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3084</v>
-      </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3" t="s">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="D40" s="3" t="s">
         <v>3085</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="E40" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F40"/>
+      <c r="G40" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" s="5">
+        <v>85</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>3086</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C41" s="3" t="s">
         <v>3087</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>3036</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="D41" s="3" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="F41"/>
+      <c r="G41" s="3" t="s">
         <v>2863</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>2999</v>
-      </c>
-      <c r="J28" s="3" t="s">
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" ht="14.25"/>
+    <row r="44" ht="14.25">
+      <c r="A44" s="5">
+        <v>94</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>3088</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>3088</v>
-      </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="C44" s="3" t="s">
+        <v>3089</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>3090</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F44"/>
+      <c r="G44" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45" s="5">
+        <v>106</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>3092</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>3090</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F45"/>
+      <c r="G45" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46" s="5">
+        <v>108</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>3094</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>3090</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F46"/>
+      <c r="G46" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" ht="14.25"/>
+    <row r="49" ht="14.25">
+      <c r="A49" s="5">
+        <v>59</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>3095</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>3096</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>2862</v>
+      </c>
+      <c r="F49"/>
+      <c r="G49" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50" s="5">
+        <v>124</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>3098</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>2862</v>
+      </c>
+      <c r="F50"/>
+      <c r="G50" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I50" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -43486,7 +43911,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A62" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -43494,13 +43919,13 @@
   <cols>
     <col bestFit="1" min="1" max="1" width="5.57421875"/>
     <col customWidth="1" min="2" max="2" width="14.140625"/>
-    <col customWidth="1" min="3" max="3" width="50.421875"/>
-    <col customWidth="1" min="4" max="4" width="23.7109375"/>
-    <col bestFit="1" min="5" max="5" width="20.7109375"/>
+    <col customWidth="1" min="3" max="3" width="54.8515625"/>
+    <col customWidth="1" min="4" max="4" width="28.00390625"/>
+    <col customWidth="1" min="5" max="5" style="6" width="27.8515625"/>
     <col customWidth="1" min="6" max="6" width="18.140625"/>
     <col bestFit="1" min="7" max="7" width="24.7109375"/>
     <col customWidth="1" min="8" max="8" width="12.8515625"/>
-    <col bestFit="1" min="9" max="9" width="10.7109375"/>
+    <col customWidth="1" min="9" max="9" width="52.8515625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -43532,92 +43957,58 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="14.25">
-      <c r="A2" s="3" t="s">
-        <v>3089</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3090</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3091</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3092</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="3" t="s">
-        <v>3094</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>3095</v>
-      </c>
-    </row>
+    <row r="2" ht="14.25"/>
     <row r="3" ht="14.25">
-      <c r="A3" s="3" t="s">
-        <v>3096</v>
+      <c r="A3" s="5">
+        <v>114</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3097</v>
+        <v>3099</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3098</v>
+        <v>3100</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>3092</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F3" s="6"/>
+        <v>3101</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3"/>
       <c r="G3" s="3" t="s">
-        <v>3094</v>
+        <v>2863</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>3099</v>
-      </c>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="3" t="s">
-        <v>3100</v>
+      <c r="A4" s="5">
+        <v>117</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>3102</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3103</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>3101</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>3102</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3103</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4"/>
       <c r="G4" s="3" t="s">
-        <v>3094</v>
+        <v>2863</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>3104</v>
-      </c>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="3" t="s">
-        <v>3046</v>
-      </c>
-      <c r="B5" s="6" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>3105</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -43626,95 +44017,93 @@
       <c r="D5" s="3" t="s">
         <v>3107</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F5" s="6"/>
+      <c r="E5" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>3094</v>
+        <v>3109</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="3" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3112</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3113</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>3108</v>
       </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="5" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>3109</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>3110</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3111</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>3112</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="3" t="s">
-        <v>3113</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>23</v>
+        <v>2864</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>3114</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+        <v>3115</v>
+      </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="3" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>3116</v>
-      </c>
-      <c r="C7" s="6" t="s">
         <v>3117</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>3118</v>
+      </c>
       <c r="D7" s="3" t="s">
-        <v>3118</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F7" s="6"/>
+        <v>3119</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>3094</v>
+        <v>3109</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="3" t="s">
-        <v>3120</v>
+        <v>3034</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>3121</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>3122</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3123</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F8" s="6"/>
+      <c r="E8" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>3094</v>
+        <v>3109</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>2864</v>
@@ -43724,7 +44113,7 @@
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>3125</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -43733,971 +44122,1124 @@
       <c r="C9" s="3" t="s">
         <v>3127</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>3128</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F9" s="6"/>
+      <c r="E9" s="8" t="s">
+        <v>3108</v>
+      </c>
       <c r="G9" s="3" t="s">
-        <v>3094</v>
+        <v>2863</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="5" t="s">
         <v>3129</v>
       </c>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="E10" s="6"/>
-      <c r="F10" s="8"/>
+      <c r="B10" s="3" t="s">
+        <v>3130</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>3131</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="E11" s="3"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" ht="14.25"/>
+      <c r="A11" s="5" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>3133</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>3134</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="5" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>3136</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
     <row r="13" ht="14.25">
-      <c r="E13" s="6"/>
-      <c r="F13" s="8"/>
+      <c r="A13" s="5" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>3140</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="E14" s="3"/>
-      <c r="F14" s="9"/>
+      <c r="A14" s="5" t="s">
+        <v>3141</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>3143</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="5" t="s">
-        <v>3130</v>
+        <v>3144</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>3131</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>3132</v>
+        <v>3145</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>3146</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>3133</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F15" s="6"/>
+        <v>3128</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>3108</v>
+      </c>
       <c r="G15" s="3" t="s">
-        <v>3134</v>
+        <v>2863</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>3135</v>
+        <v>2869</v>
       </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="5" t="s">
-        <v>3136</v>
+        <v>3147</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>3137</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>3138</v>
+        <v>3148</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>3149</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3139</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F16" s="6"/>
+        <v>3128</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>3108</v>
+      </c>
       <c r="G16" s="3" t="s">
-        <v>3140</v>
+        <v>2863</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>3141</v>
-      </c>
+        <v>2869</v>
+      </c>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="5" t="s">
-        <v>3142</v>
+        <v>3150</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>3143</v>
+        <v>3151</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>3144</v>
+        <v>3152</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>3145</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F17" s="6"/>
+        <v>3128</v>
+      </c>
+      <c r="E17" s="8"/>
       <c r="G17" s="3" t="s">
-        <v>3146</v>
-      </c>
-      <c r="H17" s="6" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>3147</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3148</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3149</v>
-      </c>
+        <v>2869</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" ht="14.25"/>
-    <row r="20" ht="14.25">
-      <c r="A20" s="5" t="s">
-        <v>3150</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>3151</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3152</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="A18" s="5">
+        <v>121</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>3153</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>3154</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="D18" s="3" t="s">
+        <v>3155</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18"/>
+      <c r="G18" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="5">
+        <v>123</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>3156</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>3157</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>3155</v>
       </c>
-    </row>
+      <c r="E19" s="7"/>
+      <c r="F19"/>
+      <c r="G19" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" ht="14.25"/>
     <row r="21" ht="14.25">
-      <c r="A21" s="5" t="s">
-        <v>3156</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>3157</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>3158</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>3159</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3093</v>
-      </c>
+      <c r="A21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
-        <v>3154</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3160</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="A22" s="5" t="s">
-        <v>3161</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>3162</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>3163</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>3164</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
-        <v>3154</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3165</v>
-      </c>
-    </row>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" ht="14.25"/>
     <row r="23" ht="14.25">
       <c r="A23" s="5" t="s">
-        <v>3166</v>
+        <v>3158</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>3167</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>3168</v>
+        <v>3159</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3160</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>3169</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3093</v>
+        <v>3161</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>3108</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>3154</v>
+        <v>3162</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>3170</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" s="5" t="s">
-        <v>3171</v>
+        <v>3164</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>3172</v>
+        <v>3165</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>3173</v>
+        <v>3166</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>3169</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3093</v>
+        <v>3167</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>3108</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>3154</v>
+        <v>3162</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>3174</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" s="5" t="s">
-        <v>3175</v>
+        <v>3169</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>3176</v>
+        <v>3170</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>3177</v>
+        <v>3171</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>3178</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>3093</v>
+        <v>3172</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>3108</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>3154</v>
+        <v>3162</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>3179</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" s="5" t="s">
-        <v>3180</v>
+        <v>3174</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>3181</v>
+        <v>3175</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>3182</v>
+        <v>3176</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3183</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3093</v>
+        <v>3177</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>3108</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>3154</v>
+        <v>3162</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>3184</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25"/>
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="5" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>3180</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>3181</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>3177</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>3162</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>3182</v>
+      </c>
+    </row>
     <row r="28" ht="14.25">
       <c r="A28" s="5" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>3184</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>3185</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>3186</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>3187</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>3188</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>3093</v>
+      <c r="E28" s="8" t="s">
+        <v>3108</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>3189</v>
+        <v>3162</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" s="5" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>3190</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>3191</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>3192</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>3193</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>3194</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3093</v>
+      <c r="E29" s="8" t="s">
+        <v>3108</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>3189</v>
+        <v>3162</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>3195</v>
-      </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="H30" s="3"/>
-    </row>
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25"/>
     <row r="31" ht="14.25">
       <c r="A31" s="5" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>3194</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>3196</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>3197</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3198</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>3199</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>3093</v>
+      <c r="E31" s="8" t="s">
+        <v>3108</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>3135</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" s="5" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>3200</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>3201</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>3202</v>
       </c>
-      <c r="C32" t="s">
-        <v>3203</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>3199</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>3093</v>
+      <c r="E32" s="8" t="s">
+        <v>3108</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>3135</v>
-      </c>
+        <v>3203</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="5" t="s">
-        <v>3204</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>3205</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3206</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>3199</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
-        <v>3200</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3135</v>
-      </c>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" s="5" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3206</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>3207</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>3208</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>3199</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>3093</v>
+      <c r="E34" s="8" t="s">
+        <v>3108</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>3200</v>
+        <v>3208</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>3135</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="35" ht="14.25">
-      <c r="E35" s="3"/>
-      <c r="F35" s="9"/>
+      <c r="A35" s="5" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3212</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>3207</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>3208</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>3209</v>
+      </c>
     </row>
     <row r="36" ht="14.25">
-      <c r="E36" s="3"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" ht="14.25"/>
+      <c r="A36" s="5" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3215</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>3207</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>3208</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" s="5" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3218</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>3207</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>3208</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+    </row>
     <row r="39" ht="14.25">
-      <c r="A39" s="5" t="s">
-        <v>3210</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>3211</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>3212</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>3213</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>3093</v>
-      </c>
+      <c r="E39" s="8"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="3" t="s">
-        <v>3214</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>2864</v>
-      </c>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="5" t="s">
-        <v>3215</v>
+      <c r="A40" s="3" t="s">
+        <v>3219</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>3216</v>
+        <v>3220</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>3217</v>
+        <v>3221</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>3218</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F40" s="3"/>
+        <v>3222</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>3223</v>
+      </c>
       <c r="G40" s="3" t="s">
-        <v>3214</v>
+        <v>3109</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>2864</v>
       </c>
+      <c r="I40" s="3" t="s">
+        <v>3224</v>
+      </c>
     </row>
     <row r="41" ht="14.25">
-      <c r="A41" s="5" t="s">
-        <v>3219</v>
+      <c r="A41" s="3" t="s">
+        <v>3225</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>3220</v>
+        <v>3226</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>3221</v>
+        <v>3227</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>3222</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F41" s="3"/>
+        <v>3228</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>3223</v>
+      </c>
       <c r="G41" s="3" t="s">
-        <v>3214</v>
+        <v>3109</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>2864</v>
       </c>
+      <c r="I41" s="3" t="s">
+        <v>3228</v>
+      </c>
     </row>
     <row r="42" ht="14.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="5">
+        <v>68</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>3230</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>3228</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>3223</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>3224</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>3225</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>3226</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>3214</v>
+        <v>2863</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>2864</v>
       </c>
+      <c r="I42" s="3"/>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" s="5" t="s">
-        <v>3227</v>
+        <v>3231</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>3229</v>
+        <v>3232</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3233</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>3213</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F43" s="3"/>
+        <v>3234</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3223</v>
+      </c>
       <c r="G43" s="3" t="s">
-        <v>3214</v>
+        <v>3235</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>2864</v>
       </c>
+      <c r="I43" s="3" t="s">
+        <v>3236</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
     </row>
     <row r="44" ht="14.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="A44" s="5" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>3239</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>3240</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3223</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3241</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>2864</v>
+      </c>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" s="5" t="s">
-        <v>3230</v>
+        <v>3242</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>3231</v>
+        <v>3243</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>3232</v>
+        <v>3244</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>3233</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F45" t="s">
-        <v>3234</v>
+        <v>3245</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3223</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>3113</v>
+        <v>3241</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" s="5" t="s">
-        <v>3235</v>
+      <c r="A46" s="5">
+        <v>109</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>3236</v>
+        <v>3246</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>3237</v>
+        <v>3247</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>3233</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F46" t="s">
-        <v>3234</v>
+        <v>3245</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>3223</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>3113</v>
+        <v>2863</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="5" t="s">
-        <v>3238</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>3239</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>3240</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>3213</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3234</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3214</v>
-      </c>
-      <c r="H47" s="3" t="s">
+      <c r="A47" s="5"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="7"/>
+      <c r="F47"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" s="5" t="s">
+        <v>3248</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>3249</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>3250</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>3251</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3252</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3235</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" ht="14.25">
-      <c r="A48" s="5" t="s">
-        <v>3241</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>3242</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>3243</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>3244</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3234</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3113</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3245</v>
-      </c>
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" ht="14.25"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
     <row r="50" ht="14.25">
       <c r="A50" s="5" t="s">
-        <v>3246</v>
+        <v>3253</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>3247</v>
-      </c>
-      <c r="C50" t="s">
-        <v>3248</v>
+        <v>3254</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>3255</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>3249</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>3250</v>
+        <v>3251</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F50" t="s">
+        <v>3252</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>3113</v>
+        <v>3235</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>3251</v>
-      </c>
+      <c r="I50" s="3"/>
       <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" s="5" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>3257</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>3258</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>3245</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>3252</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>3253</v>
-      </c>
-      <c r="C51" t="s">
-        <v>3254</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>3255</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>3250</v>
-      </c>
       <c r="G51" s="3" t="s">
-        <v>3113</v>
+        <v>3241</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
     </row>
     <row r="52" ht="14.25">
       <c r="A52" s="5" t="s">
-        <v>3256</v>
+        <v>3259</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>3257</v>
-      </c>
-      <c r="C52" t="s">
-        <v>3258</v>
+        <v>3260</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>3261</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>3255</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3093</v>
+        <v>3262</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>3108</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>3250</v>
+        <v>3252</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>3113</v>
+        <v>3235</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I52" s="3"/>
+      <c r="I52" s="3" t="s">
+        <v>3263</v>
+      </c>
       <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
     </row>
     <row r="53" ht="14.25">
-      <c r="A53" s="5" t="s">
-        <v>3259</v>
+      <c r="A53" s="5">
+        <v>1</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>3260</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>3261</v>
+        <v>3264</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>3265</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>3255</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>3093</v>
+        <v>3266</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>3108</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>3250</v>
+        <v>3252</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>3214</v>
+        <v>2863</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>2864</v>
       </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="5" t="s">
-        <v>3262</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>3263</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>3264</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>3255</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3250</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3113</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" ht="14.25">
-      <c r="A55" s="5" t="s">
-        <v>3265</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>3266</v>
-      </c>
-      <c r="C55" t="s">
-        <v>3267</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>3268</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>3250</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>3113</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>2864</v>
-      </c>
-    </row>
+      <c r="A54" s="9"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+    </row>
+    <row r="55" ht="14.25"/>
     <row r="56" ht="14.25">
       <c r="A56" s="5" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>3268</v>
+      </c>
+      <c r="C56" t="s">
         <v>3269</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>3270</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>3271</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>3268</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>3250</v>
-      </c>
       <c r="G56" s="3" t="s">
-        <v>3113</v>
+        <v>3235</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>2864</v>
       </c>
-    </row>
-    <row r="57" ht="14.25"/>
+      <c r="I56" s="3" t="s">
+        <v>3272</v>
+      </c>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="A57" s="5" t="s">
+        <v>3273</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>3274</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3275</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>3276</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3271</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3235</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+    </row>
     <row r="58" ht="14.25">
       <c r="A58" s="5" t="s">
-        <v>3272</v>
+        <v>3277</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>3273</v>
+        <v>3278</v>
       </c>
       <c r="C58" t="s">
-        <v>3274</v>
+        <v>3279</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>3275</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F58" s="7" t="s">
         <v>3276</v>
       </c>
+      <c r="E58" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3271</v>
+      </c>
       <c r="G58" s="3" t="s">
-        <v>3113</v>
+        <v>3235</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>2864</v>
@@ -44708,80 +45250,80 @@
     </row>
     <row r="59" ht="14.25">
       <c r="A59" s="5" t="s">
-        <v>3277</v>
+        <v>3280</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>3278</v>
+        <v>3281</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>3279</v>
+        <v>3282</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>3280</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F59" t="s">
         <v>3276</v>
       </c>
+      <c r="E59" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3271</v>
+      </c>
       <c r="G59" s="3" t="s">
-        <v>3113</v>
+        <v>3241</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
     </row>
     <row r="60" ht="14.25">
       <c r="A60" s="5" t="s">
-        <v>3281</v>
+        <v>3283</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>3282</v>
+        <v>3284</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>3283</v>
+        <v>3285</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>3145</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3093</v>
+        <v>3276</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>3108</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>3276</v>
+        <v>3271</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>3113</v>
+        <v>3235</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>2864</v>
       </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
     </row>
     <row r="61" ht="14.25">
-      <c r="A61" s="10" t="s">
-        <v>3284</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>3285</v>
-      </c>
-      <c r="C61" s="8" t="s">
+      <c r="A61" s="5" t="s">
         <v>3286</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="B61" s="3" t="s">
         <v>3287</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>3276</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>3214</v>
+      <c r="C61" t="s">
+        <v>3288</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>3289</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>3271</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>3235</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>2864</v>
@@ -44789,97 +45331,971 @@
     </row>
     <row r="62" ht="14.25">
       <c r="A62" s="5" t="s">
-        <v>3288</v>
+        <v>3290</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>3291</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3292</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>3289</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>3290</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>3291</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>3276</v>
+      <c r="E62" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3271</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>2863</v>
+        <v>3235</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25"/>
-    <row r="64" ht="14.25"/>
-    <row r="65" ht="14.25"/>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="A63" s="5">
+        <v>125</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>3294</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>3295</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>3271</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>3235</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="A64" s="5">
+        <v>115</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>3298</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>3251</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>3271</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>3235</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+    </row>
     <row r="66" ht="14.25">
-      <c r="A66" s="5" t="s">
-        <v>3292</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>3293</v>
-      </c>
-      <c r="C66" t="s">
-        <v>3294</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>3295</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F66" t="s">
-        <v>3296</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3113</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3294</v>
-      </c>
-      <c r="J66" s="3"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
     </row>
     <row r="67" ht="14.25">
       <c r="A67" s="5" t="s">
-        <v>3297</v>
+        <v>3300</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>3298</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>3299</v>
+        <v>3301</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3302</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>3300</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>3296</v>
+        <v>3303</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>3304</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>3113</v>
+        <v>3235</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I67" s="3" t="s">
-        <v>3301</v>
-      </c>
+      <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-    </row>
-    <row r="69" ht="14.25"/>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="A68" s="5" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>3307</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F68" t="s">
+        <v>3304</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>3235</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="A69" s="5" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>3310</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>3311</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>3312</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>3304</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>3235</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="A70" s="5" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>3314</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>3315</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>3316</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>3304</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>3241</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="A71" s="5">
+        <v>90</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>3317</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>3318</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>3304</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="A72" s="5">
+        <v>95</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>3320</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3304</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" ht="14.25">
+      <c r="A73" s="5" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>3323</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>3324</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>3304</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="A74" s="5" t="s">
+        <v>3325</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>3326</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>3327</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>3328</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>3304</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>3329</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="A75" s="5" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>3332</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>3333</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>3312</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>3304</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>3334</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>3335</v>
+      </c>
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="A76" s="5">
+        <v>16</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>3337</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>3338</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>3304</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="A77" s="5">
+        <v>102</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>3339</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>3340</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>3338</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>3304</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="A78" s="5">
+        <v>142</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>3341</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>3342</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>3343</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F78"/>
+      <c r="G78" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" ht="14.25">
+      <c r="A79" s="9"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="A81" s="5" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3346</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>3347</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F81" t="s">
+        <v>3348</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>3235</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>3346</v>
+      </c>
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="A82" s="5" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>3350</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>3351</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>3352</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>3348</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>3235</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>3353</v>
+      </c>
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" ht="14.25">
+      <c r="A83" s="5">
+        <v>43</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>3354</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3355</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>3356</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3348</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25">
+      <c r="A84" s="5">
+        <v>131</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>3357</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3358</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>3359</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>3348</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25">
+      <c r="A85" s="5" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>3361</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>3362</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>3363</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>3348</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>3241</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25">
+      <c r="A86" s="5" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>3365</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>3366</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>3367</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>3348</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>3241</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25">
+      <c r="A87" s="5">
+        <v>31</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>3368</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3369</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>3370</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>3348</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25">
+      <c r="A88" s="3" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>3372</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>3373</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>3374</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>3348</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>3109</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25">
+      <c r="A89" s="5">
+        <v>20</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>3376</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>3377</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>3378</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3348</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I89" s="3"/>
+    </row>
+    <row r="90" ht="14.25">
+      <c r="A90" s="9">
+        <v>32</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>3380</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>3381</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>3348</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I90" s="10"/>
+    </row>
+    <row r="91" ht="14.25">
+      <c r="A91" s="9">
+        <v>58</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>3382</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>3383</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>3384</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>3348</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I91" s="10"/>
+    </row>
+    <row r="92" ht="14.25">
+      <c r="A92" s="9">
+        <v>22</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>3385</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>3386</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>3387</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>3348</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I92" s="10"/>
+    </row>
+    <row r="93" ht="14.25">
+      <c r="A93" s="9">
+        <v>49</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>3388</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>3389</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>3387</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>3348</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I93" s="10"/>
+    </row>
+    <row r="94" ht="14.25">
+      <c r="A94" s="5">
+        <v>33</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>3390</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>3391</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>3347</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3348</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" ht="14.25">
+      <c r="A95" s="5">
+        <v>46</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>3392</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>3393</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>3347</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>3348</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" ht="14.25">
+      <c r="A96" s="5">
+        <v>122</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>3394</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>3395</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>3347</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>3348</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" ht="14.25">
+      <c r="A97" s="9"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+    </row>
+    <row r="98" ht="14.25">
+      <c r="E98" s="6"/>
+    </row>
+    <row r="99" ht="14.25">
+      <c r="A99" s="5">
+        <v>4</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>3396</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>3397</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>3101</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F99"/>
+      <c r="G99" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I99" s="3"/>
+    </row>
+    <row r="100" ht="14.25">
+      <c r="A100" s="5">
+        <v>39</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>3398</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>3399</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>3400</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F100"/>
+      <c r="G100" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I100" s="3"/>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -44891,17 +46307,19 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="5.57421875"/>
-    <col customWidth="1" min="3" max="3" width="44.8515625"/>
-    <col customWidth="1" min="4" max="4" width="29.140625"/>
-    <col customWidth="1" min="5" max="5" width="14.00390625"/>
-    <col customWidth="1" min="6" max="6" width="27.8515625"/>
+    <col customWidth="1" min="3" max="3" width="52.00390625"/>
+    <col customWidth="1" min="4" max="4" width="38.28125"/>
+    <col customWidth="1" min="5" max="5" style="5" width="14.00390625"/>
+    <col customWidth="1" min="6" max="6" style="6" width="27.8515625"/>
+    <col customWidth="1" min="8" max="8" width="12.57421875"/>
+    <col customWidth="1" min="9" max="9" width="29.7109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -44930,9 +46348,6 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -44941,89 +46356,83 @@
         <v>397</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3302</v>
+        <v>3401</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3303</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>3304</v>
+        <v>3402</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3403</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3305</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3306</v>
+        <v>3404</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>3405</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>3307</v>
+        <v>3406</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>3308</v>
-      </c>
+        <v>2864</v>
+      </c>
+      <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>3309</v>
+        <v>3407</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3310</v>
+        <v>3408</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>3311</v>
+        <v>3409</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>3312</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3313</v>
+        <v>3410</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>3405</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>3314</v>
+        <v>3411</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>2864</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>3315</v>
-      </c>
-      <c r="J3" s="3" t="s">
         <v>539</v>
       </c>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>3316</v>
+      <c r="L3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>3412</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="5" t="s">
-        <v>3317</v>
+        <v>3413</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3318</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>3319</v>
+        <v>3414</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3415</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>3320</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>3321</v>
+        <v>3416</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>3405</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>2863</v>
@@ -45034,89 +46443,80 @@
       <c r="I5" s="3" t="s">
         <v>2869</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>2869</v>
-      </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="5" t="s">
-        <v>3322</v>
+        <v>3417</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3323</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>3324</v>
+        <v>3418</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3419</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>3320</v>
-      </c>
-      <c r="E6">
+        <v>3416</v>
+      </c>
+      <c r="E6" s="5">
         <v>1937</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>3321</v>
+      <c r="F6" s="8" t="s">
+        <v>3405</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>3189</v>
+        <v>3197</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>23</v>
+        <v>2864</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>3325</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>3195</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="5" t="s">
-        <v>3326</v>
+        <v>3420</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>3327</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>3328</v>
+        <v>3421</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>3422</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>3320</v>
-      </c>
-      <c r="E7">
+        <v>3416</v>
+      </c>
+      <c r="E7" s="5">
         <v>1936</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>3321</v>
+      <c r="F7" s="8" t="s">
+        <v>3405</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>3189</v>
+        <v>3197</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>23</v>
+        <v>2864</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>3329</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>3330</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="5" t="s">
-        <v>3331</v>
+        <v>3424</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>3332</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>3333</v>
+        <v>3425</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3426</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>3320</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3321</v>
+        <v>3416</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>3405</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>2863</v>
@@ -45127,25 +46527,22 @@
       <c r="I8" s="3" t="s">
         <v>2869</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>2869</v>
-      </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="5" t="s">
-        <v>3334</v>
+        <v>3427</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>3335</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>3336</v>
+        <v>3428</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>3429</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>3320</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3321</v>
+        <v>3416</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>3405</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>2863</v>
@@ -45156,25 +46553,22 @@
       <c r="I9" s="3" t="s">
         <v>2869</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>2869</v>
-      </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="5" t="s">
-        <v>3337</v>
+        <v>3430</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>3338</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>3339</v>
+        <v>3431</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>3432</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>3320</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3321</v>
+        <v>3416</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>3405</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>2863</v>
@@ -45186,27 +46580,24 @@
         <v>2869</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>2869</v>
-      </c>
-      <c r="K10" s="3" t="s">
         <v>2899</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="5" t="s">
-        <v>3340</v>
+        <v>3433</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>3341</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>3342</v>
+        <v>3434</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>3435</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>3320</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>3321</v>
+        <v>3416</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>3405</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>2863</v>
@@ -45215,30 +46606,27 @@
         <v>2864</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>2869</v>
+        <v>2873</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>2873</v>
-      </c>
-      <c r="K11" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="5" t="s">
-        <v>3343</v>
+        <v>3436</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>3344</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>3345</v>
+        <v>3437</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>3438</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>3320</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3321</v>
+        <v>3416</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>3405</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>2863</v>
@@ -45247,30 +46635,27 @@
         <v>2864</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>2869</v>
+        <v>2873</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>2873</v>
-      </c>
-      <c r="K12" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="5" t="s">
-        <v>3346</v>
+        <v>3439</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>3347</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>3348</v>
+        <v>3440</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>3441</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>3320</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>3321</v>
+        <v>3416</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>3405</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>2863</v>
@@ -45279,30 +46664,27 @@
         <v>2864</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>2869</v>
+        <v>2873</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>2873</v>
-      </c>
-      <c r="K13" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="5" t="s">
-        <v>3349</v>
+        <v>3442</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>3350</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>3351</v>
+        <v>3443</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>3444</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>3320</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3321</v>
+        <v>3416</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>3405</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>2863</v>
@@ -45311,30 +46693,27 @@
         <v>2864</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>2869</v>
+        <v>2873</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>2873</v>
-      </c>
-      <c r="K14" s="3" t="s">
         <v>2409</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="5" t="s">
-        <v>3352</v>
+        <v>3445</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>3353</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>3354</v>
+        <v>3446</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>3447</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>3320</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3321</v>
+        <v>3416</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>3405</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>2863</v>
@@ -45343,30 +46722,27 @@
         <v>2864</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>2869</v>
+        <v>2873</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>2873</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>3292</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="5" t="s">
-        <v>3355</v>
+        <v>3448</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>3356</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>3357</v>
+        <v>3449</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>3450</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3320</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>3321</v>
+        <v>3416</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>3405</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>2863</v>
@@ -45375,30 +46751,27 @@
         <v>2864</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>2869</v>
-      </c>
-      <c r="J16" s="3" t="s">
         <v>2873</v>
       </c>
-      <c r="K16">
+      <c r="J16">
         <v>300</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="5" t="s">
-        <v>3358</v>
+        <v>3451</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>3359</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>3360</v>
+        <v>3452</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>3453</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>3320</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3321</v>
+        <v>3416</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>3405</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>2863</v>
@@ -45407,9 +46780,6 @@
         <v>2864</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>2869</v>
-      </c>
-      <c r="J17" s="3" t="s">
         <v>2869</v>
       </c>
     </row>
@@ -45417,19 +46787,19 @@
     <row r="19" ht="14.25"/>
     <row r="20" ht="14.25">
       <c r="A20" s="5" t="s">
-        <v>3361</v>
+        <v>3454</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>3362</v>
+        <v>3455</v>
       </c>
       <c r="C20" t="s">
-        <v>3363</v>
+        <v>3456</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>3364</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3321</v>
+        <v>3457</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>3405</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>2863</v>
@@ -45438,27 +46808,24 @@
         <v>2864</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>2869</v>
-      </c>
-      <c r="J20" s="3" t="s">
         <v>2999</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="5" t="s">
-        <v>3365</v>
+        <v>3458</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>3366</v>
+        <v>3459</v>
       </c>
       <c r="C21" t="s">
-        <v>3367</v>
+        <v>3460</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>3364</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3321</v>
+        <v>3457</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>3405</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>2863</v>
@@ -45467,9 +46834,6 @@
         <v>2864</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>2869</v>
-      </c>
-      <c r="J21" s="3" t="s">
         <v>2999</v>
       </c>
     </row>
@@ -45478,90 +46842,81 @@
     <row r="24" ht="14.25"/>
     <row r="25" ht="14.25">
       <c r="A25" s="5" t="s">
-        <v>3368</v>
+        <v>3461</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>3369</v>
+        <v>3462</v>
       </c>
       <c r="C25" t="s">
-        <v>3370</v>
+        <v>3463</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>3371</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>3321</v>
+        <v>3464</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>3405</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>3094</v>
+        <v>3109</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>3372</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>3373</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="26" ht="14.25"/>
     <row r="27" ht="14.25">
       <c r="A27" s="3" t="s">
-        <v>3374</v>
+        <v>3466</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>3375</v>
+        <v>3467</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>3376</v>
+        <v>3468</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>3377</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3321</v>
+        <v>3469</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>3405</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>3094</v>
+        <v>3109</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>3378</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3379</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" s="3" t="s">
-        <v>3070</v>
+        <v>3052</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>3380</v>
+        <v>3471</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>3381</v>
+        <v>3472</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>3377</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>3321</v>
+        <v>3469</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>3405</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>3094</v>
+        <v>3109</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>3382</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>3383</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="29" ht="14.25"/>
@@ -45570,76 +46925,70 @@
     <row r="32" ht="14.25"/>
     <row r="33" ht="14.25">
       <c r="A33" s="5" t="s">
-        <v>3384</v>
+        <v>3474</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>3385</v>
+        <v>3475</v>
       </c>
       <c r="C33" t="s">
-        <v>3386</v>
+        <v>3476</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>3387</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>3321</v>
+        <v>3477</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>3405</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>3094</v>
+        <v>3109</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>3388</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3379</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" s="3" t="s">
-        <v>3389</v>
+        <v>3478</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>3390</v>
+        <v>3479</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>3391</v>
+        <v>3480</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>3392</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>3321</v>
+        <v>3481</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>3405</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>3094</v>
+        <v>3109</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>3393</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>3394</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="35" ht="14.25"/>
     <row r="37" ht="14.25">
       <c r="A37" s="5"/>
       <c r="B37" s="3" t="s">
-        <v>3395</v>
+        <v>3483</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>3396</v>
+        <v>3484</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>3397</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>3321</v>
+        <v>3485</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>3405</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>2863</v>
@@ -45647,31 +46996,28 @@
       <c r="H37" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>2999</v>
       </c>
     </row>
     <row r="38" ht="14.25">
       <c r="A38" s="5" t="s">
-        <v>3398</v>
+        <v>3486</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>3399</v>
+        <v>3487</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>3400</v>
+        <v>3488</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>3401</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>3321</v>
+        <v>3489</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>3405</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>2863</v>
@@ -45679,13 +47025,10 @@
       <c r="H38" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>2999</v>
       </c>
     </row>
@@ -45693,28 +47036,25 @@
     <row r="40" ht="14.25"/>
     <row r="41" ht="14.25">
       <c r="A41" s="5" t="s">
-        <v>3402</v>
+        <v>3125</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>3403</v>
+        <v>3126</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>3404</v>
+        <v>3127</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>3128</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>3405</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3321</v>
-      </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>2863</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>2864</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>2869</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>2869</v>
@@ -45722,28 +47062,25 @@
     </row>
     <row r="42" ht="14.25">
       <c r="A42" s="5" t="s">
-        <v>3406</v>
+        <v>3129</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>3407</v>
+        <v>3130</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>3408</v>
+        <v>3131</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>3128</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>3405</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3321</v>
-      </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>2863</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>2864</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>2869</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>2869</v>
@@ -45751,28 +47088,25 @@
     </row>
     <row r="43" ht="14.25">
       <c r="A43" s="5" t="s">
-        <v>3409</v>
+        <v>3132</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>3410</v>
+        <v>3133</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>3411</v>
+        <v>3134</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>3128</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>3405</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3321</v>
-      </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>2863</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>2864</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>2869</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>2869</v>
@@ -45780,28 +47114,25 @@
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="5" t="s">
-        <v>3412</v>
+        <v>3135</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>3413</v>
+        <v>3136</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>3414</v>
+        <v>3137</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>3128</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>3405</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3321</v>
-      </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>2863</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>2864</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>2869</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>2869</v>
@@ -45809,28 +47140,25 @@
     </row>
     <row r="45" ht="14.25">
       <c r="A45" s="5" t="s">
-        <v>3415</v>
+        <v>3138</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>3416</v>
+        <v>3139</v>
       </c>
       <c r="C45" t="s">
-        <v>3417</v>
+        <v>3140</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>3128</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>3405</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3321</v>
-      </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>2863</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>2864</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>2869</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>2869</v>
@@ -45838,28 +47166,25 @@
     </row>
     <row r="46" ht="14.25">
       <c r="A46" s="5" t="s">
-        <v>3418</v>
+        <v>3141</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>3419</v>
+        <v>3142</v>
       </c>
       <c r="C46" t="s">
-        <v>3420</v>
+        <v>3143</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>3128</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>3405</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3321</v>
-      </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>2863</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>2864</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>2869</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>2869</v>
@@ -45867,28 +47192,25 @@
     </row>
     <row r="47" ht="14.25">
       <c r="A47" s="5" t="s">
-        <v>3421</v>
+        <v>3144</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>3422</v>
+        <v>3145</v>
       </c>
       <c r="C47" t="s">
-        <v>3423</v>
+        <v>3146</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>3128</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>3405</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3321</v>
-      </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>2863</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>2864</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>2869</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>2869</v>
@@ -45896,28 +47218,25 @@
     </row>
     <row r="48" ht="14.25">
       <c r="A48" s="5" t="s">
-        <v>3424</v>
+        <v>3147</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>3425</v>
+        <v>3148</v>
       </c>
       <c r="C48" t="s">
-        <v>3426</v>
+        <v>3149</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>3128</v>
+      </c>
+      <c r="F48" s="8" t="s">
         <v>3405</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3321</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>2863</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>2864</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>2869</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>2869</v>
@@ -45925,36 +47244,696 @@
     </row>
     <row r="49" ht="14.25">
       <c r="A49" s="5" t="s">
-        <v>3427</v>
+        <v>3150</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>3428</v>
+        <v>3151</v>
       </c>
       <c r="C49" t="s">
-        <v>3429</v>
+        <v>3152</v>
       </c>
       <c r="D49" s="3" t="s">
+        <v>3128</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>3405</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3321</v>
-      </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>2863</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>2864</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>2869</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>2869</v>
       </c>
     </row>
+    <row r="52" ht="14.25">
+      <c r="A52" s="5">
+        <v>139</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>3490</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3491</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>3492</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" s="5">
+        <v>140</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>3493</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" s="5">
+        <v>143</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>3497</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3498</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>3499</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="A55" s="5">
+        <v>137</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>3500</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3501</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>3502</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="A58" s="5">
+        <v>23</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>3503</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>3504</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>3505</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="A59" s="5">
+        <v>24</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>3506</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>3507</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="A60" s="5">
+        <v>25</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>3509</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>3510</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61" s="5">
+        <v>26</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>3511</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="A62" s="5">
+        <v>27</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>3514</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>3090</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="E64" s="5"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65" s="5">
+        <v>75</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>3517</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>3090</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="A66" s="5">
+        <v>76</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>3518</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>3519</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>3090</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="A69" s="5">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>3520</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>3521</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>3522</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1921</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="A70" s="5">
+        <v>6</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>3523</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>3524</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>3522</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7" t="s">
+        <v>3405</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="73" ht="14.25">
+      <c r="A73" s="5">
+        <v>2</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>3525</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>3526</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>3527</v>
+      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="A74" s="5">
+        <v>3</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>3528</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>3529</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>3530</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="A75" s="5">
+        <v>8</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>3531</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>3532</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="E75" s="7"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="A76" s="5">
+        <v>10</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>3533</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>3534</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>3535</v>
+      </c>
+      <c r="E76" s="7"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="A78" s="5">
+        <v>11</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>3536</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>3537</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>3538</v>
+      </c>
+      <c r="E78" s="7"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" ht="14.25">
+      <c r="E79" s="5"/>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="A80" s="5">
+        <v>21</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>3539</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>3540</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>3541</v>
+      </c>
+      <c r="E80" s="7"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="A81" s="5">
+        <v>47</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>3542</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>3543</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>3541</v>
+      </c>
+      <c r="E81" s="7"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="84" ht="14.25">
+      <c r="A84" s="5">
+        <v>29</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>3544</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>3545</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>3546</v>
+      </c>
+      <c r="E84" s="7"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" ht="14.25">
+      <c r="A85" s="5">
+        <v>35</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>3547</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>3548</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>3546</v>
+      </c>
+      <c r="E85" s="7"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I85" s="3"/>
+    </row>
+    <row r="86" ht="14.25">
+      <c r="A86" s="5">
+        <v>91</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>3549</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>3550</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>3546</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I86" s="3"/>
+    </row>
+    <row r="88" ht="14.25">
+      <c r="A88" s="5">
+        <v>18</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>3551</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>3552</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>3245</v>
+      </c>
+      <c r="E88" s="7"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" ht="14.25">
+      <c r="A89" s="5">
+        <v>17</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>3554</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>3245</v>
+      </c>
+      <c r="E89" s="7"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I89" s="3"/>
+    </row>
+    <row r="91" ht="14.25">
+      <c r="A91" s="5">
+        <v>69</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>3555</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>3556</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>3557</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>2862</v>
+      </c>
+      <c r="F91" s="16"/>
+      <c r="G91" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I91" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="N3"/>
+    <hyperlink r:id="rId1" ref="M3"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -45970,7 +47949,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/Selected_Downloads.xlsx
+++ b/Selected_Downloads.xlsx
@@ -3,22 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Revistas" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Cristianismo" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Brasil_Pol" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Brasil+Portugal_His" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="X Board" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Television" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="_Pol_" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="_His_" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Architecture" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="X Board" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Television" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3558" uniqueCount="3558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3796" uniqueCount="3796">
   <si>
     <t>Index</t>
   </si>
@@ -9326,12 +9327,69 @@
     <t xml:space="preserve">Roberto Gama e Silva</t>
   </si>
   <si>
+    <t xml:space="preserve">/pol/ em Português</t>
+  </si>
+  <si>
     <t>1991-olho-grande-na-amazonia-brasileira</t>
   </si>
   <si>
     <t xml:space="preserve">Olho Grande na Amazônia Brasileira</t>
   </si>
   <si>
+    <t>1985-sao-mesmo-nossos-os-minerais-nao-energeticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São Mesmo Nossos os Minerais Não-Energéticos? </t>
+  </si>
+  <si>
+    <t>a-amazonia-sua-invasao-seu-desmatamento-e-queimadas-c-alte.-roberto-gama-e-silva-2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Amazônia, sua invasão, seu desmatamento e queimadas</t>
+  </si>
+  <si>
+    <t>eduardocruz_28@yahoo.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artigo escrito pelo Contra-Almirante Roberto Gama e Silva, candidato a Vice-Presidente da República na chapa liderada pelo Dr. Enéas Carneiro. A morte dele completou oito anos neste 8 de maio de 2021. Portanto, hoje temos ocasião apropriada para comentar sua atuação, marcada pelo combate cerrado à subversão marxista e à infiltração de grupos estrangeiros na Amazônia – inclusive certas organizações judaicas e protestantes.     Roberto Gama e Silva nasceu em Manaus, no dia 1º de janeiro de 1932. Foi declarado guarda-marinha em 3 de janeiro de 1953, ao concluir o curso da Escola Naval como 2º colocado de sua turma. Posteriormente, em 17 de setembro de 1955, desposou a filha do Coronel Edmundo Orlandini, de quem recebeu marcante influência, conforme relatado em texto de sua lavra [1]. Por ironia do destino, reforçou suas convicções quando estagiou na Marinha dos EUA, freqüentando um curso de Eletrônica (1956-1958). Ficou impressionado ao observar a intransigência daquele país na defesa dos seus interesses:     "Tornei-me um nacionalista de carteirinha pelo contato que tive com o nacionalismo norte-americano. No mundo-cão em que vivemos, não um mundo globalizado, cada país se protege como pode" [2].     Tão logo regressou ao Brasil, foi designado instrutor do Curso de Especialização em Comunicações Navais do CIAW (1958-1960). Na seqüência, já promovido a Capitão-Tenente, serviu por três anos como adjunto da Subchefia de Inteligência do Estado-Maior da Armada (1960-1963). Nesse período de turbulência, seu acesso a relatórios sigilosos deu-lhe uma visão privilegiada do avanço da subversão marxista no Brasil. Numerosos informes colhidos pela referida Subchefia evidenciavam a conformação de um processo revolucionário.     Promovido a Capitão-de-Corveta em 21 de março de 1963, Gama e Silva foi transferido para o CIAW na qualidade de assistente do Comandante daquele Centro, CMG Adolpho Barroso de Vasconcellos. Foi nesta posição que testemunhou a Revolta dos Marinheiros, motim de inspiração comunista que culminou com a destituição do Comandante do Centro, em 27 de março de 1964. Diante desta conjuntura, aderiu prontamente ao Movimento Cívico-Militar de 1964, sob as ordens do novo Comandante da unidade, CMG Francisco Augusto Simas de Alcântara.     Gama e Silva permaneceu no CIAW até 1966, sendo depois nomeado secretário militar do Gabinete do Ministro da Marinha (1966-1967). Nesse período, impressionou-se ao observar a batalha travada pelo seu sogro, Presidente da Companhia Nacional de Alcális, firma estatal encarregada de produzir barrilha para a indústria química. No intuito de sabotá-la, sucessivas manobras foram orquestradas pelo cartel estrangeiro interessado em manter o Brasil na condição de importador. O episódio chamou a atenção de Gama e Silva e levou-o a se aprofundar no estudo das pressões externas que o Estado sofre quando tenta tomar decisões consentâneas com os interesses da Pátria [3].     Pelos dez anos seguintes, nosso marujo galgou postos na hierarquia à medida que cumpria suas missões em diferentes cargos: Comandante da Capitania dos Portos do Espírito Santo (1967-1969), Instrutor da Escola de Guerra Naval (1970-1971), Adjunto da Comissão Naval Brasileira em Washington (1971-1973) e depois aluno da mesma Escola (1974-1977).     Após ser promovido a CMG, voltou a atuar na área de Inteligência, em virtude de sua nomeação para o cargo de Chefe da Agência Estadual do SNI no Amazonas (1977-1979). Esta missão foi-lhe marcante por dois motivos: a Amazônia era sua terra natal e sofria com a dilapidação de suas riquezas por grupos estrangeiros, alguns atuantes na forma de empresas, outros na forma de ONGs e pseudo-missionários. Gama e Silva logo percebeu o tamanho do saque, através de relatórios processados pela equipe do SNI.     Sua ação imediata voltou-se contra o SIL (Summer Institute of Linguistics), organização "missionária" protestante que, sob pretexto de traduzir bíblias nos idiomas dos índios, atuava como agência de espionagem dos Rockefeller, mapeando jazidas minerais clandestinamente. Gama e Silva atribuiu aos seus homens a missão de monitorar as atividades do SIL e produzir relatórios. Após reunir indícios suficientes, encaminhou os papéis à FUNAI e ao Conselho de Segurança Nacional, recomendando que o SIL fosse banido do País. Em 25 de novembro de 1977, o Governo Federal revogou o convênio SIL-FUNAI, vigente desde 1958, e cassou os vistos dos integrantes da organização, 153 pessoas no total. Décadas depois, Gama e Silva lembraria do embate com os picaretas do SIL, "uns estrangeiros travestidos de missionários que botei para correr" [4].     Promovido a Contra-Almirante em 1980, Roberto Gama e Silva cumpriu sua última missão como Presidente do GEBAM - Grupo Executivo do Baixo Amazonas (1980-1984), órgão subordinado à Secretaria-Geral do Conselho de Segurança Nacional. Coube-lhe, nesta posição, a tarefa de coordenar a regularização fundiária de uma vasta porção da Amazônia, a fim de viabilizar a ocupação ordeira daquelas paragens. Rapidamente, o GEBAM identificou três esquemas de grilagem orquestrados por corporações estrangeiras interessadas em pilhar riquezas minerais e plantas medicinais. Não imaginavam os forasteiros que a equipe do GEBAM se disporia a confrontar dados de inúmeras fontes: arquivos notariais, laudos do DNPM, levantamentos aerofotogramétricos, sentenças judiciais, etc. Isso numa época em que inexistiam acervos digitalizados. Imensas distâncias foram cobertas graças a uma parceria com a FAB, viabilizando diligências in loco.     Um dos trustes investigados tinha à sua frente o bilionário Daniel Keith Ludwig, proprietário do Projeto Jari, ao qual Gama e Silva se referia como "quisto alienígena". Ludwig decidiu vender seus negócios no Brasil antes que a casa caísse, em 1981. Àquela altura, o GEBAM já havia reunido evidências consistentes de fraude cartorial e lesão aos interesses nacionais.     O segundo enclave estrangeiro foi extirpado em 1982. Tratava-se de uma gleba em Calçoene (AP), adquirida ilegalmente pelo magnata Shaul Nehamia Eisenberg, judeu polonês naturalizado americano, fundador da Israel Corporation. Com autorização do Conselho de Segurança Nacional, o GEBAM ajuizou a Ação Cível nº 586/81, pleiteando a desapropriação da área, controlada por intermédio de uma empresa-fantasma denominada Agrical Participação Empreendimentos S/A. Para se defender, Eisenberg contratou como procurador o Dr. William Pierce Rogers, ex-Secretário de Estado dos EUA, numa tentativa de intimidar as autoridades locais. Em dezembro de 1982, a Justiça Federal declarou nulos os registros fundiários de Eisenberg e determinou a reversão das terras para o patrimônio da União.     O terceiro quisto foi removido dois anos depois, quando o GEBAM convenceu o Presidente João Baptista Figueiredo a criar a RENCA - Reserva Nacional de Cobre e seus Associados. A edição desse decreto frustrou as pretensões da British Petroleum Corporation, cuja acionista majoritária era a Coroa Inglesa. A empresa havia apresentado requerimentos ao DNPM para explorar o depósito de cobre existente no Amapá. Levando em conta que o Brasil é carente deste metal, Gama e Silva concluiu que seria prudente impedir o esgotamento precoce da jazida. Para tanto, seria necessário transformá-la em reserva estratégica a ser explorada no futuro, em proveito da indústria nacional, em situações de encarecimento abrupto do cobre no mercado externo. A argumentação foi acatada pelo General Danilo Venturini, Secretário-Geral do Conselho de Segurança Nacional, que encaminhou ao Presidente da República uma Exposição de Motivos acompanhada da minuta do Decreto nº 89.404, assinado em 24 de fevereiro de 1984.     Roberto Gama e Silva passou à reserva em 25 de maio de 1984, mas não descansou. Prosseguiu no combate, agora publicando livros: 'São mesmo nossos os minerais não-energéticos?' (1985), 'O entreguismo dos minérios' (1988) e 'Olho grande na Amazônia brasileira' (1991). Os três constituem leitura obrigatória para aqueles que se preocupam com as questões relacionadas à defesa do interesse nacional. Neles o leitor encontrará uma discussão qualificada sobre os minérios estratégicos e críticos, sua exploração e aproveitamento, sua relevância geopolítica, seu papel no jogo de poder entre as nações e sua importância para a capacidade combatente das Forças Armadas. Toda a linha expositiva do autor vem acompanhada de documentos, mapas, gráficos, informações exclusivas e experiências próprias de quem dedicou sua vida ao Brasil.     Foi nos anos 80 e 90 que Gama e Silva aproximou-se do Dr. Enéas Carneiro, a quem se associou na fundação do PRONA. Ambos marcharam ombro a ombro no prélio eleitoral de 1994. Não ganharam nas urnas, mas mantiveram a coerência que os vencedores deixaram para trás na primeira oportunidade. E é isso que importa. "Combati o bom combate, encerrei a carreira e guardei a Fé" – Timóteo 4:7.     NOTAS:     [1] O Farol, nº 63, Fevereiro/2000, p. 4: 'Ciência e Tecnologia'.     [2] Revista Aeronáutica, nº 278, janeiro-março/2012, pp. 22-23: 'Prezado compatriota Francisco Vianna'.     [3] SILVA, Roberto Gama e. São mesmo nossos os minerais não-energéticos?. Rio de Janeiro: Philobiblion, 1985, pp. 138-139.     [4] Jornal do Brasil, 2 de novembro de 2001, p. 2: 'Candidato do protecionismo'.</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>o-subsolo-a-uniao-e-os-estados-monopolio-estatal-do-petroleo-e-outros-monopolios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O subsolo, a União e os Estados, monopólio estatal do petróleo e outros monopólios, reservas estratégicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exposição feita pelo Contra-Almirante Roberto Gama e Silva perante uma das subcomissões da Assembléia Constituinte. A morte dele completou oito anos neste 8 de maio de 2021. Portanto, hoje temos ocasião apropriada para comentar sua trajetória, marcada pelo combate cerrado à subversão marxista e à infiltração de grupos estrangeiros na Amazônia – inclusive certas organizações judaicas e protestantes.     Roberto Gama e Silva nasceu em Manaus, no dia 1º de janeiro de 1932. Foi declarado guarda-marinha em 3 de janeiro de 1953, ao concluir o curso da Escola Naval como 2º colocado de sua turma. Posteriormente, em 17 de setembro de 1955, desposou a filha do Coronel Edmundo Orlandini, de quem recebeu marcante influência, conforme relatado em texto de sua lavra [1]. Por ironia do destino, reforçou suas convicções quando estagiou na Marinha dos EUA, freqüentando um curso de Eletrônica (1956-1958). Ficou impressionado ao observar a intransigência daquele país na defesa dos seus interesses:     "Tornei-me um nacionalista de carteirinha pelo contato que tive com o nacionalismo norte-americano. No mundo-cão em que vivemos, não um mundo globalizado, cada país se protege como pode" [2].     Tão logo regressou ao Brasil, foi designado instrutor do Curso de Especialização em Comunicações Navais do CIAW (1958-1960). Na seqüência, já promovido a Capitão-Tenente, serviu por três anos como adjunto da Subchefia de Inteligência do Estado-Maior da Armada (1960-1963). Nesse período de turbulência, seu acesso a relatórios sigilosos deu-lhe uma visão privilegiada do avanço da subversão marxista no Brasil. Numerosos informes colhidos pela referida Subchefia evidenciavam a conformação de um processo revolucionário.     Promovido a Capitão-de-Corveta em 21 de março de 1963, Gama e Silva foi transferido para o CIAW na qualidade de assistente do Comandante daquele Centro, CMG Adolpho Barroso de Vasconcellos. Foi nesta posição que testemunhou a Revolta dos Marinheiros, motim de inspiração comunista que culminou com a destituição do Comandante do Centro, em 27 de março de 1964. Diante desta conjuntura, aderiu prontamente ao Movimento Cívico-Militar de 1964, sob as ordens do novo Comandante da unidade, CMG Francisco Augusto Simas de Alcântara.     Gama e Silva permaneceu no CIAW até 1966, sendo depois nomeado secretário militar do Gabinete do Ministro da Marinha (1966-1967). Nesse período, impressionou-se ao observar a batalha travada pelo seu sogro, Presidente da Companhia Nacional de Alcális, firma estatal encarregada de produzir barrilha para a indústria química. No intuito de sabotá-la, sucessivas manobras foram orquestradas pelo cartel estrangeiro interessado em manter o Brasil na condição de importador. O episódio chamou a atenção de Gama e Silva e levou-o a se aprofundar no estudo das pressões externas que o Estado sofre quando tenta tomar decisões consentâneas com os interesses da Pátria [3].     Pelos dez anos seguintes, nosso marujo galgou postos na hierarquia à medida que cumpria suas missões em diferentes cargos: Comandante da Capitania dos Portos do Espírito Santo (1967-1969), Instrutor da Escola de Guerra Naval (1970-1971), Adjunto da Comissão Naval Brasileira em Washington (1971-1973) e depois aluno da mesma Escola (1974-1977).     Após ser promovido a CMG, voltou a atuar na área de Inteligência, em virtude de sua nomeação para o cargo de Chefe da Agência Estadual do SNI no Amazonas (1977-1979). Esta missão foi-lhe marcante por dois motivos: a Amazônia era sua terra natal e sofria com a dilapidação de suas riquezas por grupos estrangeiros, alguns atuantes na forma de empresas, outros na forma de ONGs e pseudo-missionários. Gama e Silva logo percebeu o tamanho do saque, através de relatórios processados pela equipe do SNI.     Sua ação imediata voltou-se contra o SIL (Summer Institute of Linguistics), organização "missionária" protestante que, sob pretexto de traduzir bíblias nos idiomas dos índios, atuava como agência de espionagem dos Rockefeller, mapeando jazidas minerais clandestinamente. Gama e Silva atribuiu aos seus homens a missão de monitorar as atividades do SIL e produzir relatórios. Após reunir indícios suficientes, encaminhou os papéis à FUNAI e ao Conselho de Segurança Nacional, recomendando que o SIL fosse banido do País. Em 25 de novembro de 1977, o Governo Federal revogou o convênio SIL-FUNAI, vigente desde 1958, e cassou os vistos dos integrantes da organização, 153 pessoas no total. Décadas depois, Gama e Silva lembraria do embate com os picaretas do SIL, "uns estrangeiros travestidos de missionários que botei para correr" [4].     Promovido a Contra-Almirante em 1980, Roberto Gama e Silva cumpriu sua última missão como Presidente do GEBAM - Grupo Executivo do Baixo Amazonas (1980-1984), órgão subordinado à Secretaria-Geral do Conselho de Segurança Nacional. Coube-lhe, nesta posição, a tarefa de coordenar a regularização fundiária de uma vasta porção da Amazônia, a fim de viabilizar a ocupação ordeira daquelas paragens. Rapidamente, o GEBAM identificou três esquemas de grilagem orquestrados por corporações estrangeiras interessadas em pilhar riquezas minerais e plantas medicinais. Não imaginavam os forasteiros que a equipe do GEBAM se disporia a confrontar dados de inúmeras fontes: arquivos notariais, laudos do DNPM, levantamentos aerofotogramétricos, sentenças judiciais, etc. Isso numa época em que inexistiam acervos digitalizados. Imensas distâncias foram cobertas graças a uma parceria com a FAB, viabilizando diligências in loco.     Um dos trustes investigados tinha à sua frente o bilionário Daniel Keith Ludwig, proprietário do Projeto Jari, ao qual Gama e Silva se referia como "quisto alienígena". Ludwig decidiu vender seus negócios no Brasil antes que a casa caísse, em 1981. Àquela altura, o GEBAM já havia reunido evidências consistentes de fraude cartorial e lesão aos interesses nacionais.     O segundo enclave estrangeiro foi extirpado em 1982. Tratava-se de uma gleba em Calçoene (AP), adquirida ilegalmente pelo magnata Shaul Nehamia Eisenberg, judeu polonês naturalizado americano, fundador da Israel Corporation. Com autorização do Conselho de Segurança Nacional, o GEBAM ajuizou a Ação Cível nº 586/81, pleiteando a desapropriação da área, controlada por intermédio de uma empresa-fantasma denominada Agrical Participação Empreendimentos S/A. Para se defender, Eisenberg contratou como procurador o Dr. William Pierce Rogers, ex-Secretário de Estado dos EUA, numa tentativa de intimidar as autoridades locais. Em dezembro de 1982, a Justiça Federal declarou nulos os registros fundiários de Eisenberg e determinou a reversão das terras para o patrimônio da União.     O terceiro quisto foi removido dois anos depois, quando o GEBAM convenceu o Presidente João Baptista Figueiredo a criar a RENCA - Reserva Nacional de Cobre e seus Associados. A edição desse decreto frustrou as pretensões da British Petroleum Corporation, cuja acionista majoritária era a Coroa Inglesa. A empresa havia apresentado requerimentos ao DNPM para explorar o depósito de cobre existente no Amapá. Levando em conta que o Brasil é carente deste metal, Gama e Silva concluiu que seria prudente impedir o esgotamento precoce da jazida. Para tanto, seria necessário transformá-la em reserva estratégica a ser explorada no futuro, em proveito da indústria nacional, em situações de encarecimento abrupto do cobre no mercado externo. A argumentação foi acatada pelo General Danilo Venturini, Secretário-Geral do Conselho de Segurança Nacional, que encaminhou ao Presidente da República uma Exposição de Motivos acompanhada da minuta do Decreto nº 89.404, assinado em 24 de fevereiro de 1984.     Roberto Gama e Silva passou à reserva em 25 de maio de 1984, mas não descansou. Prosseguiu no combate, agora publicando livros: 'São mesmo nossos os minerais não-energéticos?' (1985), 'O entreguismo dos minérios' (1988) e 'Olho grande na Amazônia brasileira' (1991). Os três constituem leitura obrigatória para aqueles que se preocupam com as questões relacionadas à defesa do interesse nacional. Neles o leitor encontrará uma discussão qualificada sobre os minérios estratégicos e críticos, sua exploração e aproveitamento, sua relevância geopolítica, seu papel no jogo de poder entre as nações e sua importância para a capacidade combatente das Forças Armadas. Toda a linha expositiva do autor vem acompanhada de documentos, mapas, gráficos, informações exclusivas e experiências próprias de quem dedicou sua vida ao Brasil.     Foi nos anos 80 e 90 que Gama e Silva aproximou-se do Dr. Enéas Carneiro, a quem se associou na fundação do PRONA. Ambos marcharam ombro a ombro no prélio eleitoral de 1994. Não ganharam nas urnas, mas mantiveram a coerência que os vencedores deixaram para trás na primeira oportunidade. E é isso que importa. "Combati o bom combate, encerrei a carreira e guardei a Fé" – Timóteo 4:7.     NOTAS:     [1] O Farol, nº 63, Fevereiro/2000, p. 4: 'Ciência e Tecnologia'.     [2] Revista Aeronáutica, nº 278, janeiro-março/2012, pp. 22-23: 'Prezado compatriota Francisco Vianna'.     [3] SILVA, Roberto Gama e. São mesmo nossos os minerais não-energéticos?. Rio de Janeiro: Philobiblion, 1985, pp. 138-139.     [4] Jornal do Brasil, 2 de novembro de 2001, p. 2: 'Candidato do protecionismo'.</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>olho-grande-na-amazonia-brasileira-alte.-roberto-gama-e-silva-1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olho grande na Amazônia brasileira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Livro escrito pelo Contra-Almirante Roberto Gama e Silva, candidato a Vice-Presidente da República na chapa liderada pelo Dr. Enéas Carneiro. A morte dele completou oito anos neste 8 de maio de 2021. Portanto, hoje temos ocasião apropriada para comentar a vida do autor, que durante sua jornada timbrou pelo engajamento na luta contra a subversão marxista e a infiltração de grupos estrangeiros na Amazônia – inclusive certas organizações judaicas e protestantes.     Roberto Gama e Silva nasceu em Manaus, no dia 1º de janeiro de 1932. Foi declarado guarda-marinha em 3 de janeiro de 1953, ao concluir o curso da Escola Naval como 2º colocado de sua turma. Posteriormente, em 17 de setembro de 1955, desposou a filha do Coronel Edmundo Orlandini, de quem recebeu marcante influência, conforme relatado em texto de sua lavra [1]. Por ironia do destino, reforçou suas convicções quando estagiou na Marinha dos EUA, freqüentando um curso de Eletrônica (1956-1958). Ficou impressionado ao observar a intransigência daquele país na defesa dos seus interesses:"Tornei-me um nacionalista de carteirinha pelo contato que tive com o nacionalismo norte-americano. No mundo-cão em que vivemos, não um mundo globalizado, cada país se protege como pode" [2].Tão logo regressou ao Brasil, foi designado instrutor do Curso de Especialização em Comunicações Navais do CIAW (1958-1960). Na seqüência, já promovido a Capitão-Tenente, serviu por três anos como adjunto da Subchefia de Inteligência do Estado-Maior da Armada (1960-1963). Nesse período de turbulência, seu acesso a relatórios sigilosos deu-lhe uma visão privilegiada do avanço da subversão marxista no Brasil. Numerosos informes colhidos pela referida Subchefia evidenciavam a conformação de um processo revolucionário.     Promovido a Capitão-de-Corveta em 21 de março de 1963, Gama e Silva foi transferido para o CIAW na qualidade de assistente do Comandante daquele Centro, CMG Adolpho Barroso de Vasconcellos. Foi nesta posição que testemunhou a Revolta dos Marinheiros, motim de inspiração comunista que culminou com a destituição do Comandante do Centro, em 27 de março de 1964. Diante desta conjuntura, aderiu prontamente ao Movimento Cívico-Militar de 1964, sob as ordens do novo Comandante da unidade, CMG Francisco Augusto Simas de Alcântara.     Gama e Silva permaneceu no CIAW até 1966, sendo depois nomeado secretário militar do Gabinete do Ministro da Marinha (1966-1967). Nesse período, impressionou-se ao observar a batalha travada pelo seu sogro, Presidente da Companhia Nacional de Alcális, firma estatal encarregada de produzir barrilha para a indústria química. No intuito de sabotá-la, sucessivas manobras foram orquestradas pelo cartel estrangeiro interessado em manter o Brasil na condição de importador. O episódio chamou a atenção de Gama e Silva e levou-o a se aprofundar no estudo das pressões externas que o Estado sofre quando tenta tomar decisões consentâneas com os interesses da Pátria [3].     Pelos dez anos seguintes, nosso marujo galgou postos na hierarquia à medida que cumpria suas missões em diferentes cargos: Comandante da Capitania dos Portos do Espírito Santo (1967-1969), Instrutor da Escola de Guerra Naval (1970-1971), Adjunto da Comissão Naval Brasileira em Washington (1971-1973) e depois aluno da mesma Escola (1974-1977).     Após ser promovido a CMG, voltou a atuar na área de Inteligência, em virtude de sua nomeação para o cargo de Chefe da Agência Estadual do SNI no Amazonas (1977-1979). Esta missão foi-lhe marcante por dois motivos: a Amazônia era sua terra natal e sofria com a dilapidação de suas riquezas por grupos estrangeiros, alguns atuantes na forma de empresas, outros na forma de ONGs e pseudo-missionários. Gama e Silva logo percebeu o tamanho do saque, através de relatórios processados pela equipe do SNI.     Sua ação imediata voltou-se contra o SIL (Summer Institute of Linguistics), organização "missionária" protestante que, sob pretexto de traduzir bíblias nos idiomas dos índios, atuava como agência de espionagem dos Rockefeller, mapeando jazidas minerais clandestinamente. Gama e Silva atribuiu aos seus homens a missão de monitorar as atividades do SIL e produzir relatórios. Após reunir indícios suficientes, encaminhou os papéis à FUNAI e ao Conselho de Segurança Nacional, recomendando que o SIL fosse banido do País. Em 25 de novembro de 1977, o Governo Federal revogou o convênio SIL-FUNAI, vigente desde 1958, e cassou os vistos dos integrantes da organização, 153 pessoas no total. Décadas depois, Gama e Silva lembraria do embate com os picaretas do SIL, "uns estrangeiros travestidos de missionários que botei para correr" [4].     Promovido a Contra-Almirante em 1980, Roberto Gama e Silva cumpriu sua última missão como Presidente do GEBAM - Grupo Executivo do Baixo Amazonas (1980-1984), órgão subordinado à Secretaria-Geral do Conselho de Segurança Nacional. Coube-lhe, nesta posição, a tarefa de coordenar a regularização fundiária de uma vasta porção da Amazônia, a fim de viabilizar a ocupação ordeira daquelas paragens. Rapidamente, o GEBAM identificou três esquemas de grilagem orquestrados por corporações estrangeiras interessadas em pilhar riquezas minerais e plantas medicinais. Não imaginavam os forasteiros que a equipe do GEBAM se disporia a confrontar dados de inúmeras fontes: arquivos notariais, laudos do DNPM, levantamentos aerofotogramétricos, sentenças judiciais, etc. Isso numa época em que inexistiam acervos digitalizados. Imensas distâncias foram cobertas graças a uma parceria com a FAB, viabilizando diligências in loco.     Um dos trustes investigados tinha à sua frente o bilionário Daniel Keith Ludwig, proprietário do Projeto Jari, ao qual Gama e Silva se referia como "quisto alienígena". Ludwig decidiu vender seus negócios no Brasil antes que a casa caísse, em 1981. Àquela altura, o GEBAM já havia reunido evidências consistentes de fraude cartorial e lesão aos interesses nacionais.     O segundo enclave estrangeiro foi extirpado em 1982. Tratava-se de uma gleba em Calçoene (AP), adquirida ilegalmente pelo magnata Shaul Nehamia Eisenberg, judeu polonês naturalizado americano, fundador da Israel Corporation. Com autorização do Conselho de Segurança Nacional, o GEBAM ajuizou a Ação Cível nº 586/81, pleiteando a desapropriação da área, controlada por intermédio de uma empresa-fantasma denominada Agrical Participação Empreendimentos S/A. Para se defender, Eisenberg contratou como procurador o Dr. William Pierce Rogers, ex-Secretário de Estado dos EUA, numa tentativa de intimidar as autoridades locais. Em dezembro de 1982, a Justiça Federal declarou nulos os registros fundiários de Eisenberg e determinou a reversão das terras para o patrimônio da União.     O terceiro quisto foi removido dois anos depois, quando o GEBAM convenceu o Presidente João Baptista Figueiredo a criar a RENCA - Reserva Nacional de Cobre e seus Associados. A edição desse decreto frustrou as pretensões da British Petroleum Corporation, cuja acionista majoritária era a Coroa Inglesa. A empresa havia apresentado requerimentos ao DNPM para explorar o depósito de cobre existente no Amapá. Levando em conta que o Brasil é carente deste metal, Gama e Silva concluiu que seria prudente impedir o esgotamento precoce da jazida. Para tanto, seria necessário transformá-la em reserva estratégica a ser explorada no futuro, em proveito da indústria nacional, em situações de encarecimento abrupto do cobre no mercado externo. A argumentação foi acatada pelo General Danilo Venturini, Secretário-Geral do Conselho de Segurança Nacional, que encaminhou ao Presidente da República uma Exposição de Motivos acompanhada da minuta do Decreto nº 89.404, assinado em 24 de fevereiro de 1984.     Roberto Gama e Silva passou à reserva em 25 de maio de 1984, mas não descansou. Prosseguiu no combate, agora publicando livros: 'São mesmo nossos os minerais não-energéticos?' (1985), 'O entreguismo dos minérios' (1988) e 'Olho grande na Amazônia brasileira' (1991). Os três constituem leitura obrigatória para aqueles que se preocupam com as questões relacionadas à defesa do interesse nacional. Neles o leitor encontrará uma discussão qualificada sobre os minérios estratégicos e críticos, sua exploração e aproveitamento, sua relevância geopolítica, seu papel no jogo de poder entre as nações e sua importância para a capacidade combatente das Forças Armadas. Toda a linha expositiva do autor vem acompanhada de documentos, mapas, gráficos, informações exclusivas e experiências próprias de quem dedicou sua vida ao Brasil.     Foi nos anos 80 e 90 que Gama e Silva aproximou-se do Dr. Enéas Carneiro, a quem se associou na fundação do PRONA. Ambos marcharam ombro a ombro no prélio eleitoral de 1994. Não ganharam nas urnas, mas mantiveram a coerência que os vencedores deixaram para trás na primeira oportunidade. E é isso que importa. "Combati o bom combate, encerrei a carreira e guardei a Fé" – Timóteo 4:7.     NOTAS:     [1] O Farol, nº 63, Fevereiro/2000, p. 4: 'Ciência e Tecnologia'.     [2] Revista Aeronáutica, nº 278, janeiro-março/2012, pp. 22-23: 'Prezado compatriota Francisco Vianna'.     [3] SILVA, Roberto Gama e. São mesmo nossos os minerais não-energéticos?. Rio de Janeiro: Philobiblion, 1985, pp. 138-139.     [4] Jornal do Brasil, 2 de novembro de 2001, p. 2: 'Candidato do protecionismo'.</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>relatorio-de-fim-de-comissao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relatório de Missão - Confidencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relatório apresentado pelo Contra-Almirante Roberto Gama e Silva no encerramento de suas atividades à frente do GEBAM - Grupo Executivo do Baixo Amazonas. O documento foi enviado ao General Danilo Venturini, Secretário-Geral do Conselho de Segurança Nacional, órgão ao qual o GEBAM estava subordinado.     A morte do Contra-Almirante completou oito anos neste 8 de maio de 2021. Portanto, hoje temos ocasião apropriada para comentar sua atuação, marcada pelo combate cerrado contra a subversão marxista e a infiltração de grupos estrangeiros na Amazônia – inclusive certas organizações judaicas e protestantes.     Roberto Gama e Silva nasceu em Manaus, no dia 1º de janeiro de 1932. Foi declarado guarda-marinha em 3 de janeiro de 1953, ao concluir o curso da Escola Naval como 2º colocado de sua turma. Posteriormente, em 17 de setembro de 1955, desposou a filha do Coronel Edmundo Orlandini, de quem recebeu marcante influência, conforme relatado em texto de sua lavra [1]. Por ironia do destino, reforçou suas convicções quando estagiou na Marinha dos EUA, freqüentando um curso de Eletrônica (1956-1958). Ficou impressionado ao observar a intransigência daquele país na defesa dos seus interesses:     "Tornei-me um nacionalista de carteirinha pelo contato que tive com o nacionalismo norte-americano. No mundo-cão em que vivemos, não um mundo globalizado, cada país se protege como pode" [2].     Tão logo regressou ao Brasil, foi designado instrutor do Curso de Especialização em Comunicações Navais do CIAW (1958-1960). Na seqüência, já promovido a Capitão-Tenente, serviu por três anos como adjunto da Subchefia de Inteligência do Estado-Maior da Armada (1960-1963). Nesse período de turbulência, seu acesso a relatórios sigilosos deu-lhe uma visão privilegiada do avanço da subversão marxista no Brasil. Numerosos informes colhidos pela referida Subchefia evidenciavam a conformação de um processo revolucionário.     Promovido a Capitão-de-Corveta em 21 de março de 1963, Gama e Silva foi transferido para o CIAW na qualidade de assistente do Comandante daquele Centro, CMG Adolpho Barroso de Vasconcellos. Foi nesta posição que testemunhou a Revolta dos Marinheiros, motim de inspiração comunista que culminou com a destituição do Comandante do Centro, em 27 de março de 1964. Diante desta conjuntura, aderiu prontamente ao Movimento Cívico-Militar de 1964, sob as ordens do novo Comandante da unidade, CMG Francisco Augusto Simas de Alcântara.     Gama e Silva permaneceu no CIAW até 1966, sendo depois nomeado secretário militar do Gabinete do Ministro da Marinha (1966-1967). Nesse período, impressionou-se ao observar a batalha travada pelo seu sogro, Presidente da Companhia Nacional de Alcális, firma estatal encarregada de produzir barrilha para a indústria química. No intuito de sabotá-la, sucessivas manobras foram orquestradas pelo cartel estrangeiro interessado em manter o Brasil na condição de importador. O episódio chamou a atenção de Gama e Silva e levou-o a se aprofundar no estudo das pressões externas que o Estado sofre quando tenta tomar decisões consentâneas com os interesses da Pátria [3].     Pelos dez anos seguintes, nosso marujo galgou postos na hierarquia à medida que cumpria suas missões em diferentes cargos: Comandante da Capitania dos Portos do Espírito Santo (1967-1969), Instrutor da Escola de Guerra Naval (1970-1971), Adjunto da Comissão Naval Brasileira em Washington (1971-1973) e depois aluno da mesma Escola (1974-1977).     Após ser promovido a CMG, voltou a atuar na área de Inteligência, em virtude de sua nomeação para o cargo de Chefe da Agência Estadual do SNI no Amazonas (1977-1979). Esta missão foi-lhe marcante por dois motivos: a Amazônia era sua terra natal e sofria com a dilapidação de suas riquezas por grupos estrangeiros, alguns atuantes na forma de empresas, outros na forma de ONGs e pseudo-missionários. Gama e Silva logo percebeu o tamanho do saque, através de relatórios processados pela equipe do SNI.     Sua ação imediata voltou-se contra o SIL (Summer Institute of Linguistics), organização "missionária" protestante que, sob pretexto de traduzir bíblias nos idiomas dos índios, atuava como agência de espionagem dos Rockefeller, mapeando jazidas minerais clandestinamente. Gama e Silva atribuiu aos seus homens a missão de monitorar as atividades do SIL e produzir relatórios. Após reunir indícios suficientes, encaminhou os papéis à FUNAI e ao Conselho de Segurança Nacional, recomendando que o SIL fosse banido do País. Em 25 de novembro de 1977, o Governo Federal revogou o convênio SIL-FUNAI, vigente desde 1958, e cassou os vistos dos integrantes da organização, 153 pessoas no total. Décadas depois, Gama e Silva lembraria do embate com os picaretas do SIL, "uns estrangeiros travestidos de missionários que botei para correr" [4].     Promovido a Contra-Almirante em 1980, Roberto Gama e Silva cumpriu sua última missão como Presidente do GEBAM - Grupo Executivo do Baixo Amazonas (1980-1984), órgão subordinado à Secretaria-Geral do Conselho de Segurança Nacional. Coube-lhe, nesta posição, a tarefa de coordenar a regularização fundiária de uma vasta porção da Amazônia, a fim de viabilizar a ocupação ordeira daquelas paragens. Rapidamente, o GEBAM identificou três esquemas de grilagem orquestrados por corporações estrangeiras interessadas em pilhar riquezas minerais e plantas medicinais. Não imaginavam os forasteiros que a equipe do GEBAM se disporia a confrontar dados de inúmeras fontes: arquivos notariais, laudos do DNPM, levantamentos aerofotogramétricos, sentenças judiciais, etc. Isso numa época em que inexistiam acervos digitalizados. Imensas distâncias foram cobertas graças a uma parceria com a FAB, viabilizando diligências in loco.     Um dos trustes investigados tinha à sua frente o bilionário Daniel Keith Ludwig, proprietário do Projeto Jari, ao qual Gama e Silva se referia como "quisto alienígena". Ludwig decidiu vender seus negócios no Brasil antes que a casa caísse, em 1981. Àquela altura, o GEBAM já havia reunido evidências consistentes de fraude cartorial e lesão aos interesses nacionais.     O segundo enclave estrangeiro foi extirpado em 1982. Tratava-se de uma gleba em Calçoene (AP), adquirida ilegalmente pelo magnata Shaul Nehamia Eisenberg, judeu polonês naturalizado americano, fundador da Israel Corporation. Com autorização do Conselho de Segurança Nacional, o GEBAM ajuizou a Ação Cível nº 586/81, pleiteando a desapropriação da área, controlada por intermédio de uma empresa-fantasma denominada Agrical Participação Empreendimentos S/A. Para se defender, Eisenberg contratou como procurador o Dr. William Pierce Rogers, ex-Secretário de Estado dos EUA, numa tentativa de intimidar as autoridades locais. Em dezembro de 1982, a Justiça Federal declarou nulos os registros fundiários de Eisenberg e determinou a reversão das terras para o patrimônio da União.     O terceiro quisto foi removido dois anos depois, quando o GEBAM convenceu o Presidente João Baptista Figueiredo a criar a RENCA - Reserva Nacional de Cobre e seus Associados. A edição desse decreto frustrou as pretensões da British Petroleum Corporation, cuja acionista majoritária era a Coroa Inglesa. A empresa havia apresentado requerimentos ao DNPM para explorar o depósito de cobre existente no Amapá. Levando em conta que o Brasil é carente deste metal, Gama e Silva concluiu que seria prudente impedir o esgotamento precoce da jazida. Para tanto, seria necessário transformá-la em reserva estratégica a ser explorada no futuro, em proveito da indústria nacional, em situações de encarecimento abrupto do cobre no mercado externo. A argumentação foi acatada pelo General Danilo Venturini, Secretário-Geral do Conselho de Segurança Nacional, que encaminhou ao Presidente da República uma Exposição de Motivos acompanhada da minuta do Decreto nº 89.404, assinado em 24 de fevereiro de 1984.     Roberto Gama e Silva passou à reserva em 25 de maio de 1984, mas não descansou. Prosseguiu no combate, agora publicando livros: 'São mesmo nossos os minerais não-energéticos?' (1985), 'O entreguismo dos minérios' (1988) e 'Olho grande na Amazônia brasileira' (1991). Os três constituem leitura obrigatória para aqueles que se preocupam com as questões relacionadas à defesa do interesse nacional. Neles o leitor encontrará uma discussão qualificada sobre os minérios estratégicos e críticos, sua exploração e aproveitamento, sua relevância geopolítica, seu papel no jogo de poder entre as nações e sua importância para a capacidade combatente das Forças Armadas. Toda a linha expositiva do autor vem acompanhada de documentos, mapas, gráficos, informações exclusivas e experiências próprias de quem dedicou sua vida ao Brasil.     Foi nos anos 80 e 90 que Gama e Silva aproximou-se do Dr. Enéas Carneiro, a quem se associou na fundação do PRONA. Ambos marcharam ombro a ombro no prélio eleitoral de 1994. Não ganharam nas urnas, mas mantiveram a coerência que os vencedores deixaram para trás na primeira oportunidade. E é isso que importa. "Combati o bom combate, encerrei a carreira e guardei a Fé" – Timóteo 4:7.     NOTAS:     [1] O Farol, nº 63, Fevereiro/2000, p. 4: 'Ciência e Tecnologia'.     [2] Revista Aeronáutica, nº 278, janeiro-março/2012, pp. 22-23: 'Prezado compatriota Francisco Vianna'.     [3] SILVA, Roberto Gama e. São mesmo nossos os minerais não-energéticos?. Rio de Janeiro: Philobiblion, 1985, pp. 138-139.     [4] Jornal do Brasil, 2 de novembro de 2001, p. 2: 'Candidato do protecionismo'.</t>
+  </si>
+  <si>
     <t>085</t>
   </si>
   <si>
@@ -9344,9 +9402,6 @@
     <t xml:space="preserve">Sergio Oliveira</t>
   </si>
   <si>
-    <t xml:space="preserve">/pol/ em Português</t>
-  </si>
-  <si>
     <t>igor.mueller@tutanota.com</t>
   </si>
   <si>
@@ -10028,15 +10083,48 @@
     <t xml:space="preserve">Com esta publicação o leitor brasileiro tem o privilégio de travar conhecimento  –  pela  primeira  vez  em  língua  portuguesa  Dos Judeus e Suas Mentiras Martinho Lutero –,  com  esta polêmica obra do Reformador da Igreja, MARTIN LUTHER, ou Lutero,  datada de 1543.Este livreto  –  conforme definição do próprio Luther  –  apesar de esporadicamente citado, nunca esteve ao alcance dos brasileiros. Trata-se  de  uma  obra  “abafada”,  a  exemplo  de importantíssimas  edições  e reedições  trazidas a luz pela REVISÃO, em nosso país, e que forças do  obscurantismo, sob absurdas alegações, procuram manter escondidas nos   mais profundos escaninhos da História.A  presente  edição  de  um  escrito  com  mais  de  450  anos,  com termos  e expressões não usuais na língua alemã de hoje, foi traduzida ao  linguajar atual, sem perder a fidelidade do original  – em alemão  arcaico  com  letras  góticas  –  disponível  na  livraria  da   Universidade  de  Harvard, EUA, sob número catalográfico 1282.59.105. A  publicação desta obra se destina a  estudo e á pesquisa de uma época.   Certos  de  estarmos  contribuindo  para  a  ampliação  do   conhecimento  sobre  a  História,  passamos  a  palavra  ao  grande  Reformador. Com esta publicação o leitor brasileiro tem o privilégio de travar conhecimento  –  pela  primeira  vez  em  língua  portuguesa  –,  com  esta polêmica obra do Reformador da Igreja, MARTIN LUTHER, ou Lutero,  datada de 1543.Este livreto  –  conforme definição do próprio Luther  –  apesar de esporadicamente  citado, nunca esteve ao alcance dos brasileiros. Trata-se  de  uma   obra  “abafada”,  a  exemplo  de importantíssimas  edições  e reedições  trazidas a luz pela REVISÃO, em nosso país, e que forças do  obscurantismo, sob absurdas alegações, procuram manter escondidas nos   mais profundos escaninhos da História.A  presente  edição  de  um  escrito  com  mais  de  450  anos,  com termos  e expressões não usuais na língua alemã de hoje, foi traduzida ao  linguajar atual, sem perder a fidelidade do original  – em alemão  arcaico  com  letras  góticas  –  disponível  na  livraria  da   Universidade  de  Harvard, EUA, sob número catalográfico 1282.59.105. A  publicação desta obra se destina a  estudo e á pesquisa de uma época.   Certos  de  estarmos  contribuindo  para  a  ampliação  do   conhecimento  sobre  a  História,  passamos  a  palavra  ao  grande  Reformador.</t>
   </si>
   <si>
-    <t>4-circulari-si-manifeste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circulari Si Manifeste - Corneliu Zelea Codreanu</t>
+    <t>TheNestLeadersManual_148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Nest Leader's Manual</t>
   </si>
   <si>
     <t xml:space="preserve">Corneliu Zelea Codreanu</t>
   </si>
   <si>
+    <t>/pol/</t>
+  </si>
+  <si>
+    <t>zalmoxis21@gmail.com</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corneliu; Codreanu; Romania; Legion; Nest; Leader's; Leader; Manual; Michael; Archangel; Christ; Christian; God; Iron; Guard; Movement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-12-14 22:35:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-12-14 21:52:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codreanu wrote this classic manual of Christian nationalist action to make clear the structure of the Legion of the Archangel Michael - also known to history as the Iron Guard. An amazing blend of theory and practice, this book gives the reader a unique view of the situation in Romania, and Europe generally, in the years leading up to WWII.  This translation from Romanian to English is imperfect and was done using Google translate.</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>ForMyLegionaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For My Legionaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For; My; Legionaries; Iron; Guard; Legion; Michael; Archangel; Corneliu; Codreanu; Jews; Romania; Nation; State; Laws; Christ; Struggle</t>
+  </si>
+  <si>
     <t>anotacoes-da-prisao-de-jilava-codreanu</t>
   </si>
   <si>
@@ -10208,12 +10296,6 @@
     <t xml:space="preserve">Holocausto: Judeu ou Alemão?</t>
   </si>
   <si>
-    <t>1985-sao-mesmo-nossos-os-minerais-nao-energeticos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">São Mesmo Nossos os Minerais Não-Energéticos? </t>
-  </si>
-  <si>
     <t>a_verdade_sobre_o_talmud_202007</t>
   </si>
   <si>
@@ -10223,6 +10305,48 @@
     <t xml:space="preserve">Michael A. Hoffman II; Alan R. Critchley</t>
   </si>
   <si>
+    <t>guerreiros-da-virgem-replica-da-autenticidade-a-tfp-sem-segredos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guerreiros Da Virgem Réplica Da Autenticidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plinio Correa de Oliveira</t>
+  </si>
+  <si>
+    <t>alvaro.toledo11@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este livro refuta as acusações proferidas pelo cismático e herético Senhor Orlando Fedeli, o fundador da Associação Montfort. </t>
+  </si>
+  <si>
+    <t>nobreza-e-elites-tradicionais-analogas-nas-alocucoes-de-pio-xii-ao-patriciado-e-a-nobreza-romanab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nobreza E Elites Tradicionais Análogas nas Alocuções De Pio XII Ao Patriciado e a Nobreza Romana</t>
+  </si>
+  <si>
+    <t>bibsanbru@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nobreza e elites tradicionais análogas nas alocuções de Pio XII ao Patriciado e à Nobreza romana </t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>revolucao-e-contra-revolucao-pliniocorreadeoliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revolução e Contra-revolução </t>
+  </si>
+  <si>
+    <t>gredsonbr@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revolução e Contra-revolução (1980) - Plinio Corrêa de Oliveira</t>
+  </si>
+  <si>
     <t>bub_gb_6d0_7XDSscgC</t>
   </si>
   <si>
@@ -10382,6 +10506,234 @@
     <t xml:space="preserve">A Maçonaria Seita Judaica</t>
   </si>
   <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>001148523-historia-militar-brasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historia Militar do Brasil</t>
+  </si>
+  <si>
+    <t>luanrbfernandes2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edição : Ed. ilustrada com cerca de 50 gravuras e mapas.Publicador : Brasília : Senado Federal, Conselho EditorialData de publicação : 2019Descrição física : 265 p. : il., gravs., maps.Série : Edições do Senado Federal ; v. 192Assuntos : Brasil. Exército história | Império (1822-1889), Brasil | Período Colonial (1500-1822), Brasil | República (1889-), Brasil | História militar, BrasilResponsabilidade : Gustavo Barroso.ISBN : 9788570184955 </t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1958-segredos-e-revelacoes-da-historia-do-brasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segredos e Revelações Da História Do Brasil</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>a-colaboracao-entre-integralistas-e-nazistas-parte-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Alemanha de Ontem e de Hoje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trata-se de um artigo publicado na revista Fon Fon na data de 27 de junho de 1936, na qual o escritor Gustavo Barroso, um dos principais líderes do integralismo durante a sua Era de Ouro, fez um discurso fazendo apologia ao Governo de Adolf Hitler na Alemanha Nazista, quando ocorreu os Jogos Olímpicos de Verão de 1936.Fonte:http://objdigital.bn.br/acervo_digital/div_periodicos/fonfon/fonfon_1936/fonfon_1936_026.pdf</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>a-palavra-e-o-pensamento-integralista-1935-gustavo-barroso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Palavra E O Pensamento Integralista</t>
+  </si>
+  <si>
+    <t>felipeurcesino.contact@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obra de 1933</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>coracao-de-menino-gustavo-barroso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coração De Menino</t>
+  </si>
+  <si>
+    <t>gnomesmann@protonmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autobiografia de Gustavo Barroso</t>
+  </si>
+  <si>
+    <t>gustavo-barroso-o-iluminismo-bavaro-no-brasil-anais-do-museu-historico-nacional-v.-ix-1948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Iluminismo Bávaro no Brasil</t>
+  </si>
+  <si>
+    <t>enrisixx@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artigo escrito por Gustavo Barroso e publicado no vol. IX (9), dos Anais do Museu Histórico Nacional, em 1948.</t>
+  </si>
+  <si>
+    <t>nos-bastidores-da-historia-do-brasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos Bastidores Da História Do Brasil</t>
+  </si>
+  <si>
+    <t>o-integralismo-de-norte-a-sul-1934-gustavo-barroso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Integralismo De Norte A Sul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Integralismo de Norte a Sul [1934] - Gustavo Barroso</t>
+  </si>
+  <si>
+    <t>o-livro-dos-enforcados_gustavo-barroso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Livro dos Enforcados</t>
+  </si>
+  <si>
+    <t>fddmeb@protonmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustavo Barroso - O Livro dos Enforcados</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>uniformes-do-exercito-brasileiro-gustavo-barroso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uniformes Do Exército Brasileiro</t>
+  </si>
+  <si>
+    <t>OINTEGRALISMOEOMUNDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Integralismo e o Mundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O livro explica as diferentes vertentes do fascismo em diversos países, divergências religiosas, sociológicas, culturais, trabalhistas e econômicas, dentro do contexto da degradação do capitalismo e o avanço truculento do socialismo. </t>
+  </si>
+  <si>
+    <t>OQueOIntegralismoPlinioSalgado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Que É O Integralismo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plínio Salgado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um livro básico destinado a explicar os pilares da ideologia integralista. </t>
+  </si>
+  <si>
+    <t>areconstrucaodohomemplinio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A reconstrução do homem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">execelente obra de plinio salgado</t>
+  </si>
+  <si>
+    <t>direitos-e-deveres-do-homem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direitos E Deveres Do Homem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Livro sobre a agenda de 1948 sobre os direitos e deveres do homem.</t>
+  </si>
+  <si>
+    <t>integralist-manifesto-of-1932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integralist Manifesto Of 1932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The manifesto of the Brazilian Integralist Party led by Plínio Salgado.</t>
+  </si>
+  <si>
+    <t>manifesto-de-7-de-outubro-de-1932-integralismo-frente-integralista-brasileira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doutrina Integralista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Manifesto de 7 de Outubro de 1932 é o marco do nascimento do Integralismo no Brasil, nesta obra, mantida e publicada pela Frente Integralista Brasileira, se encontra a coluna do ideal do Movimento Integralista Brasileiro.Todos os direitos reservados a Frente Integralista Brasileira.</t>
+  </si>
+  <si>
+    <t>osoffrimentouniversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Soffrimento Universal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Soffrimento Universal, de Plínio Salgado.</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>plinio-salgado-espirito-da-burguesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espírito Da Burguesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espirito da Burguesia</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>plinio-salgado-o-estrangeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estrangeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">romance de plinio salgado</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>plinio-salgado-psicologia-da-revolucao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psicologia Da Revolução</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psicologia da Revolução</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>salgado-plinio.-a-doutrina-do-sigma-1937_202107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Doutrina Do Sigma</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>000</t>
   </si>
   <si>
@@ -10403,6 +10755,15 @@
     <t xml:space="preserve">O Bispo de Olinda e os seos accusadores no tribunal do bom senso, ou exame do aviso de 27 de setembro e da denuncia de 10 de outubro, e reflexôes acerca das relações entre a igreja e o estado</t>
   </si>
   <si>
+    <t>carta-pastoral-do-bispo-de-olinda-premun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carta pastoral do bispo de olinda premunindo os seus diocesanos contra as ciladas e maquinaçoes da Maçonaria - Dom Vital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teologia Tradicional;Política Tradicional;História Eclesiástica;História;Maçonaria;Antimaçonaria;Infiltração na Igreja;Contra-Revolução;Tradicionalismo Católico;Ultramontanismo;Questão Religiosa</t>
+  </si>
+  <si>
     <t>234</t>
   </si>
   <si>
@@ -10692,6 +11053,360 @@
   </si>
   <si>
     <t xml:space="preserve">Joaquim Mendes dos Remédios</t>
+  </si>
+  <si>
+    <t>a-maconaria-financia-o-comunismo-no-brasil-desde-o-seculo-xx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Maçonaria Financia O Comunismo No Brasil Desde O Século XX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newton de Andrade Cavalcanti e Amaro de Azambuja Vilanova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com este recorte do jornal "A Razão", o qual era divulgado por órgãos integralistas na República Federativa do Brasil, os militares Newton de Andrade Cavalcanti e Amaro de Azambuja Vilanova, descobriram que a Maçonaria era a responsável pelo financiamento de atividades comunistas em nosso território. </t>
+  </si>
+  <si>
+    <t>OComunismoNoBrasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Comunismo No Brasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferdinando Carvalho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O primeiro livro da série "O comunismo no Brasil" foi digitalizado, os livros apresentam dados, arquivos e relatórios do Regime Militar a respeito da subversão vermelha (postarei os outros volumes no futuro). </t>
+  </si>
+  <si>
+    <t>OComunismoNoBrasil2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Comunismo No Brasil 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O segundo livro da série "O comunismo no Brasil" foi digitalizado, os livros apresentam dados, arquivos e relatórios do Regime Militar a respeito da subversão vermelha (postarei os outros volumes no futuro). </t>
+  </si>
+  <si>
+    <t>OComunismoNoBrasil3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Comunismo No Brasil 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digitalização do terceiro volume da série "O Comunismo no Brasil", trata-se de livros feitos na época do Regime Militar e conta com inquéritos policiais, documentos e textos de organizações marxistas. </t>
+  </si>
+  <si>
+    <t>OComunismoNoBrasil4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Comunismo No Brasil 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O quarto e último livro da série "O comunismo no Brasil" foi digitalizado, os livros apresentam dados, arquivos e relatórios do Regime Militar a respeito da subversão vermelha.</t>
+  </si>
+  <si>
+    <t>angelmachinerati0000jone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The angel and the machine : the rational psychology of Nathaniel Hawthorne </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jones, E. Michael</t>
+  </si>
+  <si>
+    <t>/Pol/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205 p. ; 23 cm Includes bibliographical references and index</t>
+  </si>
+  <si>
+    <t>degeneratemodern00jone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degenerate moderns : modernity as rationalized sexual misbehavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes bibliographical references</t>
+  </si>
+  <si>
+    <t>dionysosrisingbi0000jone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dionysos rising : the birth of cultural revolution out of the spirit of music </t>
+  </si>
+  <si>
+    <t xml:space="preserve">181 p  Includes bibliographical references (p. 171-194) and index Richard Wagner : chromaticism, adultery, and the beginning of our cultural revolution -- Friedrich Nietzsche : transvaluation of all values as the prosecution of the cultural war -- Arnold Schönberg : craving the law and the totalitarian reaction -- Sympathy for the devil : Theodor Adorno, Aleister Crowley, Mick Jagger</t>
+  </si>
+  <si>
+    <t>jewishrevolution0000jone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Jewish revolutionary spirit : and its impact on world history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1200 p. ; 24 cm Includes bibliographical references (p. 1079-1159) and index</t>
+  </si>
+  <si>
+    <t>jones-e.-m.-libido-dominandi-2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libido Dominandi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The book's subtitle: "Sexual Liberation and Political Control".[from rear board:]". . . Over the course of the two-hundred-year span covered by this book, the development of technologies of communication, reproduction, and psychic control -- including psychotherapy, behaviorism, advertising, sensitivity training, pornography, and, when push came to shove, plain old blackmail -- allowed the Enlightenment and its heirs to turn Augustine's insight on its head and create masters out of men's vices. *Libido Dominandi* is the story of how that happened. . .</t>
+  </si>
+  <si>
+    <t>slaughterofcitie0000jone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The slaughter of cities : urban renewal as ethnic cleansing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">x, 668 pages ; 24 cm Includes bibliographical references (p. 642-652) and index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Aesthetics of Architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roger Scruton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albert Speer, architecture, 1932-1942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albert Speer works</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>bwb_O7-DSW-088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Bauhaus to Our House</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom Wolfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The slaughter of cities: urban renewal as ethnic cleansing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E. Michael Jones</t>
+  </si>
+  <si>
+    <t>livingmachinesba0000jone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Living machines : Bauhaus architecture as sexual ideology </t>
+  </si>
+  <si>
+    <t>antiarchitecture0000sali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti-architecture and deconstruction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikos Angelos Salingaros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principles of Urban Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Theory of Architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Future of Cities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Patters &amp; Living Architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biophilia and Healing Environments</t>
+  </si>
+  <si>
+    <t>buildingstructur0000mill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building structures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malcolm Millais</t>
+  </si>
+  <si>
+    <t>explodingmythsof0000mill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploding the myths of modern architecture </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Corbusier: the dishonest architect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community and Privacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christopher Alexander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes on the Synthesis of Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A City is Not a Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Atoms of Environmental Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The CES Series [The Oregon Experiment]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The CES Series [Pattern Language]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The CES Series [The Timeless Way of Building]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The CES Series [The Linz Cafe]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The CES Series [The Production of Houses]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The CES Series [A New Theory of Urban Design]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The CES Series [Foreshadowing of 21st Century Art]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The CES Series [The Mary Rose Museum]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Nature of Order Book 1: The Phenomenon of Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Nature of Order Book 2: The Process of Creating Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Nature of Order Book 3: A Vision of a Living World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Nature of Order Book 4: The Luminous Ground</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Battle for the Life and Beauty of the Earth</t>
+  </si>
+  <si>
+    <t>quinlanterryrevi0000asle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The revival of architecture </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quinlan Terry</t>
+  </si>
+  <si>
+    <t>radicalclassicis0000watk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radical Classicism : the architecture of Quinlan Terry</t>
+  </si>
+  <si>
+    <t>architectureofco0000krie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The architecture of community </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leon Krier</t>
+  </si>
+  <si>
+    <t>architecturalcom0000krie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architectural composition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rob Krier</t>
+  </si>
+  <si>
+    <t>elementsofarchit0000krie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elements of architecture </t>
+  </si>
+  <si>
+    <t>robkrierarchitec0000krie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rob Krier : architecture and urban design</t>
+  </si>
+  <si>
+    <t>urbanspacestadtr0000krie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban space = Stadtraum </t>
+  </si>
+  <si>
+    <t>documentrioarqui00josw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antiga construção civil no Brasil - Fascículo I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['memoriaestatisticadobrasil', 'brasiliana']</t>
+  </si>
+  <si>
+    <t>1944</t>
+  </si>
+  <si>
+    <t>documentrioarquijoswii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antiga construção civil no Brasil - Fascículo II</t>
+  </si>
+  <si>
+    <t>documentrioarquijoswiii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antiga construção civil no Brasil - Fascículo III</t>
+  </si>
+  <si>
+    <t>1945</t>
+  </si>
+  <si>
+    <t>documentrioarquijoswiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antiga construção civil no Brasil - Fascículo IV</t>
+  </si>
+  <si>
+    <t>1951</t>
+  </si>
+  <si>
+    <t>documentrioarquijoswv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antiga construção civil no Brasil - Fascículo V</t>
+  </si>
+  <si>
+    <t>documentrioarquijoswvi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antiga construção civil no Brasil - Fascículo VI</t>
+  </si>
+  <si>
+    <t>documentrioarquijoswvii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antiga construção civil no Brasil - Fascículo VIII</t>
+  </si>
+  <si>
+    <t>documentrioarquijoswviii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antiga construção civil no Brasil - Fascículo VII</t>
   </si>
 </sst>
 </file>
@@ -10760,7 +11475,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -10781,29 +11496,28 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -43639,7 +44353,6 @@
       <c r="E36" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F36"/>
       <c r="G36" s="3" t="s">
         <v>2863</v>
       </c>
@@ -43664,7 +44377,6 @@
       <c r="E37" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F37"/>
       <c r="G37" s="3" t="s">
         <v>2863</v>
       </c>
@@ -43689,7 +44401,6 @@
       <c r="E38" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F38"/>
       <c r="G38" s="3" t="s">
         <v>2863</v>
       </c>
@@ -43714,7 +44425,6 @@
       <c r="E39" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F39"/>
       <c r="G39" s="3" t="s">
         <v>2863</v>
       </c>
@@ -43739,7 +44449,6 @@
       <c r="E40" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F40"/>
       <c r="G40" s="3" t="s">
         <v>2863</v>
       </c>
@@ -43764,7 +44473,6 @@
       <c r="E41" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F41"/>
       <c r="G41" s="3" t="s">
         <v>2863</v>
       </c>
@@ -43790,7 +44498,6 @@
       <c r="E44" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F44"/>
       <c r="G44" s="3" t="s">
         <v>2863</v>
       </c>
@@ -43815,7 +44522,6 @@
       <c r="E45" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F45"/>
       <c r="G45" s="3" t="s">
         <v>2863</v>
       </c>
@@ -43840,7 +44546,6 @@
       <c r="E46" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F46"/>
       <c r="G46" s="3" t="s">
         <v>2863</v>
       </c>
@@ -43866,7 +44571,6 @@
       <c r="E49" s="3" t="s">
         <v>2862</v>
       </c>
-      <c r="F49"/>
       <c r="G49" s="3" t="s">
         <v>2863</v>
       </c>
@@ -43891,7 +44595,6 @@
       <c r="E50" s="3" t="s">
         <v>2862</v>
       </c>
-      <c r="F50"/>
       <c r="G50" s="3" t="s">
         <v>2863</v>
       </c>
@@ -43911,7 +44614,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A97" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -43971,8 +44674,9 @@
       <c r="D3" s="3" t="s">
         <v>3101</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3"/>
+      <c r="E3" s="7" t="s">
+        <v>3102</v>
+      </c>
       <c r="G3" s="3" t="s">
         <v>2863</v>
       </c>
@@ -43986,16 +44690,17 @@
         <v>117</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>3101</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4"/>
+      <c r="E4" s="7" t="s">
+        <v>3102</v>
+      </c>
       <c r="G4" s="3" t="s">
         <v>2863</v>
       </c>
@@ -44005,8 +44710,8 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="3" t="s">
-        <v>3104</v>
+      <c r="A5" s="5">
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3105</v>
@@ -44015,39 +44720,35 @@
         <v>3106</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>3107</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>3101</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>3102</v>
+      </c>
       <c r="G5" s="3" t="s">
-        <v>3109</v>
+        <v>2863</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>3110</v>
-      </c>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="3" t="s">
-        <v>3111</v>
+        <v>397</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3112</v>
+        <v>3107</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>3113</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>3114</v>
-      </c>
-      <c r="E6" s="8" t="s">
         <v>3108</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="D6" t="s">
+        <v>3101</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>3102</v>
+      </c>
       <c r="G6" s="3" t="s">
         <v>3109</v>
       </c>
@@ -44055,26 +44756,31 @@
         <v>2864</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>3115</v>
-      </c>
+        <v>3110</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="3" t="s">
-        <v>3116</v>
+        <v>3111</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>3117</v>
+        <v>3112</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3118</v>
+        <v>3113</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>3119</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>3101</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>3102</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>3109</v>
       </c>
@@ -44082,26 +44788,31 @@
         <v>2864</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>3120</v>
-      </c>
+        <v>3114</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="3" t="s">
-        <v>3034</v>
+        <v>3115</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>3121</v>
+        <v>3116</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3122</v>
+        <v>3117</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>3123</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F8" s="3"/>
+        <v>3101</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>3102</v>
+      </c>
       <c r="G8" s="3" t="s">
         <v>3109</v>
       </c>
@@ -44109,213 +44820,192 @@
         <v>2864</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>3124</v>
-      </c>
+        <v>3118</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="5" t="s">
-        <v>3125</v>
+      <c r="A9" s="3" t="s">
+        <v>3119</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>3126</v>
+        <v>3120</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3127</v>
+        <v>3121</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>3128</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>3108</v>
+        <v>3101</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>3102</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>2863</v>
+        <v>3109</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>2869</v>
+        <v>3122</v>
       </c>
       <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="5" t="s">
-        <v>3129</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>3130</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>3131</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>3128</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>2869</v>
-      </c>
-      <c r="J10" s="3"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="5" t="s">
-        <v>3132</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>3133</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>3134</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>3128</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>2869</v>
-      </c>
-      <c r="J11" s="3"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="5" t="s">
-        <v>3135</v>
+      <c r="A12" s="3" t="s">
+        <v>3123</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>3136</v>
+        <v>3124</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3137</v>
+        <v>3125</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>3128</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>3108</v>
-      </c>
+        <v>3126</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>2863</v>
+        <v>3127</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>2869</v>
-      </c>
-      <c r="J12" s="3"/>
+        <v>3128</v>
+      </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="5" t="s">
-        <v>3138</v>
+      <c r="A13" s="3" t="s">
+        <v>3129</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>3139</v>
+        <v>3130</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>3140</v>
+        <v>3131</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>3128</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>3108</v>
-      </c>
+        <v>3132</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>2863</v>
+        <v>3127</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>2869</v>
-      </c>
-      <c r="J13" s="3"/>
+        <v>3133</v>
+      </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="5" t="s">
-        <v>3141</v>
+      <c r="A14" s="3" t="s">
+        <v>3134</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>3142</v>
+        <v>3135</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>3143</v>
+        <v>3136</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>3128</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>3108</v>
-      </c>
+        <v>3137</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>2863</v>
+        <v>3127</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>2869</v>
-      </c>
-      <c r="J14" s="3"/>
+        <v>3138</v>
+      </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="5" t="s">
-        <v>3144</v>
+      <c r="A15" s="3" t="s">
+        <v>3034</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>3145</v>
+        <v>3139</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>3146</v>
+        <v>3140</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>3128</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>3108</v>
-      </c>
+        <v>3141</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>2863</v>
+        <v>3127</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>2869</v>
-      </c>
-      <c r="J15" s="3"/>
+        <v>3142</v>
+      </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="5" t="s">
-        <v>3147</v>
+        <v>3143</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>3148</v>
+        <v>3144</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>3149</v>
+        <v>3145</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3128</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>3108</v>
+        <v>3146</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>3102</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>2863</v>
@@ -44330,18 +45020,20 @@
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="5" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>3128</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>3146</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>3102</v>
+      </c>
       <c r="G17" s="3" t="s">
         <v>2863</v>
       </c>
@@ -44352,526 +45044,557 @@
         <v>2869</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="5">
-        <v>121</v>
+      <c r="A18" s="5" t="s">
+        <v>3150</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3153</v>
+        <v>3151</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>3154</v>
+        <v>3152</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>3155</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18"/>
+        <v>3146</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>3102</v>
+      </c>
       <c r="G18" s="3" t="s">
         <v>2863</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>2869</v>
+      </c>
       <c r="J18" s="3"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="5">
-        <v>123</v>
+      <c r="A19" s="5" t="s">
+        <v>3153</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>3156</v>
+        <v>3154</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>3157</v>
+        <v>3155</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>3155</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19"/>
+        <v>3146</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>3102</v>
+      </c>
       <c r="G19" s="3" t="s">
         <v>2863</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" ht="14.25"/>
+      <c r="I19" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="5" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>3157</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>3158</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>3146</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="A21" s="5" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3146</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>2869</v>
+      </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" ht="14.25"/>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="5" t="s">
+        <v>3162</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>3163</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>3164</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>3146</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
     <row r="23" ht="14.25">
       <c r="A23" s="5" t="s">
-        <v>3158</v>
+        <v>3165</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>3159</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3160</v>
+        <v>3166</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>3167</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>3161</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F23" s="3"/>
+        <v>3146</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>3102</v>
+      </c>
       <c r="G23" s="3" t="s">
-        <v>3162</v>
+        <v>2863</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>3163</v>
-      </c>
+        <v>2869</v>
+      </c>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" s="5" t="s">
-        <v>3164</v>
+        <v>3168</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>3165</v>
+        <v>3169</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>3166</v>
+        <v>3170</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>3167</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F24" s="3"/>
+        <v>3146</v>
+      </c>
+      <c r="E24" s="7"/>
       <c r="G24" s="3" t="s">
-        <v>3162</v>
+        <v>2863</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>3168</v>
-      </c>
+        <v>2869</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="5" t="s">
-        <v>3169</v>
+      <c r="A25" s="5">
+        <v>121</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>3172</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F25" s="3"/>
+        <v>3173</v>
+      </c>
+      <c r="E25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>3162</v>
+        <v>2863</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="5">
+        <v>123</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>3174</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>3175</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>3173</v>
       </c>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="A26" s="5" t="s">
-        <v>3174</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>3175</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>3176</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>3177</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F26" s="3"/>
+      <c r="E26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>3162</v>
+        <v>2863</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" ht="14.25"/>
+    <row r="28" ht="14.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" ht="14.25"/>
+    <row r="30" ht="14.25">
+      <c r="A30" s="5" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>3177</v>
+      </c>
+      <c r="C30" t="s">
         <v>3178</v>
       </c>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="A27" s="5" t="s">
+      <c r="D30" s="3" t="s">
         <v>3179</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="E30" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
         <v>3180</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="H30" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>3181</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3177</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
-        <v>3162</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3182</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="A28" s="5" t="s">
-        <v>3183</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>3184</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>3185</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>3186</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
-        <v>3162</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>3187</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="A29" s="5" t="s">
-        <v>3188</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>3189</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>3190</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>3191</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
-        <v>3162</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3192</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25"/>
+    </row>
     <row r="31" ht="14.25">
       <c r="A31" s="5" t="s">
-        <v>3193</v>
+        <v>3182</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3194</v>
+        <v>3183</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>3195</v>
+        <v>3184</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>3196</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>3108</v>
+        <v>3185</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>3102</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>3197</v>
+        <v>3180</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>3198</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" s="5" t="s">
-        <v>3199</v>
+        <v>3187</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>3200</v>
+        <v>3188</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>3201</v>
+        <v>3189</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>3202</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>3108</v>
+        <v>3190</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>3102</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>3197</v>
+        <v>3180</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>3203</v>
-      </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+        <v>3191</v>
+      </c>
     </row>
     <row r="33" ht="14.25">
-      <c r="H33" s="3"/>
+      <c r="A33" s="5" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>3194</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>3195</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>3180</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>3196</v>
+      </c>
     </row>
     <row r="34" ht="14.25">
       <c r="A34" s="5" t="s">
-        <v>3204</v>
+        <v>3197</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>3205</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3206</v>
+        <v>3198</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>3199</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>3207</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>3108</v>
+        <v>3195</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>3102</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>3208</v>
+        <v>3180</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>3209</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="A35" s="5" t="s">
-        <v>3210</v>
+        <v>3201</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>3211</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3212</v>
+        <v>3202</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>3203</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>3207</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>3108</v>
+        <v>3204</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>3102</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>3208</v>
+        <v>3180</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>3209</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" s="5" t="s">
-        <v>3213</v>
+        <v>3206</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>3214</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3215</v>
+        <v>3207</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>3208</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>3207</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>3108</v>
+        <v>3209</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>3102</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>3208</v>
+        <v>3180</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>3209</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="A37" s="5" t="s">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25"/>
+    <row r="38" ht="14.25">
+      <c r="A38" s="5" t="s">
+        <v>3211</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>3213</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>3214</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>3215</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>3216</v>
       </c>
-      <c r="B37" s="3" t="s">
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" s="5" t="s">
         <v>3217</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B39" s="3" t="s">
         <v>3218</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>3207</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3" t="s">
-        <v>3208</v>
-      </c>
-      <c r="H37" s="3" t="s">
+      <c r="C39" s="3" t="s">
+        <v>3219</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>3220</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>3215</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>3209</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="E39" s="8"/>
-      <c r="F39" s="3"/>
+      <c r="I39" s="3" t="s">
+        <v>3221</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="3" t="s">
-        <v>3219</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>3220</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>3221</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" s="5" t="s">
         <v>3222</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>3223</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>3109</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I40" s="3" t="s">
+      <c r="C41" t="s">
         <v>3224</v>
       </c>
-    </row>
-    <row r="41" ht="14.25">
-      <c r="A41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>3225</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="E41" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3" t="s">
         <v>3226</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>3227</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>3228</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>3223</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3109</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I41" s="3" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42" s="5" t="s">
         <v>3228</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25">
-      <c r="A42" s="5">
-        <v>68</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>3229</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" t="s">
         <v>3230</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>3228</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3223</v>
-      </c>
+        <v>3225</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>2863</v>
+        <v>3226</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I42" s="3"/>
+      <c r="I42" s="3" t="s">
+        <v>3227</v>
+      </c>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" s="5" t="s">
@@ -44884,244 +45607,235 @@
         <v>3233</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>3234</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3223</v>
-      </c>
+        <v>3225</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>3235</v>
+        <v>3226</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>3236</v>
-      </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
+        <v>3227</v>
+      </c>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="5" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>3238</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>3239</v>
+        <v>3235</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3236</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>3240</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3223</v>
-      </c>
+        <v>3225</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>3241</v>
+        <v>3226</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>2864</v>
       </c>
+      <c r="I44" s="3" t="s">
+        <v>3227</v>
+      </c>
     </row>
     <row r="45" ht="14.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="5"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="E46" s="7"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47" s="3" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>3239</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>3240</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3241</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3127</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>3242</v>
       </c>
-      <c r="B45" s="3" t="s">
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" s="3" t="s">
         <v>3243</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>3244</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>3245</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3223</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="D48" s="3" t="s">
+        <v>3246</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>3241</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="G48" s="3" t="s">
+        <v>3127</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>2864</v>
       </c>
-    </row>
-    <row r="46" ht="14.25">
-      <c r="A46" s="5">
-        <v>109</v>
-      </c>
-      <c r="B46" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>3246</v>
       </c>
-      <c r="C46" s="3" t="s">
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" s="5">
+        <v>68</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>3247</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3245</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3223</v>
-      </c>
-      <c r="G46" s="3" t="s">
+      <c r="C49" s="3" t="s">
+        <v>3248</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>3246</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3241</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>2863</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" ht="14.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="7"/>
-      <c r="F47"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="10"/>
-    </row>
-    <row r="48" ht="14.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" ht="14.25">
-      <c r="A49" s="5" t="s">
-        <v>3248</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>3249</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>3250</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>3251</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F49" t="s">
-        <v>3252</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3235</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
     </row>
     <row r="50" ht="14.25">
       <c r="A50" s="5" t="s">
+        <v>3249</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>3250</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3251</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>3252</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>3241</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>3253</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>3254</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>3255</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>3251</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F50" t="s">
-        <v>3252</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>3235</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I50" s="3"/>
+      <c r="I50" s="3" t="s">
+        <v>3254</v>
+      </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" s="5" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>3256</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>3257</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>3258</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>3245</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>3108</v>
+      <c r="E51" s="7" t="s">
+        <v>3102</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>3252</v>
+        <v>3241</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>3241</v>
+        <v>3259</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I51" s="3"/>
     </row>
     <row r="52" ht="14.25">
       <c r="A52" s="5" t="s">
+        <v>3260</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>3262</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>3263</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3241</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>3259</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>3260</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>3261</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>3262</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3252</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3235</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3263</v>
-      </c>
-      <c r="J52" s="3"/>
     </row>
     <row r="53" ht="14.25">
       <c r="A53" s="5">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>3264</v>
@@ -45130,13 +45844,13 @@
         <v>3265</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>3266</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>3108</v>
+        <v>3263</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>3102</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>3252</v>
+        <v>3241</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>2863</v>
@@ -45145,72 +45859,77 @@
         <v>2864</v>
       </c>
       <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-    </row>
-    <row r="55" ht="14.25"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
     <row r="56" ht="14.25">
       <c r="A56" s="5" t="s">
+        <v>3266</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>3267</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>3268</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" s="3" t="s">
         <v>3269</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F56" t="s">
         <v>3270</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>3271</v>
-      </c>
       <c r="G56" s="3" t="s">
-        <v>3235</v>
+        <v>3253</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I56" s="3" t="s">
-        <v>3272</v>
-      </c>
+      <c r="I56" s="3"/>
       <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
     </row>
     <row r="57" ht="14.25">
       <c r="A57" s="5" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>3272</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>3273</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>3274</v>
-      </c>
-      <c r="C57" t="s">
-        <v>3275</v>
-      </c>
       <c r="D57" s="3" t="s">
-        <v>3276</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3271</v>
+        <v>3269</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3270</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>3235</v>
+        <v>3253</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>2864</v>
@@ -45221,241 +45940,237 @@
     </row>
     <row r="58" ht="14.25">
       <c r="A58" s="5" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>3278</v>
-      </c>
-      <c r="C58" t="s">
-        <v>3279</v>
+        <v>3275</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>3276</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>3276</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>3108</v>
+        <v>3263</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>3102</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>3235</v>
+        <v>3259</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
     </row>
     <row r="59" ht="14.25">
       <c r="A59" s="5" t="s">
+        <v>3277</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>3279</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>3280</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>3281</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>3282</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>3276</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>3108</v>
+      <c r="E59" s="7" t="s">
+        <v>3102</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>3241</v>
+        <v>3253</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>2864</v>
       </c>
+      <c r="I59" s="3" t="s">
+        <v>3281</v>
+      </c>
+      <c r="J59" s="3"/>
     </row>
     <row r="60" ht="14.25">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="5">
+        <v>1</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>3282</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>3283</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>3284</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>3285</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>3276</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>3108</v>
+      <c r="E60" s="7" t="s">
+        <v>3102</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>3235</v>
+        <v>2863</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
     </row>
     <row r="61" ht="14.25">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="5"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" ht="14.25"/>
+    <row r="63" ht="14.25">
+      <c r="A63" s="5" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>3286</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C63" t="s">
         <v>3287</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D63" s="3" t="s">
         <v>3288</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="E63" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>3289</v>
       </c>
-      <c r="E61" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>3271</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>3235</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>2864</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25">
-      <c r="A62" s="5" t="s">
-        <v>3290</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>3291</v>
-      </c>
-      <c r="C62" t="s">
-        <v>3292</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>3289</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3271</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3235</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>2864</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25">
-      <c r="A63" s="5">
-        <v>125</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>3293</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>3294</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>3295</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>3271</v>
-      </c>
       <c r="G63" s="3" t="s">
-        <v>3235</v>
+        <v>3253</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>3296</v>
-      </c>
+        <v>3290</v>
+      </c>
+      <c r="J63" s="3"/>
     </row>
     <row r="64" ht="14.25">
-      <c r="A64" s="5">
-        <v>115</v>
+      <c r="A64" s="5" t="s">
+        <v>3291</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>3297</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>3298</v>
+        <v>3292</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3293</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>3251</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>3108</v>
+        <v>3294</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>3102</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>3271</v>
+        <v>3289</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>3235</v>
+        <v>3253</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65" s="5" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3297</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>3294</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>3289</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="A66" s="5" t="s">
+        <v>3298</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>3299</v>
       </c>
-    </row>
-    <row r="65" ht="14.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" ht="14.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>3300</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>3294</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>3289</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3259</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>2864</v>
+      </c>
     </row>
     <row r="67" ht="14.25">
       <c r="A67" s="5" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>3301</v>
-      </c>
-      <c r="C67" t="s">
         <v>3302</v>
       </c>
+      <c r="C67" s="3" t="s">
+        <v>3303</v>
+      </c>
       <c r="D67" s="3" t="s">
-        <v>3303</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>3304</v>
+        <v>3294</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>3289</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>3235</v>
+        <v>3253</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>2864</v>
@@ -45466,304 +46181,265 @@
     </row>
     <row r="68" ht="14.25">
       <c r="A68" s="5" t="s">
+        <v>3304</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>3305</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="C68" t="s">
         <v>3306</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>3307</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>3308</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F68" t="s">
-        <v>3304</v>
+      <c r="E68" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>3289</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>3235</v>
+        <v>3253</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
     </row>
     <row r="69" ht="14.25">
       <c r="A69" s="5" t="s">
+        <v>3308</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>3309</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="C69" t="s">
         <v>3310</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>3311</v>
-      </c>
       <c r="D69" s="3" t="s">
-        <v>3312</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>3108</v>
+        <v>3307</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>3102</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>3304</v>
+        <v>3289</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>3235</v>
+        <v>3253</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>2864</v>
       </c>
     </row>
     <row r="70" ht="14.25">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="5">
+        <v>125</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>3311</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>3312</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>3313</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>3314</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>3315</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>3316</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>3108</v>
+      <c r="E70" s="3" t="s">
+        <v>3102</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>3304</v>
+        <v>3289</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>3241</v>
+        <v>3253</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>2864</v>
       </c>
+      <c r="I70" s="3" t="s">
+        <v>3314</v>
+      </c>
     </row>
     <row r="71" ht="14.25">
       <c r="A71" s="5">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>3317</v>
+        <v>3315</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>3318</v>
+        <v>3316</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>3319</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>3108</v>
+        <v>3269</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>3102</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>3304</v>
+        <v>3289</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>2863</v>
+        <v>3253</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I71" s="3"/>
+      <c r="I71" s="3" t="s">
+        <v>3317</v>
+      </c>
     </row>
     <row r="72" ht="14.25">
-      <c r="A72" s="5">
-        <v>95</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>3320</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>3321</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>3319</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3304</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>2864</v>
-      </c>
+      <c r="A72" s="5"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
     <row r="73" ht="14.25">
-      <c r="A73" s="5" t="s">
-        <v>3322</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>3323</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>3324</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>3319</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>3304</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>2869</v>
-      </c>
+      <c r="A73" s="5"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
     </row>
     <row r="74" ht="14.25">
       <c r="A74" s="5" t="s">
-        <v>3325</v>
+        <v>3318</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>3326</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>3327</v>
+        <v>3319</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3320</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>3328</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>3304</v>
+        <v>3321</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>3322</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>3329</v>
+        <v>3253</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I74" s="3" t="s">
-        <v>3330</v>
-      </c>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
     </row>
     <row r="75" ht="14.25">
       <c r="A75" s="5" t="s">
-        <v>3331</v>
+        <v>3323</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>3332</v>
+        <v>3324</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>3333</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>3312</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>3304</v>
+        <v>3325</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>3326</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F75" t="s">
+        <v>3322</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>3334</v>
+        <v>3253</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I75" s="3" t="s">
-        <v>3335</v>
-      </c>
+      <c r="I75" s="3"/>
       <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
     </row>
     <row r="76" ht="14.25">
-      <c r="A76" s="5">
-        <v>16</v>
+      <c r="A76" s="5" t="s">
+        <v>3327</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>3336</v>
+        <v>3328</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>3337</v>
+        <v>3329</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>3338</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>3108</v>
+        <v>3330</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>3102</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>3304</v>
+        <v>3322</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>2863</v>
+        <v>3253</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>2869</v>
-      </c>
-      <c r="J76" s="3"/>
     </row>
     <row r="77" ht="14.25">
-      <c r="A77" s="5">
-        <v>102</v>
+      <c r="A77" s="5" t="s">
+        <v>3331</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>3339</v>
+        <v>3332</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>3340</v>
+        <v>3333</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>3338</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>3108</v>
+        <v>3334</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>3102</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>3304</v>
+        <v>3322</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>2863</v>
+        <v>3259</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I77" s="3" t="s">
-        <v>2869</v>
-      </c>
-      <c r="J77" s="3"/>
     </row>
     <row r="78" ht="14.25">
       <c r="A78" s="5">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>3341</v>
+        <v>3335</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>3342</v>
+        <v>3336</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>3343</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F78"/>
+        <v>3337</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>3322</v>
+      </c>
       <c r="G78" s="3" t="s">
         <v>2863</v>
       </c>
@@ -45771,52 +46447,91 @@
         <v>2864</v>
       </c>
       <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
     </row>
     <row r="79" ht="14.25">
-      <c r="A79" s="9"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
+      <c r="A79" s="5">
+        <v>95</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>3338</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>3339</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>3337</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>3322</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I79" s="3"/>
     </row>
     <row r="80" ht="14.25">
-      <c r="E80" s="6"/>
+      <c r="A80" s="5" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>3341</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>3342</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>3337</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>3322</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>2869</v>
+      </c>
     </row>
     <row r="81" ht="14.25">
       <c r="A81" s="5" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>3344</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>3345</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" s="3" t="s">
         <v>3346</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="E81" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>3322</v>
+      </c>
+      <c r="G81" s="3" t="s">
         <v>3347</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F81" t="s">
-        <v>3348</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3235</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>3346</v>
-      </c>
-      <c r="J81" s="3"/>
+        <v>3348</v>
+      </c>
     </row>
     <row r="82" ht="14.25">
       <c r="A82" s="5" t="s">
@@ -45829,16 +46544,16 @@
         <v>3351</v>
       </c>
       <c r="D82" s="3" t="s">
+        <v>3330</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>3322</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>3352</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>3348</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>3235</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>2864</v>
@@ -45849,133 +46564,144 @@
       <c r="J82" s="3"/>
     </row>
     <row r="83" ht="14.25">
-      <c r="A83" s="5">
-        <v>43</v>
-      </c>
-      <c r="B83" s="3" t="s">
+      <c r="A83" s="5"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" ht="14.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="3" t="s">
         <v>3354</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" s="3" t="s">
         <v>3355</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>3356</v>
       </c>
-      <c r="E83" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3348</v>
-      </c>
-      <c r="G83" s="3" t="s">
+      <c r="E84" s="7" t="s">
+        <v>3357</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3" t="s">
+        <v>3358</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>3359</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>3360</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>3361</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>3362</v>
+      </c>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3" t="s">
+        <v>3356</v>
+      </c>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R84" s="3" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25">
+      <c r="A85" s="3" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>3365</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>3366</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>3356</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>3357</v>
+      </c>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3" t="s">
+        <v>3358</v>
+      </c>
+      <c r="H85" t="s">
+        <v>3359</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>3367</v>
+      </c>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" ht="14.25">
+      <c r="A86" s="5">
+        <v>102</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>3368</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>3369</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>3356</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>3322</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>2863</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="84" ht="14.25">
-      <c r="A84" s="5">
-        <v>131</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>3357</v>
-      </c>
-      <c r="C84" t="s">
-        <v>3358</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>3359</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>3348</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="85" ht="14.25">
-      <c r="A85" s="5" t="s">
-        <v>3360</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>3361</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>3362</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>3363</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>3348</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>3241</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>2864</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25">
-      <c r="A86" s="5" t="s">
-        <v>3364</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>3365</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>3366</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>3367</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>3348</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>3241</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>2864</v>
       </c>
+      <c r="I86" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J86" s="3"/>
     </row>
     <row r="87" ht="14.25">
       <c r="A87" s="5">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>3368</v>
-      </c>
-      <c r="C87" t="s">
-        <v>3369</v>
+        <v>3370</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>3371</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>3370</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>3108</v>
+        <v>3372</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>3102</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>3348</v>
+        <v>3322</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>2863</v>
@@ -45983,177 +46709,145 @@
       <c r="H87" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I87" s="3" t="s">
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" ht="14.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" ht="14.25">
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" ht="14.25">
+      <c r="A90" s="5" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>3374</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>3376</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F90" t="s">
+        <v>3377</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>3375</v>
+      </c>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" ht="14.25">
+      <c r="A91" s="5" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>3380</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>3381</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3377</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3382</v>
+      </c>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" ht="14.25">
+      <c r="A92" s="5">
+        <v>43</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3384</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>3385</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>3377</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I92" s="3" t="s">
         <v>2869</v>
       </c>
     </row>
-    <row r="88" ht="14.25">
-      <c r="A88" s="3" t="s">
-        <v>3371</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>3372</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>3373</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>3374</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F88" s="12" t="s">
-        <v>3348</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>3109</v>
-      </c>
-      <c r="H88" s="3" t="s">
+    <row r="93" ht="14.25">
+      <c r="A93" s="5">
+        <v>131</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>3386</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3387</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>3388</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>3377</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H93" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I88" s="3" t="s">
-        <v>3375</v>
-      </c>
-    </row>
-    <row r="89" ht="14.25">
-      <c r="A89" s="5">
-        <v>20</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>3376</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>3377</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>3378</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3348</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I89" s="3"/>
-    </row>
-    <row r="90" ht="14.25">
-      <c r="A90" s="9">
-        <v>32</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>3379</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>3380</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>3381</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>3348</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H90" s="10" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I90" s="10"/>
-    </row>
-    <row r="91" ht="14.25">
-      <c r="A91" s="9">
-        <v>58</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>3382</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>3383</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>3384</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>3348</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H91" s="10" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I91" s="10"/>
-    </row>
-    <row r="92" ht="14.25">
-      <c r="A92" s="9">
-        <v>22</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>3385</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>3386</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>3387</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>3348</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H92" s="10" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I92" s="10"/>
-    </row>
-    <row r="93" ht="14.25">
-      <c r="A93" s="9">
-        <v>49</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>3388</v>
-      </c>
-      <c r="C93" s="10" t="s">
+      <c r="I93" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25">
+      <c r="A94" s="5" t="s">
         <v>3389</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>3387</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>3348</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H93" s="10" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I93" s="10"/>
-    </row>
-    <row r="94" ht="14.25">
-      <c r="A94" s="5">
-        <v>33</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>3390</v>
@@ -46162,67 +46856,65 @@
         <v>3391</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>3347</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>3108</v>
+        <v>3392</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>3102</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>3348</v>
+        <v>3377</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>2863</v>
+        <v>3259</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I94" s="3"/>
     </row>
     <row r="95" ht="14.25">
-      <c r="A95" s="5">
-        <v>46</v>
+      <c r="A95" s="5" t="s">
+        <v>3393</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>3392</v>
+        <v>3394</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>3393</v>
+        <v>3395</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>3347</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>3108</v>
+        <v>3396</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>3102</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>3348</v>
+        <v>3377</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>2863</v>
+        <v>3259</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I95" s="3"/>
     </row>
     <row r="96" ht="14.25">
       <c r="A96" s="5">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>3394</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>3395</v>
+        <v>3397</v>
+      </c>
+      <c r="C96" t="s">
+        <v>3398</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>3347</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>3108</v>
+        <v>3399</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>3102</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>3348</v>
+        <v>3377</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>2863</v>
@@ -46230,39 +46922,85 @@
       <c r="H96" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I96" s="3"/>
+      <c r="I96" s="3" t="s">
+        <v>2869</v>
+      </c>
     </row>
     <row r="97" ht="14.25">
-      <c r="A97" s="9"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
+      <c r="A97" s="3" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>3401</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>3402</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>3403</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>3377</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>3127</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>3404</v>
+      </c>
     </row>
     <row r="98" ht="14.25">
-      <c r="E98" s="6"/>
+      <c r="A98" s="5">
+        <v>20</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>3406</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>3407</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>3377</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I98" s="3"/>
     </row>
     <row r="99" ht="14.25">
       <c r="A99" s="5">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>3396</v>
+        <v>3408</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>3397</v>
+        <v>3409</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>3101</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F99"/>
+        <v>3410</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>3377</v>
+      </c>
       <c r="G99" s="3" t="s">
         <v>2863</v>
       </c>
@@ -46273,21 +47011,23 @@
     </row>
     <row r="100" ht="14.25">
       <c r="A100" s="5">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>3398</v>
+        <v>3411</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>3399</v>
+        <v>3412</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>3400</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F100"/>
+        <v>3413</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3377</v>
+      </c>
       <c r="G100" s="3" t="s">
         <v>2863</v>
       </c>
@@ -46295,6 +47035,279 @@
         <v>2864</v>
       </c>
       <c r="I100" s="3"/>
+    </row>
+    <row r="101" ht="14.25">
+      <c r="A101" s="5">
+        <v>22</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>3414</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>3415</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>3416</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3377</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" ht="14.25">
+      <c r="A102" s="5">
+        <v>49</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>3418</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>3416</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3377</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I102" s="3"/>
+    </row>
+    <row r="103" ht="14.25">
+      <c r="A103" s="5">
+        <v>33</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>3420</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>3376</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>3377</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I103" s="3"/>
+    </row>
+    <row r="104" ht="14.25">
+      <c r="A104" s="5">
+        <v>46</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>3421</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>3376</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>3377</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I104" s="3"/>
+    </row>
+    <row r="105" ht="14.25">
+      <c r="A105" s="5">
+        <v>122</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>3423</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>3376</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>3377</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I105" s="3"/>
+    </row>
+    <row r="106" ht="14.25">
+      <c r="A106" s="5"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+    </row>
+    <row r="107" ht="14.25">
+      <c r="E107" s="6"/>
+    </row>
+    <row r="108" ht="14.25"/>
+    <row r="109" ht="14.25">
+      <c r="A109" s="5">
+        <v>39</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>3425</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>3426</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>3427</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I109" s="3"/>
+    </row>
+    <row r="112" ht="14.25">
+      <c r="A112" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>3429</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>3430</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3" t="s">
+        <v>3431</v>
+      </c>
+      <c r="H112" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>3432</v>
+      </c>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+    </row>
+    <row r="113" ht="14.25">
+      <c r="A113" s="3" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>3433</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>3430</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3" t="s">
+        <v>3435</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>3436</v>
+      </c>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+    </row>
+    <row r="114" ht="14.25">
+      <c r="A114" s="3" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>3438</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>3439</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>3430</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3" t="s">
+        <v>3440</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>3441</v>
+      </c>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -46307,13 +47320,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A112" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.57421875"/>
+    <col customWidth="1" min="1" max="1" style="5" width="5.57421875"/>
     <col customWidth="1" min="3" max="3" width="52.00390625"/>
     <col customWidth="1" min="4" max="4" width="38.28125"/>
     <col customWidth="1" min="5" max="5" style="5" width="14.00390625"/>
@@ -46352,26 +47365,26 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>397</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3401</v>
+        <v>3442</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3402</v>
+        <v>3443</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3403</v>
+        <v>3444</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3404</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>3405</v>
+        <v>3445</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>3406</v>
+        <v>3447</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>2864</v>
@@ -46384,24 +47397,24 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>3407</v>
+        <v>3448</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3408</v>
+        <v>3449</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>3409</v>
+        <v>3450</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>3410</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>3405</v>
+        <v>3451</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>3411</v>
+        <v>3452</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>2864</v>
@@ -46414,25 +47427,25 @@
       <c r="L3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>3412</v>
+      <c r="M3" s="9" t="s">
+        <v>3453</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="5" t="s">
-        <v>3413</v>
+        <v>3454</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3414</v>
+        <v>3455</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3415</v>
+        <v>3456</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>3416</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>3405</v>
+        <v>3457</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>2863</v>
@@ -46446,77 +47459,77 @@
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="5" t="s">
-        <v>3417</v>
+        <v>3458</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3418</v>
+        <v>3459</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>3419</v>
+        <v>3460</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>3416</v>
+        <v>3457</v>
       </c>
       <c r="E6" s="5">
         <v>1937</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>3405</v>
+      <c r="F6" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>3197</v>
+        <v>3215</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>3203</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="5" t="s">
-        <v>3420</v>
+        <v>3461</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>3421</v>
+        <v>3462</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3422</v>
+        <v>3463</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>3416</v>
+        <v>3457</v>
       </c>
       <c r="E7" s="5">
         <v>1936</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>3405</v>
+      <c r="F7" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>3197</v>
+        <v>3215</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>3423</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="5" t="s">
-        <v>3424</v>
+        <v>3465</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>3425</v>
+        <v>3466</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3426</v>
+        <v>3467</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>3416</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>3405</v>
+        <v>3457</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>2863</v>
@@ -46530,19 +47543,19 @@
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="5" t="s">
-        <v>3427</v>
+        <v>3468</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>3428</v>
+        <v>3469</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3429</v>
+        <v>3470</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>3416</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>3405</v>
+        <v>3457</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>2863</v>
@@ -46556,19 +47569,19 @@
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="5" t="s">
-        <v>3430</v>
+        <v>3471</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>3431</v>
+        <v>3472</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>3432</v>
+        <v>3473</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>3416</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>3405</v>
+        <v>3457</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>2863</v>
@@ -46585,19 +47598,19 @@
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="5" t="s">
-        <v>3433</v>
+        <v>3474</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>3434</v>
+        <v>3475</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>3435</v>
+        <v>3476</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>3416</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>3405</v>
+        <v>3457</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>2863</v>
@@ -46614,19 +47627,19 @@
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="5" t="s">
-        <v>3436</v>
+        <v>3477</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>3437</v>
+        <v>3478</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3438</v>
+        <v>3479</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>3416</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>3405</v>
+        <v>3457</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>2863</v>
@@ -46643,19 +47656,19 @@
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="5" t="s">
-        <v>3439</v>
+        <v>3480</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>3440</v>
+        <v>3481</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>3441</v>
+        <v>3482</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>3416</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>3405</v>
+        <v>3457</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>2863</v>
@@ -46672,19 +47685,19 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="5" t="s">
-        <v>3442</v>
+        <v>3483</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>3443</v>
+        <v>3484</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>3444</v>
+        <v>3485</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>3416</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>3405</v>
+        <v>3457</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>2863</v>
@@ -46701,19 +47714,19 @@
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="5" t="s">
-        <v>3445</v>
+        <v>3486</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>3487</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>3488</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3457</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>3446</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>3447</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>3416</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>3405</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>2863</v>
@@ -46725,24 +47738,24 @@
         <v>2873</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>3344</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="5" t="s">
-        <v>3448</v>
+        <v>3489</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>3449</v>
+        <v>3490</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>3450</v>
+        <v>3491</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3416</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>3405</v>
+        <v>3457</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>2863</v>
@@ -46759,19 +47772,19 @@
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="5" t="s">
-        <v>3451</v>
+        <v>3492</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>3452</v>
+        <v>3493</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>3453</v>
+        <v>3494</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>3416</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>3405</v>
+        <v>3457</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>2863</v>
@@ -46783,324 +47796,763 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="18" ht="14.25"/>
-    <row r="19" ht="14.25"/>
+    <row r="18" ht="14.25">
+      <c r="A18" s="2" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>3496</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>3497</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>3457</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="7" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3498</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3499</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="2" t="s">
+        <v>3500</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>3501</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>3502</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3457</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="7" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="5" t="s">
-        <v>3454</v>
+      <c r="A20" s="2" t="s">
+        <v>3503</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>3455</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3456</v>
+        <v>3504</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>3505</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3457</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>3405</v>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>2863</v>
+        <v>3431</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>2999</v>
-      </c>
+        <v>3506</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="5" t="s">
-        <v>3458</v>
+      <c r="A21" s="2" t="s">
+        <v>3507</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>3459</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3460</v>
+        <v>3508</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>3509</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3457</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>3405</v>
+      <c r="E21" s="8"/>
+      <c r="F21" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>2863</v>
+        <v>3510</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25"/>
-    <row r="23" ht="14.25"/>
-    <row r="24" ht="14.25"/>
+        <v>3511</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="2" t="s">
+        <v>3512</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>3513</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>3514</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>3457</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="7" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3515</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3516</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>3517</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>3518</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3457</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="7" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>3519</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>3520</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>3521</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>3522</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>3457</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="7" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+    </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="5" t="s">
-        <v>3461</v>
+      <c r="A25" s="2" t="s">
+        <v>1770</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>3462</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3463</v>
+        <v>3523</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>3524</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>3464</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>3405</v>
+        <v>3457</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>3109</v>
+        <v>3510</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>3465</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25"/>
+        <v>3525</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>3526</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>3527</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3457</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="7" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>3528</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>3529</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+    </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="3" t="s">
-        <v>3466</v>
+      <c r="A27" s="2" t="s">
+        <v>3530</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>3467</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>3468</v>
+        <v>3531</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>3532</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>3469</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>3405</v>
+        <v>3457</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>3109</v>
+        <v>3452</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3470</v>
-      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="3" t="s">
-        <v>3052</v>
+      <c r="A28" s="5">
+        <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>3471</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>3472</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>3469</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>3405</v>
+        <v>3533</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>3534</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>3457</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>3109</v>
-      </c>
-      <c r="H28" s="3" t="s">
+        <v>3431</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>2864</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>3473</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25"/>
-    <row r="30" ht="14.25"/>
-    <row r="31" ht="14.25"/>
-    <row r="32" ht="14.25"/>
+        <v>3535</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31" s="5">
+        <v>9</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>3536</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>3537</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3538</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="7" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>3431</v>
+      </c>
+      <c r="H31" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>3539</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>3540</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>3541</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3538</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="7" t="s">
+        <v>3446</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3542</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+    </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="5" t="s">
-        <v>3474</v>
+      <c r="A33" s="2" t="s">
+        <v>3111</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>3475</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3476</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>3477</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>3405</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3109</v>
+        <v>3543</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>3544</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3538</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>3470</v>
-      </c>
+        <v>3545</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="3" t="s">
-        <v>3478</v>
+      <c r="A34" s="2" t="s">
+        <v>3115</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>3479</v>
+        <v>3546</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>3480</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>3481</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>3405</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>3109</v>
+        <v>3547</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3538</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="H34" s="3" t="s">
+        <v>3359</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>3548</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" s="2" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>3549</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3550</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3538</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="7" t="s">
+        <v>3446</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>3482</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25"/>
+      <c r="I35" s="3" t="s">
+        <v>3551</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" s="2" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>3552</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3553</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3538</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="7" t="s">
+        <v>3446</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>3554</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+    </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="5"/>
+      <c r="A37" s="2" t="s">
+        <v>3555</v>
+      </c>
       <c r="B37" s="3" t="s">
-        <v>3483</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>3484</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>3485</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>3405</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>2863</v>
+        <v>3556</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3557</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3538</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I37" s="3"/>
+      <c r="I37" s="3" t="s">
+        <v>3558</v>
+      </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="5" t="s">
-        <v>3486</v>
+      <c r="A38" s="2" t="s">
+        <v>3559</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>3487</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>3488</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>3489</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>3405</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>2863</v>
+        <v>3560</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3561</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3538</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I38" s="3"/>
+      <c r="I38" s="3" t="s">
+        <v>3562</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="3" t="s">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25"/>
-    <row r="40" ht="14.25"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" s="2" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3565</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3538</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="7" t="s">
+        <v>3446</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>3566</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40" s="2" t="s">
+        <v>3567</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3569</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3538</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="7" t="s">
+        <v>3446</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>3570</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
     <row r="41" ht="14.25">
-      <c r="A41" s="5" t="s">
-        <v>3125</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>3126</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>3127</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>3128</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>3405</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25">
-      <c r="A42" s="5" t="s">
-        <v>3129</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>3130</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>3131</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>3128</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>3405</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>2869</v>
-      </c>
-    </row>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" ht="14.25"/>
     <row r="43" ht="14.25">
       <c r="A43" s="5" t="s">
-        <v>3132</v>
+        <v>3571</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>3133</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>3134</v>
+        <v>3572</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3573</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>3128</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>3405</v>
+        <v>3574</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>2863</v>
@@ -47109,24 +48561,24 @@
         <v>2864</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>2869</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="5" t="s">
-        <v>3135</v>
+        <v>3575</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>3136</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>3137</v>
+        <v>3576</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3577</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>3128</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>3405</v>
+        <v>3574</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>2863</v>
@@ -47135,320 +48587,193 @@
         <v>2864</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>2869</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="45" ht="14.25">
-      <c r="A45" s="5" t="s">
-        <v>3138</v>
+      <c r="A45" s="2" t="s">
+        <v>3111</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>3139</v>
-      </c>
-      <c r="C45" t="s">
-        <v>3140</v>
+        <v>3578</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>3579</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>3128</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>3405</v>
+        <v>3574</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>2863</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>2864</v>
+        <v>3580</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25">
-      <c r="A46" s="5" t="s">
-        <v>3141</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>3142</v>
-      </c>
-      <c r="C46" t="s">
-        <v>3143</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>3128</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>3405</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25">
-      <c r="A47" s="5" t="s">
-        <v>3144</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>3145</v>
-      </c>
-      <c r="C47" t="s">
-        <v>3146</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>3128</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>3405</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>2869</v>
-      </c>
-    </row>
+        <v>3574</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" ht="14.25"/>
+    <row r="47" ht="14.25"/>
     <row r="48" ht="14.25">
       <c r="A48" s="5" t="s">
-        <v>3147</v>
+        <v>3581</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>3148</v>
+        <v>3582</v>
       </c>
       <c r="C48" t="s">
-        <v>3149</v>
+        <v>3583</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>3128</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>3405</v>
+        <v>3584</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>2863</v>
+        <v>3127</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25">
-      <c r="A49" s="5" t="s">
-        <v>3150</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>3151</v>
-      </c>
-      <c r="C49" t="s">
-        <v>3152</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>3128</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>3405</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H49" s="3" t="s">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25"/>
+    <row r="50" ht="14.25">
+      <c r="A50" s="2" t="s">
+        <v>3586</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>3587</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>3588</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>3589</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>3127</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25">
-      <c r="A52" s="5">
-        <v>139</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>3490</v>
-      </c>
-      <c r="C52" t="s">
-        <v>3491</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>3492</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="3" t="s">
-        <v>3405</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H52" s="3" t="s">
+      <c r="I50" s="3" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" s="2" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>3591</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>3592</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>3589</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>3127</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25">
-      <c r="A53" s="5">
-        <v>140</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>3493</v>
-      </c>
-      <c r="C53" t="s">
-        <v>3494</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>3495</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="3" t="s">
-        <v>3405</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H53" s="3" t="s">
+      <c r="I51" s="3" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25"/>
+    <row r="53" ht="14.25"/>
+    <row r="54" ht="14.25"/>
+    <row r="55" ht="14.25"/>
+    <row r="56" ht="14.25">
+      <c r="A56" s="5" t="s">
+        <v>3594</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>3595</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3596</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>3597</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>3127</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>3496</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25">
-      <c r="A54" s="5">
-        <v>143</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>3497</v>
-      </c>
-      <c r="C54" t="s">
-        <v>3498</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>3499</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="3" t="s">
-        <v>3405</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H54" s="3" t="s">
+      <c r="I56" s="3" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="A57" s="2" t="s">
+        <v>3598</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>3599</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>3600</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>3601</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3127</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25">
-      <c r="A55" s="5">
-        <v>137</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>3500</v>
-      </c>
-      <c r="C55" t="s">
-        <v>3501</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>3502</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="3" t="s">
-        <v>3405</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25">
-      <c r="E57" s="5"/>
-    </row>
-    <row r="58" ht="14.25">
-      <c r="A58" s="5">
-        <v>23</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>3503</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>3504</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>3505</v>
-      </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="3" t="s">
-        <v>3405</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25">
-      <c r="A59" s="5">
-        <v>24</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>3506</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>3507</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>3076</v>
-      </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="3" t="s">
-        <v>3405</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>2999</v>
-      </c>
-    </row>
+      <c r="I57" s="3" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25"/>
     <row r="60" ht="14.25">
-      <c r="A60" s="5">
-        <v>25</v>
-      </c>
+      <c r="A60" s="5"/>
       <c r="B60" s="3" t="s">
-        <v>3508</v>
+        <v>3603</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>3509</v>
+        <v>3604</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>3510</v>
-      </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="3" t="s">
-        <v>3405</v>
+        <v>3605</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>2863</v>
@@ -47456,26 +48781,28 @@
       <c r="H60" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>2869</v>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3" t="s">
+        <v>2999</v>
       </c>
     </row>
     <row r="61" ht="14.25">
-      <c r="A61" s="5">
-        <v>26</v>
+      <c r="A61" s="5" t="s">
+        <v>3606</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>3511</v>
+        <v>3607</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>3512</v>
+        <v>3608</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>3513</v>
-      </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="3" t="s">
-        <v>3405</v>
+        <v>3609</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>2863</v>
@@ -47483,57 +48810,56 @@
       <c r="H61" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25"/>
+    <row r="63" ht="14.25"/>
+    <row r="64" ht="14.25">
+      <c r="A64" s="5" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>3145</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>3146</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I64" s="3" t="s">
         <v>2869</v>
       </c>
     </row>
-    <row r="62" ht="14.25">
-      <c r="A62" s="5">
-        <v>27</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>3514</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>3515</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>3090</v>
-      </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="3" t="s">
-        <v>3405</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25">
-      <c r="E64" s="5"/>
-      <c r="F64" s="6"/>
-    </row>
     <row r="65" ht="14.25">
-      <c r="A65" s="5">
-        <v>75</v>
+      <c r="A65" s="5" t="s">
+        <v>3147</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>3516</v>
+        <v>3148</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>3517</v>
+        <v>3149</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>3090</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="3" t="s">
-        <v>3405</v>
+        <v>3146</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>2863</v>
@@ -47546,21 +48872,20 @@
       </c>
     </row>
     <row r="66" ht="14.25">
-      <c r="A66" s="5">
-        <v>76</v>
+      <c r="A66" s="5" t="s">
+        <v>3150</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>3518</v>
+        <v>3151</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>3519</v>
+        <v>3152</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>3090</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="3" t="s">
-        <v>3405</v>
+        <v>3146</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>2863</v>
@@ -47572,24 +48897,73 @@
         <v>2869</v>
       </c>
     </row>
+    <row r="67" ht="14.25">
+      <c r="A67" s="5" t="s">
+        <v>3153</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>3154</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>3155</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>3146</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="A68" s="5" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>3157</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3158</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>3146</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
     <row r="69" ht="14.25">
-      <c r="A69" s="5">
-        <v>67</v>
+      <c r="A69" s="5" t="s">
+        <v>3159</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>3520</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>3521</v>
+        <v>3160</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3161</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>3522</v>
-      </c>
-      <c r="E69" s="2">
-        <v>1921</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>3405</v>
+        <v>3146</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>3446</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>2863</v>
@@ -47602,21 +48976,20 @@
       </c>
     </row>
     <row r="70" ht="14.25">
-      <c r="A70" s="5">
-        <v>6</v>
+      <c r="A70" s="5" t="s">
+        <v>3162</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>3523</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>3524</v>
+        <v>3163</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3164</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>3522</v>
-      </c>
-      <c r="E70" s="7"/>
+        <v>3146</v>
+      </c>
       <c r="F70" s="7" t="s">
-        <v>3405</v>
+        <v>3446</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>2863</v>
@@ -47624,312 +48997,1076 @@
       <c r="H70" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I70" s="3"/>
-    </row>
-    <row r="73" ht="14.25">
-      <c r="A73" s="5">
-        <v>2</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>3525</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>3526</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>3527</v>
-      </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="3" t="s">
+      <c r="I70" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="A71" s="5" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>3166</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3167</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>3146</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>2863</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="H71" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" ht="14.25">
-      <c r="A74" s="5">
-        <v>3</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>3528</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>3529</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>3530</v>
-      </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="3" t="s">
+      <c r="I71" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="A72" s="5" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>3169</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3170</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>3146</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>2863</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H72" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I74" s="3"/>
+      <c r="I72" s="3" t="s">
+        <v>2869</v>
+      </c>
     </row>
     <row r="75" ht="14.25">
       <c r="A75" s="5">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>3531</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>3532</v>
+        <v>3610</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3611</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>3485</v>
-      </c>
-      <c r="E75" s="7"/>
-      <c r="F75" s="16"/>
+        <v>3612</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="3" t="s">
+        <v>3446</v>
+      </c>
       <c r="G75" s="3" t="s">
         <v>2863</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I75" s="3"/>
+      <c r="I75" s="3" t="s">
+        <v>2869</v>
+      </c>
     </row>
     <row r="76" ht="14.25">
       <c r="A76" s="5">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>3533</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>3534</v>
+        <v>3613</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3614</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>3535</v>
-      </c>
-      <c r="E76" s="7"/>
-      <c r="F76" s="16"/>
+        <v>3615</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="3" t="s">
+        <v>3446</v>
+      </c>
       <c r="G76" s="3" t="s">
         <v>2863</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I76" s="3"/>
+      <c r="I76" s="3" t="s">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="A77" s="5">
+        <v>143</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>3617</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3618</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>3619</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="3" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>2869</v>
+      </c>
     </row>
     <row r="78" ht="14.25">
       <c r="A78" s="5">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>3536</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>3537</v>
+        <v>3620</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3621</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>3538</v>
-      </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="16"/>
+        <v>3622</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="3" t="s">
+        <v>3446</v>
+      </c>
       <c r="G78" s="3" t="s">
         <v>2863</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" ht="14.25">
-      <c r="E79" s="5"/>
-      <c r="F79" s="6"/>
+      <c r="I78" s="3" t="s">
+        <v>2869</v>
+      </c>
     </row>
     <row r="80" ht="14.25">
-      <c r="A80" s="5">
-        <v>21</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>3539</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>3540</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>3541</v>
-      </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I80" s="3"/>
+      <c r="E80" s="5"/>
     </row>
     <row r="81" ht="14.25">
       <c r="A81" s="5">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>3542</v>
+        <v>3623</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>3543</v>
+        <v>3624</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>3541</v>
-      </c>
-      <c r="E81" s="7"/>
-      <c r="F81" s="16"/>
+        <v>3625</v>
+      </c>
+      <c r="E81" s="5"/>
+      <c r="F81" s="3" t="s">
+        <v>3446</v>
+      </c>
       <c r="G81" s="3" t="s">
         <v>2863</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I81" s="3"/>
+      <c r="I81" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="A82" s="5">
+        <v>24</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>3626</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>3627</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E82" s="5"/>
+      <c r="F82" s="3" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25">
+      <c r="A83" s="5">
+        <v>25</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>3628</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>3629</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>3630</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="3" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>2869</v>
+      </c>
     </row>
     <row r="84" ht="14.25">
       <c r="A84" s="5">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>3544</v>
+        <v>3631</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>3545</v>
+        <v>3632</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>3546</v>
-      </c>
-      <c r="E84" s="7"/>
-      <c r="F84" s="16"/>
+        <v>3633</v>
+      </c>
+      <c r="E84" s="5"/>
+      <c r="F84" s="3" t="s">
+        <v>3446</v>
+      </c>
       <c r="G84" s="3" t="s">
         <v>2863</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I84" s="3"/>
+      <c r="I84" s="3" t="s">
+        <v>2869</v>
+      </c>
     </row>
     <row r="85" ht="14.25">
       <c r="A85" s="5">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>3547</v>
+        <v>3634</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>3548</v>
+        <v>3635</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>3546</v>
-      </c>
-      <c r="E85" s="7"/>
-      <c r="F85" s="16"/>
+        <v>3090</v>
+      </c>
+      <c r="E85" s="5"/>
+      <c r="F85" s="3" t="s">
+        <v>3446</v>
+      </c>
       <c r="G85" s="3" t="s">
         <v>2863</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I85" s="3"/>
-    </row>
-    <row r="86" ht="14.25">
-      <c r="A86" s="5">
-        <v>91</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>3549</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>3550</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>3546</v>
-      </c>
-      <c r="E86" s="7"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I86" s="3"/>
+      <c r="I85" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25">
+      <c r="E87" s="5"/>
+      <c r="F87" s="6"/>
     </row>
     <row r="88" ht="14.25">
       <c r="A88" s="5">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>3551</v>
+        <v>3636</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>3552</v>
+        <v>3637</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>3245</v>
-      </c>
-      <c r="E88" s="7"/>
-      <c r="F88" s="16"/>
+        <v>3090</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="3" t="s">
+        <v>3446</v>
+      </c>
       <c r="G88" s="3" t="s">
         <v>2863</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I88" s="3"/>
+      <c r="I88" s="3" t="s">
+        <v>2869</v>
+      </c>
     </row>
     <row r="89" ht="14.25">
       <c r="A89" s="5">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>3553</v>
+        <v>3638</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>3554</v>
+        <v>3639</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>3245</v>
-      </c>
-      <c r="E89" s="7"/>
-      <c r="F89" s="16"/>
+        <v>3090</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="3" t="s">
+        <v>3446</v>
+      </c>
       <c r="G89" s="3" t="s">
         <v>2863</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I89" s="3"/>
-    </row>
-    <row r="91" ht="14.25">
-      <c r="A91" s="5">
+      <c r="I89" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25">
+      <c r="A92" s="5">
+        <v>67</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>3640</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>3641</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>3642</v>
+      </c>
+      <c r="E92" s="2">
+        <v>1921</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25">
+      <c r="A93" s="5">
+        <v>6</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>3643</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>3644</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>3642</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I93" s="3"/>
+    </row>
+    <row r="96" ht="14.25">
+      <c r="A96" s="5">
+        <v>2</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>3645</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>3647</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" ht="14.25">
+      <c r="A97" s="5">
+        <v>3</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>3648</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>3649</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>3650</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" ht="14.25">
+      <c r="A98" s="5">
+        <v>8</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>3652</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>3605</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I98" s="3"/>
+    </row>
+    <row r="99" ht="14.25">
+      <c r="A99" s="5">
+        <v>10</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>3653</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>3654</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>3655</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I99" s="3"/>
+    </row>
+    <row r="101" ht="14.25">
+      <c r="A101" s="5">
+        <v>11</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>3656</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>3657</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>3658</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" ht="14.25">
+      <c r="E102" s="5"/>
+      <c r="F102" s="6"/>
+    </row>
+    <row r="103" ht="14.25">
+      <c r="A103" s="5">
+        <v>21</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>3659</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>3660</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>3661</v>
+      </c>
+      <c r="E103" s="3"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I103" s="3"/>
+    </row>
+    <row r="104" ht="14.25">
+      <c r="A104" s="5">
+        <v>47</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>3662</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>3663</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>3661</v>
+      </c>
+      <c r="E104" s="3"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I104" s="3"/>
+    </row>
+    <row r="107" ht="14.25">
+      <c r="A107" s="5">
+        <v>29</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>3664</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>3665</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>3666</v>
+      </c>
+      <c r="E107" s="3"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I107" s="3"/>
+    </row>
+    <row r="108" ht="14.25">
+      <c r="A108" s="5">
+        <v>35</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>3667</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>3668</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>3666</v>
+      </c>
+      <c r="E108" s="3"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I108" s="3"/>
+    </row>
+    <row r="109" ht="14.25">
+      <c r="A109" s="5">
+        <v>91</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>3669</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>3670</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>3666</v>
+      </c>
+      <c r="E109" s="3"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I109" s="3"/>
+    </row>
+    <row r="111" ht="14.25">
+      <c r="A111" s="5">
+        <v>18</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>3671</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>3672</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>3263</v>
+      </c>
+      <c r="E111" s="3"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I111" s="3"/>
+    </row>
+    <row r="112" ht="14.25">
+      <c r="A112" s="5">
+        <v>17</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>3673</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>3674</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>3263</v>
+      </c>
+      <c r="E112" s="3"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I112" s="3"/>
+    </row>
+    <row r="114" ht="14.25">
+      <c r="A114" s="5">
         <v>69</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B114" s="3" t="s">
+        <v>3675</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>3677</v>
+      </c>
+      <c r="E114" s="3"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I114" s="3"/>
+    </row>
+    <row r="117" ht="14.25">
+      <c r="A117" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>3678</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>3679</v>
+      </c>
+      <c r="D117" t="s">
+        <v>3680</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="3" t="s">
+        <v>3431</v>
+      </c>
+      <c r="H117" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="118" ht="14.25">
+      <c r="E118" s="5"/>
+      <c r="F118" s="6"/>
+    </row>
+    <row r="119" ht="14.25">
+      <c r="A119" s="5">
+        <v>3</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>3683</v>
+      </c>
+      <c r="D119" t="s">
+        <v>3684</v>
+      </c>
+      <c r="E119" s="5"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="3" t="s">
+        <v>3431</v>
+      </c>
+      <c r="H119" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>3685</v>
+      </c>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
+    </row>
+    <row r="120" ht="14.25">
+      <c r="A120" s="5">
+        <v>4</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>3686</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>3687</v>
+      </c>
+      <c r="D120" t="s">
+        <v>3684</v>
+      </c>
+      <c r="E120" s="5"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="3" t="s">
+        <v>3431</v>
+      </c>
+      <c r="H120" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>3688</v>
+      </c>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+    </row>
+    <row r="121" ht="14.25">
+      <c r="A121" s="5">
+        <v>5</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>3690</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>3684</v>
+      </c>
+      <c r="E121" s="5"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="3" t="s">
+        <v>3431</v>
+      </c>
+      <c r="H121" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>3691</v>
+      </c>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+    </row>
+    <row r="122" ht="14.25">
+      <c r="A122" s="5">
+        <v>6</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>3693</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>3684</v>
+      </c>
+      <c r="E122" s="5"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="3" t="s">
+        <v>3431</v>
+      </c>
+      <c r="H122" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>3694</v>
+      </c>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+    </row>
+    <row r="123" ht="14.25">
+      <c r="E123" s="5"/>
+      <c r="F123" s="6"/>
+    </row>
+    <row r="124" ht="14.25">
+      <c r="A124" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>3695</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>3696</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>3697</v>
+      </c>
+      <c r="E124" s="3"/>
+      <c r="F124" s="8" t="s">
+        <v>3698</v>
+      </c>
+      <c r="G124" s="3"/>
+      <c r="H124" t="s">
+        <v>3359</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>3699</v>
+      </c>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
+    </row>
+    <row r="125" ht="14.25">
+      <c r="A125" s="3" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>3700</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>3701</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>3697</v>
+      </c>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3" t="s">
+        <v>3698</v>
+      </c>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3" t="s">
+        <v>3359</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>3702</v>
+      </c>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+    </row>
+    <row r="126" ht="14.25">
+      <c r="A126" s="3" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>3703</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>3704</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>3697</v>
+      </c>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3" t="s">
+        <v>3698</v>
+      </c>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3" t="s">
+        <v>3359</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>3705</v>
+      </c>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
+    </row>
+    <row r="127" ht="14.25">
+      <c r="A127" s="3" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>3706</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>3707</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>3697</v>
+      </c>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3" t="s">
+        <v>3698</v>
+      </c>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3" t="s">
+        <v>3359</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>3708</v>
+      </c>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3"/>
+      <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
+      <c r="P127" s="3"/>
+    </row>
+    <row r="128" ht="14.25">
+      <c r="A128" s="3" t="s">
         <v>3555</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>3556</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>3557</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>2862</v>
-      </c>
-      <c r="F91" s="16"/>
-      <c r="G91" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I91" s="3"/>
+      <c r="B128" s="3" t="s">
+        <v>3709</v>
+      </c>
+      <c r="C128" t="s">
+        <v>3710</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>3697</v>
+      </c>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3" t="s">
+        <v>3698</v>
+      </c>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3" t="s">
+        <v>3359</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>3711</v>
+      </c>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="3"/>
+      <c r="P128" s="3"/>
+    </row>
+    <row r="129" ht="14.25">
+      <c r="A129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="6"/>
+    </row>
+    <row r="130" ht="14.25">
+      <c r="A130" s="3" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>3713</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>3697</v>
+      </c>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3" t="s">
+        <v>3698</v>
+      </c>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3" t="s">
+        <v>3359</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>3714</v>
+      </c>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
+      <c r="P130" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -47943,6 +50080,1144 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView topLeftCell="A34" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" style="6" width="80.140625"/>
+    <col customWidth="1" min="4" max="4" width="25.00390625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="C5" s="6" t="s">
+        <v>3715</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>3717</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3718</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3720</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>3721</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>3722</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="10" t="s">
+        <v>3723</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>3724</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="11"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3725</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>3726</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>3724</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3727</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>3728</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3729</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2004</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="7" t="s">
+        <v>3730</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3729</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2005</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="10" t="s">
+        <v>3731</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>3729</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2006</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="10" t="s">
+        <v>3732</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3729</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2007</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="10" t="s">
+        <v>3733</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3729</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2017</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="10" t="s">
+        <v>3734</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3729</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>3735</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3737</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="3">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>3738</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>3739</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3737</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="10" t="s">
+        <v>3740</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>3737</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="10" t="s">
+        <v>3741</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1963</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="10" t="s">
+        <v>3743</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1964</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="10" t="s">
+        <v>3744</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1965</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="10" t="s">
+        <v>3745</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1967</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="10" t="s">
+        <v>3746</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1975</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="10" t="s">
+        <v>3747</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1977</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="10" t="s">
+        <v>3748</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1979</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="10" t="s">
+        <v>3749</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1981</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="10" t="s">
+        <v>3750</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1985</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="10" t="s">
+        <v>3751</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1987</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="10" t="s">
+        <v>3752</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1993</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="10" t="s">
+        <v>3753</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1995</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="10" t="s">
+        <v>3754</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2002</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="10" t="s">
+        <v>3755</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2002</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="10" t="s">
+        <v>3756</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2005</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="10" t="s">
+        <v>3757</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2004</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="10" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2012</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" s="3">
+        <v>10</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>3759</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>3760</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>3761</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37">
+        <v>11</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>3762</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>3763</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>3761</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" s="3">
+        <v>12</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>3764</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>3765</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>3766</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39">
+        <v>13</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>3767</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>3768</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>3769</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40" s="3">
+        <v>14</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>3770</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>3771</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>3769</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41">
+        <v>15</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>3772</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>3773</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>3769</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42" s="3">
+        <v>16</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>3774</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>3775</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>3769</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="44" ht="14.25"/>
+    <row r="45" ht="14.25"/>
+    <row r="46" ht="14.25"/>
+    <row r="47" ht="14.25">
+      <c r="A47" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>3776</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>3777</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>3778</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" s="3" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>3780</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>3781</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>3778</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" s="3" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>3782</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>3783</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>3778</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50" s="3" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>3785</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>3786</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>3778</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" s="3" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>3788</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>3789</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>3778</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52" s="3" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>3790</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>3791</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>3778</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" s="3" t="s">
+        <v>3559</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>3792</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>3793</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>3778</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" s="3" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>3794</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>3795</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>3778</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
@@ -47958,7 +51233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">

--- a/Selected_Downloads.xlsx
+++ b/Selected_Downloads.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Revistas" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3796" uniqueCount="3796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3843" uniqueCount="3843">
   <si>
     <t>Index</t>
   </si>
@@ -11166,6 +11166,18 @@
     <t xml:space="preserve">x, 668 pages ; 24 cm Includes bibliographical references (p. 642-652) and index</t>
   </si>
   <si>
+    <t xml:space="preserve">The Nuremberg Chronicle (1493)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew of Paris Chronica Majora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Making Dystopia: The Strange Rise and Survival of Architectural Barbarism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Stevens Curl</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Aesthetics of Architecture</t>
   </si>
   <si>
@@ -11407,6 +11419,135 @@
   </si>
   <si>
     <t xml:space="preserve">Antiga construção civil no Brasil - Fascículo VII</t>
+  </si>
+  <si>
+    <t>gri_33125000176541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Arte e a natureza em Portugal : album de photographias com descripções, clichés originaes; copias em phototypias inalteraveis; monumentos, obras d'arte, costumes, paisagens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['getty', 'americana']</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porto : E. Biel &amp; Cia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 v Portuguese and French in parallel columns</t>
+  </si>
+  <si>
+    <t>gri_33125000176533</t>
+  </si>
+  <si>
+    <t>gri_33125000176491</t>
+  </si>
+  <si>
+    <t>gri_33125000176350</t>
+  </si>
+  <si>
+    <t>gri_33125000176525</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 v Portuguese and French in parallel columns</t>
+  </si>
+  <si>
+    <t>gri_33125000176343</t>
+  </si>
+  <si>
+    <t>gri_33125000176327</t>
+  </si>
+  <si>
+    <t>gri_33125000176558</t>
+  </si>
+  <si>
+    <t>gri_33125000176566</t>
+  </si>
+  <si>
+    <t>gri_33125000188413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da architectura religiosa em Coimbra durante a edade media</t>
+  </si>
+  <si>
+    <t>gridigitalservices@getty.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Church architecture', 'Church architecture']</t>
+  </si>
+  <si>
+    <t>1875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simões, Augusto Filipe, 1835-1884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coimbra, Imprensa da Universidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Conferencia feita em 21 de fevereiro de 1874 no Instituto de Coimbra."</t>
+  </si>
+  <si>
+    <t>arteromnicaemp00vasc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arte románica em Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['robarts', 'toronto']</t>
+  </si>
+  <si>
+    <t>katie@archive.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Architecture, Romanesque', 'Architecture', 'Church architecture']</t>
+  </si>
+  <si>
+    <t>1918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasconcellos, Joaquim de, 1849-1936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porto : Marques Abreu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Originally issued in fascicules Bibliography: p. 73-76 (3rd group) RBSC copy: With original paper covers bound in 32 52</t>
+  </si>
+  <si>
+    <t>methodolusitanic00pime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methodo lusitanico de desenhar as fortificaçoens das praças regulares &amp; irregulares : fortes de campanha, e outras obras pertencentes a architectura militar, distribuido em duas partes operativa e qualificativa</t>
+  </si>
+  <si>
+    <t>associate-ashley-walters@archive.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Fortification', 'Military architecture']</t>
+  </si>
+  <si>
+    <t>1680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Pimentel, Luís Serrão, 1613-1679', 'Pagan, Blaise François de, comte de Merveilles, 1604-1665', 'Baptista, Joaõ, 17th cent', 'Bietry, René', 'Mendes, Manuel, 17th cent', 'Craesbeeck de Mello, Antonio, -approximately 1687']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em Lisboa : Na impressaõ de Antonio Craesbeeck de Mello impressor de S. Alteza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added engraved title signed: Joaõ Bauptista. The XXXVI numbered double-page plates bear plans, elevations and views engraved by Manuel Mendes and René Bietry. The [5] additional double-page plates bear letterpress tables 8-10 and 13-14 In Getty copy all plates bound in at center fold to form [82] leaves in total Signatures: [sec.]⁴ *⁴ A-4P⁴ 4Q² Includes index Errata, last p Appendiz I. Pagan resumido, ou, Compendio das fortificaçoens do Conde de Pagan, examinadas, e reduzidas em algumas cousas a melhor disposiçao -- Appendiz II. Das obras do Conde de Pagan acco[m]modadas à nossa descripçaõ ichnographica, &amp; reguladas por nosso Methodo -- Trigonometria practica rectilinea, por Luis Serram Pimentel -- Compendio de alguns problemas da geometria practica, &amp; theoremas da especulativa Binding: old red goatskin. Boards tooled extensively in gilt (frames filled with rolls including one that depicts a hunting scene; center panels with rosettes, quarter rosettes in corners). Edges of boards gilt rolled. Spine gilt tooled, title in 2nd compartment. Page edges gilt, and gauffered in a diaper pattern Signature on front pastedown, now inked out. Signature on t.p. of Conde de Cavalleiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Frankling Scandall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michele Remembers</t>
   </si>
 </sst>
 </file>
@@ -11475,7 +11616,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -11502,20 +11643,7 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
@@ -44614,7 +44742,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -44623,7 +44751,7 @@
     <col bestFit="1" min="1" max="1" width="5.57421875"/>
     <col customWidth="1" min="2" max="2" width="14.140625"/>
     <col customWidth="1" min="3" max="3" width="54.8515625"/>
-    <col customWidth="1" min="4" max="4" width="28.00390625"/>
+    <col customWidth="1" min="4" max="4" width="40.140625"/>
     <col customWidth="1" min="5" max="5" style="6" width="27.8515625"/>
     <col customWidth="1" min="6" max="6" width="18.140625"/>
     <col bestFit="1" min="7" max="7" width="24.7109375"/>
@@ -47320,7 +47448,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -47422,12 +47550,10 @@
       <c r="I3" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="9" t="s">
+      <c r="J3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>3453</v>
       </c>
     </row>
@@ -50068,9 +50194,19 @@
       <c r="O130" s="3"/>
       <c r="P130" s="3"/>
     </row>
+    <row r="134" ht="14.25">
+      <c r="C134" t="s">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="135" ht="14.25">
+      <c r="C135" t="s">
+        <v>3716</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="M3"/>
+    <hyperlink r:id="rId1" ref="K3"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -50082,7 +50218,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -50122,14 +50258,21 @@
       </c>
     </row>
     <row r="2"/>
-    <row r="3"/>
+    <row r="3">
+      <c r="C3" s="6" t="s">
+        <v>3717</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3718</v>
+      </c>
+    </row>
     <row r="4"/>
     <row r="5">
       <c r="C5" s="6" t="s">
-        <v>3715</v>
+        <v>3719</v>
       </c>
       <c r="D5" t="s">
-        <v>3716</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="6">
@@ -50137,13 +50280,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>3717</v>
+        <v>3721</v>
       </c>
       <c r="D6" t="s">
-        <v>3718</v>
+        <v>3722</v>
       </c>
       <c r="I6" t="s">
-        <v>3719</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="7" ht="14.25">
@@ -50151,13 +50294,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>3720</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>3721</v>
+        <v>3724</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>3725</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>3722</v>
+        <v>3726</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -50174,13 +50317,13 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="10" t="s">
-        <v>3723</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>3724</v>
+      <c r="C8" s="7" t="s">
+        <v>3727</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3728</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -50194,20 +50337,20 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="11"/>
+      <c r="Q8" s="3"/>
     </row>
     <row r="9" ht="14.25">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>3725</v>
+        <v>3729</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>3726</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>3724</v>
+        <v>3730</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3728</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -50227,13 +50370,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>3727</v>
+        <v>3731</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>3728</v>
+        <v>3732</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>3729</v>
+        <v>3733</v>
       </c>
       <c r="E10" s="3">
         <v>2004</v>
@@ -50251,13 +50394,13 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="7" t="s">
-        <v>3730</v>
+        <v>3734</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>3729</v>
+        <v>3733</v>
       </c>
       <c r="E11" s="3">
         <v>2005</v>
@@ -50275,13 +50418,13 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="10" t="s">
-        <v>3731</v>
+      <c r="C12" s="7" t="s">
+        <v>3735</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>3729</v>
+        <v>3733</v>
       </c>
       <c r="E12" s="3">
         <v>2006</v>
@@ -50299,13 +50442,13 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="13"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="10" t="s">
-        <v>3732</v>
+      <c r="C13" s="7" t="s">
+        <v>3736</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>3729</v>
+        <v>3733</v>
       </c>
       <c r="E13" s="3">
         <v>2007</v>
@@ -50323,13 +50466,13 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
+        <v>3737</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>3733</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>3729</v>
       </c>
       <c r="E14" s="3">
         <v>2017</v>
@@ -50347,13 +50490,13 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="10" t="s">
-        <v>3734</v>
+      <c r="C15" s="7" t="s">
+        <v>3738</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>3729</v>
+        <v>3733</v>
       </c>
       <c r="E15" s="3">
         <v>2015</v>
@@ -50375,13 +50518,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>3735</v>
+        <v>3739</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>3736</v>
+        <v>3740</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3737</v>
+        <v>3741</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -50401,13 +50544,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>3738</v>
+        <v>3742</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>3739</v>
+        <v>3743</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>3737</v>
+        <v>3741</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -50423,13 +50566,13 @@
       <c r="P17" s="3"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="10" t="s">
-        <v>3740</v>
+      <c r="C18" s="7" t="s">
+        <v>3744</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>3737</v>
+        <v>3741</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -50445,13 +50588,13 @@
       <c r="P18" s="3"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="10" t="s">
-        <v>3741</v>
+      <c r="C19" s="7" t="s">
+        <v>3745</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>3742</v>
+        <v>3746</v>
       </c>
       <c r="E19" s="3">
         <v>1963</v>
@@ -50471,13 +50614,13 @@
       <c r="R19" s="3"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="10" t="s">
-        <v>3743</v>
+      <c r="C20" s="7" t="s">
+        <v>3747</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>3742</v>
+        <v>3746</v>
       </c>
       <c r="E20" s="3">
         <v>1964</v>
@@ -50497,13 +50640,13 @@
       <c r="R20" s="3"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="10" t="s">
-        <v>3744</v>
+      <c r="C21" s="7" t="s">
+        <v>3748</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>3742</v>
+        <v>3746</v>
       </c>
       <c r="E21" s="3">
         <v>1965</v>
@@ -50523,13 +50666,13 @@
       <c r="R21" s="3"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="10" t="s">
-        <v>3745</v>
+      <c r="C22" s="7" t="s">
+        <v>3749</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>3742</v>
+        <v>3746</v>
       </c>
       <c r="E22" s="3">
         <v>1967</v>
@@ -50549,13 +50692,13 @@
       <c r="R22" s="3"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="7" t="s">
+        <v>3750</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>3746</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>3742</v>
       </c>
       <c r="E23" s="3">
         <v>1975</v>
@@ -50575,13 +50718,13 @@
       <c r="R23" s="3"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="11"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="10" t="s">
-        <v>3747</v>
+      <c r="C24" s="7" t="s">
+        <v>3751</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>3742</v>
+        <v>3746</v>
       </c>
       <c r="E24" s="3">
         <v>1977</v>
@@ -50601,13 +50744,13 @@
       <c r="R24" s="3"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="10" t="s">
-        <v>3748</v>
+      <c r="C25" s="7" t="s">
+        <v>3752</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>3742</v>
+        <v>3746</v>
       </c>
       <c r="E25" s="3">
         <v>1979</v>
@@ -50627,13 +50770,13 @@
       <c r="R25" s="3"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="11"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="10" t="s">
-        <v>3749</v>
+      <c r="C26" s="7" t="s">
+        <v>3753</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3742</v>
+        <v>3746</v>
       </c>
       <c r="E26" s="3">
         <v>1981</v>
@@ -50653,13 +50796,13 @@
       <c r="R26" s="3"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="11"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="10" t="s">
-        <v>3750</v>
+      <c r="C27" s="7" t="s">
+        <v>3754</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>3742</v>
+        <v>3746</v>
       </c>
       <c r="E27" s="3">
         <v>1985</v>
@@ -50679,13 +50822,13 @@
       <c r="R27" s="3"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="11"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="10" t="s">
-        <v>3751</v>
+      <c r="C28" s="7" t="s">
+        <v>3755</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>3742</v>
+        <v>3746</v>
       </c>
       <c r="E28" s="3">
         <v>1987</v>
@@ -50705,13 +50848,13 @@
       <c r="R28" s="3"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="11"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="10" t="s">
-        <v>3752</v>
+      <c r="C29" s="7" t="s">
+        <v>3756</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>3742</v>
+        <v>3746</v>
       </c>
       <c r="E29" s="3">
         <v>1993</v>
@@ -50731,13 +50874,13 @@
       <c r="R29" s="3"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="11"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="10" t="s">
-        <v>3753</v>
+      <c r="C30" s="7" t="s">
+        <v>3757</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>3742</v>
+        <v>3746</v>
       </c>
       <c r="E30" s="3">
         <v>1995</v>
@@ -50757,13 +50900,13 @@
       <c r="R30" s="3"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="11"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="10" t="s">
-        <v>3754</v>
+      <c r="C31" s="7" t="s">
+        <v>3758</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>3742</v>
+        <v>3746</v>
       </c>
       <c r="E31" s="3">
         <v>2002</v>
@@ -50783,13 +50926,13 @@
       <c r="R31" s="3"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="11"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="10" t="s">
-        <v>3755</v>
+      <c r="C32" s="7" t="s">
+        <v>3759</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>3742</v>
+        <v>3746</v>
       </c>
       <c r="E32" s="3">
         <v>2002</v>
@@ -50809,13 +50952,13 @@
       <c r="R32" s="3"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="11"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="10" t="s">
-        <v>3756</v>
+      <c r="C33" s="7" t="s">
+        <v>3760</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>3742</v>
+        <v>3746</v>
       </c>
       <c r="E33" s="3">
         <v>2005</v>
@@ -50835,13 +50978,13 @@
       <c r="R33" s="3"/>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="11"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="10" t="s">
-        <v>3757</v>
+      <c r="C34" s="7" t="s">
+        <v>3761</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>3742</v>
+        <v>3746</v>
       </c>
       <c r="E34" s="3">
         <v>2004</v>
@@ -50861,13 +51004,13 @@
       <c r="R34" s="3"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="10" t="s">
-        <v>3758</v>
+      <c r="C35" s="7" t="s">
+        <v>3762</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>3742</v>
+        <v>3746</v>
       </c>
       <c r="E35" s="3">
         <v>2012</v>
@@ -50891,13 +51034,13 @@
         <v>10</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>3759</v>
+        <v>3763</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>3760</v>
+        <v>3764</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>3761</v>
+        <v>3765</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -50918,13 +51061,13 @@
         <v>11</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>3762</v>
+        <v>3766</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>3763</v>
+        <v>3767</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>3761</v>
+        <v>3765</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -50945,13 +51088,13 @@
         <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>3764</v>
+        <v>3768</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>3765</v>
+        <v>3769</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>3766</v>
+        <v>3770</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -50971,13 +51114,13 @@
         <v>13</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>3767</v>
+        <v>3771</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>3768</v>
+        <v>3772</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>3769</v>
+        <v>3773</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -50997,13 +51140,13 @@
         <v>14</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>3770</v>
+        <v>3774</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>3771</v>
+        <v>3775</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>3769</v>
+        <v>3773</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -51023,13 +51166,13 @@
         <v>15</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>3772</v>
+        <v>3776</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>3777</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>3773</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>3769</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -51049,13 +51192,13 @@
         <v>16</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>3774</v>
+        <v>3778</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>3775</v>
+        <v>3779</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>3769</v>
+        <v>3773</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -51078,16 +51221,16 @@
         <v>397</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>3776</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>3777</v>
+        <v>3780</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>3781</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>3778</v>
+        <v>3782</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>3779</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="48" ht="14.25">
@@ -51095,16 +51238,16 @@
         <v>3111</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>3780</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>3781</v>
+        <v>3784</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>3785</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>3778</v>
+        <v>3782</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>3779</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="49" ht="14.25">
@@ -51112,16 +51255,16 @@
         <v>3115</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>3786</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>3787</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>3782</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>3783</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>3778</v>
-      </c>
       <c r="E49" s="3" t="s">
-        <v>3784</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="50" ht="14.25">
@@ -51129,16 +51272,16 @@
         <v>3437</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>3785</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>3786</v>
+        <v>3789</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>3790</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>3778</v>
+        <v>3782</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>3787</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="51" ht="14.25">
@@ -51146,16 +51289,16 @@
         <v>3119</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>3788</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>3789</v>
+        <v>3792</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>3793</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>3778</v>
+        <v>3782</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>3787</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="52" ht="14.25">
@@ -51163,16 +51306,16 @@
         <v>3555</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>3790</v>
-      </c>
-      <c r="C52" s="14" t="s">
+        <v>3794</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>3795</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>3782</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>3791</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>3778</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3787</v>
       </c>
     </row>
     <row r="53" ht="14.25">
@@ -51180,16 +51323,16 @@
         <v>3559</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>3792</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>3793</v>
+        <v>3796</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>3797</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>3778</v>
+        <v>3782</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>3787</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="54" ht="14.25">
@@ -51197,16 +51340,370 @@
         <v>3563</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>3794</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>3795</v>
+        <v>3798</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>3799</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>3778</v>
+        <v>3782</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>3787</v>
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="A57" s="3">
+        <v>94</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>3800</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>3801</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>3802</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>3803</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3" t="s">
+        <v>3804</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="A58" s="3">
+        <v>93</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>3806</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>3801</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>3802</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3803</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3" t="s">
+        <v>3804</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="A59" s="3">
+        <v>92</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>3807</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>3801</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>3802</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>3803</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3" t="s">
+        <v>3804</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="A60" s="3">
+        <v>91</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>3808</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>3801</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>3802</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>3803</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3" t="s">
+        <v>3804</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61" s="3">
+        <v>73</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>3809</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>3801</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>3802</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>3810</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3" t="s">
+        <v>3804</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="A62" s="3">
+        <v>90</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>3812</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>3801</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>3802</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3803</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3" t="s">
+        <v>3804</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="A63" s="3">
+        <v>89</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>3813</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>3801</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>3802</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>3803</v>
+      </c>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3" t="s">
+        <v>3804</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="A64" s="3">
+        <v>95</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>3814</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>3801</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>3802</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>3803</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3" t="s">
+        <v>3804</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65" s="3">
+        <v>96</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>3815</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>3801</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>3802</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>3803</v>
+      </c>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3" t="s">
+        <v>3804</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="C66" s="6"/>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>3816</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>3817</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>3802</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>3818</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>3819</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>3820</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>3821</v>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3" t="s">
+        <v>3822</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="A70" s="3">
+        <v>76</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>3824</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>3825</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>3826</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>3827</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>3828</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>3829</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>3830</v>
+      </c>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3" t="s">
+        <v>3831</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>3832</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="A71" s="3">
+        <v>3</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>3833</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>3834</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>3802</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>3835</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>3836</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>3837</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>3838</v>
+      </c>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3" t="s">
+        <v>3839</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>3840</v>
       </c>
     </row>
   </sheetData>
@@ -51225,7 +51722,18 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="6" ht="14.25">
+      <c r="B6" t="s">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="B7" t="s">
+        <v>3842</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/Selected_Downloads.xlsx
+++ b/Selected_Downloads.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Revistas" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="_His_" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Architecture" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="X Board" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Television" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Leaving the Cathedral" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3843" uniqueCount="3843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="3905">
   <si>
     <t>Index</t>
   </si>
@@ -10134,7 +10134,7 @@
     <t>uma-politica-nacional-oswald-mosley</t>
   </si>
   <si>
-    <t xml:space="preserve">Uma Política Nacional - Oswald Mosley</t>
+    <t xml:space="preserve">Uma Política Nacional</t>
   </si>
   <si>
     <t xml:space="preserve">Oswald Mosley</t>
@@ -10347,6 +10347,15 @@
     <t xml:space="preserve">Revolução e Contra-revolução (1980) - Plinio Corrêa de Oliveira</t>
   </si>
   <si>
+    <t xml:space="preserve">Sizer S - Christian Zionism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eustace Clarence Mullins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Shelby Downard Books</t>
+  </si>
+  <si>
     <t>bub_gb_6d0_7XDSscgC</t>
   </si>
   <si>
@@ -10380,9 +10389,6 @@
     <t>suiewendhausen@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">https://objdigital.bn.br/objdigital2/acervo_digital/div_obrasraras/or298/or298.pdfDiário da Navegação da Armada que Foi a Terra do BrasilEm 1530 Sob a Capitania-Morde Martim Affonso de SouzaEscripto por seu irmãoPero Lopes de SouzaPublicado por Francisco Adolfo de VarnhagenLisboa, Typographia da Socieadade Propagadora dos Conhecimentos Úteis1839Nau Capitânea, Nau San Miguel, Galeão São Vicente, Caravela Rosa e Caravela PrincesaDentre as 400 pessoas embarcadas nestes navios, poderemos somente mencionar, Jorge Piresobjdigital.bn.br/objdigital2/acervo_digital/div_obrasraras/or298/or298.pdfviar a Portugal, e a seu irmão encarregou do cominan- ... c. p. 243, e um Nobiliário MS» ... tins Ferreira; Pedro Collaço; Jorge Pires; Heitor d'Al-.1.304 páginas</t>
-  </si>
-  <si>
     <t>195</t>
   </si>
   <si>
@@ -10731,9 +10737,6 @@
     <t xml:space="preserve">A Doutrina Do Sigma</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>000</t>
   </si>
   <si>
@@ -11172,6 +11175,18 @@
     <t xml:space="preserve">Matthew of Paris Chronica Majora</t>
   </si>
   <si>
+    <t xml:space="preserve">The Oral History of Forgotten wars: Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anatoly Alekseevsky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander Yakovlev book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Resistance to Evil by Force by Ivan Ilyin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Making Dystopia: The Strange Rise and Survival of Architectural Barbarism</t>
   </si>
   <si>
@@ -11544,17 +11559,188 @@
     <t xml:space="preserve">Added engraved title signed: Joaõ Bauptista. The XXXVI numbered double-page plates bear plans, elevations and views engraved by Manuel Mendes and René Bietry. The [5] additional double-page plates bear letterpress tables 8-10 and 13-14 In Getty copy all plates bound in at center fold to form [82] leaves in total Signatures: [sec.]⁴ *⁴ A-4P⁴ 4Q² Includes index Errata, last p Appendiz I. Pagan resumido, ou, Compendio das fortificaçoens do Conde de Pagan, examinadas, e reduzidas em algumas cousas a melhor disposiçao -- Appendiz II. Das obras do Conde de Pagan acco[m]modadas à nossa descripçaõ ichnographica, &amp; reguladas por nosso Methodo -- Trigonometria practica rectilinea, por Luis Serram Pimentel -- Compendio de alguns problemas da geometria practica, &amp; theoremas da especulativa Binding: old red goatskin. Boards tooled extensively in gilt (frames filled with rolls including one that depicts a hunting scene; center panels with rosettes, quarter rosettes in corners). Edges of boards gilt rolled. Spine gilt tooled, title in 2nd compartment. Page edges gilt, and gauffered in a diaper pattern Signature on front pastedown, now inked out. Signature on t.p. of Conde de Cavalleiro</t>
   </si>
   <si>
-    <t xml:space="preserve">The Frankling Scandall</t>
+    <t>gri_33125000447421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reliquias da architectura romano-byzantina em Portugal, e particularmente na cidade de Coimbra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Architecture, Romanesque', 'Church architecture -- Portugal', 'Church architecture -- Portugal -- Coimbra']</t>
+  </si>
+  <si>
+    <t>1870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisboa, Typographia portugueza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23, [1] p. 49 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The X-Files: What Belgium Was Not Supposed to Know About the Dutroux Affair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PizzaGate Stuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Franklin Scandal: A Story of Powerbrokers, Child Abuse &amp; Betrayal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Kincora Scandal: Political Cover-Up &amp; Intrigue in Ulster</t>
   </si>
   <si>
     <t xml:space="preserve">Michele Remembers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Space Relations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donald Barr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donald Barr, father of William Barr, was the headmaster of Dalton School when Jeffrey Epstein began teaching without credentials there in the early 1970s. His son Bill Barr as Attorney General, rejected conspiracy theories surrounding Epstein’s death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Something ABout the finders cult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Something about McMartin Preschool Trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAOS: Charles Manson, the CIA, and the Secret History of the Sixties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MK-Ultra Stuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS Lewis Space Trilogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIll Gaede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secrete Agent 666: Aleister Crowley, British Intelligence and the Occult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secrete Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secrete Nazi Polar Expeditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristof Friedrich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood Passover: The Jews of Europe and Ritual Murder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ariel Toaff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Brooking Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGLO-SAXON' VS. 'LATIN' PARAPSYCHOLOGY: UNDERLYING THE COMMUNICATION BARRIER (MARIO P. VARVOGLIS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis and Assessment of Gateway Process (CIA-RDP96-00788R001700210016-5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acoustic Kitty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation Northwoods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Sunshine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pentagon Papers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation Papperclip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation Mockingbird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation LAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Majestic 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nsa ant catalog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehran UFO 1976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal Mutilations CIA Docs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phoenix Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telepathic Rabbits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roger Boisjoly Memo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Pluto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guy Hottel Memo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memo 6751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Secret King: The Myth and Reality of Nazi Occultism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBI vault - The Protocols of the meeting of the Learned Elders of Zion:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Falsity of Set Theory - Vladimir Istarkhov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Bicameral Mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Graeber's Bullshit Jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feyerabend, Paul – Against Method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motterlini, Matteo – For and Against Method: Including Lakatos's Lectures on Scientific Method and the Lakatos-Feyerabend Correspondence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Rohl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mindless statistics (Gerd Gigerenzer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rationality for Mortals (Gerd Gigerenzer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Darwin Got Wrong (Jerry Fodor and Massimo Piatelli-Palmarini)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Critique of “Reason” Luke Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaving the Cathedral Ryan Faulk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -11573,6 +11759,17 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.000000"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.000000"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -11616,7 +11813,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -11645,6 +11842,11 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
       <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -44742,7 +44944,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A110" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -44754,7 +44956,7 @@
     <col customWidth="1" min="4" max="4" width="40.140625"/>
     <col customWidth="1" min="5" max="5" style="6" width="27.8515625"/>
     <col customWidth="1" min="6" max="6" width="18.140625"/>
-    <col bestFit="1" min="7" max="7" width="24.7109375"/>
+    <col customWidth="1" min="7" max="7" width="32.140625"/>
     <col customWidth="1" min="8" max="8" width="12.8515625"/>
     <col customWidth="1" min="9" max="9" width="52.8515625"/>
   </cols>
@@ -47437,6 +47639,21 @@
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
     </row>
+    <row r="118" ht="14.25">
+      <c r="C118" s="3" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="119" ht="14.25">
+      <c r="C119" s="3" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25">
+      <c r="C123" t="s">
+        <v>3444</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -47448,19 +47665,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A114" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" style="5" width="5.57421875"/>
+    <col customWidth="1" min="2" max="2" width="20.140625"/>
     <col customWidth="1" min="3" max="3" width="52.00390625"/>
     <col customWidth="1" min="4" max="4" width="38.28125"/>
     <col customWidth="1" min="5" max="5" style="5" width="14.00390625"/>
     <col customWidth="1" min="6" max="6" style="6" width="27.8515625"/>
     <col customWidth="1" min="8" max="8" width="12.57421875"/>
-    <col customWidth="1" min="9" max="9" width="29.7109375"/>
+    <col customWidth="1" min="9" max="9" width="61.28125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -47497,22 +47715,22 @@
         <v>397</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3442</v>
+        <v>3445</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3443</v>
+        <v>3446</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3444</v>
+        <v>3447</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3445</v>
+        <v>3448</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>3447</v>
+        <v>3450</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>2864</v>
@@ -47527,51 +47745,45 @@
     <row r="3" ht="14.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>3448</v>
+        <v>3451</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>3452</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3453</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3454</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>3449</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>3450</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3451</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>3446</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>3452</v>
+        <v>3455</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>3453</v>
-      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="5" t="s">
-        <v>3454</v>
+        <v>3456</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3455</v>
+        <v>3457</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3456</v>
+        <v>3458</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>2863</v>
@@ -47585,22 +47797,22 @@
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="5" t="s">
-        <v>3458</v>
+        <v>3460</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>3461</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>3459</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>3460</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>3457</v>
       </c>
       <c r="E6" s="5">
         <v>1937</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>3215</v>
@@ -47614,22 +47826,22 @@
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="5" t="s">
-        <v>3461</v>
+        <v>3463</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>3462</v>
+        <v>3464</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3463</v>
+        <v>3465</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="E7" s="5">
         <v>1936</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>3215</v>
@@ -47638,24 +47850,24 @@
         <v>2864</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>3464</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="5" t="s">
-        <v>3465</v>
+        <v>3467</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>3466</v>
+        <v>3468</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3467</v>
+        <v>3469</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>2863</v>
@@ -47669,19 +47881,19 @@
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="5" t="s">
-        <v>3468</v>
+        <v>3470</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>3469</v>
+        <v>3471</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3470</v>
+        <v>3472</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>2863</v>
@@ -47695,19 +47907,19 @@
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="5" t="s">
-        <v>3471</v>
+        <v>3473</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>3472</v>
+        <v>3474</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>3473</v>
+        <v>3475</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>2863</v>
@@ -47718,25 +47930,23 @@
       <c r="I10" s="3" t="s">
         <v>2869</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>2899</v>
-      </c>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="5" t="s">
-        <v>3474</v>
+        <v>3476</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>3475</v>
+        <v>3477</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>3476</v>
+        <v>3478</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>2863</v>
@@ -47747,25 +47957,23 @@
       <c r="I11" s="3" t="s">
         <v>2873</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="5" t="s">
-        <v>3477</v>
+        <v>3479</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3479</v>
+        <v>3481</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>2863</v>
@@ -47776,25 +47984,23 @@
       <c r="I12" s="3" t="s">
         <v>2873</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="5" t="s">
-        <v>3480</v>
+        <v>3482</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>3481</v>
+        <v>3483</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>3482</v>
+        <v>3484</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>2863</v>
@@ -47805,25 +48011,23 @@
       <c r="I13" s="3" t="s">
         <v>2873</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="5" t="s">
-        <v>3483</v>
+        <v>3485</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>3484</v>
+        <v>3486</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>3485</v>
+        <v>3487</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>2863</v>
@@ -47834,25 +48038,23 @@
       <c r="I14" s="3" t="s">
         <v>2873</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>2409</v>
-      </c>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="5" t="s">
-        <v>3486</v>
+        <v>3488</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>3487</v>
+        <v>3489</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>2863</v>
@@ -47863,25 +48065,23 @@
       <c r="I15" s="3" t="s">
         <v>2873</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3373</v>
-      </c>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="5" t="s">
-        <v>3489</v>
+        <v>3491</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>3490</v>
+        <v>3492</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>3491</v>
+        <v>3493</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>2863</v>
@@ -47892,25 +48092,22 @@
       <c r="I16" s="3" t="s">
         <v>2873</v>
       </c>
-      <c r="J16">
-        <v>300</v>
-      </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="5" t="s">
-        <v>3492</v>
+        <v>3494</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>3493</v>
+        <v>3495</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>3494</v>
+        <v>3496</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>2863</v>
@@ -47924,29 +48121,29 @@
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="2" t="s">
-        <v>3495</v>
+        <v>3497</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3496</v>
+        <v>3498</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>3497</v>
+        <v>3499</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>3498</v>
+        <v>3500</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>3499</v>
+        <v>3501</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -47960,20 +48157,20 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="2" t="s">
-        <v>3500</v>
+        <v>3502</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>3501</v>
+        <v>3503</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>3502</v>
+        <v>3504</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>2863</v>
@@ -47996,20 +48193,20 @@
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="2" t="s">
-        <v>3503</v>
+        <v>3505</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>3504</v>
+        <v>3506</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>3505</v>
+        <v>3507</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3431</v>
@@ -48018,7 +48215,7 @@
         <v>2864</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>3506</v>
+        <v>3508</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -48032,29 +48229,29 @@
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="2" t="s">
-        <v>3507</v>
+        <v>3509</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>3508</v>
+        <v>3510</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>3509</v>
+        <v>3511</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>3510</v>
+        <v>3512</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>3511</v>
+        <v>3513</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -48068,29 +48265,29 @@
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="2" t="s">
-        <v>3512</v>
+        <v>3514</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>3513</v>
+        <v>3515</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>3514</v>
+        <v>3516</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>3515</v>
+        <v>3517</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>3516</v>
+        <v>3518</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -48107,26 +48304,26 @@
         <v>1856</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>3517</v>
+        <v>3519</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>3518</v>
+        <v>3520</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>3519</v>
+        <v>3521</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>3520</v>
+        <v>3522</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -48143,17 +48340,17 @@
         <v>619</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>3521</v>
+        <v>3523</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>3522</v>
+        <v>3524</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>2863</v>
@@ -48179,26 +48376,26 @@
         <v>1770</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>3523</v>
+        <v>3525</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>3524</v>
+        <v>3526</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>3510</v>
+        <v>3512</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>3525</v>
+        <v>3527</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -48215,26 +48412,26 @@
         <v>1103</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>3526</v>
+        <v>3528</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>3527</v>
+        <v>3529</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>3528</v>
+        <v>3530</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>3529</v>
+        <v>3531</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -48248,23 +48445,23 @@
     </row>
     <row r="27" ht="14.25">
       <c r="A27" s="2" t="s">
-        <v>3530</v>
+        <v>3532</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>3531</v>
+        <v>3533</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>3532</v>
+        <v>3534</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>3452</v>
+        <v>3455</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>2864</v>
@@ -48285,17 +48482,17 @@
         <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>3533</v>
+        <v>3535</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>3534</v>
+        <v>3536</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>3431</v>
@@ -48304,7 +48501,7 @@
         <v>2864</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>3535</v>
+        <v>3537</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -48361,17 +48558,17 @@
         <v>9</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3536</v>
+        <v>3538</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>3537</v>
+        <v>3539</v>
       </c>
       <c r="D31" t="s">
-        <v>3538</v>
+        <v>3540</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>3431</v>
@@ -48380,7 +48577,7 @@
         <v>2864</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>3539</v>
+        <v>3541</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -48394,23 +48591,23 @@
         <v>397</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>3542</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>3543</v>
+      </c>
+      <c r="D32" t="s">
         <v>3540</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>3541</v>
-      </c>
-      <c r="D32" t="s">
-        <v>3538</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>3542</v>
+        <v>3544</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -48424,23 +48621,23 @@
         <v>3111</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>3543</v>
+        <v>3545</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>3544</v>
+        <v>3546</v>
       </c>
       <c r="D33" t="s">
-        <v>3538</v>
+        <v>3540</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>3545</v>
+        <v>3547</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -48454,23 +48651,23 @@
         <v>3115</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>3546</v>
+        <v>3548</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>3547</v>
+        <v>3549</v>
       </c>
       <c r="D34" t="s">
-        <v>3538</v>
+        <v>3540</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>3359</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>3548</v>
+        <v>3550</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -48484,23 +48681,23 @@
         <v>3437</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>3549</v>
+        <v>3551</v>
       </c>
       <c r="C35" t="s">
-        <v>3550</v>
+        <v>3552</v>
       </c>
       <c r="D35" t="s">
-        <v>3538</v>
+        <v>3540</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>3551</v>
+        <v>3553</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -48514,23 +48711,23 @@
         <v>3119</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="C36" t="s">
-        <v>3553</v>
+        <v>3555</v>
       </c>
       <c r="D36" t="s">
-        <v>3538</v>
+        <v>3540</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>3554</v>
+        <v>3556</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -48541,26 +48738,26 @@
     </row>
     <row r="37" ht="14.25">
       <c r="A37" s="2" t="s">
-        <v>3555</v>
+        <v>3557</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>3556</v>
+        <v>3558</v>
       </c>
       <c r="C37" t="s">
-        <v>3557</v>
+        <v>3559</v>
       </c>
       <c r="D37" t="s">
-        <v>3538</v>
+        <v>3540</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>3558</v>
+        <v>3560</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -48571,26 +48768,26 @@
     </row>
     <row r="38" ht="14.25">
       <c r="A38" s="2" t="s">
-        <v>3559</v>
+        <v>3561</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>3560</v>
+        <v>3562</v>
       </c>
       <c r="C38" t="s">
-        <v>3561</v>
+        <v>3563</v>
       </c>
       <c r="D38" t="s">
-        <v>3538</v>
+        <v>3540</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>3562</v>
+        <v>3564</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -48601,26 +48798,26 @@
     </row>
     <row r="39" ht="14.25">
       <c r="A39" s="2" t="s">
-        <v>3563</v>
+        <v>3565</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>3564</v>
+        <v>3566</v>
       </c>
       <c r="C39" t="s">
-        <v>3565</v>
+        <v>3567</v>
       </c>
       <c r="D39" t="s">
-        <v>3538</v>
+        <v>3540</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>3566</v>
+        <v>3568</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -48631,27 +48828,25 @@
     </row>
     <row r="40" ht="14.25">
       <c r="A40" s="2" t="s">
-        <v>3567</v>
+        <v>3569</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>3568</v>
+        <v>3570</v>
       </c>
       <c r="C40" t="s">
-        <v>3569</v>
+        <v>3571</v>
       </c>
       <c r="D40" t="s">
-        <v>3538</v>
+        <v>3540</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>3570</v>
-      </c>
+      <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -48666,19 +48861,19 @@
     <row r="42" ht="14.25"/>
     <row r="43" ht="14.25">
       <c r="A43" s="5" t="s">
-        <v>3571</v>
+        <v>3572</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>3572</v>
+        <v>3573</v>
       </c>
       <c r="C43" t="s">
-        <v>3573</v>
+        <v>3574</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>2863</v>
@@ -48692,19 +48887,19 @@
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="5" t="s">
+        <v>3576</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>3577</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3578</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>3575</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>3576</v>
-      </c>
-      <c r="C44" t="s">
-        <v>3577</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>3574</v>
-      </c>
       <c r="F44" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>2863</v>
@@ -48721,26 +48916,26 @@
         <v>3111</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>3578</v>
+        <v>3579</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>2863</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>3580</v>
+        <v>3581</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -48753,19 +48948,19 @@
     <row r="47" ht="14.25"/>
     <row r="48" ht="14.25">
       <c r="A48" s="5" t="s">
-        <v>3581</v>
+        <v>3582</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="C48" t="s">
-        <v>3583</v>
+        <v>3584</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>3584</v>
+        <v>3585</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3127</v>
@@ -48774,25 +48969,25 @@
         <v>2864</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>3585</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="49" ht="14.25"/>
     <row r="50" ht="14.25">
       <c r="A50" s="2" t="s">
-        <v>3586</v>
+        <v>3587</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>3587</v>
+        <v>3588</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>3588</v>
+        <v>3589</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>3589</v>
+        <v>3590</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>3127</v>
@@ -48801,7 +48996,7 @@
         <v>2864</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>3590</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="51" ht="14.25">
@@ -48809,16 +49004,16 @@
         <v>3052</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>3591</v>
+        <v>3592</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>3592</v>
+        <v>3593</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>3589</v>
+        <v>3590</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>3127</v>
@@ -48827,7 +49022,7 @@
         <v>2864</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>3593</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="52" ht="14.25"/>
@@ -48836,19 +49031,19 @@
     <row r="55" ht="14.25"/>
     <row r="56" ht="14.25">
       <c r="A56" s="5" t="s">
-        <v>3594</v>
+        <v>3595</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>3595</v>
+        <v>3596</v>
       </c>
       <c r="C56" t="s">
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>3127</v>
@@ -48857,24 +49052,24 @@
         <v>2864</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>3590</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="57" ht="14.25">
       <c r="A57" s="2" t="s">
-        <v>3598</v>
+        <v>3599</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>3601</v>
+        <v>3602</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3127</v>
@@ -48883,23 +49078,23 @@
         <v>2864</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>3602</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="58" ht="14.25"/>
     <row r="60" ht="14.25">
       <c r="A60" s="5"/>
       <c r="B60" s="3" t="s">
-        <v>3603</v>
+        <v>3604</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>3604</v>
+        <v>3605</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>3605</v>
+        <v>3606</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>2863</v>
@@ -48910,25 +49105,23 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-      <c r="L60" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="L60" s="3"/>
     </row>
     <row r="61" ht="14.25">
       <c r="A61" s="5" t="s">
-        <v>3606</v>
+        <v>3607</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>3607</v>
+        <v>3608</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>3608</v>
+        <v>3609</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>3609</v>
+        <v>3610</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>2863</v>
@@ -48939,9 +49132,7 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="L61" s="3"/>
     </row>
     <row r="62" ht="14.25"/>
     <row r="63" ht="14.25"/>
@@ -48959,7 +49150,7 @@
         <v>3146</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>2863</v>
@@ -48985,7 +49176,7 @@
         <v>3146</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>2863</v>
@@ -49011,7 +49202,7 @@
         <v>3146</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>2863</v>
@@ -49037,7 +49228,7 @@
         <v>3146</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>2863</v>
@@ -49063,7 +49254,7 @@
         <v>3146</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>2863</v>
@@ -49089,7 +49280,7 @@
         <v>3146</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>2863</v>
@@ -49115,7 +49306,7 @@
         <v>3146</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>2863</v>
@@ -49141,7 +49332,7 @@
         <v>3146</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>2863</v>
@@ -49167,7 +49358,7 @@
         <v>3146</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>2863</v>
@@ -49184,17 +49375,17 @@
         <v>139</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>3610</v>
+        <v>3611</v>
       </c>
       <c r="C75" t="s">
-        <v>3611</v>
+        <v>3612</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>3612</v>
+        <v>3613</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="3" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>2863</v>
@@ -49211,17 +49402,17 @@
         <v>140</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>3613</v>
+        <v>3614</v>
       </c>
       <c r="C76" t="s">
-        <v>3614</v>
+        <v>3615</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>3615</v>
+        <v>3616</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="3" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>2863</v>
@@ -49230,7 +49421,7 @@
         <v>2864</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>3616</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="77" ht="14.25">
@@ -49238,17 +49429,17 @@
         <v>143</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>3617</v>
+        <v>3618</v>
       </c>
       <c r="C77" t="s">
-        <v>3618</v>
+        <v>3619</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>3619</v>
+        <v>3620</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="3" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>2863</v>
@@ -49265,17 +49456,17 @@
         <v>137</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>3620</v>
+        <v>3621</v>
       </c>
       <c r="C78" t="s">
-        <v>3621</v>
+        <v>3622</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>3622</v>
+        <v>3623</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="3" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>2863</v>
@@ -49295,17 +49486,17 @@
         <v>23</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>3623</v>
+        <v>3624</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>3625</v>
+        <v>3626</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="3" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>2863</v>
@@ -49322,17 +49513,17 @@
         <v>24</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>3626</v>
+        <v>3627</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>3627</v>
+        <v>3628</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>3076</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="3" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>2863</v>
@@ -49349,17 +49540,17 @@
         <v>25</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>3629</v>
+        <v>3630</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>3630</v>
+        <v>3631</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="3" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>2863</v>
@@ -49376,17 +49567,17 @@
         <v>26</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>3631</v>
+        <v>3632</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>3632</v>
+        <v>3633</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>3633</v>
+        <v>3634</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="3" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>2863</v>
@@ -49403,17 +49594,17 @@
         <v>27</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>3634</v>
+        <v>3635</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>3635</v>
+        <v>3636</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>3090</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="3" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>2863</v>
@@ -49434,17 +49625,17 @@
         <v>75</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>3636</v>
+        <v>3637</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>3637</v>
+        <v>3638</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>3090</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="3" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>2863</v>
@@ -49461,17 +49652,17 @@
         <v>76</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>3638</v>
+        <v>3639</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>3639</v>
+        <v>3640</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3090</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="3" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>2863</v>
@@ -49488,19 +49679,19 @@
         <v>67</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>3640</v>
+        <v>3641</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>3641</v>
+        <v>3642</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>3642</v>
+        <v>3643</v>
       </c>
       <c r="E92" s="2">
         <v>1921</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>2863</v>
@@ -49517,17 +49708,17 @@
         <v>6</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>3644</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>3645</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>3643</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>3644</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>3642</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>2863</v>
@@ -49542,13 +49733,13 @@
         <v>2</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>3645</v>
+        <v>3646</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>3646</v>
+        <v>3647</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>3647</v>
+        <v>3648</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="8"/>
@@ -49565,13 +49756,13 @@
         <v>3</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>3648</v>
+        <v>3649</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>3650</v>
+        <v>3651</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="8"/>
@@ -49588,13 +49779,13 @@
         <v>8</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>3651</v>
+        <v>3652</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>3652</v>
+        <v>3653</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>3605</v>
+        <v>3606</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="8"/>
@@ -49611,13 +49802,13 @@
         <v>10</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>3653</v>
+        <v>3654</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>3654</v>
+        <v>3655</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>3655</v>
+        <v>3656</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="8"/>
@@ -49634,13 +49825,13 @@
         <v>11</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>3656</v>
+        <v>3657</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>3658</v>
+        <v>3659</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="8"/>
@@ -49661,13 +49852,13 @@
         <v>21</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>3659</v>
+        <v>3660</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>3660</v>
+        <v>3661</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>3661</v>
+        <v>3662</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="8"/>
@@ -49684,13 +49875,13 @@
         <v>47</v>
       </c>
       <c r="B104" s="3" t="s">
+        <v>3663</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>3664</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>3662</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>3663</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>3661</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="8"/>
@@ -49707,13 +49898,13 @@
         <v>29</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>3664</v>
+        <v>3665</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>3665</v>
+        <v>3666</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>3666</v>
+        <v>3667</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="8"/>
@@ -49730,13 +49921,13 @@
         <v>35</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>3668</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>3669</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>3667</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>3668</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>3666</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="8"/>
@@ -49753,13 +49944,13 @@
         <v>91</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>3669</v>
+        <v>3670</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>3670</v>
+        <v>3671</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>3666</v>
+        <v>3667</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="8"/>
@@ -49776,10 +49967,10 @@
         <v>18</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>3671</v>
+        <v>3672</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>3672</v>
+        <v>3673</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>3263</v>
@@ -49799,10 +49990,10 @@
         <v>17</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>3673</v>
+        <v>3674</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>3674</v>
+        <v>3675</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>3263</v>
@@ -49822,13 +50013,13 @@
         <v>69</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>3675</v>
+        <v>3676</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>3676</v>
+        <v>3677</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>3677</v>
+        <v>3678</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="8"/>
@@ -49845,13 +50036,13 @@
         <v>624</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>3678</v>
+        <v>3679</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>3679</v>
+        <v>3680</v>
       </c>
       <c r="D117" t="s">
-        <v>3680</v>
+        <v>3681</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="8"/>
@@ -49862,7 +50053,7 @@
         <v>2864</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>3681</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="118" ht="14.25">
@@ -49874,13 +50065,13 @@
         <v>3</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>3682</v>
+        <v>3683</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>3683</v>
+        <v>3684</v>
       </c>
       <c r="D119" t="s">
-        <v>3684</v>
+        <v>3685</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="8"/>
@@ -49891,7 +50082,7 @@
         <v>2864</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>3685</v>
+        <v>3686</v>
       </c>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
@@ -49905,13 +50096,13 @@
         <v>4</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>3686</v>
+        <v>3687</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>3687</v>
+        <v>3688</v>
       </c>
       <c r="D120" t="s">
-        <v>3684</v>
+        <v>3685</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="8"/>
@@ -49922,7 +50113,7 @@
         <v>2864</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>3688</v>
+        <v>3689</v>
       </c>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
@@ -49936,13 +50127,13 @@
         <v>5</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>3689</v>
+        <v>3690</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>3690</v>
+        <v>3691</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>3684</v>
+        <v>3685</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="8"/>
@@ -49953,7 +50144,7 @@
         <v>2864</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>3691</v>
+        <v>3692</v>
       </c>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
@@ -49967,13 +50158,13 @@
         <v>6</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>3692</v>
+        <v>3693</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>3693</v>
+        <v>3694</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>3684</v>
+        <v>3685</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="8"/>
@@ -49984,7 +50175,7 @@
         <v>2864</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>3694</v>
+        <v>3695</v>
       </c>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
@@ -50002,24 +50193,24 @@
         <v>397</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>3695</v>
+        <v>3696</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>3696</v>
+        <v>3697</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>3697</v>
+        <v>3698</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="8" t="s">
-        <v>3698</v>
+        <v>3699</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" t="s">
         <v>3359</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>3699</v>
+        <v>3700</v>
       </c>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
@@ -50034,24 +50225,24 @@
         <v>3111</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>3700</v>
+        <v>3701</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>3701</v>
+        <v>3702</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>3697</v>
+        <v>3698</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3" t="s">
-        <v>3698</v>
+        <v>3699</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3" t="s">
         <v>3359</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>3702</v>
+        <v>3703</v>
       </c>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
@@ -50066,24 +50257,24 @@
         <v>3115</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>3703</v>
+        <v>3704</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>3704</v>
+        <v>3705</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>3697</v>
+        <v>3698</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
-        <v>3698</v>
+        <v>3699</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3" t="s">
         <v>3359</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>3705</v>
+        <v>3706</v>
       </c>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
@@ -50098,24 +50289,24 @@
         <v>3119</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>3706</v>
+        <v>3707</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>3707</v>
+        <v>3708</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>3697</v>
+        <v>3698</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
-        <v>3698</v>
+        <v>3699</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3" t="s">
         <v>3359</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>3708</v>
+        <v>3709</v>
       </c>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -50127,27 +50318,27 @@
     </row>
     <row r="128" ht="14.25">
       <c r="A128" s="3" t="s">
-        <v>3555</v>
+        <v>3557</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>3709</v>
+        <v>3710</v>
       </c>
       <c r="C128" t="s">
-        <v>3710</v>
+        <v>3711</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>3697</v>
+        <v>3698</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3" t="s">
-        <v>3698</v>
+        <v>3699</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3" t="s">
         <v>3359</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>3711</v>
+        <v>3712</v>
       </c>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
@@ -50164,27 +50355,27 @@
     </row>
     <row r="130" ht="14.25">
       <c r="A130" s="3" t="s">
-        <v>3563</v>
+        <v>3565</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>3712</v>
+        <v>3713</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>3713</v>
+        <v>3714</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>3697</v>
+        <v>3698</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="3" t="s">
-        <v>3698</v>
+        <v>3699</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3" t="s">
         <v>3359</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>3714</v>
+        <v>3715</v>
       </c>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
@@ -50196,18 +50387,36 @@
     </row>
     <row r="134" ht="14.25">
       <c r="C134" t="s">
-        <v>3715</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="135" ht="14.25">
       <c r="C135" t="s">
-        <v>3716</v>
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="140" ht="14.25">
+      <c r="C140" t="s">
+        <v>3718</v>
+      </c>
+      <c r="D140" t="s">
+        <v>3719</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="144" ht="14.25">
+      <c r="C144" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="145" ht="14.25">
+      <c r="C145" t="s">
+        <v>3721</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="K3"/>
-  </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -50218,14 +50427,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" style="6" width="80.140625"/>
+    <col customWidth="1" min="2" max="2" width="27.7109375"/>
+    <col customWidth="1" min="3" max="3" style="6" width="85.00390625"/>
     <col customWidth="1" min="4" max="4" width="25.00390625"/>
+    <col min="5" max="5" style="5" width="9.140625"/>
+    <col customWidth="1" min="6" max="9" width="14.28125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -50260,49 +50472,44 @@
     <row r="2"/>
     <row r="3">
       <c r="C3" s="6" t="s">
-        <v>3717</v>
+        <v>3722</v>
       </c>
       <c r="D3" t="s">
-        <v>3718</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="4"/>
     <row r="5">
       <c r="C5" s="6" t="s">
-        <v>3719</v>
+        <v>3724</v>
       </c>
       <c r="D5" t="s">
-        <v>3720</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>1</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>3721</v>
+        <v>3726</v>
       </c>
       <c r="D6" t="s">
-        <v>3722</v>
+        <v>3727</v>
       </c>
       <c r="I6" t="s">
-        <v>3723</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>3724</v>
+        <v>3729</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>3725</v>
+        <v>3730</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>3726</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>3731</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -50320,12 +50527,12 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="7" t="s">
-        <v>3727</v>
+        <v>3732</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>3728</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>3733</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -50340,19 +50547,16 @@
       <c r="Q8" s="3"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9">
-        <v>3</v>
-      </c>
       <c r="B9" s="3" t="s">
-        <v>3729</v>
+        <v>3734</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>3730</v>
+        <v>3735</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>3728</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>3733</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -50366,19 +50570,17 @@
       <c r="P9" s="3"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="3">
-        <v>4</v>
-      </c>
+      <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>3731</v>
+        <v>3736</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>3732</v>
+        <v>3737</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>3733</v>
-      </c>
-      <c r="E10" s="3">
+        <v>3738</v>
+      </c>
+      <c r="E10" s="2">
         <v>2004</v>
       </c>
       <c r="F10" s="3"/>
@@ -50397,12 +50599,12 @@
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="7" t="s">
-        <v>3734</v>
+        <v>3739</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>3733</v>
-      </c>
-      <c r="E11" s="3">
+        <v>3738</v>
+      </c>
+      <c r="E11" s="2">
         <v>2005</v>
       </c>
       <c r="F11" s="3"/>
@@ -50421,12 +50623,12 @@
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="7" t="s">
-        <v>3735</v>
+        <v>3740</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>3733</v>
-      </c>
-      <c r="E12" s="3">
+        <v>3738</v>
+      </c>
+      <c r="E12" s="2">
         <v>2006</v>
       </c>
       <c r="F12" s="3"/>
@@ -50445,12 +50647,12 @@
       <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="7" t="s">
-        <v>3736</v>
+        <v>3741</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>3733</v>
-      </c>
-      <c r="E13" s="3">
+        <v>3738</v>
+      </c>
+      <c r="E13" s="2">
         <v>2007</v>
       </c>
       <c r="F13" s="3"/>
@@ -50469,12 +50671,12 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="7" t="s">
-        <v>3737</v>
+        <v>3742</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>3733</v>
-      </c>
-      <c r="E14" s="3">
+        <v>3738</v>
+      </c>
+      <c r="E14" s="2">
         <v>2017</v>
       </c>
       <c r="F14" s="3"/>
@@ -50493,12 +50695,12 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="7" t="s">
+        <v>3743</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>3738</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3733</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>2015</v>
       </c>
       <c r="F15" s="3"/>
@@ -50514,19 +50716,16 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16">
-        <v>5</v>
-      </c>
       <c r="B16" s="3" t="s">
-        <v>3739</v>
+        <v>3744</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>3740</v>
+        <v>3745</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3741</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>3746</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -50540,19 +50739,17 @@
       <c r="P16" s="3"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="3">
-        <v>6</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>3742</v>
+        <v>3747</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>3743</v>
+        <v>3748</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>3741</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>3746</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -50569,12 +50766,12 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="7" t="s">
-        <v>3744</v>
+        <v>3749</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>3741</v>
-      </c>
-      <c r="E18" s="3"/>
+        <v>3746</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -50591,12 +50788,12 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="7" t="s">
-        <v>3745</v>
+        <v>3750</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>3746</v>
-      </c>
-      <c r="E19" s="3">
+        <v>3751</v>
+      </c>
+      <c r="E19" s="2">
         <v>1963</v>
       </c>
       <c r="F19" s="3"/>
@@ -50617,12 +50814,12 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="7" t="s">
-        <v>3747</v>
+        <v>3752</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>3746</v>
-      </c>
-      <c r="E20" s="3">
+        <v>3751</v>
+      </c>
+      <c r="E20" s="2">
         <v>1964</v>
       </c>
       <c r="F20" s="3"/>
@@ -50643,12 +50840,12 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="7" t="s">
-        <v>3748</v>
+        <v>3753</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>3746</v>
-      </c>
-      <c r="E21" s="3">
+        <v>3751</v>
+      </c>
+      <c r="E21" s="2">
         <v>1965</v>
       </c>
       <c r="F21" s="3"/>
@@ -50669,12 +50866,12 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
-        <v>3749</v>
+        <v>3754</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>3746</v>
-      </c>
-      <c r="E22" s="3">
+        <v>3751</v>
+      </c>
+      <c r="E22" s="2">
         <v>1967</v>
       </c>
       <c r="F22" s="3"/>
@@ -50695,12 +50892,12 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="7" t="s">
-        <v>3750</v>
+        <v>3755</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>3746</v>
-      </c>
-      <c r="E23" s="3">
+        <v>3751</v>
+      </c>
+      <c r="E23" s="2">
         <v>1975</v>
       </c>
       <c r="F23" s="3"/>
@@ -50721,12 +50918,12 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="7" t="s">
+        <v>3756</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>3751</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3746</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>1977</v>
       </c>
       <c r="F24" s="3"/>
@@ -50747,12 +50944,12 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="7" t="s">
-        <v>3752</v>
+        <v>3757</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>3746</v>
-      </c>
-      <c r="E25" s="3">
+        <v>3751</v>
+      </c>
+      <c r="E25" s="2">
         <v>1979</v>
       </c>
       <c r="F25" s="3"/>
@@ -50773,12 +50970,12 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="7" t="s">
-        <v>3753</v>
+        <v>3758</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3746</v>
-      </c>
-      <c r="E26" s="3">
+        <v>3751</v>
+      </c>
+      <c r="E26" s="2">
         <v>1981</v>
       </c>
       <c r="F26" s="3"/>
@@ -50799,12 +50996,12 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="7" t="s">
-        <v>3754</v>
+        <v>3759</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>3746</v>
-      </c>
-      <c r="E27" s="3">
+        <v>3751</v>
+      </c>
+      <c r="E27" s="2">
         <v>1985</v>
       </c>
       <c r="F27" s="3"/>
@@ -50825,12 +51022,12 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="7" t="s">
-        <v>3755</v>
+        <v>3760</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>3746</v>
-      </c>
-      <c r="E28" s="3">
+        <v>3751</v>
+      </c>
+      <c r="E28" s="2">
         <v>1987</v>
       </c>
       <c r="F28" s="3"/>
@@ -50851,12 +51048,12 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="7" t="s">
-        <v>3756</v>
+        <v>3761</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>3746</v>
-      </c>
-      <c r="E29" s="3">
+        <v>3751</v>
+      </c>
+      <c r="E29" s="2">
         <v>1993</v>
       </c>
       <c r="F29" s="3"/>
@@ -50877,12 +51074,12 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="7" t="s">
-        <v>3757</v>
+        <v>3762</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>3746</v>
-      </c>
-      <c r="E30" s="3">
+        <v>3751</v>
+      </c>
+      <c r="E30" s="2">
         <v>1995</v>
       </c>
       <c r="F30" s="3"/>
@@ -50903,12 +51100,12 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="7" t="s">
-        <v>3758</v>
+        <v>3763</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>3746</v>
-      </c>
-      <c r="E31" s="3">
+        <v>3751</v>
+      </c>
+      <c r="E31" s="2">
         <v>2002</v>
       </c>
       <c r="F31" s="3"/>
@@ -50929,12 +51126,12 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="7" t="s">
-        <v>3759</v>
+        <v>3764</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>3746</v>
-      </c>
-      <c r="E32" s="3">
+        <v>3751</v>
+      </c>
+      <c r="E32" s="2">
         <v>2002</v>
       </c>
       <c r="F32" s="3"/>
@@ -50955,12 +51152,12 @@
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="7" t="s">
-        <v>3760</v>
+        <v>3765</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>3746</v>
-      </c>
-      <c r="E33" s="3">
+        <v>3751</v>
+      </c>
+      <c r="E33" s="2">
         <v>2005</v>
       </c>
       <c r="F33" s="3"/>
@@ -50981,12 +51178,12 @@
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="7" t="s">
-        <v>3761</v>
+        <v>3766</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>3746</v>
-      </c>
-      <c r="E34" s="3">
+        <v>3751</v>
+      </c>
+      <c r="E34" s="2">
         <v>2004</v>
       </c>
       <c r="F34" s="3"/>
@@ -51007,12 +51204,12 @@
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="7" t="s">
-        <v>3762</v>
+        <v>3767</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>3746</v>
-      </c>
-      <c r="E35" s="3">
+        <v>3751</v>
+      </c>
+      <c r="E35" s="2">
         <v>2012</v>
       </c>
       <c r="F35" s="3"/>
@@ -51030,19 +51227,17 @@
       <c r="R35" s="3"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="3">
-        <v>10</v>
-      </c>
+      <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>3763</v>
+        <v>3768</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>3764</v>
+        <v>3769</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>3765</v>
-      </c>
-      <c r="E36" s="3"/>
+        <v>3770</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -51057,19 +51252,16 @@
       <c r="Q36" s="3"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37">
-        <v>11</v>
-      </c>
       <c r="B37" s="3" t="s">
-        <v>3766</v>
+        <v>3771</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>3767</v>
+        <v>3772</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>3765</v>
-      </c>
-      <c r="E37" s="3"/>
+        <v>3770</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -51084,19 +51276,17 @@
       <c r="Q37" s="3"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="3">
-        <v>12</v>
-      </c>
+      <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>3768</v>
+        <v>3773</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>3769</v>
+        <v>3774</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>3770</v>
-      </c>
-      <c r="E38" s="3"/>
+        <v>3775</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -51110,19 +51300,16 @@
       <c r="P38" s="3"/>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39">
-        <v>13</v>
-      </c>
       <c r="B39" s="3" t="s">
-        <v>3771</v>
+        <v>3776</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>3772</v>
+        <v>3777</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>3773</v>
-      </c>
-      <c r="E39" s="3"/>
+        <v>3778</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -51136,19 +51323,17 @@
       <c r="P39" s="3"/>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="3">
-        <v>14</v>
-      </c>
+      <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>3774</v>
+        <v>3779</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>3775</v>
+        <v>3780</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>3773</v>
-      </c>
-      <c r="E40" s="3"/>
+        <v>3778</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -51162,19 +51347,16 @@
       <c r="P40" s="3"/>
     </row>
     <row r="41" ht="14.25">
-      <c r="A41">
-        <v>15</v>
-      </c>
       <c r="B41" s="3" t="s">
-        <v>3776</v>
+        <v>3781</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>3777</v>
+        <v>3782</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>3773</v>
-      </c>
-      <c r="E41" s="3"/>
+        <v>3778</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -51188,19 +51370,17 @@
       <c r="P41" s="3"/>
     </row>
     <row r="42" ht="14.25">
-      <c r="A42" s="3">
-        <v>16</v>
-      </c>
+      <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
+        <v>3783</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>3784</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>3778</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>3779</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>3773</v>
-      </c>
-      <c r="E42" s="3"/>
+      <c r="E42" s="2"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -51217,494 +51397,504 @@
     <row r="45" ht="14.25"/>
     <row r="46" ht="14.25"/>
     <row r="47" ht="14.25">
-      <c r="A47" s="3" t="s">
-        <v>397</v>
-      </c>
+      <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>3780</v>
+        <v>3785</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>3781</v>
+        <v>3786</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>3782</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3783</v>
+        <v>3787</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>3788</v>
       </c>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" s="3" t="s">
-        <v>3111</v>
-      </c>
+      <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>3784</v>
+        <v>3789</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>3785</v>
+        <v>3790</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>3782</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3783</v>
+        <v>3787</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>3788</v>
       </c>
     </row>
     <row r="49" ht="14.25">
-      <c r="A49" s="3" t="s">
-        <v>3115</v>
-      </c>
+      <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>3786</v>
+        <v>3791</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>3792</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>3787</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3782</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3788</v>
+      <c r="E49" s="2" t="s">
+        <v>3793</v>
       </c>
     </row>
     <row r="50" ht="14.25">
-      <c r="A50" s="3" t="s">
-        <v>3437</v>
-      </c>
+      <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>3789</v>
+        <v>3794</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>3790</v>
+        <v>3795</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>3782</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>3791</v>
+        <v>3787</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>3796</v>
       </c>
     </row>
     <row r="51" ht="14.25">
-      <c r="A51" s="3" t="s">
-        <v>3119</v>
-      </c>
+      <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>3792</v>
+        <v>3797</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>3793</v>
+        <v>3798</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>3782</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>3791</v>
+        <v>3787</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>3796</v>
       </c>
     </row>
     <row r="52" ht="14.25">
-      <c r="A52" s="3" t="s">
-        <v>3555</v>
-      </c>
+      <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>3794</v>
+        <v>3799</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>3795</v>
+        <v>3800</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>3782</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3791</v>
+        <v>3787</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>3796</v>
       </c>
     </row>
     <row r="53" ht="14.25">
-      <c r="A53" s="3" t="s">
-        <v>3559</v>
-      </c>
+      <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
+        <v>3801</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>3802</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>3787</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>3796</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>3797</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>3782</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>3791</v>
-      </c>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="3" t="s">
-        <v>3563</v>
-      </c>
+      <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
-        <v>3798</v>
+        <v>3803</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>3799</v>
+        <v>3804</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>3782</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3791</v>
+        <v>3787</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>3796</v>
       </c>
     </row>
     <row r="57" ht="14.25">
-      <c r="A57" s="3">
-        <v>94</v>
-      </c>
+      <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>3800</v>
+        <v>3805</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>3801</v>
+        <v>3806</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>3802</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3803</v>
+        <v>3807</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>3808</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
-        <v>3804</v>
+        <v>3809</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>3805</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="58" ht="14.25">
-      <c r="A58" s="3">
-        <v>93</v>
-      </c>
+      <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
+        <v>3811</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>3806</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>3801</v>
-      </c>
       <c r="D58" s="3" t="s">
-        <v>3802</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3803</v>
+        <v>3807</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>3808</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
-        <v>3804</v>
+        <v>3809</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>3805</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="59" ht="14.25">
-      <c r="A59" s="3">
-        <v>92</v>
-      </c>
+      <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
+        <v>3812</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>3806</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>3807</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>3801</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>3802</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3803</v>
+      <c r="E59" s="2" t="s">
+        <v>3808</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>3804</v>
+        <v>3809</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>3805</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="60" ht="14.25">
-      <c r="A60" s="3">
-        <v>91</v>
-      </c>
+      <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
+        <v>3813</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>3806</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>3807</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>3808</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>3801</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>3802</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3803</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>3804</v>
+        <v>3809</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>3805</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="61" ht="14.25">
-      <c r="A61" s="3">
-        <v>73</v>
-      </c>
+      <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
-        <v>3809</v>
+        <v>3814</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>3801</v>
+        <v>3806</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>3802</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>3810</v>
+        <v>3807</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>3815</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>3804</v>
+        <v>3809</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>3811</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="62" ht="14.25">
-      <c r="A62" s="3">
-        <v>90</v>
-      </c>
+      <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
-        <v>3812</v>
+        <v>3817</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>3801</v>
+        <v>3806</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>3802</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3803</v>
+        <v>3807</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>3808</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>3804</v>
+        <v>3809</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>3805</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="63" ht="14.25">
-      <c r="A63" s="3">
-        <v>89</v>
-      </c>
+      <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>3813</v>
+        <v>3818</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>3801</v>
+        <v>3806</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>3802</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>3803</v>
+        <v>3807</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>3808</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>3804</v>
+        <v>3809</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>3805</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="64" ht="14.25">
-      <c r="A64" s="3">
-        <v>95</v>
-      </c>
+      <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
-        <v>3814</v>
+        <v>3819</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>3801</v>
+        <v>3806</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>3802</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>3803</v>
+        <v>3807</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>3808</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>3804</v>
+        <v>3809</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>3805</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="65" ht="14.25">
-      <c r="A65" s="3">
-        <v>96</v>
-      </c>
+      <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
-        <v>3815</v>
+        <v>3820</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>3801</v>
+        <v>3806</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>3802</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>3803</v>
+        <v>3807</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>3808</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3" t="s">
-        <v>3804</v>
+        <v>3809</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>3805</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="66" ht="14.25">
       <c r="C66" s="6"/>
     </row>
     <row r="69" ht="14.25">
-      <c r="A69" s="3">
-        <v>68</v>
-      </c>
+      <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
-        <v>3816</v>
+        <v>3821</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>3817</v>
+        <v>3822</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>3802</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>3818</v>
+        <v>3807</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>3823</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>3819</v>
+        <v>3824</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>3820</v>
+        <v>3825</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>3821</v>
+        <v>3826</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3" t="s">
-        <v>3822</v>
+        <v>3827</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>3823</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="70" ht="14.25">
-      <c r="A70" s="3">
-        <v>76</v>
-      </c>
+      <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
-        <v>3824</v>
+        <v>3829</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>3825</v>
+        <v>3830</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>3826</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>3827</v>
+        <v>3831</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>3832</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>3828</v>
+        <v>3833</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>3829</v>
+        <v>3834</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>3830</v>
+        <v>3835</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3" t="s">
-        <v>3831</v>
+        <v>3836</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>3832</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="71" ht="14.25">
-      <c r="A71" s="3">
-        <v>3</v>
-      </c>
+      <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>3833</v>
+        <v>3838</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>3834</v>
+        <v>3839</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>3802</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>3835</v>
+        <v>3807</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>3840</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>3836</v>
+        <v>3841</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>3837</v>
+        <v>3842</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>3838</v>
+        <v>3843</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3" t="s">
-        <v>3839</v>
+        <v>3844</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>3840</v>
-      </c>
+        <v>3845</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="A75" s="3">
+        <v>32</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>3846</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>3847</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>3807</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>3823</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>3848</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>3849</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>3826</v>
+      </c>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3" t="s">
+        <v>3850</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -51722,15 +51912,270 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="71.421875"/>
+    <col customWidth="1" min="4" max="4" width="24.140625"/>
+    <col customWidth="1" min="6" max="6" width="21.00390625"/>
+  </cols>
   <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="C3" s="11" t="s">
+        <v>3852</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="C4" s="11" t="s">
+        <v>3854</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="C5" s="11" t="s">
+        <v>3855</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3853</v>
+      </c>
+    </row>
     <row r="6" ht="14.25">
-      <c r="B6" t="s">
-        <v>3841</v>
+      <c r="C6" t="s">
+        <v>3856</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3853</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="B7" t="s">
-        <v>3842</v>
+      <c r="C7" t="s">
+        <v>3857</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3858</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>3853</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3859</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="C8" s="8" t="s">
+        <v>3860</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="F8" s="3"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="C9" s="8" t="s">
+        <v>3861</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="F9" s="3"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" ht="14.25"/>
+    <row r="12" ht="14.25">
+      <c r="C12" s="11" t="s">
+        <v>3862</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3863</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="C13" s="3" t="s">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="C14" s="3" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="C17" s="11" t="s">
+        <v>3866</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" t="s">
+        <v>3867</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="C18" s="11" t="s">
+        <v>3868</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>3869</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="C19" s="11" t="s">
+        <v>3870</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>3871</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" ht="14.25"/>
+    <row r="23" ht="14.25">
+      <c r="C23" s="3" t="s">
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="C24" s="11" t="s">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="C25" s="3" t="s">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="C26" s="3" t="s">
+        <v>3875</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="C27" s="3" t="s">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="C28" s="3" t="s">
+        <v>3877</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="C29" s="3" t="s">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="C30" s="3" t="s">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="C31" s="3" t="s">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="C32" s="3" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="C33" s="3" t="s">
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="C34" s="3" t="s">
+        <v>3883</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="C35" s="3" t="s">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="C36" s="3" t="s">
+        <v>3885</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="C37" s="3" t="s">
+        <v>3886</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="C38" s="3" t="s">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="C39" s="3" t="s">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="C40" s="3" t="s">
+        <v>3889</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="C41" s="3" t="s">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="C42" s="3" t="s">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="C43" s="12"/>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="C44" s="3" t="s">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="C45" s="3" t="s">
+        <v>3893</v>
       </c>
     </row>
   </sheetData>
@@ -51749,8 +52194,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="72.7109375"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -51761,44 +52209,82 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>3897</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>3901</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25"/>
+    <row r="13" ht="14.25"/>
+    <row r="14" ht="14.25">
+      <c r="A14" s="13" t="s">
+        <v>3903</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="3" t="s">
+        <v>3904</v>
+      </c>
+      <c r="B15" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/Selected_Downloads.xlsx
+++ b/Selected_Downloads.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Revistas" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="3905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3914" uniqueCount="3914">
   <si>
     <t>Index</t>
   </si>
@@ -10356,6 +10356,84 @@
     <t xml:space="preserve">James Shelby Downard Books</t>
   </si>
   <si>
+    <t xml:space="preserve">Perception Of Oppression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Faulk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core Issues Reader</t>
+  </si>
+  <si>
+    <t>degeneratemodern00jone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degenerate moderns : modernity as rationalized sexual misbehavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jones, E. Michael</t>
+  </si>
+  <si>
+    <t>/Pol/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes bibliographical references</t>
+  </si>
+  <si>
+    <t>dionysosrisingbi0000jone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dionysos rising : the birth of cultural revolution out of the spirit of music </t>
+  </si>
+  <si>
+    <t xml:space="preserve">181 p  Includes bibliographical references (p. 171-194) and index Richard Wagner : chromaticism, adultery, and the beginning of our cultural revolution -- Friedrich Nietzsche : transvaluation of all values as the prosecution of the cultural war -- Arnold Schönberg : craving the law and the totalitarian reaction -- Sympathy for the devil : Theodor Adorno, Aleister Crowley, Mick Jagger</t>
+  </si>
+  <si>
+    <t>jewishrevolution0000jone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Jewish revolutionary spirit : and its impact on world history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1200 p. ; 24 cm Includes bibliographical references (p. 1079-1159) and index</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>jones-e.-m.-libido-dominandi-2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libido Dominandi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The book's subtitle: "Sexual Liberation and Political Control".[from rear board:]". . . Over the course of the two-hundred-year span covered by this book, the development of technologies of communication, reproduction, and psychic control -- including psychotherapy, behaviorism, advertising, sensitivity training, pornography, and, when push came to shove, plain old blackmail -- allowed the Enlightenment and its heirs to turn Augustine's insight on its head and create masters out of men's vices. *Libido Dominandi* is the story of how that happened. . .</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>livingmachinesba0000jone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Living machines : Bauhaus architecture as sexual ideology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">128 p. : 23 cm Includes bibliographical references (p. [123]) and index</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>slaughterofcitie0000jone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The slaughter of cities : urban renewal as ethnic cleansing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">x, 668 pages ; 24 cm Includes bibliographical references (p. 642-652) and index</t>
+  </si>
+  <si>
     <t>bub_gb_6d0_7XDSscgC</t>
   </si>
   <si>
@@ -10692,9 +10770,6 @@
     <t xml:space="preserve">O Soffrimento Universal, de Plínio Salgado.</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>plinio-salgado-espirito-da-burguesia</t>
   </si>
   <si>
@@ -10704,9 +10779,6 @@
     <t xml:space="preserve">Espirito da Burguesia</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>plinio-salgado-o-estrangeiro</t>
   </si>
   <si>
@@ -10716,9 +10788,6 @@
     <t xml:space="preserve">romance de plinio salgado</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>plinio-salgado-psicologia-da-revolucao</t>
   </si>
   <si>
@@ -11115,60 +11184,9 @@
     <t xml:space="preserve">The angel and the machine : the rational psychology of Nathaniel Hawthorne </t>
   </si>
   <si>
-    <t xml:space="preserve">Jones, E. Michael</t>
-  </si>
-  <si>
-    <t>/Pol/</t>
-  </si>
-  <si>
     <t xml:space="preserve">205 p. ; 23 cm Includes bibliographical references and index</t>
   </si>
   <si>
-    <t>degeneratemodern00jone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Degenerate moderns : modernity as rationalized sexual misbehavior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Includes bibliographical references</t>
-  </si>
-  <si>
-    <t>dionysosrisingbi0000jone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dionysos rising : the birth of cultural revolution out of the spirit of music </t>
-  </si>
-  <si>
-    <t xml:space="preserve">181 p  Includes bibliographical references (p. 171-194) and index Richard Wagner : chromaticism, adultery, and the beginning of our cultural revolution -- Friedrich Nietzsche : transvaluation of all values as the prosecution of the cultural war -- Arnold Schönberg : craving the law and the totalitarian reaction -- Sympathy for the devil : Theodor Adorno, Aleister Crowley, Mick Jagger</t>
-  </si>
-  <si>
-    <t>jewishrevolution0000jone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Jewish revolutionary spirit : and its impact on world history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1200 p. ; 24 cm Includes bibliographical references (p. 1079-1159) and index</t>
-  </si>
-  <si>
-    <t>jones-e.-m.-libido-dominandi-2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libido Dominandi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The book's subtitle: "Sexual Liberation and Political Control".[from rear board:]". . . Over the course of the two-hundred-year span covered by this book, the development of technologies of communication, reproduction, and psychic control -- including psychotherapy, behaviorism, advertising, sensitivity training, pornography, and, when push came to shove, plain old blackmail -- allowed the Enlightenment and its heirs to turn Augustine's insight on its head and create masters out of men's vices. *Libido Dominandi* is the story of how that happened. . .</t>
-  </si>
-  <si>
-    <t>slaughterofcitie0000jone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The slaughter of cities : urban renewal as ethnic cleansing </t>
-  </si>
-  <si>
-    <t xml:space="preserve">x, 668 pages ; 24 cm Includes bibliographical references (p. 642-652) and index</t>
-  </si>
-  <si>
     <t xml:space="preserve">The Nuremberg Chronicle (1493)</t>
   </si>
   <si>
@@ -11223,12 +11241,6 @@
     <t xml:space="preserve">E. Michael Jones</t>
   </si>
   <si>
-    <t>livingmachinesba0000jone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Living machines : Bauhaus architecture as sexual ideology </t>
-  </si>
-  <si>
     <t>antiarchitecture0000sali</t>
   </si>
   <si>
@@ -11598,10 +11610,16 @@
     <t xml:space="preserve">Donald Barr</t>
   </si>
   <si>
-    <t xml:space="preserve">Donald Barr, father of William Barr, was the headmaster of Dalton School when Jeffrey Epstein began teaching without credentials there in the early 1970s. His son Bill Barr as Attorney General, rejected conspiracy theories surrounding Epstein’s death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Something ABout the finders cult</t>
+    <t xml:space="preserve">Pedophilia Empire Satan, Sodomy The Deep State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joachim Hagopian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizzagate: The Complete Story Kindle Edition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ace of Swords</t>
   </si>
   <si>
     <t xml:space="preserve">Find Something about McMartin Preschool Trial</t>
@@ -11703,6 +11721,9 @@
     <t xml:space="preserve">FBI vault - The Protocols of the meeting of the Learned Elders of Zion:</t>
   </si>
   <si>
+    <t xml:space="preserve">Conde de Gabalis</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Falsity of Set Theory - Vladimir Istarkhov</t>
   </si>
   <si>
@@ -11730,10 +11751,16 @@
     <t xml:space="preserve">What Darwin Got Wrong (Jerry Fodor and Massimo Piatelli-Palmarini)</t>
   </si>
   <si>
-    <t xml:space="preserve">A Critique of “Reason” Luke Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leaving the Cathedral Ryan Faulk</t>
+    <t xml:space="preserve">A Critique of Reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luke Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaving the Cathedral</t>
+  </si>
+  <si>
+    <t>https://iai.tv/articles/science-publishing-is-a-multimillion-dollar-ponzi-scheme-auid-2953</t>
   </si>
 </sst>
 </file>
@@ -11813,7 +11840,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -11839,15 +11866,20 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -44944,7 +44976,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A110" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A107" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -47652,6 +47684,172 @@
     <row r="123" ht="14.25">
       <c r="C123" t="s">
         <v>3444</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25">
+      <c r="C126" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D126" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25">
+      <c r="C127" t="s">
+        <v>3447</v>
+      </c>
+      <c r="D127" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25">
+      <c r="A131" s="3" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>3448</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>3449</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>3450</v>
+      </c>
+      <c r="E131" s="9"/>
+      <c r="F131" s="3" t="s">
+        <v>3451</v>
+      </c>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3" t="s">
+        <v>3359</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="132" ht="14.25">
+      <c r="A132" s="3" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>3453</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>3454</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>3450</v>
+      </c>
+      <c r="E132" s="9"/>
+      <c r="F132" s="3" t="s">
+        <v>3451</v>
+      </c>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3" t="s">
+        <v>3359</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="133" ht="14.25">
+      <c r="A133" s="3" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>3456</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>3457</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>3450</v>
+      </c>
+      <c r="E133" s="9"/>
+      <c r="F133" s="3" t="s">
+        <v>3451</v>
+      </c>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3" t="s">
+        <v>3359</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25">
+      <c r="A134" s="3" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>3460</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>3461</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>3450</v>
+      </c>
+      <c r="E134" s="9"/>
+      <c r="F134" s="3" t="s">
+        <v>3451</v>
+      </c>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3" t="s">
+        <v>3359</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="135" ht="14.25">
+      <c r="A135" s="3" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>3464</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>3465</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>3450</v>
+      </c>
+      <c r="E135" s="9"/>
+      <c r="F135" s="3" t="s">
+        <v>3451</v>
+      </c>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3" t="s">
+        <v>3359</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="136" ht="14.25">
+      <c r="A136" s="3" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>3469</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>3450</v>
+      </c>
+      <c r="E136" s="9"/>
+      <c r="F136" s="3" t="s">
+        <v>3451</v>
+      </c>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3" t="s">
+        <v>3359</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>3470</v>
       </c>
     </row>
   </sheetData>
@@ -47715,22 +47913,22 @@
         <v>397</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3445</v>
+        <v>3471</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3446</v>
+        <v>3472</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3447</v>
+        <v>3473</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3448</v>
+        <v>3474</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>3450</v>
+        <v>3476</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>2864</v>
@@ -47745,45 +47943,45 @@
     <row r="3" ht="14.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>3451</v>
+        <v>3477</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3452</v>
+        <v>3478</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>3453</v>
+        <v>3479</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>3454</v>
+        <v>3480</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>3455</v>
+        <v>3481</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="9"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="5" t="s">
-        <v>3456</v>
+        <v>3482</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3457</v>
+        <v>3483</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3458</v>
+        <v>3484</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>3459</v>
+        <v>3485</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>2863</v>
@@ -47797,22 +47995,22 @@
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="5" t="s">
-        <v>3460</v>
+        <v>3486</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3461</v>
+        <v>3487</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>3462</v>
+        <v>3488</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>3459</v>
+        <v>3485</v>
       </c>
       <c r="E6" s="5">
         <v>1937</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>3215</v>
@@ -47826,22 +48024,22 @@
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="5" t="s">
-        <v>3463</v>
+        <v>3489</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>3464</v>
+        <v>3490</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3465</v>
+        <v>3491</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>3459</v>
+        <v>3485</v>
       </c>
       <c r="E7" s="5">
         <v>1936</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>3215</v>
@@ -47850,24 +48048,24 @@
         <v>2864</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>3466</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="5" t="s">
-        <v>3467</v>
+        <v>3493</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>3468</v>
+        <v>3494</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3469</v>
+        <v>3495</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>3459</v>
+        <v>3485</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>2863</v>
@@ -47881,19 +48079,19 @@
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="5" t="s">
-        <v>3470</v>
+        <v>3496</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>3471</v>
+        <v>3497</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3472</v>
+        <v>3498</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>3459</v>
+        <v>3485</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>2863</v>
@@ -47907,19 +48105,19 @@
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="5" t="s">
-        <v>3473</v>
+        <v>3499</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>3474</v>
+        <v>3500</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>3501</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>3475</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>3459</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>3449</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>2863</v>
@@ -47934,19 +48132,19 @@
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="5" t="s">
-        <v>3476</v>
+        <v>3502</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>3477</v>
+        <v>3503</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>3478</v>
+        <v>3504</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>3459</v>
+        <v>3485</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>2863</v>
@@ -47961,19 +48159,19 @@
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="5" t="s">
-        <v>3479</v>
+        <v>3505</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>3480</v>
+        <v>3506</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3481</v>
+        <v>3507</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>3459</v>
+        <v>3485</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>2863</v>
@@ -47988,19 +48186,19 @@
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="5" t="s">
-        <v>3482</v>
+        <v>3508</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>3483</v>
+        <v>3509</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>3484</v>
+        <v>3510</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>3459</v>
+        <v>3485</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>2863</v>
@@ -48015,19 +48213,19 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="5" t="s">
+        <v>3511</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>3512</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>3513</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>3485</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>3486</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>3487</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>3459</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>2863</v>
@@ -48042,19 +48240,19 @@
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="5" t="s">
-        <v>3488</v>
+        <v>3514</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>3489</v>
+        <v>3515</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>3490</v>
+        <v>3516</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>3459</v>
+        <v>3485</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>2863</v>
@@ -48069,19 +48267,19 @@
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="5" t="s">
-        <v>3491</v>
+        <v>3517</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>3492</v>
+        <v>3518</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>3493</v>
+        <v>3519</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3459</v>
+        <v>3485</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>2863</v>
@@ -48095,19 +48293,19 @@
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="5" t="s">
-        <v>3494</v>
+        <v>3520</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>3495</v>
+        <v>3521</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>3496</v>
+        <v>3522</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>3459</v>
+        <v>3485</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>2863</v>
@@ -48121,29 +48319,29 @@
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="2" t="s">
-        <v>3497</v>
+        <v>3523</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3498</v>
+        <v>3524</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>3499</v>
+        <v>3525</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>3459</v>
+        <v>3485</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>3500</v>
+        <v>3526</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>3501</v>
+        <v>3527</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -48157,20 +48355,20 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="2" t="s">
-        <v>3502</v>
+        <v>3528</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>3503</v>
+        <v>3529</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>3504</v>
+        <v>3530</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>3459</v>
+        <v>3485</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>2863</v>
@@ -48193,20 +48391,20 @@
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="2" t="s">
-        <v>3505</v>
+        <v>3531</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>3506</v>
+        <v>3532</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>3507</v>
+        <v>3533</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>3459</v>
+        <v>3485</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3431</v>
@@ -48215,7 +48413,7 @@
         <v>2864</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>3508</v>
+        <v>3534</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -48229,29 +48427,29 @@
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="2" t="s">
-        <v>3509</v>
+        <v>3535</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>3510</v>
+        <v>3536</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>3511</v>
+        <v>3537</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>3459</v>
+        <v>3485</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>3512</v>
+        <v>3538</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>3513</v>
+        <v>3539</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -48265,29 +48463,29 @@
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="2" t="s">
-        <v>3514</v>
+        <v>3540</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>3515</v>
+        <v>3541</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>3516</v>
+        <v>3542</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>3459</v>
+        <v>3485</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>3517</v>
+        <v>3543</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>3518</v>
+        <v>3544</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -48304,26 +48502,26 @@
         <v>1856</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>3519</v>
+        <v>3545</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>3520</v>
+        <v>3546</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>3459</v>
+        <v>3485</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>3521</v>
+        <v>3547</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>3522</v>
+        <v>3548</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -48340,17 +48538,17 @@
         <v>619</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>3523</v>
+        <v>3549</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>3524</v>
+        <v>3550</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>3459</v>
+        <v>3485</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>2863</v>
@@ -48376,26 +48574,26 @@
         <v>1770</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>3525</v>
+        <v>3551</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>3526</v>
+        <v>3552</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>3459</v>
+        <v>3485</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>3512</v>
+        <v>3538</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>3527</v>
+        <v>3553</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -48412,26 +48610,26 @@
         <v>1103</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>3528</v>
+        <v>3554</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>3529</v>
+        <v>3555</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3459</v>
+        <v>3485</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>3530</v>
+        <v>3556</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>3531</v>
+        <v>3557</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -48445,28 +48643,28 @@
     </row>
     <row r="27" ht="14.25">
       <c r="A27" s="2" t="s">
-        <v>3532</v>
+        <v>3558</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>3533</v>
+        <v>3559</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>3534</v>
+        <v>3560</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>3459</v>
+        <v>3485</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>3455</v>
+        <v>3481</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I27" s="9"/>
+      <c r="I27" s="10"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -48482,17 +48680,17 @@
         <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>3535</v>
+        <v>3561</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>3536</v>
+        <v>3562</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>3459</v>
+        <v>3485</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>3431</v>
@@ -48501,7 +48699,7 @@
         <v>2864</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>3537</v>
+        <v>3563</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -48558,17 +48756,17 @@
         <v>9</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3538</v>
+        <v>3564</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>3539</v>
+        <v>3565</v>
       </c>
       <c r="D31" t="s">
-        <v>3540</v>
+        <v>3566</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>3431</v>
@@ -48577,7 +48775,7 @@
         <v>2864</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>3541</v>
+        <v>3567</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -48591,23 +48789,23 @@
         <v>397</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>3542</v>
+        <v>3568</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>3543</v>
+        <v>3569</v>
       </c>
       <c r="D32" t="s">
-        <v>3540</v>
+        <v>3566</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>3544</v>
+        <v>3570</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -48621,23 +48819,23 @@
         <v>3111</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>3545</v>
+        <v>3571</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>3546</v>
+        <v>3572</v>
       </c>
       <c r="D33" t="s">
-        <v>3540</v>
+        <v>3566</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>3547</v>
+        <v>3573</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -48651,23 +48849,23 @@
         <v>3115</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>3548</v>
+        <v>3574</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>3549</v>
+        <v>3575</v>
       </c>
       <c r="D34" t="s">
-        <v>3540</v>
+        <v>3566</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>3359</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>3550</v>
+        <v>3576</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -48681,23 +48879,23 @@
         <v>3437</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>3551</v>
+        <v>3577</v>
       </c>
       <c r="C35" t="s">
-        <v>3552</v>
+        <v>3578</v>
       </c>
       <c r="D35" t="s">
-        <v>3540</v>
+        <v>3566</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>3553</v>
+        <v>3579</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -48711,23 +48909,23 @@
         <v>3119</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>3554</v>
+        <v>3580</v>
       </c>
       <c r="C36" t="s">
-        <v>3555</v>
+        <v>3581</v>
       </c>
       <c r="D36" t="s">
-        <v>3540</v>
+        <v>3566</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>3556</v>
+        <v>3582</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -48738,26 +48936,26 @@
     </row>
     <row r="37" ht="14.25">
       <c r="A37" s="2" t="s">
-        <v>3557</v>
+        <v>3459</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>3558</v>
+        <v>3583</v>
       </c>
       <c r="C37" t="s">
-        <v>3559</v>
+        <v>3584</v>
       </c>
       <c r="D37" t="s">
-        <v>3540</v>
+        <v>3566</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>3560</v>
+        <v>3585</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -48768,26 +48966,26 @@
     </row>
     <row r="38" ht="14.25">
       <c r="A38" s="2" t="s">
-        <v>3561</v>
+        <v>3463</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>3562</v>
+        <v>3586</v>
       </c>
       <c r="C38" t="s">
-        <v>3563</v>
+        <v>3587</v>
       </c>
       <c r="D38" t="s">
-        <v>3540</v>
+        <v>3566</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>3564</v>
+        <v>3588</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -48798,26 +48996,26 @@
     </row>
     <row r="39" ht="14.25">
       <c r="A39" s="2" t="s">
-        <v>3565</v>
+        <v>3467</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>3589</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3590</v>
+      </c>
+      <c r="D39" t="s">
         <v>3566</v>
-      </c>
-      <c r="C39" t="s">
-        <v>3567</v>
-      </c>
-      <c r="D39" t="s">
-        <v>3540</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>3568</v>
+        <v>3591</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -48828,20 +49026,20 @@
     </row>
     <row r="40" ht="14.25">
       <c r="A40" s="2" t="s">
-        <v>3569</v>
+        <v>3592</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>3570</v>
+        <v>3593</v>
       </c>
       <c r="C40" t="s">
-        <v>3571</v>
+        <v>3594</v>
       </c>
       <c r="D40" t="s">
-        <v>3540</v>
+        <v>3566</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>2864</v>
@@ -48861,19 +49059,19 @@
     <row r="42" ht="14.25"/>
     <row r="43" ht="14.25">
       <c r="A43" s="5" t="s">
-        <v>3572</v>
+        <v>3595</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>3573</v>
+        <v>3596</v>
       </c>
       <c r="C43" t="s">
-        <v>3574</v>
+        <v>3597</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>3575</v>
+        <v>3598</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>2863</v>
@@ -48887,19 +49085,19 @@
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="5" t="s">
-        <v>3576</v>
+        <v>3599</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>3577</v>
+        <v>3600</v>
       </c>
       <c r="C44" t="s">
-        <v>3578</v>
+        <v>3601</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>3575</v>
+        <v>3598</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>2863</v>
@@ -48916,26 +49114,26 @@
         <v>3111</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>3579</v>
+        <v>3602</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>3580</v>
+        <v>3603</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>3575</v>
+        <v>3598</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>2863</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>3581</v>
+        <v>3604</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>3575</v>
+        <v>3598</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -48948,19 +49146,19 @@
     <row r="47" ht="14.25"/>
     <row r="48" ht="14.25">
       <c r="A48" s="5" t="s">
-        <v>3582</v>
+        <v>3605</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>3583</v>
+        <v>3606</v>
       </c>
       <c r="C48" t="s">
-        <v>3584</v>
+        <v>3607</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>3585</v>
+        <v>3608</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3127</v>
@@ -48969,25 +49167,25 @@
         <v>2864</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>3586</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="49" ht="14.25"/>
     <row r="50" ht="14.25">
       <c r="A50" s="2" t="s">
-        <v>3587</v>
+        <v>3610</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>3588</v>
+        <v>3611</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>3589</v>
+        <v>3612</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>3590</v>
+        <v>3613</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>3127</v>
@@ -48996,7 +49194,7 @@
         <v>2864</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>3591</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="51" ht="14.25">
@@ -49004,16 +49202,16 @@
         <v>3052</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>3592</v>
+        <v>3615</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>3593</v>
+        <v>3616</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>3590</v>
+        <v>3613</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>3127</v>
@@ -49022,7 +49220,7 @@
         <v>2864</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>3594</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="52" ht="14.25"/>
@@ -49031,19 +49229,19 @@
     <row r="55" ht="14.25"/>
     <row r="56" ht="14.25">
       <c r="A56" s="5" t="s">
-        <v>3595</v>
+        <v>3618</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>3596</v>
+        <v>3619</v>
       </c>
       <c r="C56" t="s">
-        <v>3597</v>
+        <v>3620</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>3598</v>
+        <v>3621</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>3127</v>
@@ -49052,24 +49250,24 @@
         <v>2864</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>3591</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="57" ht="14.25">
       <c r="A57" s="2" t="s">
-        <v>3599</v>
+        <v>3622</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>3600</v>
+        <v>3623</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>3601</v>
+        <v>3624</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>3602</v>
+        <v>3625</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3127</v>
@@ -49078,23 +49276,23 @@
         <v>2864</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>3603</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="58" ht="14.25"/>
     <row r="60" ht="14.25">
       <c r="A60" s="5"/>
       <c r="B60" s="3" t="s">
-        <v>3604</v>
+        <v>3627</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>3605</v>
+        <v>3628</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>3606</v>
+        <v>3629</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>2863</v>
@@ -49109,19 +49307,19 @@
     </row>
     <row r="61" ht="14.25">
       <c r="A61" s="5" t="s">
-        <v>3607</v>
+        <v>3630</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>3608</v>
+        <v>3631</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>3609</v>
+        <v>3632</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>3610</v>
+        <v>3633</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>2863</v>
@@ -49150,7 +49348,7 @@
         <v>3146</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>2863</v>
@@ -49176,7 +49374,7 @@
         <v>3146</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>2863</v>
@@ -49202,7 +49400,7 @@
         <v>3146</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>2863</v>
@@ -49228,7 +49426,7 @@
         <v>3146</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>2863</v>
@@ -49254,7 +49452,7 @@
         <v>3146</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>2863</v>
@@ -49280,7 +49478,7 @@
         <v>3146</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>2863</v>
@@ -49306,7 +49504,7 @@
         <v>3146</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>2863</v>
@@ -49332,7 +49530,7 @@
         <v>3146</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>2863</v>
@@ -49358,7 +49556,7 @@
         <v>3146</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>2863</v>
@@ -49375,17 +49573,17 @@
         <v>139</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>3611</v>
+        <v>3634</v>
       </c>
       <c r="C75" t="s">
-        <v>3612</v>
+        <v>3635</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>3613</v>
+        <v>3636</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="3" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>2863</v>
@@ -49402,17 +49600,17 @@
         <v>140</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>3614</v>
+        <v>3637</v>
       </c>
       <c r="C76" t="s">
-        <v>3615</v>
+        <v>3638</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>3616</v>
+        <v>3639</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="3" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>2863</v>
@@ -49421,7 +49619,7 @@
         <v>2864</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>3617</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="77" ht="14.25">
@@ -49429,17 +49627,17 @@
         <v>143</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>3618</v>
+        <v>3641</v>
       </c>
       <c r="C77" t="s">
-        <v>3619</v>
+        <v>3642</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>3620</v>
+        <v>3643</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="3" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>2863</v>
@@ -49456,17 +49654,17 @@
         <v>137</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>3621</v>
+        <v>3644</v>
       </c>
       <c r="C78" t="s">
-        <v>3622</v>
+        <v>3645</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>3623</v>
+        <v>3646</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="3" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>2863</v>
@@ -49486,17 +49684,17 @@
         <v>23</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>3624</v>
+        <v>3647</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>3625</v>
+        <v>3648</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>3626</v>
+        <v>3649</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="3" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>2863</v>
@@ -49513,17 +49711,17 @@
         <v>24</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>3627</v>
+        <v>3650</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>3628</v>
+        <v>3651</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>3076</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="3" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>2863</v>
@@ -49540,17 +49738,17 @@
         <v>25</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>3629</v>
+        <v>3652</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>3630</v>
+        <v>3653</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>3631</v>
+        <v>3654</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="3" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>2863</v>
@@ -49567,17 +49765,17 @@
         <v>26</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>3632</v>
+        <v>3655</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>3633</v>
+        <v>3656</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>3634</v>
+        <v>3657</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="3" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>2863</v>
@@ -49594,17 +49792,17 @@
         <v>27</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>3635</v>
+        <v>3658</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>3636</v>
+        <v>3659</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>3090</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="3" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>2863</v>
@@ -49625,17 +49823,17 @@
         <v>75</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>3637</v>
+        <v>3660</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>3638</v>
+        <v>3661</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>3090</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="3" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>2863</v>
@@ -49652,17 +49850,17 @@
         <v>76</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>3639</v>
+        <v>3662</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>3640</v>
+        <v>3663</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3090</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="3" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>2863</v>
@@ -49679,19 +49877,19 @@
         <v>67</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>3641</v>
+        <v>3664</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>3642</v>
+        <v>3665</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>3643</v>
+        <v>3666</v>
       </c>
       <c r="E92" s="2">
         <v>1921</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>2863</v>
@@ -49708,17 +49906,17 @@
         <v>6</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>3644</v>
+        <v>3667</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>3645</v>
+        <v>3668</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>3643</v>
+        <v>3666</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3" t="s">
-        <v>3449</v>
+        <v>3475</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>2863</v>
@@ -49733,13 +49931,13 @@
         <v>2</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>3646</v>
+        <v>3669</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>3647</v>
+        <v>3670</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>3648</v>
+        <v>3671</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="8"/>
@@ -49756,13 +49954,13 @@
         <v>3</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>3649</v>
+        <v>3672</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>3650</v>
+        <v>3673</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>3651</v>
+        <v>3674</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="8"/>
@@ -49779,13 +49977,13 @@
         <v>8</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>3652</v>
+        <v>3675</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>3653</v>
+        <v>3676</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>3606</v>
+        <v>3629</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="8"/>
@@ -49802,13 +50000,13 @@
         <v>10</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>3654</v>
+        <v>3677</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>3655</v>
+        <v>3678</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>3656</v>
+        <v>3679</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="8"/>
@@ -49825,13 +50023,13 @@
         <v>11</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>3657</v>
+        <v>3680</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>3658</v>
+        <v>3681</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>3659</v>
+        <v>3682</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="8"/>
@@ -49852,13 +50050,13 @@
         <v>21</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>3660</v>
+        <v>3683</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>3661</v>
+        <v>3684</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>3662</v>
+        <v>3685</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="8"/>
@@ -49875,13 +50073,13 @@
         <v>47</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>3663</v>
+        <v>3686</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>3664</v>
+        <v>3687</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>3662</v>
+        <v>3685</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="8"/>
@@ -49898,13 +50096,13 @@
         <v>29</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>3665</v>
+        <v>3688</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>3666</v>
+        <v>3689</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>3667</v>
+        <v>3690</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="8"/>
@@ -49921,13 +50119,13 @@
         <v>35</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>3668</v>
+        <v>3691</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>3669</v>
+        <v>3692</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>3667</v>
+        <v>3690</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="8"/>
@@ -49944,13 +50142,13 @@
         <v>91</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>3670</v>
+        <v>3693</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>3671</v>
+        <v>3694</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>3667</v>
+        <v>3690</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="8"/>
@@ -49967,10 +50165,10 @@
         <v>18</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>3672</v>
+        <v>3695</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>3673</v>
+        <v>3696</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>3263</v>
@@ -49990,10 +50188,10 @@
         <v>17</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>3674</v>
+        <v>3697</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>3675</v>
+        <v>3698</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>3263</v>
@@ -50013,13 +50211,13 @@
         <v>69</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>3676</v>
+        <v>3699</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>3677</v>
+        <v>3700</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>3678</v>
+        <v>3701</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="8"/>
@@ -50036,13 +50234,13 @@
         <v>624</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>3679</v>
+        <v>3702</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>3680</v>
+        <v>3703</v>
       </c>
       <c r="D117" t="s">
-        <v>3681</v>
+        <v>3704</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="8"/>
@@ -50053,7 +50251,7 @@
         <v>2864</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>3682</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="118" ht="14.25">
@@ -50065,13 +50263,13 @@
         <v>3</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>3683</v>
+        <v>3706</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>3684</v>
+        <v>3707</v>
       </c>
       <c r="D119" t="s">
-        <v>3685</v>
+        <v>3708</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="8"/>
@@ -50082,7 +50280,7 @@
         <v>2864</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>3686</v>
+        <v>3709</v>
       </c>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
@@ -50096,13 +50294,13 @@
         <v>4</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>3687</v>
+        <v>3710</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>3688</v>
+        <v>3711</v>
       </c>
       <c r="D120" t="s">
-        <v>3685</v>
+        <v>3708</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="8"/>
@@ -50113,7 +50311,7 @@
         <v>2864</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>3689</v>
+        <v>3712</v>
       </c>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
@@ -50127,13 +50325,13 @@
         <v>5</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>3690</v>
+        <v>3713</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>3691</v>
+        <v>3714</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>3685</v>
+        <v>3708</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="8"/>
@@ -50144,7 +50342,7 @@
         <v>2864</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>3692</v>
+        <v>3715</v>
       </c>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
@@ -50158,13 +50356,13 @@
         <v>6</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>3693</v>
+        <v>3716</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>3694</v>
+        <v>3717</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>3685</v>
+        <v>3708</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="8"/>
@@ -50175,7 +50373,7 @@
         <v>2864</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>3695</v>
+        <v>3718</v>
       </c>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
@@ -50193,24 +50391,24 @@
         <v>397</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>3696</v>
+        <v>3719</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>3697</v>
+        <v>3720</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>3698</v>
+        <v>3450</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="8" t="s">
-        <v>3699</v>
+        <v>3451</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" t="s">
         <v>3359</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>3700</v>
+        <v>3721</v>
       </c>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
@@ -50225,24 +50423,24 @@
         <v>3111</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>3701</v>
+        <v>3448</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>3702</v>
+        <v>3449</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>3698</v>
+        <v>3450</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3" t="s">
-        <v>3699</v>
+        <v>3451</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3" t="s">
         <v>3359</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>3703</v>
+        <v>3452</v>
       </c>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
@@ -50257,24 +50455,24 @@
         <v>3115</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>3704</v>
+        <v>3453</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>3705</v>
+        <v>3454</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>3698</v>
+        <v>3450</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
-        <v>3699</v>
+        <v>3451</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3" t="s">
         <v>3359</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>3706</v>
+        <v>3455</v>
       </c>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
@@ -50289,24 +50487,24 @@
         <v>3119</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>3707</v>
+        <v>3456</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>3708</v>
+        <v>3457</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>3698</v>
+        <v>3450</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
-        <v>3699</v>
+        <v>3451</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3" t="s">
         <v>3359</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>3709</v>
+        <v>3458</v>
       </c>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -50318,27 +50516,27 @@
     </row>
     <row r="128" ht="14.25">
       <c r="A128" s="3" t="s">
-        <v>3557</v>
+        <v>3459</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>3710</v>
+        <v>3460</v>
       </c>
       <c r="C128" t="s">
-        <v>3711</v>
+        <v>3461</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>3698</v>
+        <v>3450</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3" t="s">
-        <v>3699</v>
+        <v>3451</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3" t="s">
         <v>3359</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>3712</v>
+        <v>3462</v>
       </c>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
@@ -50355,27 +50553,27 @@
     </row>
     <row r="130" ht="14.25">
       <c r="A130" s="3" t="s">
-        <v>3565</v>
+        <v>3467</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>3713</v>
+        <v>3468</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>3714</v>
+        <v>3469</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>3698</v>
+        <v>3450</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="3" t="s">
-        <v>3699</v>
+        <v>3451</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3" t="s">
         <v>3359</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>3715</v>
+        <v>3470</v>
       </c>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
@@ -50387,20 +50585,20 @@
     </row>
     <row r="134" ht="14.25">
       <c r="C134" t="s">
-        <v>3716</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="135" ht="14.25">
       <c r="C135" t="s">
-        <v>3717</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="140" ht="14.25">
       <c r="C140" t="s">
-        <v>3718</v>
+        <v>3724</v>
       </c>
       <c r="D140" t="s">
-        <v>3719</v>
+        <v>3725</v>
       </c>
       <c r="H140" s="3" t="s">
         <v>3359</v>
@@ -50408,12 +50606,12 @@
     </row>
     <row r="144" ht="14.25">
       <c r="C144" t="s">
-        <v>3720</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="145" ht="14.25">
       <c r="C145" t="s">
-        <v>3721</v>
+        <v>3727</v>
       </c>
     </row>
   </sheetData>
@@ -50472,42 +50670,42 @@
     <row r="2"/>
     <row r="3">
       <c r="C3" s="6" t="s">
-        <v>3722</v>
+        <v>3728</v>
       </c>
       <c r="D3" t="s">
-        <v>3723</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="4"/>
     <row r="5">
       <c r="C5" s="6" t="s">
-        <v>3724</v>
+        <v>3730</v>
       </c>
       <c r="D5" t="s">
-        <v>3725</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" s="6" t="s">
-        <v>3726</v>
+        <v>3732</v>
       </c>
       <c r="D6" t="s">
-        <v>3727</v>
+        <v>3733</v>
       </c>
       <c r="I6" t="s">
-        <v>3728</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>3729</v>
+        <v>3735</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>3730</v>
+        <v>3736</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>3731</v>
+        <v>3737</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -50527,10 +50725,10 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="7" t="s">
-        <v>3732</v>
+        <v>3738</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>3733</v>
+        <v>3739</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
@@ -50548,13 +50746,13 @@
     </row>
     <row r="9" ht="14.25">
       <c r="B9" s="3" t="s">
-        <v>3734</v>
+        <v>3464</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>3735</v>
+        <v>3465</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>3733</v>
+        <v>3739</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
@@ -50572,13 +50770,13 @@
     <row r="10" ht="14.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>3736</v>
+        <v>3740</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>3737</v>
+        <v>3741</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>3738</v>
+        <v>3742</v>
       </c>
       <c r="E10" s="2">
         <v>2004</v>
@@ -50596,13 +50794,13 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="3"/>
       <c r="C11" s="7" t="s">
-        <v>3739</v>
+        <v>3743</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>3738</v>
+        <v>3742</v>
       </c>
       <c r="E11" s="2">
         <v>2005</v>
@@ -50620,13 +50818,13 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="3"/>
       <c r="C12" s="7" t="s">
-        <v>3740</v>
+        <v>3744</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>3738</v>
+        <v>3742</v>
       </c>
       <c r="E12" s="2">
         <v>2006</v>
@@ -50644,13 +50842,13 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="3"/>
       <c r="C13" s="7" t="s">
-        <v>3741</v>
+        <v>3745</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>3738</v>
+        <v>3742</v>
       </c>
       <c r="E13" s="2">
         <v>2007</v>
@@ -50671,10 +50869,10 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="7" t="s">
+        <v>3746</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>3742</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>3738</v>
       </c>
       <c r="E14" s="2">
         <v>2017</v>
@@ -50695,10 +50893,10 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="7" t="s">
-        <v>3743</v>
+        <v>3747</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>3738</v>
+        <v>3742</v>
       </c>
       <c r="E15" s="2">
         <v>2015</v>
@@ -50717,13 +50915,13 @@
     </row>
     <row r="16" ht="14.25">
       <c r="B16" s="3" t="s">
-        <v>3744</v>
+        <v>3748</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>3745</v>
+        <v>3749</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3746</v>
+        <v>3750</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
@@ -50741,13 +50939,13 @@
     <row r="17" ht="14.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>3747</v>
+        <v>3751</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>3748</v>
+        <v>3752</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>3746</v>
+        <v>3750</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
@@ -50766,10 +50964,10 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="7" t="s">
-        <v>3749</v>
+        <v>3753</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>3746</v>
+        <v>3750</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
@@ -50788,10 +50986,10 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="7" t="s">
-        <v>3750</v>
+        <v>3754</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>3751</v>
+        <v>3755</v>
       </c>
       <c r="E19" s="2">
         <v>1963</v>
@@ -50814,10 +51012,10 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="7" t="s">
-        <v>3752</v>
+        <v>3756</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>3751</v>
+        <v>3755</v>
       </c>
       <c r="E20" s="2">
         <v>1964</v>
@@ -50840,10 +51038,10 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="7" t="s">
-        <v>3753</v>
+        <v>3757</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>3751</v>
+        <v>3755</v>
       </c>
       <c r="E21" s="2">
         <v>1965</v>
@@ -50866,10 +51064,10 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
-        <v>3754</v>
+        <v>3758</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>3751</v>
+        <v>3755</v>
       </c>
       <c r="E22" s="2">
         <v>1967</v>
@@ -50892,10 +51090,10 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="7" t="s">
+        <v>3759</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>3755</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>3751</v>
       </c>
       <c r="E23" s="2">
         <v>1975</v>
@@ -50918,10 +51116,10 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="7" t="s">
-        <v>3756</v>
+        <v>3760</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>3751</v>
+        <v>3755</v>
       </c>
       <c r="E24" s="2">
         <v>1977</v>
@@ -50944,10 +51142,10 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="7" t="s">
-        <v>3757</v>
+        <v>3761</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>3751</v>
+        <v>3755</v>
       </c>
       <c r="E25" s="2">
         <v>1979</v>
@@ -50970,10 +51168,10 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="7" t="s">
-        <v>3758</v>
+        <v>3762</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3751</v>
+        <v>3755</v>
       </c>
       <c r="E26" s="2">
         <v>1981</v>
@@ -50996,10 +51194,10 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="7" t="s">
-        <v>3759</v>
+        <v>3763</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>3751</v>
+        <v>3755</v>
       </c>
       <c r="E27" s="2">
         <v>1985</v>
@@ -51022,10 +51220,10 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="7" t="s">
-        <v>3760</v>
+        <v>3764</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>3751</v>
+        <v>3755</v>
       </c>
       <c r="E28" s="2">
         <v>1987</v>
@@ -51048,10 +51246,10 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="7" t="s">
-        <v>3761</v>
+        <v>3765</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>3751</v>
+        <v>3755</v>
       </c>
       <c r="E29" s="2">
         <v>1993</v>
@@ -51074,10 +51272,10 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="7" t="s">
-        <v>3762</v>
+        <v>3766</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>3751</v>
+        <v>3755</v>
       </c>
       <c r="E30" s="2">
         <v>1995</v>
@@ -51100,10 +51298,10 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="7" t="s">
-        <v>3763</v>
+        <v>3767</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>3751</v>
+        <v>3755</v>
       </c>
       <c r="E31" s="2">
         <v>2002</v>
@@ -51126,10 +51324,10 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="7" t="s">
-        <v>3764</v>
+        <v>3768</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>3751</v>
+        <v>3755</v>
       </c>
       <c r="E32" s="2">
         <v>2002</v>
@@ -51152,10 +51350,10 @@
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="7" t="s">
-        <v>3765</v>
+        <v>3769</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>3751</v>
+        <v>3755</v>
       </c>
       <c r="E33" s="2">
         <v>2005</v>
@@ -51178,10 +51376,10 @@
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="7" t="s">
-        <v>3766</v>
+        <v>3770</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>3751</v>
+        <v>3755</v>
       </c>
       <c r="E34" s="2">
         <v>2004</v>
@@ -51204,10 +51402,10 @@
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="7" t="s">
-        <v>3767</v>
+        <v>3771</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>3751</v>
+        <v>3755</v>
       </c>
       <c r="E35" s="2">
         <v>2012</v>
@@ -51229,13 +51427,13 @@
     <row r="36" ht="14.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>3768</v>
+        <v>3772</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>3769</v>
+        <v>3773</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>3770</v>
+        <v>3774</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="3"/>
@@ -51253,13 +51451,13 @@
     </row>
     <row r="37" ht="14.25">
       <c r="B37" s="3" t="s">
-        <v>3771</v>
+        <v>3775</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>3772</v>
+        <v>3776</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>3770</v>
+        <v>3774</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
@@ -51278,13 +51476,13 @@
     <row r="38" ht="14.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>3773</v>
+        <v>3777</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>3774</v>
+        <v>3778</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>3775</v>
+        <v>3779</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
@@ -51301,13 +51499,13 @@
     </row>
     <row r="39" ht="14.25">
       <c r="B39" s="3" t="s">
-        <v>3776</v>
+        <v>3780</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>3777</v>
+        <v>3781</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>3778</v>
+        <v>3782</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
@@ -51325,13 +51523,13 @@
     <row r="40" ht="14.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>3779</v>
+        <v>3783</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>3780</v>
+        <v>3784</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>3778</v>
+        <v>3782</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="3"/>
@@ -51348,13 +51546,13 @@
     </row>
     <row r="41" ht="14.25">
       <c r="B41" s="3" t="s">
-        <v>3781</v>
+        <v>3785</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>3786</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>3782</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>3778</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="3"/>
@@ -51372,13 +51570,13 @@
     <row r="42" ht="14.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>3783</v>
+        <v>3787</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>3784</v>
+        <v>3788</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>3778</v>
+        <v>3782</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="3"/>
@@ -51399,346 +51597,346 @@
     <row r="47" ht="14.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>3785</v>
+        <v>3789</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>3786</v>
+        <v>3790</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>3787</v>
+        <v>3791</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>3788</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>3789</v>
+        <v>3793</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>3790</v>
+        <v>3794</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>3787</v>
+        <v>3791</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>3788</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
+        <v>3795</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>3796</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>3791</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>3792</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>3787</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>3793</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="50" ht="14.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>3794</v>
+        <v>3798</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>3795</v>
+        <v>3799</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>3787</v>
+        <v>3791</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>3796</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>3797</v>
+        <v>3801</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>3798</v>
+        <v>3802</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>3787</v>
+        <v>3791</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>3796</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="52" ht="14.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>3799</v>
+        <v>3803</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>3791</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>3800</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>3787</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>3796</v>
       </c>
     </row>
     <row r="53" ht="14.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
-        <v>3801</v>
+        <v>3805</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>3802</v>
+        <v>3806</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>3787</v>
+        <v>3791</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>3796</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="54" ht="14.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
-        <v>3803</v>
+        <v>3807</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>3804</v>
+        <v>3808</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>3787</v>
+        <v>3791</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>3796</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="57" ht="14.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>3805</v>
+        <v>3809</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>3806</v>
+        <v>3810</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>3807</v>
+        <v>3811</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>3808</v>
+        <v>3812</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
-        <v>3809</v>
+        <v>3813</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>3810</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="58" ht="14.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
+        <v>3815</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>3810</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>3811</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>3806</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>3807</v>
-      </c>
       <c r="E58" s="2" t="s">
-        <v>3808</v>
+        <v>3812</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
-        <v>3809</v>
+        <v>3813</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>3810</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="59" ht="14.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
+        <v>3816</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>3810</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>3811</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>3812</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>3806</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>3807</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>3808</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>3809</v>
+        <v>3813</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>3810</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="60" ht="14.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
-        <v>3813</v>
+        <v>3817</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>3806</v>
+        <v>3810</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>3807</v>
+        <v>3811</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>3808</v>
+        <v>3812</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>3809</v>
+        <v>3813</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>3810</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="61" ht="14.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
-        <v>3814</v>
+        <v>3818</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>3806</v>
+        <v>3810</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>3807</v>
+        <v>3811</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>3815</v>
+        <v>3819</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>3809</v>
+        <v>3813</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>3816</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="62" ht="14.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
-        <v>3817</v>
+        <v>3821</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>3806</v>
+        <v>3810</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>3807</v>
+        <v>3811</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>3808</v>
+        <v>3812</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>3809</v>
+        <v>3813</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>3810</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="63" ht="14.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>3818</v>
+        <v>3822</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>3806</v>
+        <v>3810</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>3807</v>
+        <v>3811</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>3808</v>
+        <v>3812</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>3809</v>
+        <v>3813</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>3810</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="64" ht="14.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
-        <v>3819</v>
+        <v>3823</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>3806</v>
+        <v>3810</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>3807</v>
+        <v>3811</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>3808</v>
+        <v>3812</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>3809</v>
+        <v>3813</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>3810</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="65" ht="14.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
-        <v>3820</v>
+        <v>3824</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>3806</v>
+        <v>3810</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>3807</v>
+        <v>3811</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>3808</v>
+        <v>3812</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3" t="s">
-        <v>3809</v>
+        <v>3813</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>3810</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="66" ht="14.25">
@@ -51747,103 +51945,103 @@
     <row r="69" ht="14.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
-        <v>3821</v>
+        <v>3825</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>3822</v>
+        <v>3826</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>3807</v>
+        <v>3811</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>3823</v>
+        <v>3827</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>3824</v>
+        <v>3828</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>3825</v>
+        <v>3829</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>3826</v>
+        <v>3830</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3" t="s">
-        <v>3827</v>
+        <v>3831</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>3828</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="70" ht="14.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
-        <v>3829</v>
+        <v>3833</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>3830</v>
+        <v>3834</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>3831</v>
+        <v>3835</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>3832</v>
+        <v>3836</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>3833</v>
+        <v>3837</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>3834</v>
+        <v>3838</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>3835</v>
+        <v>3839</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3" t="s">
-        <v>3836</v>
+        <v>3840</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>3837</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="71" ht="14.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>3838</v>
+        <v>3842</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>3839</v>
+        <v>3843</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>3807</v>
+        <v>3811</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>3840</v>
+        <v>3844</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>3841</v>
+        <v>3845</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>3842</v>
+        <v>3846</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>3843</v>
+        <v>3847</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3" t="s">
-        <v>3844</v>
+        <v>3848</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>3845</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="75" ht="14.25">
@@ -51851,35 +52049,35 @@
         <v>32</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>3846</v>
+        <v>3850</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>3847</v>
+        <v>3851</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>3807</v>
+        <v>3811</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>3823</v>
+        <v>3827</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>3848</v>
+        <v>3852</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>3849</v>
+        <v>3853</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>3826</v>
+        <v>3830</v>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>3850</v>
+        <v>3854</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>3851</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="77" ht="14.25">
@@ -51948,234 +52146,256 @@
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="C3" s="11" t="s">
-        <v>3852</v>
+      <c r="C3" s="12" t="s">
+        <v>3856</v>
       </c>
       <c r="F3" t="s">
-        <v>3853</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="C4" s="11" t="s">
-        <v>3854</v>
+      <c r="C4" s="12" t="s">
+        <v>3858</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>3853</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="C5" s="11" t="s">
-        <v>3855</v>
+      <c r="C5" s="12" t="s">
+        <v>3859</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>3853</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="C6" t="s">
-        <v>3856</v>
+        <v>3860</v>
       </c>
       <c r="F6" t="s">
-        <v>3853</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="C7" t="s">
+        <v>3861</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3862</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>3857</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3858</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>3853</v>
-      </c>
-      <c r="I7" t="s">
-        <v>3859</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="C8" s="8" t="s">
-        <v>3860</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="F8" s="3"/>
+        <v>3863</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>3864</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3857</v>
+      </c>
       <c r="I8" s="8"/>
     </row>
     <row r="9" ht="14.25">
       <c r="C9" s="8" t="s">
-        <v>3861</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="F9" s="3"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" ht="14.25"/>
-    <row r="12" ht="14.25">
-      <c r="C12" s="11" t="s">
-        <v>3862</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3863</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="C13" s="3" t="s">
-        <v>3864</v>
-      </c>
-    </row>
+        <v>3865</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>3866</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>3857</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="C11" s="13" t="s">
+        <v>3867</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="F11" s="3"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" ht="14.25"/>
     <row r="14" ht="14.25">
-      <c r="C14" s="3" t="s">
-        <v>3865</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="C17" s="11" t="s">
-        <v>3866</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" t="s">
-        <v>3867</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="C18" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>3868</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="F14" t="s">
         <v>3869</v>
       </c>
-      <c r="E18" s="3"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="C15" s="3" t="s">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="C16" s="3" t="s">
+        <v>3871</v>
+      </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="C19" s="11" t="s">
-        <v>3870</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>3871</v>
-      </c>
+      <c r="C19" s="12" t="s">
+        <v>3872</v>
+      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
+      <c r="F19" t="s">
+        <v>3873</v>
+      </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="D20" s="3"/>
+      <c r="C20" s="12" t="s">
+        <v>3874</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>3875</v>
+      </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="D21" s="3"/>
+      <c r="C21" s="12" t="s">
+        <v>3876</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>3877</v>
+      </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" ht="14.25"/>
+    <row r="22" ht="14.25">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
     <row r="23" ht="14.25">
-      <c r="C23" s="3" t="s">
-        <v>3872</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="C24" s="11" t="s">
-        <v>3873</v>
-      </c>
-    </row>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" ht="14.25"/>
     <row r="25" ht="14.25">
       <c r="C25" s="3" t="s">
-        <v>3874</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="26" ht="14.25">
-      <c r="C26" s="3" t="s">
-        <v>3875</v>
+      <c r="C26" s="12" t="s">
+        <v>3879</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="C27" s="3" t="s">
-        <v>3876</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="C28" s="3" t="s">
-        <v>3877</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="C29" s="3" t="s">
-        <v>3878</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="C30" s="3" t="s">
-        <v>3879</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="31" ht="14.25">
       <c r="C31" s="3" t="s">
-        <v>3880</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="C32" s="3" t="s">
-        <v>3881</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="C33" s="3" t="s">
-        <v>3882</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="34" ht="14.25">
       <c r="C34" s="3" t="s">
-        <v>3883</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="C35" s="3" t="s">
-        <v>3884</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="C36" s="3" t="s">
-        <v>3885</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="C37" s="3" t="s">
-        <v>3886</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="38" ht="14.25">
       <c r="C38" s="3" t="s">
-        <v>3887</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="39" ht="14.25">
       <c r="C39" s="3" t="s">
-        <v>3888</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="40" ht="14.25">
       <c r="C40" s="3" t="s">
-        <v>3889</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="41" ht="14.25">
       <c r="C41" s="3" t="s">
-        <v>3890</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="42" ht="14.25">
       <c r="C42" s="3" t="s">
-        <v>3891</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="43" ht="14.25">
-      <c r="C43" s="12"/>
+      <c r="C43" s="3" t="s">
+        <v>3896</v>
+      </c>
     </row>
     <row r="44" ht="14.25">
       <c r="C44" s="3" t="s">
-        <v>3892</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="45" ht="14.25">
-      <c r="C45" s="3" t="s">
-        <v>3893</v>
+      <c r="C45" s="14"/>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="C46" s="3" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="C47" s="3" t="s">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="C51" t="s">
+        <v>3900</v>
       </c>
     </row>
   </sheetData>
@@ -52229,64 +52449,78 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>3894</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>3895</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>3896</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>3897</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>3898</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>3899</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>3900</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>3901</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>3902</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="12" ht="14.25"/>
     <row r="13" ht="14.25"/>
     <row r="14" ht="14.25">
-      <c r="A14" s="13" t="s">
-        <v>3903</v>
+      <c r="A14" s="15" t="s">
+        <v>3910</v>
       </c>
       <c r="B14" s="3"/>
+      <c r="D14" t="s">
+        <v>3911</v>
+      </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="3" t="s">
-        <v>3904</v>
+        <v>3912</v>
       </c>
       <c r="B15" s="3"/>
+      <c r="D15" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="16" t="s">
+        <v>3913</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A16"/>
+  </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/Selected_Downloads.xlsx
+++ b/Selected_Downloads.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Revistas" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,15 +11,17 @@
     <sheet name="_Pol_" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="_His_" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Architecture" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="X Board" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Leaving the Cathedral" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="_X_" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">_X_!$A$1:$I$1</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3914" uniqueCount="3914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3938" uniqueCount="3938">
   <si>
     <t>Index</t>
   </si>
@@ -10434,6 +10436,15 @@
     <t xml:space="preserve">x, 668 pages ; 24 cm Includes bibliographical references (p. 642-652) and index</t>
   </si>
   <si>
+    <t xml:space="preserve">Always the Hoprizon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murdoch Murdoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steelstorm by Thomas777</t>
+  </si>
+  <si>
     <t>bub_gb_6d0_7XDSscgC</t>
   </si>
   <si>
@@ -11598,12 +11609,27 @@
     <t xml:space="preserve">The Franklin Scandal: A Story of Powerbrokers, Child Abuse &amp; Betrayal</t>
   </si>
   <si>
+    <t xml:space="preserve">Nick Bryant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confessions of a D.C. Madam: The Politics of Sex, Lies, and Blackmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry W. Vinson</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Kincora Scandal: Political Cover-Up &amp; Intrigue in Ulster</t>
   </si>
   <si>
+    <t xml:space="preserve">Chris Moore</t>
+  </si>
+  <si>
     <t xml:space="preserve">Michele Remembers</t>
   </si>
   <si>
+    <t xml:space="preserve">Lawrence Pazder</t>
+  </si>
+  <si>
     <t xml:space="preserve">Space Relations</t>
   </si>
   <si>
@@ -11622,152 +11648,200 @@
     <t xml:space="preserve">Ace of Swords</t>
   </si>
   <si>
-    <t xml:space="preserve">Find Something about McMartin Preschool Trial</t>
+    <t xml:space="preserve">The Falsity of Set Theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vladimir Istarkhov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaving the Cathedral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Origin of Consciousness in the Breakdown of the Bicameral Mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julian Jaynes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bullshit Jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Graeber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Against Method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Feyerabend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For and Against Method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imre Lakatos &amp;  Paul Feyerabend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mindless statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerd Gigerenzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rationality for Mortals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Darwin Got Wrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jerry Fodor &amp; Massimo Piatelli-Palmarini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Critique of Reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luke Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Science publishing is a multimillion-dollar Ponzi scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Àlex Gómez-Marín</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Rope Hypothesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill Gaede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tragedy and Hope: A History of The World In Our Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carroll Quigley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadow Goverment</t>
   </si>
   <si>
     <t xml:space="preserve">CHAOS: Charles Manson, the CIA, and the Secret History of the Sixties</t>
   </si>
   <si>
-    <t xml:space="preserve">MK-Ultra Stuff</t>
+    <t xml:space="preserve">Tom O'Neill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secrete Agent 666: Aleister Crowley, British Intelligence and the Occult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard B. Spence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secrete Nazi Polar Expeditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristof Friedrich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood Passover: The Jews of Europe and Ritual Murder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ariel Toaff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mind Monsters: Invaders from Inner Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jenny Randles</t>
+  </si>
+  <si>
+    <t>UFO/OVNIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passport to Magonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Brooking Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGLO-SAXON' VS. 'LATIN' PARAPSYCHOLOGY: UNDERLYING THE COMMUNICATION BARRIER (MARIO P. VARVOGLIS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis and Assessment of Gateway Process (CIA-RDP96-00788R001700210016-5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acoustic Kitty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation Northwoods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Sunshine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pentagon Papers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation Papperclip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation Mockingbird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation LAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Majestic 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nsa ant catalog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehran UFO 1976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal Mutilations CIA Docs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phoenix Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telepathic Rabbits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roger Boisjoly Memo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Pluto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guy Hottel Memo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memo 6751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Secret King: The Myth and Reality of Nazi Occultism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBI vault - The Protocols of the meeting of the Learned Elders of Zion:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conde de Gabalis</t>
   </si>
   <si>
     <t xml:space="preserve">CS Lewis Space Trilogy</t>
   </si>
   <si>
-    <t xml:space="preserve">BIll Gaede</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secrete Agent 666: Aleister Crowley, British Intelligence and the Occult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secrete Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secrete Nazi Polar Expeditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristof Friedrich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blood Passover: The Jews of Europe and Ritual Murder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ariel Toaff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Brooking Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANGLO-SAXON' VS. 'LATIN' PARAPSYCHOLOGY: UNDERLYING THE COMMUNICATION BARRIER (MARIO P. VARVOGLIS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis and Assessment of Gateway Process (CIA-RDP96-00788R001700210016-5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acoustic Kitty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operation Northwoods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Sunshine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pentagon Papers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operation Papperclip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operation Mockingbird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operation LAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Majestic 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nsa ant catalog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tehran UFO 1976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animal Mutilations CIA Docs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phoenix Program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telepathic Rabbits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roger Boisjoly Memo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Pluto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guy Hottel Memo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memo 6751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Secret King: The Myth and Reality of Nazi Occultism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FBI vault - The Protocols of the meeting of the Learned Elders of Zion:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conde de Gabalis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Falsity of Set Theory - Vladimir Istarkhov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Bicameral Mind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Graeber's Bullshit Jobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feyerabend, Paul – Against Method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motterlini, Matteo – For and Against Method: Including Lakatos's Lectures on Scientific Method and the Lakatos-Feyerabend Correspondence</t>
-  </si>
-  <si>
     <t xml:space="preserve">David Rohl</t>
   </si>
   <si>
-    <t xml:space="preserve">Mindless statistics (Gerd Gigerenzer)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rationality for Mortals (Gerd Gigerenzer)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What Darwin Got Wrong (Jerry Fodor and Massimo Piatelli-Palmarini)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Critique of Reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luke Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leaving the Cathedral</t>
-  </si>
-  <si>
-    <t>https://iai.tv/articles/science-publishing-is-a-multimillion-dollar-ponzi-scheme-auid-2953</t>
+    <t xml:space="preserve">Graham Hanckoc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -11791,6 +11865,10 @@
       <sz val="10.000000"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <u/>
@@ -11840,7 +11918,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -11866,20 +11944,21 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -44976,7 +45055,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A107" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A122" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -47715,7 +47794,7 @@
       <c r="D131" s="3" t="s">
         <v>3450</v>
       </c>
-      <c r="E131" s="9"/>
+      <c r="E131" s="3"/>
       <c r="F131" s="3" t="s">
         <v>3451</v>
       </c>
@@ -47740,7 +47819,7 @@
       <c r="D132" s="3" t="s">
         <v>3450</v>
       </c>
-      <c r="E132" s="9"/>
+      <c r="E132" s="3"/>
       <c r="F132" s="3" t="s">
         <v>3451</v>
       </c>
@@ -47765,7 +47844,7 @@
       <c r="D133" s="3" t="s">
         <v>3450</v>
       </c>
-      <c r="E133" s="9"/>
+      <c r="E133" s="3"/>
       <c r="F133" s="3" t="s">
         <v>3451</v>
       </c>
@@ -47790,7 +47869,7 @@
       <c r="D134" s="3" t="s">
         <v>3450</v>
       </c>
-      <c r="E134" s="9"/>
+      <c r="E134" s="3"/>
       <c r="F134" s="3" t="s">
         <v>3451</v>
       </c>
@@ -47815,7 +47894,7 @@
       <c r="D135" s="3" t="s">
         <v>3450</v>
       </c>
-      <c r="E135" s="9"/>
+      <c r="E135" s="3"/>
       <c r="F135" s="3" t="s">
         <v>3451</v>
       </c>
@@ -47840,7 +47919,7 @@
       <c r="D136" s="3" t="s">
         <v>3450</v>
       </c>
-      <c r="E136" s="9"/>
+      <c r="E136" s="3"/>
       <c r="F136" s="3" t="s">
         <v>3451</v>
       </c>
@@ -47851,6 +47930,20 @@
       <c r="I136" s="3" t="s">
         <v>3470</v>
       </c>
+    </row>
+    <row r="140" ht="14.25">
+      <c r="C140" s="3" t="s">
+        <v>3471</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25">
+      <c r="C141" s="3" t="s">
+        <v>3473</v>
+      </c>
+      <c r="D141" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -47913,22 +48006,22 @@
         <v>397</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3471</v>
+        <v>3474</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3472</v>
+        <v>3475</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3473</v>
+        <v>3476</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3474</v>
+        <v>3477</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>3476</v>
+        <v>3479</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>2864</v>
@@ -47943,45 +48036,45 @@
     <row r="3" ht="14.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>3477</v>
+        <v>3480</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>3481</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3483</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>3478</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>3479</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3480</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>3475</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>3481</v>
+        <v>3484</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="10"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="5" t="s">
-        <v>3482</v>
+        <v>3485</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3483</v>
+        <v>3486</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3484</v>
+        <v>3487</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>2863</v>
@@ -47995,22 +48088,22 @@
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="5" t="s">
-        <v>3486</v>
+        <v>3489</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3487</v>
+        <v>3490</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>3491</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>3488</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>3485</v>
       </c>
       <c r="E6" s="5">
         <v>1937</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>3215</v>
@@ -48024,22 +48117,22 @@
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="5" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>3490</v>
+        <v>3493</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3491</v>
+        <v>3494</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="E7" s="5">
         <v>1936</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>3215</v>
@@ -48048,24 +48141,24 @@
         <v>2864</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>3492</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="5" t="s">
-        <v>3493</v>
+        <v>3496</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>3494</v>
+        <v>3497</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3495</v>
+        <v>3498</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>2863</v>
@@ -48079,19 +48172,19 @@
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="5" t="s">
-        <v>3496</v>
+        <v>3499</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>3497</v>
+        <v>3500</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3498</v>
+        <v>3501</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>2863</v>
@@ -48105,19 +48198,19 @@
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="5" t="s">
-        <v>3499</v>
+        <v>3502</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>3500</v>
+        <v>3503</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>3501</v>
+        <v>3504</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>2863</v>
@@ -48132,19 +48225,19 @@
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="5" t="s">
-        <v>3502</v>
+        <v>3505</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>3503</v>
+        <v>3506</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>3504</v>
+        <v>3507</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>2863</v>
@@ -48159,19 +48252,19 @@
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="5" t="s">
-        <v>3505</v>
+        <v>3508</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>3506</v>
+        <v>3509</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3507</v>
+        <v>3510</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>2863</v>
@@ -48186,19 +48279,19 @@
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="5" t="s">
-        <v>3508</v>
+        <v>3511</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>3509</v>
+        <v>3512</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>3510</v>
+        <v>3513</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>2863</v>
@@ -48213,19 +48306,19 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="5" t="s">
-        <v>3511</v>
+        <v>3514</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>3512</v>
+        <v>3515</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>3513</v>
+        <v>3516</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>2863</v>
@@ -48240,19 +48333,19 @@
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="5" t="s">
-        <v>3514</v>
+        <v>3517</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>3515</v>
+        <v>3518</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>3516</v>
+        <v>3519</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>2863</v>
@@ -48267,19 +48360,19 @@
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="5" t="s">
-        <v>3517</v>
+        <v>3520</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>3518</v>
+        <v>3521</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>3519</v>
+        <v>3522</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>2863</v>
@@ -48293,19 +48386,19 @@
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="5" t="s">
-        <v>3520</v>
+        <v>3523</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>3521</v>
+        <v>3524</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>3522</v>
+        <v>3525</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>2863</v>
@@ -48319,29 +48412,29 @@
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="2" t="s">
-        <v>3523</v>
+        <v>3526</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3524</v>
+        <v>3527</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>3525</v>
+        <v>3528</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>3526</v>
+        <v>3529</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>3527</v>
+        <v>3530</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -48355,20 +48448,20 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="2" t="s">
-        <v>3528</v>
+        <v>3531</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>3529</v>
+        <v>3532</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>3530</v>
+        <v>3533</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>2863</v>
@@ -48391,20 +48484,20 @@
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="2" t="s">
-        <v>3531</v>
+        <v>3534</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>3532</v>
+        <v>3535</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>3533</v>
+        <v>3536</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3431</v>
@@ -48413,7 +48506,7 @@
         <v>2864</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>3534</v>
+        <v>3537</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -48427,29 +48520,29 @@
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="2" t="s">
-        <v>3535</v>
+        <v>3538</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>3536</v>
+        <v>3539</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>3537</v>
+        <v>3540</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>3538</v>
+        <v>3541</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>3539</v>
+        <v>3542</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -48463,29 +48556,29 @@
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="2" t="s">
-        <v>3540</v>
+        <v>3543</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>3541</v>
+        <v>3544</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>3542</v>
+        <v>3545</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>3543</v>
+        <v>3546</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>3544</v>
+        <v>3547</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -48502,26 +48595,26 @@
         <v>1856</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>3545</v>
+        <v>3548</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>3546</v>
+        <v>3549</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>3547</v>
+        <v>3550</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>3548</v>
+        <v>3551</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -48538,17 +48631,17 @@
         <v>619</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>3549</v>
+        <v>3552</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>3550</v>
+        <v>3553</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>2863</v>
@@ -48574,26 +48667,26 @@
         <v>1770</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>3551</v>
+        <v>3554</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>3552</v>
+        <v>3555</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>3538</v>
+        <v>3541</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>3553</v>
+        <v>3556</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -48610,26 +48703,26 @@
         <v>1103</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>3554</v>
+        <v>3557</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>3555</v>
+        <v>3558</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>3556</v>
+        <v>3559</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>3557</v>
+        <v>3560</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -48643,28 +48736,28 @@
     </row>
     <row r="27" ht="14.25">
       <c r="A27" s="2" t="s">
-        <v>3558</v>
+        <v>3561</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>3559</v>
+        <v>3562</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>3560</v>
+        <v>3563</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>3481</v>
+        <v>3484</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I27" s="10"/>
+      <c r="I27" s="9"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -48680,17 +48773,17 @@
         <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>3561</v>
+        <v>3564</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>3562</v>
+        <v>3565</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>3431</v>
@@ -48699,7 +48792,7 @@
         <v>2864</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>3563</v>
+        <v>3566</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -48756,17 +48849,17 @@
         <v>9</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3564</v>
+        <v>3567</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>3565</v>
+        <v>3568</v>
       </c>
       <c r="D31" t="s">
-        <v>3566</v>
+        <v>3569</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>3431</v>
@@ -48775,7 +48868,7 @@
         <v>2864</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>3567</v>
+        <v>3570</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -48789,23 +48882,23 @@
         <v>397</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>3568</v>
+        <v>3571</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>3572</v>
+      </c>
+      <c r="D32" t="s">
         <v>3569</v>
-      </c>
-      <c r="D32" t="s">
-        <v>3566</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>3570</v>
+        <v>3573</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -48819,23 +48912,23 @@
         <v>3111</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>3571</v>
+        <v>3574</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>3572</v>
+        <v>3575</v>
       </c>
       <c r="D33" t="s">
-        <v>3566</v>
+        <v>3569</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>3573</v>
+        <v>3576</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -48849,23 +48942,23 @@
         <v>3115</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>3574</v>
+        <v>3577</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>3575</v>
+        <v>3578</v>
       </c>
       <c r="D34" t="s">
-        <v>3566</v>
+        <v>3569</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>3359</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>3576</v>
+        <v>3579</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -48879,23 +48972,23 @@
         <v>3437</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>3577</v>
+        <v>3580</v>
       </c>
       <c r="C35" t="s">
-        <v>3578</v>
+        <v>3581</v>
       </c>
       <c r="D35" t="s">
-        <v>3566</v>
+        <v>3569</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>3579</v>
+        <v>3582</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -48909,23 +49002,23 @@
         <v>3119</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>3580</v>
+        <v>3583</v>
       </c>
       <c r="C36" t="s">
-        <v>3581</v>
+        <v>3584</v>
       </c>
       <c r="D36" t="s">
-        <v>3566</v>
+        <v>3569</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>3582</v>
+        <v>3585</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -48939,23 +49032,23 @@
         <v>3459</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>3583</v>
+        <v>3586</v>
       </c>
       <c r="C37" t="s">
-        <v>3584</v>
+        <v>3587</v>
       </c>
       <c r="D37" t="s">
-        <v>3566</v>
+        <v>3569</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>3585</v>
+        <v>3588</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -48969,23 +49062,23 @@
         <v>3463</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>3586</v>
+        <v>3589</v>
       </c>
       <c r="C38" t="s">
-        <v>3587</v>
+        <v>3590</v>
       </c>
       <c r="D38" t="s">
-        <v>3566</v>
+        <v>3569</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>3588</v>
+        <v>3591</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -48999,23 +49092,23 @@
         <v>3467</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>3589</v>
+        <v>3592</v>
       </c>
       <c r="C39" t="s">
-        <v>3590</v>
+        <v>3593</v>
       </c>
       <c r="D39" t="s">
-        <v>3566</v>
+        <v>3569</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>3591</v>
+        <v>3594</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -49026,20 +49119,20 @@
     </row>
     <row r="40" ht="14.25">
       <c r="A40" s="2" t="s">
-        <v>3592</v>
+        <v>3595</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>3593</v>
+        <v>3596</v>
       </c>
       <c r="C40" t="s">
-        <v>3594</v>
+        <v>3597</v>
       </c>
       <c r="D40" t="s">
-        <v>3566</v>
+        <v>3569</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>2864</v>
@@ -49059,19 +49152,19 @@
     <row r="42" ht="14.25"/>
     <row r="43" ht="14.25">
       <c r="A43" s="5" t="s">
-        <v>3595</v>
+        <v>3598</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>3596</v>
+        <v>3599</v>
       </c>
       <c r="C43" t="s">
-        <v>3597</v>
+        <v>3600</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>3598</v>
+        <v>3601</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>2863</v>
@@ -49085,19 +49178,19 @@
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="5" t="s">
-        <v>3599</v>
+        <v>3602</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>3600</v>
+        <v>3603</v>
       </c>
       <c r="C44" t="s">
+        <v>3604</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>3601</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3598</v>
-      </c>
       <c r="F44" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>2863</v>
@@ -49114,26 +49207,26 @@
         <v>3111</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>3602</v>
+        <v>3605</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>3603</v>
+        <v>3606</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>3598</v>
+        <v>3601</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>2863</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>3604</v>
+        <v>3607</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>3598</v>
+        <v>3601</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -49146,19 +49239,19 @@
     <row r="47" ht="14.25"/>
     <row r="48" ht="14.25">
       <c r="A48" s="5" t="s">
-        <v>3605</v>
+        <v>3608</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>3606</v>
+        <v>3609</v>
       </c>
       <c r="C48" t="s">
-        <v>3607</v>
+        <v>3610</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>3608</v>
+        <v>3611</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3127</v>
@@ -49167,25 +49260,25 @@
         <v>2864</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>3609</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="49" ht="14.25"/>
     <row r="50" ht="14.25">
       <c r="A50" s="2" t="s">
-        <v>3610</v>
+        <v>3613</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>3611</v>
+        <v>3614</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>3612</v>
+        <v>3615</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>3613</v>
+        <v>3616</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>3127</v>
@@ -49194,7 +49287,7 @@
         <v>2864</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>3614</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="51" ht="14.25">
@@ -49202,16 +49295,16 @@
         <v>3052</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>3615</v>
+        <v>3618</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>3619</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>3616</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>3613</v>
-      </c>
       <c r="F51" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>3127</v>
@@ -49220,7 +49313,7 @@
         <v>2864</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>3617</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="52" ht="14.25"/>
@@ -49229,19 +49322,19 @@
     <row r="55" ht="14.25"/>
     <row r="56" ht="14.25">
       <c r="A56" s="5" t="s">
-        <v>3618</v>
+        <v>3621</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>3619</v>
+        <v>3622</v>
       </c>
       <c r="C56" t="s">
-        <v>3620</v>
+        <v>3623</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>3621</v>
+        <v>3624</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>3127</v>
@@ -49250,24 +49343,24 @@
         <v>2864</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>3614</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="57" ht="14.25">
       <c r="A57" s="2" t="s">
-        <v>3622</v>
+        <v>3625</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>3623</v>
+        <v>3626</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>3624</v>
+        <v>3627</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>3625</v>
+        <v>3628</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3127</v>
@@ -49276,23 +49369,23 @@
         <v>2864</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>3626</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="58" ht="14.25"/>
     <row r="60" ht="14.25">
       <c r="A60" s="5"/>
       <c r="B60" s="3" t="s">
-        <v>3627</v>
+        <v>3630</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>3628</v>
+        <v>3631</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>3629</v>
+        <v>3632</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>2863</v>
@@ -49307,19 +49400,19 @@
     </row>
     <row r="61" ht="14.25">
       <c r="A61" s="5" t="s">
-        <v>3630</v>
+        <v>3633</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>3631</v>
+        <v>3634</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>3632</v>
+        <v>3635</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>3633</v>
+        <v>3636</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>2863</v>
@@ -49348,7 +49441,7 @@
         <v>3146</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>2863</v>
@@ -49374,7 +49467,7 @@
         <v>3146</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>2863</v>
@@ -49400,7 +49493,7 @@
         <v>3146</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>2863</v>
@@ -49426,7 +49519,7 @@
         <v>3146</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>2863</v>
@@ -49452,7 +49545,7 @@
         <v>3146</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>2863</v>
@@ -49478,7 +49571,7 @@
         <v>3146</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>2863</v>
@@ -49504,7 +49597,7 @@
         <v>3146</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>2863</v>
@@ -49530,7 +49623,7 @@
         <v>3146</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>2863</v>
@@ -49556,7 +49649,7 @@
         <v>3146</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>2863</v>
@@ -49573,17 +49666,17 @@
         <v>139</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>3634</v>
+        <v>3637</v>
       </c>
       <c r="C75" t="s">
-        <v>3635</v>
+        <v>3638</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>3636</v>
+        <v>3639</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="3" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>2863</v>
@@ -49600,17 +49693,17 @@
         <v>140</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>3637</v>
+        <v>3640</v>
       </c>
       <c r="C76" t="s">
-        <v>3638</v>
+        <v>3641</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>3639</v>
+        <v>3642</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="3" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>2863</v>
@@ -49619,7 +49712,7 @@
         <v>2864</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>3640</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="77" ht="14.25">
@@ -49627,17 +49720,17 @@
         <v>143</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>3641</v>
+        <v>3644</v>
       </c>
       <c r="C77" t="s">
-        <v>3642</v>
+        <v>3645</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>3643</v>
+        <v>3646</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="3" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>2863</v>
@@ -49654,17 +49747,17 @@
         <v>137</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>3644</v>
+        <v>3647</v>
       </c>
       <c r="C78" t="s">
-        <v>3645</v>
+        <v>3648</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>3646</v>
+        <v>3649</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="3" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>2863</v>
@@ -49684,17 +49777,17 @@
         <v>23</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>3647</v>
+        <v>3650</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>3648</v>
+        <v>3651</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>3649</v>
+        <v>3652</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="3" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>2863</v>
@@ -49711,17 +49804,17 @@
         <v>24</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>3650</v>
+        <v>3653</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>3651</v>
+        <v>3654</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>3076</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="3" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>2863</v>
@@ -49738,17 +49831,17 @@
         <v>25</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>3652</v>
+        <v>3655</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>3653</v>
+        <v>3656</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>3654</v>
+        <v>3657</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="3" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>2863</v>
@@ -49765,17 +49858,17 @@
         <v>26</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>3655</v>
+        <v>3658</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>3656</v>
+        <v>3659</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>3657</v>
+        <v>3660</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="3" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>2863</v>
@@ -49792,17 +49885,17 @@
         <v>27</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>3658</v>
+        <v>3661</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>3659</v>
+        <v>3662</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>3090</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="3" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>2863</v>
@@ -49823,17 +49916,17 @@
         <v>75</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>3660</v>
+        <v>3663</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>3661</v>
+        <v>3664</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>3090</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="3" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>2863</v>
@@ -49850,17 +49943,17 @@
         <v>76</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>3662</v>
+        <v>3665</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>3663</v>
+        <v>3666</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3090</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="3" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>2863</v>
@@ -49877,19 +49970,19 @@
         <v>67</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>3664</v>
+        <v>3667</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>3665</v>
+        <v>3668</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>3666</v>
+        <v>3669</v>
       </c>
       <c r="E92" s="2">
         <v>1921</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>2863</v>
@@ -49906,17 +49999,17 @@
         <v>6</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>3667</v>
+        <v>3670</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>3668</v>
+        <v>3671</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>3666</v>
+        <v>3669</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>2863</v>
@@ -49931,13 +50024,13 @@
         <v>2</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>3669</v>
+        <v>3672</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>3670</v>
+        <v>3673</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>3671</v>
+        <v>3674</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="8"/>
@@ -49954,13 +50047,13 @@
         <v>3</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>3672</v>
+        <v>3675</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>3673</v>
+        <v>3676</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>3674</v>
+        <v>3677</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="8"/>
@@ -49977,13 +50070,13 @@
         <v>8</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>3675</v>
+        <v>3678</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>3676</v>
+        <v>3679</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>3629</v>
+        <v>3632</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="8"/>
@@ -50000,13 +50093,13 @@
         <v>10</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>3677</v>
+        <v>3680</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>3678</v>
+        <v>3681</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>3679</v>
+        <v>3682</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="8"/>
@@ -50023,13 +50116,13 @@
         <v>11</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>3680</v>
+        <v>3683</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>3681</v>
+        <v>3684</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>3682</v>
+        <v>3685</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="8"/>
@@ -50050,13 +50143,13 @@
         <v>21</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>3683</v>
+        <v>3686</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>3684</v>
+        <v>3687</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>3685</v>
+        <v>3688</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="8"/>
@@ -50073,13 +50166,13 @@
         <v>47</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>3686</v>
+        <v>3689</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>3687</v>
+        <v>3690</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>3685</v>
+        <v>3688</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="8"/>
@@ -50096,13 +50189,13 @@
         <v>29</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>3688</v>
+        <v>3691</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>3689</v>
+        <v>3692</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>3690</v>
+        <v>3693</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="8"/>
@@ -50119,13 +50212,13 @@
         <v>35</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>3691</v>
+        <v>3694</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>3692</v>
+        <v>3695</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>3690</v>
+        <v>3693</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="8"/>
@@ -50142,13 +50235,13 @@
         <v>91</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>3697</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>3693</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>3694</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>3690</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="8"/>
@@ -50165,10 +50258,10 @@
         <v>18</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>3695</v>
+        <v>3698</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>3696</v>
+        <v>3699</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>3263</v>
@@ -50188,10 +50281,10 @@
         <v>17</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>3697</v>
+        <v>3700</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>3698</v>
+        <v>3701</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>3263</v>
@@ -50211,13 +50304,13 @@
         <v>69</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>3699</v>
+        <v>3702</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>3700</v>
+        <v>3703</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>3701</v>
+        <v>3704</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="8"/>
@@ -50234,13 +50327,13 @@
         <v>624</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>3702</v>
+        <v>3705</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>3703</v>
+        <v>3706</v>
       </c>
       <c r="D117" t="s">
-        <v>3704</v>
+        <v>3707</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="8"/>
@@ -50251,7 +50344,7 @@
         <v>2864</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>3705</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="118" ht="14.25">
@@ -50263,13 +50356,13 @@
         <v>3</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>3706</v>
+        <v>3709</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>3707</v>
+        <v>3710</v>
       </c>
       <c r="D119" t="s">
-        <v>3708</v>
+        <v>3711</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="8"/>
@@ -50280,7 +50373,7 @@
         <v>2864</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>3709</v>
+        <v>3712</v>
       </c>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
@@ -50294,13 +50387,13 @@
         <v>4</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>3710</v>
+        <v>3713</v>
       </c>
       <c r="C120" s="3" t="s">
+        <v>3714</v>
+      </c>
+      <c r="D120" t="s">
         <v>3711</v>
-      </c>
-      <c r="D120" t="s">
-        <v>3708</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="8"/>
@@ -50311,7 +50404,7 @@
         <v>2864</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>3712</v>
+        <v>3715</v>
       </c>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
@@ -50325,13 +50418,13 @@
         <v>5</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>3713</v>
+        <v>3716</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>3714</v>
+        <v>3717</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>3708</v>
+        <v>3711</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="8"/>
@@ -50342,7 +50435,7 @@
         <v>2864</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>3715</v>
+        <v>3718</v>
       </c>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
@@ -50356,13 +50449,13 @@
         <v>6</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>3716</v>
+        <v>3719</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>3717</v>
+        <v>3720</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>3708</v>
+        <v>3711</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="8"/>
@@ -50373,7 +50466,7 @@
         <v>2864</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>3718</v>
+        <v>3721</v>
       </c>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
@@ -50391,10 +50484,10 @@
         <v>397</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>3719</v>
+        <v>3722</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>3720</v>
+        <v>3723</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>3450</v>
@@ -50408,7 +50501,7 @@
         <v>3359</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>3721</v>
+        <v>3724</v>
       </c>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
@@ -50585,20 +50678,20 @@
     </row>
     <row r="134" ht="14.25">
       <c r="C134" t="s">
-        <v>3722</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="135" ht="14.25">
       <c r="C135" t="s">
-        <v>3723</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="140" ht="14.25">
       <c r="C140" t="s">
-        <v>3724</v>
+        <v>3727</v>
       </c>
       <c r="D140" t="s">
-        <v>3725</v>
+        <v>3728</v>
       </c>
       <c r="H140" s="3" t="s">
         <v>3359</v>
@@ -50606,12 +50699,12 @@
     </row>
     <row r="144" ht="14.25">
       <c r="C144" t="s">
-        <v>3726</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="145" ht="14.25">
       <c r="C145" t="s">
-        <v>3727</v>
+        <v>3730</v>
       </c>
     </row>
   </sheetData>
@@ -50625,7 +50718,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -50670,42 +50763,64 @@
     <row r="2"/>
     <row r="3">
       <c r="C3" s="6" t="s">
-        <v>3728</v>
+        <v>3731</v>
       </c>
       <c r="D3" t="s">
-        <v>3729</v>
-      </c>
-    </row>
-    <row r="4"/>
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="6" t="s">
+        <v>3733</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3734</v>
+      </c>
+    </row>
     <row r="5">
       <c r="C5" s="6" t="s">
-        <v>3730</v>
+        <v>3735</v>
       </c>
       <c r="D5" t="s">
-        <v>3731</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="6" t="s">
-        <v>3732</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3733</v>
-      </c>
-      <c r="I6" t="s">
-        <v>3734</v>
-      </c>
+        <v>3736</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>3738</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>3739</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3740</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>3735</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="7" t="s">
-        <v>3736</v>
+        <v>3741</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>3737</v>
+        <v>3742</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -50722,13 +50837,14 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>3464</v>
+      </c>
       <c r="C8" s="7" t="s">
-        <v>3738</v>
+        <v>3465</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>3739</v>
+        <v>3742</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
@@ -50742,19 +50858,21 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
     </row>
     <row r="9" ht="14.25">
+      <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>3464</v>
+        <v>3743</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>3465</v>
+        <v>3744</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>3739</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>3745</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2004</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -50768,18 +50886,16 @@
       <c r="P9" s="3"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>3740</v>
-      </c>
+      <c r="A10" s="10"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="7" t="s">
-        <v>3741</v>
+        <v>3746</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>3742</v>
+        <v>3745</v>
       </c>
       <c r="E10" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -50794,16 +50910,16 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="7" t="s">
-        <v>3743</v>
+        <v>3747</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>3742</v>
+        <v>3745</v>
       </c>
       <c r="E11" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -50818,16 +50934,16 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="7" t="s">
-        <v>3744</v>
+        <v>3748</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>3742</v>
+        <v>3745</v>
       </c>
       <c r="E12" s="2">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -50842,16 +50958,16 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="7" t="s">
+        <v>3749</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>3745</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>3742</v>
-      </c>
       <c r="E13" s="2">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -50869,13 +50985,13 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="7" t="s">
-        <v>3746</v>
+        <v>3750</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>3742</v>
+        <v>3745</v>
       </c>
       <c r="E14" s="2">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -50890,17 +51006,16 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>3751</v>
+      </c>
       <c r="C15" s="7" t="s">
-        <v>3747</v>
+        <v>3752</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>3742</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2015</v>
-      </c>
+        <v>3753</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -50914,14 +51029,15 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" ht="14.25">
+      <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>3748</v>
+        <v>3754</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>3749</v>
+        <v>3755</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3750</v>
+        <v>3753</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
@@ -50938,14 +51054,12 @@
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>3751</v>
-      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="7" t="s">
-        <v>3752</v>
+        <v>3756</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>3750</v>
+        <v>3753</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
@@ -50964,12 +51078,14 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="7" t="s">
-        <v>3753</v>
+        <v>3757</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>3750</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>3758</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1963</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -50981,18 +51097,20 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="7" t="s">
-        <v>3754</v>
+        <v>3759</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>3755</v>
+        <v>3758</v>
       </c>
       <c r="E19" s="2">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -51012,13 +51130,13 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="7" t="s">
-        <v>3756</v>
+        <v>3760</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>3755</v>
+        <v>3758</v>
       </c>
       <c r="E20" s="2">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -51038,13 +51156,13 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="7" t="s">
-        <v>3757</v>
+        <v>3761</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>3755</v>
+        <v>3758</v>
       </c>
       <c r="E21" s="2">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -51064,13 +51182,13 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>3758</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3755</v>
-      </c>
       <c r="E22" s="2">
-        <v>1967</v>
+        <v>1975</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -51090,13 +51208,13 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="7" t="s">
-        <v>3759</v>
+        <v>3763</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>3755</v>
+        <v>3758</v>
       </c>
       <c r="E23" s="2">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -51116,13 +51234,13 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="7" t="s">
-        <v>3760</v>
+        <v>3764</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>3755</v>
+        <v>3758</v>
       </c>
       <c r="E24" s="2">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -51142,13 +51260,13 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="7" t="s">
-        <v>3761</v>
+        <v>3765</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>3755</v>
+        <v>3758</v>
       </c>
       <c r="E25" s="2">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -51168,13 +51286,13 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="7" t="s">
-        <v>3762</v>
+        <v>3766</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3755</v>
+        <v>3758</v>
       </c>
       <c r="E26" s="2">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -51194,13 +51312,13 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="7" t="s">
-        <v>3763</v>
+        <v>3767</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>3755</v>
+        <v>3758</v>
       </c>
       <c r="E27" s="2">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -51220,13 +51338,13 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="7" t="s">
-        <v>3764</v>
+        <v>3768</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>3755</v>
+        <v>3758</v>
       </c>
       <c r="E28" s="2">
-        <v>1987</v>
+        <v>1993</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -51246,13 +51364,13 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="7" t="s">
-        <v>3765</v>
+        <v>3769</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>3755</v>
+        <v>3758</v>
       </c>
       <c r="E29" s="2">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -51272,13 +51390,13 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="7" t="s">
-        <v>3766</v>
+        <v>3770</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>3755</v>
+        <v>3758</v>
       </c>
       <c r="E30" s="2">
-        <v>1995</v>
+        <v>2002</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -51298,10 +51416,10 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="7" t="s">
-        <v>3767</v>
+        <v>3771</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>3755</v>
+        <v>3758</v>
       </c>
       <c r="E31" s="2">
         <v>2002</v>
@@ -51324,13 +51442,13 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="7" t="s">
-        <v>3768</v>
+        <v>3772</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>3755</v>
+        <v>3758</v>
       </c>
       <c r="E32" s="2">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -51350,13 +51468,13 @@
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="7" t="s">
-        <v>3769</v>
+        <v>3773</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>3755</v>
+        <v>3758</v>
       </c>
       <c r="E33" s="2">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -51376,13 +51494,13 @@
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="7" t="s">
-        <v>3770</v>
+        <v>3774</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>3755</v>
+        <v>3758</v>
       </c>
       <c r="E34" s="2">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -51400,16 +51518,16 @@
     </row>
     <row r="35" ht="14.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="7" t="s">
-        <v>3771</v>
+      <c r="B35" s="3" t="s">
+        <v>3775</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>3776</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>3755</v>
-      </c>
-      <c r="E35" s="2">
-        <v>2012</v>
-      </c>
+        <v>3777</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -51422,18 +51540,16 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>3772</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>3773</v>
+        <v>3778</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>3779</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>3774</v>
+        <v>3777</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="3"/>
@@ -51450,14 +51566,15 @@
       <c r="Q36" s="3"/>
     </row>
     <row r="37" ht="14.25">
+      <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>3775</v>
+        <v>3780</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>3776</v>
+        <v>3781</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>3774</v>
+        <v>3782</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
@@ -51471,18 +51588,16 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>3777</v>
+        <v>3783</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>3778</v>
+        <v>3784</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>3779</v>
+        <v>3785</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
@@ -51498,14 +51613,15 @@
       <c r="P38" s="3"/>
     </row>
     <row r="39" ht="14.25">
+      <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>3780</v>
+        <v>3786</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>3781</v>
+        <v>3787</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>3782</v>
+        <v>3785</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
@@ -51521,15 +51637,14 @@
       <c r="P39" s="3"/>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>3783</v>
+        <v>3788</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>3784</v>
+        <v>3789</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>3782</v>
+        <v>3785</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="3"/>
@@ -51545,14 +51660,15 @@
       <c r="P40" s="3"/>
     </row>
     <row r="41" ht="14.25">
+      <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
+        <v>3790</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>3791</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>3785</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>3786</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>3782</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="3"/>
@@ -51567,532 +51683,508 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
     </row>
-    <row r="42" ht="14.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
-        <v>3787</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>3788</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>3782</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-    </row>
+    <row r="43" ht="14.25"/>
     <row r="44" ht="14.25"/>
     <row r="45" ht="14.25"/>
-    <row r="46" ht="14.25"/>
+    <row r="46" ht="14.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>3792</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>3793</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>3794</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>3795</v>
+      </c>
+    </row>
     <row r="47" ht="14.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>3789</v>
+        <v>3796</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>3790</v>
+        <v>3797</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>3791</v>
+        <v>3794</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>3792</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>3793</v>
+        <v>3798</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>3799</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>3794</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3791</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>3792</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>3795</v>
+        <v>3801</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>3796</v>
+        <v>3802</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>3791</v>
+        <v>3794</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>3797</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="50" ht="14.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>3798</v>
+        <v>3804</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>3799</v>
+        <v>3805</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>3791</v>
+        <v>3794</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>3800</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>3801</v>
+        <v>3806</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>3802</v>
+        <v>3807</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>3791</v>
+        <v>3794</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>3800</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="52" ht="14.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
+        <v>3808</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>3809</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>3794</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>3803</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>3804</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>3791</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>3800</v>
       </c>
     </row>
     <row r="53" ht="14.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
-        <v>3805</v>
+        <v>3810</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>3806</v>
+        <v>3811</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>3791</v>
+        <v>3794</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>3800</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="54" ht="14.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
-        <v>3807</v>
+        <v>3812</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>3808</v>
+        <v>3813</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>3791</v>
+        <v>3814</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>3800</v>
+        <v>3815</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3" t="s">
+        <v>3816</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>3818</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>3813</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>3814</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>3815</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3" t="s">
+        <v>3816</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>3819</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>3813</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>3814</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>3815</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3" t="s">
+        <v>3816</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>3817</v>
       </c>
     </row>
     <row r="57" ht="14.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>3809</v>
+        <v>3820</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>3810</v>
+        <v>3813</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>3811</v>
+        <v>3814</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>3812</v>
+        <v>3815</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
-        <v>3813</v>
+        <v>3816</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>3814</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="58" ht="14.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
-        <v>3815</v>
+        <v>3821</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>3810</v>
+        <v>3813</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>3811</v>
+        <v>3814</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>3812</v>
+        <v>3822</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
-        <v>3813</v>
+        <v>3816</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>3814</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="59" ht="14.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
-        <v>3816</v>
+        <v>3824</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>3810</v>
+        <v>3813</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>3811</v>
+        <v>3814</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>3812</v>
+        <v>3815</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>3813</v>
+        <v>3816</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>3814</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="60" ht="14.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
-        <v>3817</v>
+        <v>3825</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>3810</v>
+        <v>3813</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>3811</v>
+        <v>3814</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>3812</v>
+        <v>3815</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>3813</v>
+        <v>3816</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>3814</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="61" ht="14.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
-        <v>3818</v>
+        <v>3826</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>3810</v>
+        <v>3813</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>3811</v>
+        <v>3814</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>3819</v>
+        <v>3815</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>3813</v>
+        <v>3816</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>3820</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="62" ht="14.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
-        <v>3821</v>
+        <v>3827</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>3810</v>
+        <v>3813</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>3811</v>
+        <v>3814</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>3812</v>
+        <v>3815</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>3813</v>
+        <v>3816</v>
       </c>
       <c r="L62" s="3" t="s">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="C63" s="6"/>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3" t="s">
+        <v>3828</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>3829</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>3814</v>
       </c>
-    </row>
-    <row r="63" ht="14.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3" t="s">
-        <v>3822</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>3810</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>3811</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>3812</v>
-      </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3" t="s">
-        <v>3813</v>
-      </c>
-      <c r="L63" s="3" t="s">
+      <c r="E66" s="2" t="s">
+        <v>3830</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3831</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>3832</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>3833</v>
+      </c>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3" t="s">
+        <v>3834</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3" t="s">
+        <v>3836</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>3837</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>3838</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>3839</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>3840</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>3841</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>3842</v>
+      </c>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3" t="s">
+        <v>3843</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3" t="s">
+        <v>3845</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>3846</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>3814</v>
       </c>
-    </row>
-    <row r="64" ht="14.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3" t="s">
-        <v>3823</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>3810</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>3811</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>3812</v>
-      </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3" t="s">
-        <v>3813</v>
-      </c>
-      <c r="L64" s="3" t="s">
+      <c r="E68" s="2" t="s">
+        <v>3847</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>3848</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>3849</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>3850</v>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3" t="s">
+        <v>3851</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="A72" s="3">
+        <v>32</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>3853</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>3854</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>3814</v>
       </c>
-    </row>
-    <row r="65" ht="14.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3" t="s">
-        <v>3824</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>3810</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>3811</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>3812</v>
-      </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3" t="s">
-        <v>3813</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>3814</v>
-      </c>
-    </row>
-    <row r="66" ht="14.25">
-      <c r="C66" s="6"/>
-    </row>
-    <row r="69" ht="14.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3" t="s">
-        <v>3825</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>3826</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>3811</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>3827</v>
-      </c>
-      <c r="F69" s="3" t="s">
+      <c r="E72" s="3" t="s">
+        <v>3830</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>3828</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>3829</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>3830</v>
-      </c>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3" t="s">
-        <v>3831</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>3832</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3" t="s">
+      <c r="G72" s="3" t="s">
+        <v>3855</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3856</v>
+      </c>
+      <c r="I72" s="3" t="s">
         <v>3833</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>3834</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>3835</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>3836</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>3837</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>3838</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>3839</v>
-      </c>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3" t="s">
-        <v>3840</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>3841</v>
-      </c>
-    </row>
-    <row r="71" ht="14.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3" t="s">
-        <v>3842</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>3843</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>3811</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>3844</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>3845</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>3846</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>3847</v>
-      </c>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3" t="s">
-        <v>3848</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>3849</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25">
-      <c r="A75" s="3">
-        <v>32</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>3850</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>3851</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>3811</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>3827</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>3852</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>3853</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>3830</v>
-      </c>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3" t="s">
-        <v>3854</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>3855</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3" t="s">
+        <v>3857</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>3858</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -52105,14 +52197,15 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="3" max="3" width="71.421875"/>
-    <col customWidth="1" min="4" max="4" width="24.140625"/>
+    <col customWidth="1" min="4" max="4" width="35.7109375"/>
     <col customWidth="1" min="6" max="6" width="21.00390625"/>
   </cols>
   <sheetData>
@@ -52146,381 +52239,450 @@
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="C3" s="12" t="s">
-        <v>3856</v>
+      <c r="C3" s="11" t="s">
+        <v>3859</v>
       </c>
       <c r="F3" t="s">
-        <v>3857</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="C4" s="12" t="s">
-        <v>3858</v>
+      <c r="C4" s="11" t="s">
+        <v>3861</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3862</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>3857</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="C5" s="12" t="s">
-        <v>3859</v>
+      <c r="C5" s="11" t="s">
+        <v>3863</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>3864</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>3857</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="C6" t="s">
+      <c r="C6" s="11" t="s">
+        <v>3865</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3866</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>3860</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3857</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="C7" t="s">
-        <v>3861</v>
+        <v>3867</v>
       </c>
       <c r="D7" t="s">
-        <v>3862</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>3857</v>
+        <v>3868</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3860</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="C8" s="8" t="s">
-        <v>3863</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>3864</v>
+      <c r="C8" t="s">
+        <v>3869</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3870</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>3857</v>
-      </c>
-      <c r="I8" s="8"/>
+        <v>3860</v>
+      </c>
     </row>
     <row r="9" ht="14.25">
       <c r="C9" s="8" t="s">
-        <v>3865</v>
+        <v>3871</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>3866</v>
+        <v>3872</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>3857</v>
-      </c>
+        <v>3860</v>
+      </c>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="F10" s="3"/>
+      <c r="C10" s="8" t="s">
+        <v>3873</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>3874</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>3860</v>
+      </c>
     </row>
     <row r="11" ht="14.25">
       <c r="C11" s="13" t="s">
-        <v>3867</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="F11" s="3"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" ht="14.25"/>
+        <v>3875</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3876</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3877</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="C12" s="13" t="s">
+        <v>3878</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3879</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>3877</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="C13" s="13" t="s">
+        <v>3880</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3881</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>3877</v>
+      </c>
+    </row>
     <row r="14" ht="14.25">
-      <c r="C14" s="12" t="s">
-        <v>3868</v>
+      <c r="C14" s="13" t="s">
+        <v>3882</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3883</v>
       </c>
       <c r="F14" t="s">
-        <v>3869</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="C15" s="3" t="s">
-        <v>3870</v>
+      <c r="C15" s="13" t="s">
+        <v>3884</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3885</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3877</v>
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="C16" s="3" t="s">
-        <v>3871</v>
+      <c r="C16" s="13" t="s">
+        <v>3886</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3887</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>3877</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="C17" s="13" t="s">
+        <v>3888</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3887</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>3877</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="C18" s="13" t="s">
+        <v>3889</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3890</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>3877</v>
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="C19" s="12" t="s">
-        <v>3872</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" t="s">
-        <v>3873</v>
+      <c r="C19" s="15" t="s">
+        <v>3891</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3892</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>3877</v>
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="C20" s="12" t="s">
-        <v>3874</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>3875</v>
-      </c>
-      <c r="E20" s="3"/>
+      <c r="C20" s="13" t="s">
+        <v>3877</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3446</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3877</v>
+      </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="C21" s="12" t="s">
-        <v>3876</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="C21" s="16" t="s">
+        <v>3893</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3894</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>3877</v>
       </c>
-      <c r="E21" s="3"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="C22" s="13" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3896</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3877</v>
+      </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" ht="14.25"/>
+      <c r="C23" t="s">
+        <v>3897</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3898</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="C24" s="11" t="s">
+        <v>3900</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3901</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3899</v>
+      </c>
+    </row>
     <row r="25" ht="14.25">
-      <c r="C25" s="3" t="s">
-        <v>3878</v>
+      <c r="C25" s="11" t="s">
+        <v>3902</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>3903</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" t="s">
+        <v>3899</v>
       </c>
     </row>
     <row r="26" ht="14.25">
-      <c r="C26" s="12" t="s">
-        <v>3879</v>
-      </c>
+      <c r="C26" s="11" t="s">
+        <v>3904</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>3905</v>
+      </c>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="C27" s="3" t="s">
-        <v>3880</v>
-      </c>
+      <c r="C27" s="11" t="s">
+        <v>3906</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>3907</v>
+      </c>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="C28" s="3" t="s">
-        <v>3881</v>
-      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="C29" s="3" t="s">
-        <v>3882</v>
+      <c r="C29" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>3909</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" t="s">
+        <v>3910</v>
       </c>
     </row>
     <row r="30" ht="14.25">
-      <c r="C30" s="3" t="s">
-        <v>3883</v>
+      <c r="C30" t="s">
+        <v>3911</v>
       </c>
     </row>
     <row r="31" ht="14.25">
-      <c r="C31" s="3" t="s">
-        <v>3884</v>
-      </c>
+      <c r="C31" s="12"/>
+      <c r="F31"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="C32" s="3" t="s">
-        <v>3885</v>
-      </c>
+      <c r="C32" s="12"/>
     </row>
     <row r="33" ht="14.25">
       <c r="C33" s="3" t="s">
-        <v>3886</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="34" ht="14.25">
-      <c r="C34" s="3" t="s">
-        <v>3887</v>
+      <c r="C34" s="11" t="s">
+        <v>3913</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="C35" s="3" t="s">
-        <v>3888</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="C36" s="3" t="s">
-        <v>3889</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="C37" s="3" t="s">
-        <v>3890</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="38" ht="14.25">
       <c r="C38" s="3" t="s">
-        <v>3891</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="39" ht="14.25">
       <c r="C39" s="3" t="s">
-        <v>3892</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="40" ht="14.25">
       <c r="C40" s="3" t="s">
-        <v>3893</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="41" ht="14.25">
       <c r="C41" s="3" t="s">
-        <v>3894</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="42" ht="14.25">
       <c r="C42" s="3" t="s">
-        <v>3895</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="43" ht="14.25">
       <c r="C43" s="3" t="s">
-        <v>3896</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="C44" s="3" t="s">
-        <v>3897</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="45" ht="14.25">
-      <c r="C45" s="14"/>
+      <c r="C45" s="3" t="s">
+        <v>3924</v>
+      </c>
     </row>
     <row r="46" ht="14.25">
       <c r="C46" s="3" t="s">
-        <v>3898</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="C47" s="3" t="s">
-        <v>3899</v>
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="C48" s="3" t="s">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="C49" s="3" t="s">
+        <v>3928</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="C50" s="3" t="s">
+        <v>3929</v>
       </c>
     </row>
     <row r="51" ht="14.25">
-      <c r="C51" t="s">
-        <v>3900</v>
+      <c r="C51" s="3" t="s">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="C52" s="3" t="s">
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="C53" s="17"/>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="C54" s="3" t="s">
+        <v>3932</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="C55" s="3" t="s">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="C59" t="s">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25"/>
+    <row r="61" ht="14.25"/>
+    <row r="62" ht="14.25"/>
+    <row r="63" ht="14.25"/>
+    <row r="64" ht="14.25">
+      <c r="C64" s="3" t="s">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25"/>
+    <row r="66" ht="14.25"/>
+    <row r="67" ht="14.25"/>
+    <row r="68" ht="14.25"/>
+    <row r="69" ht="14.25"/>
+    <row r="70" ht="14.25"/>
+    <row r="71" ht="14.25"/>
+    <row r="75" ht="14.25"/>
+    <row r="81" ht="14.25">
+      <c r="C81" s="3" t="s">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="C82" t="s">
+        <v>3937</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="72.7109375"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>3901</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>3902</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>3903</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>3904</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>3905</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>3906</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>3907</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>3908</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>3909</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25"/>
-    <row r="13" ht="14.25"/>
-    <row r="14" ht="14.25">
-      <c r="A14" s="15" t="s">
-        <v>3910</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="D14" t="s">
-        <v>3911</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="A15" s="3" t="s">
-        <v>3912</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="D15" t="s">
-        <v>3446</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="A16" s="16" t="s">
-        <v>3913</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="A16"/>
-  </hyperlinks>
+  <autoFilter ref="A1:I1"/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/Selected_Downloads.xlsx
+++ b/Selected_Downloads.xlsx
@@ -15,13 +15,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">_X_!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">_X_!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3938" uniqueCount="3938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3974" uniqueCount="3974">
   <si>
     <t>Index</t>
   </si>
@@ -10367,6 +10368,9 @@
     <t xml:space="preserve">Core Issues Reader</t>
   </si>
   <si>
+    <t xml:space="preserve">Leaving the Cathedral</t>
+  </si>
+  <si>
     <t>degeneratemodern00jone</t>
   </si>
   <si>
@@ -10442,7 +10446,10 @@
     <t xml:space="preserve">Murdoch Murdoch</t>
   </si>
   <si>
-    <t xml:space="preserve">Steelstorm by Thomas777</t>
+    <t>Steelstorm</t>
+  </si>
+  <si>
+    <t>Thomas777</t>
   </si>
   <si>
     <t>bub_gb_6d0_7XDSscgC</t>
@@ -11216,6 +11223,12 @@
     <t xml:space="preserve">On Resistance to Evil by Force by Ivan Ilyin</t>
   </si>
   <si>
+    <t xml:space="preserve">Well Poisoning Accusations in Medieval Europe: 1250-1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tzafrir Barzilay</t>
+  </si>
+  <si>
     <t xml:space="preserve">Making Dystopia: The Strange Rise and Survival of Architectural Barbarism</t>
   </si>
   <si>
@@ -11462,7 +11475,7 @@
     <t>gri_33125000176541</t>
   </si>
   <si>
-    <t xml:space="preserve">A Arte e a natureza em Portugal : album de photographias com descripções, clichés originaes; copias em phototypias inalteraveis; monumentos, obras d'arte, costumes, paisagens</t>
+    <t xml:space="preserve">A Arte e a natureza em Portugal</t>
   </si>
   <si>
     <t xml:space="preserve">['getty', 'americana']</t>
@@ -11585,7 +11598,7 @@
     <t>gri_33125000447421</t>
   </si>
   <si>
-    <t xml:space="preserve">Reliquias da architectura romano-byzantina em Portugal, e particularmente na cidade de Coimbra</t>
+    <t xml:space="preserve">Reliquias da architectura romano-byzantina em Portugal</t>
   </si>
   <si>
     <t xml:space="preserve">['Architecture, Romanesque', 'Church architecture -- Portugal', 'Church architecture -- Portugal -- Coimbra']</t>
@@ -11600,7 +11613,7 @@
     <t xml:space="preserve">23, [1] p. 49 cm</t>
   </si>
   <si>
-    <t xml:space="preserve">The X-Files: What Belgium Was Not Supposed to Know About the Dutroux Affair</t>
+    <t xml:space="preserve">Dutroux case book</t>
   </si>
   <si>
     <t xml:space="preserve">PizzaGate Stuff</t>
@@ -11654,9 +11667,6 @@
     <t xml:space="preserve">Vladimir Istarkhov</t>
   </si>
   <si>
-    <t xml:space="preserve">Leaving the Cathedral</t>
-  </si>
-  <si>
     <t xml:space="preserve">The Origin of Consciousness in the Breakdown of the Bicameral Mind</t>
   </si>
   <si>
@@ -11735,16 +11745,115 @@
     <t xml:space="preserve">Richard B. Spence</t>
   </si>
   <si>
+    <t xml:space="preserve">Psychedelics Encyclopedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter Stafford</t>
+  </si>
+  <si>
+    <t>Psychedelia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Science and Romance of Selected Herbs Used in Medicine and Religious Ceremony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthony K. Andoh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narcotic Plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William A. Emboden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plants of the Gods: Their Sacred, Healing, and Hallucinogenic Powers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard Evans Schultes, Albert Hofmann, Christian Rätsch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psilocybin: Magic Mushroom Grower’s Guide: A Handbook for Psilocybin Enthusiasts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O. T. Oss, O. N. Oeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codex Seraphinianus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luigi Serafini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True Hallucinations: Being an Account of the Author’s Extraordinary Adventures in the Devil’s Paradise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terence McKenna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Invisible Landscape: Mind, Hallucinogens, and the I Ching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terence McKenna, Dennis McKenna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food of the Gods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Psychedelic Experience: A Manual Based on the Tibetan Book of the Dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timothy Leary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSD My Problem Child: Reflections on Sacred Drugs, Mysticism and Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albert Hofmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Doors of Perception and Heaven and Hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aldous Huxley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Encyclopedia of Psychoactive Plants: Ethnopharmacology and Its Applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Ratsch, Albert Hofmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Long Trip: A Prehistory of Psychedelia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Devereux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood Passover: The Jews of Europe and Ritual Murder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ariel Toaff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moloch Worship Exposed</t>
+  </si>
+  <si>
     <t xml:space="preserve">Secrete Nazi Polar Expeditions</t>
   </si>
   <si>
     <t xml:space="preserve">Cristof Friedrich</t>
   </si>
   <si>
-    <t xml:space="preserve">Blood Passover: The Jews of Europe and Ritual Murder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ariel Toaff</t>
+    <t xml:space="preserve">Occult World War 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Amazing Journey into the Psychotic Mind - Breaking the Spell of the Ivory Tower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jerry Marzinsky</t>
+  </si>
+  <si>
+    <t>Spirituality</t>
   </si>
   <si>
     <t xml:space="preserve">Mind Monsters: Invaders from Inner Space</t>
@@ -11759,6 +11868,9 @@
     <t xml:space="preserve">Passport to Magonia</t>
   </si>
   <si>
+    <t xml:space="preserve">Jacques Vallée</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Brooking Report</t>
   </si>
   <si>
@@ -11823,9 +11935,6 @@
   </si>
   <si>
     <t xml:space="preserve">FBI vault - The Protocols of the meeting of the Learned Elders of Zion:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conde de Gabalis</t>
   </si>
   <si>
     <t xml:space="preserve">CS Lewis Space Trilogy</t>
@@ -11918,7 +12027,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -11949,11 +12058,6 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -43975,7 +44079,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -44290,15 +44394,102 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3027</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>3029</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3030</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>3027</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>3032</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3033</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3027</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>3024</v>
+        <v>3034</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>3025</v>
+        <v>3035</v>
       </c>
       <c r="C14" t="s">
-        <v>3026</v>
+        <v>3036</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3027</v>
@@ -44321,13 +44512,13 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>3028</v>
+        <v>3037</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>3029</v>
+        <v>3038</v>
       </c>
       <c r="C15" t="s">
-        <v>3030</v>
+        <v>3039</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>3027</v>
@@ -44350,13 +44541,13 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>3031</v>
+        <v>3040</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>3032</v>
+        <v>3041</v>
       </c>
       <c r="C16" t="s">
-        <v>3033</v>
+        <v>3042</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>3027</v>
@@ -44379,13 +44570,13 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>3034</v>
+        <v>3043</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>3035</v>
+        <v>3044</v>
       </c>
       <c r="C17" t="s">
-        <v>3036</v>
+        <v>3045</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>3027</v>
@@ -44408,13 +44599,13 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>3037</v>
+        <v>3046</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3038</v>
+        <v>3047</v>
       </c>
       <c r="C18" t="s">
-        <v>3039</v>
+        <v>3048</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3027</v>
@@ -44437,13 +44628,13 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>3040</v>
+        <v>3049</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>3041</v>
+        <v>3050</v>
       </c>
       <c r="C19" t="s">
-        <v>3042</v>
+        <v>3051</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>3027</v>
@@ -44466,13 +44657,13 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>3043</v>
+        <v>3052</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>3044</v>
+        <v>3053</v>
       </c>
       <c r="C20" t="s">
-        <v>3045</v>
+        <v>3054</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3027</v>
@@ -44495,13 +44686,13 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>3046</v>
+        <v>3055</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>3047</v>
+        <v>3056</v>
       </c>
       <c r="C21" t="s">
-        <v>3048</v>
+        <v>3057</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3027</v>
@@ -44524,13 +44715,13 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>3049</v>
+        <v>3058</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>3050</v>
+        <v>3059</v>
       </c>
       <c r="C22" t="s">
-        <v>3051</v>
+        <v>3060</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3027</v>
@@ -44553,13 +44744,13 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>3052</v>
+        <v>2409</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>3053</v>
+        <v>3061</v>
       </c>
       <c r="C23" t="s">
-        <v>3054</v>
+        <v>3062</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>3027</v>
@@ -44582,13 +44773,13 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>3055</v>
+        <v>3063</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>3056</v>
+        <v>3064</v>
       </c>
       <c r="C24" t="s">
-        <v>3057</v>
+        <v>3065</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3027</v>
@@ -44609,18 +44800,18 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25">
-      <c r="A25" s="5" t="s">
-        <v>3058</v>
+    <row r="25" ht="14.25">
+      <c r="A25" s="5">
+        <v>112</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>3059</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3060</v>
+        <v>3066</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>3067</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>3027</v>
+        <v>3068</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>2998</v>
@@ -44635,21 +44826,19 @@
       <c r="I25" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="s">
-        <v>2409</v>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="5">
+        <v>132</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>3061</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3062</v>
+        <v>3069</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>3070</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3027</v>
+        <v>3068</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>2998</v>
@@ -44664,105 +44853,94 @@
       <c r="I26" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="s">
-        <v>3063</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>3064</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3065</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>3027</v>
-      </c>
-      <c r="E27" s="3" t="s">
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="5">
+        <v>141</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>3071</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3072</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>3073</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>2863</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" ht="14.25"/>
-    <row r="30" ht="14.25">
-      <c r="A30" s="5">
-        <v>112</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>3066</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>3067</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>3068</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>2998</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>2999</v>
-      </c>
-    </row>
+    </row>
+    <row r="30" ht="14.25"/>
     <row r="31" ht="14.25">
       <c r="A31" s="5">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3069</v>
+        <v>3074</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>3070</v>
+        <v>3075</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>3068</v>
+        <v>3076</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
         <v>2863</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>2999</v>
-      </c>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" s="5">
+        <v>79</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>3077</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>3078</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I32" s="3"/>
     </row>
     <row r="33" ht="14.25">
       <c r="A33" s="5">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>3071</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3072</v>
+        <v>3079</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>3080</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>3073</v>
+        <v>3076</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>2998</v>
@@ -44773,20 +44951,65 @@
       <c r="H33" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="5">
+        <v>82</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>3081</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" s="5">
+        <v>84</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>3085</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I35" s="3"/>
+    </row>
     <row r="36" ht="14.25">
       <c r="A36" s="5">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>3074</v>
+        <v>3086</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>3075</v>
+        <v>3087</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>3076</v>
@@ -44802,66 +45025,19 @@
       </c>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" ht="14.25">
-      <c r="A37" s="5">
-        <v>79</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>3077</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>3078</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>3076</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>2998</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="A38" s="5">
-        <v>80</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>3079</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>3080</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>3076</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>2998</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I38" s="3"/>
-    </row>
+    <row r="37" ht="14.25"/>
     <row r="39" ht="14.25">
       <c r="A39" s="5">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>3081</v>
+        <v>3088</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>3082</v>
-      </c>
-      <c r="D39" t="s">
-        <v>3076</v>
+        <v>3089</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>3090</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>2998</v>
@@ -44876,16 +45052,16 @@
     </row>
     <row r="40" ht="14.25">
       <c r="A40" s="5">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>3083</v>
+        <v>3091</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>3084</v>
+        <v>3092</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>3085</v>
+        <v>3090</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>2998</v>
@@ -44900,16 +45076,16 @@
     </row>
     <row r="41" ht="14.25">
       <c r="A41" s="5">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>3086</v>
+        <v>3093</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>3087</v>
+        <v>3094</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>3076</v>
+        <v>3090</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>2998</v>
@@ -44925,19 +45101,19 @@
     <row r="42" ht="14.25"/>
     <row r="44" ht="14.25">
       <c r="A44" s="5">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>3088</v>
+        <v>3095</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>3089</v>
+        <v>3096</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>3090</v>
+        <v>3076</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>2998</v>
+        <v>2862</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>2863</v>
@@ -44949,19 +45125,19 @@
     </row>
     <row r="45" ht="14.25">
       <c r="A45" s="5">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>3091</v>
+        <v>3097</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>3092</v>
+        <v>3098</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>3090</v>
+        <v>3076</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>2998</v>
+        <v>2862</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>2863</v>
@@ -44970,79 +45146,6 @@
         <v>2864</v>
       </c>
       <c r="I45" s="3"/>
-    </row>
-    <row r="46" ht="14.25">
-      <c r="A46" s="5">
-        <v>108</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>3093</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>3094</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>3090</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>2998</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" ht="14.25"/>
-    <row r="49" ht="14.25">
-      <c r="A49" s="5">
-        <v>59</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>3095</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>3096</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>3076</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>2862</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" ht="14.25">
-      <c r="A50" s="5">
-        <v>124</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>3097</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>3098</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>3076</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>2862</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I50" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -45055,7 +45158,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A122" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A112" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -45063,7 +45166,7 @@
   <cols>
     <col bestFit="1" min="1" max="1" width="5.57421875"/>
     <col customWidth="1" min="2" max="2" width="14.140625"/>
-    <col customWidth="1" min="3" max="3" width="54.8515625"/>
+    <col customWidth="1" min="3" max="3" width="60.421875"/>
     <col customWidth="1" min="4" max="4" width="40.140625"/>
     <col customWidth="1" min="5" max="5" style="6" width="27.8515625"/>
     <col customWidth="1" min="6" max="6" width="18.140625"/>
@@ -46302,71 +46405,107 @@
       <c r="I53" s="3"/>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="A54" s="5" t="s">
+        <v>3266</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>3267</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>3268</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>3269</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F54" t="s">
+        <v>3270</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>2864</v>
+      </c>
       <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
     </row>
     <row r="55" ht="14.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
+      <c r="A55" s="5" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>3272</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>3273</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>3269</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F55" t="s">
+        <v>3270</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
     </row>
     <row r="56" ht="14.25">
       <c r="A56" s="5" t="s">
-        <v>3266</v>
+        <v>3274</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>3267</v>
+        <v>3275</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>3268</v>
+        <v>3276</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>3269</v>
+        <v>3263</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>3102</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="3" t="s">
         <v>3270</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>3253</v>
+        <v>3259</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
     </row>
     <row r="57" ht="14.25">
       <c r="A57" s="5" t="s">
-        <v>3271</v>
+        <v>3277</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>3272</v>
+        <v>3278</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>3273</v>
+        <v>3279</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>3269</v>
+        <v>3280</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>3102</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="3" t="s">
         <v>3270</v>
       </c>
       <c r="G57" s="3" t="s">
@@ -46375,22 +46514,23 @@
       <c r="H57" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I57" s="3"/>
+      <c r="I57" s="3" t="s">
+        <v>3281</v>
+      </c>
       <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
     </row>
     <row r="58" ht="14.25">
-      <c r="A58" s="5" t="s">
-        <v>3274</v>
+      <c r="A58" s="5">
+        <v>1</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>3275</v>
+        <v>3282</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>3276</v>
+        <v>3283</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>3263</v>
+        <v>3284</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>3102</v>
@@ -46399,31 +46539,32 @@
         <v>3270</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>3259</v>
+        <v>2863</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
     </row>
     <row r="59" ht="14.25">
       <c r="A59" s="5" t="s">
-        <v>3277</v>
+        <v>3285</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>3278</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>3279</v>
+        <v>3286</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3287</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>3280</v>
+        <v>3288</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>3270</v>
+        <v>3289</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3253</v>
@@ -46432,63 +46573,106 @@
         <v>2864</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>3281</v>
+        <v>3290</v>
       </c>
       <c r="J59" s="3"/>
     </row>
     <row r="60" ht="14.25">
-      <c r="A60" s="5">
-        <v>1</v>
+      <c r="A60" s="5" t="s">
+        <v>3291</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>3282</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>3283</v>
+        <v>3292</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3293</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>3284</v>
+        <v>3294</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>3270</v>
+        <v>3289</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>2863</v>
+        <v>3253</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
     </row>
     <row r="61" ht="14.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
+      <c r="A61" s="5" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3297</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>3294</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>3289</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>2864</v>
+      </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-    </row>
-    <row r="62" ht="14.25"/>
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="A62" s="5" t="s">
+        <v>3298</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>3299</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>3300</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>3294</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3289</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3259</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>2864</v>
+      </c>
+    </row>
     <row r="63" ht="14.25">
       <c r="A63" s="5" t="s">
-        <v>3285</v>
+        <v>3301</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>3286</v>
-      </c>
-      <c r="C63" t="s">
-        <v>3287</v>
+        <v>3302</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>3303</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>3288</v>
+        <v>3294</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>3102</v>
@@ -46502,23 +46686,22 @@
       <c r="H63" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I63" s="3" t="s">
-        <v>3290</v>
-      </c>
+      <c r="I63" s="3"/>
       <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
     </row>
     <row r="64" ht="14.25">
       <c r="A64" s="5" t="s">
-        <v>3291</v>
+        <v>3304</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>3292</v>
+        <v>3305</v>
       </c>
       <c r="C64" t="s">
-        <v>3293</v>
+        <v>3306</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>3294</v>
+        <v>3307</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>3102</v>
@@ -46532,22 +46715,19 @@
       <c r="H64" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
     </row>
     <row r="65" ht="14.25">
       <c r="A65" s="5" t="s">
-        <v>3295</v>
+        <v>3308</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>3296</v>
+        <v>3309</v>
       </c>
       <c r="C65" t="s">
-        <v>3297</v>
+        <v>3310</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>3294</v>
+        <v>3307</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>3102</v>
@@ -46561,50 +46741,50 @@
       <c r="H65" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
     </row>
     <row r="66" ht="14.25">
-      <c r="A66" s="5" t="s">
-        <v>3298</v>
+      <c r="A66" s="5">
+        <v>125</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>3299</v>
+        <v>3311</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>3300</v>
+        <v>3312</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>3294</v>
-      </c>
-      <c r="E66" s="7" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>3102</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3289</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>3259</v>
+        <v>3253</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>2864</v>
       </c>
+      <c r="I66" s="3" t="s">
+        <v>3314</v>
+      </c>
     </row>
     <row r="67" ht="14.25">
-      <c r="A67" s="5" t="s">
-        <v>3301</v>
+      <c r="A67" s="5">
+        <v>115</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>3302</v>
+        <v>3315</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>3303</v>
+        <v>3316</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>3294</v>
-      </c>
-      <c r="E67" s="7" t="s">
+        <v>3269</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>3102</v>
       </c>
       <c r="F67" s="3" t="s">
@@ -46616,80 +46796,50 @@
       <c r="H67" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
+      <c r="I67" s="3" t="s">
+        <v>3317</v>
+      </c>
     </row>
     <row r="68" ht="14.25">
-      <c r="A68" s="5" t="s">
-        <v>3304</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>3305</v>
-      </c>
-      <c r="C68" t="s">
-        <v>3306</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>3307</v>
-      </c>
-      <c r="E68" s="7" t="s">
+      <c r="A68" s="5"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="A70" s="5" t="s">
+        <v>3318</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>3319</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3320</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="E70" s="7" t="s">
         <v>3102</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>3289</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>3253</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>2864</v>
-      </c>
-    </row>
-    <row r="69" ht="14.25">
-      <c r="A69" s="5" t="s">
-        <v>3308</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>3309</v>
-      </c>
-      <c r="C69" t="s">
-        <v>3310</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>3307</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>3102</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>3289</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>3253</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>2864</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25">
-      <c r="A70" s="5">
-        <v>125</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>3311</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>3312</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>3313</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>3102</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>3289</v>
+      <c r="F70" s="8" t="s">
+        <v>3322</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>3253</v>
@@ -46697,28 +46847,28 @@
       <c r="H70" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I70" s="3" t="s">
-        <v>3314</v>
-      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
     </row>
     <row r="71" ht="14.25">
-      <c r="A71" s="5">
-        <v>115</v>
+      <c r="A71" s="5" t="s">
+        <v>3323</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>3315</v>
+        <v>3324</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>3316</v>
+        <v>3325</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>3269</v>
-      </c>
-      <c r="E71" s="3" t="s">
+        <v>3326</v>
+      </c>
+      <c r="E71" s="7" t="s">
         <v>3102</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>3289</v>
+      <c r="F71" t="s">
+        <v>3322</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>3253</v>
@@ -46726,102 +46876,128 @@
       <c r="H71" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I71" s="3" t="s">
-        <v>3317</v>
-      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
     </row>
     <row r="72" ht="14.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
+      <c r="A72" s="5" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>3328</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>3329</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>3330</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3322</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>2864</v>
+      </c>
     </row>
     <row r="73" ht="14.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
+      <c r="A73" s="5" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>3332</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>3333</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>3334</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>3322</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>3259</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>2864</v>
+      </c>
     </row>
     <row r="74" ht="14.25">
-      <c r="A74" s="5" t="s">
-        <v>3318</v>
+      <c r="A74" s="5">
+        <v>90</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>3319</v>
-      </c>
-      <c r="C74" t="s">
-        <v>3320</v>
+        <v>3335</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>3336</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>3321</v>
+        <v>3337</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>3102</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="3" t="s">
         <v>3322</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>3253</v>
+        <v>2863</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
     </row>
     <row r="75" ht="14.25">
-      <c r="A75" s="5" t="s">
-        <v>3323</v>
+      <c r="A75" s="5">
+        <v>95</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>3324</v>
+        <v>3338</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>3325</v>
+        <v>3339</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>3326</v>
+        <v>3337</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>3102</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="3" t="s">
         <v>3322</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>3253</v>
+        <v>2863</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
     </row>
     <row r="76" ht="14.25">
       <c r="A76" s="5" t="s">
-        <v>3327</v>
+        <v>3340</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>3328</v>
+        <v>3341</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>3329</v>
+        <v>3342</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>3330</v>
+        <v>3337</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>3102</v>
@@ -46830,24 +47006,27 @@
         <v>3322</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>3253</v>
+        <v>2863</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>2864</v>
       </c>
+      <c r="I76" s="3" t="s">
+        <v>2869</v>
+      </c>
     </row>
     <row r="77" ht="14.25">
       <c r="A77" s="5" t="s">
-        <v>3331</v>
+        <v>3343</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>3332</v>
+        <v>3344</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>3333</v>
+        <v>3345</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>3334</v>
+        <v>3346</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>3102</v>
@@ -46856,24 +47035,27 @@
         <v>3322</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>3259</v>
+        <v>3347</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>2864</v>
       </c>
+      <c r="I77" s="3" t="s">
+        <v>3348</v>
+      </c>
     </row>
     <row r="78" ht="14.25">
-      <c r="A78" s="5">
-        <v>90</v>
+      <c r="A78" s="5" t="s">
+        <v>3349</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>3335</v>
+        <v>3350</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>3336</v>
+        <v>3351</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>3337</v>
+        <v>3330</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>3102</v>
@@ -46882,110 +47064,123 @@
         <v>3322</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>2863</v>
+        <v>3352</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I78" s="3"/>
+      <c r="I78" s="3" t="s">
+        <v>3353</v>
+      </c>
+      <c r="J78" s="3"/>
     </row>
     <row r="79" ht="14.25">
-      <c r="A79" s="5">
-        <v>95</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>3338</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>3339</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>3337</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>3102</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>3322</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>2864</v>
-      </c>
+      <c r="A79" s="5"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
       <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
     </row>
     <row r="80" ht="14.25">
-      <c r="A80" s="5" t="s">
-        <v>3340</v>
-      </c>
+      <c r="A80" s="5"/>
       <c r="B80" s="3" t="s">
-        <v>3341</v>
+        <v>3354</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>3342</v>
+        <v>3355</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>3337</v>
+        <v>3356</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>3102</v>
+        <v>3357</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>3322</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>2864</v>
+        <v>3358</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>3359</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>2869</v>
+        <v>3360</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>3361</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>3362</v>
+      </c>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3" t="s">
+        <v>3356</v>
+      </c>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R80" s="3" t="s">
+        <v>3363</v>
       </c>
     </row>
     <row r="81" ht="14.25">
-      <c r="A81" s="5" t="s">
-        <v>3343</v>
+      <c r="A81" s="3" t="s">
+        <v>3364</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>3344</v>
+        <v>3365</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>3345</v>
+        <v>3366</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>3346</v>
+        <v>3356</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>3102</v>
+        <v>3357</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3322</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>3347</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>2864</v>
+        <v>3358</v>
+      </c>
+      <c r="H81" t="s">
+        <v>3359</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>3348</v>
-      </c>
+        <v>3367</v>
+      </c>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
     </row>
     <row r="82" ht="14.25">
-      <c r="A82" s="5" t="s">
-        <v>3349</v>
+      <c r="A82" s="5">
+        <v>102</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>3350</v>
+        <v>3368</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>3351</v>
+        <v>3369</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>3330</v>
+        <v>3356</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>3102</v>
@@ -46994,222 +47189,215 @@
         <v>3322</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>3352</v>
+        <v>2863</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>3353</v>
+        <v>2869</v>
       </c>
       <c r="J82" s="3"/>
     </row>
     <row r="83" ht="14.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
+      <c r="A83" s="5">
+        <v>142</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>3370</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>3371</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>3372</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3322</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>2864</v>
+      </c>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
     </row>
     <row r="84" ht="14.25">
       <c r="A84" s="5"/>
-      <c r="B84" s="3" t="s">
-        <v>3354</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>3355</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>3356</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>3357</v>
-      </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3" t="s">
-        <v>3358</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>3359</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>3360</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>3361</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>3362</v>
-      </c>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3" t="s">
-        <v>3356</v>
-      </c>
-      <c r="N84" s="3"/>
-      <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
-      <c r="Q84" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R84" s="3" t="s">
-        <v>3363</v>
-      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
     </row>
     <row r="85" ht="14.25">
-      <c r="A85" s="3" t="s">
-        <v>3364</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>3365</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>3366</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>3356</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>3357</v>
-      </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3" t="s">
-        <v>3358</v>
-      </c>
-      <c r="H85" t="s">
-        <v>3359</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>3367</v>
-      </c>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
-      <c r="N85" s="3"/>
-      <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
-      <c r="Q85" s="3"/>
+      <c r="E85" s="6"/>
     </row>
     <row r="86" ht="14.25">
-      <c r="A86" s="5">
-        <v>102</v>
+      <c r="A86" s="5" t="s">
+        <v>3373</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>3368</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>3369</v>
+        <v>3374</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3375</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>3356</v>
+        <v>3376</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>3102</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>3322</v>
+      <c r="F86" t="s">
+        <v>3377</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>2863</v>
+        <v>3253</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>2869</v>
+        <v>3375</v>
       </c>
       <c r="J86" s="3"/>
     </row>
     <row r="87" ht="14.25">
-      <c r="A87" s="5">
-        <v>142</v>
+      <c r="A87" s="5" t="s">
+        <v>3378</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>3370</v>
+        <v>3379</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>3371</v>
+        <v>3380</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>3372</v>
+        <v>3381</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>3322</v>
+        <v>3377</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>2863</v>
+        <v>3253</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I87" s="3"/>
+      <c r="I87" s="3" t="s">
+        <v>3382</v>
+      </c>
       <c r="J87" s="3"/>
     </row>
     <row r="88" ht="14.25">
-      <c r="A88" s="5"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
+      <c r="A88" s="5">
+        <v>43</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3384</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>3385</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>3377</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>2869</v>
+      </c>
     </row>
     <row r="89" ht="14.25">
-      <c r="E89" s="6"/>
+      <c r="A89" s="5">
+        <v>131</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>3386</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3387</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>3388</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3377</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>2869</v>
+      </c>
     </row>
     <row r="90" ht="14.25">
       <c r="A90" s="5" t="s">
-        <v>3373</v>
+        <v>3389</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>3374</v>
-      </c>
-      <c r="C90" t="s">
-        <v>3375</v>
+        <v>3390</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>3391</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>3376</v>
+        <v>3392</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>3102</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="3" t="s">
         <v>3377</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>3253</v>
+        <v>3259</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I90" s="3" t="s">
-        <v>3375</v>
-      </c>
-      <c r="J90" s="3"/>
     </row>
     <row r="91" ht="14.25">
       <c r="A91" s="5" t="s">
-        <v>3378</v>
+        <v>3393</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>3379</v>
+        <v>3394</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>3380</v>
+        <v>3395</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>3381</v>
+        <v>3396</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>3102</v>
@@ -47218,28 +47406,24 @@
         <v>3377</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>3253</v>
+        <v>3259</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3382</v>
-      </c>
-      <c r="J91" s="3"/>
     </row>
     <row r="92" ht="14.25">
       <c r="A92" s="5">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>3383</v>
+        <v>3397</v>
       </c>
       <c r="C92" t="s">
-        <v>3384</v>
+        <v>3398</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>3385</v>
+        <v>3399</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>3102</v>
@@ -47258,17 +47442,17 @@
       </c>
     </row>
     <row r="93" ht="14.25">
-      <c r="A93" s="5">
-        <v>131</v>
+      <c r="A93" s="3" t="s">
+        <v>3400</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>3386</v>
-      </c>
-      <c r="C93" t="s">
-        <v>3387</v>
+        <v>3401</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>3402</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>3388</v>
+        <v>3403</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>3102</v>
@@ -47277,27 +47461,27 @@
         <v>3377</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>2863</v>
+        <v>3127</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>2869</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="94" ht="14.25">
-      <c r="A94" s="5" t="s">
-        <v>3389</v>
+      <c r="A94" s="5">
+        <v>20</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>3390</v>
+        <v>3405</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>3391</v>
+        <v>3406</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>3392</v>
+        <v>3407</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>3102</v>
@@ -47306,24 +47490,25 @@
         <v>3377</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>3259</v>
+        <v>2863</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>2864</v>
       </c>
+      <c r="I94" s="3"/>
     </row>
     <row r="95" ht="14.25">
-      <c r="A95" s="5" t="s">
-        <v>3393</v>
+      <c r="A95" s="5">
+        <v>32</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>3394</v>
+        <v>3408</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>3395</v>
+        <v>3409</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>3396</v>
+        <v>3410</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>3102</v>
@@ -47332,24 +47517,25 @@
         <v>3377</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>3259</v>
+        <v>2863</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>2864</v>
       </c>
+      <c r="I95" s="3"/>
     </row>
     <row r="96" ht="14.25">
       <c r="A96" s="5">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>3397</v>
-      </c>
-      <c r="C96" t="s">
-        <v>3398</v>
+        <v>3411</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>3412</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>3399</v>
+        <v>3413</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>3102</v>
@@ -47363,22 +47549,20 @@
       <c r="H96" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I96" s="3" t="s">
-        <v>2869</v>
-      </c>
+      <c r="I96" s="3"/>
     </row>
     <row r="97" ht="14.25">
-      <c r="A97" s="3" t="s">
-        <v>3400</v>
+      <c r="A97" s="5">
+        <v>22</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>3401</v>
+        <v>3414</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>3402</v>
+        <v>3415</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>3403</v>
+        <v>3416</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>3102</v>
@@ -47387,27 +47571,25 @@
         <v>3377</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>3127</v>
+        <v>2863</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I97" s="3" t="s">
-        <v>3404</v>
-      </c>
+      <c r="I97" s="3"/>
     </row>
     <row r="98" ht="14.25">
       <c r="A98" s="5">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>3405</v>
+        <v>3417</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>3406</v>
+        <v>3418</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>3407</v>
+        <v>3416</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>3102</v>
@@ -47425,16 +47607,16 @@
     </row>
     <row r="99" ht="14.25">
       <c r="A99" s="5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>3408</v>
+        <v>3419</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>3409</v>
+        <v>3420</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>3410</v>
+        <v>3376</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>3102</v>
@@ -47452,16 +47634,16 @@
     </row>
     <row r="100" ht="14.25">
       <c r="A100" s="5">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>3411</v>
+        <v>3421</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>3412</v>
+        <v>3422</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>3413</v>
+        <v>3376</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>3102</v>
@@ -47479,16 +47661,16 @@
     </row>
     <row r="101" ht="14.25">
       <c r="A101" s="5">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>3414</v>
+        <v>3423</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>3415</v>
+        <v>3424</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>3416</v>
+        <v>3376</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>3102</v>
@@ -47505,105 +47687,36 @@
       <c r="I101" s="3"/>
     </row>
     <row r="102" ht="14.25">
-      <c r="A102" s="5">
-        <v>49</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>3417</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>3418</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>3416</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>3102</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3377</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>2864</v>
-      </c>
+      <c r="A102" s="5"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
       <c r="I102" s="3"/>
     </row>
     <row r="103" ht="14.25">
-      <c r="A103" s="5">
-        <v>33</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>3419</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>3420</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>3376</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>3102</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>3377</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I103" s="3"/>
-    </row>
-    <row r="104" ht="14.25">
-      <c r="A104" s="5">
-        <v>46</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>3421</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>3422</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>3376</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>3102</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>3377</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I104" s="3"/>
-    </row>
+      <c r="E103" s="6"/>
+    </row>
+    <row r="104" ht="14.25"/>
     <row r="105" ht="14.25">
       <c r="A105" s="5">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>3423</v>
+        <v>3425</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>3424</v>
+        <v>3426</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>3376</v>
+        <v>3427</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>3102</v>
       </c>
-      <c r="F105" s="3" t="s">
-        <v>3377</v>
-      </c>
       <c r="G105" s="3" t="s">
         <v>2863</v>
       </c>
@@ -47612,339 +47725,311 @@
       </c>
       <c r="I105" s="3"/>
     </row>
-    <row r="106" ht="14.25">
-      <c r="A106" s="5"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-    </row>
-    <row r="107" ht="14.25">
-      <c r="E107" s="6"/>
-    </row>
-    <row r="108" ht="14.25"/>
+    <row r="108" ht="14.25">
+      <c r="A108" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>3429</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>3430</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3" t="s">
+        <v>3431</v>
+      </c>
+      <c r="H108" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>3432</v>
+      </c>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+    </row>
     <row r="109" ht="14.25">
-      <c r="A109" s="5">
-        <v>39</v>
+      <c r="A109" s="3" t="s">
+        <v>3111</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>3425</v>
+        <v>3433</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>3426</v>
+        <v>3434</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>3427</v>
+        <v>3430</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>3102</v>
       </c>
+      <c r="F109" s="3"/>
       <c r="G109" s="3" t="s">
-        <v>2863</v>
+        <v>3435</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I109" s="3"/>
-    </row>
-    <row r="112" ht="14.25">
-      <c r="A112" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>3428</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>3429</v>
-      </c>
-      <c r="D112" s="3" t="s">
+      <c r="I109" s="3" t="s">
+        <v>3436</v>
+      </c>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+    </row>
+    <row r="110" ht="14.25">
+      <c r="A110" s="3" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>3438</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>3439</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>3430</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E110" s="7" t="s">
         <v>3102</v>
       </c>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3" t="s">
-        <v>3431</v>
-      </c>
-      <c r="H112" t="s">
+      <c r="F110" s="3"/>
+      <c r="G110" s="3" t="s">
+        <v>3440</v>
+      </c>
+      <c r="H110" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I112" s="3" t="s">
-        <v>3432</v>
-      </c>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
-      <c r="M112" s="3"/>
-      <c r="N112" s="3"/>
-      <c r="O112" s="3"/>
-    </row>
-    <row r="113" ht="14.25">
-      <c r="A113" s="3" t="s">
-        <v>3111</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>3433</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>3434</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>3430</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>3102</v>
-      </c>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3" t="s">
-        <v>3435</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>3436</v>
-      </c>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
-      <c r="M113" s="3"/>
-      <c r="N113" s="3"/>
-      <c r="O113" s="3"/>
+      <c r="I110" s="3" t="s">
+        <v>3441</v>
+      </c>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
     </row>
     <row r="114" ht="14.25">
-      <c r="A114" s="3" t="s">
-        <v>3437</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>3438</v>
-      </c>
       <c r="C114" s="3" t="s">
-        <v>3439</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>3430</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>3102</v>
-      </c>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3" t="s">
-        <v>3440</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>3441</v>
-      </c>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
-      <c r="L114" s="3"/>
-      <c r="M114" s="3"/>
-      <c r="N114" s="3"/>
-      <c r="O114" s="3"/>
-    </row>
-    <row r="118" ht="14.25">
-      <c r="C118" s="3" t="s">
         <v>3442</v>
       </c>
     </row>
+    <row r="115" ht="14.25">
+      <c r="C115" s="3" t="s">
+        <v>3443</v>
+      </c>
+    </row>
     <row r="119" ht="14.25">
-      <c r="C119" s="3" t="s">
-        <v>3443</v>
+      <c r="C119" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25">
+      <c r="C122" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D122" t="s">
+        <v>3446</v>
       </c>
     </row>
     <row r="123" ht="14.25">
       <c r="C123" t="s">
-        <v>3444</v>
-      </c>
-    </row>
-    <row r="126" ht="14.25">
-      <c r="C126" t="s">
-        <v>3445</v>
-      </c>
-      <c r="D126" t="s">
+        <v>3447</v>
+      </c>
+      <c r="D123" t="s">
         <v>3446</v>
       </c>
     </row>
+    <row r="124" ht="14.25">
+      <c r="C124" t="s">
+        <v>3448</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>3446</v>
+      </c>
+    </row>
     <row r="127" ht="14.25">
-      <c r="C127" t="s">
-        <v>3447</v>
-      </c>
-      <c r="D127" t="s">
-        <v>3446</v>
+      <c r="A127" s="3" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>3449</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>3451</v>
+      </c>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3" t="s">
+        <v>3452</v>
+      </c>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3" t="s">
+        <v>3359</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25">
+      <c r="A128" s="3" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>3454</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>3455</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>3451</v>
+      </c>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3" t="s">
+        <v>3452</v>
+      </c>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3" t="s">
+        <v>3359</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="129" ht="14.25">
+      <c r="A129" s="3" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>3457</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>3458</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>3451</v>
+      </c>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3" t="s">
+        <v>3452</v>
+      </c>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3" t="s">
+        <v>3359</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="130" ht="14.25">
+      <c r="A130" s="3" t="s">
+        <v>3460</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>3461</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>3451</v>
+      </c>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3" t="s">
+        <v>3452</v>
+      </c>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3" t="s">
+        <v>3359</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>3463</v>
       </c>
     </row>
     <row r="131" ht="14.25">
       <c r="A131" s="3" t="s">
-        <v>3111</v>
+        <v>3464</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>3448</v>
+        <v>3465</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>3449</v>
+        <v>3466</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="3" t="s">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3" t="s">
         <v>3359</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>3452</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="132" ht="14.25">
       <c r="A132" s="3" t="s">
-        <v>3115</v>
+        <v>3468</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>3453</v>
+        <v>3469</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>3454</v>
+        <v>3470</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="3" t="s">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="3" t="s">
         <v>3359</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>3455</v>
-      </c>
-    </row>
-    <row r="133" ht="14.25">
-      <c r="A133" s="3" t="s">
-        <v>3119</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>3456</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>3457</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>3450</v>
-      </c>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3" t="s">
-        <v>3451</v>
-      </c>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3" t="s">
-        <v>3359</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>3458</v>
-      </c>
-    </row>
-    <row r="134" ht="14.25">
-      <c r="A134" s="3" t="s">
-        <v>3459</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>3460</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>3461</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>3450</v>
-      </c>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3" t="s">
-        <v>3451</v>
-      </c>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3" t="s">
-        <v>3359</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>3462</v>
-      </c>
-    </row>
-    <row r="135" ht="14.25">
-      <c r="A135" s="3" t="s">
-        <v>3463</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>3464</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>3465</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>3450</v>
-      </c>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3" t="s">
-        <v>3451</v>
-      </c>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3" t="s">
-        <v>3359</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>3466</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="136" ht="14.25">
-      <c r="A136" s="3" t="s">
-        <v>3467</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>3468</v>
-      </c>
       <c r="C136" s="3" t="s">
-        <v>3469</v>
+        <v>3472</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>3450</v>
-      </c>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3" t="s">
-        <v>3451</v>
-      </c>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3" t="s">
-        <v>3359</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>3470</v>
-      </c>
-    </row>
-    <row r="140" ht="14.25">
-      <c r="C140" s="3" t="s">
-        <v>3471</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>3472</v>
-      </c>
-    </row>
-    <row r="141" ht="14.25">
-      <c r="C141" s="3" t="s">
         <v>3473</v>
       </c>
-      <c r="D141" s="3"/>
-    </row>
+    </row>
+    <row r="137" ht="14.25">
+      <c r="C137" s="3" t="s">
+        <v>3474</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -47956,7 +48041,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A114" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A132" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -48006,22 +48091,22 @@
         <v>397</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3474</v>
+        <v>3476</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3475</v>
+        <v>3477</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3476</v>
+        <v>3478</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3477</v>
+        <v>3479</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>3479</v>
+        <v>3481</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>2864</v>
@@ -48036,22 +48121,22 @@
     <row r="3" ht="14.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
+        <v>3482</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3483</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3485</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>3480</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>3481</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3482</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3483</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>3478</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>3484</v>
+        <v>3486</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>2864</v>
@@ -48062,19 +48147,19 @@
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="5" t="s">
-        <v>3485</v>
+        <v>3487</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3486</v>
+        <v>3488</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3487</v>
+        <v>3489</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>2863</v>
@@ -48088,22 +48173,22 @@
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="5" t="s">
-        <v>3489</v>
+        <v>3491</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>3492</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3493</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>3490</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>3491</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>3488</v>
       </c>
       <c r="E6" s="5">
         <v>1937</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>3215</v>
@@ -48117,22 +48202,22 @@
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="5" t="s">
-        <v>3492</v>
+        <v>3494</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>3493</v>
+        <v>3495</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3494</v>
+        <v>3496</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="E7" s="5">
         <v>1936</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>3215</v>
@@ -48141,24 +48226,24 @@
         <v>2864</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>3495</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="5" t="s">
-        <v>3496</v>
+        <v>3498</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>3497</v>
+        <v>3499</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3498</v>
+        <v>3500</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>2863</v>
@@ -48172,19 +48257,19 @@
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="5" t="s">
-        <v>3499</v>
+        <v>3501</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>3500</v>
+        <v>3502</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3501</v>
+        <v>3503</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>2863</v>
@@ -48198,19 +48283,19 @@
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="5" t="s">
-        <v>3502</v>
+        <v>3504</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>3503</v>
+        <v>3505</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>3504</v>
+        <v>3506</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>2863</v>
@@ -48225,19 +48310,19 @@
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="5" t="s">
-        <v>3505</v>
+        <v>3507</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>3506</v>
+        <v>3508</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>3507</v>
+        <v>3509</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>2863</v>
@@ -48252,19 +48337,19 @@
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="5" t="s">
-        <v>3508</v>
+        <v>3510</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>3509</v>
+        <v>3511</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3510</v>
+        <v>3512</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>2863</v>
@@ -48279,19 +48364,19 @@
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="5" t="s">
-        <v>3511</v>
+        <v>3513</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>3512</v>
+        <v>3514</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>3513</v>
+        <v>3515</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>2863</v>
@@ -48306,19 +48391,19 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="5" t="s">
-        <v>3514</v>
+        <v>3516</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>3515</v>
+        <v>3517</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>3516</v>
+        <v>3518</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>2863</v>
@@ -48333,19 +48418,19 @@
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="5" t="s">
-        <v>3517</v>
+        <v>3519</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>3518</v>
+        <v>3520</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>3519</v>
+        <v>3521</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>2863</v>
@@ -48360,19 +48445,19 @@
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="5" t="s">
-        <v>3520</v>
+        <v>3522</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>3521</v>
+        <v>3523</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>3522</v>
+        <v>3524</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>2863</v>
@@ -48386,19 +48471,19 @@
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="5" t="s">
-        <v>3523</v>
+        <v>3525</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>3524</v>
+        <v>3526</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>3525</v>
+        <v>3527</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>2863</v>
@@ -48412,29 +48497,29 @@
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="2" t="s">
-        <v>3526</v>
+        <v>3528</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3527</v>
+        <v>3529</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>3528</v>
+        <v>3530</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>3529</v>
+        <v>3531</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>3530</v>
+        <v>3532</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -48448,20 +48533,20 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="2" t="s">
-        <v>3531</v>
+        <v>3533</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>3532</v>
+        <v>3534</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>3533</v>
+        <v>3535</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>2863</v>
@@ -48484,20 +48569,20 @@
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="2" t="s">
-        <v>3534</v>
+        <v>3536</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>3535</v>
+        <v>3537</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>3536</v>
+        <v>3538</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3431</v>
@@ -48506,7 +48591,7 @@
         <v>2864</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>3537</v>
+        <v>3539</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -48520,29 +48605,29 @@
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="2" t="s">
-        <v>3538</v>
+        <v>3540</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>3539</v>
+        <v>3541</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>3540</v>
+        <v>3542</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>3541</v>
+        <v>3543</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>3542</v>
+        <v>3544</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -48556,29 +48641,29 @@
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="2" t="s">
-        <v>3543</v>
+        <v>3545</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>3544</v>
+        <v>3546</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>3545</v>
+        <v>3547</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>3546</v>
+        <v>3548</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>3547</v>
+        <v>3549</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -48595,26 +48680,26 @@
         <v>1856</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>3548</v>
+        <v>3550</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>3549</v>
+        <v>3551</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>3550</v>
+        <v>3552</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>3551</v>
+        <v>3553</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -48631,17 +48716,17 @@
         <v>619</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>3553</v>
+        <v>3555</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>2863</v>
@@ -48667,26 +48752,26 @@
         <v>1770</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>3554</v>
+        <v>3556</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>3555</v>
+        <v>3557</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>3541</v>
+        <v>3543</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>3556</v>
+        <v>3558</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -48703,26 +48788,26 @@
         <v>1103</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>3557</v>
+        <v>3559</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>3558</v>
+        <v>3560</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>3559</v>
+        <v>3561</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>3560</v>
+        <v>3562</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -48736,23 +48821,23 @@
     </row>
     <row r="27" ht="14.25">
       <c r="A27" s="2" t="s">
-        <v>3561</v>
+        <v>3563</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>3562</v>
+        <v>3564</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>3563</v>
+        <v>3565</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>3484</v>
+        <v>3486</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>2864</v>
@@ -48773,17 +48858,17 @@
         <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>3564</v>
+        <v>3566</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>3565</v>
+        <v>3567</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>3488</v>
+        <v>3490</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>3431</v>
@@ -48792,7 +48877,7 @@
         <v>2864</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>3566</v>
+        <v>3568</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -48849,17 +48934,17 @@
         <v>9</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3567</v>
+        <v>3569</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>3568</v>
+        <v>3570</v>
       </c>
       <c r="D31" t="s">
-        <v>3569</v>
+        <v>3571</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>3431</v>
@@ -48868,7 +48953,7 @@
         <v>2864</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>3570</v>
+        <v>3572</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -48882,23 +48967,23 @@
         <v>397</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>3573</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>3574</v>
+      </c>
+      <c r="D32" t="s">
         <v>3571</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>3572</v>
-      </c>
-      <c r="D32" t="s">
-        <v>3569</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>3573</v>
+        <v>3575</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -48912,23 +48997,23 @@
         <v>3111</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>3574</v>
+        <v>3576</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>3575</v>
+        <v>3577</v>
       </c>
       <c r="D33" t="s">
-        <v>3569</v>
+        <v>3571</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>3576</v>
+        <v>3578</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -48942,23 +49027,23 @@
         <v>3115</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>3577</v>
+        <v>3579</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>3578</v>
+        <v>3580</v>
       </c>
       <c r="D34" t="s">
-        <v>3569</v>
+        <v>3571</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>3359</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>3579</v>
+        <v>3581</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -48972,23 +49057,23 @@
         <v>3437</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>3580</v>
+        <v>3582</v>
       </c>
       <c r="C35" t="s">
-        <v>3581</v>
+        <v>3583</v>
       </c>
       <c r="D35" t="s">
-        <v>3569</v>
+        <v>3571</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>3582</v>
+        <v>3584</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -49002,23 +49087,23 @@
         <v>3119</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>3583</v>
+        <v>3585</v>
       </c>
       <c r="C36" t="s">
-        <v>3584</v>
+        <v>3586</v>
       </c>
       <c r="D36" t="s">
-        <v>3569</v>
+        <v>3571</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>3585</v>
+        <v>3587</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -49029,26 +49114,26 @@
     </row>
     <row r="37" ht="14.25">
       <c r="A37" s="2" t="s">
-        <v>3459</v>
+        <v>3460</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>3586</v>
+        <v>3588</v>
       </c>
       <c r="C37" t="s">
-        <v>3587</v>
+        <v>3589</v>
       </c>
       <c r="D37" t="s">
-        <v>3569</v>
+        <v>3571</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>3588</v>
+        <v>3590</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -49059,26 +49144,26 @@
     </row>
     <row r="38" ht="14.25">
       <c r="A38" s="2" t="s">
-        <v>3463</v>
+        <v>3464</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>3589</v>
+        <v>3591</v>
       </c>
       <c r="C38" t="s">
-        <v>3590</v>
+        <v>3592</v>
       </c>
       <c r="D38" t="s">
-        <v>3569</v>
+        <v>3571</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>3591</v>
+        <v>3593</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -49089,26 +49174,26 @@
     </row>
     <row r="39" ht="14.25">
       <c r="A39" s="2" t="s">
-        <v>3467</v>
+        <v>3468</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>3592</v>
+        <v>3594</v>
       </c>
       <c r="C39" t="s">
-        <v>3593</v>
+        <v>3595</v>
       </c>
       <c r="D39" t="s">
-        <v>3569</v>
+        <v>3571</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>3594</v>
+        <v>3596</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -49119,20 +49204,20 @@
     </row>
     <row r="40" ht="14.25">
       <c r="A40" s="2" t="s">
-        <v>3595</v>
+        <v>3597</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>3596</v>
+        <v>3598</v>
       </c>
       <c r="C40" t="s">
-        <v>3597</v>
+        <v>3599</v>
       </c>
       <c r="D40" t="s">
-        <v>3569</v>
+        <v>3571</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>2864</v>
@@ -49152,19 +49237,19 @@
     <row r="42" ht="14.25"/>
     <row r="43" ht="14.25">
       <c r="A43" s="5" t="s">
-        <v>3598</v>
+        <v>3600</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>3599</v>
+        <v>3601</v>
       </c>
       <c r="C43" t="s">
-        <v>3600</v>
+        <v>3602</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>3601</v>
+        <v>3603</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>2863</v>
@@ -49178,19 +49263,19 @@
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="5" t="s">
-        <v>3602</v>
+        <v>3604</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>3605</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3606</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>3603</v>
       </c>
-      <c r="C44" t="s">
-        <v>3604</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>3601</v>
-      </c>
       <c r="F44" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>2863</v>
@@ -49207,26 +49292,26 @@
         <v>3111</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>3605</v>
+        <v>3607</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>3606</v>
+        <v>3608</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>3601</v>
+        <v>3603</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>2863</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>3607</v>
+        <v>3609</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>3601</v>
+        <v>3603</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -49239,19 +49324,19 @@
     <row r="47" ht="14.25"/>
     <row r="48" ht="14.25">
       <c r="A48" s="5" t="s">
-        <v>3608</v>
+        <v>3610</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>3609</v>
+        <v>3611</v>
       </c>
       <c r="C48" t="s">
-        <v>3610</v>
+        <v>3612</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>3611</v>
+        <v>3613</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3127</v>
@@ -49260,25 +49345,25 @@
         <v>2864</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>3612</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="49" ht="14.25"/>
     <row r="50" ht="14.25">
       <c r="A50" s="2" t="s">
-        <v>3613</v>
+        <v>3615</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>3614</v>
+        <v>3616</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>3615</v>
+        <v>3617</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>3616</v>
+        <v>3618</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>3127</v>
@@ -49287,7 +49372,7 @@
         <v>2864</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>3617</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="51" ht="14.25">
@@ -49295,16 +49380,16 @@
         <v>3052</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>3620</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>3621</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>3618</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>3619</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>3616</v>
-      </c>
       <c r="F51" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>3127</v>
@@ -49313,7 +49398,7 @@
         <v>2864</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>3620</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="52" ht="14.25"/>
@@ -49322,19 +49407,19 @@
     <row r="55" ht="14.25"/>
     <row r="56" ht="14.25">
       <c r="A56" s="5" t="s">
-        <v>3621</v>
+        <v>3623</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>3622</v>
+        <v>3624</v>
       </c>
       <c r="C56" t="s">
-        <v>3623</v>
+        <v>3625</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>3624</v>
+        <v>3626</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>3127</v>
@@ -49343,24 +49428,24 @@
         <v>2864</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>3617</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="57" ht="14.25">
       <c r="A57" s="2" t="s">
-        <v>3625</v>
+        <v>3627</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>3626</v>
+        <v>3628</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>3627</v>
+        <v>3629</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>3628</v>
+        <v>3630</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3127</v>
@@ -49369,23 +49454,23 @@
         <v>2864</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>3629</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="58" ht="14.25"/>
     <row r="60" ht="14.25">
       <c r="A60" s="5"/>
       <c r="B60" s="3" t="s">
-        <v>3630</v>
+        <v>3632</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>3631</v>
+        <v>3633</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>3632</v>
+        <v>3634</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>2863</v>
@@ -49400,19 +49485,19 @@
     </row>
     <row r="61" ht="14.25">
       <c r="A61" s="5" t="s">
-        <v>3633</v>
+        <v>3635</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>3634</v>
+        <v>3636</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>3635</v>
+        <v>3637</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>3636</v>
+        <v>3638</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>2863</v>
@@ -49441,7 +49526,7 @@
         <v>3146</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>2863</v>
@@ -49467,7 +49552,7 @@
         <v>3146</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>2863</v>
@@ -49493,7 +49578,7 @@
         <v>3146</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>2863</v>
@@ -49519,7 +49604,7 @@
         <v>3146</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>2863</v>
@@ -49545,7 +49630,7 @@
         <v>3146</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>2863</v>
@@ -49571,7 +49656,7 @@
         <v>3146</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>2863</v>
@@ -49597,7 +49682,7 @@
         <v>3146</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>2863</v>
@@ -49623,7 +49708,7 @@
         <v>3146</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>2863</v>
@@ -49649,7 +49734,7 @@
         <v>3146</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>2863</v>
@@ -49666,17 +49751,17 @@
         <v>139</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>3637</v>
+        <v>3639</v>
       </c>
       <c r="C75" t="s">
-        <v>3638</v>
+        <v>3640</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>3639</v>
+        <v>3641</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="3" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>2863</v>
@@ -49693,17 +49778,17 @@
         <v>140</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>3640</v>
+        <v>3642</v>
       </c>
       <c r="C76" t="s">
-        <v>3641</v>
+        <v>3643</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>3642</v>
+        <v>3644</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="3" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>2863</v>
@@ -49712,7 +49797,7 @@
         <v>2864</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>3643</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="77" ht="14.25">
@@ -49720,17 +49805,17 @@
         <v>143</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>3644</v>
+        <v>3646</v>
       </c>
       <c r="C77" t="s">
-        <v>3645</v>
+        <v>3647</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>3646</v>
+        <v>3648</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="3" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>2863</v>
@@ -49747,17 +49832,17 @@
         <v>137</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>3647</v>
+        <v>3649</v>
       </c>
       <c r="C78" t="s">
-        <v>3648</v>
+        <v>3650</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>3649</v>
+        <v>3651</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="3" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>2863</v>
@@ -49777,17 +49862,17 @@
         <v>23</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>3650</v>
+        <v>3652</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>3651</v>
+        <v>3653</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>3652</v>
+        <v>3654</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="3" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>2863</v>
@@ -49804,17 +49889,17 @@
         <v>24</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>3653</v>
+        <v>3655</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>3654</v>
+        <v>3656</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>3076</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="3" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>2863</v>
@@ -49831,17 +49916,17 @@
         <v>25</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>3655</v>
+        <v>3657</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>3656</v>
+        <v>3658</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>3657</v>
+        <v>3659</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="3" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>2863</v>
@@ -49858,17 +49943,17 @@
         <v>26</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>3658</v>
+        <v>3660</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>3659</v>
+        <v>3661</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>3660</v>
+        <v>3662</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="3" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>2863</v>
@@ -49885,17 +49970,17 @@
         <v>27</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>3661</v>
+        <v>3663</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>3662</v>
+        <v>3664</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>3090</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="3" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>2863</v>
@@ -49916,17 +50001,17 @@
         <v>75</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>3663</v>
+        <v>3665</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>3664</v>
+        <v>3666</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>3090</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="3" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>2863</v>
@@ -49943,17 +50028,17 @@
         <v>76</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>3665</v>
+        <v>3667</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>3666</v>
+        <v>3668</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3090</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="3" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>2863</v>
@@ -49970,19 +50055,19 @@
         <v>67</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>3667</v>
+        <v>3669</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>3668</v>
+        <v>3670</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>3669</v>
+        <v>3671</v>
       </c>
       <c r="E92" s="2">
         <v>1921</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>2863</v>
@@ -49999,17 +50084,17 @@
         <v>6</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>3670</v>
+        <v>3672</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>3673</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>3671</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>3669</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>2863</v>
@@ -50024,13 +50109,13 @@
         <v>2</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>3672</v>
+        <v>3674</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>3673</v>
+        <v>3675</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>3674</v>
+        <v>3676</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="8"/>
@@ -50047,13 +50132,13 @@
         <v>3</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>3675</v>
+        <v>3677</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>3676</v>
+        <v>3678</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>3677</v>
+        <v>3679</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="8"/>
@@ -50070,13 +50155,13 @@
         <v>8</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>3678</v>
+        <v>3680</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>3679</v>
+        <v>3681</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>3632</v>
+        <v>3634</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="8"/>
@@ -50093,13 +50178,13 @@
         <v>10</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>3680</v>
+        <v>3682</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>3681</v>
+        <v>3683</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>3682</v>
+        <v>3684</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="8"/>
@@ -50116,13 +50201,13 @@
         <v>11</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>3683</v>
+        <v>3685</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>3684</v>
+        <v>3686</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>3685</v>
+        <v>3687</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="8"/>
@@ -50143,13 +50228,13 @@
         <v>21</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>3686</v>
+        <v>3688</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>3687</v>
+        <v>3689</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>3688</v>
+        <v>3690</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="8"/>
@@ -50166,13 +50251,13 @@
         <v>47</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>3689</v>
+        <v>3691</v>
       </c>
       <c r="C104" s="3" t="s">
+        <v>3692</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>3690</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>3688</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="8"/>
@@ -50189,13 +50274,13 @@
         <v>29</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>3691</v>
+        <v>3693</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>3692</v>
+        <v>3694</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>3693</v>
+        <v>3695</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="8"/>
@@ -50212,13 +50297,13 @@
         <v>35</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>3694</v>
+        <v>3696</v>
       </c>
       <c r="C108" s="3" t="s">
+        <v>3697</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>3695</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>3693</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="8"/>
@@ -50235,13 +50320,13 @@
         <v>91</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>3696</v>
+        <v>3698</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>3697</v>
+        <v>3699</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>3693</v>
+        <v>3695</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="8"/>
@@ -50258,10 +50343,10 @@
         <v>18</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>3698</v>
+        <v>3700</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>3699</v>
+        <v>3701</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>3263</v>
@@ -50281,10 +50366,10 @@
         <v>17</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>3700</v>
+        <v>3702</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>3701</v>
+        <v>3703</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>3263</v>
@@ -50304,13 +50389,13 @@
         <v>69</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>3702</v>
+        <v>3704</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>3703</v>
+        <v>3705</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>3704</v>
+        <v>3706</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="8"/>
@@ -50327,13 +50412,13 @@
         <v>624</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>3705</v>
+        <v>3707</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>3706</v>
+        <v>3708</v>
       </c>
       <c r="D117" t="s">
-        <v>3707</v>
+        <v>3709</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="8"/>
@@ -50344,7 +50429,7 @@
         <v>2864</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>3708</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="118" ht="14.25">
@@ -50356,13 +50441,13 @@
         <v>3</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>3709</v>
+        <v>3711</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>3710</v>
+        <v>3712</v>
       </c>
       <c r="D119" t="s">
-        <v>3711</v>
+        <v>3713</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="8"/>
@@ -50373,7 +50458,7 @@
         <v>2864</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>3712</v>
+        <v>3714</v>
       </c>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
@@ -50387,13 +50472,13 @@
         <v>4</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>3715</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>3716</v>
+      </c>
+      <c r="D120" t="s">
         <v>3713</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>3714</v>
-      </c>
-      <c r="D120" t="s">
-        <v>3711</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="8"/>
@@ -50404,7 +50489,7 @@
         <v>2864</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>3715</v>
+        <v>3717</v>
       </c>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
@@ -50418,13 +50503,13 @@
         <v>5</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>3716</v>
+        <v>3718</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>3717</v>
+        <v>3719</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>3711</v>
+        <v>3713</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="8"/>
@@ -50435,7 +50520,7 @@
         <v>2864</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>3718</v>
+        <v>3720</v>
       </c>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
@@ -50449,13 +50534,13 @@
         <v>6</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>3719</v>
+        <v>3721</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>3720</v>
+        <v>3722</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>3711</v>
+        <v>3713</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="8"/>
@@ -50466,7 +50551,7 @@
         <v>2864</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>3721</v>
+        <v>3723</v>
       </c>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
@@ -50484,24 +50569,24 @@
         <v>397</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>3722</v>
+        <v>3724</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>3723</v>
+        <v>3725</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="8" t="s">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" t="s">
         <v>3359</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>3724</v>
+        <v>3726</v>
       </c>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
@@ -50516,24 +50601,24 @@
         <v>3111</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>3448</v>
+        <v>3449</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>3449</v>
+        <v>3450</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3" t="s">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3" t="s">
         <v>3359</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>3452</v>
+        <v>3453</v>
       </c>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
@@ -50548,24 +50633,24 @@
         <v>3115</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>3453</v>
+        <v>3454</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>3454</v>
+        <v>3455</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3" t="s">
         <v>3359</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>3455</v>
+        <v>3456</v>
       </c>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
@@ -50580,24 +50665,24 @@
         <v>3119</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>3456</v>
+        <v>3457</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>3457</v>
+        <v>3458</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3" t="s">
         <v>3359</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>3458</v>
+        <v>3459</v>
       </c>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -50609,27 +50694,27 @@
     </row>
     <row r="128" ht="14.25">
       <c r="A128" s="3" t="s">
-        <v>3459</v>
+        <v>3460</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>3460</v>
+        <v>3461</v>
       </c>
       <c r="C128" t="s">
-        <v>3461</v>
+        <v>3462</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3" t="s">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3" t="s">
         <v>3359</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
@@ -50646,27 +50731,27 @@
     </row>
     <row r="130" ht="14.25">
       <c r="A130" s="3" t="s">
-        <v>3467</v>
+        <v>3468</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>3468</v>
+        <v>3469</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>3469</v>
+        <v>3470</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="3" t="s">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3" t="s">
         <v>3359</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
@@ -50678,20 +50763,20 @@
     </row>
     <row r="134" ht="14.25">
       <c r="C134" t="s">
-        <v>3725</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="135" ht="14.25">
       <c r="C135" t="s">
-        <v>3726</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="140" ht="14.25">
       <c r="C140" t="s">
-        <v>3727</v>
+        <v>3729</v>
       </c>
       <c r="D140" t="s">
-        <v>3728</v>
+        <v>3730</v>
       </c>
       <c r="H140" s="3" t="s">
         <v>3359</v>
@@ -50699,12 +50784,20 @@
     </row>
     <row r="144" ht="14.25">
       <c r="C144" t="s">
-        <v>3729</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="145" ht="14.25">
       <c r="C145" t="s">
-        <v>3730</v>
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="149" ht="14.25">
+      <c r="C149" t="s">
+        <v>3733</v>
+      </c>
+      <c r="D149" t="s">
+        <v>3734</v>
       </c>
     </row>
   </sheetData>
@@ -50718,14 +50811,14 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="27.7109375"/>
-    <col customWidth="1" min="3" max="3" style="6" width="85.00390625"/>
+    <col customWidth="1" min="3" max="3" style="6" width="67.57421875"/>
     <col customWidth="1" min="4" max="4" width="25.00390625"/>
     <col min="5" max="5" style="5" width="9.140625"/>
     <col customWidth="1" min="6" max="9" width="14.28125"/>
@@ -50763,43 +50856,51 @@
     <row r="2"/>
     <row r="3">
       <c r="C3" s="6" t="s">
-        <v>3731</v>
+        <v>3735</v>
       </c>
       <c r="D3" t="s">
-        <v>3732</v>
+        <v>3736</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2018</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" s="6" t="s">
-        <v>3733</v>
+        <v>3737</v>
       </c>
       <c r="D4" t="s">
-        <v>3734</v>
+        <v>3738</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1979</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="6" t="s">
-        <v>3735</v>
+        <v>3739</v>
       </c>
       <c r="D5" t="s">
-        <v>3736</v>
+        <v>3740</v>
       </c>
       <c r="I5" t="s">
-        <v>3737</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>3738</v>
+        <v>3742</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>3739</v>
+        <v>3743</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>3740</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>3744</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1981</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -50817,12 +50918,14 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="7" t="s">
-        <v>3741</v>
+        <v>3745</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>3742</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>3746</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2004</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -50838,15 +50941,17 @@
     </row>
     <row r="8" ht="14.25">
       <c r="B8" s="3" t="s">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>3465</v>
+        <v>3466</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>3742</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>3746</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1995</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -50862,13 +50967,13 @@
     <row r="9" ht="14.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>3743</v>
+        <v>3747</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>3744</v>
+        <v>3748</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>3745</v>
+        <v>3749</v>
       </c>
       <c r="E9" s="2">
         <v>2004</v>
@@ -50889,10 +50994,10 @@
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="7" t="s">
-        <v>3746</v>
+        <v>3750</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>3745</v>
+        <v>3749</v>
       </c>
       <c r="E10" s="2">
         <v>2005</v>
@@ -50913,10 +51018,10 @@
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="7" t="s">
-        <v>3747</v>
+        <v>3751</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>3745</v>
+        <v>3749</v>
       </c>
       <c r="E11" s="2">
         <v>2006</v>
@@ -50937,10 +51042,10 @@
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="7" t="s">
-        <v>3748</v>
+        <v>3752</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>3745</v>
+        <v>3749</v>
       </c>
       <c r="E12" s="2">
         <v>2007</v>
@@ -50961,10 +51066,10 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="7" t="s">
+        <v>3753</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>3749</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>3745</v>
       </c>
       <c r="E13" s="2">
         <v>2017</v>
@@ -50985,10 +51090,10 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="7" t="s">
-        <v>3750</v>
+        <v>3754</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>3745</v>
+        <v>3749</v>
       </c>
       <c r="E14" s="2">
         <v>2015</v>
@@ -51007,13 +51112,13 @@
     </row>
     <row r="15" ht="14.25">
       <c r="B15" s="3" t="s">
-        <v>3751</v>
+        <v>3755</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>3752</v>
+        <v>3756</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>3753</v>
+        <v>3757</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
@@ -51031,13 +51136,13 @@
     <row r="16" ht="14.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>3754</v>
+        <v>3758</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>3755</v>
+        <v>3759</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3753</v>
+        <v>3757</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
@@ -51056,10 +51161,10 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="7" t="s">
-        <v>3756</v>
+        <v>3760</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>3753</v>
+        <v>3757</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
@@ -51078,10 +51183,10 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="7" t="s">
-        <v>3757</v>
+        <v>3761</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>3758</v>
+        <v>3762</v>
       </c>
       <c r="E18" s="2">
         <v>1963</v>
@@ -51104,10 +51209,10 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="7" t="s">
-        <v>3759</v>
+        <v>3763</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>3758</v>
+        <v>3762</v>
       </c>
       <c r="E19" s="2">
         <v>1964</v>
@@ -51130,10 +51235,10 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="7" t="s">
-        <v>3760</v>
+        <v>3764</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>3758</v>
+        <v>3762</v>
       </c>
       <c r="E20" s="2">
         <v>1965</v>
@@ -51156,10 +51261,10 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="7" t="s">
-        <v>3761</v>
+        <v>3765</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>3758</v>
+        <v>3762</v>
       </c>
       <c r="E21" s="2">
         <v>1967</v>
@@ -51182,10 +51287,10 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
+        <v>3766</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>3762</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>3758</v>
       </c>
       <c r="E22" s="2">
         <v>1975</v>
@@ -51208,10 +51313,10 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="7" t="s">
-        <v>3763</v>
+        <v>3767</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>3758</v>
+        <v>3762</v>
       </c>
       <c r="E23" s="2">
         <v>1977</v>
@@ -51234,10 +51339,10 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="7" t="s">
-        <v>3764</v>
+        <v>3768</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>3758</v>
+        <v>3762</v>
       </c>
       <c r="E24" s="2">
         <v>1979</v>
@@ -51260,10 +51365,10 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="7" t="s">
-        <v>3765</v>
+        <v>3769</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>3758</v>
+        <v>3762</v>
       </c>
       <c r="E25" s="2">
         <v>1981</v>
@@ -51286,10 +51391,10 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="7" t="s">
-        <v>3766</v>
+        <v>3770</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3758</v>
+        <v>3762</v>
       </c>
       <c r="E26" s="2">
         <v>1985</v>
@@ -51312,10 +51417,10 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="7" t="s">
-        <v>3767</v>
+        <v>3771</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>3758</v>
+        <v>3762</v>
       </c>
       <c r="E27" s="2">
         <v>1987</v>
@@ -51338,10 +51443,10 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="7" t="s">
-        <v>3768</v>
+        <v>3772</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>3758</v>
+        <v>3762</v>
       </c>
       <c r="E28" s="2">
         <v>1993</v>
@@ -51364,10 +51469,10 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="7" t="s">
-        <v>3769</v>
+        <v>3773</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>3758</v>
+        <v>3762</v>
       </c>
       <c r="E29" s="2">
         <v>1995</v>
@@ -51390,10 +51495,10 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="7" t="s">
-        <v>3770</v>
+        <v>3774</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>3758</v>
+        <v>3762</v>
       </c>
       <c r="E30" s="2">
         <v>2002</v>
@@ -51416,10 +51521,10 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="7" t="s">
-        <v>3771</v>
+        <v>3775</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>3758</v>
+        <v>3762</v>
       </c>
       <c r="E31" s="2">
         <v>2002</v>
@@ -51442,10 +51547,10 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="7" t="s">
-        <v>3772</v>
+        <v>3776</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>3758</v>
+        <v>3762</v>
       </c>
       <c r="E32" s="2">
         <v>2005</v>
@@ -51468,10 +51573,10 @@
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="7" t="s">
-        <v>3773</v>
+        <v>3777</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>3758</v>
+        <v>3762</v>
       </c>
       <c r="E33" s="2">
         <v>2004</v>
@@ -51494,10 +51599,10 @@
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="7" t="s">
-        <v>3774</v>
+        <v>3778</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>3758</v>
+        <v>3762</v>
       </c>
       <c r="E34" s="2">
         <v>2012</v>
@@ -51519,13 +51624,13 @@
     <row r="35" ht="14.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>3775</v>
+        <v>3779</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>3776</v>
+        <v>3780</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>3777</v>
+        <v>3781</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>
@@ -51543,13 +51648,13 @@
     </row>
     <row r="36" ht="14.25">
       <c r="B36" s="3" t="s">
-        <v>3778</v>
+        <v>3782</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>3779</v>
+        <v>3783</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>3777</v>
+        <v>3781</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="3"/>
@@ -51568,13 +51673,13 @@
     <row r="37" ht="14.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>3780</v>
+        <v>3784</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>3781</v>
+        <v>3785</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>3782</v>
+        <v>3786</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
@@ -51591,13 +51696,13 @@
     </row>
     <row r="38" ht="14.25">
       <c r="B38" s="3" t="s">
-        <v>3783</v>
+        <v>3787</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>3784</v>
+        <v>3788</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>3785</v>
+        <v>3789</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
@@ -51615,13 +51720,13 @@
     <row r="39" ht="14.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>3786</v>
+        <v>3790</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>3787</v>
+        <v>3791</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>3785</v>
+        <v>3789</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
@@ -51638,13 +51743,13 @@
     </row>
     <row r="40" ht="14.25">
       <c r="B40" s="3" t="s">
-        <v>3788</v>
+        <v>3792</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>3793</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>3789</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>3785</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="3"/>
@@ -51662,13 +51767,13 @@
     <row r="41" ht="14.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>3790</v>
+        <v>3794</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>3791</v>
+        <v>3795</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>3785</v>
+        <v>3789</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="3"/>
@@ -51689,346 +51794,346 @@
     <row r="46" ht="14.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>3792</v>
+        <v>3796</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>3793</v>
+        <v>3797</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>3794</v>
+        <v>3798</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>3795</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>3796</v>
+        <v>3800</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>3797</v>
+        <v>3801</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>3794</v>
+        <v>3798</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>3795</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
+        <v>3802</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>3803</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>3798</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>3799</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>3794</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>3800</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>3801</v>
+        <v>3805</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>3802</v>
+        <v>3806</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>3794</v>
+        <v>3798</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>3803</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="50" ht="14.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>3804</v>
+        <v>3808</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>3805</v>
+        <v>3809</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>3794</v>
+        <v>3798</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>3803</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>3806</v>
+        <v>3810</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>3811</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>3798</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>3807</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>3794</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>3803</v>
       </c>
     </row>
     <row r="52" ht="14.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>3808</v>
+        <v>3812</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>3809</v>
+        <v>3813</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>3794</v>
+        <v>3798</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>3803</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="53" ht="14.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
-        <v>3810</v>
+        <v>3814</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>3811</v>
+        <v>3815</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>3794</v>
+        <v>3798</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>3803</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="54" ht="14.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
-        <v>3812</v>
+        <v>3816</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>3813</v>
+        <v>3817</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>3814</v>
+        <v>3818</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>3815</v>
+        <v>3819</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>3816</v>
+        <v>3820</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>3817</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="55" ht="14.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
+        <v>3822</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>3817</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>3818</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>3813</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>3814</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>3815</v>
+        <v>3819</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
-        <v>3816</v>
+        <v>3820</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>3817</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="56" ht="14.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
+        <v>3823</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>3817</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>3818</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>3819</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>3813</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>3814</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>3815</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
-        <v>3816</v>
+        <v>3820</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>3817</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="57" ht="14.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>3820</v>
+        <v>3824</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>3813</v>
+        <v>3817</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>3814</v>
+        <v>3818</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>3815</v>
+        <v>3819</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
-        <v>3816</v>
+        <v>3820</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>3817</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="58" ht="14.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
-        <v>3821</v>
+        <v>3825</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>3813</v>
+        <v>3817</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>3814</v>
+        <v>3818</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>3822</v>
+        <v>3826</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
-        <v>3816</v>
+        <v>3820</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>3823</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="59" ht="14.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
-        <v>3824</v>
+        <v>3828</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>3813</v>
+        <v>3817</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>3814</v>
+        <v>3818</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>3815</v>
+        <v>3819</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>3816</v>
+        <v>3820</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>3817</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="60" ht="14.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
-        <v>3825</v>
+        <v>3829</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>3813</v>
+        <v>3817</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>3814</v>
+        <v>3818</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>3815</v>
+        <v>3819</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>3816</v>
+        <v>3820</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>3817</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="61" ht="14.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
-        <v>3826</v>
+        <v>3830</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>3813</v>
+        <v>3817</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>3814</v>
+        <v>3818</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>3815</v>
+        <v>3819</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>3816</v>
+        <v>3820</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>3817</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="62" ht="14.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
-        <v>3827</v>
+        <v>3831</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>3813</v>
+        <v>3817</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>3814</v>
+        <v>3818</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>3815</v>
+        <v>3819</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>3816</v>
+        <v>3820</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>3817</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="63" ht="14.25">
@@ -52037,103 +52142,103 @@
     <row r="66" ht="14.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
-        <v>3828</v>
+        <v>3832</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>3829</v>
+        <v>3833</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>3814</v>
+        <v>3818</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>3830</v>
+        <v>3834</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>3831</v>
+        <v>3835</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>3832</v>
+        <v>3836</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>3833</v>
+        <v>3837</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3" t="s">
-        <v>3834</v>
+        <v>3838</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>3835</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="67" ht="14.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>3836</v>
+        <v>3840</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>3837</v>
+        <v>3841</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>3838</v>
+        <v>3842</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>3839</v>
+        <v>3843</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>3840</v>
+        <v>3844</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>3841</v>
+        <v>3845</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>3842</v>
+        <v>3846</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3" t="s">
-        <v>3843</v>
+        <v>3847</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>3844</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="68" ht="14.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
-        <v>3845</v>
+        <v>3849</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>3846</v>
+        <v>3850</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>3814</v>
+        <v>3818</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>3847</v>
+        <v>3851</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>3848</v>
+        <v>3852</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>3849</v>
+        <v>3853</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>3850</v>
+        <v>3854</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3" t="s">
-        <v>3851</v>
+        <v>3855</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>3852</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="72" ht="14.25">
@@ -52141,35 +52246,35 @@
         <v>32</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>3853</v>
+        <v>3857</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>3854</v>
+        <v>3858</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>3814</v>
+        <v>3818</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>3830</v>
+        <v>3834</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>3855</v>
+        <v>3859</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>3856</v>
+        <v>3860</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>3833</v>
+        <v>3837</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3" t="s">
-        <v>3857</v>
+        <v>3861</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>3858</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="74" ht="14.25">
@@ -52197,16 +52302,15 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="71.421875"/>
+    <col customWidth="1" min="3" max="3" width="97.57421875"/>
     <col customWidth="1" min="4" max="4" width="35.7109375"/>
-    <col customWidth="1" min="6" max="6" width="21.00390625"/>
+    <col customWidth="1" min="6" max="6" width="24.57421875"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -52238,449 +52342,628 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" ht="14.25">
+      <c r="C2" s="11" t="s">
+        <v>3863</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3864</v>
+      </c>
+    </row>
     <row r="3" ht="14.25">
       <c r="C3" s="11" t="s">
-        <v>3859</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3860</v>
+        <v>3865</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3866</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3864</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="C4" s="11" t="s">
-        <v>3861</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3862</v>
+        <v>3867</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>3868</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>3860</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="C5" s="11" t="s">
-        <v>3863</v>
-      </c>
-      <c r="D5" s="12" t="s">
+        <v>3869</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3870</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>3864</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>3860</v>
-      </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="C6" s="11" t="s">
-        <v>3865</v>
+      <c r="C6" t="s">
+        <v>3871</v>
       </c>
       <c r="D6" t="s">
-        <v>3866</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>3860</v>
+        <v>3872</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3864</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="C7" t="s">
-        <v>3867</v>
+        <v>3873</v>
       </c>
       <c r="D7" t="s">
-        <v>3868</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3860</v>
+        <v>3874</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>3864</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="C8" t="s">
-        <v>3869</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3870</v>
+      <c r="C8" s="8" t="s">
+        <v>3875</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>3876</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>3860</v>
-      </c>
+        <v>3864</v>
+      </c>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" ht="14.25">
       <c r="C9" s="8" t="s">
-        <v>3871</v>
+        <v>3877</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>3872</v>
+        <v>3878</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>3860</v>
-      </c>
-      <c r="I9" s="8"/>
+        <v>3864</v>
+      </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="C10" s="8" t="s">
-        <v>3873</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>3874</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3860</v>
+      <c r="C10" s="3" t="s">
+        <v>3879</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3880</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3448</v>
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="C11" s="13" t="s">
-        <v>3875</v>
+      <c r="C11" s="3" t="s">
+        <v>3881</v>
       </c>
       <c r="D11" t="s">
-        <v>3876</v>
-      </c>
-      <c r="F11" t="s">
-        <v>3877</v>
+        <v>3882</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>3448</v>
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="C12" s="13" t="s">
-        <v>3878</v>
+      <c r="C12" s="3" t="s">
+        <v>3883</v>
       </c>
       <c r="D12" t="s">
-        <v>3879</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>3877</v>
+        <v>3884</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>3448</v>
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="C13" s="13" t="s">
-        <v>3880</v>
+      <c r="C13" s="3" t="s">
+        <v>3885</v>
       </c>
       <c r="D13" t="s">
-        <v>3881</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>3877</v>
+        <v>3886</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3448</v>
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="C14" s="13" t="s">
-        <v>3882</v>
+      <c r="C14" s="3" t="s">
+        <v>3887</v>
       </c>
       <c r="D14" t="s">
-        <v>3883</v>
-      </c>
-      <c r="F14" t="s">
-        <v>3877</v>
+        <v>3888</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3448</v>
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="C15" s="13" t="s">
-        <v>3884</v>
+      <c r="C15" s="3" t="s">
+        <v>3889</v>
       </c>
       <c r="D15" t="s">
-        <v>3885</v>
+        <v>3890</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>3877</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="C16" s="13" t="s">
-        <v>3886</v>
+      <c r="C16" s="3" t="s">
+        <v>3891</v>
       </c>
       <c r="D16" t="s">
-        <v>3887</v>
+        <v>3890</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>3877</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="C17" s="13" t="s">
-        <v>3888</v>
+      <c r="C17" s="3" t="s">
+        <v>3892</v>
       </c>
       <c r="D17" t="s">
-        <v>3887</v>
+        <v>3893</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>3877</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="C18" s="13" t="s">
-        <v>3889</v>
+      <c r="C18" s="12" t="s">
+        <v>3894</v>
       </c>
       <c r="D18" t="s">
-        <v>3890</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>3877</v>
+        <v>3895</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3448</v>
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="C19" s="15" t="s">
-        <v>3891</v>
+      <c r="C19" s="3" t="s">
+        <v>3448</v>
       </c>
       <c r="D19" t="s">
-        <v>3892</v>
+        <v>3446</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>3877</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="C20" s="13" t="s">
-        <v>3877</v>
+        <v>3896</v>
       </c>
       <c r="D20" t="s">
-        <v>3446</v>
+        <v>3897</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>3877</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="C21" s="16" t="s">
-        <v>3893</v>
+      <c r="C21" s="3" t="s">
+        <v>3898</v>
       </c>
       <c r="D21" t="s">
-        <v>3894</v>
+        <v>3899</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>3877</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="C22" s="13" t="s">
-        <v>3895</v>
+      <c r="C22" t="s">
+        <v>3900</v>
       </c>
       <c r="D22" t="s">
-        <v>3896</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3877</v>
+        <v>3901</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3902</v>
       </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="C23" t="s">
-        <v>3897</v>
+      <c r="C23" s="11" t="s">
+        <v>3903</v>
       </c>
       <c r="D23" t="s">
-        <v>3898</v>
+        <v>3904</v>
       </c>
       <c r="F23" t="s">
-        <v>3899</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="C24" s="11" t="s">
-        <v>3900</v>
-      </c>
-      <c r="D24" t="s">
-        <v>3901</v>
-      </c>
+        <v>3905</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>3906</v>
+      </c>
+      <c r="E24" s="3"/>
       <c r="F24" t="s">
-        <v>3899</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="25" ht="14.25">
-      <c r="C25" s="11" t="s">
-        <v>3902</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>3903</v>
-      </c>
-      <c r="E25" s="3"/>
+      <c r="C25" s="12" t="s">
+        <v>3907</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>3908</v>
+      </c>
       <c r="F25" t="s">
-        <v>3899</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="26" ht="14.25">
-      <c r="C26" s="11" t="s">
-        <v>3904</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>3905</v>
-      </c>
-      <c r="E26" s="3"/>
+      <c r="C26" s="12" t="s">
+        <v>3910</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3911</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3909</v>
+      </c>
     </row>
     <row r="27" ht="14.25">
-      <c r="C27" s="11" t="s">
-        <v>3906</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>3907</v>
-      </c>
-      <c r="E27" s="3"/>
+      <c r="C27" s="12" t="s">
+        <v>3912</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>3913</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3909</v>
+      </c>
     </row>
     <row r="28" ht="14.25">
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="C28" s="12" t="s">
+        <v>3914</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>3915</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3909</v>
+      </c>
     </row>
     <row r="29" ht="14.25">
-      <c r="C29" t="s">
-        <v>3908</v>
-      </c>
-      <c r="D29" s="13" t="s">
+      <c r="C29" s="12" t="s">
+        <v>3916</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>3917</v>
+      </c>
+      <c r="F29" t="s">
         <v>3909</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" t="s">
-        <v>3910</v>
-      </c>
     </row>
     <row r="30" ht="14.25">
-      <c r="C30" t="s">
-        <v>3911</v>
+      <c r="C30" s="12" t="s">
+        <v>3918</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>3919</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3909</v>
       </c>
     </row>
     <row r="31" ht="14.25">
-      <c r="C31" s="12"/>
-      <c r="F31"/>
+      <c r="C31" s="12" t="s">
+        <v>3920</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>3921</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3909</v>
+      </c>
     </row>
     <row r="32" ht="14.25">
-      <c r="C32" s="12"/>
+      <c r="C32" s="12" t="s">
+        <v>3922</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>3923</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3909</v>
+      </c>
     </row>
     <row r="33" ht="14.25">
-      <c r="C33" s="3" t="s">
-        <v>3912</v>
+      <c r="C33" s="12" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>3921</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3909</v>
       </c>
     </row>
     <row r="34" ht="14.25">
-      <c r="C34" s="11" t="s">
-        <v>3913</v>
+      <c r="C34" s="12" t="s">
+        <v>3925</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>3926</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3909</v>
       </c>
     </row>
     <row r="35" ht="14.25">
-      <c r="C35" s="3" t="s">
-        <v>3914</v>
+      <c r="C35" s="12" t="s">
+        <v>3927</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>3928</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3909</v>
       </c>
     </row>
     <row r="36" ht="14.25">
-      <c r="C36" s="3" t="s">
-        <v>3915</v>
+      <c r="C36" s="12" t="s">
+        <v>3929</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>3930</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3909</v>
       </c>
     </row>
     <row r="37" ht="14.25">
-      <c r="C37" s="3" t="s">
-        <v>3916</v>
+      <c r="C37" s="12" t="s">
+        <v>3931</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>3932</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3909</v>
       </c>
     </row>
     <row r="38" ht="14.25">
-      <c r="C38" s="3" t="s">
-        <v>3917</v>
+      <c r="C38" s="12" t="s">
+        <v>3933</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>3934</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3909</v>
       </c>
     </row>
     <row r="39" ht="14.25">
-      <c r="C39" s="3" t="s">
-        <v>3918</v>
+      <c r="C39" s="11" t="s">
+        <v>3935</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>3936</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" t="s">
+        <v>3937</v>
       </c>
     </row>
     <row r="40" ht="14.25">
-      <c r="C40" s="3" t="s">
-        <v>3919</v>
+      <c r="C40" s="11" t="s">
+        <v>3938</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>3939</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" t="s">
+        <v>3940</v>
       </c>
     </row>
     <row r="41" ht="14.25">
-      <c r="C41" s="3" t="s">
-        <v>3920</v>
-      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" ht="14.25">
-      <c r="C42" s="3" t="s">
-        <v>3921</v>
-      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" ht="14.25">
-      <c r="C43" s="3" t="s">
-        <v>3922</v>
-      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" ht="14.25">
-      <c r="C44" s="3" t="s">
-        <v>3923</v>
-      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" ht="14.25">
-      <c r="C45" s="3" t="s">
-        <v>3924</v>
+      <c r="C45" s="11" t="s">
+        <v>3941</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>3942</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" t="s">
+        <v>3943</v>
       </c>
     </row>
     <row r="46" ht="14.25">
-      <c r="C46" s="3" t="s">
-        <v>3925</v>
+      <c r="C46" t="s">
+        <v>3944</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>3945</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" t="s">
+        <v>3946</v>
       </c>
     </row>
     <row r="47" ht="14.25">
-      <c r="C47" s="3" t="s">
-        <v>3926</v>
+      <c r="C47" t="s">
+        <v>3947</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3948</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3946</v>
       </c>
     </row>
     <row r="48" ht="14.25">
-      <c r="C48" s="3" t="s">
-        <v>3927</v>
-      </c>
+      <c r="C48" s="8"/>
     </row>
     <row r="49" ht="14.25">
-      <c r="C49" s="3" t="s">
-        <v>3928</v>
-      </c>
+      <c r="C49" s="8"/>
     </row>
     <row r="50" ht="14.25">
       <c r="C50" s="3" t="s">
-        <v>3929</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="51" ht="14.25">
-      <c r="C51" s="3" t="s">
-        <v>3930</v>
+      <c r="C51" s="11" t="s">
+        <v>3950</v>
       </c>
     </row>
     <row r="52" ht="14.25">
       <c r="C52" s="3" t="s">
-        <v>3931</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="53" ht="14.25">
-      <c r="C53" s="17"/>
+      <c r="C53" s="3" t="s">
+        <v>3952</v>
+      </c>
     </row>
     <row r="54" ht="14.25">
       <c r="C54" s="3" t="s">
-        <v>3932</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="55" ht="14.25">
       <c r="C55" s="3" t="s">
-        <v>3933</v>
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="C56" s="3" t="s">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="C57" s="3" t="s">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="C58" s="3" t="s">
+        <v>3957</v>
       </c>
     </row>
     <row r="59" ht="14.25">
-      <c r="C59" t="s">
-        <v>3934</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25"/>
-    <row r="61" ht="14.25"/>
-    <row r="62" ht="14.25"/>
-    <row r="63" ht="14.25"/>
+      <c r="C59" s="3" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="C60" s="3" t="s">
+        <v>3959</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="C61" s="3" t="s">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="C62" s="3" t="s">
+        <v>3961</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="C63" s="3" t="s">
+        <v>3962</v>
+      </c>
+    </row>
     <row r="64" ht="14.25">
       <c r="C64" s="3" t="s">
-        <v>3935</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25"/>
-    <row r="66" ht="14.25"/>
-    <row r="67" ht="14.25"/>
-    <row r="68" ht="14.25"/>
-    <row r="69" ht="14.25"/>
-    <row r="70" ht="14.25"/>
-    <row r="71" ht="14.25"/>
-    <row r="75" ht="14.25"/>
-    <row r="81" ht="14.25">
-      <c r="C81" s="3" t="s">
-        <v>3936</v>
-      </c>
-    </row>
-    <row r="82" ht="14.25">
-      <c r="C82" t="s">
-        <v>3937</v>
-      </c>
-    </row>
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="C65" s="3" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="C66" s="3" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="C67" s="3" t="s">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="C68" s="3" t="s">
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="C69" s="3" t="s">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="C70" s="14"/>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="C71" s="3" t="s">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="C72" s="3" t="s">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25"/>
+    <row r="76" ht="14.25"/>
+    <row r="77" ht="14.25">
+      <c r="C77" s="3" t="s">
+        <v>3971</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="C78" s="3" t="s">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25">
+      <c r="C79" t="s">
+        <v>3973</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25"/>
   </sheetData>
   <autoFilter ref="A1:I1"/>
   <printOptions headings="0" gridLines="0"/>

--- a/Selected_Downloads.xlsx
+++ b/Selected_Downloads.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3974" uniqueCount="3974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3976" uniqueCount="3976">
   <si>
     <t>Index</t>
   </si>
@@ -11617,6 +11617,12 @@
   </si>
   <si>
     <t xml:space="preserve">PizzaGate Stuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eye of the Chickenhawk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simon Dovey</t>
   </si>
   <si>
     <t xml:space="preserve">The Franklin Scandal: A Story of Powerbrokers, Child Abuse &amp; Betrayal</t>
@@ -12027,7 +12033,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -12058,6 +12064,9 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -52357,7 +52366,7 @@
       <c r="D3" t="s">
         <v>3866</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="12" t="s">
         <v>3864</v>
       </c>
     </row>
@@ -52365,7 +52374,7 @@
       <c r="C4" s="11" t="s">
         <v>3867</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" t="s">
         <v>3868</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -52376,7 +52385,7 @@
       <c r="C5" s="11" t="s">
         <v>3869</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>3870</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -52384,13 +52393,13 @@
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="C6" t="s">
+      <c r="C6" s="11" t="s">
         <v>3871</v>
       </c>
       <c r="D6" t="s">
         <v>3872</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>3864</v>
       </c>
     </row>
@@ -52401,21 +52410,20 @@
       <c r="D7" t="s">
         <v>3874</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s">
         <v>3864</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="C8" s="8" t="s">
+      <c r="C8" t="s">
         <v>3875</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" t="s">
         <v>3876</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3864</v>
       </c>
-      <c r="I8" s="8"/>
     </row>
     <row r="9" ht="14.25">
       <c r="C9" s="8" t="s">
@@ -52427,16 +52435,17 @@
       <c r="F9" s="3" t="s">
         <v>3864</v>
       </c>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="8" t="s">
         <v>3879</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="8" t="s">
         <v>3880</v>
       </c>
-      <c r="F10" t="s">
-        <v>3448</v>
+      <c r="F10" s="3" t="s">
+        <v>3864</v>
       </c>
     </row>
     <row r="11" ht="14.25">
@@ -52446,7 +52455,7 @@
       <c r="D11" t="s">
         <v>3882</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" t="s">
         <v>3448</v>
       </c>
     </row>
@@ -52468,7 +52477,7 @@
       <c r="D13" t="s">
         <v>3886</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="8" t="s">
         <v>3448</v>
       </c>
     </row>
@@ -52479,7 +52488,7 @@
       <c r="D14" t="s">
         <v>3888</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" t="s">
         <v>3448</v>
       </c>
     </row>
@@ -52499,7 +52508,7 @@
         <v>3891</v>
       </c>
       <c r="D16" t="s">
-        <v>3890</v>
+        <v>3892</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>3448</v>
@@ -52507,17 +52516,17 @@
     </row>
     <row r="17" ht="14.25">
       <c r="C17" s="3" t="s">
+        <v>3893</v>
+      </c>
+      <c r="D17" t="s">
         <v>3892</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3893</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3448</v>
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="3" t="s">
         <v>3894</v>
       </c>
       <c r="D18" t="s">
@@ -52528,29 +52537,29 @@
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="C19" s="3" t="s">
-        <v>3448</v>
+      <c r="C19" s="13" t="s">
+        <v>3896</v>
       </c>
       <c r="D19" t="s">
-        <v>3446</v>
+        <v>3897</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>3448</v>
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="C20" s="13" t="s">
-        <v>3896</v>
+      <c r="C20" s="3" t="s">
+        <v>3448</v>
       </c>
       <c r="D20" t="s">
-        <v>3897</v>
+        <v>3446</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3448</v>
       </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="14" t="s">
         <v>3898</v>
       </c>
       <c r="D21" t="s">
@@ -52561,221 +52570,227 @@
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>3900</v>
       </c>
       <c r="D22" t="s">
         <v>3901</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="3" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="C23" t="s">
         <v>3902</v>
       </c>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="C23" s="11" t="s">
+      <c r="D23" t="s">
         <v>3903</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>3904</v>
-      </c>
-      <c r="F23" t="s">
-        <v>3902</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="C24" s="11" t="s">
         <v>3905</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" t="s">
         <v>3906</v>
       </c>
-      <c r="E24" s="3"/>
       <c r="F24" t="s">
-        <v>3902</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="25" ht="14.25">
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>3907</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>3908</v>
       </c>
+      <c r="E25" s="3"/>
       <c r="F25" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="C26" s="13" t="s">
         <v>3909</v>
       </c>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="C26" s="12" t="s">
+      <c r="D26" s="3" t="s">
         <v>3910</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="F26" t="s">
         <v>3911</v>
       </c>
-      <c r="F26" t="s">
-        <v>3909</v>
-      </c>
     </row>
     <row r="27" ht="14.25">
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="13" t="s">
         <v>3912</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>3913</v>
       </c>
       <c r="F27" t="s">
-        <v>3909</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="28" ht="14.25">
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="13" t="s">
         <v>3914</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>3915</v>
       </c>
       <c r="F28" t="s">
-        <v>3909</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="29" ht="14.25">
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>3916</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3917</v>
       </c>
       <c r="F29" t="s">
-        <v>3909</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="30" ht="14.25">
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="13" t="s">
         <v>3918</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>3919</v>
       </c>
       <c r="F30" t="s">
-        <v>3909</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="31" ht="14.25">
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="13" t="s">
         <v>3920</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>3921</v>
       </c>
       <c r="F31" t="s">
-        <v>3909</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="32" ht="14.25">
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="13" t="s">
         <v>3922</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3923</v>
       </c>
       <c r="F32" t="s">
-        <v>3909</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="33" ht="14.25">
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="13" t="s">
         <v>3924</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>3921</v>
+        <v>3925</v>
       </c>
       <c r="F33" t="s">
-        <v>3909</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="34" ht="14.25">
-      <c r="C34" s="12" t="s">
-        <v>3925</v>
+      <c r="C34" s="13" t="s">
+        <v>3926</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>3926</v>
+        <v>3923</v>
       </c>
       <c r="F34" t="s">
-        <v>3909</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="35" ht="14.25">
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="13" t="s">
         <v>3927</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>3928</v>
       </c>
       <c r="F35" t="s">
-        <v>3909</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="36" ht="14.25">
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="13" t="s">
         <v>3929</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>3930</v>
       </c>
       <c r="F36" t="s">
-        <v>3909</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="37" ht="14.25">
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="13" t="s">
         <v>3931</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>3932</v>
       </c>
       <c r="F37" t="s">
-        <v>3909</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="38" ht="14.25">
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="13" t="s">
         <v>3933</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>3934</v>
       </c>
       <c r="F38" t="s">
-        <v>3909</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="39" ht="14.25">
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="13" t="s">
         <v>3935</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="3" t="s">
         <v>3936</v>
       </c>
-      <c r="E39" s="3"/>
       <c r="F39" t="s">
-        <v>3937</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="40" ht="14.25">
       <c r="C40" s="11" t="s">
+        <v>3937</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>3938</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>3939</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="C41" s="11" t="s">
         <v>3940</v>
       </c>
-    </row>
-    <row r="41" ht="14.25">
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="D41" s="11" t="s">
+        <v>3941</v>
+      </c>
       <c r="E41" s="3"/>
+      <c r="F41" t="s">
+        <v>3942</v>
+      </c>
     </row>
     <row r="42" ht="14.25">
       <c r="C42" s="11"/>
@@ -52793,177 +52808,182 @@
       <c r="E44" s="3"/>
     </row>
     <row r="45" ht="14.25">
-      <c r="C45" s="11" t="s">
-        <v>3941</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>3942</v>
-      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
       <c r="E45" s="3"/>
-      <c r="F45" t="s">
+    </row>
+    <row r="46" ht="14.25">
+      <c r="C46" s="11" t="s">
         <v>3943</v>
       </c>
-    </row>
-    <row r="46" ht="14.25">
-      <c r="C46" t="s">
+      <c r="D46" s="11" t="s">
         <v>3944</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>3945</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="C47" t="s">
+        <v>3946</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>3947</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" s="3"/>
+      <c r="F47" t="s">
         <v>3948</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3946</v>
-      </c>
     </row>
     <row r="48" ht="14.25">
-      <c r="C48" s="8"/>
+      <c r="C48" t="s">
+        <v>3949</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3950</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3948</v>
+      </c>
     </row>
     <row r="49" ht="14.25">
       <c r="C49" s="8"/>
     </row>
     <row r="50" ht="14.25">
-      <c r="C50" s="3" t="s">
-        <v>3949</v>
-      </c>
+      <c r="C50" s="8"/>
     </row>
     <row r="51" ht="14.25">
-      <c r="C51" s="11" t="s">
-        <v>3950</v>
+      <c r="C51" s="3" t="s">
+        <v>3951</v>
       </c>
     </row>
     <row r="52" ht="14.25">
-      <c r="C52" s="3" t="s">
-        <v>3951</v>
+      <c r="C52" s="11" t="s">
+        <v>3952</v>
       </c>
     </row>
     <row r="53" ht="14.25">
       <c r="C53" s="3" t="s">
-        <v>3952</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="54" ht="14.25">
       <c r="C54" s="3" t="s">
-        <v>3953</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="55" ht="14.25">
       <c r="C55" s="3" t="s">
-        <v>3954</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="56" ht="14.25">
       <c r="C56" s="3" t="s">
-        <v>3955</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="57" ht="14.25">
       <c r="C57" s="3" t="s">
-        <v>3956</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="58" ht="14.25">
       <c r="C58" s="3" t="s">
-        <v>3957</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="59" ht="14.25">
       <c r="C59" s="3" t="s">
-        <v>3958</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="60" ht="14.25">
       <c r="C60" s="3" t="s">
-        <v>3959</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="61" ht="14.25">
       <c r="C61" s="3" t="s">
-        <v>3960</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="62" ht="14.25">
       <c r="C62" s="3" t="s">
-        <v>3961</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="63" ht="14.25">
       <c r="C63" s="3" t="s">
-        <v>3962</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="64" ht="14.25">
       <c r="C64" s="3" t="s">
-        <v>3963</v>
+        <v>3964</v>
       </c>
     </row>
     <row r="65" ht="14.25">
       <c r="C65" s="3" t="s">
-        <v>3964</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="66" ht="14.25">
       <c r="C66" s="3" t="s">
-        <v>3965</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="67" ht="14.25">
       <c r="C67" s="3" t="s">
-        <v>3966</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="68" ht="14.25">
       <c r="C68" s="3" t="s">
-        <v>3967</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="69" ht="14.25">
       <c r="C69" s="3" t="s">
-        <v>3968</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="70" ht="14.25">
-      <c r="C70" s="14"/>
+      <c r="C70" s="3" t="s">
+        <v>3970</v>
+      </c>
     </row>
     <row r="71" ht="14.25">
-      <c r="C71" s="3" t="s">
-        <v>3969</v>
-      </c>
+      <c r="C71" s="15"/>
     </row>
     <row r="72" ht="14.25">
       <c r="C72" s="3" t="s">
-        <v>3970</v>
-      </c>
-    </row>
-    <row r="74" ht="14.25"/>
-    <row r="76" ht="14.25"/>
-    <row r="77" ht="14.25">
-      <c r="C77" s="3" t="s">
         <v>3971</v>
       </c>
     </row>
+    <row r="73" ht="14.25">
+      <c r="C73" s="3" t="s">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25"/>
+    <row r="77" ht="14.25"/>
     <row r="78" ht="14.25">
       <c r="C78" s="3" t="s">
-        <v>3972</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="79" ht="14.25">
-      <c r="C79" t="s">
-        <v>3973</v>
-      </c>
-    </row>
-    <row r="101" ht="14.25"/>
+      <c r="C79" s="3" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="C80" t="s">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25"/>
   </sheetData>
   <autoFilter ref="A1:I1"/>
   <printOptions headings="0" gridLines="0"/>

--- a/Selected_Downloads.xlsx
+++ b/Selected_Downloads.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Revistas" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3976" uniqueCount="3976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3946" uniqueCount="3946">
   <si>
     <t>Index</t>
   </si>
@@ -9330,7 +9330,7 @@
     <t xml:space="preserve">Roberto Gama e Silva</t>
   </si>
   <si>
-    <t xml:space="preserve">/pol/ em Português</t>
+    <t>/pol/</t>
   </si>
   <si>
     <t>1991-olho-grande-na-amazonia-brasileira</t>
@@ -10095,9 +10095,6 @@
     <t xml:space="preserve">Corneliu Zelea Codreanu</t>
   </si>
   <si>
-    <t>/pol/</t>
-  </si>
-  <si>
     <t>zalmoxis21@gmail.com</t>
   </si>
   <si>
@@ -11472,157 +11469,70 @@
     <t xml:space="preserve">Antiga construção civil no Brasil - Fascículo VII</t>
   </si>
   <si>
-    <t>gri_33125000176541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Arte e a natureza em Portugal</t>
+    <t>gri_33125000447421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reliquias da architectura romano-byzantina em Portugal</t>
   </si>
   <si>
     <t xml:space="preserve">['getty', 'americana']</t>
   </si>
   <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porto : E. Biel &amp; Cia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 v Portuguese and French in parallel columns</t>
-  </si>
-  <si>
-    <t>gri_33125000176533</t>
-  </si>
-  <si>
-    <t>gri_33125000176491</t>
-  </si>
-  <si>
-    <t>gri_33125000176350</t>
-  </si>
-  <si>
-    <t>gri_33125000176525</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 v Portuguese and French in parallel columns</t>
-  </si>
-  <si>
-    <t>gri_33125000176343</t>
-  </si>
-  <si>
-    <t>gri_33125000176327</t>
-  </si>
-  <si>
-    <t>gri_33125000176558</t>
-  </si>
-  <si>
-    <t>gri_33125000176566</t>
-  </si>
-  <si>
-    <t>gri_33125000188413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Da architectura religiosa em Coimbra durante a edade media</t>
-  </si>
-  <si>
     <t>gridigitalservices@getty.edu</t>
   </si>
   <si>
-    <t xml:space="preserve">['Church architecture', 'Church architecture']</t>
-  </si>
-  <si>
-    <t>1875</t>
+    <t xml:space="preserve">['Architecture, Romanesque', 'Church architecture -- Portugal', 'Church architecture -- Portugal -- Coimbra']</t>
+  </si>
+  <si>
+    <t>1870</t>
   </si>
   <si>
     <t xml:space="preserve">Simões, Augusto Filipe, 1835-1884</t>
   </si>
   <si>
-    <t xml:space="preserve">Coimbra, Imprensa da Universidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Conferencia feita em 21 de fevereiro de 1874 no Instituto de Coimbra."</t>
-  </si>
-  <si>
-    <t>arteromnicaemp00vasc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arte románica em Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['robarts', 'toronto']</t>
-  </si>
-  <si>
-    <t>katie@archive.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Architecture, Romanesque', 'Architecture', 'Church architecture']</t>
-  </si>
-  <si>
-    <t>1918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vasconcellos, Joaquim de, 1849-1936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porto : Marques Abreu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Originally issued in fascicules Bibliography: p. 73-76 (3rd group) RBSC copy: With original paper covers bound in 32 52</t>
-  </si>
-  <si>
-    <t>methodolusitanic00pime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methodo lusitanico de desenhar as fortificaçoens das praças regulares &amp; irregulares : fortes de campanha, e outras obras pertencentes a architectura militar, distribuido em duas partes operativa e qualificativa</t>
-  </si>
-  <si>
-    <t>associate-ashley-walters@archive.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Fortification', 'Military architecture']</t>
-  </si>
-  <si>
-    <t>1680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Pimentel, Luís Serrão, 1613-1679', 'Pagan, Blaise François de, comte de Merveilles, 1604-1665', 'Baptista, Joaõ, 17th cent', 'Bietry, René', 'Mendes, Manuel, 17th cent', 'Craesbeeck de Mello, Antonio, -approximately 1687']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Em Lisboa : Na impressaõ de Antonio Craesbeeck de Mello impressor de S. Alteza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Added engraved title signed: Joaõ Bauptista. The XXXVI numbered double-page plates bear plans, elevations and views engraved by Manuel Mendes and René Bietry. The [5] additional double-page plates bear letterpress tables 8-10 and 13-14 In Getty copy all plates bound in at center fold to form [82] leaves in total Signatures: [sec.]⁴ *⁴ A-4P⁴ 4Q² Includes index Errata, last p Appendiz I. Pagan resumido, ou, Compendio das fortificaçoens do Conde de Pagan, examinadas, e reduzidas em algumas cousas a melhor disposiçao -- Appendiz II. Das obras do Conde de Pagan acco[m]modadas à nossa descripçaõ ichnographica, &amp; reguladas por nosso Methodo -- Trigonometria practica rectilinea, por Luis Serram Pimentel -- Compendio de alguns problemas da geometria practica, &amp; theoremas da especulativa Binding: old red goatskin. Boards tooled extensively in gilt (frames filled with rolls including one that depicts a hunting scene; center panels with rosettes, quarter rosettes in corners). Edges of boards gilt rolled. Spine gilt tooled, title in 2nd compartment. Page edges gilt, and gauffered in a diaper pattern Signature on front pastedown, now inked out. Signature on t.p. of Conde de Cavalleiro</t>
-  </si>
-  <si>
-    <t>gri_33125000447421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reliquias da architectura romano-byzantina em Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Architecture, Romanesque', 'Church architecture -- Portugal', 'Church architecture -- Portugal -- Coimbra']</t>
-  </si>
-  <si>
-    <t>1870</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lisboa, Typographia portugueza</t>
   </si>
   <si>
     <t xml:space="preserve">23, [1] p. 49 cm</t>
   </si>
   <si>
-    <t xml:space="preserve">Dutroux case book</t>
+    <t xml:space="preserve">Architecture &amp; ornament: a visual guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antony White &amp; Bruce Robertson</t>
+  </si>
+  <si>
+    <t>gri_33125007823756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byzantine architecture and ornament</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Architecture, Byzantine', 'Decoration and ornament, Byzantine']</t>
+  </si>
+  <si>
+    <t>1890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vogüé, Melchior, marquis de, 1829-1916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boston, New York, G. H. Polley &amp; co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Grammar of Ornament: a Visual Reference of Form and Colour in Architecture and the Decorative Arts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jones, Owen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eye of the Chickenhawk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simon Dovey</t>
   </si>
   <si>
     <t xml:space="preserve">PizzaGate Stuff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eye of the Chickenhawk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simon Dovey</t>
   </si>
   <si>
     <t xml:space="preserve">The Franklin Scandal: A Story of Powerbrokers, Child Abuse &amp; Betrayal</t>
@@ -12033,7 +11943,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -12064,9 +11974,6 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -45167,7 +45074,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -45177,7 +45084,7 @@
     <col customWidth="1" min="2" max="2" width="14.140625"/>
     <col customWidth="1" min="3" max="3" width="60.421875"/>
     <col customWidth="1" min="4" max="4" width="40.140625"/>
-    <col customWidth="1" min="5" max="5" style="6" width="27.8515625"/>
+    <col customWidth="1" min="5" max="5" style="6" width="14.140625"/>
     <col customWidth="1" min="6" max="6" width="18.140625"/>
     <col customWidth="1" min="7" max="7" width="32.140625"/>
     <col customWidth="1" min="8" max="8" width="12.8515625"/>
@@ -47107,25 +47014,25 @@
         <v>3356</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>3357</v>
+        <v>3102</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>3322</v>
       </c>
       <c r="G80" s="3" t="s">
+        <v>3357</v>
+      </c>
+      <c r="H80" s="8" t="s">
         <v>3358</v>
       </c>
-      <c r="H80" s="8" t="s">
+      <c r="I80" s="3" t="s">
         <v>3359</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="J80" s="3" t="s">
         <v>3360</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="K80" s="3" t="s">
         <v>3361</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>3362</v>
       </c>
       <c r="L80" s="3"/>
       <c r="M80" s="3" t="s">
@@ -47138,36 +47045,36 @@
         <v>29</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="81" ht="14.25">
       <c r="A81" s="3" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>3364</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>3365</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>3366</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>3356</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>3357</v>
+        <v>3102</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3322</v>
       </c>
       <c r="G81" s="3" t="s">
+        <v>3357</v>
+      </c>
+      <c r="H81" t="s">
         <v>3358</v>
       </c>
-      <c r="H81" t="s">
-        <v>3359</v>
-      </c>
       <c r="I81" s="3" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
@@ -47183,10 +47090,10 @@
         <v>102</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>3367</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>3368</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>3369</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>3356</v>
@@ -47213,13 +47120,13 @@
         <v>142</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>3369</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>3370</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>3371</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>3372</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>3102</v>
@@ -47253,22 +47160,22 @@
     </row>
     <row r="86" ht="14.25">
       <c r="A86" s="5" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>3373</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="C86" t="s">
         <v>3374</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" s="3" t="s">
         <v>3375</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>3376</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F86" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>3253</v>
@@ -47277,28 +47184,28 @@
         <v>2864</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="J86" s="3"/>
     </row>
     <row r="87" ht="14.25">
       <c r="A87" s="5" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>3378</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>3379</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>3380</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>3381</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>3253</v>
@@ -47307,7 +47214,7 @@
         <v>2864</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="J87" s="3"/>
     </row>
@@ -47316,19 +47223,19 @@
         <v>43</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>3382</v>
+      </c>
+      <c r="C88" t="s">
         <v>3383</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" s="3" t="s">
         <v>3384</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>3385</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>2863</v>
@@ -47345,19 +47252,19 @@
         <v>131</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>3385</v>
+      </c>
+      <c r="C89" t="s">
         <v>3386</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" s="3" t="s">
         <v>3387</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>3388</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>2863</v>
@@ -47371,22 +47278,22 @@
     </row>
     <row r="90" ht="14.25">
       <c r="A90" s="5" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>3389</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>3390</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>3391</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>3392</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>3259</v>
@@ -47397,22 +47304,22 @@
     </row>
     <row r="91" ht="14.25">
       <c r="A91" s="5" t="s">
+        <v>3392</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>3393</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>3394</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>3395</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>3396</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3259</v>
@@ -47426,19 +47333,19 @@
         <v>31</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>3396</v>
+      </c>
+      <c r="C92" t="s">
         <v>3397</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" s="3" t="s">
         <v>3398</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>3399</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>2863</v>
@@ -47452,22 +47359,22 @@
     </row>
     <row r="93" ht="14.25">
       <c r="A93" s="3" t="s">
+        <v>3399</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>3400</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>3401</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>3402</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>3403</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>3127</v>
@@ -47476,7 +47383,7 @@
         <v>2864</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="94" ht="14.25">
@@ -47484,19 +47391,19 @@
         <v>20</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>3404</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>3405</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>3406</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>3407</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>2863</v>
@@ -47511,19 +47418,19 @@
         <v>32</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>3407</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>3408</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>3409</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>3410</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>2863</v>
@@ -47538,19 +47445,19 @@
         <v>58</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>3410</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>3411</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>3412</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>3413</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>2863</v>
@@ -47565,19 +47472,19 @@
         <v>22</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>3413</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>3414</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>3415</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>3416</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>2863</v>
@@ -47592,19 +47499,19 @@
         <v>49</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>3416</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>3417</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>3418</v>
-      </c>
       <c r="D98" s="3" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>2863</v>
@@ -47619,19 +47526,19 @@
         <v>33</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>3419</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>3420</v>
-      </c>
       <c r="D99" s="3" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>2863</v>
@@ -47646,19 +47553,19 @@
         <v>46</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>3420</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>3421</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>3422</v>
-      </c>
       <c r="D100" s="3" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>2863</v>
@@ -47673,19 +47580,19 @@
         <v>122</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>3422</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>3423</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>3424</v>
-      </c>
       <c r="D101" s="3" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>2863</v>
@@ -47715,13 +47622,13 @@
         <v>39</v>
       </c>
       <c r="B105" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>3425</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="D105" s="3" t="s">
         <v>3426</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>3427</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>3102</v>
@@ -47739,26 +47646,26 @@
         <v>397</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>3427</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>3428</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="D108" s="3" t="s">
         <v>3429</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>3430</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="H108" t="s">
         <v>2864</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
@@ -47772,26 +47679,26 @@
         <v>3111</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>3433</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>3434</v>
-      </c>
       <c r="D109" s="3" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
@@ -47802,29 +47709,29 @@
     </row>
     <row r="110" ht="14.25">
       <c r="A110" s="3" t="s">
+        <v>3436</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>3437</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>3438</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>3439</v>
-      </c>
       <c r="D110" s="3" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
@@ -47835,41 +47742,41 @@
     </row>
     <row r="114" ht="14.25">
       <c r="C114" s="3" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="115" ht="14.25">
       <c r="C115" s="3" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="119" ht="14.25">
       <c r="C119" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="122" ht="14.25">
       <c r="C122" t="s">
+        <v>3444</v>
+      </c>
+      <c r="D122" t="s">
         <v>3445</v>
-      </c>
-      <c r="D122" t="s">
-        <v>3446</v>
       </c>
     </row>
     <row r="123" ht="14.25">
       <c r="C123" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="D123" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="124" ht="14.25">
       <c r="C124" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="127" ht="14.25">
@@ -47877,24 +47784,24 @@
         <v>3111</v>
       </c>
       <c r="B127" s="3" t="s">
+        <v>3448</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>3449</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="D127" s="3" t="s">
         <v>3450</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>3451</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="128" ht="14.25">
@@ -47902,24 +47809,24 @@
         <v>3115</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>3453</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>3454</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>3455</v>
-      </c>
       <c r="D128" s="3" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="129" ht="14.25">
@@ -47927,115 +47834,115 @@
         <v>3119</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>3456</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>3457</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>3458</v>
-      </c>
       <c r="D129" s="3" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="3" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="130" ht="14.25">
       <c r="A130" s="3" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>3460</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="C130" s="3" t="s">
         <v>3461</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>3462</v>
-      </c>
       <c r="D130" s="3" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="3" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="131" ht="14.25">
       <c r="A131" s="3" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>3464</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="C131" s="3" t="s">
         <v>3465</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>3466</v>
-      </c>
       <c r="D131" s="3" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="3" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="132" ht="14.25">
       <c r="A132" s="3" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>3468</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="C132" s="3" t="s">
         <v>3469</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>3470</v>
-      </c>
       <c r="D132" s="3" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="3" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="3" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="136" ht="14.25">
       <c r="C136" s="3" t="s">
+        <v>3471</v>
+      </c>
+      <c r="D136" s="3" t="s">
         <v>3472</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>3473</v>
       </c>
     </row>
     <row r="137" ht="14.25">
       <c r="C137" s="3" t="s">
+        <v>3473</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>3474</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>3475</v>
       </c>
     </row>
     <row r="141" ht="14.25"/>
@@ -48050,7 +47957,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A132" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -48100,22 +48007,22 @@
         <v>397</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>3475</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3476</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3477</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3478</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>3479</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="3" t="s">
         <v>3480</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>3481</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>2864</v>
@@ -48130,22 +48037,22 @@
     <row r="3" ht="14.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>3482</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3483</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>3484</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="7" t="s">
+        <v>3479</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>3485</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>3480</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>3486</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>2864</v>
@@ -48156,19 +48063,19 @@
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="5" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>3487</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>3488</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>3489</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>3490</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>2863</v>
@@ -48180,24 +48087,24 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="6" ht="14.25">
+    <row r="6" s="0" customFormat="1" ht="14.25">
       <c r="A6" s="5" t="s">
+        <v>3490</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>3491</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>3492</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>3493</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="E6" s="5">
         <v>1937</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>3215</v>
@@ -48211,22 +48118,22 @@
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="5" t="s">
+        <v>3493</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>3494</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>3495</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>3496</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="E7" s="5">
         <v>1936</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>3215</v>
@@ -48235,24 +48142,24 @@
         <v>2864</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="5" t="s">
+        <v>3497</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>3498</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>3499</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>3500</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>2863</v>
@@ -48266,19 +48173,19 @@
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="5" t="s">
+        <v>3500</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>3501</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>3502</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>3503</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>2863</v>
@@ -48292,19 +48199,19 @@
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="5" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>3504</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>3505</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>3506</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>2863</v>
@@ -48319,19 +48226,19 @@
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="5" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>3507</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>3508</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>3509</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>2863</v>
@@ -48346,19 +48253,19 @@
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="5" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>3510</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>3511</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>3512</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>2863</v>
@@ -48373,19 +48280,19 @@
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="5" t="s">
+        <v>3512</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>3513</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>3514</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>3515</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>2863</v>
@@ -48400,19 +48307,19 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="5" t="s">
+        <v>3515</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>3516</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>3517</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>3518</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>2863</v>
@@ -48427,19 +48334,19 @@
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="5" t="s">
+        <v>3518</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>3519</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>3520</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>3521</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>2863</v>
@@ -48454,19 +48361,19 @@
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="5" t="s">
+        <v>3521</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>3522</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>3523</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>3524</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>2863</v>
@@ -48478,21 +48385,22 @@
         <v>2873</v>
       </c>
     </row>
-    <row r="17" ht="14.25">
+    <row r="17" s="0" customFormat="1" ht="14.25">
       <c r="A17" s="5" t="s">
+        <v>3524</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>3525</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>3526</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>3527</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>3490</v>
-      </c>
+        <v>3489</v>
+      </c>
+      <c r="E17" s="5"/>
       <c r="F17" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>2863</v>
@@ -48506,29 +48414,29 @@
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="2" t="s">
+        <v>3527</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>3528</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>3529</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>3530</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -48542,20 +48450,20 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="2" t="s">
+        <v>3532</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>3533</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>3534</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>3535</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>2863</v>
@@ -48578,29 +48486,29 @@
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="2" t="s">
+        <v>3535</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>3536</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="8" t="s">
         <v>3537</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>3538</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -48614,29 +48522,29 @@
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="2" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>3540</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="8" t="s">
         <v>3541</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>3542</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -48650,29 +48558,29 @@
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="2" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>3545</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="8" t="s">
         <v>3546</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>3547</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -48689,26 +48597,26 @@
         <v>1856</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>3549</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>3550</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>3551</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -48725,17 +48633,17 @@
         <v>619</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>3554</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>3555</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>2863</v>
@@ -48761,26 +48669,26 @@
         <v>1770</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>3555</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>3556</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>3557</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -48797,26 +48705,26 @@
         <v>1103</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>3558</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>3559</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>3560</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -48830,23 +48738,23 @@
     </row>
     <row r="27" ht="14.25">
       <c r="A27" s="2" t="s">
+        <v>3562</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>3563</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="8" t="s">
         <v>3564</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>3565</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>2864</v>
@@ -48867,26 +48775,26 @@
         <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>3565</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>3566</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>3567</v>
-      </c>
       <c r="D28" s="8" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>2864</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -48943,26 +48851,26 @@
         <v>9</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>3569</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" t="s">
         <v>3570</v>
-      </c>
-      <c r="D31" t="s">
-        <v>3571</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="H31" t="s">
         <v>2864</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -48976,23 +48884,23 @@
         <v>397</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>3572</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>3573</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>3574</v>
-      </c>
       <c r="D32" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -49006,23 +48914,23 @@
         <v>3111</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>3575</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>3576</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>3577</v>
-      </c>
       <c r="D33" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -49036,23 +48944,23 @@
         <v>3115</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>3579</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>3580</v>
-      </c>
       <c r="D34" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -49063,26 +48971,26 @@
     </row>
     <row r="35" ht="14.25">
       <c r="A35" s="2" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>3581</v>
+      </c>
+      <c r="C35" t="s">
         <v>3582</v>
       </c>
-      <c r="C35" t="s">
-        <v>3583</v>
-      </c>
       <c r="D35" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -49096,23 +49004,23 @@
         <v>3119</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="C36" t="s">
         <v>3585</v>
       </c>
-      <c r="C36" t="s">
-        <v>3586</v>
-      </c>
       <c r="D36" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -49123,26 +49031,26 @@
     </row>
     <row r="37" ht="14.25">
       <c r="A37" s="2" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>3587</v>
+      </c>
+      <c r="C37" t="s">
         <v>3588</v>
       </c>
-      <c r="C37" t="s">
-        <v>3589</v>
-      </c>
       <c r="D37" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -49153,26 +49061,26 @@
     </row>
     <row r="38" ht="14.25">
       <c r="A38" s="2" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>3590</v>
+      </c>
+      <c r="C38" t="s">
         <v>3591</v>
       </c>
-      <c r="C38" t="s">
-        <v>3592</v>
-      </c>
       <c r="D38" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -49183,26 +49091,26 @@
     </row>
     <row r="39" ht="14.25">
       <c r="A39" s="2" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>3593</v>
+      </c>
+      <c r="C39" t="s">
         <v>3594</v>
       </c>
-      <c r="C39" t="s">
-        <v>3595</v>
-      </c>
       <c r="D39" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>3596</v>
+        <v>3595</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -49213,20 +49121,20 @@
     </row>
     <row r="40" ht="14.25">
       <c r="A40" s="2" t="s">
+        <v>3596</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>3597</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="C40" t="s">
         <v>3598</v>
       </c>
-      <c r="C40" t="s">
-        <v>3599</v>
-      </c>
       <c r="D40" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>2864</v>
@@ -49246,19 +49154,19 @@
     <row r="42" ht="14.25"/>
     <row r="43" ht="14.25">
       <c r="A43" s="5" t="s">
+        <v>3599</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>3600</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" t="s">
         <v>3601</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" s="3" t="s">
         <v>3602</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3603</v>
-      </c>
       <c r="F43" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>2863</v>
@@ -49272,19 +49180,19 @@
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="5" t="s">
+        <v>3603</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>3604</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C44" t="s">
         <v>3605</v>
       </c>
-      <c r="C44" t="s">
-        <v>3606</v>
-      </c>
       <c r="D44" s="3" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>2863</v>
@@ -49301,26 +49209,26 @@
         <v>3111</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>3606</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>3607</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>3608</v>
-      </c>
       <c r="D45" s="3" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>2863</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -49333,19 +49241,19 @@
     <row r="47" ht="14.25"/>
     <row r="48" ht="14.25">
       <c r="A48" s="5" t="s">
+        <v>3609</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>3610</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="C48" t="s">
         <v>3611</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" s="3" t="s">
         <v>3612</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3613</v>
-      </c>
       <c r="F48" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3127</v>
@@ -49354,25 +49262,25 @@
         <v>2864</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="49" ht="14.25"/>
     <row r="50" ht="14.25">
       <c r="A50" s="2" t="s">
+        <v>3614</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>3615</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>3616</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>3617</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>3618</v>
-      </c>
       <c r="F50" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>3127</v>
@@ -49381,7 +49289,7 @@
         <v>2864</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>3619</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="51" ht="14.25">
@@ -49389,16 +49297,16 @@
         <v>3052</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>3619</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>3620</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>3621</v>
-      </c>
       <c r="D51" s="3" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>3127</v>
@@ -49407,7 +49315,7 @@
         <v>2864</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="52" ht="14.25"/>
@@ -49416,19 +49324,19 @@
     <row r="55" ht="14.25"/>
     <row r="56" ht="14.25">
       <c r="A56" s="5" t="s">
+        <v>3622</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>3623</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="C56" t="s">
         <v>3624</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" s="3" t="s">
         <v>3625</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>3626</v>
-      </c>
       <c r="F56" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>3127</v>
@@ -49437,24 +49345,24 @@
         <v>2864</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>3619</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="57" ht="14.25">
       <c r="A57" s="2" t="s">
+        <v>3626</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>3627</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>3628</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>3629</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3630</v>
-      </c>
       <c r="F57" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3127</v>
@@ -49463,23 +49371,23 @@
         <v>2864</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="58" ht="14.25"/>
     <row r="60" ht="14.25">
       <c r="A60" s="5"/>
       <c r="B60" s="3" t="s">
+        <v>3631</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>3632</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>3633</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3634</v>
-      </c>
       <c r="F60" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>2863</v>
@@ -49494,19 +49402,19 @@
     </row>
     <row r="61" ht="14.25">
       <c r="A61" s="5" t="s">
+        <v>3634</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>3635</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>3636</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>3637</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>3638</v>
-      </c>
       <c r="F61" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>2863</v>
@@ -49535,7 +49443,7 @@
         <v>3146</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>2863</v>
@@ -49561,7 +49469,7 @@
         <v>3146</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>2863</v>
@@ -49587,7 +49495,7 @@
         <v>3146</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>2863</v>
@@ -49613,7 +49521,7 @@
         <v>3146</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>2863</v>
@@ -49639,7 +49547,7 @@
         <v>3146</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>2863</v>
@@ -49665,7 +49573,7 @@
         <v>3146</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>2863</v>
@@ -49691,7 +49599,7 @@
         <v>3146</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>2863</v>
@@ -49717,7 +49625,7 @@
         <v>3146</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>2863</v>
@@ -49743,7 +49651,7 @@
         <v>3146</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>2863</v>
@@ -49760,17 +49668,17 @@
         <v>139</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>3638</v>
+      </c>
+      <c r="C75" t="s">
         <v>3639</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" s="3" t="s">
         <v>3640</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>3641</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="3" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>2863</v>
@@ -49787,17 +49695,17 @@
         <v>140</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>3641</v>
+      </c>
+      <c r="C76" t="s">
         <v>3642</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" s="3" t="s">
         <v>3643</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>3644</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="3" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>2863</v>
@@ -49806,7 +49714,7 @@
         <v>2864</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="77" ht="14.25">
@@ -49814,17 +49722,17 @@
         <v>143</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>3645</v>
+      </c>
+      <c r="C77" t="s">
         <v>3646</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" s="3" t="s">
         <v>3647</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>3648</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="3" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>2863</v>
@@ -49841,17 +49749,17 @@
         <v>137</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>3648</v>
+      </c>
+      <c r="C78" t="s">
         <v>3649</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" s="3" t="s">
         <v>3650</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>3651</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="3" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>2863</v>
@@ -49871,17 +49779,17 @@
         <v>23</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>3652</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>3653</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>3654</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="3" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>2863</v>
@@ -49898,17 +49806,17 @@
         <v>24</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>3654</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>3655</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>3656</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>3076</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="3" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>2863</v>
@@ -49925,17 +49833,17 @@
         <v>25</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>3656</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>3657</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>3658</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>3659</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="3" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>2863</v>
@@ -49952,17 +49860,17 @@
         <v>26</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>3659</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>3660</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>3661</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>3662</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="3" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>2863</v>
@@ -49979,17 +49887,17 @@
         <v>27</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>3662</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>3663</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>3664</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>3090</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="3" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>2863</v>
@@ -50010,17 +49918,17 @@
         <v>75</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>3664</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>3665</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>3666</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>3090</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="3" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>2863</v>
@@ -50037,17 +49945,17 @@
         <v>76</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>3666</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>3667</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>3668</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3090</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="3" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>2863</v>
@@ -50064,19 +49972,19 @@
         <v>67</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>3668</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>3669</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>3670</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>3671</v>
       </c>
       <c r="E92" s="2">
         <v>1921</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>2863</v>
@@ -50093,17 +50001,17 @@
         <v>6</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>3671</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>3672</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>3673</v>
-      </c>
       <c r="D93" s="3" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>2863</v>
@@ -50118,13 +50026,13 @@
         <v>2</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>3673</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>3674</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>3675</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>3676</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="8"/>
@@ -50141,13 +50049,13 @@
         <v>3</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>3676</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>3677</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>3678</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>3679</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="8"/>
@@ -50164,13 +50072,13 @@
         <v>8</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>3679</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>3680</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>3681</v>
-      </c>
       <c r="D98" s="3" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="8"/>
@@ -50187,13 +50095,13 @@
         <v>10</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>3682</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="D99" s="3" t="s">
         <v>3683</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>3684</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="8"/>
@@ -50210,13 +50118,13 @@
         <v>11</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>3684</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>3685</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>3686</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>3687</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="8"/>
@@ -50237,13 +50145,13 @@
         <v>21</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>3687</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>3688</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="D103" s="3" t="s">
         <v>3689</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>3690</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="8"/>
@@ -50260,13 +50168,13 @@
         <v>47</v>
       </c>
       <c r="B104" s="3" t="s">
+        <v>3690</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>3691</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>3692</v>
-      </c>
       <c r="D104" s="3" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="8"/>
@@ -50283,13 +50191,13 @@
         <v>29</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>3693</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="D107" s="3" t="s">
         <v>3694</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>3695</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="8"/>
@@ -50306,13 +50214,13 @@
         <v>35</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>3695</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>3696</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>3697</v>
-      </c>
       <c r="D108" s="3" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="8"/>
@@ -50329,13 +50237,13 @@
         <v>91</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>3697</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>3698</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>3699</v>
-      </c>
       <c r="D109" s="3" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="8"/>
@@ -50352,10 +50260,10 @@
         <v>18</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>3699</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>3700</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>3701</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>3263</v>
@@ -50375,10 +50283,10 @@
         <v>17</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>3701</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>3702</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>3703</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>3263</v>
@@ -50398,13 +50306,13 @@
         <v>69</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>3703</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>3704</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="D114" s="3" t="s">
         <v>3705</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>3706</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="8"/>
@@ -50421,24 +50329,24 @@
         <v>624</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>3706</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>3707</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="D117" t="s">
         <v>3708</v>
-      </c>
-      <c r="D117" t="s">
-        <v>3709</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="8"/>
       <c r="G117" s="3" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="H117" t="s">
         <v>2864</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="118" ht="14.25">
@@ -50450,24 +50358,24 @@
         <v>3</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>3711</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="D119" t="s">
         <v>3712</v>
-      </c>
-      <c r="D119" t="s">
-        <v>3713</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="8"/>
       <c r="G119" s="3" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="H119" t="s">
         <v>2864</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
@@ -50481,24 +50389,24 @@
         <v>4</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>3714</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>3715</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>3716</v>
-      </c>
       <c r="D120" t="s">
-        <v>3713</v>
+        <v>3712</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="8"/>
       <c r="G120" s="3" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="H120" t="s">
         <v>2864</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
@@ -50512,24 +50420,24 @@
         <v>5</v>
       </c>
       <c r="B121" s="3" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>3718</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>3719</v>
-      </c>
       <c r="D121" s="3" t="s">
-        <v>3713</v>
+        <v>3712</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="8"/>
       <c r="G121" s="3" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="H121" t="s">
         <v>2864</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
@@ -50543,24 +50451,24 @@
         <v>6</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>3720</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>3721</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>3722</v>
-      </c>
       <c r="D122" s="3" t="s">
-        <v>3713</v>
+        <v>3712</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="8"/>
       <c r="G122" s="3" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="H122" t="s">
         <v>2864</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
@@ -50578,24 +50486,24 @@
         <v>397</v>
       </c>
       <c r="B124" s="3" t="s">
+        <v>3723</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>3724</v>
       </c>
-      <c r="C124" s="3" t="s">
-        <v>3725</v>
-      </c>
       <c r="D124" s="3" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="8" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
@@ -50610,24 +50518,24 @@
         <v>3111</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>3448</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>3449</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="D125" s="3" t="s">
         <v>3450</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>3451</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
@@ -50642,24 +50550,24 @@
         <v>3115</v>
       </c>
       <c r="B126" s="3" t="s">
+        <v>3453</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>3454</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>3455</v>
-      </c>
       <c r="D126" s="3" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
@@ -50674,24 +50582,24 @@
         <v>3119</v>
       </c>
       <c r="B127" s="3" t="s">
+        <v>3456</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>3457</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>3458</v>
-      </c>
       <c r="D127" s="3" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -50703,27 +50611,27 @@
     </row>
     <row r="128" ht="14.25">
       <c r="A128" s="3" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>3460</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="C128" t="s">
         <v>3461</v>
       </c>
-      <c r="C128" t="s">
-        <v>3462</v>
-      </c>
       <c r="D128" s="3" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
@@ -50740,27 +50648,27 @@
     </row>
     <row r="130" ht="14.25">
       <c r="A130" s="3" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>3468</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="C130" s="3" t="s">
         <v>3469</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>3470</v>
-      </c>
       <c r="D130" s="3" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="3" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
@@ -50772,41 +50680,41 @@
     </row>
     <row r="134" ht="14.25">
       <c r="C134" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="135" ht="14.25">
       <c r="C135" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="140" ht="14.25">
       <c r="C140" t="s">
+        <v>3728</v>
+      </c>
+      <c r="D140" t="s">
         <v>3729</v>
       </c>
-      <c r="D140" t="s">
-        <v>3730</v>
-      </c>
       <c r="H140" s="3" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="144" ht="14.25">
       <c r="C144" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="145" ht="14.25">
       <c r="C145" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="149" ht="14.25">
       <c r="C149" t="s">
+        <v>3732</v>
+      </c>
+      <c r="D149" t="s">
         <v>3733</v>
-      </c>
-      <c r="D149" t="s">
-        <v>3734</v>
       </c>
     </row>
   </sheetData>
@@ -50828,7 +50736,7 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="27.7109375"/>
     <col customWidth="1" min="3" max="3" style="6" width="67.57421875"/>
-    <col customWidth="1" min="4" max="4" width="25.00390625"/>
+    <col customWidth="1" min="4" max="4" width="31.140625"/>
     <col min="5" max="5" style="5" width="9.140625"/>
     <col customWidth="1" min="6" max="9" width="14.28125"/>
   </cols>
@@ -50862,53 +50770,77 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2"/>
+    <row r="2">
+      <c r="C2" s="6" t="s">
+        <v>3734</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3735</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2018</v>
+      </c>
+    </row>
     <row r="3">
       <c r="C3" s="6" t="s">
-        <v>3735</v>
+        <v>3736</v>
       </c>
       <c r="D3" t="s">
-        <v>3736</v>
+        <v>3737</v>
       </c>
       <c r="E3" s="5">
-        <v>2018</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" s="6" t="s">
-        <v>3737</v>
+        <v>3738</v>
       </c>
       <c r="D4" t="s">
-        <v>3738</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="6" t="s">
         <v>3739</v>
       </c>
-      <c r="D5" t="s">
+      <c r="I4" t="s">
         <v>3740</v>
       </c>
-      <c r="I5" t="s">
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>3741</v>
       </c>
+      <c r="C5" s="7" t="s">
+        <v>3742</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3743</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1981</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>3742</v>
-      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="7" t="s">
-        <v>3743</v>
+        <v>3744</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>3744</v>
+        <v>3745</v>
       </c>
       <c r="E6" s="2">
-        <v>1981</v>
+        <v>2004</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -50924,16 +50856,17 @@
       <c r="Q6" s="3"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>3464</v>
+      </c>
       <c r="C7" s="7" t="s">
+        <v>3465</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>3745</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>3746</v>
-      </c>
       <c r="E7" s="2">
-        <v>2004</v>
+        <v>1995</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -50946,20 +50879,20 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
     </row>
     <row r="8" ht="14.25">
+      <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>3465</v>
+        <v>3746</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>3466</v>
+        <v>3747</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>3746</v>
+        <v>3748</v>
       </c>
       <c r="E8" s="2">
-        <v>1995</v>
+        <v>2004</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -50974,18 +50907,16 @@
       <c r="P8" s="3"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>3747</v>
-      </c>
+      <c r="A9" s="10"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="7" t="s">
+        <v>3749</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>3748</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3749</v>
-      </c>
       <c r="E9" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -51006,10 +50937,10 @@
         <v>3750</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="E10" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -51030,10 +50961,10 @@
         <v>3751</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="E11" s="2">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -51048,16 +50979,16 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="7" t="s">
         <v>3752</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="E12" s="2">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -51078,10 +51009,10 @@
         <v>3753</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="E13" s="2">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -51096,17 +51027,16 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>3754</v>
+      </c>
       <c r="C14" s="7" t="s">
-        <v>3754</v>
+        <v>3755</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>3749</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2015</v>
-      </c>
+        <v>3756</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -51120,14 +51050,15 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" ht="14.25">
+      <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>3755</v>
+        <v>3757</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>3756</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>3757</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
@@ -51144,14 +51075,12 @@
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>3758</v>
-      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="7" t="s">
         <v>3759</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
@@ -51173,9 +51102,11 @@
         <v>3760</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>3757</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>3761</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1963</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -51187,18 +51118,20 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="7" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>3761</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3762</v>
-      </c>
       <c r="E18" s="2">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -51221,10 +51154,10 @@
         <v>3763</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="E19" s="2">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -51247,10 +51180,10 @@
         <v>3764</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="E20" s="2">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -51273,10 +51206,10 @@
         <v>3765</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="E21" s="2">
-        <v>1967</v>
+        <v>1975</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -51299,10 +51232,10 @@
         <v>3766</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="E22" s="2">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -51325,10 +51258,10 @@
         <v>3767</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="E23" s="2">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -51351,10 +51284,10 @@
         <v>3768</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="E24" s="2">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -51377,10 +51310,10 @@
         <v>3769</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="E25" s="2">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -51403,10 +51336,10 @@
         <v>3770</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="E26" s="2">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -51429,10 +51362,10 @@
         <v>3771</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="E27" s="2">
-        <v>1987</v>
+        <v>1993</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -51455,10 +51388,10 @@
         <v>3772</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="E28" s="2">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -51481,10 +51414,10 @@
         <v>3773</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="E29" s="2">
-        <v>1995</v>
+        <v>2002</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -51507,7 +51440,7 @@
         <v>3774</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="E30" s="2">
         <v>2002</v>
@@ -51533,10 +51466,10 @@
         <v>3775</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="E31" s="2">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -51559,10 +51492,10 @@
         <v>3776</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="E32" s="2">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -51585,10 +51518,10 @@
         <v>3777</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="E33" s="2">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -51606,16 +51539,16 @@
     </row>
     <row r="34" ht="14.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="3" t="s">
         <v>3778</v>
       </c>
+      <c r="C34" s="6" t="s">
+        <v>3779</v>
+      </c>
       <c r="D34" s="3" t="s">
-        <v>3762</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2012</v>
-      </c>
+        <v>3780</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -51628,18 +51561,16 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>3779</v>
-      </c>
-      <c r="C35" s="6" t="s">
+        <v>3781</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>3782</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>3780</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>3781</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>
@@ -51656,14 +51587,15 @@
       <c r="Q35" s="3"/>
     </row>
     <row r="36" ht="14.25">
+      <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>3782</v>
+        <v>3783</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>3783</v>
+        <v>3784</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>3781</v>
+        <v>3785</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="3"/>
@@ -51677,18 +51609,16 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>3784</v>
+        <v>3786</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>3785</v>
+        <v>3787</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>3786</v>
+        <v>3788</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
@@ -51704,14 +51634,15 @@
       <c r="P37" s="3"/>
     </row>
     <row r="38" ht="14.25">
+      <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>3787</v>
+        <v>3789</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>3790</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>3788</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>3789</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
@@ -51727,15 +51658,14 @@
       <c r="P38" s="3"/>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>3790</v>
+        <v>3791</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>3791</v>
+        <v>3792</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
@@ -51751,14 +51681,15 @@
       <c r="P39" s="3"/>
     </row>
     <row r="40" ht="14.25">
+      <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>3792</v>
+        <v>3793</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>3793</v>
+        <v>3794</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="3"/>
@@ -51773,532 +51704,249 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
     </row>
-    <row r="41" ht="14.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3" t="s">
-        <v>3794</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>3795</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>3789</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-    </row>
+    <row r="42" ht="14.25"/>
     <row r="43" ht="14.25"/>
     <row r="44" ht="14.25"/>
-    <row r="45" ht="14.25"/>
+    <row r="45" ht="14.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>3795</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>3796</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>3797</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>3798</v>
+      </c>
+    </row>
     <row r="46" ht="14.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>3796</v>
+        <v>3799</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>3800</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>3797</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>3798</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>3799</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>3800</v>
+        <v>3801</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>3801</v>
+        <v>3802</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>3799</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>3802</v>
+        <v>3804</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>3803</v>
+        <v>3805</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>3804</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>3805</v>
+        <v>3807</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>3808</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>3797</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>3806</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>3798</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>3807</v>
       </c>
     </row>
     <row r="50" ht="14.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>3808</v>
+        <v>3809</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>3809</v>
+        <v>3810</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>3810</v>
+        <v>3811</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>3811</v>
+        <v>3812</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="52" ht="14.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>3812</v>
+        <v>3813</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>3813</v>
+        <v>3814</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="53" ht="14.25">
-      <c r="A53" s="3"/>
+      <c r="A53" s="3">
+        <v>32</v>
+      </c>
       <c r="B53" s="3" t="s">
-        <v>3814</v>
+        <v>3815</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>3815</v>
+        <v>3816</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>3798</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>3807</v>
+        <v>3817</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>3818</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>3819</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>3820</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>3821</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3" t="s">
+        <v>3822</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>3823</v>
       </c>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3" t="s">
-        <v>3816</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>3817</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>3818</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>3819</v>
-      </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3" t="s">
-        <v>3820</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3821</v>
-      </c>
+      <c r="C54" s="6"/>
+      <c r="E54" s="5"/>
     </row>
     <row r="55" ht="14.25">
       <c r="A55" s="3"/>
-      <c r="B55" s="3" t="s">
-        <v>3822</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>3817</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>3818</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>3819</v>
-      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="3" t="s">
-        <v>3820</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>3821</v>
-      </c>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
     </row>
     <row r="56" ht="14.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3" t="s">
-        <v>3823</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="6"/>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="C57" s="6"/>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="C58" s="6" t="s">
+        <v>3824</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3825</v>
+      </c>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="A59" s="3">
+        <v>38</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>3826</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>3827</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>3817</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>3818</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>3819</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3" t="s">
-        <v>3820</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>3821</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3" t="s">
-        <v>3824</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>3817</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>3818</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>3819</v>
-      </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3" t="s">
-        <v>3820</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3821</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3" t="s">
-        <v>3825</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>3817</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>3818</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>3826</v>
-      </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3" t="s">
-        <v>3820</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3827</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3" t="s">
+      <c r="F59" s="3" t="s">
+        <v>3358</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>3828</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>3817</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>3818</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>3819</v>
-      </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="I59" s="3"/>
+      <c r="H59" s="3" t="s">
+        <v>3829</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>3830</v>
+      </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>3820</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3821</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="60" ht="14.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3" t="s">
-        <v>3829</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>3817</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>3818</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>3819</v>
-      </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3" t="s">
-        <v>3820</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3821</v>
-      </c>
+      <c r="C60" s="6" t="s">
+        <v>3832</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3833</v>
+      </c>
+      <c r="E60" s="5"/>
     </row>
     <row r="61" ht="14.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3" t="s">
-        <v>3830</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>3817</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>3818</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>3819</v>
-      </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3" t="s">
-        <v>3820</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>3821</v>
-      </c>
+      <c r="C61" s="6"/>
+      <c r="E61" s="5"/>
     </row>
     <row r="62" ht="14.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3" t="s">
-        <v>3831</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>3817</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>3818</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>3819</v>
-      </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3" t="s">
-        <v>3820</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3821</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25">
-      <c r="C63" s="6"/>
-    </row>
-    <row r="66" ht="14.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3" t="s">
-        <v>3832</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>3833</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>3818</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>3834</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3835</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3836</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3837</v>
-      </c>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3" t="s">
-        <v>3838</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3839</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3" t="s">
-        <v>3840</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>3841</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>3842</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>3843</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>3844</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>3845</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>3846</v>
-      </c>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3" t="s">
-        <v>3847</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>3848</v>
-      </c>
-    </row>
-    <row r="68" ht="14.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3" t="s">
-        <v>3849</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>3850</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>3818</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>3851</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>3852</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>3853</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>3854</v>
-      </c>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3" t="s">
-        <v>3855</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>3856</v>
-      </c>
-    </row>
-    <row r="72" ht="14.25">
-      <c r="A72" s="3">
-        <v>32</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>3857</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>3858</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>3818</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3834</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3859</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3860</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3837</v>
-      </c>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3" t="s">
-        <v>3861</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3862</v>
-      </c>
-    </row>
-    <row r="74" ht="14.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
+      <c r="C62" s="6"/>
+      <c r="E62" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -52311,7 +51959,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -52353,637 +52001,609 @@
     </row>
     <row r="2" ht="14.25">
       <c r="C2" s="11" t="s">
-        <v>3863</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3864</v>
+        <v>3834</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3835</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3836</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="C3" s="11" t="s">
-        <v>3865</v>
+        <v>3837</v>
       </c>
       <c r="D3" t="s">
-        <v>3866</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>3864</v>
+        <v>3838</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3836</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="C4" s="11" t="s">
-        <v>3867</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3868</v>
+        <v>3839</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>3840</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>3864</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="C5" s="11" t="s">
-        <v>3869</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>3870</v>
+        <v>3841</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3842</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>3864</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="C6" s="11" t="s">
-        <v>3871</v>
+      <c r="C6" t="s">
+        <v>3843</v>
       </c>
       <c r="D6" t="s">
-        <v>3872</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>3864</v>
+        <v>3844</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3836</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="C7" t="s">
-        <v>3873</v>
+        <v>3845</v>
       </c>
       <c r="D7" t="s">
-        <v>3874</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3864</v>
+        <v>3846</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>3836</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="C8" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3876</v>
+      <c r="C8" s="8" t="s">
+        <v>3847</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>3848</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>3864</v>
-      </c>
+        <v>3836</v>
+      </c>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" ht="14.25">
       <c r="C9" s="8" t="s">
-        <v>3877</v>
+        <v>3849</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>3878</v>
+        <v>3850</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>3864</v>
-      </c>
-      <c r="I9" s="8"/>
+        <v>3836</v>
+      </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="C10" s="8" t="s">
-        <v>3879</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>3880</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3864</v>
+      <c r="C10" s="3" t="s">
+        <v>3851</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3852</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3447</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="C11" s="3" t="s">
-        <v>3881</v>
+        <v>3853</v>
       </c>
       <c r="D11" t="s">
-        <v>3882</v>
-      </c>
-      <c r="F11" t="s">
-        <v>3448</v>
+        <v>3854</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>3447</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="C12" s="3" t="s">
-        <v>3883</v>
+        <v>3855</v>
       </c>
       <c r="D12" t="s">
-        <v>3884</v>
+        <v>3856</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="C13" s="3" t="s">
-        <v>3885</v>
+        <v>3857</v>
       </c>
       <c r="D13" t="s">
-        <v>3886</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>3448</v>
+        <v>3858</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3447</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="C14" s="3" t="s">
-        <v>3887</v>
+        <v>3859</v>
       </c>
       <c r="D14" t="s">
-        <v>3888</v>
-      </c>
-      <c r="F14" t="s">
-        <v>3448</v>
+        <v>3860</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3447</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="C15" s="3" t="s">
-        <v>3889</v>
+        <v>3861</v>
       </c>
       <c r="D15" t="s">
-        <v>3890</v>
+        <v>3862</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="C16" s="3" t="s">
-        <v>3891</v>
+        <v>3863</v>
       </c>
       <c r="D16" t="s">
-        <v>3892</v>
+        <v>3862</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="C17" s="3" t="s">
-        <v>3893</v>
+        <v>3864</v>
       </c>
       <c r="D17" t="s">
-        <v>3892</v>
+        <v>3865</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="C18" s="3" t="s">
-        <v>3894</v>
+      <c r="C18" s="12" t="s">
+        <v>3866</v>
       </c>
       <c r="D18" t="s">
-        <v>3895</v>
+        <v>3867</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="C19" s="13" t="s">
-        <v>3896</v>
+      <c r="C19" s="3" t="s">
+        <v>3447</v>
       </c>
       <c r="D19" t="s">
-        <v>3897</v>
+        <v>3445</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="C20" s="3" t="s">
-        <v>3448</v>
+      <c r="C20" s="13" t="s">
+        <v>3868</v>
       </c>
       <c r="D20" t="s">
-        <v>3446</v>
+        <v>3869</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="C21" s="14" t="s">
-        <v>3898</v>
+      <c r="C21" s="3" t="s">
+        <v>3870</v>
       </c>
       <c r="D21" t="s">
-        <v>3899</v>
+        <v>3871</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="C22" s="3" t="s">
-        <v>3900</v>
+      <c r="C22" t="s">
+        <v>3872</v>
       </c>
       <c r="D22" t="s">
-        <v>3901</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3448</v>
+        <v>3873</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3874</v>
       </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="C23" t="s">
-        <v>3902</v>
+      <c r="C23" s="11" t="s">
+        <v>3875</v>
       </c>
       <c r="D23" t="s">
-        <v>3903</v>
+        <v>3876</v>
       </c>
       <c r="F23" t="s">
-        <v>3904</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="C24" s="11" t="s">
+        <v>3877</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>3878</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" t="s">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="C25" s="12" t="s">
+        <v>3879</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>3880</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="C26" s="12" t="s">
+        <v>3882</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3883</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="C27" s="12" t="s">
+        <v>3884</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>3885</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="C28" s="12" t="s">
+        <v>3886</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>3887</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="C29" s="12" t="s">
+        <v>3888</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>3889</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="C30" s="12" t="s">
+        <v>3890</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>3891</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="C31" s="12" t="s">
+        <v>3892</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>3893</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="C32" s="12" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>3895</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="C33" s="12" t="s">
+        <v>3896</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>3893</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="C34" s="12" t="s">
+        <v>3897</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>3898</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="C35" s="12" t="s">
+        <v>3899</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>3900</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="C36" s="12" t="s">
+        <v>3901</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>3902</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="C37" s="12" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>3904</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="C38" s="12" t="s">
         <v>3905</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D38" s="3" t="s">
         <v>3906</v>
       </c>
-      <c r="F24" t="s">
-        <v>3904</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="C25" s="11" t="s">
+      <c r="F38" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="C39" s="11" t="s">
         <v>3907</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D39" s="11" t="s">
         <v>3908</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" t="s">
-        <v>3904</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="C26" s="13" t="s">
+      <c r="E39" s="3"/>
+      <c r="F39" t="s">
         <v>3909</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>3910</v>
-      </c>
-      <c r="F26" t="s">
-        <v>3911</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="C27" s="13" t="s">
-        <v>3912</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>3913</v>
-      </c>
-      <c r="F27" t="s">
-        <v>3911</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="C28" s="13" t="s">
-        <v>3914</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>3915</v>
-      </c>
-      <c r="F28" t="s">
-        <v>3911</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="C29" s="13" t="s">
-        <v>3916</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>3917</v>
-      </c>
-      <c r="F29" t="s">
-        <v>3911</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="C30" s="13" t="s">
-        <v>3918</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>3919</v>
-      </c>
-      <c r="F30" t="s">
-        <v>3911</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25">
-      <c r="C31" s="13" t="s">
-        <v>3920</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>3921</v>
-      </c>
-      <c r="F31" t="s">
-        <v>3911</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25">
-      <c r="C32" s="13" t="s">
-        <v>3922</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>3923</v>
-      </c>
-      <c r="F32" t="s">
-        <v>3911</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25">
-      <c r="C33" s="13" t="s">
-        <v>3924</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>3925</v>
-      </c>
-      <c r="F33" t="s">
-        <v>3911</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="C34" s="13" t="s">
-        <v>3926</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>3923</v>
-      </c>
-      <c r="F34" t="s">
-        <v>3911</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25">
-      <c r="C35" s="13" t="s">
-        <v>3927</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>3928</v>
-      </c>
-      <c r="F35" t="s">
-        <v>3911</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25">
-      <c r="C36" s="13" t="s">
-        <v>3929</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>3930</v>
-      </c>
-      <c r="F36" t="s">
-        <v>3911</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="C37" s="13" t="s">
-        <v>3931</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>3932</v>
-      </c>
-      <c r="F37" t="s">
-        <v>3911</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="C38" s="13" t="s">
-        <v>3933</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>3934</v>
-      </c>
-      <c r="F38" t="s">
-        <v>3911</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="C39" s="13" t="s">
-        <v>3935</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>3936</v>
-      </c>
-      <c r="F39" t="s">
-        <v>3911</v>
       </c>
     </row>
     <row r="40" ht="14.25">
       <c r="C40" s="11" t="s">
-        <v>3937</v>
+        <v>3910</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>3938</v>
+        <v>3911</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" t="s">
-        <v>3939</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="41" ht="14.25">
       <c r="C41" s="11" t="s">
-        <v>3940</v>
+        <v>3913</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>3941</v>
+        <v>3914</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" t="s">
-        <v>3942</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="42" ht="14.25">
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="C42" t="s">
+        <v>3916</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>3917</v>
+      </c>
       <c r="E42" s="3"/>
+      <c r="F42" t="s">
+        <v>3918</v>
+      </c>
     </row>
     <row r="43" ht="14.25">
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="3"/>
+      <c r="C43" t="s">
+        <v>3919</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3920</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3918</v>
+      </c>
     </row>
     <row r="44" ht="14.25">
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="3"/>
+      <c r="C44" s="8"/>
     </row>
     <row r="45" ht="14.25">
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="3"/>
+      <c r="C45" s="8"/>
     </row>
     <row r="46" ht="14.25">
-      <c r="C46" s="11" t="s">
-        <v>3943</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>3944</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" t="s">
-        <v>3945</v>
+      <c r="C46" s="3" t="s">
+        <v>3921</v>
       </c>
     </row>
     <row r="47" ht="14.25">
-      <c r="C47" t="s">
-        <v>3946</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>3947</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" t="s">
-        <v>3948</v>
+      <c r="C47" s="11" t="s">
+        <v>3922</v>
       </c>
     </row>
     <row r="48" ht="14.25">
-      <c r="C48" t="s">
-        <v>3949</v>
-      </c>
-      <c r="D48" t="s">
-        <v>3950</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3948</v>
+      <c r="C48" s="3" t="s">
+        <v>3923</v>
       </c>
     </row>
     <row r="49" ht="14.25">
-      <c r="C49" s="8"/>
+      <c r="C49" s="3" t="s">
+        <v>3924</v>
+      </c>
     </row>
     <row r="50" ht="14.25">
-      <c r="C50" s="8"/>
+      <c r="C50" s="3" t="s">
+        <v>3925</v>
+      </c>
     </row>
     <row r="51" ht="14.25">
       <c r="C51" s="3" t="s">
-        <v>3951</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="52" ht="14.25">
-      <c r="C52" s="11" t="s">
-        <v>3952</v>
+      <c r="C52" s="3" t="s">
+        <v>3927</v>
       </c>
     </row>
     <row r="53" ht="14.25">
       <c r="C53" s="3" t="s">
-        <v>3953</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="54" ht="14.25">
       <c r="C54" s="3" t="s">
-        <v>3954</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="55" ht="14.25">
       <c r="C55" s="3" t="s">
-        <v>3955</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="56" ht="14.25">
       <c r="C56" s="3" t="s">
-        <v>3956</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="57" ht="14.25">
       <c r="C57" s="3" t="s">
-        <v>3957</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="58" ht="14.25">
       <c r="C58" s="3" t="s">
-        <v>3958</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="59" ht="14.25">
       <c r="C59" s="3" t="s">
-        <v>3959</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="60" ht="14.25">
       <c r="C60" s="3" t="s">
-        <v>3960</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="61" ht="14.25">
       <c r="C61" s="3" t="s">
-        <v>3961</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="62" ht="14.25">
       <c r="C62" s="3" t="s">
-        <v>3962</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="63" ht="14.25">
       <c r="C63" s="3" t="s">
-        <v>3963</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="64" ht="14.25">
       <c r="C64" s="3" t="s">
-        <v>3964</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="65" ht="14.25">
       <c r="C65" s="3" t="s">
-        <v>3965</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="66" ht="14.25">
-      <c r="C66" s="3" t="s">
-        <v>3966</v>
-      </c>
+      <c r="C66" s="14"/>
     </row>
     <row r="67" ht="14.25">
       <c r="C67" s="3" t="s">
-        <v>3967</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="68" ht="14.25">
       <c r="C68" s="3" t="s">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="69" ht="14.25">
-      <c r="C69" s="3" t="s">
-        <v>3969</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25">
-      <c r="C70" s="3" t="s">
-        <v>3970</v>
-      </c>
-    </row>
-    <row r="71" ht="14.25">
-      <c r="C71" s="15"/>
-    </row>
-    <row r="72" ht="14.25">
-      <c r="C72" s="3" t="s">
-        <v>3971</v>
-      </c>
-    </row>
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25"/>
+    <row r="72" ht="14.25"/>
     <row r="73" ht="14.25">
       <c r="C73" s="3" t="s">
-        <v>3972</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25"/>
-    <row r="77" ht="14.25"/>
-    <row r="78" ht="14.25">
-      <c r="C78" s="3" t="s">
-        <v>3973</v>
-      </c>
-    </row>
-    <row r="79" ht="14.25">
-      <c r="C79" s="3" t="s">
-        <v>3974</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25">
-      <c r="C80" t="s">
-        <v>3975</v>
-      </c>
-    </row>
-    <row r="102" ht="14.25"/>
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="C74" s="3" t="s">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="C75" t="s">
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25"/>
   </sheetData>
   <autoFilter ref="A1:I1"/>
   <printOptions headings="0" gridLines="0"/>

--- a/Selected_Downloads.xlsx
+++ b/Selected_Downloads.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Revistas" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,11 +18,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">_X_!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3946" uniqueCount="3946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4023" uniqueCount="4023">
   <si>
     <t>Index</t>
   </si>
@@ -10005,81 +10008,72 @@
     <t xml:space="preserve">Richard Wagner</t>
   </si>
   <si>
-    <t>359</t>
-  </si>
-  <si>
-    <t>dosjudeusesuasmentiras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dos Judeus E Suas Mentiras</t>
+    <t>281</t>
+  </si>
+  <si>
+    <t>mein-kampf-lux-edition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minha Luta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adolf Hitler</t>
+  </si>
+  <si>
+    <t>quatro-discursos-benito-mussolini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quatro Discursos sobre o Estado Corporativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benito Mussolini</t>
+  </si>
+  <si>
+    <t>mussolini-discursos-da-revolucao_202008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discursos Da Revolução - Benito Mussolini</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>o-estado-corporativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado Corporativo</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>siege-por-james-mason</t>
+  </si>
+  <si>
+    <t>Siege</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Mason</t>
+  </si>
+  <si>
+    <t>archiveaf@protonmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portuguese translation of Siege by James Mason</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>judeus_e_suas_mentiras_lutero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dos Judeus e Suas Mentiras  Martinho Lutero</t>
   </si>
   <si>
     <t xml:space="preserve">Martinho Lutero</t>
   </si>
   <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>mein-kampf-lux-edition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minha Luta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adolf Hitler</t>
-  </si>
-  <si>
-    <t>quatro-discursos-benito-mussolini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quatro Discursos sobre o Estado Corporativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benito Mussolini</t>
-  </si>
-  <si>
-    <t>mussolini-discursos-da-revolucao_202008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discursos Da Revolução - Benito Mussolini</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>o-estado-corporativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Estado Corporativo</t>
-  </si>
-  <si>
-    <t>387</t>
-  </si>
-  <si>
-    <t>siege-por-james-mason</t>
-  </si>
-  <si>
-    <t>Siege</t>
-  </si>
-  <si>
-    <t xml:space="preserve">James Mason</t>
-  </si>
-  <si>
-    <t>archiveaf@protonmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portuguese translation of Siege by James Mason</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>judeus_e_suas_mentiras_lutero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dos Judeus e Suas Mentiras  Martinho Lutero</t>
-  </si>
-  <si>
     <t>welffhen@gmail.com</t>
   </si>
   <si>
@@ -10449,6 +10443,24 @@
     <t>Thomas777</t>
   </si>
   <si>
+    <t xml:space="preserve">Manifesto For the Abolition of Interest-Slavery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gottfried Feder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gruesome Harvest: The Costly Attempt To Exterminate The People of Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ralph Franklin Keeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Diabo, Lutero e a Reforma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maçonismo vs Catolicismo</t>
+  </si>
+  <si>
     <t>bub_gb_6d0_7XDSscgC</t>
   </si>
   <si>
@@ -11226,6 +11238,12 @@
     <t xml:space="preserve">Tzafrir Barzilay</t>
   </si>
   <si>
+    <t xml:space="preserve">Os Judeus no Brasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tobias Barreto</t>
+  </si>
+  <si>
     <t xml:space="preserve">Making Dystopia: The Strange Rise and Survival of Architectural Barbarism</t>
   </si>
   <si>
@@ -11571,7 +11589,7 @@
     <t xml:space="preserve">Joachim Hagopian</t>
   </si>
   <si>
-    <t xml:space="preserve">Pizzagate: The Complete Story Kindle Edition</t>
+    <t xml:space="preserve">Pizzagate: The Complete Story</t>
   </si>
   <si>
     <t xml:space="preserve">Ace of Swords</t>
@@ -11646,7 +11664,7 @@
     <t xml:space="preserve">Carroll Quigley</t>
   </si>
   <si>
-    <t xml:space="preserve">Shadow Goverment</t>
+    <t>Cryptocracy</t>
   </si>
   <si>
     <t xml:space="preserve">CHAOS: Charles Manson, the CIA, and the Secret History of the Sixties</t>
@@ -11655,12 +11673,48 @@
     <t xml:space="preserve">Tom O'Neill</t>
   </si>
   <si>
+    <t xml:space="preserve">Weird Scenes Inside the Canyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lauren Canyon</t>
+  </si>
+  <si>
     <t xml:space="preserve">Secrete Agent 666: Aleister Crowley, British Intelligence and the Occult</t>
   </si>
   <si>
     <t xml:space="preserve">Richard B. Spence</t>
   </si>
   <si>
+    <t xml:space="preserve">Hollywood’s Spies: Jewish Infiltration of Nazi and Pro-Nazi Groups in Los Angeles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura Rosenzweig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hollywood's War on God</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joe Schimmel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood Passover: The Jews of Europe and Ritual Murder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ariel Toaff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secret Societies and Psychological Warfare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael A. Hoffman II</t>
+  </si>
+  <si>
+    <t>Criptocracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tragedy and Hope</t>
+  </si>
+  <si>
     <t xml:space="preserve">Psychedelics Encyclopedia</t>
   </si>
   <si>
@@ -11745,15 +11799,6 @@
     <t xml:space="preserve">Paul Devereux</t>
   </si>
   <si>
-    <t xml:space="preserve">Blood Passover: The Jews of Europe and Ritual Murder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ariel Toaff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moloch Worship Exposed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Secrete Nazi Polar Expeditions</t>
   </si>
   <si>
@@ -11763,6 +11808,12 @@
     <t xml:space="preserve">Occult World War 2</t>
   </si>
   <si>
+    <t xml:space="preserve">The Secret King: The Myth and Reality of Nazi Occultism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Moynihan</t>
+  </si>
+  <si>
     <t xml:space="preserve">An Amazing Journey into the Psychotic Mind - Breaking the Spell of the Ivory Tower</t>
   </si>
   <si>
@@ -11787,6 +11838,117 @@
     <t xml:space="preserve">Jacques Vallée</t>
   </si>
   <si>
+    <t xml:space="preserve">The Kingdom of Agarttha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint-Yves d'Alveydre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hollow Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vril: The Coming Race</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edward Bulwer-Lytton</t>
+  </si>
+  <si>
+    <t>Etidorhpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> John Uri Lloyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Shaver Mystery, Book One</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard S. Shaver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Kingdom of Agarttha: A Journey into the Hollow Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexandre Saint-Yves d'Alveydre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beasts, Men, and Gods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferdinand Ossendowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tayos Gold : The Archives of Atlantis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stan Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mysteries of the Tayos Caves: The Lost Civilizations Where the Andes Meet the Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Chionetti </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islands of Dream: The Temples of Malta - Hidden Mysteries Revealed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francis Xavier Aloisio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Atlantis to the Sphinx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Colin Wilson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forbidden Archeology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael A. Cremo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tihuanacu, the Cradle of American Man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthur Posnansky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cosmic Forces of Mu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Churchward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Sacred Symbols of Mu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Children of Mu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Lost Continent of Mu, the Motherland of Men</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vestiges of the Mayas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augustus Le Plongeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacred Mysteries Among the Mayas and the Quiches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantis: The Antediluvian World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignatius L. Donnelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inscripcões e tradiçoes da America prehistorica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernardo Ramos</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Brooking Report</t>
   </si>
   <si>
@@ -11847,12 +12009,15 @@
     <t xml:space="preserve">Memo 6751</t>
   </si>
   <si>
-    <t xml:space="preserve">The Secret King: The Myth and Reality of Nazi Occultism</t>
+    <t xml:space="preserve">Biochemical resemblance between Endoparasites and Malignant Tumours</t>
   </si>
   <si>
     <t xml:space="preserve">FBI vault - The Protocols of the meeting of the Learned Elders of Zion:</t>
   </si>
   <si>
+    <t xml:space="preserve">Jay Dyer</t>
+  </si>
+  <si>
     <t xml:space="preserve">CS Lewis Space Trilogy</t>
   </si>
   <si>
@@ -11860,13 +12025,82 @@
   </si>
   <si>
     <t xml:space="preserve">Graham Hanckoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judaism and The Vatican</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leon De Poncis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programmed to Kill: The Politics of Serial Murder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dave McGowan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esoteric Hollywood: Sex, Cults &amp; Symbols in Film</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation Culture Creation and Hollywood Mind Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamie Hanshaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Search for the Manchurian Candidate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Marks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tavistock Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Estulin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Scribal Character Of The Dead Sea Scrolls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malachi Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hostage To The Devil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Final Conclave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Brotherhood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephen Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Encyclopedia of Ancient Giants in North America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fritz Zimmerman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ancient America: The Dark Side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood on the Ohio: Frontier Tales of Terror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giants on Record: America's Hidden History, Secrets in the Mounds and the Smithsonian Files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim Vieira and Hugh Newman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -11887,19 +12121,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="12.000000"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.000000"/>
-      <color theme="10"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -11943,7 +12189,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -11974,11 +12220,21 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -45074,7 +45330,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A124" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -46816,24 +47072,24 @@
         <v>3322</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>3253</v>
+        <v>3259</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>2864</v>
       </c>
     </row>
     <row r="73" ht="14.25">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="5">
+        <v>90</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>3331</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>3332</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>3333</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>3334</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>3102</v>
@@ -46842,24 +47098,25 @@
         <v>3322</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>3259</v>
+        <v>2863</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>2864</v>
       </c>
+      <c r="I73" s="3"/>
     </row>
     <row r="74" ht="14.25">
       <c r="A74" s="5">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>3334</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>3335</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>3336</v>
-      </c>
       <c r="D74" s="3" t="s">
-        <v>3337</v>
+        <v>3333</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>3102</v>
@@ -46876,17 +47133,17 @@
       <c r="I74" s="3"/>
     </row>
     <row r="75" ht="14.25">
-      <c r="A75" s="5">
-        <v>95</v>
+      <c r="A75" s="5" t="s">
+        <v>3336</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>3337</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>3338</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>3339</v>
-      </c>
       <c r="D75" s="3" t="s">
-        <v>3337</v>
+        <v>3333</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>3102</v>
@@ -46900,20 +47157,22 @@
       <c r="H75" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I75" s="3"/>
+      <c r="I75" s="3" t="s">
+        <v>2869</v>
+      </c>
     </row>
     <row r="76" ht="14.25">
       <c r="A76" s="5" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>3340</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>3341</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>3342</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>3337</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>3102</v>
@@ -46922,27 +47181,27 @@
         <v>3322</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>2863</v>
+        <v>3343</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>2869</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="77" ht="14.25">
       <c r="A77" s="5" t="s">
-        <v>3343</v>
+        <v>3345</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>3344</v>
+        <v>3346</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>3345</v>
+        <v>3347</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>3346</v>
+        <v>3348</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>3102</v>
@@ -46951,67 +47210,86 @@
         <v>3322</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>3347</v>
+        <v>3349</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>3348</v>
-      </c>
+        <v>3350</v>
+      </c>
+      <c r="J77" s="3"/>
     </row>
     <row r="78" ht="14.25">
-      <c r="A78" s="5" t="s">
-        <v>3349</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>3350</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>3351</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>3330</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>3102</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>3322</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>3352</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>3353</v>
-      </c>
+      <c r="A78" s="5"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
       <c r="J78" s="3"/>
     </row>
     <row r="79" ht="14.25">
       <c r="A79" s="5"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
+      <c r="B79" s="3" t="s">
+        <v>3351</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>3353</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>3322</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>3354</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>3355</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>3356</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>3357</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>3358</v>
+      </c>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3" t="s">
+        <v>3353</v>
+      </c>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R79" s="3" t="s">
+        <v>3359</v>
+      </c>
     </row>
     <row r="80" ht="14.25">
-      <c r="A80" s="5"/>
+      <c r="A80" s="3" t="s">
+        <v>3360</v>
+      </c>
       <c r="B80" s="3" t="s">
-        <v>3354</v>
+        <v>3361</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>3355</v>
+        <v>3362</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>3102</v>
@@ -47020,37 +47298,26 @@
         <v>3322</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>3357</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>3358</v>
+        <v>3354</v>
+      </c>
+      <c r="H80" t="s">
+        <v>3355</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>3359</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>3360</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>3361</v>
-      </c>
+        <v>3363</v>
+      </c>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
       <c r="L80" s="3"/>
-      <c r="M80" s="3" t="s">
-        <v>3356</v>
-      </c>
+      <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
-      <c r="Q80" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R80" s="3" t="s">
-        <v>3362</v>
-      </c>
+      <c r="Q80" s="3"/>
     </row>
     <row r="81" ht="14.25">
-      <c r="A81" s="3" t="s">
-        <v>3363</v>
+      <c r="A81" s="5">
+        <v>102</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>3364</v>
@@ -47059,7 +47326,7 @@
         <v>3365</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>3102</v>
@@ -47068,35 +47335,28 @@
         <v>3322</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>3357</v>
-      </c>
-      <c r="H81" t="s">
-        <v>3358</v>
+        <v>2863</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>2864</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>3366</v>
+        <v>2869</v>
       </c>
       <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
     </row>
     <row r="82" ht="14.25">
       <c r="A82" s="5">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>3367</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>3368</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>3356</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>3102</v>
@@ -47110,72 +47370,72 @@
       <c r="H82" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I82" s="3" t="s">
-        <v>2869</v>
-      </c>
+      <c r="I82" s="3"/>
       <c r="J82" s="3"/>
     </row>
     <row r="83" ht="14.25">
-      <c r="A83" s="5">
-        <v>142</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>3369</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>3370</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>3371</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>3102</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3322</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>2864</v>
-      </c>
+      <c r="A83" s="5"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
     </row>
     <row r="84" ht="14.25">
-      <c r="A84" s="5"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
+      <c r="E84" s="6"/>
     </row>
     <row r="85" ht="14.25">
-      <c r="E85" s="6"/>
+      <c r="A85" s="5" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>3370</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3371</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>3372</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F85" t="s">
+        <v>3373</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>3371</v>
+      </c>
+      <c r="J85" s="3"/>
     </row>
     <row r="86" ht="14.25">
       <c r="A86" s="5" t="s">
-        <v>3372</v>
+        <v>3374</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>3373</v>
-      </c>
-      <c r="C86" t="s">
-        <v>3374</v>
+        <v>3375</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>3376</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>3375</v>
+        <v>3377</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>3102</v>
       </c>
-      <c r="F86" t="s">
-        <v>3376</v>
+      <c r="F86" s="3" t="s">
+        <v>3373</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>3253</v>
@@ -47184,43 +47444,42 @@
         <v>2864</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>3374</v>
+        <v>3378</v>
       </c>
       <c r="J86" s="3"/>
     </row>
     <row r="87" ht="14.25">
-      <c r="A87" s="5" t="s">
-        <v>3377</v>
+      <c r="A87" s="5">
+        <v>43</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>3378</v>
-      </c>
-      <c r="C87" s="3" t="s">
         <v>3379</v>
       </c>
+      <c r="C87" t="s">
+        <v>3380</v>
+      </c>
       <c r="D87" s="3" t="s">
-        <v>3380</v>
+        <v>3381</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>3253</v>
+        <v>2863</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>3381</v>
-      </c>
-      <c r="J87" s="3"/>
+        <v>2869</v>
+      </c>
     </row>
     <row r="88" ht="14.25">
       <c r="A88" s="5">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>3382</v>
@@ -47235,7 +47494,7 @@
         <v>3102</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>2863</v>
@@ -47248,52 +47507,49 @@
       </c>
     </row>
     <row r="89" ht="14.25">
-      <c r="A89" s="5">
-        <v>131</v>
+      <c r="A89" s="5" t="s">
+        <v>3385</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>3385</v>
-      </c>
-      <c r="C89" t="s">
         <v>3386</v>
       </c>
+      <c r="C89" s="3" t="s">
+        <v>3387</v>
+      </c>
       <c r="D89" s="3" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>2863</v>
+        <v>3259</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>2869</v>
-      </c>
     </row>
     <row r="90" ht="14.25">
       <c r="A90" s="5" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>3259</v>
@@ -47303,13 +47559,13 @@
       </c>
     </row>
     <row r="91" ht="14.25">
-      <c r="A91" s="5" t="s">
-        <v>3392</v>
+      <c r="A91" s="5">
+        <v>31</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>3393</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" t="s">
         <v>3394</v>
       </c>
       <c r="D91" s="3" t="s">
@@ -47319,76 +47575,77 @@
         <v>3102</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>3259</v>
+        <v>2863</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>2864</v>
       </c>
+      <c r="I91" s="3" t="s">
+        <v>2869</v>
+      </c>
     </row>
     <row r="92" ht="14.25">
-      <c r="A92" s="5">
-        <v>31</v>
+      <c r="A92" s="3" t="s">
+        <v>3396</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>3396</v>
-      </c>
-      <c r="C92" t="s">
         <v>3397</v>
       </c>
+      <c r="C92" s="3" t="s">
+        <v>3398</v>
+      </c>
       <c r="D92" s="3" t="s">
-        <v>3398</v>
+        <v>3399</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>2863</v>
+        <v>3127</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>2869</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="93" ht="14.25">
-      <c r="A93" s="3" t="s">
-        <v>3399</v>
+      <c r="A93" s="5">
+        <v>20</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>3402</v>
+        <v>3403</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>3127</v>
+        <v>2863</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I93" s="3" t="s">
-        <v>3403</v>
-      </c>
+      <c r="I93" s="3"/>
     </row>
     <row r="94" ht="14.25">
       <c r="A94" s="5">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>3404</v>
@@ -47403,7 +47660,7 @@
         <v>3102</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>2863</v>
@@ -47415,7 +47672,7 @@
     </row>
     <row r="95" ht="14.25">
       <c r="A95" s="5">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>3407</v>
@@ -47430,7 +47687,7 @@
         <v>3102</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>2863</v>
@@ -47442,7 +47699,7 @@
     </row>
     <row r="96" ht="14.25">
       <c r="A96" s="5">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>3410</v>
@@ -47457,7 +47714,7 @@
         <v>3102</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>2863</v>
@@ -47469,7 +47726,7 @@
     </row>
     <row r="97" ht="14.25">
       <c r="A97" s="5">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>3413</v>
@@ -47478,13 +47735,13 @@
         <v>3414</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>2863</v>
@@ -47496,22 +47753,22 @@
     </row>
     <row r="98" ht="14.25">
       <c r="A98" s="5">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>3415</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>3416</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>3417</v>
-      </c>
       <c r="D98" s="3" t="s">
-        <v>3415</v>
+        <v>3372</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>2863</v>
@@ -47523,22 +47780,22 @@
     </row>
     <row r="99" ht="14.25">
       <c r="A99" s="5">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>3418</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>3419</v>
-      </c>
       <c r="D99" s="3" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>2863</v>
@@ -47550,22 +47807,22 @@
     </row>
     <row r="100" ht="14.25">
       <c r="A100" s="5">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>3420</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>3421</v>
-      </c>
       <c r="D100" s="3" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>2863</v>
@@ -47576,96 +47833,102 @@
       <c r="I100" s="3"/>
     </row>
     <row r="101" ht="14.25">
-      <c r="A101" s="5">
-        <v>122</v>
-      </c>
-      <c r="B101" s="3" t="s">
+      <c r="A101" s="5"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" ht="14.25">
+      <c r="E102" s="6"/>
+    </row>
+    <row r="103" ht="14.25"/>
+    <row r="104" ht="14.25">
+      <c r="A104" s="5">
+        <v>39</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>3421</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>3422</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="D104" s="3" t="s">
         <v>3423</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3375</v>
-      </c>
-      <c r="E101" s="7" t="s">
+      <c r="E104" s="7" t="s">
         <v>3102</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3376</v>
-      </c>
-      <c r="G101" s="3" t="s">
+      <c r="G104" s="3" t="s">
         <v>2863</v>
       </c>
-      <c r="H101" s="3" t="s">
+      <c r="H104" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="I101" s="3"/>
-    </row>
-    <row r="102" ht="14.25">
-      <c r="A102" s="5"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-    </row>
-    <row r="103" ht="14.25">
-      <c r="E103" s="6"/>
-    </row>
-    <row r="104" ht="14.25"/>
-    <row r="105" ht="14.25">
-      <c r="A105" s="5">
-        <v>39</v>
-      </c>
-      <c r="B105" s="3" t="s">
+      <c r="I104" s="3"/>
+    </row>
+    <row r="107" ht="14.25">
+      <c r="A107" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>3424</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>3425</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D107" s="3" t="s">
         <v>3426</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E107" s="7" t="s">
         <v>3102</v>
       </c>
-      <c r="G105" s="3" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H105" s="3" t="s">
+      <c r="F107" s="3"/>
+      <c r="G107" s="3" t="s">
+        <v>3427</v>
+      </c>
+      <c r="H107" t="s">
         <v>2864</v>
       </c>
-      <c r="I105" s="3"/>
+      <c r="I107" s="3" t="s">
+        <v>3428</v>
+      </c>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
     </row>
     <row r="108" ht="14.25">
       <c r="A108" s="3" t="s">
-        <v>397</v>
+        <v>3111</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>3427</v>
+        <v>3429</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>3428</v>
+        <v>3430</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>3429</v>
+        <v>3426</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3" t="s">
-        <v>3430</v>
-      </c>
-      <c r="H108" t="s">
+        <v>3431</v>
+      </c>
+      <c r="H108" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>3431</v>
+        <v>3432</v>
       </c>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
@@ -47676,29 +47939,29 @@
     </row>
     <row r="109" ht="14.25">
       <c r="A109" s="3" t="s">
-        <v>3111</v>
+        <v>3433</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>3432</v>
+        <v>3434</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>3433</v>
+        <v>3435</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>3429</v>
+        <v>3426</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>3102</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3" t="s">
-        <v>3434</v>
+        <v>3436</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>3435</v>
+        <v>3437</v>
       </c>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
@@ -47707,98 +47970,90 @@
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" ht="14.25">
-      <c r="A110" s="3" t="s">
-        <v>3436</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>3437</v>
-      </c>
-      <c r="C110" s="3" t="s">
+    <row r="113" ht="14.25">
+      <c r="C113" s="3" t="s">
         <v>3438</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>3429</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>3102</v>
-      </c>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3" t="s">
-        <v>3439</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>3440</v>
-      </c>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
-      <c r="N110" s="3"/>
-      <c r="O110" s="3"/>
     </row>
     <row r="114" ht="14.25">
       <c r="C114" s="3" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="118" ht="14.25">
+      <c r="C118" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25">
+      <c r="C121" t="s">
         <v>3441</v>
       </c>
-    </row>
-    <row r="115" ht="14.25">
-      <c r="C115" s="3" t="s">
+      <c r="D121" t="s">
         <v>3442</v>
-      </c>
-    </row>
-    <row r="119" ht="14.25">
-      <c r="C119" t="s">
-        <v>3443</v>
       </c>
     </row>
     <row r="122" ht="14.25">
       <c r="C122" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="D122" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="123" ht="14.25">
       <c r="C123" t="s">
+        <v>3444</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25">
+      <c r="A126" s="3" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>3445</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>3446</v>
       </c>
-      <c r="D123" t="s">
-        <v>3445</v>
-      </c>
-    </row>
-    <row r="124" ht="14.25">
-      <c r="C124" t="s">
+      <c r="D126" s="3" t="s">
         <v>3447</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>3445</v>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3" t="s">
+        <v>3448</v>
+      </c>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3" t="s">
+        <v>3355</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>3449</v>
       </c>
     </row>
     <row r="127" ht="14.25">
       <c r="A127" s="3" t="s">
-        <v>3111</v>
+        <v>3115</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>3448</v>
+        <v>3450</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>3449</v>
+        <v>3451</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="I127" s="3" t="s">
         <v>3452</v>
@@ -47806,7 +48061,7 @@
     </row>
     <row r="128" ht="14.25">
       <c r="A128" s="3" t="s">
-        <v>3115</v>
+        <v>3119</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>3453</v>
@@ -47815,15 +48070,15 @@
         <v>3454</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="I128" s="3" t="s">
         <v>3455</v>
@@ -47831,121 +48086,124 @@
     </row>
     <row r="129" ht="14.25">
       <c r="A129" s="3" t="s">
-        <v>3119</v>
+        <v>3456</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>3456</v>
+        <v>3457</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>3457</v>
+        <v>3458</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="3" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>3458</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="130" ht="14.25">
       <c r="A130" s="3" t="s">
-        <v>3459</v>
+        <v>3460</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>3460</v>
+        <v>3461</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>3461</v>
+        <v>3462</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="3" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>3462</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="131" ht="14.25">
       <c r="A131" s="3" t="s">
-        <v>3463</v>
+        <v>3464</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>3465</v>
+        <v>3466</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="3" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>3466</v>
-      </c>
-    </row>
-    <row r="132" ht="14.25">
-      <c r="A132" s="3" t="s">
         <v>3467</v>
       </c>
-      <c r="B132" s="3" t="s">
+    </row>
+    <row r="135" ht="14.25">
+      <c r="C135" s="3" t="s">
         <v>3468</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="D135" s="3" t="s">
         <v>3469</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>3450</v>
-      </c>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3" t="s">
-        <v>3451</v>
-      </c>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3" t="s">
-        <v>3358</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>3470</v>
       </c>
     </row>
     <row r="136" ht="14.25">
       <c r="C136" s="3" t="s">
+        <v>3470</v>
+      </c>
+      <c r="D136" s="3" t="s">
         <v>3471</v>
       </c>
-      <c r="D136" s="3" t="s">
+    </row>
+    <row r="138" ht="14.25">
+      <c r="C138" t="s">
         <v>3472</v>
       </c>
-    </row>
-    <row r="137" ht="14.25">
-      <c r="C137" s="3" t="s">
+      <c r="D138" t="s">
         <v>3473</v>
       </c>
-      <c r="D137" s="3" t="s">
+    </row>
+    <row r="140" ht="14.25"/>
+    <row r="141" ht="14.25">
+      <c r="C141" t="s">
         <v>3474</v>
       </c>
-    </row>
-    <row r="141" ht="14.25"/>
+      <c r="D141" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="145" ht="14.25">
+      <c r="C145" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="150" ht="14.25">
+      <c r="C150" t="s">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="151" ht="14.25"/>
+    <row r="152" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -48007,22 +48265,22 @@
         <v>397</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3476</v>
+        <v>3479</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3477</v>
+        <v>3480</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3478</v>
+        <v>3481</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>2864</v>
@@ -48037,22 +48295,22 @@
     <row r="3" ht="14.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>3481</v>
+        <v>3484</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>3485</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3487</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>3482</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>3483</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3484</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>3479</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>2864</v>
@@ -48063,19 +48321,19 @@
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="5" t="s">
-        <v>3486</v>
+        <v>3489</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3487</v>
+        <v>3490</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3488</v>
+        <v>3491</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>2863</v>
@@ -48089,22 +48347,22 @@
     </row>
     <row r="6" s="0" customFormat="1" ht="14.25">
       <c r="A6" s="5" t="s">
-        <v>3490</v>
+        <v>3493</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3491</v>
+        <v>3494</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>3495</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>3492</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>3489</v>
       </c>
       <c r="E6" s="5">
         <v>1937</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>3215</v>
@@ -48118,22 +48376,22 @@
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="5" t="s">
-        <v>3493</v>
+        <v>3496</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>3494</v>
+        <v>3497</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3495</v>
+        <v>3498</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="E7" s="5">
         <v>1936</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>3215</v>
@@ -48142,24 +48400,24 @@
         <v>2864</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>3496</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="5" t="s">
-        <v>3497</v>
+        <v>3500</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>3498</v>
+        <v>3501</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3499</v>
+        <v>3502</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>2863</v>
@@ -48173,19 +48431,19 @@
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="5" t="s">
-        <v>3500</v>
+        <v>3503</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>3501</v>
+        <v>3504</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3502</v>
+        <v>3505</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>2863</v>
@@ -48199,19 +48457,19 @@
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="5" t="s">
-        <v>3503</v>
+        <v>3506</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>3504</v>
+        <v>3507</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>3505</v>
+        <v>3508</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>2863</v>
@@ -48226,19 +48484,19 @@
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="5" t="s">
-        <v>3506</v>
+        <v>3509</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>3507</v>
+        <v>3510</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>3508</v>
+        <v>3511</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>2863</v>
@@ -48253,19 +48511,19 @@
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="5" t="s">
-        <v>3509</v>
+        <v>3512</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>3510</v>
+        <v>3513</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3511</v>
+        <v>3514</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>2863</v>
@@ -48280,19 +48538,19 @@
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="5" t="s">
-        <v>3512</v>
+        <v>3515</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>3513</v>
+        <v>3516</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>3514</v>
+        <v>3517</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>2863</v>
@@ -48307,19 +48565,19 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="5" t="s">
-        <v>3515</v>
+        <v>3518</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>3516</v>
+        <v>3519</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>3517</v>
+        <v>3520</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>2863</v>
@@ -48334,19 +48592,19 @@
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="5" t="s">
-        <v>3518</v>
+        <v>3521</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>3519</v>
+        <v>3522</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>3520</v>
+        <v>3523</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>2863</v>
@@ -48361,19 +48619,19 @@
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="5" t="s">
-        <v>3521</v>
+        <v>3524</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>3522</v>
+        <v>3525</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>3523</v>
+        <v>3526</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>2863</v>
@@ -48387,20 +48645,20 @@
     </row>
     <row r="17" s="0" customFormat="1" ht="14.25">
       <c r="A17" s="5" t="s">
-        <v>3524</v>
+        <v>3527</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>3525</v>
+        <v>3528</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>3526</v>
+        <v>3529</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>2863</v>
@@ -48414,29 +48672,29 @@
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="2" t="s">
-        <v>3527</v>
+        <v>3530</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3528</v>
+        <v>3531</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>3529</v>
+        <v>3532</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>3530</v>
+        <v>3533</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>3531</v>
+        <v>3534</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -48450,20 +48708,20 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="2" t="s">
-        <v>3532</v>
+        <v>3535</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>3533</v>
+        <v>3536</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>3534</v>
+        <v>3537</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>2863</v>
@@ -48486,29 +48744,29 @@
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="2" t="s">
-        <v>3535</v>
+        <v>3538</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>3536</v>
+        <v>3539</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>3537</v>
+        <v>3540</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>3430</v>
+        <v>3427</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>3538</v>
+        <v>3541</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -48522,29 +48780,29 @@
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="2" t="s">
-        <v>3539</v>
+        <v>3542</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>3540</v>
+        <v>3543</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>3541</v>
+        <v>3544</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>3542</v>
+        <v>3545</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>3543</v>
+        <v>3546</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -48558,29 +48816,29 @@
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="2" t="s">
-        <v>3544</v>
+        <v>3547</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>3545</v>
+        <v>3548</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>3546</v>
+        <v>3549</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>3547</v>
+        <v>3550</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>3548</v>
+        <v>3551</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -48597,26 +48855,26 @@
         <v>1856</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>3549</v>
+        <v>3552</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>3550</v>
+        <v>3553</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>3551</v>
+        <v>3554</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>3552</v>
+        <v>3555</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -48633,17 +48891,17 @@
         <v>619</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>3553</v>
+        <v>3556</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>3554</v>
+        <v>3557</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>2863</v>
@@ -48669,26 +48927,26 @@
         <v>1770</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>3555</v>
+        <v>3558</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>3556</v>
+        <v>3559</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>3542</v>
+        <v>3545</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>3557</v>
+        <v>3560</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -48705,26 +48963,26 @@
         <v>1103</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>3558</v>
+        <v>3561</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>3559</v>
+        <v>3562</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>3560</v>
+        <v>3563</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>3561</v>
+        <v>3564</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -48738,23 +48996,23 @@
     </row>
     <row r="27" ht="14.25">
       <c r="A27" s="2" t="s">
-        <v>3562</v>
+        <v>3565</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>3563</v>
+        <v>3566</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>3564</v>
+        <v>3567</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>2864</v>
@@ -48775,26 +49033,26 @@
         <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>3565</v>
+        <v>3568</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>3566</v>
+        <v>3569</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>3430</v>
+        <v>3427</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>2864</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>3567</v>
+        <v>3570</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -48851,26 +49109,26 @@
         <v>9</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3568</v>
+        <v>3571</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>3569</v>
+        <v>3572</v>
       </c>
       <c r="D31" t="s">
-        <v>3570</v>
+        <v>3573</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>3430</v>
+        <v>3427</v>
       </c>
       <c r="H31" t="s">
         <v>2864</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>3571</v>
+        <v>3574</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -48884,23 +49142,23 @@
         <v>397</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>3572</v>
+        <v>3575</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>3576</v>
+      </c>
+      <c r="D32" t="s">
         <v>3573</v>
-      </c>
-      <c r="D32" t="s">
-        <v>3570</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>3574</v>
+        <v>3577</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -48914,23 +49172,23 @@
         <v>3111</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>3575</v>
+        <v>3578</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>3576</v>
+        <v>3579</v>
       </c>
       <c r="D33" t="s">
-        <v>3570</v>
+        <v>3573</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>3577</v>
+        <v>3580</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -48944,23 +49202,23 @@
         <v>3115</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>3578</v>
+        <v>3581</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>3579</v>
+        <v>3582</v>
       </c>
       <c r="D34" t="s">
-        <v>3570</v>
+        <v>3573</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>3580</v>
+        <v>3583</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -48971,26 +49229,26 @@
     </row>
     <row r="35" ht="14.25">
       <c r="A35" s="2" t="s">
-        <v>3436</v>
+        <v>3433</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>3581</v>
+        <v>3584</v>
       </c>
       <c r="C35" t="s">
-        <v>3582</v>
+        <v>3585</v>
       </c>
       <c r="D35" t="s">
-        <v>3570</v>
+        <v>3573</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>3583</v>
+        <v>3586</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -49004,23 +49262,23 @@
         <v>3119</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>3584</v>
+        <v>3587</v>
       </c>
       <c r="C36" t="s">
-        <v>3585</v>
+        <v>3588</v>
       </c>
       <c r="D36" t="s">
-        <v>3570</v>
+        <v>3573</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>3586</v>
+        <v>3589</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -49031,26 +49289,26 @@
     </row>
     <row r="37" ht="14.25">
       <c r="A37" s="2" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>3587</v>
+        <v>3590</v>
       </c>
       <c r="C37" t="s">
-        <v>3588</v>
+        <v>3591</v>
       </c>
       <c r="D37" t="s">
-        <v>3570</v>
+        <v>3573</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>3589</v>
+        <v>3592</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -49061,26 +49319,26 @@
     </row>
     <row r="38" ht="14.25">
       <c r="A38" s="2" t="s">
-        <v>3463</v>
+        <v>3460</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>3590</v>
+        <v>3593</v>
       </c>
       <c r="C38" t="s">
-        <v>3591</v>
+        <v>3594</v>
       </c>
       <c r="D38" t="s">
-        <v>3570</v>
+        <v>3573</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>3592</v>
+        <v>3595</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -49091,26 +49349,26 @@
     </row>
     <row r="39" ht="14.25">
       <c r="A39" s="2" t="s">
-        <v>3467</v>
+        <v>3464</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>3593</v>
+        <v>3596</v>
       </c>
       <c r="C39" t="s">
-        <v>3594</v>
+        <v>3597</v>
       </c>
       <c r="D39" t="s">
-        <v>3570</v>
+        <v>3573</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>3595</v>
+        <v>3598</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -49121,20 +49379,20 @@
     </row>
     <row r="40" ht="14.25">
       <c r="A40" s="2" t="s">
-        <v>3596</v>
+        <v>3599</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>3597</v>
+        <v>3600</v>
       </c>
       <c r="C40" t="s">
-        <v>3598</v>
+        <v>3601</v>
       </c>
       <c r="D40" t="s">
-        <v>3570</v>
+        <v>3573</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>2864</v>
@@ -49154,19 +49412,19 @@
     <row r="42" ht="14.25"/>
     <row r="43" ht="14.25">
       <c r="A43" s="5" t="s">
-        <v>3599</v>
+        <v>3602</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>3600</v>
+        <v>3603</v>
       </c>
       <c r="C43" t="s">
-        <v>3601</v>
+        <v>3604</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>3602</v>
+        <v>3605</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>2863</v>
@@ -49180,19 +49438,19 @@
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="5" t="s">
-        <v>3603</v>
+        <v>3606</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>3604</v>
+        <v>3607</v>
       </c>
       <c r="C44" t="s">
+        <v>3608</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>3605</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3602</v>
-      </c>
       <c r="F44" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>2863</v>
@@ -49209,26 +49467,26 @@
         <v>3111</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>3606</v>
+        <v>3609</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>3607</v>
+        <v>3610</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>3602</v>
+        <v>3605</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>2863</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>3608</v>
+        <v>3611</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>3602</v>
+        <v>3605</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -49241,19 +49499,19 @@
     <row r="47" ht="14.25"/>
     <row r="48" ht="14.25">
       <c r="A48" s="5" t="s">
-        <v>3609</v>
+        <v>3612</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>3610</v>
+        <v>3613</v>
       </c>
       <c r="C48" t="s">
-        <v>3611</v>
+        <v>3614</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>3612</v>
+        <v>3615</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3127</v>
@@ -49262,25 +49520,25 @@
         <v>2864</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>3613</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="49" ht="14.25"/>
     <row r="50" ht="14.25">
       <c r="A50" s="2" t="s">
-        <v>3614</v>
+        <v>3617</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>3615</v>
+        <v>3618</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>3616</v>
+        <v>3619</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>3617</v>
+        <v>3620</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>3127</v>
@@ -49289,7 +49547,7 @@
         <v>2864</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>3618</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="51" ht="14.25">
@@ -49297,16 +49555,16 @@
         <v>3052</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>3619</v>
+        <v>3622</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>3620</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>3617</v>
-      </c>
       <c r="F51" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>3127</v>
@@ -49315,7 +49573,7 @@
         <v>2864</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>3621</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="52" ht="14.25"/>
@@ -49324,19 +49582,19 @@
     <row r="55" ht="14.25"/>
     <row r="56" ht="14.25">
       <c r="A56" s="5" t="s">
-        <v>3622</v>
+        <v>3625</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>3623</v>
+        <v>3626</v>
       </c>
       <c r="C56" t="s">
-        <v>3624</v>
+        <v>3627</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>3625</v>
+        <v>3628</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>3127</v>
@@ -49345,24 +49603,24 @@
         <v>2864</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>3618</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="57" ht="14.25">
       <c r="A57" s="2" t="s">
-        <v>3626</v>
+        <v>3629</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>3627</v>
+        <v>3630</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>3628</v>
+        <v>3631</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>3629</v>
+        <v>3632</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3127</v>
@@ -49371,23 +49629,23 @@
         <v>2864</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>3630</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="58" ht="14.25"/>
     <row r="60" ht="14.25">
       <c r="A60" s="5"/>
       <c r="B60" s="3" t="s">
-        <v>3631</v>
+        <v>3634</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>3632</v>
+        <v>3635</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>3633</v>
+        <v>3636</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>2863</v>
@@ -49402,19 +49660,19 @@
     </row>
     <row r="61" ht="14.25">
       <c r="A61" s="5" t="s">
-        <v>3634</v>
+        <v>3637</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>3635</v>
+        <v>3638</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>3636</v>
+        <v>3639</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>3637</v>
+        <v>3640</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>2863</v>
@@ -49443,7 +49701,7 @@
         <v>3146</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>2863</v>
@@ -49469,7 +49727,7 @@
         <v>3146</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>2863</v>
@@ -49495,7 +49753,7 @@
         <v>3146</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>2863</v>
@@ -49521,7 +49779,7 @@
         <v>3146</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>2863</v>
@@ -49547,7 +49805,7 @@
         <v>3146</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>2863</v>
@@ -49573,7 +49831,7 @@
         <v>3146</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>2863</v>
@@ -49599,7 +49857,7 @@
         <v>3146</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>2863</v>
@@ -49625,7 +49883,7 @@
         <v>3146</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>2863</v>
@@ -49651,7 +49909,7 @@
         <v>3146</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>2863</v>
@@ -49668,17 +49926,17 @@
         <v>139</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>3638</v>
+        <v>3641</v>
       </c>
       <c r="C75" t="s">
-        <v>3639</v>
+        <v>3642</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>3640</v>
+        <v>3643</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="3" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>2863</v>
@@ -49695,17 +49953,17 @@
         <v>140</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>3641</v>
+        <v>3644</v>
       </c>
       <c r="C76" t="s">
-        <v>3642</v>
+        <v>3645</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>3643</v>
+        <v>3646</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="3" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>2863</v>
@@ -49714,7 +49972,7 @@
         <v>2864</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>3644</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="77" ht="14.25">
@@ -49722,17 +49980,17 @@
         <v>143</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>3645</v>
+        <v>3648</v>
       </c>
       <c r="C77" t="s">
-        <v>3646</v>
+        <v>3649</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>3647</v>
+        <v>3650</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="3" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>2863</v>
@@ -49749,17 +50007,17 @@
         <v>137</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>3648</v>
+        <v>3651</v>
       </c>
       <c r="C78" t="s">
-        <v>3649</v>
+        <v>3652</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>3650</v>
+        <v>3653</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="3" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>2863</v>
@@ -49779,17 +50037,17 @@
         <v>23</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>3651</v>
+        <v>3654</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>3652</v>
+        <v>3655</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>3653</v>
+        <v>3656</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="3" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>2863</v>
@@ -49806,17 +50064,17 @@
         <v>24</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>3654</v>
+        <v>3657</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>3655</v>
+        <v>3658</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>3076</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="3" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>2863</v>
@@ -49833,17 +50091,17 @@
         <v>25</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>3656</v>
+        <v>3659</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>3657</v>
+        <v>3660</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>3658</v>
+        <v>3661</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="3" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>2863</v>
@@ -49860,17 +50118,17 @@
         <v>26</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>3659</v>
+        <v>3662</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>3660</v>
+        <v>3663</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>3661</v>
+        <v>3664</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="3" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>2863</v>
@@ -49887,17 +50145,17 @@
         <v>27</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>3662</v>
+        <v>3665</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>3663</v>
+        <v>3666</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>3090</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="3" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>2863</v>
@@ -49918,17 +50176,17 @@
         <v>75</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>3664</v>
+        <v>3667</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>3665</v>
+        <v>3668</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>3090</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="3" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>2863</v>
@@ -49945,17 +50203,17 @@
         <v>76</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>3666</v>
+        <v>3669</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>3667</v>
+        <v>3670</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3090</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="3" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>2863</v>
@@ -49972,19 +50230,19 @@
         <v>67</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>3668</v>
+        <v>3671</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>3669</v>
+        <v>3672</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>3670</v>
+        <v>3673</v>
       </c>
       <c r="E92" s="2">
         <v>1921</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>2863</v>
@@ -50001,17 +50259,17 @@
         <v>6</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>3671</v>
+        <v>3674</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>3672</v>
+        <v>3675</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>3670</v>
+        <v>3673</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>2863</v>
@@ -50026,13 +50284,13 @@
         <v>2</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>3673</v>
+        <v>3676</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>3674</v>
+        <v>3677</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>3675</v>
+        <v>3678</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="8"/>
@@ -50049,13 +50307,13 @@
         <v>3</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>3676</v>
+        <v>3679</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>3677</v>
+        <v>3680</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>3678</v>
+        <v>3681</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="8"/>
@@ -50072,13 +50330,13 @@
         <v>8</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>3679</v>
+        <v>3682</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>3680</v>
+        <v>3683</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>3633</v>
+        <v>3636</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="8"/>
@@ -50095,13 +50353,13 @@
         <v>10</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>3681</v>
+        <v>3684</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>3682</v>
+        <v>3685</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>3683</v>
+        <v>3686</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="8"/>
@@ -50118,13 +50376,13 @@
         <v>11</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>3684</v>
+        <v>3687</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>3685</v>
+        <v>3688</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>3686</v>
+        <v>3689</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="8"/>
@@ -50145,13 +50403,13 @@
         <v>21</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>3687</v>
+        <v>3690</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>3688</v>
+        <v>3691</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>3689</v>
+        <v>3692</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="8"/>
@@ -50168,13 +50426,13 @@
         <v>47</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>3690</v>
+        <v>3693</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>3691</v>
+        <v>3694</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>3689</v>
+        <v>3692</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="8"/>
@@ -50191,13 +50449,13 @@
         <v>29</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>3692</v>
+        <v>3695</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>3693</v>
+        <v>3696</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>3694</v>
+        <v>3697</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="8"/>
@@ -50214,13 +50472,13 @@
         <v>35</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>3695</v>
+        <v>3698</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>3696</v>
+        <v>3699</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>3694</v>
+        <v>3697</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="8"/>
@@ -50237,13 +50495,13 @@
         <v>91</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>3700</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>3701</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>3697</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>3698</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>3694</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="8"/>
@@ -50260,10 +50518,10 @@
         <v>18</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>3699</v>
+        <v>3702</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>3700</v>
+        <v>3703</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>3263</v>
@@ -50283,10 +50541,10 @@
         <v>17</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>3701</v>
+        <v>3704</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>3702</v>
+        <v>3705</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>3263</v>
@@ -50306,13 +50564,13 @@
         <v>69</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>3703</v>
+        <v>3706</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>3704</v>
+        <v>3707</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>3705</v>
+        <v>3708</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="8"/>
@@ -50329,24 +50587,24 @@
         <v>624</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>3706</v>
+        <v>3709</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>3707</v>
+        <v>3710</v>
       </c>
       <c r="D117" t="s">
-        <v>3708</v>
+        <v>3711</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="8"/>
       <c r="G117" s="3" t="s">
-        <v>3430</v>
+        <v>3427</v>
       </c>
       <c r="H117" t="s">
         <v>2864</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>3709</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="118" ht="14.25">
@@ -50358,24 +50616,24 @@
         <v>3</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>3710</v>
+        <v>3713</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>3711</v>
+        <v>3714</v>
       </c>
       <c r="D119" t="s">
-        <v>3712</v>
+        <v>3715</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="8"/>
       <c r="G119" s="3" t="s">
-        <v>3430</v>
+        <v>3427</v>
       </c>
       <c r="H119" t="s">
         <v>2864</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>3713</v>
+        <v>3716</v>
       </c>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
@@ -50389,24 +50647,24 @@
         <v>4</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>3714</v>
+        <v>3717</v>
       </c>
       <c r="C120" s="3" t="s">
+        <v>3718</v>
+      </c>
+      <c r="D120" t="s">
         <v>3715</v>
-      </c>
-      <c r="D120" t="s">
-        <v>3712</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="8"/>
       <c r="G120" s="3" t="s">
-        <v>3430</v>
+        <v>3427</v>
       </c>
       <c r="H120" t="s">
         <v>2864</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>3716</v>
+        <v>3719</v>
       </c>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
@@ -50420,24 +50678,24 @@
         <v>5</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>3717</v>
+        <v>3720</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>3718</v>
+        <v>3721</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>3712</v>
+        <v>3715</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="8"/>
       <c r="G121" s="3" t="s">
-        <v>3430</v>
+        <v>3427</v>
       </c>
       <c r="H121" t="s">
         <v>2864</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>3719</v>
+        <v>3722</v>
       </c>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
@@ -50451,24 +50709,24 @@
         <v>6</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>3720</v>
+        <v>3723</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>3721</v>
+        <v>3724</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>3712</v>
+        <v>3715</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="8"/>
       <c r="G122" s="3" t="s">
-        <v>3430</v>
+        <v>3427</v>
       </c>
       <c r="H122" t="s">
         <v>2864</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>3722</v>
+        <v>3725</v>
       </c>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
@@ -50486,24 +50744,24 @@
         <v>397</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>3723</v>
+        <v>3726</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>3724</v>
+        <v>3727</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="8" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>3725</v>
+        <v>3728</v>
       </c>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
@@ -50518,24 +50776,24 @@
         <v>3111</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>3448</v>
+        <v>3445</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>3449</v>
+        <v>3446</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>3452</v>
+        <v>3449</v>
       </c>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
@@ -50550,24 +50808,24 @@
         <v>3115</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>3453</v>
+        <v>3450</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>3454</v>
+        <v>3451</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>3455</v>
+        <v>3452</v>
       </c>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
@@ -50582,24 +50840,24 @@
         <v>3119</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>3456</v>
+        <v>3453</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>3457</v>
+        <v>3454</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>3458</v>
+        <v>3455</v>
       </c>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -50611,27 +50869,27 @@
     </row>
     <row r="128" ht="14.25">
       <c r="A128" s="3" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>3460</v>
+        <v>3457</v>
       </c>
       <c r="C128" t="s">
-        <v>3461</v>
+        <v>3458</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>3462</v>
+        <v>3459</v>
       </c>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
@@ -50648,27 +50906,27 @@
     </row>
     <row r="130" ht="14.25">
       <c r="A130" s="3" t="s">
-        <v>3467</v>
+        <v>3464</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>3468</v>
+        <v>3465</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>3469</v>
+        <v>3466</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="3" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>3470</v>
+        <v>3467</v>
       </c>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
@@ -50680,43 +50938,56 @@
     </row>
     <row r="134" ht="14.25">
       <c r="C134" t="s">
-        <v>3726</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="135" ht="14.25">
       <c r="C135" t="s">
-        <v>3727</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="140" ht="14.25">
       <c r="C140" t="s">
-        <v>3728</v>
+        <v>3731</v>
       </c>
       <c r="D140" t="s">
-        <v>3729</v>
+        <v>3732</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="144" ht="14.25">
       <c r="C144" t="s">
-        <v>3730</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="145" ht="14.25">
       <c r="C145" t="s">
-        <v>3731</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="149" ht="14.25">
       <c r="C149" t="s">
-        <v>3732</v>
+        <v>3735</v>
       </c>
       <c r="D149" t="s">
-        <v>3733</v>
-      </c>
-    </row>
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="152" ht="14.25">
+      <c r="C152" t="s">
+        <v>3737</v>
+      </c>
+      <c r="D152" t="s">
+        <v>3738</v>
+      </c>
+      <c r="E152" s="5">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="153" ht="14.25"/>
+    <row r="154" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -50772,10 +51043,10 @@
     </row>
     <row r="2">
       <c r="C2" s="6" t="s">
-        <v>3734</v>
+        <v>3739</v>
       </c>
       <c r="D2" t="s">
-        <v>3735</v>
+        <v>3740</v>
       </c>
       <c r="E2" s="5">
         <v>2018</v>
@@ -50783,10 +51054,10 @@
     </row>
     <row r="3">
       <c r="C3" s="6" t="s">
-        <v>3736</v>
+        <v>3741</v>
       </c>
       <c r="D3" t="s">
-        <v>3737</v>
+        <v>3742</v>
       </c>
       <c r="E3" s="5">
         <v>1979</v>
@@ -50794,25 +51065,25 @@
     </row>
     <row r="4">
       <c r="C4" s="6" t="s">
-        <v>3738</v>
+        <v>3743</v>
       </c>
       <c r="D4" t="s">
-        <v>3739</v>
+        <v>3744</v>
       </c>
       <c r="I4" t="s">
-        <v>3740</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>3741</v>
+        <v>3746</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>3742</v>
+        <v>3747</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>3743</v>
+        <v>3748</v>
       </c>
       <c r="E5" s="2">
         <v>1981</v>
@@ -50834,10 +51105,10 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="7" t="s">
-        <v>3744</v>
+        <v>3749</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>3745</v>
+        <v>3750</v>
       </c>
       <c r="E6" s="2">
         <v>2004</v>
@@ -50857,13 +51128,13 @@
     </row>
     <row r="7" ht="14.25">
       <c r="B7" s="3" t="s">
-        <v>3464</v>
+        <v>3461</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>3465</v>
+        <v>3462</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>3745</v>
+        <v>3750</v>
       </c>
       <c r="E7" s="2">
         <v>1995</v>
@@ -50883,13 +51154,13 @@
     <row r="8" ht="14.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>3746</v>
+        <v>3751</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>3747</v>
+        <v>3752</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>3748</v>
+        <v>3753</v>
       </c>
       <c r="E8" s="2">
         <v>2004</v>
@@ -50910,10 +51181,10 @@
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="7" t="s">
-        <v>3749</v>
+        <v>3754</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>3748</v>
+        <v>3753</v>
       </c>
       <c r="E9" s="2">
         <v>2005</v>
@@ -50934,10 +51205,10 @@
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="7" t="s">
-        <v>3750</v>
+        <v>3755</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>3748</v>
+        <v>3753</v>
       </c>
       <c r="E10" s="2">
         <v>2006</v>
@@ -50958,10 +51229,10 @@
       <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="7" t="s">
-        <v>3751</v>
+        <v>3756</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>3748</v>
+        <v>3753</v>
       </c>
       <c r="E11" s="2">
         <v>2007</v>
@@ -50982,10 +51253,10 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="7" t="s">
-        <v>3752</v>
+        <v>3757</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>3748</v>
+        <v>3753</v>
       </c>
       <c r="E12" s="2">
         <v>2017</v>
@@ -51006,10 +51277,10 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="7" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>3753</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>3748</v>
       </c>
       <c r="E13" s="2">
         <v>2015</v>
@@ -51028,13 +51299,13 @@
     </row>
     <row r="14" ht="14.25">
       <c r="B14" s="3" t="s">
-        <v>3754</v>
+        <v>3759</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>3755</v>
+        <v>3760</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>3756</v>
+        <v>3761</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
@@ -51052,13 +51323,13 @@
     <row r="15" ht="14.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>3757</v>
+        <v>3762</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>3758</v>
+        <v>3763</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>3756</v>
+        <v>3761</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
@@ -51077,10 +51348,10 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="7" t="s">
-        <v>3759</v>
+        <v>3764</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3756</v>
+        <v>3761</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
@@ -51099,10 +51370,10 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="7" t="s">
-        <v>3760</v>
+        <v>3765</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>3761</v>
+        <v>3766</v>
       </c>
       <c r="E17" s="2">
         <v>1963</v>
@@ -51125,10 +51396,10 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="7" t="s">
-        <v>3762</v>
+        <v>3767</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>3761</v>
+        <v>3766</v>
       </c>
       <c r="E18" s="2">
         <v>1964</v>
@@ -51151,10 +51422,10 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="7" t="s">
-        <v>3763</v>
+        <v>3768</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>3761</v>
+        <v>3766</v>
       </c>
       <c r="E19" s="2">
         <v>1965</v>
@@ -51177,10 +51448,10 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="7" t="s">
-        <v>3764</v>
+        <v>3769</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>3761</v>
+        <v>3766</v>
       </c>
       <c r="E20" s="2">
         <v>1967</v>
@@ -51203,10 +51474,10 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="7" t="s">
-        <v>3765</v>
+        <v>3770</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>3761</v>
+        <v>3766</v>
       </c>
       <c r="E21" s="2">
         <v>1975</v>
@@ -51229,10 +51500,10 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
+        <v>3771</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>3766</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>3761</v>
       </c>
       <c r="E22" s="2">
         <v>1977</v>
@@ -51255,10 +51526,10 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="7" t="s">
-        <v>3767</v>
+        <v>3772</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>3761</v>
+        <v>3766</v>
       </c>
       <c r="E23" s="2">
         <v>1979</v>
@@ -51281,10 +51552,10 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="7" t="s">
-        <v>3768</v>
+        <v>3773</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>3761</v>
+        <v>3766</v>
       </c>
       <c r="E24" s="2">
         <v>1981</v>
@@ -51307,10 +51578,10 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="7" t="s">
-        <v>3769</v>
+        <v>3774</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>3761</v>
+        <v>3766</v>
       </c>
       <c r="E25" s="2">
         <v>1985</v>
@@ -51333,10 +51604,10 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="7" t="s">
-        <v>3770</v>
+        <v>3775</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3761</v>
+        <v>3766</v>
       </c>
       <c r="E26" s="2">
         <v>1987</v>
@@ -51359,10 +51630,10 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="7" t="s">
-        <v>3771</v>
+        <v>3776</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>3761</v>
+        <v>3766</v>
       </c>
       <c r="E27" s="2">
         <v>1993</v>
@@ -51385,10 +51656,10 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="7" t="s">
-        <v>3772</v>
+        <v>3777</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>3761</v>
+        <v>3766</v>
       </c>
       <c r="E28" s="2">
         <v>1995</v>
@@ -51411,10 +51682,10 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="7" t="s">
-        <v>3773</v>
+        <v>3778</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>3761</v>
+        <v>3766</v>
       </c>
       <c r="E29" s="2">
         <v>2002</v>
@@ -51437,10 +51708,10 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="7" t="s">
-        <v>3774</v>
+        <v>3779</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>3761</v>
+        <v>3766</v>
       </c>
       <c r="E30" s="2">
         <v>2002</v>
@@ -51463,10 +51734,10 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="7" t="s">
-        <v>3775</v>
+        <v>3780</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>3761</v>
+        <v>3766</v>
       </c>
       <c r="E31" s="2">
         <v>2005</v>
@@ -51489,10 +51760,10 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="7" t="s">
-        <v>3776</v>
+        <v>3781</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>3761</v>
+        <v>3766</v>
       </c>
       <c r="E32" s="2">
         <v>2004</v>
@@ -51515,10 +51786,10 @@
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="7" t="s">
-        <v>3777</v>
+        <v>3782</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>3761</v>
+        <v>3766</v>
       </c>
       <c r="E33" s="2">
         <v>2012</v>
@@ -51540,13 +51811,13 @@
     <row r="34" ht="14.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>3778</v>
+        <v>3783</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>3779</v>
+        <v>3784</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>3780</v>
+        <v>3785</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
@@ -51564,13 +51835,13 @@
     </row>
     <row r="35" ht="14.25">
       <c r="B35" s="3" t="s">
-        <v>3781</v>
+        <v>3786</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>3782</v>
+        <v>3787</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>3780</v>
+        <v>3785</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>
@@ -51589,13 +51860,13 @@
     <row r="36" ht="14.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>3783</v>
+        <v>3788</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>3784</v>
+        <v>3789</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>3785</v>
+        <v>3790</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="3"/>
@@ -51612,13 +51883,13 @@
     </row>
     <row r="37" ht="14.25">
       <c r="B37" s="3" t="s">
-        <v>3786</v>
+        <v>3791</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>3787</v>
+        <v>3792</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>3788</v>
+        <v>3793</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
@@ -51636,13 +51907,13 @@
     <row r="38" ht="14.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>3789</v>
+        <v>3794</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>3790</v>
+        <v>3795</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>3788</v>
+        <v>3793</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
@@ -51659,13 +51930,13 @@
     </row>
     <row r="39" ht="14.25">
       <c r="B39" s="3" t="s">
-        <v>3791</v>
+        <v>3796</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>3792</v>
+        <v>3797</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>3788</v>
+        <v>3793</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
@@ -51683,13 +51954,13 @@
     <row r="40" ht="14.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>3799</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>3793</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>3794</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>3788</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="3"/>
@@ -51710,121 +51981,121 @@
     <row r="45" ht="14.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
-        <v>3795</v>
+        <v>3800</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>3796</v>
+        <v>3801</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>3797</v>
+        <v>3802</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>3798</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>3799</v>
+        <v>3804</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>3800</v>
+        <v>3805</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>3797</v>
+        <v>3802</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>3798</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>3801</v>
+        <v>3806</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>3807</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>3802</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3797</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>3803</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>3804</v>
+        <v>3809</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>3805</v>
+        <v>3810</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>3797</v>
+        <v>3802</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>3806</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>3807</v>
+        <v>3812</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>3808</v>
+        <v>3813</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>3797</v>
+        <v>3802</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>3806</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="50" ht="14.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>3809</v>
+        <v>3814</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>3810</v>
+        <v>3815</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>3797</v>
+        <v>3802</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>3806</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
+        <v>3816</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>3817</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>3802</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>3811</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>3812</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>3797</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>3806</v>
       </c>
     </row>
     <row r="52" ht="14.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>3813</v>
+        <v>3818</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>3814</v>
+        <v>3819</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>3797</v>
+        <v>3802</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>3806</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="53" ht="14.25">
@@ -51832,35 +52103,35 @@
         <v>32</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>3815</v>
+        <v>3820</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>3816</v>
+        <v>3821</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>3817</v>
+        <v>3822</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>3818</v>
+        <v>3823</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>3819</v>
+        <v>3824</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>3820</v>
+        <v>3825</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>3821</v>
+        <v>3826</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
-        <v>3822</v>
+        <v>3827</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>3823</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="54" ht="14.25">
@@ -51891,10 +52162,10 @@
     </row>
     <row r="58" ht="14.25">
       <c r="C58" s="6" t="s">
-        <v>3824</v>
+        <v>3829</v>
       </c>
       <c r="D58" t="s">
-        <v>3825</v>
+        <v>3830</v>
       </c>
       <c r="E58" s="5"/>
     </row>
@@ -51903,40 +52174,40 @@
         <v>38</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>3826</v>
+        <v>3831</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>3827</v>
+        <v>3832</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>3817</v>
+        <v>3822</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>3818</v>
+        <v>3823</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>3828</v>
+        <v>3833</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>3829</v>
+        <v>3834</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>3830</v>
+        <v>3835</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>3831</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="60" ht="14.25">
       <c r="C60" s="6" t="s">
-        <v>3832</v>
+        <v>3837</v>
       </c>
       <c r="D60" t="s">
-        <v>3833</v>
+        <v>3838</v>
       </c>
       <c r="E60" s="5"/>
     </row>
@@ -51959,651 +52230,1093 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="B118" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="97.57421875"/>
-    <col customWidth="1" min="4" max="4" width="35.7109375"/>
-    <col customWidth="1" min="6" max="6" width="24.57421875"/>
+    <col min="1" max="2" style="11" width="9.140625"/>
+    <col customWidth="1" min="3" max="3" style="11" width="97.57421875"/>
+    <col customWidth="1" min="4" max="4" style="11" width="35.7109375"/>
+    <col min="5" max="5" style="11" width="9.140625"/>
+    <col customWidth="1" min="6" max="6" style="11" width="24.57421875"/>
+    <col min="7" max="16384" style="11" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="16.5">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="14.25">
+    <row r="2" ht="16.5">
       <c r="C2" s="11" t="s">
-        <v>3834</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3835</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3836</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25">
+        <v>3839</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>3840</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5">
       <c r="C3" s="11" t="s">
-        <v>3837</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3838</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3836</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25">
+        <v>3842</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>3843</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5">
       <c r="C4" s="11" t="s">
-        <v>3839</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>3840</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3836</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25">
+        <v>3844</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>3845</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5">
       <c r="C5" s="11" t="s">
+        <v>3846</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>3847</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>3841</v>
       </c>
-      <c r="D5" t="s">
-        <v>3842</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>3836</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="C6" t="s">
-        <v>3843</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3844</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3836</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="C7" t="s">
-        <v>3845</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3846</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>3836</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="C8" s="8" t="s">
-        <v>3847</v>
-      </c>
-      <c r="D8" s="8" t="s">
+    </row>
+    <row r="6" ht="16.5">
+      <c r="C6" s="11" t="s">
         <v>3848</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3836</v>
-      </c>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="C9" s="8" t="s">
+      <c r="D6" s="11" t="s">
         <v>3849</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="F6" s="11" t="s">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5">
+      <c r="C7" s="11" t="s">
         <v>3850</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3836</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="C10" s="3" t="s">
+      <c r="D7" s="11" t="s">
         <v>3851</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F7" s="13" t="s">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5">
+      <c r="C8" s="14" t="s">
         <v>3852</v>
       </c>
-      <c r="F10" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="C11" s="3" t="s">
+      <c r="D8" s="14" t="s">
         <v>3853</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F8" s="13" t="s">
+        <v>3841</v>
+      </c>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" ht="16.5">
+      <c r="C9" s="11" t="s">
         <v>3854</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="C12" s="3" t="s">
+      <c r="D9" s="14" t="s">
         <v>3855</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F9" s="13" t="s">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5">
+      <c r="C10" s="13" t="s">
         <v>3856</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="C13" s="3" t="s">
+      <c r="D10" s="11" t="s">
         <v>3857</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F10" s="11" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5">
+      <c r="C11" s="13" t="s">
         <v>3858</v>
       </c>
-      <c r="F13" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="C14" s="3" t="s">
+      <c r="D11" s="11" t="s">
         <v>3859</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F11" s="14" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5">
+      <c r="C12" s="13" t="s">
         <v>3860</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="C15" s="3" t="s">
+      <c r="D12" s="11" t="s">
         <v>3861</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F12" s="14" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5">
+      <c r="C13" s="13" t="s">
         <v>3862</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="C16" s="3" t="s">
+      <c r="D13" s="11" t="s">
         <v>3863</v>
       </c>
-      <c r="D16" t="s">
-        <v>3862</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="C17" s="3" t="s">
+      <c r="F13" s="11" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5">
+      <c r="C14" s="13" t="s">
         <v>3864</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D14" s="11" t="s">
         <v>3865</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="C18" s="12" t="s">
+      <c r="F14" s="13" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5">
+      <c r="C15" s="13" t="s">
         <v>3866</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D15" s="11" t="s">
         <v>3867</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="C19" s="3" t="s">
-        <v>3447</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3445</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="C20" s="13" t="s">
+      <c r="F15" s="13" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5">
+      <c r="C16" s="13" t="s">
         <v>3868</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D16" s="11" t="s">
+        <v>3867</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5">
+      <c r="C17" s="13" t="s">
         <v>3869</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="C21" s="3" t="s">
+      <c r="D17" s="11" t="s">
         <v>3870</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F17" s="13" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5">
+      <c r="C18" s="15" t="s">
         <v>3871</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="C22" t="s">
+      <c r="D18" s="11" t="s">
         <v>3872</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F18" s="13" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5">
+      <c r="C19" s="13" t="s">
+        <v>3444</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>3442</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5">
+      <c r="C20" s="16" t="s">
         <v>3873</v>
       </c>
-      <c r="F22" t="s">
+      <c r="D20" s="11" t="s">
         <v>3874</v>
       </c>
-    </row>
-    <row r="23" ht="14.25">
+      <c r="F20" s="13" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5">
+      <c r="C21" s="13" t="s">
+        <v>3875</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>3876</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5">
+      <c r="C22" s="11" t="s">
+        <v>3877</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>3878</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5">
       <c r="C23" s="11" t="s">
-        <v>3875</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3876</v>
-      </c>
-      <c r="F23" t="s">
-        <v>3874</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25">
+        <v>3880</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>3881</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5">
       <c r="C24" s="11" t="s">
-        <v>3877</v>
-      </c>
-      <c r="D24" s="3" t="s">
+        <v>3882</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>3883</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5">
+      <c r="C25" s="11" t="s">
+        <v>3884</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>3885</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="17" t="s">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5">
+      <c r="C26" s="11" t="s">
+        <v>3886</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>3887</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="17" t="s">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5">
+      <c r="C27" s="11" t="s">
+        <v>3888</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>3889</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="17" t="s">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5">
+      <c r="C28" s="11" t="s">
+        <v>3890</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>3891</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="17" t="s">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5">
+      <c r="C29" s="11" t="s">
+        <v>3892</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>3893</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11" t="s">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="C30" s="11" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>3878</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" t="s">
-        <v>3874</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="C25" s="12" t="s">
-        <v>3879</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>3880</v>
-      </c>
-      <c r="F25" t="s">
-        <v>3881</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="C26" s="12" t="s">
-        <v>3882</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>3883</v>
-      </c>
-      <c r="F26" t="s">
-        <v>3881</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="C27" s="12" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>3885</v>
-      </c>
-      <c r="F27" t="s">
-        <v>3881</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="C28" s="12" t="s">
-        <v>3886</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>3887</v>
-      </c>
-      <c r="F28" t="s">
-        <v>3881</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="C29" s="12" t="s">
-        <v>3888</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>3889</v>
-      </c>
-      <c r="F29" t="s">
-        <v>3881</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="C30" s="12" t="s">
-        <v>3890</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>3891</v>
-      </c>
-      <c r="F30" t="s">
-        <v>3881</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25">
-      <c r="C31" s="12" t="s">
-        <v>3892</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>3893</v>
-      </c>
-      <c r="F31" t="s">
-        <v>3881</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25">
-      <c r="C32" s="12" t="s">
+      <c r="E30" s="13"/>
+      <c r="F30" s="11" t="s">
         <v>3894</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3895</v>
-      </c>
-      <c r="F32" t="s">
-        <v>3881</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25">
-      <c r="C33" s="12" t="s">
+    </row>
+    <row r="31" ht="16.5">
+      <c r="C31" s="15" t="s">
         <v>3896</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3893</v>
-      </c>
-      <c r="F33" t="s">
-        <v>3881</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="C34" s="12" t="s">
+      <c r="D31" s="13" t="s">
         <v>3897</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E31" s="11"/>
+      <c r="F31" s="11" t="s">
         <v>3898</v>
       </c>
-      <c r="F34" t="s">
-        <v>3881</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25">
-      <c r="C35" s="12" t="s">
+    </row>
+    <row r="32" ht="16.5">
+      <c r="C32" s="15" t="s">
         <v>3899</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D32" s="13" t="s">
         <v>3900</v>
       </c>
-      <c r="F35" t="s">
-        <v>3881</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25">
-      <c r="C36" s="12" t="s">
+      <c r="E32" s="11"/>
+      <c r="F32" s="11" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5">
+      <c r="C33" s="15" t="s">
         <v>3901</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D33" s="13" t="s">
         <v>3902</v>
       </c>
-      <c r="F36" t="s">
-        <v>3881</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="C37" s="12" t="s">
+      <c r="F33" s="11" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5">
+      <c r="C34" s="15" t="s">
         <v>3903</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D34" s="13" t="s">
         <v>3904</v>
       </c>
-      <c r="F37" t="s">
-        <v>3881</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="C38" s="12" t="s">
+      <c r="F34" s="11" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5">
+      <c r="C35" s="15" t="s">
         <v>3905</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D35" s="13" t="s">
         <v>3906</v>
       </c>
-      <c r="F38" t="s">
-        <v>3881</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="C39" s="11" t="s">
+      <c r="F35" s="11" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5">
+      <c r="C36" s="15" t="s">
         <v>3907</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D36" s="13" t="s">
         <v>3908</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" t="s">
+      <c r="F36" s="11" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5">
+      <c r="C37" s="15" t="s">
         <v>3909</v>
       </c>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="C40" s="11" t="s">
+      <c r="D37" s="13" t="s">
         <v>3910</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="F37" s="11" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5">
+      <c r="C38" s="15" t="s">
         <v>3911</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" t="s">
+      <c r="D38" s="13" t="s">
         <v>3912</v>
       </c>
-    </row>
-    <row r="41" ht="14.25">
-      <c r="C41" s="11" t="s">
+      <c r="F38" s="11" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5">
+      <c r="C39" s="15" t="s">
         <v>3913</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D39" s="13" t="s">
+        <v>3910</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5">
+      <c r="C40" s="15" t="s">
         <v>3914</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" t="s">
+      <c r="D40" s="13" t="s">
         <v>3915</v>
       </c>
-    </row>
-    <row r="42" ht="14.25">
-      <c r="C42" t="s">
+      <c r="F40" s="11" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5">
+      <c r="C41" s="15" t="s">
         <v>3916</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D41" s="13" t="s">
         <v>3917</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" t="s">
+      <c r="F41" s="11" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5">
+      <c r="C42" s="15" t="s">
         <v>3918</v>
       </c>
-    </row>
-    <row r="43" ht="14.25">
-      <c r="C43" t="s">
+      <c r="D42" s="13" t="s">
         <v>3919</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F42" s="11" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5">
+      <c r="C43" s="15" t="s">
         <v>3920</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3918</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25">
-      <c r="C44" s="8"/>
-    </row>
-    <row r="45" ht="14.25">
-      <c r="C45" s="8"/>
-    </row>
-    <row r="46" ht="14.25">
-      <c r="C46" s="3" t="s">
+      <c r="D43" s="13" t="s">
         <v>3921</v>
       </c>
-    </row>
-    <row r="47" ht="14.25">
+      <c r="F43" s="11" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="44" ht="16.5">
+      <c r="C44" s="15" t="s">
+        <v>3922</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>3923</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="45" ht="16.5">
+      <c r="C45" s="11" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>3925</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="11" t="s">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="46" ht="16.5">
+      <c r="C46" s="13" t="s">
+        <v>3927</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13" t="s">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="47" ht="16.5">
       <c r="C47" s="11" t="s">
-        <v>3922</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25">
-      <c r="C48" s="3" t="s">
-        <v>3923</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25">
-      <c r="C49" s="3" t="s">
-        <v>3924</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25">
-      <c r="C50" s="3" t="s">
-        <v>3925</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25">
-      <c r="C51" s="3" t="s">
-        <v>3926</v>
+        <v>3929</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>3930</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="11" t="s">
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="48" ht="16.5">
+      <c r="C48" s="11" t="s">
+        <v>3932</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>3933</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="11" t="s">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5">
+      <c r="C49" s="11" t="s">
+        <v>3935</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>3936</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="50" ht="16.5">
+      <c r="C50" s="11" t="s">
+        <v>3937</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>3938</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="51" ht="16.5">
+      <c r="C51" s="11" t="s">
+        <v>3940</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>3941</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>3939</v>
       </c>
     </row>
     <row r="52" ht="14.25">
-      <c r="C52" s="3" t="s">
-        <v>3927</v>
+      <c r="C52" s="11" t="s">
+        <v>3942</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>3943</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>3939</v>
       </c>
     </row>
     <row r="53" ht="14.25">
-      <c r="C53" s="3" t="s">
-        <v>3928</v>
+      <c r="C53" s="11" t="s">
+        <v>3944</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>3945</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>3939</v>
       </c>
     </row>
     <row r="54" ht="14.25">
-      <c r="C54" s="3" t="s">
-        <v>3929</v>
+      <c r="C54" s="11" t="s">
+        <v>3946</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>3947</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>3939</v>
       </c>
     </row>
     <row r="55" ht="14.25">
-      <c r="C55" s="3" t="s">
-        <v>3930</v>
+      <c r="C55" s="11" t="s">
+        <v>3948</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>3949</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>3939</v>
       </c>
     </row>
     <row r="56" ht="14.25">
-      <c r="C56" s="3" t="s">
-        <v>3931</v>
+      <c r="C56" s="11" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>3951</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>3939</v>
       </c>
     </row>
     <row r="57" ht="14.25">
-      <c r="C57" s="3" t="s">
-        <v>3932</v>
+      <c r="C57" s="11" t="s">
+        <v>3952</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>3953</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>3939</v>
       </c>
     </row>
     <row r="58" ht="14.25">
-      <c r="C58" s="3" t="s">
-        <v>3933</v>
+      <c r="C58" s="11" t="s">
+        <v>3954</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>3955</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>3939</v>
       </c>
     </row>
     <row r="59" ht="14.25">
-      <c r="C59" s="3" t="s">
-        <v>3934</v>
-      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="F59" s="18"/>
     </row>
     <row r="60" ht="14.25">
-      <c r="C60" s="3" t="s">
-        <v>3935</v>
-      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="F60" s="18"/>
     </row>
     <row r="61" ht="14.25">
-      <c r="C61" s="3" t="s">
-        <v>3936</v>
-      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="F61" s="18"/>
     </row>
     <row r="62" ht="14.25">
-      <c r="C62" s="3" t="s">
-        <v>3937</v>
-      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="F62" s="18"/>
     </row>
     <row r="63" ht="14.25">
-      <c r="C63" s="3" t="s">
-        <v>3938</v>
+      <c r="C63" s="11" t="s">
+        <v>3956</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>3957</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>3958</v>
       </c>
     </row>
     <row r="64" ht="14.25">
-      <c r="C64" s="3" t="s">
-        <v>3939</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25">
-      <c r="C65" s="3" t="s">
-        <v>3940</v>
-      </c>
-    </row>
-    <row r="66" ht="14.25">
-      <c r="C66" s="14"/>
-    </row>
-    <row r="67" ht="14.25">
-      <c r="C67" s="3" t="s">
-        <v>3941</v>
-      </c>
-    </row>
-    <row r="68" ht="14.25">
-      <c r="C68" s="3" t="s">
-        <v>3942</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25"/>
-    <row r="72" ht="14.25"/>
-    <row r="73" ht="14.25">
-      <c r="C73" s="3" t="s">
-        <v>3943</v>
+      <c r="C64" s="11" t="s">
+        <v>3958</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>3959</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="65" ht="16.5">
+      <c r="C65" s="11" t="s">
+        <v>3960</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>3961</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="66" ht="16.5">
+      <c r="C66" s="11" t="s">
+        <v>3962</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>3963</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="67" ht="16.5">
+      <c r="C67" s="11" t="s">
+        <v>3964</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>3963</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="68" ht="16.5">
+      <c r="C68" s="11" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>3963</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="69" ht="16.5">
+      <c r="C69" s="11" t="s">
+        <v>3966</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>3963</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="70" ht="16.5">
+      <c r="C70" s="11" t="s">
+        <v>3967</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>3968</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="71" ht="16.5">
+      <c r="C71" s="11" t="s">
+        <v>3969</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>3968</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="72" ht="16.5">
+      <c r="C72" s="11" t="s">
+        <v>3970</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>3971</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="73" ht="16.5">
+      <c r="C73" s="11" t="s">
+        <v>3972</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>3973</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>3958</v>
       </c>
     </row>
     <row r="74" ht="14.25">
-      <c r="C74" s="3" t="s">
-        <v>3944</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25">
-      <c r="C75" t="s">
-        <v>3945</v>
-      </c>
-    </row>
-    <row r="97" ht="14.25"/>
+      <c r="C74" s="14"/>
+    </row>
+    <row r="75" ht="16.5">
+      <c r="C75" s="13" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="76" ht="16.5">
+      <c r="C76" s="11" t="s">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="77" ht="16.5">
+      <c r="C77" s="13" t="s">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="78" ht="16.5">
+      <c r="C78" s="13" t="s">
+        <v>3977</v>
+      </c>
+    </row>
+    <row r="79" ht="16.5">
+      <c r="C79" s="13" t="s">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="80" ht="16.5">
+      <c r="C80" s="13" t="s">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="81" ht="16.5">
+      <c r="C81" s="13" t="s">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="82" ht="16.5">
+      <c r="C82" s="13" t="s">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="83" ht="16.5">
+      <c r="C83" s="13" t="s">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="84" ht="16.5">
+      <c r="C84" s="13" t="s">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="85" ht="16.5">
+      <c r="C85" s="13" t="s">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="86" ht="16.5">
+      <c r="C86" s="13" t="s">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="87" ht="16.5">
+      <c r="C87" s="13" t="s">
+        <v>3986</v>
+      </c>
+    </row>
+    <row r="88" ht="16.5">
+      <c r="C88" s="13" t="s">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="89" ht="16.5">
+      <c r="C89" s="13" t="s">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="90" ht="16.5">
+      <c r="C90" s="13" t="s">
+        <v>3989</v>
+      </c>
+    </row>
+    <row r="91" ht="16.5">
+      <c r="C91" s="13" t="s">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="92" ht="16.5">
+      <c r="C92" s="13" t="s">
+        <v>3991</v>
+      </c>
+    </row>
+    <row r="93" ht="16.5">
+      <c r="C93" s="13" t="s">
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="94" ht="16.5">
+      <c r="C94" s="13" t="s">
+        <v>3993</v>
+      </c>
+    </row>
+    <row r="95" ht="16.5">
+      <c r="C95" s="16" t="s">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25"/>
+    <row r="97" ht="16.5">
+      <c r="C97" s="13" t="s">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25">
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+    </row>
+    <row r="100" ht="14.25">
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+    </row>
+    <row r="101" ht="16.5">
+      <c r="C101" s="11"/>
+      <c r="D101" s="11" t="s">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="102" ht="16.5">
+      <c r="C102" s="13" t="s">
+        <v>3997</v>
+      </c>
+      <c r="D102" s="11"/>
+    </row>
+    <row r="103" ht="16.5">
+      <c r="C103" s="13" t="s">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="104" ht="16.5">
+      <c r="C104" s="11" t="s">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25">
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="F106" s="11"/>
+    </row>
+    <row r="107" ht="16.5">
+      <c r="C107" s="11" t="s">
+        <v>4000</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25"/>
+    <row r="110" ht="16.5">
+      <c r="C110" s="11" t="s">
+        <v>4002</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="111" ht="16.5">
+      <c r="C111" s="11" t="s">
+        <v>4004</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="112" ht="16.5">
+      <c r="C112" s="11" t="s">
+        <v>4005</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="113" ht="16.5">
+      <c r="C113" s="11" t="s">
+        <v>4007</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="114" ht="16.5">
+      <c r="C114" s="11" t="s">
+        <v>4009</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="117" ht="16.5">
+      <c r="C117" s="11" t="s">
+        <v>4011</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="118" ht="16.5">
+      <c r="C118" s="11" t="s">
+        <v>4013</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="119" ht="16.5">
+      <c r="C119" s="11" t="s">
+        <v>4014</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25">
+      <c r="C121" t="s">
+        <v>4015</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25"/>
+    <row r="127" ht="16.5">
+      <c r="C127" s="11" t="s">
+        <v>4017</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="128" ht="16.5">
+      <c r="C128" s="11" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="129" ht="14.25">
+      <c r="C129" s="11" t="s">
+        <v>4020</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="130" ht="14.25">
+      <c r="C130" s="11" t="s">
+        <v>4021</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>4022</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I1"/>
   <printOptions headings="0" gridLines="0"/>

--- a/Selected_Downloads.xlsx
+++ b/Selected_Downloads.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4023" uniqueCount="4023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4042" uniqueCount="4042">
   <si>
     <t>Index</t>
   </si>
@@ -11256,15 +11256,6 @@
     <t xml:space="preserve">Roger Scruton</t>
   </si>
   <si>
-    <t xml:space="preserve">Albert Speer, architecture, 1932-1942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albert Speer works</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>bwb_O7-DSW-088</t>
   </si>
   <si>
@@ -11433,9 +11424,6 @@
     <t xml:space="preserve">Antiga construção civil no Brasil - Fascículo I</t>
   </si>
   <si>
-    <t xml:space="preserve">['memoriaestatisticadobrasil', 'brasiliana']</t>
-  </si>
-  <si>
     <t>1944</t>
   </si>
   <si>
@@ -11487,6 +11475,48 @@
     <t xml:space="preserve">Antiga construção civil no Brasil - Fascículo VII</t>
   </si>
   <si>
+    <t>cu31924016298741</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Old colonial houses of the Cape of Good Hope illustrated and described</t>
+  </si>
+  <si>
+    <t>materialsdocumen01unse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materials and documents of architecture and sculpture : classified alphabetically</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G. Broes Van Dort Co.</t>
+  </si>
+  <si>
+    <t>materialsdocumen02unse</t>
+  </si>
+  <si>
+    <t>materialsdocumen03unse</t>
+  </si>
+  <si>
+    <t>materialsdocumen04unse</t>
+  </si>
+  <si>
+    <t>materialsdocumen05unse</t>
+  </si>
+  <si>
+    <t>materialsdocumen06unse</t>
+  </si>
+  <si>
+    <t>materialsdocumen07unse</t>
+  </si>
+  <si>
+    <t>materialsdocumen08unse</t>
+  </si>
+  <si>
+    <t>materialsdocumen09unse</t>
+  </si>
+  <si>
+    <t>materialsdocumen10unse</t>
+  </si>
+  <si>
     <t>gri_33125000447421</t>
   </si>
   <si>
@@ -11496,9 +11526,6 @@
     <t xml:space="preserve">['getty', 'americana']</t>
   </si>
   <si>
-    <t>gridigitalservices@getty.edu</t>
-  </si>
-  <si>
     <t xml:space="preserve">['Architecture, Romanesque', 'Church architecture -- Portugal', 'Church architecture -- Portugal -- Coimbra']</t>
   </si>
   <si>
@@ -11544,6 +11571,18 @@
     <t xml:space="preserve">Jones, Owen</t>
   </si>
   <si>
+    <t>manualofhistoric00glaz_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A manual of historic ornament</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Richard Glazier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Source</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eye of the Chickenhawk</t>
   </si>
   <si>
@@ -11553,6 +11592,9 @@
     <t xml:space="preserve">PizzaGate Stuff</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Franklin Scandal: A Story of Powerbrokers, Child Abuse &amp; Betrayal</t>
   </si>
   <si>
@@ -12015,31 +12057,34 @@
     <t xml:space="preserve">FBI vault - The Protocols of the meeting of the Learned Elders of Zion:</t>
   </si>
   <si>
+    <t xml:space="preserve">CS Lewis Space Trilogy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Rohl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graham Hanckoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judaism and The Vatican</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leon De Poncis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programmed to Kill: The Politics of Serial Murder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dave McGowan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esoteric Hollywood: Sex, Cults &amp; Symbols in Film</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jay Dyer</t>
   </si>
   <si>
-    <t xml:space="preserve">CS Lewis Space Trilogy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Rohl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graham Hanckoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Judaism and The Vatican</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leon De Poncis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programmed to Kill: The Politics of Serial Murder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dave McGowan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esoteric Hollywood: Sex, Cults &amp; Symbols in Film</t>
+    <t xml:space="preserve">Esoteric Hollywood 2</t>
   </si>
   <si>
     <t xml:space="preserve">Operation Culture Creation and Hollywood Mind Control</t>
@@ -12078,6 +12123,9 @@
     <t xml:space="preserve">Stephen Knight</t>
   </si>
   <si>
+    <t xml:space="preserve">Jack the Ripper: The Final Solution</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Encyclopedia of Ancient Giants in North America</t>
   </si>
   <si>
@@ -12094,6 +12142,15 @@
   </si>
   <si>
     <t xml:space="preserve">Jim Vieira and Hugh Newman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smoky God</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Science and Psychic Phenomena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Carter</t>
   </si>
 </sst>
 </file>
@@ -12189,7 +12246,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -12220,6 +12277,9 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -50999,17 +51059,18 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="27.7109375"/>
-    <col customWidth="1" min="3" max="3" style="6" width="67.57421875"/>
+    <col customWidth="1" min="3" max="3" style="6" width="75.28125"/>
     <col customWidth="1" min="4" max="4" width="31.140625"/>
     <col min="5" max="5" style="5" width="9.140625"/>
-    <col customWidth="1" min="6" max="9" width="14.28125"/>
+    <col customWidth="1" min="6" max="6" width="36.00390625"/>
+    <col customWidth="1" min="7" max="9" width="14.28125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -51063,30 +51124,44 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="4">
-      <c r="C4" s="6" t="s">
+    <row r="4" ht="14.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>3743</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="7" t="s">
         <v>3744</v>
       </c>
-      <c r="I4" t="s">
+      <c r="D4" s="3" t="s">
         <v>3745</v>
       </c>
+      <c r="E4" s="2">
+        <v>1981</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="7" t="s">
         <v>3746</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="3" t="s">
         <v>3747</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>3748</v>
-      </c>
       <c r="E5" s="2">
-        <v>1981</v>
+        <v>2004</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -51102,16 +51177,17 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>3461</v>
+      </c>
       <c r="C6" s="7" t="s">
-        <v>3749</v>
+        <v>3462</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>3750</v>
+        <v>3747</v>
       </c>
       <c r="E6" s="2">
-        <v>2004</v>
+        <v>1995</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -51124,20 +51200,20 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
     </row>
     <row r="7" ht="14.25">
+      <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>3461</v>
+        <v>3748</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>3462</v>
+        <v>3749</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>3750</v>
       </c>
       <c r="E7" s="2">
-        <v>1995</v>
+        <v>2004</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -51152,18 +51228,16 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="7" t="s">
         <v>3751</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>3752</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>3753</v>
+        <v>3750</v>
       </c>
       <c r="E8" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -51181,13 +51255,13 @@
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="7" t="s">
-        <v>3754</v>
+        <v>3752</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>3753</v>
+        <v>3750</v>
       </c>
       <c r="E9" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -51205,13 +51279,13 @@
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="7" t="s">
-        <v>3755</v>
+        <v>3753</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>3753</v>
+        <v>3750</v>
       </c>
       <c r="E10" s="2">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -51226,16 +51300,16 @@
       <c r="P10" s="3"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="7" t="s">
-        <v>3756</v>
+        <v>3754</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>3753</v>
+        <v>3750</v>
       </c>
       <c r="E11" s="2">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -51253,13 +51327,13 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="7" t="s">
-        <v>3757</v>
+        <v>3755</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>3753</v>
+        <v>3750</v>
       </c>
       <c r="E12" s="2">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -51274,17 +51348,16 @@
       <c r="P12" s="3"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>3756</v>
+      </c>
       <c r="C13" s="7" t="s">
+        <v>3757</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>3758</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>3753</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2015</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -51298,6 +51371,7 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" ht="14.25">
+      <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>3759</v>
       </c>
@@ -51305,7 +51379,7 @@
         <v>3760</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>3761</v>
+        <v>3758</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
@@ -51322,14 +51396,12 @@
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>3762</v>
-      </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="7" t="s">
-        <v>3763</v>
+        <v>3761</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>3761</v>
+        <v>3758</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
@@ -51348,12 +51420,14 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="7" t="s">
-        <v>3764</v>
+        <v>3762</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3761</v>
-      </c>
-      <c r="E16" s="2"/>
+        <v>3763</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1963</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -51365,18 +51439,20 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="7" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>3766</v>
+        <v>3763</v>
       </c>
       <c r="E17" s="2">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -51396,13 +51472,13 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="7" t="s">
-        <v>3767</v>
+        <v>3765</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>3766</v>
+        <v>3763</v>
       </c>
       <c r="E18" s="2">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -51422,13 +51498,13 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="7" t="s">
-        <v>3768</v>
+        <v>3766</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>3766</v>
+        <v>3763</v>
       </c>
       <c r="E19" s="2">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -51448,13 +51524,13 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="7" t="s">
-        <v>3769</v>
+        <v>3767</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>3766</v>
+        <v>3763</v>
       </c>
       <c r="E20" s="2">
-        <v>1967</v>
+        <v>1975</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -51474,13 +51550,13 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="7" t="s">
-        <v>3770</v>
+        <v>3768</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>3766</v>
+        <v>3763</v>
       </c>
       <c r="E21" s="2">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -51500,13 +51576,13 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
-        <v>3771</v>
+        <v>3769</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>3766</v>
+        <v>3763</v>
       </c>
       <c r="E22" s="2">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -51526,13 +51602,13 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="7" t="s">
-        <v>3772</v>
+        <v>3770</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>3766</v>
+        <v>3763</v>
       </c>
       <c r="E23" s="2">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -51552,13 +51628,13 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="7" t="s">
-        <v>3773</v>
+        <v>3771</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>3766</v>
+        <v>3763</v>
       </c>
       <c r="E24" s="2">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -51578,13 +51654,13 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="7" t="s">
-        <v>3774</v>
+        <v>3772</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>3766</v>
+        <v>3763</v>
       </c>
       <c r="E25" s="2">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -51604,13 +51680,13 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="7" t="s">
-        <v>3775</v>
+        <v>3773</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3766</v>
+        <v>3763</v>
       </c>
       <c r="E26" s="2">
-        <v>1987</v>
+        <v>1993</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -51630,13 +51706,13 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="7" t="s">
-        <v>3776</v>
+        <v>3774</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>3766</v>
+        <v>3763</v>
       </c>
       <c r="E27" s="2">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -51656,13 +51732,13 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="7" t="s">
-        <v>3777</v>
+        <v>3775</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>3766</v>
+        <v>3763</v>
       </c>
       <c r="E28" s="2">
-        <v>1995</v>
+        <v>2002</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -51682,10 +51758,10 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="7" t="s">
-        <v>3778</v>
+        <v>3776</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>3766</v>
+        <v>3763</v>
       </c>
       <c r="E29" s="2">
         <v>2002</v>
@@ -51708,13 +51784,13 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="7" t="s">
-        <v>3779</v>
+        <v>3777</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>3766</v>
+        <v>3763</v>
       </c>
       <c r="E30" s="2">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -51734,13 +51810,13 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="7" t="s">
-        <v>3780</v>
+        <v>3778</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>3766</v>
+        <v>3763</v>
       </c>
       <c r="E31" s="2">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -51760,13 +51836,13 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="7" t="s">
-        <v>3781</v>
+        <v>3779</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>3766</v>
+        <v>3763</v>
       </c>
       <c r="E32" s="2">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -51784,16 +51860,16 @@
     </row>
     <row r="33" ht="14.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="3" t="s">
+        <v>3780</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>3781</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>3782</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3766</v>
-      </c>
-      <c r="E33" s="2">
-        <v>2012</v>
-      </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -51806,18 +51882,16 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>3783</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="7" t="s">
         <v>3784</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
@@ -51834,14 +51908,15 @@
       <c r="Q34" s="3"/>
     </row>
     <row r="35" ht="14.25">
+      <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
+        <v>3785</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>3786</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="3" t="s">
         <v>3787</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>3785</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>
@@ -51855,10 +51930,8 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>3788</v>
       </c>
@@ -51882,6 +51955,7 @@
       <c r="P36" s="3"/>
     </row>
     <row r="37" ht="14.25">
+      <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>3791</v>
       </c>
@@ -51889,7 +51963,7 @@
         <v>3792</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>3793</v>
+        <v>3790</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
@@ -51905,15 +51979,14 @@
       <c r="P37" s="3"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
+        <v>3793</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>3794</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>3795</v>
-      </c>
       <c r="D38" s="3" t="s">
-        <v>3793</v>
+        <v>3790</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
@@ -51929,14 +52002,15 @@
       <c r="P38" s="3"/>
     </row>
     <row r="39" ht="14.25">
+      <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
+        <v>3795</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>3796</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>3797</v>
-      </c>
       <c r="D39" s="3" t="s">
-        <v>3793</v>
+        <v>3790</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
@@ -51951,33 +52025,22 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
     </row>
-    <row r="40" ht="14.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3" t="s">
-        <v>3798</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>3799</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>3793</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-    </row>
+    <row r="41" ht="14.25"/>
     <row r="42" ht="14.25"/>
     <row r="43" ht="14.25"/>
-    <row r="44" ht="14.25"/>
+    <row r="44" ht="14.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>3797</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>3798</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="2" t="s">
+        <v>3799</v>
+      </c>
+    </row>
     <row r="45" ht="14.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
@@ -51986,163 +52049,163 @@
       <c r="C45" s="3" t="s">
         <v>3801</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3802</v>
-      </c>
+      <c r="D45" s="3"/>
       <c r="E45" s="2" t="s">
-        <v>3803</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
+        <v>3802</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>3803</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="2" t="s">
         <v>3804</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>3805</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>3802</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>3803</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
+        <v>3805</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>3806</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3"/>
+      <c r="E47" s="2" t="s">
         <v>3807</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>3802</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>3808</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
+        <v>3808</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>3809</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>3810</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>3802</v>
-      </c>
+      <c r="D48" s="3"/>
       <c r="E48" s="2" t="s">
-        <v>3811</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>3812</v>
+        <v>3810</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>3813</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>3802</v>
-      </c>
+        <v>3811</v>
+      </c>
+      <c r="D49" s="3"/>
       <c r="E49" s="2" t="s">
-        <v>3811</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="50" ht="14.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>3814</v>
+        <v>3812</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>3815</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>3802</v>
-      </c>
+        <v>3813</v>
+      </c>
+      <c r="D50" s="3"/>
       <c r="E50" s="2" t="s">
-        <v>3811</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
+        <v>3814</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>3815</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="2" t="s">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="B52" t="s">
         <v>3816</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="6" t="s">
         <v>3817</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>3802</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>3811</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3" t="s">
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3" t="s">
         <v>3818</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>3819</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3802</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>3811</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25">
-      <c r="A53" s="3">
-        <v>32</v>
-      </c>
-      <c r="B53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>3820</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3" t="s">
         <v>3821</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>3822</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>3823</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>2864</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>3824</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>3825</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>3826</v>
-      </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3" t="s">
-        <v>3827</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>3828</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25">
-      <c r="C54" s="6"/>
-      <c r="E54" s="5"/>
+      <c r="C54" s="3" t="s">
+        <v>3819</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>3820</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
     </row>
     <row r="55" ht="14.25">
       <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>3822</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>3819</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>3820</v>
+      </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -52151,74 +52214,374 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
     </row>
     <row r="56" ht="14.25">
-      <c r="C56" s="6"/>
-      <c r="E56" s="5"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>3823</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>3819</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>3820</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
     </row>
     <row r="57" ht="14.25">
-      <c r="C57" s="6"/>
-      <c r="E57" s="5"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3" t="s">
+        <v>3824</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>3819</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>3820</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
     </row>
     <row r="58" ht="14.25">
-      <c r="C58" s="6" t="s">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3" t="s">
+        <v>3825</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>3819</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>3820</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3" t="s">
+        <v>3826</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>3819</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>3820</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3" t="s">
+        <v>3827</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>3819</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>3820</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3" t="s">
+        <v>3828</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>3819</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>3820</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3" t="s">
         <v>3829</v>
       </c>
-      <c r="D58" t="s">
+      <c r="C62" s="3" t="s">
+        <v>3819</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>3820</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3" t="s">
         <v>3830</v>
       </c>
-      <c r="E58" s="5"/>
-    </row>
-    <row r="59" ht="14.25">
-      <c r="A59" s="3">
-        <v>38</v>
-      </c>
-      <c r="B59" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>3831</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>3832</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3822</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3823</v>
-      </c>
-      <c r="F59" s="3" t="s">
+      <c r="E68" s="3"/>
+      <c r="F68" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>3833</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>3834</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>3835</v>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3" t="s">
+        <v>3836</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>3837</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="C69" s="6"/>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="C71" s="6"/>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="C72" s="6"/>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" ht="14.25">
+      <c r="C73" s="6" t="s">
+        <v>3838</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3839</v>
+      </c>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3" t="s">
+        <v>3840</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>3841</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3" t="s">
         <v>3355</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3833</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3834</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3835</v>
-      </c>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3" t="s">
-        <v>3836</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25">
-      <c r="C60" s="6" t="s">
-        <v>3837</v>
-      </c>
-      <c r="D60" t="s">
-        <v>3838</v>
-      </c>
-      <c r="E60" s="5"/>
-    </row>
-    <row r="61" ht="14.25">
-      <c r="C61" s="6"/>
-      <c r="E61" s="5"/>
-    </row>
-    <row r="62" ht="14.25">
-      <c r="C62" s="6"/>
-      <c r="E62" s="5"/>
-    </row>
+      <c r="G74" s="3" t="s">
+        <v>3842</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>3843</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>3844</v>
+      </c>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3" t="s">
+        <v>3845</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="C75" s="6" t="s">
+        <v>3846</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3847</v>
+      </c>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="C76" s="6"/>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="B77" t="s">
+        <v>3848</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>3849</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3850</v>
+      </c>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="80" ht="14.25"/>
+    <row r="81" ht="14.25">
+      <c r="C81" s="6"/>
+    </row>
+    <row r="82" ht="14.25"/>
+    <row r="83" ht="14.25"/>
+    <row r="84" ht="14.25"/>
+    <row r="85" ht="14.25"/>
+    <row r="86" ht="14.25"/>
+    <row r="87" ht="14.25"/>
+    <row r="88" ht="14.25"/>
+    <row r="89" ht="14.25"/>
+    <row r="90" ht="14.25"/>
+    <row r="91" ht="14.25"/>
+    <row r="93" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -52241,1080 +52604,1087 @@
     <col customWidth="1" min="4" max="4" style="11" width="35.7109375"/>
     <col min="5" max="5" style="11" width="9.140625"/>
     <col customWidth="1" min="6" max="6" style="11" width="24.57421875"/>
-    <col min="7" max="16384" style="11" width="9.140625"/>
+    <col customWidth="1" min="7" max="7" style="12" width="18.00390625"/>
+    <col min="8" max="16384" style="11" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="13" t="s">
+        <v>3851</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" ht="16.5">
       <c r="C2" s="11" t="s">
-        <v>3839</v>
+        <v>3852</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>3840</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>3841</v>
+        <v>3853</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>3854</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>3855</v>
       </c>
     </row>
     <row r="3" ht="16.5">
       <c r="C3" s="11" t="s">
-        <v>3842</v>
+        <v>3856</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>3843</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>3841</v>
+        <v>3857</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>3854</v>
       </c>
     </row>
     <row r="4" ht="16.5">
       <c r="C4" s="11" t="s">
-        <v>3844</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>3845</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>3841</v>
+        <v>3858</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>3859</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>3854</v>
       </c>
     </row>
     <row r="5" ht="16.5">
       <c r="C5" s="11" t="s">
-        <v>3846</v>
+        <v>3860</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>3847</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>3841</v>
+        <v>3861</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>3854</v>
       </c>
     </row>
     <row r="6" ht="16.5">
       <c r="C6" s="11" t="s">
-        <v>3848</v>
+        <v>3862</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>3849</v>
+        <v>3863</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>3841</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="7" ht="16.5">
       <c r="C7" s="11" t="s">
-        <v>3850</v>
+        <v>3864</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>3851</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>3841</v>
+        <v>3865</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>3854</v>
       </c>
     </row>
     <row r="8" ht="16.5">
-      <c r="C8" s="14" t="s">
-        <v>3852</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>3853</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>3841</v>
-      </c>
-      <c r="I8" s="14"/>
+      <c r="C8" s="15" t="s">
+        <v>3866</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>3867</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>3854</v>
+      </c>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" ht="16.5">
       <c r="C9" s="11" t="s">
+        <v>3868</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>3869</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>3854</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>3855</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>3841</v>
-      </c>
     </row>
     <row r="10" ht="16.5">
-      <c r="C10" s="13" t="s">
-        <v>3856</v>
+      <c r="C10" s="14" t="s">
+        <v>3870</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>3857</v>
+        <v>3871</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>3444</v>
       </c>
     </row>
     <row r="11" ht="16.5">
-      <c r="C11" s="13" t="s">
-        <v>3858</v>
+      <c r="C11" s="14" t="s">
+        <v>3872</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>3859</v>
-      </c>
-      <c r="F11" s="14" t="s">
+        <v>3873</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>3444</v>
       </c>
     </row>
     <row r="12" ht="16.5">
-      <c r="C12" s="13" t="s">
-        <v>3860</v>
+      <c r="C12" s="14" t="s">
+        <v>3874</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>3861</v>
-      </c>
-      <c r="F12" s="14" t="s">
+        <v>3875</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>3444</v>
       </c>
     </row>
     <row r="13" ht="16.5">
-      <c r="C13" s="13" t="s">
-        <v>3862</v>
+      <c r="C13" s="14" t="s">
+        <v>3876</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>3863</v>
+        <v>3877</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>3444</v>
       </c>
     </row>
     <row r="14" ht="16.5">
-      <c r="C14" s="13" t="s">
-        <v>3864</v>
+      <c r="C14" s="14" t="s">
+        <v>3878</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>3865</v>
-      </c>
-      <c r="F14" s="13" t="s">
+        <v>3879</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>3444</v>
       </c>
     </row>
     <row r="15" ht="16.5">
-      <c r="C15" s="13" t="s">
-        <v>3866</v>
+      <c r="C15" s="14" t="s">
+        <v>3880</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>3867</v>
-      </c>
-      <c r="F15" s="13" t="s">
+        <v>3881</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>3444</v>
       </c>
     </row>
     <row r="16" ht="16.5">
-      <c r="C16" s="13" t="s">
-        <v>3868</v>
+      <c r="C16" s="14" t="s">
+        <v>3882</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>3867</v>
-      </c>
-      <c r="F16" s="13" t="s">
+        <v>3881</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>3444</v>
       </c>
     </row>
     <row r="17" ht="16.5">
-      <c r="C17" s="13" t="s">
-        <v>3869</v>
+      <c r="C17" s="14" t="s">
+        <v>3883</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>3870</v>
-      </c>
-      <c r="F17" s="13" t="s">
+        <v>3884</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>3444</v>
       </c>
     </row>
     <row r="18" ht="16.5">
-      <c r="C18" s="15" t="s">
-        <v>3871</v>
+      <c r="C18" s="16" t="s">
+        <v>3885</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>3872</v>
-      </c>
-      <c r="F18" s="13" t="s">
+        <v>3886</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>3444</v>
       </c>
     </row>
     <row r="19" ht="16.5">
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>3444</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>3442</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="14" t="s">
         <v>3444</v>
       </c>
     </row>
     <row r="20" ht="16.5">
-      <c r="C20" s="16" t="s">
-        <v>3873</v>
+      <c r="C20" s="17" t="s">
+        <v>3887</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>3874</v>
-      </c>
-      <c r="F20" s="13" t="s">
+        <v>3888</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>3444</v>
       </c>
     </row>
     <row r="21" ht="16.5">
-      <c r="C21" s="13" t="s">
-        <v>3875</v>
+      <c r="C21" s="14" t="s">
+        <v>3889</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>3876</v>
-      </c>
-      <c r="F21" s="13" t="s">
+        <v>3890</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>3444</v>
       </c>
     </row>
     <row r="22" ht="16.5">
       <c r="C22" s="11" t="s">
-        <v>3877</v>
+        <v>3891</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>3878</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>3879</v>
+        <v>3892</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>3893</v>
       </c>
     </row>
     <row r="23" ht="16.5">
       <c r="C23" s="11" t="s">
-        <v>3880</v>
+        <v>3894</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>3881</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>3879</v>
+        <v>3895</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>3893</v>
       </c>
     </row>
     <row r="24" ht="16.5">
       <c r="C24" s="11" t="s">
-        <v>3882</v>
+        <v>3896</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>3883</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>3879</v>
+        <v>3897</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>3893</v>
       </c>
     </row>
     <row r="25" ht="16.5">
       <c r="C25" s="11" t="s">
-        <v>3884</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>3885</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="17" t="s">
-        <v>3879</v>
+        <v>3898</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>3899</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="18" t="s">
+        <v>3893</v>
       </c>
     </row>
     <row r="26" ht="16.5">
       <c r="C26" s="11" t="s">
-        <v>3886</v>
+        <v>3900</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>3887</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="17" t="s">
-        <v>3879</v>
+        <v>3901</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="18" t="s">
+        <v>3893</v>
       </c>
     </row>
     <row r="27" ht="16.5">
       <c r="C27" s="11" t="s">
-        <v>3888</v>
+        <v>3902</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>3889</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="17" t="s">
-        <v>3879</v>
+        <v>3903</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="18" t="s">
+        <v>3893</v>
       </c>
     </row>
     <row r="28" ht="16.5">
       <c r="C28" s="11" t="s">
-        <v>3890</v>
+        <v>3904</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>3891</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="17" t="s">
-        <v>3879</v>
+        <v>3905</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="18" t="s">
+        <v>3893</v>
       </c>
     </row>
     <row r="29" ht="16.5">
       <c r="C29" s="11" t="s">
-        <v>3892</v>
+        <v>3906</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>3893</v>
+        <v>3907</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11" t="s">
-        <v>3894</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5">
       <c r="C30" s="11" t="s">
-        <v>3895</v>
+        <v>3909</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>3878</v>
-      </c>
-      <c r="E30" s="13"/>
+        <v>3892</v>
+      </c>
+      <c r="E30" s="14"/>
       <c r="F30" s="11" t="s">
-        <v>3894</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="31" ht="16.5">
-      <c r="C31" s="15" t="s">
-        <v>3896</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>3897</v>
+      <c r="C31" s="16" t="s">
+        <v>3910</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>3911</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
-        <v>3898</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="32" ht="16.5">
-      <c r="C32" s="15" t="s">
-        <v>3899</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>3900</v>
+      <c r="C32" s="16" t="s">
+        <v>3913</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>3914</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
-        <v>3898</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="33" ht="16.5">
-      <c r="C33" s="15" t="s">
-        <v>3901</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>3902</v>
+      <c r="C33" s="16" t="s">
+        <v>3915</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>3916</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>3898</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="34" ht="16.5">
-      <c r="C34" s="15" t="s">
-        <v>3903</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>3904</v>
+      <c r="C34" s="16" t="s">
+        <v>3917</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>3918</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>3898</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="35" ht="16.5">
-      <c r="C35" s="15" t="s">
-        <v>3905</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>3906</v>
+      <c r="C35" s="16" t="s">
+        <v>3919</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>3920</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>3898</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="36" ht="16.5">
-      <c r="C36" s="15" t="s">
-        <v>3907</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>3908</v>
+      <c r="C36" s="16" t="s">
+        <v>3921</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>3922</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>3898</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="37" ht="16.5">
-      <c r="C37" s="15" t="s">
-        <v>3909</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>3910</v>
+      <c r="C37" s="16" t="s">
+        <v>3923</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>3924</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>3898</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="38" ht="16.5">
-      <c r="C38" s="15" t="s">
-        <v>3911</v>
-      </c>
-      <c r="D38" s="13" t="s">
+      <c r="C38" s="16" t="s">
+        <v>3925</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>3926</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>3912</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>3898</v>
-      </c>
     </row>
     <row r="39" ht="16.5">
-      <c r="C39" s="15" t="s">
-        <v>3913</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>3910</v>
+      <c r="C39" s="16" t="s">
+        <v>3927</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>3924</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>3898</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="40" ht="16.5">
-      <c r="C40" s="15" t="s">
-        <v>3914</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>3915</v>
+      <c r="C40" s="16" t="s">
+        <v>3928</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>3929</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>3898</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="41" ht="16.5">
-      <c r="C41" s="15" t="s">
-        <v>3916</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>3917</v>
+      <c r="C41" s="16" t="s">
+        <v>3930</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>3931</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>3898</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="42" ht="16.5">
-      <c r="C42" s="15" t="s">
-        <v>3918</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>3919</v>
+      <c r="C42" s="16" t="s">
+        <v>3932</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>3933</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>3898</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="43" ht="16.5">
-      <c r="C43" s="15" t="s">
-        <v>3920</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>3921</v>
+      <c r="C43" s="16" t="s">
+        <v>3934</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>3935</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>3898</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="44" ht="16.5">
-      <c r="C44" s="15" t="s">
-        <v>3922</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>3923</v>
+      <c r="C44" s="16" t="s">
+        <v>3936</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>3937</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>3898</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="45" ht="16.5">
       <c r="C45" s="11" t="s">
-        <v>3924</v>
+        <v>3938</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>3925</v>
-      </c>
-      <c r="E45" s="13"/>
+        <v>3939</v>
+      </c>
+      <c r="E45" s="14"/>
       <c r="F45" s="11" t="s">
-        <v>3926</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="46" ht="16.5">
-      <c r="C46" s="13" t="s">
-        <v>3927</v>
+      <c r="C46" s="14" t="s">
+        <v>3941</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>3928</v>
-      </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13" t="s">
-        <v>3926</v>
+        <v>3942</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14" t="s">
+        <v>3940</v>
       </c>
     </row>
     <row r="47" ht="16.5">
       <c r="C47" s="11" t="s">
-        <v>3929</v>
+        <v>3943</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>3930</v>
-      </c>
-      <c r="E47" s="13"/>
+        <v>3944</v>
+      </c>
+      <c r="E47" s="14"/>
       <c r="F47" s="11" t="s">
-        <v>3931</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="48" ht="16.5">
       <c r="C48" s="11" t="s">
-        <v>3932</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>3933</v>
-      </c>
-      <c r="E48" s="13"/>
+        <v>3946</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>3947</v>
+      </c>
+      <c r="E48" s="14"/>
       <c r="F48" s="11" t="s">
-        <v>3934</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="49" ht="16.5">
       <c r="C49" s="11" t="s">
-        <v>3935</v>
+        <v>3949</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>3936</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>3934</v>
+        <v>3950</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>3948</v>
       </c>
     </row>
     <row r="50" ht="16.5">
       <c r="C50" s="11" t="s">
-        <v>3937</v>
+        <v>3951</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>3938</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>3939</v>
+        <v>3952</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>3953</v>
       </c>
     </row>
     <row r="51" ht="16.5">
       <c r="C51" s="11" t="s">
-        <v>3940</v>
+        <v>3954</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>3941</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>3939</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25">
+        <v>3955</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="52" ht="16.5">
       <c r="C52" s="11" t="s">
-        <v>3942</v>
+        <v>3956</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>3943</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>3939</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25">
+        <v>3957</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="53" ht="16.5">
       <c r="C53" s="11" t="s">
-        <v>3944</v>
+        <v>3958</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>3945</v>
-      </c>
-      <c r="F53" s="18" t="s">
-        <v>3939</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25">
+        <v>3959</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="54" ht="16.5">
       <c r="C54" s="11" t="s">
-        <v>3946</v>
+        <v>3960</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>3947</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>3939</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25">
+        <v>3961</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="55" ht="16.5">
       <c r="C55" s="11" t="s">
-        <v>3948</v>
+        <v>3962</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>3949</v>
-      </c>
-      <c r="F55" s="18" t="s">
-        <v>3939</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25">
+        <v>3963</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="56" ht="16.5">
       <c r="C56" s="11" t="s">
-        <v>3950</v>
+        <v>3964</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>3951</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>3939</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25">
+        <v>3965</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="57" ht="16.5">
       <c r="C57" s="11" t="s">
-        <v>3952</v>
+        <v>3966</v>
       </c>
       <c r="D57" s="11" t="s">
+        <v>3967</v>
+      </c>
+      <c r="F57" s="19" t="s">
         <v>3953</v>
       </c>
-      <c r="F57" s="18" t="s">
-        <v>3939</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25">
+    </row>
+    <row r="58" ht="16.5">
       <c r="C58" s="11" t="s">
-        <v>3954</v>
+        <v>3968</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>3955</v>
-      </c>
-      <c r="F58" s="18" t="s">
-        <v>3939</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25">
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="F59" s="18"/>
-    </row>
-    <row r="60" ht="14.25">
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="F60" s="18"/>
-    </row>
-    <row r="61" ht="14.25">
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="F61" s="18"/>
-    </row>
-    <row r="62" ht="14.25">
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="F62" s="18"/>
-    </row>
-    <row r="63" ht="14.25">
+        <v>3969</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="59" ht="16.5">
+      <c r="C59" s="11" t="s">
+        <v>3970</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>3971</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="60" ht="16.5">
+      <c r="C60" s="11" t="s">
+        <v>3972</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>3973</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="61" ht="16.5">
+      <c r="C61" s="11" t="s">
+        <v>3974</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>3975</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="62" ht="16.5">
+      <c r="C62" s="11" t="s">
+        <v>3976</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>3977</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="63" ht="16.5">
       <c r="C63" s="11" t="s">
-        <v>3956</v>
+        <v>3978</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>3957</v>
+        <v>3977</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>3958</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="64" ht="16.5">
       <c r="C64" s="11" t="s">
-        <v>3958</v>
+        <v>3979</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>3959</v>
+        <v>3977</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>3958</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="65" ht="16.5">
       <c r="C65" s="11" t="s">
-        <v>3960</v>
+        <v>3980</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>3961</v>
+        <v>3977</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>3958</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="66" ht="16.5">
       <c r="C66" s="11" t="s">
-        <v>3962</v>
+        <v>3981</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>3963</v>
+        <v>3982</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>3958</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="67" ht="16.5">
       <c r="C67" s="11" t="s">
-        <v>3964</v>
+        <v>3983</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>3963</v>
+        <v>3982</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>3958</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="68" ht="16.5">
       <c r="C68" s="11" t="s">
-        <v>3965</v>
+        <v>3984</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>3963</v>
+        <v>3985</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>3958</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="69" ht="16.5">
       <c r="C69" s="11" t="s">
-        <v>3966</v>
+        <v>3986</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>3963</v>
+        <v>3987</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>3958</v>
-      </c>
-    </row>
-    <row r="70" ht="16.5">
-      <c r="C70" s="11" t="s">
-        <v>3967</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>3968</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>3958</v>
-      </c>
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="C70" s="15"/>
     </row>
     <row r="71" ht="16.5">
-      <c r="C71" s="11" t="s">
-        <v>3969</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>3968</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>3958</v>
+      <c r="C71" s="14" t="s">
+        <v>3988</v>
       </c>
     </row>
     <row r="72" ht="16.5">
       <c r="C72" s="11" t="s">
-        <v>3970</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>3971</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>3958</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="73" ht="16.5">
-      <c r="C73" s="11" t="s">
-        <v>3972</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>3973</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>3958</v>
-      </c>
-    </row>
-    <row r="74" ht="14.25">
-      <c r="C74" s="14"/>
+      <c r="C73" s="14" t="s">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="74" ht="16.5">
+      <c r="C74" s="14" t="s">
+        <v>3991</v>
+      </c>
     </row>
     <row r="75" ht="16.5">
-      <c r="C75" s="13" t="s">
-        <v>3974</v>
+      <c r="C75" s="14" t="s">
+        <v>3992</v>
       </c>
     </row>
     <row r="76" ht="16.5">
-      <c r="C76" s="11" t="s">
-        <v>3975</v>
+      <c r="C76" s="14" t="s">
+        <v>3993</v>
       </c>
     </row>
     <row r="77" ht="16.5">
-      <c r="C77" s="13" t="s">
-        <v>3976</v>
+      <c r="C77" s="14" t="s">
+        <v>3994</v>
       </c>
     </row>
     <row r="78" ht="16.5">
-      <c r="C78" s="13" t="s">
-        <v>3977</v>
+      <c r="C78" s="14" t="s">
+        <v>3995</v>
       </c>
     </row>
     <row r="79" ht="16.5">
-      <c r="C79" s="13" t="s">
-        <v>3978</v>
+      <c r="C79" s="14" t="s">
+        <v>3996</v>
       </c>
     </row>
     <row r="80" ht="16.5">
-      <c r="C80" s="13" t="s">
-        <v>3979</v>
+      <c r="C80" s="14" t="s">
+        <v>3997</v>
       </c>
     </row>
     <row r="81" ht="16.5">
-      <c r="C81" s="13" t="s">
-        <v>3980</v>
+      <c r="C81" s="14" t="s">
+        <v>3998</v>
       </c>
     </row>
     <row r="82" ht="16.5">
-      <c r="C82" s="13" t="s">
-        <v>3981</v>
+      <c r="C82" s="14" t="s">
+        <v>3999</v>
       </c>
     </row>
     <row r="83" ht="16.5">
-      <c r="C83" s="13" t="s">
-        <v>3982</v>
+      <c r="C83" s="14" t="s">
+        <v>4000</v>
       </c>
     </row>
     <row r="84" ht="16.5">
-      <c r="C84" s="13" t="s">
-        <v>3983</v>
+      <c r="C84" s="14" t="s">
+        <v>4001</v>
       </c>
     </row>
     <row r="85" ht="16.5">
-      <c r="C85" s="13" t="s">
-        <v>3984</v>
+      <c r="C85" s="14" t="s">
+        <v>4002</v>
       </c>
     </row>
     <row r="86" ht="16.5">
-      <c r="C86" s="13" t="s">
-        <v>3985</v>
+      <c r="C86" s="14" t="s">
+        <v>4003</v>
       </c>
     </row>
     <row r="87" ht="16.5">
-      <c r="C87" s="13" t="s">
-        <v>3986</v>
+      <c r="C87" s="14" t="s">
+        <v>4004</v>
       </c>
     </row>
     <row r="88" ht="16.5">
-      <c r="C88" s="13" t="s">
-        <v>3987</v>
+      <c r="C88" s="14" t="s">
+        <v>4005</v>
       </c>
     </row>
     <row r="89" ht="16.5">
-      <c r="C89" s="13" t="s">
-        <v>3988</v>
+      <c r="C89" s="14" t="s">
+        <v>4006</v>
       </c>
     </row>
     <row r="90" ht="16.5">
-      <c r="C90" s="13" t="s">
-        <v>3989</v>
+      <c r="C90" s="14" t="s">
+        <v>4007</v>
       </c>
     </row>
     <row r="91" ht="16.5">
-      <c r="C91" s="13" t="s">
-        <v>3990</v>
-      </c>
-    </row>
-    <row r="92" ht="16.5">
-      <c r="C92" s="13" t="s">
-        <v>3991</v>
-      </c>
-    </row>
+      <c r="C91" s="17" t="s">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25"/>
     <row r="93" ht="16.5">
-      <c r="C93" s="13" t="s">
-        <v>3992</v>
+      <c r="C93" s="14" t="s">
+        <v>4009</v>
       </c>
     </row>
     <row r="94" ht="16.5">
-      <c r="C94" s="13" t="s">
-        <v>3993</v>
-      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
     </row>
     <row r="95" ht="16.5">
-      <c r="C95" s="16" t="s">
-        <v>3994</v>
-      </c>
-    </row>
-    <row r="96" ht="14.25"/>
+      <c r="C95" s="14" t="s">
+        <v>4010</v>
+      </c>
+      <c r="D95" s="11"/>
+    </row>
+    <row r="96" ht="16.5">
+      <c r="C96" s="14" t="s">
+        <v>4011</v>
+      </c>
+      <c r="D96" s="11"/>
+    </row>
     <row r="97" ht="16.5">
-      <c r="C97" s="13" t="s">
-        <v>3995</v>
+      <c r="C97" s="11" t="s">
+        <v>4012</v>
       </c>
     </row>
     <row r="99" ht="14.25">
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
-    </row>
-    <row r="100" ht="14.25">
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-    </row>
-    <row r="101" ht="16.5">
-      <c r="C101" s="11"/>
-      <c r="D101" s="11" t="s">
-        <v>3996</v>
-      </c>
-    </row>
-    <row r="102" ht="16.5">
-      <c r="C102" s="13" t="s">
-        <v>3997</v>
-      </c>
-      <c r="D102" s="11"/>
-    </row>
+      <c r="F99" s="11"/>
+    </row>
+    <row r="100" ht="16.5">
+      <c r="C100" s="11" t="s">
+        <v>4013</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25"/>
     <row r="103" ht="16.5">
-      <c r="C103" s="13" t="s">
-        <v>3998</v>
+      <c r="C103" s="11" t="s">
+        <v>4015</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>4016</v>
       </c>
     </row>
     <row r="104" ht="16.5">
       <c r="C104" s="11" t="s">
-        <v>3999</v>
-      </c>
-    </row>
-    <row r="106" ht="14.25">
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="F106" s="11"/>
+        <v>4017</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="105" ht="16.5">
+      <c r="C105" s="11" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="106" ht="16.5">
+      <c r="C106" s="11" t="s">
+        <v>4020</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>4021</v>
+      </c>
     </row>
     <row r="107" ht="16.5">
       <c r="C107" s="11" t="s">
-        <v>4000</v>
+        <v>4022</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>4001</v>
-      </c>
-    </row>
-    <row r="108" ht="14.25"/>
-    <row r="110" ht="16.5">
-      <c r="C110" s="11" t="s">
-        <v>4002</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>4003</v>
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="108" ht="16.5">
+      <c r="C108" s="11" t="s">
+        <v>4024</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>4025</v>
       </c>
     </row>
     <row r="111" ht="16.5">
       <c r="C111" s="11" t="s">
-        <v>4004</v>
+        <v>4026</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>3996</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="112" ht="16.5">
       <c r="C112" s="11" t="s">
-        <v>4005</v>
+        <v>4028</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>4006</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="113" ht="16.5">
       <c r="C113" s="11" t="s">
-        <v>4007</v>
+        <v>4029</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>4008</v>
-      </c>
-    </row>
-    <row r="114" ht="16.5">
-      <c r="C114" s="11" t="s">
-        <v>4009</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>4010</v>
-      </c>
-    </row>
-    <row r="117" ht="16.5">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25">
+      <c r="D115" s="11"/>
+    </row>
+    <row r="116" ht="14.25">
+      <c r="C116" t="s">
+        <v>4030</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25">
       <c r="C117" s="11" t="s">
-        <v>4011</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>4012</v>
-      </c>
-    </row>
-    <row r="118" ht="16.5">
-      <c r="C118" s="11" t="s">
-        <v>4013</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>4012</v>
-      </c>
-    </row>
-    <row r="119" ht="16.5">
-      <c r="C119" s="11" t="s">
-        <v>4014</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>4012</v>
-      </c>
-    </row>
-    <row r="121" ht="14.25">
-      <c r="C121" t="s">
-        <v>4015</v>
-      </c>
-      <c r="D121" t="s">
-        <v>4016</v>
-      </c>
-    </row>
-    <row r="126" ht="14.25"/>
-    <row r="127" ht="16.5">
+        <v>4032</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25"/>
+    <row r="121" ht="16.5">
+      <c r="C121" s="11" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="122" ht="16.5">
+      <c r="C122" s="11" t="s">
+        <v>4035</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25">
+      <c r="C123" s="11" t="s">
+        <v>4036</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="124" ht="14.25">
+      <c r="C124" s="11" t="s">
+        <v>4037</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25">
       <c r="C127" s="11" t="s">
-        <v>4017</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>4018</v>
-      </c>
-    </row>
-    <row r="128" ht="16.5">
-      <c r="C128" s="11" t="s">
-        <v>4019</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>4018</v>
-      </c>
-    </row>
-    <row r="129" ht="14.25">
-      <c r="C129" s="11" t="s">
-        <v>4020</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>4018</v>
-      </c>
-    </row>
-    <row r="130" ht="14.25">
-      <c r="C130" s="11" t="s">
-        <v>4021</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>4022</v>
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25">
+      <c r="C131" s="6" t="s">
+        <v>4040</v>
+      </c>
+      <c r="D131" t="s">
+        <v>4041</v>
       </c>
     </row>
   </sheetData>

--- a/Selected_Downloads.xlsx
+++ b/Selected_Downloads.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Revistas" sheetId="1" state="visible" r:id="rId1"/>
@@ -11958,6 +11958,69 @@
     <t xml:space="preserve">Open Source</t>
   </si>
   <si>
+    <t xml:space="preserve">The Falsity of Set Theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vladimir Istarkhov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Origin of Consciousness in the Breakdown of the Bicameral Mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julian Jaynes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bullshit Jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Graeber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Against Method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Feyerabend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For and Against Method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imre Lakatos &amp;  Paul Feyerabend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mindless statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerd Gigerenzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rationality for Mortals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Darwin Got Wrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jerry Fodor &amp; Massimo Piatelli-Palmarini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Critique of Reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luke Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Science publishing is a multimillion-dollar Ponzi scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Àlex Gómez-Marín</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Rope Hypothesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill Gaede</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eye of the Chickenhawk</t>
   </si>
   <si>
@@ -12022,69 +12085,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dave McGowan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Falsity of Set Theory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vladimir Istarkhov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Origin of Consciousness in the Breakdown of the Bicameral Mind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julian Jaynes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bullshit Jobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Graeber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Against Method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paul Feyerabend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For and Against Method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imre Lakatos &amp;  Paul Feyerabend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mindless statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerd Gigerenzer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rationality for Mortals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What Darwin Got Wrong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jerry Fodor &amp; Massimo Piatelli-Palmarini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Critique of Reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luke Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Science publishing is a multimillion-dollar Ponzi scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Àlex Gómez-Marín</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Rope Hypothesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bill Gaede</t>
   </si>
   <si>
     <t xml:space="preserve">CHAOS: Charles Manson, the CIA, and the Secret History of the Sixties</t>
@@ -12697,7 +12697,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -12732,6 +12732,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
@@ -54715,7 +54718,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -54760,240 +54763,240 @@
       </c>
     </row>
     <row r="2" ht="16.5">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15" t="s">
         <v>3976</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>3977</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
+        <v>3450</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" ht="16.5">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
         <v>3978</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>3979</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" ht="16.5">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="16" t="s">
+        <v>3450</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" ht="16.5">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
         <v>3980</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>3981</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="14" t="s">
-        <v>3978</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" ht="16.5">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="16" t="s">
+        <v>3450</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" ht="16.5">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
         <v>3982</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>3983</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="14" t="s">
-        <v>3978</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" ht="16.5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="s">
+        <v>3450</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" ht="16.5">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
         <v>3984</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D6" s="11" t="s">
         <v>3985</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="14" t="s">
-        <v>3978</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" ht="16.5">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="15" t="s">
+        <v>3450</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" ht="16.5">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15" t="s">
         <v>3986</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>3987</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="14" t="s">
-        <v>3978</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" ht="16.5">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="15" t="s">
+        <v>3450</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" ht="16.5">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15" t="s">
         <v>3988</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D8" s="11" t="s">
+        <v>3987</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="15" t="s">
+        <v>3450</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" ht="16.5">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15" t="s">
         <v>3989</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
-        <v>3978</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" ht="16.5">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>3990</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="15" t="s">
+        <v>3450</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" ht="16.5">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="17" t="s">
         <v>3991</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="14" t="s">
-        <v>3978</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" ht="16.5">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="15" t="s">
+      <c r="D10" s="11" t="s">
         <v>3992</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="15" t="s">
+        <v>3450</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" ht="16.5">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>3448</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="15" t="s">
+        <v>3450</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" ht="16.5">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="18" t="s">
         <v>3993</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="14" t="s">
-        <v>3978</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" ht="16.5">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>3994</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="15" t="s">
+        <v>3450</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" ht="16.5">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
         <v>3995</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="14" t="s">
-        <v>3978</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" ht="16.5">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>3996</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>3997</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="14" t="s">
-        <v>3978</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" ht="16.5">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="14" t="s">
-        <v>3998</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>3999</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11" t="s">
-        <v>3450</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" ht="16.5">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="14" t="s">
-        <v>4000</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>4001</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="15" t="s">
         <v>3450</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" ht="16.5">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="14" t="s">
-        <v>4002</v>
+      <c r="C14" s="11" t="s">
+        <v>3997</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>4003</v>
+        <v>3998</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="15" t="s">
-        <v>3450</v>
-      </c>
-      <c r="G14" s="12"/>
+        <v>3999</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>4000</v>
+      </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" ht="16.5">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="14" t="s">
-        <v>4004</v>
+      <c r="C15" s="11" t="s">
+        <v>4001</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>4005</v>
+        <v>4002</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
-        <v>3450</v>
+      <c r="F15" s="15" t="s">
+        <v>3999</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="11"/>
@@ -55002,15 +55005,15 @@
     <row r="16" ht="16.5">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="14" t="s">
-        <v>4006</v>
+      <c r="C16" s="11" t="s">
+        <v>4003</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>4007</v>
+        <v>4004</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="14" t="s">
-        <v>3450</v>
+      <c r="F16" s="15" t="s">
+        <v>3999</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="11"/>
@@ -55019,15 +55022,15 @@
     <row r="17" ht="16.5">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="14" t="s">
-        <v>4008</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>4009</v>
+      <c r="C17" s="11" t="s">
+        <v>4005</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>4006</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="14" t="s">
-        <v>3450</v>
+      <c r="F17" s="15" t="s">
+        <v>3999</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="11"/>
@@ -55036,15 +55039,15 @@
     <row r="18" ht="16.5">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="14" t="s">
-        <v>4010</v>
+      <c r="C18" s="11" t="s">
+        <v>4007</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="14" t="s">
-        <v>3450</v>
+      <c r="F18" s="15" t="s">
+        <v>3999</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="11"/>
@@ -55053,15 +55056,15 @@
     <row r="19" ht="16.5">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="14" t="s">
-        <v>4011</v>
+      <c r="C19" s="11" t="s">
+        <v>4009</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
       <c r="E19" s="11"/>
-      <c r="F19" s="14" t="s">
-        <v>3450</v>
+      <c r="F19" s="11" t="s">
+        <v>3999</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="11"/>
@@ -55070,15 +55073,15 @@
     <row r="20" ht="16.5">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="16" t="s">
-        <v>4013</v>
+      <c r="C20" s="11" t="s">
+        <v>4011</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>4014</v>
+        <v>4012</v>
       </c>
       <c r="E20" s="11"/>
-      <c r="F20" s="14" t="s">
-        <v>3450</v>
+      <c r="F20" s="15" t="s">
+        <v>3999</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="11"/>
@@ -55087,32 +55090,32 @@
     <row r="21" ht="16.5">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="14" t="s">
-        <v>3450</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>3448</v>
+      <c r="C21" s="16" t="s">
+        <v>4013</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>4014</v>
       </c>
       <c r="E21" s="11"/>
-      <c r="F21" s="14" t="s">
-        <v>3450</v>
+      <c r="F21" s="15" t="s">
+        <v>3999</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" ht="16.5">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="11" t="s">
         <v>4015</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="16" t="s">
         <v>4016</v>
       </c>
       <c r="E22" s="11"/>
-      <c r="F22" s="14" t="s">
-        <v>3450</v>
+      <c r="F22" s="15" t="s">
+        <v>3999</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="11"/>
@@ -55121,15 +55124,15 @@
     <row r="23" ht="16.5">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="11" t="s">
         <v>4017</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>4018</v>
       </c>
       <c r="E23" s="11"/>
-      <c r="F23" s="14" t="s">
-        <v>3450</v>
+      <c r="F23" s="15" t="s">
+        <v>3999</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="11"/>
@@ -55175,10 +55178,10 @@
       <c r="C26" s="11" t="s">
         <v>4024</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="15" t="s">
         <v>4025</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="11" t="s">
         <v>4021</v>
       </c>
@@ -55206,14 +55209,14 @@
     <row r="28" ht="16.5">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="17" t="s">
         <v>4029</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="17" t="s">
         <v>4030</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16" t="s">
+      <c r="E28" s="17"/>
+      <c r="F28" s="17" t="s">
         <v>4021</v>
       </c>
       <c r="G28" s="12"/>
@@ -55223,14 +55226,14 @@
     <row r="29" ht="16.5">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="17" t="s">
         <v>4031</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="17" t="s">
         <v>4032</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16" t="s">
+      <c r="E29" s="17"/>
+      <c r="F29" s="17" t="s">
         <v>4021</v>
       </c>
       <c r="G29" s="12"/>
@@ -55240,14 +55243,14 @@
     <row r="30" ht="16.5">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="17" t="s">
         <v>4033</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="17" t="s">
         <v>4034</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16" t="s">
+      <c r="E30" s="17"/>
+      <c r="F30" s="17" t="s">
         <v>4021</v>
       </c>
       <c r="G30" s="12"/>
@@ -55263,7 +55266,7 @@
       <c r="D31" s="11" t="s">
         <v>4036</v>
       </c>
-      <c r="E31" s="14"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="11" t="s">
         <v>4037</v>
       </c>
@@ -55331,7 +55334,7 @@
       <c r="D35" s="11" t="s">
         <v>4044</v>
       </c>
-      <c r="E35" s="14"/>
+      <c r="E35" s="15"/>
       <c r="F35" s="11" t="s">
         <v>4037</v>
       </c>
@@ -55342,10 +55345,10 @@
     <row r="36" ht="16.5">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="17" t="s">
         <v>4045</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="15" t="s">
         <v>4046</v>
       </c>
       <c r="E36" s="11"/>
@@ -55359,10 +55362,10 @@
     <row r="37" ht="16.5">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="17" t="s">
         <v>4048</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="15" t="s">
         <v>4049</v>
       </c>
       <c r="E37" s="11"/>
@@ -55376,10 +55379,10 @@
     <row r="38" ht="16.5">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="17" t="s">
         <v>4050</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="15" t="s">
         <v>4051</v>
       </c>
       <c r="E38" s="11"/>
@@ -55393,10 +55396,10 @@
     <row r="39" ht="16.5">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="17" t="s">
         <v>4052</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="15" t="s">
         <v>4053</v>
       </c>
       <c r="E39" s="11"/>
@@ -55410,10 +55413,10 @@
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="17" t="s">
         <v>4054</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="15" t="s">
         <v>4055</v>
       </c>
       <c r="E40" s="11"/>
@@ -55427,10 +55430,10 @@
     <row r="41" ht="16.5">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="17" t="s">
         <v>4056</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="15" t="s">
         <v>4057</v>
       </c>
       <c r="E41" s="11"/>
@@ -55444,10 +55447,10 @@
     <row r="42" ht="16.5">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="17" t="s">
         <v>4058</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="15" t="s">
         <v>4059</v>
       </c>
       <c r="E42" s="11"/>
@@ -55461,10 +55464,10 @@
     <row r="43" ht="16.5">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="17" t="s">
         <v>4060</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="15" t="s">
         <v>4061</v>
       </c>
       <c r="E43" s="11"/>
@@ -55478,10 +55481,10 @@
     <row r="44" ht="16.5">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="17" t="s">
         <v>4062</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="15" t="s">
         <v>4059</v>
       </c>
       <c r="E44" s="11"/>
@@ -55495,10 +55498,10 @@
     <row r="45" ht="16.5">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="17" t="s">
         <v>4063</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="15" t="s">
         <v>4064</v>
       </c>
       <c r="E45" s="11"/>
@@ -55512,10 +55515,10 @@
     <row r="46" ht="16.5">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="17" t="s">
         <v>4065</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="15" t="s">
         <v>4066</v>
       </c>
       <c r="E46" s="11"/>
@@ -55529,10 +55532,10 @@
     <row r="47" ht="16.5">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="17" t="s">
         <v>4067</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="15" t="s">
         <v>4068</v>
       </c>
       <c r="E47" s="11"/>
@@ -55546,10 +55549,10 @@
     <row r="48" ht="16.5">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="17" t="s">
         <v>4069</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="15" t="s">
         <v>4070</v>
       </c>
       <c r="E48" s="11"/>
@@ -55563,10 +55566,10 @@
     <row r="49" ht="16.5">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="17" t="s">
         <v>4071</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="15" t="s">
         <v>4072</v>
       </c>
       <c r="E49" s="11"/>
@@ -55586,7 +55589,7 @@
       <c r="D50" s="11" t="s">
         <v>4074</v>
       </c>
-      <c r="E50" s="14"/>
+      <c r="E50" s="15"/>
       <c r="F50" s="11" t="s">
         <v>4075</v>
       </c>
@@ -55597,14 +55600,14 @@
     <row r="51" ht="16.5">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="15" t="s">
         <v>4076</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>4077</v>
       </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14" t="s">
+      <c r="E51" s="15"/>
+      <c r="F51" s="15" t="s">
         <v>4075</v>
       </c>
       <c r="G51" s="12"/>
@@ -55617,10 +55620,10 @@
       <c r="C52" s="11" t="s">
         <v>4078</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="15" t="s">
         <v>4079</v>
       </c>
-      <c r="E52" s="14"/>
+      <c r="E52" s="15"/>
       <c r="F52" s="11" t="s">
         <v>4080</v>
       </c>
@@ -55638,7 +55641,7 @@
         <v>4082</v>
       </c>
       <c r="E53" s="11"/>
-      <c r="F53" s="14" t="s">
+      <c r="F53" s="15" t="s">
         <v>4080</v>
       </c>
       <c r="G53" s="12"/>
@@ -55655,7 +55658,7 @@
         <v>4084</v>
       </c>
       <c r="E54" s="11"/>
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="15" t="s">
         <v>4080</v>
       </c>
       <c r="G54" s="12"/>
@@ -55672,7 +55675,7 @@
         <v>4086</v>
       </c>
       <c r="E55" s="11"/>
-      <c r="F55" s="14" t="s">
+      <c r="F55" s="15" t="s">
         <v>4080</v>
       </c>
       <c r="G55" s="12"/>
@@ -55689,7 +55692,7 @@
         <v>4088</v>
       </c>
       <c r="E56" s="11"/>
-      <c r="F56" s="14" t="s">
+      <c r="F56" s="15" t="s">
         <v>4080</v>
       </c>
       <c r="G56" s="12"/>
@@ -55706,7 +55709,7 @@
         <v>4090</v>
       </c>
       <c r="E57" s="11"/>
-      <c r="F57" s="18" t="s">
+      <c r="F57" s="19" t="s">
         <v>4091</v>
       </c>
       <c r="G57" s="12"/>
@@ -55723,7 +55726,7 @@
         <v>4093</v>
       </c>
       <c r="E58" s="11"/>
-      <c r="F58" s="18" t="s">
+      <c r="F58" s="19" t="s">
         <v>4091</v>
       </c>
       <c r="G58" s="12"/>
@@ -55740,7 +55743,7 @@
         <v>4095</v>
       </c>
       <c r="E59" s="11"/>
-      <c r="F59" s="18" t="s">
+      <c r="F59" s="19" t="s">
         <v>4091</v>
       </c>
       <c r="G59" s="12"/>
@@ -55757,7 +55760,7 @@
         <v>4097</v>
       </c>
       <c r="E60" s="11"/>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="19" t="s">
         <v>4091</v>
       </c>
       <c r="G60" s="12"/>
@@ -55774,7 +55777,7 @@
         <v>4099</v>
       </c>
       <c r="E61" s="11"/>
-      <c r="F61" s="18" t="s">
+      <c r="F61" s="19" t="s">
         <v>4091</v>
       </c>
       <c r="G61" s="12"/>
@@ -55791,7 +55794,7 @@
         <v>4101</v>
       </c>
       <c r="E62" s="11"/>
-      <c r="F62" s="18" t="s">
+      <c r="F62" s="19" t="s">
         <v>4091</v>
       </c>
       <c r="G62" s="12"/>
@@ -55808,7 +55811,7 @@
         <v>4103</v>
       </c>
       <c r="E63" s="11"/>
-      <c r="F63" s="18" t="s">
+      <c r="F63" s="19" t="s">
         <v>4091</v>
       </c>
       <c r="G63" s="12"/>
@@ -55825,7 +55828,7 @@
         <v>4105</v>
       </c>
       <c r="E64" s="11"/>
-      <c r="F64" s="18" t="s">
+      <c r="F64" s="19" t="s">
         <v>4091</v>
       </c>
       <c r="G64" s="12"/>
@@ -55842,7 +55845,7 @@
         <v>4107</v>
       </c>
       <c r="E65" s="11"/>
-      <c r="F65" s="18" t="s">
+      <c r="F65" s="19" t="s">
         <v>4091</v>
       </c>
       <c r="G65" s="12"/>
@@ -56215,7 +56218,7 @@
       <c r="D87" s="11" t="s">
         <v>4140</v>
       </c>
-      <c r="E87" s="14"/>
+      <c r="E87" s="15"/>
       <c r="F87" s="11" t="s">
         <v>4138</v>
       </c>
@@ -56345,124 +56348,124 @@
     <row r="95" ht="16.5">
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
-      <c r="E95" s="14"/>
+      <c r="E95" s="15"/>
       <c r="F95" s="11"/>
     </row>
     <row r="96" ht="14.25">
-      <c r="C96" s="15"/>
+      <c r="C96" s="16"/>
       <c r="D96" s="11"/>
       <c r="F96" s="11"/>
     </row>
     <row r="97" ht="16.5">
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="15" t="s">
         <v>4151</v>
       </c>
       <c r="D97" s="11"/>
       <c r="F97" s="11"/>
     </row>
     <row r="98" ht="16.5">
-      <c r="C98" s="14" t="s">
+      <c r="C98" s="15" t="s">
         <v>4152</v>
       </c>
     </row>
     <row r="99" ht="16.5">
-      <c r="C99" s="14" t="s">
+      <c r="C99" s="15" t="s">
         <v>4153</v>
       </c>
     </row>
     <row r="100" ht="16.5">
-      <c r="C100" s="14" t="s">
+      <c r="C100" s="15" t="s">
         <v>4154</v>
       </c>
     </row>
     <row r="101" ht="16.5">
-      <c r="C101" s="14" t="s">
+      <c r="C101" s="15" t="s">
         <v>4155</v>
       </c>
     </row>
     <row r="102" ht="16.5">
-      <c r="C102" s="14" t="s">
+      <c r="C102" s="15" t="s">
         <v>4156</v>
       </c>
     </row>
     <row r="103" ht="16.5">
-      <c r="C103" s="14" t="s">
+      <c r="C103" s="15" t="s">
         <v>4157</v>
       </c>
     </row>
     <row r="104" ht="16.5">
-      <c r="C104" s="14" t="s">
+      <c r="C104" s="15" t="s">
         <v>4158</v>
       </c>
     </row>
     <row r="105" ht="16.5">
-      <c r="C105" s="14" t="s">
+      <c r="C105" s="15" t="s">
         <v>4159</v>
       </c>
     </row>
     <row r="106" ht="16.5">
-      <c r="C106" s="14" t="s">
+      <c r="C106" s="15" t="s">
         <v>4160</v>
       </c>
     </row>
     <row r="107" ht="16.5">
-      <c r="C107" s="14" t="s">
+      <c r="C107" s="15" t="s">
         <v>4161</v>
       </c>
     </row>
     <row r="108" ht="16.5">
-      <c r="C108" s="14" t="s">
+      <c r="C108" s="15" t="s">
         <v>4162</v>
       </c>
     </row>
     <row r="109" ht="16.5">
-      <c r="C109" s="14" t="s">
+      <c r="C109" s="15" t="s">
         <v>4163</v>
       </c>
     </row>
     <row r="110" ht="16.5">
-      <c r="C110" s="14" t="s">
+      <c r="C110" s="15" t="s">
         <v>4164</v>
       </c>
     </row>
     <row r="111" ht="16.5">
-      <c r="C111" s="14" t="s">
+      <c r="C111" s="15" t="s">
         <v>4165</v>
       </c>
       <c r="D111" s="11"/>
       <c r="F111" s="11"/>
     </row>
     <row r="112" ht="16.5">
-      <c r="C112" s="14" t="s">
+      <c r="C112" s="15" t="s">
         <v>4166</v>
       </c>
       <c r="F112" s="11"/>
     </row>
     <row r="113" ht="16.5">
-      <c r="C113" s="14" t="s">
+      <c r="C113" s="15" t="s">
         <v>4167</v>
       </c>
       <c r="F113" s="11"/>
     </row>
     <row r="114" ht="16.5">
-      <c r="C114" s="14" t="s">
+      <c r="C114" s="15" t="s">
         <v>4168</v>
       </c>
       <c r="F114" s="11"/>
     </row>
     <row r="115" ht="16.5">
-      <c r="C115" s="14" t="s">
+      <c r="C115" s="15" t="s">
         <v>4169</v>
       </c>
     </row>
     <row r="116" ht="16.5">
-      <c r="C116" s="17" t="s">
+      <c r="C116" s="18" t="s">
         <v>4170</v>
       </c>
     </row>
     <row r="117" ht="14.25"/>
     <row r="118" ht="16.5">
-      <c r="C118" s="14" t="s">
+      <c r="C118" s="15" t="s">
         <v>4171</v>
       </c>
     </row>
@@ -56471,14 +56474,14 @@
       <c r="D119" s="11"/>
     </row>
     <row r="120" ht="16.5">
-      <c r="C120" s="14" t="s">
+      <c r="C120" s="15" t="s">
         <v>4172</v>
       </c>
       <c r="D120" s="11"/>
       <c r="F120" s="11"/>
     </row>
     <row r="121" ht="16.5">
-      <c r="C121" s="14" t="s">
+      <c r="C121" s="15" t="s">
         <v>4173</v>
       </c>
       <c r="D121" s="11"/>
@@ -56494,7 +56497,7 @@
       <c r="D123" s="11" t="s">
         <v>4175</v>
       </c>
-      <c r="E123" s="14"/>
+      <c r="E123" s="15"/>
       <c r="F123" s="11" t="s">
         <v>4176</v>
       </c>
@@ -56513,7 +56516,7 @@
       <c r="C131" s="11" t="s">
         <v>4177</v>
       </c>
-      <c r="D131" s="14" t="s">
+      <c r="D131" s="15" t="s">
         <v>4178</v>
       </c>
     </row>
@@ -56521,7 +56524,7 @@
       <c r="C132" s="11" t="s">
         <v>4179</v>
       </c>
-      <c r="D132" s="14" t="s">
+      <c r="D132" s="15" t="s">
         <v>4178</v>
       </c>
       <c r="F132" s="11"/>
@@ -56582,7 +56585,7 @@
       <c r="F141" s="11"/>
     </row>
     <row r="144" ht="16.5">
-      <c r="C144" s="19" t="s">
+      <c r="C144" s="20" t="s">
         <v>4187</v>
       </c>
       <c r="D144" s="11" t="s">

--- a/Selected_Downloads.xlsx
+++ b/Selected_Downloads.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="9"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Revistas" sheetId="1" state="visible" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4178" uniqueCount="4178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4177" uniqueCount="4177">
   <si>
     <t>Index</t>
   </si>
@@ -11206,6 +11206,9 @@
     <t xml:space="preserve">The Camp of the Saints</t>
   </si>
   <si>
+    <t xml:space="preserve">The Firebrand of Bolshevism: The True Story Of The Bolseviki</t>
+  </si>
+  <si>
     <t xml:space="preserve">Making Dystopia: The Strange Rise and Survival of Architectural Barbarism</t>
   </si>
   <si>
@@ -12548,12 +12551,6 @@
   </si>
   <si>
     <t xml:space="preserve">Buried Secrets: A True Story of Drug Running, Black Magic, and Human Sacrifice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Firebrand of Bolshevism: The True Story Of The Bolseviki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaos by Tom ONeill</t>
   </si>
   <si>
     <t xml:space="preserve">The Abominable Snowmen: The Legend Comes to Life</t>
@@ -12653,7 +12650,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -12683,10 +12680,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -44727,1786 +44728,1786 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A148" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A144" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" style="12" width="9.140625"/>
-    <col customWidth="1" min="3" max="3" style="12" width="89.8515625"/>
-    <col customWidth="1" min="4" max="4" style="12" width="35.7109375"/>
-    <col min="5" max="5" style="12" width="9.140625"/>
-    <col customWidth="1" min="6" max="6" style="12" width="24.57421875"/>
-    <col customWidth="1" min="7" max="7" style="13" width="18.00390625"/>
-    <col min="8" max="16384" style="12" width="9.140625"/>
+    <col min="1" max="2" style="11" width="9.140625"/>
+    <col customWidth="1" min="3" max="3" style="11" width="89.8515625"/>
+    <col customWidth="1" min="4" max="4" style="11" width="35.7109375"/>
+    <col min="5" max="5" style="11" width="9.140625"/>
+    <col customWidth="1" min="6" max="6" style="11" width="24.57421875"/>
+    <col customWidth="1" min="7" max="7" style="14" width="18.00390625"/>
+    <col min="8" max="16384" style="11" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>3958</v>
-      </c>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="15" t="s">
+        <v>3959</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" ht="16.5">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16" t="s">
-        <v>3959</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
         <v>3960</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="D2" s="11" t="s">
+        <v>3961</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
         <v>3428</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" ht="16.5">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
-        <v>3961</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17" t="s">
         <v>3962</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="17" t="s">
+      <c r="D3" s="11" t="s">
+        <v>3963</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="18" t="s">
         <v>3428</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" ht="16.5">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
-        <v>3963</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17" t="s">
         <v>3964</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="17" t="s">
+      <c r="D4" s="11" t="s">
+        <v>3965</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="18" t="s">
         <v>3428</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" ht="16.5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16" t="s">
-        <v>3965</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17" t="s">
         <v>3966</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12" t="s">
+      <c r="D5" s="11" t="s">
+        <v>3967</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="s">
         <v>3428</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" ht="16.5">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16" t="s">
-        <v>3967</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17" t="s">
         <v>3968</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="16" t="s">
+      <c r="D6" s="11" t="s">
+        <v>3969</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="17" t="s">
         <v>3428</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" ht="16.5">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16" t="s">
-        <v>3969</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17" t="s">
         <v>3970</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="16" t="s">
+      <c r="D7" s="11" t="s">
+        <v>3971</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="17" t="s">
         <v>3428</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" ht="16.5">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17" t="s">
+        <v>3972</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>3971</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>3970</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="16" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="17" t="s">
         <v>3428</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" ht="16.5">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16" t="s">
-        <v>3972</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17" t="s">
         <v>3973</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="16" t="s">
+      <c r="D9" s="11" t="s">
+        <v>3974</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="17" t="s">
         <v>3428</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" ht="16.5">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="18" t="s">
-        <v>3974</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="19" t="s">
         <v>3975</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="16" t="s">
+      <c r="D10" s="11" t="s">
+        <v>3976</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="17" t="s">
         <v>3428</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" ht="16.5">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17" t="s">
         <v>3428</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>3426</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="16" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="17" t="s">
         <v>3428</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" ht="16.5">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="19" t="s">
-        <v>3976</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="20" t="s">
         <v>3977</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="16" t="s">
+      <c r="D12" s="11" t="s">
+        <v>3978</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="17" t="s">
         <v>3428</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" ht="16.5">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16" t="s">
-        <v>3978</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17" t="s">
         <v>3979</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="16" t="s">
+      <c r="D13" s="11" t="s">
+        <v>3980</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="17" t="s">
         <v>3428</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" ht="16.5">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12" t="s">
-        <v>3980</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11" t="s">
         <v>3981</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="16" t="s">
+      <c r="D14" s="11" t="s">
         <v>3982</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="17" t="s">
+        <v>3983</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" ht="16.5">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11" t="s">
+        <v>3984</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>3985</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="17" t="s">
         <v>3983</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>3984</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="16" t="s">
-        <v>3982</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" ht="16.5">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12" t="s">
-        <v>3985</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11" t="s">
         <v>3986</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="16" t="s">
-        <v>3982</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="D16" s="11" t="s">
+        <v>3987</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="17" t="s">
+        <v>3983</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" ht="16.5">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12" t="s">
-        <v>3987</v>
-      </c>
-      <c r="D17" s="17" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="s">
         <v>3988</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="16" t="s">
-        <v>3982</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="D17" s="18" t="s">
+        <v>3989</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="17" t="s">
+        <v>3983</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" ht="16.5">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12" t="s">
-        <v>3989</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
         <v>3990</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="16" t="s">
-        <v>3982</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="D18" s="11" t="s">
+        <v>3991</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="17" t="s">
+        <v>3983</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" ht="16.5">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12" t="s">
-        <v>3991</v>
-      </c>
-      <c r="D19" s="12" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
         <v>3992</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12" t="s">
-        <v>3982</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+      <c r="D19" s="11" t="s">
+        <v>3993</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>3983</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" ht="16.5">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12" t="s">
-        <v>3993</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11" t="s">
         <v>3994</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="16" t="s">
-        <v>3982</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+      <c r="D20" s="11" t="s">
+        <v>3995</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="17" t="s">
+        <v>3983</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" ht="16.5">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="17" t="s">
-        <v>3995</v>
-      </c>
-      <c r="D21" s="17" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="18" t="s">
         <v>3996</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="16" t="s">
-        <v>3982</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="17"/>
+      <c r="D21" s="18" t="s">
+        <v>3997</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="17" t="s">
+        <v>3983</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" ht="16.5">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12" t="s">
-        <v>3997</v>
-      </c>
-      <c r="D22" s="17" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11" t="s">
         <v>3998</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="16" t="s">
-        <v>3982</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
+      <c r="D22" s="18" t="s">
+        <v>3999</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="17" t="s">
+        <v>3983</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" ht="16.5">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12" t="s">
-        <v>3999</v>
-      </c>
-      <c r="D23" s="12" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11" t="s">
         <v>4000</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="16" t="s">
-        <v>3982</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+      <c r="D23" s="11" t="s">
+        <v>4001</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="17" t="s">
+        <v>3983</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" ht="16.5">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12" t="s">
-        <v>4001</v>
-      </c>
-      <c r="D24" s="12" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11" t="s">
         <v>4002</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>4003</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11" t="s">
+        <v>4004</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" ht="16.5">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11" t="s">
+        <v>4005</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>4006</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11" t="s">
         <v>4004</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>4005</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12" t="s">
-        <v>4003</v>
-      </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" ht="16.5">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12" t="s">
-        <v>4006</v>
-      </c>
-      <c r="D26" s="16" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11" t="s">
         <v>4007</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="12" t="s">
-        <v>4003</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
+      <c r="D26" s="17" t="s">
+        <v>4008</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="11" t="s">
+        <v>4004</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" ht="16.5">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12" t="s">
-        <v>4008</v>
-      </c>
-      <c r="D27" s="12" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11" t="s">
         <v>4009</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>4010</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11" t="s">
+        <v>4011</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" ht="16.5">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="18" t="s">
-        <v>4011</v>
-      </c>
-      <c r="D28" s="18" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="19" t="s">
         <v>4012</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18" t="s">
-        <v>4003</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
+      <c r="D28" s="19" t="s">
+        <v>4013</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19" t="s">
+        <v>4004</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" ht="16.5">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="18" t="s">
-        <v>4013</v>
-      </c>
-      <c r="D29" s="18" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="19" t="s">
         <v>4014</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18" t="s">
-        <v>4003</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+      <c r="D29" s="19" t="s">
+        <v>4015</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19" t="s">
+        <v>4004</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" ht="16.5">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="18" t="s">
-        <v>4015</v>
-      </c>
-      <c r="D30" s="18" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="19" t="s">
         <v>4016</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18" t="s">
-        <v>4003</v>
-      </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
+      <c r="D30" s="19" t="s">
+        <v>4017</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19" t="s">
+        <v>4004</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" ht="16.5">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12" t="s">
-        <v>4017</v>
-      </c>
-      <c r="D31" s="12" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11" t="s">
         <v>4018</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>4019</v>
       </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="11" t="s">
+        <v>4020</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
     </row>
     <row r="32" ht="16.5">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11" t="s">
+        <v>4021</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>4022</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11" t="s">
         <v>4020</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>4021</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12" t="s">
-        <v>4019</v>
-      </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" ht="16.5">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>4022</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>4021</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12" t="s">
-        <v>4019</v>
-      </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11" t="s">
+        <v>4020</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" ht="16.5">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12" t="s">
-        <v>4023</v>
-      </c>
-      <c r="D34" s="12" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11" t="s">
         <v>4024</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12" t="s">
-        <v>4019</v>
-      </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
+      <c r="D34" s="11" t="s">
+        <v>4025</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11" t="s">
+        <v>4020</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" ht="16.5">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12" t="s">
-        <v>4025</v>
-      </c>
-      <c r="D35" s="12" t="s">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11" t="s">
         <v>4026</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="12" t="s">
-        <v>4019</v>
-      </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
+      <c r="D35" s="11" t="s">
+        <v>4027</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="11" t="s">
+        <v>4020</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" ht="16.5">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="18" t="s">
-        <v>4027</v>
-      </c>
-      <c r="D36" s="16" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="19" t="s">
         <v>4028</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12" t="s">
+      <c r="D36" s="17" t="s">
         <v>4029</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11" t="s">
+        <v>4030</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" ht="16.5">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="18" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="19" t="s">
+        <v>4031</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>4032</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11" t="s">
         <v>4030</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>4031</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12" t="s">
-        <v>4029</v>
-      </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" ht="16.5">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="18" t="s">
-        <v>4032</v>
-      </c>
-      <c r="D38" s="16" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="19" t="s">
         <v>4033</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12" t="s">
-        <v>4029</v>
-      </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
+      <c r="D38" s="17" t="s">
+        <v>4034</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11" t="s">
+        <v>4030</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" ht="16.5">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="18" t="s">
-        <v>4034</v>
-      </c>
-      <c r="D39" s="16" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="19" t="s">
         <v>4035</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12" t="s">
-        <v>4029</v>
-      </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
+      <c r="D39" s="17" t="s">
+        <v>4036</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11" t="s">
+        <v>4030</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="18" t="s">
-        <v>4036</v>
-      </c>
-      <c r="D40" s="16" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="19" t="s">
         <v>4037</v>
       </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12" t="s">
-        <v>4029</v>
-      </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
+      <c r="D40" s="17" t="s">
+        <v>4038</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11" t="s">
+        <v>4030</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" ht="16.5">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="18" t="s">
-        <v>4038</v>
-      </c>
-      <c r="D41" s="16" t="s">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="19" t="s">
         <v>4039</v>
       </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12" t="s">
-        <v>4029</v>
-      </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
+      <c r="D41" s="17" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11" t="s">
+        <v>4030</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" ht="16.5">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="18" t="s">
-        <v>4040</v>
-      </c>
-      <c r="D42" s="16" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="19" t="s">
         <v>4041</v>
       </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12" t="s">
-        <v>4029</v>
-      </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
+      <c r="D42" s="17" t="s">
+        <v>4042</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11" t="s">
+        <v>4030</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" ht="16.5">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="18" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="19" t="s">
+        <v>4043</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>4044</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11" t="s">
+        <v>4030</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" ht="16.5">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="19" t="s">
+        <v>4045</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>4042</v>
       </c>
-      <c r="D43" s="16" t="s">
-        <v>4043</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12" t="s">
-        <v>4029</v>
-      </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-    </row>
-    <row r="44" ht="16.5">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="18" t="s">
-        <v>4044</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>4041</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12" t="s">
-        <v>4029</v>
-      </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11" t="s">
+        <v>4030</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" ht="16.5">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="18" t="s">
-        <v>4045</v>
-      </c>
-      <c r="D45" s="16" t="s">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="19" t="s">
         <v>4046</v>
       </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12" t="s">
-        <v>4029</v>
-      </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
+      <c r="D45" s="17" t="s">
+        <v>4047</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11" t="s">
+        <v>4030</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
     </row>
     <row r="46" ht="16.5">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="18" t="s">
-        <v>4047</v>
-      </c>
-      <c r="D46" s="16" t="s">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="19" t="s">
         <v>4048</v>
       </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12" t="s">
-        <v>4029</v>
-      </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
+      <c r="D46" s="17" t="s">
+        <v>4049</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11" t="s">
+        <v>4030</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
     </row>
     <row r="47" ht="16.5">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="18" t="s">
-        <v>4049</v>
-      </c>
-      <c r="D47" s="16" t="s">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="19" t="s">
         <v>4050</v>
       </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12" t="s">
-        <v>4029</v>
-      </c>
-      <c r="G47" s="13"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
+      <c r="D47" s="17" t="s">
+        <v>4051</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11" t="s">
+        <v>4030</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
     </row>
     <row r="48" ht="16.5">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="18" t="s">
-        <v>4051</v>
-      </c>
-      <c r="D48" s="16" t="s">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="19" t="s">
         <v>4052</v>
       </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12" t="s">
-        <v>4029</v>
-      </c>
-      <c r="G48" s="13"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
+      <c r="D48" s="17" t="s">
+        <v>4053</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11" t="s">
+        <v>4030</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
     </row>
     <row r="49" ht="16.5">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="18" t="s">
-        <v>4053</v>
-      </c>
-      <c r="D49" s="16" t="s">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="19" t="s">
         <v>4054</v>
       </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12" t="s">
-        <v>4029</v>
-      </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
+      <c r="D49" s="17" t="s">
+        <v>4055</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11" t="s">
+        <v>4030</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
     </row>
     <row r="50" ht="16.5">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12" t="s">
-        <v>4055</v>
-      </c>
-      <c r="D50" s="12" t="s">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11" t="s">
         <v>4056</v>
       </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="12" t="s">
+      <c r="D50" s="11" t="s">
         <v>4057</v>
       </c>
-      <c r="G50" s="13"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="11" t="s">
+        <v>4058</v>
+      </c>
+      <c r="G50" s="14"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
     </row>
     <row r="51" ht="16.5">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="16" t="s">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="17" t="s">
+        <v>4059</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>4060</v>
+      </c>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17" t="s">
         <v>4058</v>
       </c>
-      <c r="D51" s="12" t="s">
-        <v>4059</v>
-      </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16" t="s">
-        <v>4057</v>
-      </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
     </row>
     <row r="52" ht="16.5">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12" t="s">
-        <v>4060</v>
-      </c>
-      <c r="D52" s="16" t="s">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11" t="s">
         <v>4061</v>
       </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="12" t="s">
+      <c r="D52" s="17" t="s">
         <v>4062</v>
       </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="11" t="s">
+        <v>4063</v>
+      </c>
+      <c r="G52" s="14"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
     </row>
     <row r="53" ht="16.5">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12" t="s">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11" t="s">
+        <v>4064</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>4065</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="17" t="s">
         <v>4063</v>
       </c>
-      <c r="D53" s="12" t="s">
-        <v>4064</v>
-      </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="16" t="s">
-        <v>4062</v>
-      </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
     </row>
     <row r="54" ht="16.5">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12" t="s">
-        <v>4065</v>
-      </c>
-      <c r="D54" s="12" t="s">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11" t="s">
         <v>4066</v>
       </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="16" t="s">
-        <v>4062</v>
-      </c>
-      <c r="G54" s="13"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
+      <c r="D54" s="11" t="s">
+        <v>4067</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="17" t="s">
+        <v>4063</v>
+      </c>
+      <c r="G54" s="14"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
     </row>
     <row r="55" ht="16.5">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12" t="s">
-        <v>4067</v>
-      </c>
-      <c r="D55" s="12" t="s">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11" t="s">
         <v>4068</v>
       </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="16" t="s">
-        <v>4062</v>
-      </c>
-      <c r="G55" s="13"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
+      <c r="D55" s="11" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="17" t="s">
+        <v>4063</v>
+      </c>
+      <c r="G55" s="14"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
     </row>
     <row r="56" ht="16.5">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12" t="s">
-        <v>4069</v>
-      </c>
-      <c r="D56" s="12" t="s">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11" t="s">
         <v>4070</v>
       </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="16" t="s">
-        <v>4062</v>
-      </c>
-      <c r="G56" s="13"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
+      <c r="D56" s="11" t="s">
+        <v>4071</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="17" t="s">
+        <v>4063</v>
+      </c>
+      <c r="G56" s="14"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
     </row>
     <row r="57" ht="16.5">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12" t="s">
-        <v>4071</v>
-      </c>
-      <c r="D57" s="12" t="s">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11" t="s">
         <v>4072</v>
       </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="20" t="s">
+      <c r="D57" s="11" t="s">
         <v>4073</v>
       </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="21" t="s">
+        <v>4074</v>
+      </c>
+      <c r="G57" s="14"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
     </row>
     <row r="58" ht="16.5">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12" t="s">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11" t="s">
+        <v>4075</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>4076</v>
+      </c>
+      <c r="E58" s="11"/>
+      <c r="F58" s="21" t="s">
         <v>4074</v>
       </c>
-      <c r="D58" s="12" t="s">
-        <v>4075</v>
-      </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="20" t="s">
-        <v>4073</v>
-      </c>
-      <c r="G58" s="13"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
     </row>
     <row r="59" ht="16.5">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12" t="s">
-        <v>4076</v>
-      </c>
-      <c r="D59" s="12" t="s">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11" t="s">
         <v>4077</v>
       </c>
-      <c r="E59" s="12"/>
-      <c r="F59" s="20" t="s">
-        <v>4073</v>
-      </c>
-      <c r="G59" s="13"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
+      <c r="D59" s="11" t="s">
+        <v>4078</v>
+      </c>
+      <c r="E59" s="11"/>
+      <c r="F59" s="21" t="s">
+        <v>4074</v>
+      </c>
+      <c r="G59" s="14"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
     </row>
     <row r="60" ht="16.5">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12" t="s">
-        <v>4078</v>
-      </c>
-      <c r="D60" s="12" t="s">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11" t="s">
         <v>4079</v>
       </c>
-      <c r="E60" s="12"/>
-      <c r="F60" s="20" t="s">
-        <v>4073</v>
-      </c>
-      <c r="G60" s="13"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
+      <c r="D60" s="11" t="s">
+        <v>4080</v>
+      </c>
+      <c r="E60" s="11"/>
+      <c r="F60" s="21" t="s">
+        <v>4074</v>
+      </c>
+      <c r="G60" s="14"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
     </row>
     <row r="61" ht="16.5">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12" t="s">
-        <v>4080</v>
-      </c>
-      <c r="D61" s="12" t="s">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11" t="s">
         <v>4081</v>
       </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="20" t="s">
-        <v>4073</v>
-      </c>
-      <c r="G61" s="13"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
+      <c r="D61" s="11" t="s">
+        <v>4082</v>
+      </c>
+      <c r="E61" s="11"/>
+      <c r="F61" s="21" t="s">
+        <v>4074</v>
+      </c>
+      <c r="G61" s="14"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
     </row>
     <row r="62" ht="16.5">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12" t="s">
-        <v>4082</v>
-      </c>
-      <c r="D62" s="12" t="s">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11" t="s">
         <v>4083</v>
       </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="20" t="s">
-        <v>4073</v>
-      </c>
-      <c r="G62" s="13"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
+      <c r="D62" s="11" t="s">
+        <v>4084</v>
+      </c>
+      <c r="E62" s="11"/>
+      <c r="F62" s="21" t="s">
+        <v>4074</v>
+      </c>
+      <c r="G62" s="14"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
     </row>
     <row r="63" ht="16.5">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12" t="s">
-        <v>4084</v>
-      </c>
-      <c r="D63" s="12" t="s">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11" t="s">
         <v>4085</v>
       </c>
-      <c r="E63" s="12"/>
-      <c r="F63" s="20" t="s">
-        <v>4073</v>
-      </c>
-      <c r="G63" s="13"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
+      <c r="D63" s="11" t="s">
+        <v>4086</v>
+      </c>
+      <c r="E63" s="11"/>
+      <c r="F63" s="21" t="s">
+        <v>4074</v>
+      </c>
+      <c r="G63" s="14"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
     </row>
     <row r="64" ht="16.5">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12" t="s">
-        <v>4086</v>
-      </c>
-      <c r="D64" s="12" t="s">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11" t="s">
         <v>4087</v>
       </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="20" t="s">
-        <v>4073</v>
-      </c>
-      <c r="G64" s="13"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
+      <c r="D64" s="11" t="s">
+        <v>4088</v>
+      </c>
+      <c r="E64" s="11"/>
+      <c r="F64" s="21" t="s">
+        <v>4074</v>
+      </c>
+      <c r="G64" s="14"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
     </row>
     <row r="65" ht="16.5">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12" t="s">
-        <v>4088</v>
-      </c>
-      <c r="D65" s="12" t="s">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11" t="s">
         <v>4089</v>
       </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="20" t="s">
-        <v>4073</v>
-      </c>
-      <c r="G65" s="13"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
+      <c r="D65" s="11" t="s">
+        <v>4090</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="21" t="s">
+        <v>4074</v>
+      </c>
+      <c r="G65" s="14"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
     </row>
     <row r="66" ht="16.5">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12" t="s">
-        <v>4090</v>
-      </c>
-      <c r="D66" s="12" t="s">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11" t="s">
         <v>4091</v>
       </c>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12" t="s">
+      <c r="D66" s="11" t="s">
         <v>4092</v>
       </c>
-      <c r="G66" s="13"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G66" s="14"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
     </row>
     <row r="67" ht="16.5">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12" t="s">
-        <v>4092</v>
-      </c>
-      <c r="D67" s="12" t="s">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11" t="s">
         <v>4093</v>
       </c>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12" t="s">
-        <v>4092</v>
-      </c>
-      <c r="G67" s="13"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
+      <c r="D67" s="11" t="s">
+        <v>4094</v>
+      </c>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G67" s="14"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
     </row>
     <row r="68" ht="16.5">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12" t="s">
-        <v>4094</v>
-      </c>
-      <c r="D68" s="12" t="s">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11" t="s">
         <v>4095</v>
       </c>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12" t="s">
-        <v>4092</v>
-      </c>
-      <c r="G68" s="13"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
+      <c r="D68" s="11" t="s">
+        <v>4096</v>
+      </c>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
     </row>
     <row r="69" ht="16.5">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12" t="s">
-        <v>4096</v>
-      </c>
-      <c r="D69" s="12" t="s">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11" t="s">
         <v>4097</v>
       </c>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12" t="s">
-        <v>4092</v>
-      </c>
-      <c r="G69" s="13"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
+      <c r="D69" s="11" t="s">
+        <v>4098</v>
+      </c>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
     </row>
     <row r="70" ht="16.5">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12" t="s">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11" t="s">
+        <v>4099</v>
+      </c>
+      <c r="D70" s="11" t="s">
         <v>4098</v>
       </c>
-      <c r="D70" s="12" t="s">
-        <v>4097</v>
-      </c>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12" t="s">
-        <v>4092</v>
-      </c>
-      <c r="G70" s="13"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G70" s="14"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
     </row>
     <row r="71" ht="16.5">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12" t="s">
-        <v>4099</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>4097</v>
-      </c>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12" t="s">
-        <v>4092</v>
-      </c>
-      <c r="G71" s="13"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11" t="s">
+        <v>4100</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>4098</v>
+      </c>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
     </row>
     <row r="72" ht="16.5">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12" t="s">
-        <v>4100</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>4097</v>
-      </c>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12" t="s">
-        <v>4092</v>
-      </c>
-      <c r="G72" s="13"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11" t="s">
+        <v>4101</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>4098</v>
+      </c>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
     </row>
     <row r="73" ht="16.5">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12" t="s">
-        <v>4101</v>
-      </c>
-      <c r="D73" s="12" t="s">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11" t="s">
         <v>4102</v>
       </c>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12" t="s">
-        <v>4092</v>
-      </c>
-      <c r="G73" s="13"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
+      <c r="D73" s="11" t="s">
+        <v>4103</v>
+      </c>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
     </row>
     <row r="74" ht="16.5">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12" t="s">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11" t="s">
+        <v>4104</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>4103</v>
       </c>
-      <c r="D74" s="12" t="s">
-        <v>4102</v>
-      </c>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12" t="s">
-        <v>4092</v>
-      </c>
-      <c r="G74" s="13"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G74" s="14"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
     </row>
     <row r="75" ht="16.5">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12" t="s">
-        <v>4104</v>
-      </c>
-      <c r="D75" s="12" t="s">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11" t="s">
         <v>4105</v>
       </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12" t="s">
-        <v>4092</v>
-      </c>
-      <c r="G75" s="13"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
+      <c r="D75" s="11" t="s">
+        <v>4106</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G75" s="14"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
     </row>
     <row r="76" ht="16.5">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12" t="s">
-        <v>4106</v>
-      </c>
-      <c r="D76" s="12" t="s">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11" t="s">
         <v>4107</v>
       </c>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12" t="s">
-        <v>4092</v>
-      </c>
-      <c r="G76" s="13"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
+      <c r="D76" s="11" t="s">
+        <v>4108</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G76" s="14"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
     </row>
     <row r="77" ht="16.5">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12" t="s">
-        <v>4108</v>
-      </c>
-      <c r="D77" s="12" t="s">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11" t="s">
         <v>4109</v>
       </c>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12" t="s">
-        <v>4092</v>
-      </c>
-      <c r="G77" s="13"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
+      <c r="D77" s="11" t="s">
+        <v>4110</v>
+      </c>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G77" s="14"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
     </row>
     <row r="78" ht="16.5">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12" t="s">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11" t="s">
+        <v>4111</v>
+      </c>
+      <c r="D78" s="11" t="s">
         <v>4110</v>
       </c>
-      <c r="D78" s="12" t="s">
-        <v>4109</v>
-      </c>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12" t="s">
-        <v>4092</v>
-      </c>
-      <c r="G78" s="13"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
     </row>
     <row r="79" ht="16.5">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12" t="s">
-        <v>4111</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>4109</v>
-      </c>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12" t="s">
-        <v>4092</v>
-      </c>
-      <c r="G79" s="13"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11" t="s">
+        <v>4112</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>4110</v>
+      </c>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G79" s="14"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
     </row>
     <row r="80" ht="16.5">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12" t="s">
-        <v>4112</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>4109</v>
-      </c>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12" t="s">
-        <v>4092</v>
-      </c>
-      <c r="G80" s="13"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11" t="s">
+        <v>4113</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>4110</v>
+      </c>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G80" s="14"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
     </row>
     <row r="81" ht="16.5">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12" t="s">
-        <v>4113</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>4109</v>
-      </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12" t="s">
-        <v>4092</v>
-      </c>
-      <c r="G81" s="13"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11" t="s">
+        <v>4114</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>4110</v>
+      </c>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G81" s="14"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
     </row>
     <row r="82" ht="16.5">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12" t="s">
-        <v>4114</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>4109</v>
-      </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12" t="s">
-        <v>4092</v>
-      </c>
-      <c r="G82" s="13"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11" t="s">
+        <v>4115</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>4110</v>
+      </c>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G82" s="14"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
     </row>
     <row r="83" ht="16.5">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12" t="s">
-        <v>4115</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>4109</v>
-      </c>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12" t="s">
-        <v>4092</v>
-      </c>
-      <c r="G83" s="13"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11" t="s">
+        <v>4116</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>4110</v>
+      </c>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G83" s="14"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
     </row>
     <row r="84" ht="16.5">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12" t="s">
-        <v>4116</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>4109</v>
-      </c>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12" t="s">
-        <v>4092</v>
-      </c>
-      <c r="G84" s="13"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11" t="s">
+        <v>4117</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>4110</v>
+      </c>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G84" s="14"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
     </row>
     <row r="85" ht="16.5">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12" t="s">
-        <v>4117</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>4109</v>
-      </c>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12" t="s">
-        <v>4092</v>
-      </c>
-      <c r="G85" s="13"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11" t="s">
+        <v>4118</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>4110</v>
+      </c>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11" t="s">
+        <v>4093</v>
+      </c>
+      <c r="G85" s="14"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
     </row>
     <row r="86" ht="16.5">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12" t="s">
-        <v>4118</v>
-      </c>
-      <c r="D86" s="12" t="s">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11" t="s">
         <v>4119</v>
       </c>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12" t="s">
+      <c r="D86" s="11" t="s">
         <v>4120</v>
       </c>
-      <c r="G86" s="13"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11" t="s">
+        <v>4121</v>
+      </c>
+      <c r="G86" s="14"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
     </row>
     <row r="87" ht="16.5">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12" t="s">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11" t="s">
+        <v>4122</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>4123</v>
+      </c>
+      <c r="E87" s="17"/>
+      <c r="F87" s="11" t="s">
         <v>4121</v>
       </c>
-      <c r="D87" s="12" t="s">
-        <v>4122</v>
-      </c>
-      <c r="E87" s="16"/>
-      <c r="F87" s="12" t="s">
-        <v>4120</v>
-      </c>
-      <c r="G87" s="13"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
     </row>
     <row r="88" ht="16.5">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12" t="s">
-        <v>4123</v>
-      </c>
-      <c r="D88" s="12" t="s">
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11" t="s">
         <v>4124</v>
       </c>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12" t="s">
-        <v>4120</v>
-      </c>
-      <c r="G88" s="13"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
+      <c r="D88" s="11" t="s">
+        <v>4125</v>
+      </c>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11" t="s">
+        <v>4121</v>
+      </c>
+      <c r="G88" s="14"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
     </row>
     <row r="89" ht="16.5">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12" t="s">
-        <v>4125</v>
-      </c>
-      <c r="D89" s="12" t="s">
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11" t="s">
         <v>4126</v>
       </c>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12" t="s">
+      <c r="D89" s="11" t="s">
         <v>4127</v>
       </c>
-      <c r="G89" s="13"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11" t="s">
+        <v>4128</v>
+      </c>
+      <c r="G89" s="14"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
     </row>
     <row r="90" ht="16.5">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12" t="s">
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11" t="s">
+        <v>4129</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>4127</v>
+      </c>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11" t="s">
         <v>4128</v>
       </c>
-      <c r="D90" s="12" t="s">
-        <v>4126</v>
-      </c>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12" t="s">
+      <c r="G90" s="14"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+    </row>
+    <row r="91" ht="16.5">
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11" t="s">
+        <v>4130</v>
+      </c>
+      <c r="D91" s="11" t="s">
         <v>4127</v>
       </c>
-      <c r="G90" s="13"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-    </row>
-    <row r="91" ht="16.5">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12" t="s">
-        <v>4129</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>4126</v>
-      </c>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12" t="s">
+      <c r="E91" s="11"/>
+      <c r="F91" s="11" t="s">
+        <v>4128</v>
+      </c>
+      <c r="G91" s="14"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+    </row>
+    <row r="92" ht="16.5">
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11" t="s">
+        <v>4131</v>
+      </c>
+      <c r="D92" s="11" t="s">
         <v>4127</v>
       </c>
-      <c r="G91" s="13"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-    </row>
-    <row r="92" ht="16.5">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12" t="s">
-        <v>4130</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>4126</v>
-      </c>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12" t="s">
+      <c r="E92" s="11"/>
+      <c r="F92" s="11" t="s">
+        <v>4128</v>
+      </c>
+      <c r="G92" s="14"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+    </row>
+    <row r="93" ht="16.5">
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11" t="s">
+        <v>4132</v>
+      </c>
+      <c r="D93" s="11" t="s">
         <v>4127</v>
       </c>
-      <c r="G92" s="13"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-    </row>
-    <row r="93" ht="16.5">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12" t="s">
-        <v>4131</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>4126</v>
-      </c>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12" t="s">
+      <c r="E93" s="11"/>
+      <c r="F93" s="11" t="s">
+        <v>4128</v>
+      </c>
+      <c r="G93" s="14"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+    </row>
+    <row r="94" ht="16.5">
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11" t="s">
+        <v>4133</v>
+      </c>
+      <c r="D94" s="11" t="s">
         <v>4127</v>
       </c>
-      <c r="G93" s="13"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-    </row>
-    <row r="94" ht="16.5">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12" t="s">
-        <v>4132</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>4126</v>
-      </c>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12" t="s">
-        <v>4127</v>
-      </c>
-      <c r="G94" s="13"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11" t="s">
+        <v>4128</v>
+      </c>
+      <c r="G94" s="14"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
     </row>
     <row r="95" ht="16.5">
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="12"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="11"/>
     </row>
     <row r="96" ht="14.25">
-      <c r="C96" s="17"/>
-      <c r="D96" s="12"/>
-      <c r="F96" s="12"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="11"/>
+      <c r="F96" s="11"/>
     </row>
     <row r="97" ht="16.5">
-      <c r="C97" s="16" t="s">
-        <v>4133</v>
-      </c>
-      <c r="D97" s="12"/>
-      <c r="F97" s="12"/>
+      <c r="C97" s="17" t="s">
+        <v>4134</v>
+      </c>
+      <c r="D97" s="11"/>
+      <c r="F97" s="11"/>
     </row>
     <row r="98" ht="16.5">
-      <c r="C98" s="16" t="s">
-        <v>4134</v>
+      <c r="C98" s="17" t="s">
+        <v>4135</v>
       </c>
     </row>
     <row r="99" ht="16.5">
-      <c r="C99" s="16" t="s">
-        <v>4135</v>
+      <c r="C99" s="17" t="s">
+        <v>4136</v>
       </c>
     </row>
     <row r="100" ht="16.5">
-      <c r="C100" s="16" t="s">
-        <v>4136</v>
+      <c r="C100" s="17" t="s">
+        <v>4137</v>
       </c>
     </row>
     <row r="101" ht="16.5">
-      <c r="C101" s="16" t="s">
-        <v>4137</v>
+      <c r="C101" s="17" t="s">
+        <v>4138</v>
       </c>
     </row>
     <row r="102" ht="16.5">
-      <c r="C102" s="16" t="s">
-        <v>4138</v>
+      <c r="C102" s="17" t="s">
+        <v>4139</v>
       </c>
     </row>
     <row r="103" ht="16.5">
-      <c r="C103" s="16" t="s">
-        <v>4139</v>
+      <c r="C103" s="17" t="s">
+        <v>4140</v>
       </c>
     </row>
     <row r="104" ht="16.5">
-      <c r="C104" s="16" t="s">
-        <v>4140</v>
+      <c r="C104" s="17" t="s">
+        <v>4141</v>
       </c>
     </row>
     <row r="105" ht="16.5">
-      <c r="C105" s="16" t="s">
-        <v>4141</v>
+      <c r="C105" s="17" t="s">
+        <v>4142</v>
       </c>
     </row>
     <row r="106" ht="16.5">
-      <c r="C106" s="16" t="s">
-        <v>4142</v>
+      <c r="C106" s="17" t="s">
+        <v>4143</v>
       </c>
     </row>
     <row r="107" ht="16.5">
-      <c r="C107" s="16" t="s">
-        <v>4143</v>
+      <c r="C107" s="17" t="s">
+        <v>4144</v>
       </c>
     </row>
     <row r="108" ht="16.5">
-      <c r="C108" s="16" t="s">
-        <v>4144</v>
+      <c r="C108" s="17" t="s">
+        <v>4145</v>
       </c>
     </row>
     <row r="109" ht="16.5">
-      <c r="C109" s="16" t="s">
-        <v>4145</v>
+      <c r="C109" s="17" t="s">
+        <v>4146</v>
       </c>
     </row>
     <row r="110" ht="16.5">
-      <c r="C110" s="16" t="s">
-        <v>4146</v>
+      <c r="C110" s="17" t="s">
+        <v>4147</v>
       </c>
     </row>
     <row r="111" ht="16.5">
-      <c r="C111" s="16" t="s">
-        <v>4147</v>
-      </c>
-      <c r="D111" s="12"/>
-      <c r="F111" s="12"/>
+      <c r="C111" s="17" t="s">
+        <v>4148</v>
+      </c>
+      <c r="D111" s="11"/>
+      <c r="F111" s="11"/>
     </row>
     <row r="112" ht="16.5">
-      <c r="C112" s="16" t="s">
-        <v>4148</v>
-      </c>
-      <c r="F112" s="12"/>
+      <c r="C112" s="17" t="s">
+        <v>4149</v>
+      </c>
+      <c r="F112" s="11"/>
     </row>
     <row r="113" ht="16.5">
-      <c r="C113" s="16" t="s">
-        <v>4149</v>
-      </c>
-      <c r="F113" s="12"/>
+      <c r="C113" s="17" t="s">
+        <v>4150</v>
+      </c>
+      <c r="F113" s="11"/>
     </row>
     <row r="114" ht="16.5">
-      <c r="C114" s="16" t="s">
-        <v>4150</v>
-      </c>
-      <c r="F114" s="12"/>
+      <c r="C114" s="17" t="s">
+        <v>4151</v>
+      </c>
+      <c r="F114" s="11"/>
     </row>
     <row r="115" ht="16.5">
-      <c r="C115" s="16" t="s">
-        <v>4151</v>
+      <c r="C115" s="17" t="s">
+        <v>4152</v>
       </c>
     </row>
     <row r="116" ht="16.5">
-      <c r="C116" s="19" t="s">
-        <v>4152</v>
+      <c r="C116" s="20" t="s">
+        <v>4153</v>
       </c>
     </row>
     <row r="117" ht="14.25"/>
     <row r="118" ht="16.5">
-      <c r="C118" s="16" t="s">
-        <v>4153</v>
+      <c r="C118" s="17" t="s">
+        <v>4154</v>
       </c>
     </row>
     <row r="119" ht="16.5">
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
     </row>
     <row r="120" ht="16.5">
-      <c r="C120" s="16" t="s">
-        <v>4154</v>
-      </c>
-      <c r="D120" s="12"/>
-      <c r="F120" s="12"/>
+      <c r="C120" s="17" t="s">
+        <v>4155</v>
+      </c>
+      <c r="D120" s="11"/>
+      <c r="F120" s="11"/>
     </row>
     <row r="121" ht="16.5">
-      <c r="C121" s="16" t="s">
-        <v>4155</v>
-      </c>
-      <c r="D121" s="12"/>
+      <c r="C121" s="17" t="s">
+        <v>4156</v>
+      </c>
+      <c r="D121" s="11"/>
     </row>
     <row r="122" ht="16.5">
-      <c r="C122" s="12"/>
-      <c r="F122" s="12"/>
+      <c r="C122" s="11"/>
+      <c r="F122" s="11"/>
     </row>
     <row r="123" ht="16.5">
-      <c r="C123" s="12" t="s">
-        <v>4156</v>
-      </c>
-      <c r="D123" s="12" t="s">
+      <c r="C123" s="11" t="s">
         <v>4157</v>
       </c>
-      <c r="E123" s="16"/>
-      <c r="F123" s="12" t="s">
+      <c r="D123" s="11" t="s">
         <v>4158</v>
+      </c>
+      <c r="E123" s="17"/>
+      <c r="F123" s="11" t="s">
+        <v>4159</v>
       </c>
     </row>
     <row r="124" ht="16.5"/>
@@ -46514,134 +46515,129 @@
     <row r="126" ht="16.5"/>
     <row r="127" ht="16.5"/>
     <row r="128" ht="16.5">
-      <c r="F128" s="12"/>
+      <c r="F128" s="11"/>
     </row>
     <row r="129" ht="16.5">
-      <c r="F129" s="12"/>
+      <c r="F129" s="11"/>
     </row>
     <row r="131" ht="16.5">
-      <c r="C131" s="12" t="s">
-        <v>4159</v>
-      </c>
-      <c r="D131" s="16" t="s">
+      <c r="C131" s="11" t="s">
         <v>4160</v>
       </c>
+      <c r="D131" s="17" t="s">
+        <v>4161</v>
+      </c>
     </row>
     <row r="132" ht="16.5">
-      <c r="C132" s="12" t="s">
+      <c r="C132" s="11" t="s">
+        <v>4162</v>
+      </c>
+      <c r="D132" s="17" t="s">
         <v>4161</v>
       </c>
-      <c r="D132" s="16" t="s">
-        <v>4160</v>
-      </c>
-      <c r="F132" s="12"/>
+      <c r="F132" s="11"/>
     </row>
     <row r="133" ht="14.25">
-      <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
-      <c r="F133" s="12"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="F133" s="11"/>
     </row>
     <row r="134" ht="14.25">
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
-      <c r="F134" s="12"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="F134" s="11"/>
     </row>
     <row r="135" ht="14.25"/>
     <row r="136" ht="16.5">
-      <c r="C136" s="12" t="s">
-        <v>4162</v>
-      </c>
-      <c r="D136" s="12" t="s">
+      <c r="C136" s="11" t="s">
         <v>4163</v>
       </c>
+      <c r="D136" s="11" t="s">
+        <v>4164</v>
+      </c>
     </row>
     <row r="137" ht="16.5">
-      <c r="C137" s="12" t="s">
+      <c r="C137" s="11" t="s">
+        <v>4165</v>
+      </c>
+      <c r="D137" s="11" t="s">
         <v>4164</v>
       </c>
-      <c r="D137" s="12" t="s">
-        <v>4163</v>
-      </c>
     </row>
     <row r="138" ht="16.5">
-      <c r="C138" s="12" t="s">
-        <v>4165</v>
-      </c>
-      <c r="D138" s="12" t="s">
-        <v>4163</v>
+      <c r="C138" s="11" t="s">
+        <v>4166</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>4164</v>
       </c>
     </row>
     <row r="139" ht="16.5">
-      <c r="C139" s="12" t="s">
-        <v>4166</v>
-      </c>
-      <c r="D139" s="12" t="s">
+      <c r="C139" s="11" t="s">
         <v>4167</v>
       </c>
+      <c r="D139" s="11" t="s">
+        <v>4168</v>
+      </c>
     </row>
     <row r="140" ht="16.5">
-      <c r="C140" s="12" t="s">
-        <v>4168</v>
-      </c>
-      <c r="D140" s="12"/>
-      <c r="F140" s="12"/>
+      <c r="C140" s="11" t="s">
+        <v>4169</v>
+      </c>
+      <c r="D140" s="11"/>
+      <c r="F140" s="11"/>
     </row>
     <row r="141" ht="14.25">
-      <c r="C141" s="12"/>
-      <c r="D141" s="12"/>
-      <c r="F141" s="12"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="F141" s="11"/>
     </row>
     <row r="144" ht="16.5">
-      <c r="C144" s="21" t="s">
-        <v>4169</v>
-      </c>
-      <c r="D144" s="12" t="s">
+      <c r="C144" s="22" t="s">
         <v>4170</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>4171</v>
       </c>
     </row>
     <row r="146" ht="14.25"/>
     <row r="147" ht="16.5">
-      <c r="C147" s="12" t="s">
-        <v>4171</v>
+      <c r="C147" s="11" t="s">
+        <v>4172</v>
       </c>
     </row>
     <row r="148" ht="16.5">
-      <c r="C148" s="12" t="s">
-        <v>4172</v>
+      <c r="C148" s="11" t="s">
+        <v>4173</v>
       </c>
     </row>
     <row r="149" ht="14.25"/>
     <row r="150" ht="16.5"/>
     <row r="151" ht="14.25"/>
     <row r="152" ht="14.25">
-      <c r="C152" s="12"/>
-      <c r="D152" s="12"/>
-      <c r="F152" s="12"/>
-    </row>
-    <row r="154" ht="16.5">
-      <c r="C154" s="12" t="s">
-        <v>4173</v>
-      </c>
-    </row>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="F152" s="11"/>
+    </row>
+    <row r="154" ht="16.5"/>
     <row r="155" ht="16.5">
-      <c r="C155" s="12" t="s">
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+    </row>
+    <row r="160" ht="16.5">
+      <c r="C160" s="11" t="s">
         <v>4174</v>
       </c>
-    </row>
-    <row r="160" ht="14.25">
-      <c r="C160" s="12" t="s">
+      <c r="D160" s="11" t="s">
         <v>4175</v>
       </c>
-      <c r="D160" s="12" t="s">
+    </row>
+    <row r="167" ht="16.5">
+      <c r="C167" s="11" t="s">
         <v>4176</v>
       </c>
-    </row>
-    <row r="167" ht="14.25">
-      <c r="C167" s="12" t="s">
-        <v>4177</v>
-      </c>
-      <c r="D167" s="12" t="s">
-        <v>4014</v>
+      <c r="D167" s="11" t="s">
+        <v>4015</v>
       </c>
     </row>
   </sheetData>
@@ -53197,6 +53193,11 @@
         <v>3724</v>
       </c>
     </row>
+    <row r="154" ht="16.5">
+      <c r="C154" s="11" t="s">
+        <v>3725</v>
+      </c>
+    </row>
     <row r="155" ht="14.25"/>
     <row r="157" ht="14.25"/>
   </sheetData>
@@ -53232,7 +53233,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -53277,10 +53278,10 @@
     </row>
     <row r="2">
       <c r="C2" s="6" t="s">
-        <v>3725</v>
+        <v>3726</v>
       </c>
       <c r="D2" t="s">
-        <v>3726</v>
+        <v>3727</v>
       </c>
       <c r="E2" s="5">
         <v>2018</v>
@@ -53288,10 +53289,10 @@
     </row>
     <row r="3">
       <c r="C3" s="6" t="s">
-        <v>3727</v>
+        <v>3728</v>
       </c>
       <c r="D3" t="s">
-        <v>3728</v>
+        <v>3729</v>
       </c>
       <c r="E3" s="5">
         <v>1979</v>
@@ -53300,13 +53301,13 @@
     <row r="4" ht="14.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>3729</v>
-      </c>
-      <c r="C4" s="7" t="s">
         <v>3730</v>
       </c>
+      <c r="C4" s="12" t="s">
+        <v>3731</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>3731</v>
+        <v>3732</v>
       </c>
       <c r="E4" s="2">
         <v>1981</v>
@@ -53328,10 +53329,10 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="7" t="s">
-        <v>3732</v>
+        <v>3733</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>3733</v>
+        <v>3734</v>
       </c>
       <c r="E5" s="2">
         <v>2004</v>
@@ -53357,7 +53358,7 @@
         <v>3446</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>3733</v>
+        <v>3734</v>
       </c>
       <c r="E6" s="2">
         <v>1995</v>
@@ -53377,13 +53378,13 @@
     <row r="7" ht="14.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>3734</v>
+        <v>3735</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>3735</v>
+        <v>3736</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>3736</v>
+        <v>3737</v>
       </c>
       <c r="E7" s="2">
         <v>2004</v>
@@ -53401,13 +53402,13 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="3"/>
       <c r="C8" s="7" t="s">
+        <v>3738</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>3737</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>3736</v>
       </c>
       <c r="E8" s="2">
         <v>2005</v>
@@ -53425,13 +53426,13 @@
       <c r="P8" s="3"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="3"/>
       <c r="C9" s="7" t="s">
-        <v>3738</v>
+        <v>3739</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>3736</v>
+        <v>3737</v>
       </c>
       <c r="E9" s="2">
         <v>2006</v>
@@ -53449,13 +53450,13 @@
       <c r="P9" s="3"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="3"/>
       <c r="C10" s="7" t="s">
-        <v>3739</v>
+        <v>3740</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>3736</v>
+        <v>3737</v>
       </c>
       <c r="E10" s="2">
         <v>2007</v>
@@ -53476,10 +53477,10 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="7" t="s">
-        <v>3740</v>
+        <v>3741</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>3736</v>
+        <v>3737</v>
       </c>
       <c r="E11" s="2">
         <v>2017</v>
@@ -53500,10 +53501,10 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="7" t="s">
-        <v>3741</v>
+        <v>3742</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>3736</v>
+        <v>3737</v>
       </c>
       <c r="E12" s="2">
         <v>2015</v>
@@ -53522,13 +53523,13 @@
     </row>
     <row r="13" ht="14.25">
       <c r="B13" s="3" t="s">
-        <v>3742</v>
+        <v>3743</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>3743</v>
+        <v>3744</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>3744</v>
+        <v>3745</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
@@ -53546,13 +53547,13 @@
     <row r="14" ht="14.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>3746</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>3747</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>3745</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>3746</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>3744</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
@@ -53571,10 +53572,10 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="7" t="s">
-        <v>3747</v>
+        <v>3748</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>3744</v>
+        <v>3745</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
@@ -53593,10 +53594,10 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="7" t="s">
-        <v>3748</v>
+        <v>3749</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="E16" s="2">
         <v>1963</v>
@@ -53619,10 +53620,10 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="7" t="s">
+        <v>3751</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>3750</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>3749</v>
       </c>
       <c r="E17" s="2">
         <v>1964</v>
@@ -53645,10 +53646,10 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="7" t="s">
-        <v>3751</v>
+        <v>3752</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="E18" s="2">
         <v>1965</v>
@@ -53671,10 +53672,10 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="7" t="s">
-        <v>3752</v>
+        <v>3753</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="E19" s="2">
         <v>1967</v>
@@ -53697,10 +53698,10 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="7" t="s">
-        <v>3753</v>
+        <v>3754</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="E20" s="2">
         <v>1975</v>
@@ -53723,10 +53724,10 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="7" t="s">
-        <v>3754</v>
+        <v>3755</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="E21" s="2">
         <v>1977</v>
@@ -53749,10 +53750,10 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
-        <v>3755</v>
+        <v>3756</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="E22" s="2">
         <v>1979</v>
@@ -53775,10 +53776,10 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="7" t="s">
-        <v>3756</v>
+        <v>3757</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="E23" s="2">
         <v>1981</v>
@@ -53801,10 +53802,10 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="7" t="s">
-        <v>3757</v>
+        <v>3758</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="E24" s="2">
         <v>1985</v>
@@ -53827,10 +53828,10 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="7" t="s">
-        <v>3758</v>
+        <v>3759</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="E25" s="2">
         <v>1987</v>
@@ -53853,10 +53854,10 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="7" t="s">
-        <v>3759</v>
+        <v>3760</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="E26" s="2">
         <v>1993</v>
@@ -53879,10 +53880,10 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="7" t="s">
-        <v>3760</v>
+        <v>3761</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="E27" s="2">
         <v>1995</v>
@@ -53905,10 +53906,10 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="7" t="s">
-        <v>3761</v>
+        <v>3762</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="E28" s="2">
         <v>2002</v>
@@ -53931,10 +53932,10 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="7" t="s">
-        <v>3762</v>
+        <v>3763</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="E29" s="2">
         <v>2002</v>
@@ -53957,10 +53958,10 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="7" t="s">
-        <v>3763</v>
+        <v>3764</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="E30" s="2">
         <v>2005</v>
@@ -53983,10 +53984,10 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="7" t="s">
-        <v>3764</v>
+        <v>3765</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="E31" s="2">
         <v>2004</v>
@@ -54009,10 +54010,10 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="7" t="s">
-        <v>3765</v>
+        <v>3766</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="E32" s="2">
         <v>2012</v>
@@ -54034,13 +54035,13 @@
     <row r="33" ht="14.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>3766</v>
+        <v>3767</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>3767</v>
+        <v>3768</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>3768</v>
+        <v>3769</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="3"/>
@@ -54058,13 +54059,13 @@
     </row>
     <row r="34" ht="14.25">
       <c r="B34" s="3" t="s">
+        <v>3770</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>3771</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>3769</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>3770</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>3768</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
@@ -54083,13 +54084,13 @@
     <row r="35" ht="14.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>3771</v>
+        <v>3772</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>3772</v>
+        <v>3773</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>3773</v>
+        <v>3774</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>
@@ -54106,13 +54107,13 @@
     </row>
     <row r="36" ht="14.25">
       <c r="B36" s="3" t="s">
-        <v>3774</v>
+        <v>3775</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>3775</v>
+        <v>3776</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>3776</v>
+        <v>3777</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="3"/>
@@ -54130,13 +54131,13 @@
     <row r="37" ht="14.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
+        <v>3778</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>3779</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>3777</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>3778</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>3776</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
@@ -54153,13 +54154,13 @@
     </row>
     <row r="38" ht="14.25">
       <c r="B38" s="3" t="s">
-        <v>3779</v>
+        <v>3780</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>3780</v>
+        <v>3781</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>3776</v>
+        <v>3777</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
@@ -54177,13 +54178,13 @@
     <row r="39" ht="14.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>3781</v>
+        <v>3782</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>3782</v>
+        <v>3783</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>3776</v>
+        <v>3777</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
@@ -54201,142 +54202,142 @@
     <row r="40" ht="14.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>3783</v>
+        <v>3784</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>3784</v>
+        <v>3785</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>3785</v>
+        <v>3786</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>3786</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
+        <v>3788</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>3789</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>3786</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>3787</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>3788</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>3785</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>3786</v>
       </c>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>3789</v>
+        <v>3790</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>3790</v>
+        <v>3791</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>3785</v>
+        <v>3786</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>3791</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>3792</v>
+        <v>3793</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>3793</v>
+        <v>3794</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>3785</v>
+        <v>3786</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>3794</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
+        <v>3796</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>3786</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>3795</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>3796</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>3785</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>3794</v>
       </c>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
-        <v>3797</v>
+        <v>3798</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>3798</v>
+        <v>3799</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>3785</v>
+        <v>3786</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>3794</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>3799</v>
+        <v>3800</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>3800</v>
+        <v>3801</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>3785</v>
+        <v>3786</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>3794</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>3801</v>
+        <v>3802</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>3802</v>
+        <v>3803</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>3785</v>
+        <v>3786</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>3794</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="B48" t="s">
-        <v>3803</v>
+        <v>3804</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>3804</v>
+        <v>3805</v>
       </c>
       <c r="E48" s="5"/>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>3805</v>
+        <v>3806</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>3806</v>
+        <v>3807</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>3807</v>
+        <v>3808</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -54357,13 +54358,13 @@
     <row r="50" ht="14.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
+        <v>3809</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>3807</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>3808</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>3806</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>3807</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -54384,13 +54385,13 @@
     <row r="51" ht="14.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>3809</v>
+        <v>3810</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>3806</v>
+        <v>3807</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>3807</v>
+        <v>3808</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -54411,13 +54412,13 @@
     <row r="52" ht="14.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>3810</v>
+        <v>3811</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>3806</v>
+        <v>3807</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>3807</v>
+        <v>3808</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -54438,13 +54439,13 @@
     <row r="53" ht="14.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
-        <v>3811</v>
+        <v>3812</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>3806</v>
+        <v>3807</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>3807</v>
+        <v>3808</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -54465,13 +54466,13 @@
     <row r="54" ht="14.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
-        <v>3812</v>
+        <v>3813</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>3806</v>
+        <v>3807</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>3807</v>
+        <v>3808</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -54492,13 +54493,13 @@
     <row r="55" ht="14.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>3813</v>
+        <v>3814</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>3806</v>
+        <v>3807</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>3807</v>
+        <v>3808</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -54519,13 +54520,13 @@
     <row r="56" ht="14.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
-        <v>3814</v>
+        <v>3815</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>3806</v>
+        <v>3807</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>3807</v>
+        <v>3808</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -54546,13 +54547,13 @@
     <row r="57" ht="14.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>3815</v>
+        <v>3816</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>3806</v>
+        <v>3807</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>3807</v>
+        <v>3808</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -54573,13 +54574,13 @@
     <row r="58" ht="14.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
-        <v>3816</v>
+        <v>3817</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>3806</v>
+        <v>3807</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>3807</v>
+        <v>3808</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -54635,33 +54636,33 @@
     <row r="64" ht="14.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
-        <v>3817</v>
+        <v>3818</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>3818</v>
+        <v>3819</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>3820</v>
+        <v>3821</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>3821</v>
+        <v>3822</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>3822</v>
+        <v>3823</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>3823</v>
+        <v>3824</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>3824</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="65" ht="14.25">
@@ -54692,48 +54693,48 @@
     </row>
     <row r="69" ht="14.25">
       <c r="C69" s="6" t="s">
-        <v>3825</v>
+        <v>3826</v>
       </c>
       <c r="D69" t="s">
-        <v>3826</v>
+        <v>3827</v>
       </c>
       <c r="E69" s="5"/>
     </row>
     <row r="70" ht="14.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
-        <v>3827</v>
+        <v>3828</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>3828</v>
+        <v>3829</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
         <v>3343</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>3829</v>
+        <v>3830</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>3830</v>
+        <v>3831</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>3831</v>
+        <v>3832</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3" t="s">
-        <v>3832</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="71" ht="14.25">
       <c r="C71" s="6" t="s">
-        <v>3833</v>
+        <v>3834</v>
       </c>
       <c r="D71" t="s">
-        <v>3834</v>
+        <v>3835</v>
       </c>
       <c r="E71" s="5"/>
     </row>
@@ -54743,44 +54744,44 @@
     </row>
     <row r="73" ht="14.25">
       <c r="B73" t="s">
-        <v>3835</v>
+        <v>3836</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>3836</v>
+        <v>3837</v>
       </c>
       <c r="D73" t="s">
-        <v>3837</v>
+        <v>3838</v>
       </c>
       <c r="E73" s="5"/>
     </row>
     <row r="76" ht="14.25"/>
     <row r="77" ht="14.25">
       <c r="A77" s="5" t="s">
-        <v>3838</v>
+        <v>3839</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>3839</v>
+        <v>3840</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>3840</v>
+        <v>3841</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>3841</v>
+        <v>3842</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>3842</v>
+        <v>3843</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>3844</v>
+        <v>3845</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>3845</v>
+        <v>3846</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -54794,40 +54795,40 @@
       </c>
       <c r="P77" s="3"/>
       <c r="Q77" s="3" t="s">
-        <v>3846</v>
+        <v>3847</v>
       </c>
       <c r="R77" s="3"/>
       <c r="S77" s="3" t="s">
-        <v>3847</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="78" ht="14.25">
       <c r="A78" s="5" t="s">
-        <v>3848</v>
+        <v>3849</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>3849</v>
+        <v>3850</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>3840</v>
+        <v>3841</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>3841</v>
+        <v>3842</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>3842</v>
+        <v>3843</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>3844</v>
+        <v>3845</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>3845</v>
+        <v>3846</v>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
@@ -54841,40 +54842,40 @@
       </c>
       <c r="P78" s="3"/>
       <c r="Q78" s="3" t="s">
-        <v>3846</v>
+        <v>3847</v>
       </c>
       <c r="R78" s="3"/>
       <c r="S78" s="3" t="s">
-        <v>3847</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="79" ht="14.25">
       <c r="A79" s="5" t="s">
-        <v>3850</v>
+        <v>3851</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>3851</v>
+        <v>3852</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>3840</v>
+        <v>3841</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>3841</v>
+        <v>3842</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>3842</v>
+        <v>3843</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>3844</v>
+        <v>3845</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>3845</v>
+        <v>3846</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -54888,40 +54889,40 @@
       </c>
       <c r="P79" s="3"/>
       <c r="Q79" s="3" t="s">
-        <v>3846</v>
+        <v>3847</v>
       </c>
       <c r="R79" s="3"/>
       <c r="S79" s="3" t="s">
-        <v>3847</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="80" ht="14.25">
       <c r="A80" s="5" t="s">
-        <v>3852</v>
+        <v>3853</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>3853</v>
+        <v>3854</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>3840</v>
+        <v>3841</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>3841</v>
+        <v>3842</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>3842</v>
+        <v>3843</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>3844</v>
+        <v>3845</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>3845</v>
+        <v>3846</v>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
@@ -54935,312 +54936,312 @@
       </c>
       <c r="P80" s="3"/>
       <c r="Q80" s="3" t="s">
-        <v>3846</v>
+        <v>3847</v>
       </c>
       <c r="R80" s="3"/>
       <c r="S80" s="3" t="s">
-        <v>3847</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="81" ht="14.25">
       <c r="A81" s="5" t="s">
-        <v>3854</v>
+        <v>3855</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>3855</v>
+        <v>3856</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>3856</v>
+        <v>3857</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="5" t="s">
-        <v>3857</v>
+        <v>3858</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>3844</v>
+        <v>3845</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>3858</v>
+        <v>3859</v>
       </c>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3" t="s">
-        <v>3859</v>
+        <v>3860</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P81" s="3"/>
       <c r="Q81" s="3" t="s">
-        <v>3860</v>
+        <v>3861</v>
       </c>
       <c r="R81" s="3"/>
       <c r="S81" s="3" t="s">
-        <v>3861</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="82" ht="14.25">
       <c r="A82" s="5" t="s">
-        <v>3862</v>
+        <v>3863</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>3863</v>
+        <v>3864</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>3856</v>
+        <v>3857</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="5" t="s">
-        <v>3857</v>
+        <v>3858</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>3864</v>
+        <v>3865</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>3844</v>
+        <v>3845</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>3858</v>
+        <v>3859</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3" t="s">
-        <v>3859</v>
+        <v>3860</v>
       </c>
       <c r="O82" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P82" s="3"/>
       <c r="Q82" s="3" t="s">
-        <v>3860</v>
+        <v>3861</v>
       </c>
       <c r="R82" s="3"/>
       <c r="S82" s="3" t="s">
-        <v>3865</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="83" ht="14.25">
       <c r="A83" s="5" t="s">
-        <v>3866</v>
+        <v>3867</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>3867</v>
+        <v>3868</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>3856</v>
+        <v>3857</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="5" t="s">
-        <v>3868</v>
+        <v>3869</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>3844</v>
+        <v>3845</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>3869</v>
+        <v>3870</v>
       </c>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3" t="s">
-        <v>3859</v>
+        <v>3860</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P83" s="3"/>
       <c r="Q83" s="3" t="s">
-        <v>3860</v>
+        <v>3861</v>
       </c>
       <c r="R83" s="3"/>
       <c r="S83" s="3" t="s">
-        <v>3870</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="84" ht="14.25">
       <c r="A84" s="5" t="s">
-        <v>3871</v>
+        <v>3872</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>3872</v>
+        <v>3873</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>3856</v>
+        <v>3857</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="5" t="s">
-        <v>3868</v>
+        <v>3869</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>3844</v>
+        <v>3845</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>3858</v>
+        <v>3859</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3" t="s">
-        <v>3859</v>
+        <v>3860</v>
       </c>
       <c r="O84" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P84" s="3"/>
       <c r="Q84" s="3" t="s">
-        <v>3860</v>
+        <v>3861</v>
       </c>
       <c r="R84" s="3"/>
       <c r="S84" s="3" t="s">
-        <v>3873</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="85" ht="14.25">
       <c r="A85" s="5" t="s">
-        <v>3874</v>
+        <v>3875</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>3875</v>
+        <v>3876</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>3856</v>
+        <v>3857</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="5" t="s">
-        <v>3868</v>
+        <v>3869</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>3844</v>
+        <v>3845</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>3858</v>
+        <v>3859</v>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3" t="s">
-        <v>3859</v>
+        <v>3860</v>
       </c>
       <c r="O85" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P85" s="3"/>
       <c r="Q85" s="3" t="s">
-        <v>3860</v>
+        <v>3861</v>
       </c>
       <c r="R85" s="3"/>
       <c r="S85" s="3" t="s">
-        <v>3873</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="86" ht="14.25">
       <c r="A86" s="5" t="s">
-        <v>3876</v>
+        <v>3877</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>3877</v>
+        <v>3878</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>3878</v>
+        <v>3879</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>3879</v>
+        <v>3880</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>3880</v>
+        <v>3881</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>3881</v>
+        <v>3882</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>3882</v>
+        <v>3883</v>
       </c>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3" t="s">
-        <v>3883</v>
+        <v>3884</v>
       </c>
       <c r="O86" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P86" s="3"/>
       <c r="Q86" s="3" t="s">
-        <v>3884</v>
+        <v>3885</v>
       </c>
       <c r="R86" s="3"/>
       <c r="S86" s="3" t="s">
-        <v>3885</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="87" ht="14.25">
       <c r="A87" s="5" t="s">
-        <v>3886</v>
+        <v>3887</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>3887</v>
+        <v>3888</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>3890</v>
+        <v>3891</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>3892</v>
+        <v>3893</v>
       </c>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
@@ -55254,40 +55255,40 @@
       </c>
       <c r="P87" s="3"/>
       <c r="Q87" s="3" t="s">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="R87" s="3"/>
       <c r="S87" s="3" t="s">
-        <v>3894</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="88" ht="14.25">
       <c r="A88" s="5" t="s">
-        <v>3895</v>
+        <v>3896</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>3896</v>
+        <v>3897</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>3890</v>
+        <v>3891</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>3892</v>
+        <v>3893</v>
       </c>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
@@ -55301,40 +55302,40 @@
       </c>
       <c r="P88" s="3"/>
       <c r="Q88" s="3" t="s">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="R88" s="3"/>
       <c r="S88" s="3" t="s">
-        <v>3894</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="89" ht="14.25">
       <c r="A89" s="5" t="s">
-        <v>3897</v>
+        <v>3898</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>3898</v>
+        <v>3899</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>3890</v>
+        <v>3891</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>3892</v>
+        <v>3893</v>
       </c>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
@@ -55348,40 +55349,40 @@
       </c>
       <c r="P89" s="3"/>
       <c r="Q89" s="3" t="s">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="R89" s="3"/>
       <c r="S89" s="3" t="s">
-        <v>3894</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="90" ht="14.25">
       <c r="A90" s="5" t="s">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>3900</v>
+        <v>3901</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>3890</v>
+        <v>3891</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>3892</v>
+        <v>3893</v>
       </c>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
@@ -55395,40 +55396,40 @@
       </c>
       <c r="P90" s="3"/>
       <c r="Q90" s="3" t="s">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="R90" s="3"/>
       <c r="S90" s="3" t="s">
-        <v>3894</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="91" ht="14.25">
       <c r="A91" s="5" t="s">
-        <v>3901</v>
+        <v>3902</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>3902</v>
+        <v>3903</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>3890</v>
+        <v>3891</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>3892</v>
+        <v>3893</v>
       </c>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
@@ -55442,40 +55443,40 @@
       </c>
       <c r="P91" s="3"/>
       <c r="Q91" s="3" t="s">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="R91" s="3"/>
       <c r="S91" s="3" t="s">
-        <v>3894</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="92" ht="14.25">
       <c r="A92" s="5" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>3904</v>
+        <v>3905</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>3890</v>
+        <v>3891</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>3892</v>
+        <v>3893</v>
       </c>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
@@ -55489,40 +55490,40 @@
       </c>
       <c r="P92" s="3"/>
       <c r="Q92" s="3" t="s">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="R92" s="3"/>
       <c r="S92" s="3" t="s">
-        <v>3894</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="93" ht="14.25">
       <c r="A93" s="5" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>3906</v>
+        <v>3907</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>3890</v>
+        <v>3891</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>3892</v>
+        <v>3893</v>
       </c>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
@@ -55536,40 +55537,40 @@
       </c>
       <c r="P93" s="3"/>
       <c r="Q93" s="3" t="s">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="R93" s="3"/>
       <c r="S93" s="3" t="s">
-        <v>3894</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="94" ht="14.25">
       <c r="A94" s="5" t="s">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>3890</v>
+        <v>3891</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>3892</v>
+        <v>3893</v>
       </c>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
@@ -55583,40 +55584,40 @@
       </c>
       <c r="P94" s="3"/>
       <c r="Q94" s="3" t="s">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="R94" s="3"/>
       <c r="S94" s="3" t="s">
-        <v>3894</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="95" ht="14.25">
       <c r="A95" s="5" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>3910</v>
+        <v>3911</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>3890</v>
+        <v>3891</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>3892</v>
+        <v>3893</v>
       </c>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
@@ -55630,40 +55631,40 @@
       </c>
       <c r="P95" s="3"/>
       <c r="Q95" s="3" t="s">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="R95" s="3"/>
       <c r="S95" s="3" t="s">
-        <v>3894</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="96" ht="14.25">
       <c r="A96" s="5" t="s">
-        <v>3911</v>
+        <v>3912</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>3912</v>
+        <v>3913</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>3890</v>
+        <v>3891</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>3892</v>
+        <v>3893</v>
       </c>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
@@ -55677,40 +55678,40 @@
       </c>
       <c r="P96" s="3"/>
       <c r="Q96" s="3" t="s">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="R96" s="3"/>
       <c r="S96" s="3" t="s">
-        <v>3894</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="97" ht="14.25">
       <c r="A97" s="5" t="s">
-        <v>3913</v>
+        <v>3914</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>3914</v>
+        <v>3915</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>3890</v>
+        <v>3891</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>3892</v>
+        <v>3893</v>
       </c>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
@@ -55724,40 +55725,40 @@
       </c>
       <c r="P97" s="3"/>
       <c r="Q97" s="3" t="s">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="R97" s="3"/>
       <c r="S97" s="3" t="s">
-        <v>3894</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="98" ht="14.25">
       <c r="A98" s="5" t="s">
-        <v>3915</v>
+        <v>3916</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>3916</v>
+        <v>3917</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>3890</v>
+        <v>3891</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>3892</v>
+        <v>3893</v>
       </c>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
@@ -55771,40 +55772,40 @@
       </c>
       <c r="P98" s="3"/>
       <c r="Q98" s="3" t="s">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="R98" s="3"/>
       <c r="S98" s="3" t="s">
-        <v>3894</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="99" ht="14.25">
       <c r="A99" s="5" t="s">
-        <v>3917</v>
+        <v>3918</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>3918</v>
+        <v>3919</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>3890</v>
+        <v>3891</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>3892</v>
+        <v>3893</v>
       </c>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
@@ -55818,40 +55819,40 @@
       </c>
       <c r="P99" s="3"/>
       <c r="Q99" s="3" t="s">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="R99" s="3"/>
       <c r="S99" s="3" t="s">
-        <v>3894</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="100" ht="14.25">
       <c r="A100" s="5" t="s">
-        <v>3919</v>
+        <v>3920</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>3920</v>
+        <v>3921</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>3890</v>
+        <v>3891</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>3892</v>
+        <v>3893</v>
       </c>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
@@ -55865,40 +55866,40 @@
       </c>
       <c r="P100" s="3"/>
       <c r="Q100" s="3" t="s">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="R100" s="3"/>
       <c r="S100" s="3" t="s">
-        <v>3894</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="101" ht="14.25">
       <c r="A101" s="5" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>3922</v>
+        <v>3923</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>3923</v>
+        <v>3924</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>3924</v>
+        <v>3925</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>3830</v>
+        <v>3831</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>3925</v>
+        <v>3926</v>
       </c>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
@@ -55912,195 +55913,195 @@
       </c>
       <c r="P101" s="3"/>
       <c r="Q101" s="3" t="s">
-        <v>3926</v>
+        <v>3927</v>
       </c>
       <c r="R101" s="3"/>
       <c r="S101" s="3" t="s">
-        <v>3927</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="102" ht="14.25">
       <c r="A102" s="5" t="s">
-        <v>3928</v>
+        <v>3929</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>3929</v>
+        <v>3930</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>3930</v>
+        <v>3931</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="5" t="s">
-        <v>3931</v>
+        <v>3932</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>3932</v>
+        <v>3933</v>
       </c>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
       <c r="N102" s="3" t="s">
-        <v>3933</v>
+        <v>3934</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>1428</v>
       </c>
       <c r="P102" s="3"/>
       <c r="Q102" s="3" t="s">
-        <v>3934</v>
+        <v>3935</v>
       </c>
       <c r="R102" s="3"/>
       <c r="S102" s="3" t="s">
-        <v>3935</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="103" ht="14.25">
       <c r="A103" s="5" t="s">
-        <v>3936</v>
+        <v>3937</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>3937</v>
+        <v>3938</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>3930</v>
+        <v>3931</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="5" t="s">
-        <v>3931</v>
+        <v>3932</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>3932</v>
+        <v>3933</v>
       </c>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
       <c r="N103" s="3" t="s">
-        <v>3859</v>
+        <v>3860</v>
       </c>
       <c r="O103" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P103" s="3"/>
       <c r="Q103" s="3" t="s">
-        <v>3934</v>
+        <v>3935</v>
       </c>
       <c r="R103" s="3"/>
       <c r="S103" s="3" t="s">
-        <v>3935</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="104" ht="14.25">
       <c r="A104" s="5" t="s">
-        <v>3938</v>
+        <v>3939</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>3939</v>
+        <v>3940</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>3930</v>
+        <v>3931</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="5" t="s">
-        <v>3931</v>
+        <v>3932</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>3932</v>
+        <v>3933</v>
       </c>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
       <c r="N104" s="3" t="s">
-        <v>3940</v>
+        <v>3941</v>
       </c>
       <c r="O104" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P104" s="3"/>
       <c r="Q104" s="3" t="s">
-        <v>3934</v>
+        <v>3935</v>
       </c>
       <c r="R104" s="3" t="s">
         <v>29</v>
       </c>
       <c r="S104" s="3" t="s">
-        <v>3935</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="105" ht="14.25">
       <c r="A105" s="5" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>3942</v>
+        <v>3943</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>3930</v>
+        <v>3931</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="5" t="s">
-        <v>3931</v>
+        <v>3932</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>3932</v>
+        <v>3933</v>
       </c>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
       <c r="N105" s="3" t="s">
-        <v>3940</v>
+        <v>3941</v>
       </c>
       <c r="O105" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P105" s="3"/>
       <c r="Q105" s="3" t="s">
-        <v>3934</v>
+        <v>3935</v>
       </c>
       <c r="R105" s="3" t="s">
         <v>29</v>
       </c>
       <c r="S105" s="3" t="s">
-        <v>3935</v>
+        <v>3936</v>
       </c>
     </row>
   </sheetData>
@@ -56122,22 +56123,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3943</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3944</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3945</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" t="s">
-        <v>3943</v>
+        <v>3944</v>
       </c>
     </row>
   </sheetData>
@@ -56189,21 +56190,21 @@
     <row r="6" ht="14.25">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>3946</v>
+        <v>3947</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>3947</v>
+        <v>3948</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="5"/>
       <c r="F6" s="3" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>3949</v>
+        <v>3950</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>3950</v>
+        <v>3951</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -56211,40 +56212,40 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
-        <v>3951</v>
+        <v>3952</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3" t="s">
-        <v>3952</v>
+        <v>3953</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>3953</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>3954</v>
+        <v>3955</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3947</v>
+        <v>3948</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="5"/>
       <c r="F7" s="3" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>3949</v>
+        <v>3950</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>3950</v>
+        <v>3951</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -56252,40 +56253,40 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>3951</v>
+        <v>3952</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3" t="s">
-        <v>3952</v>
+        <v>3953</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>3953</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>3955</v>
+        <v>3956</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3947</v>
+        <v>3948</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="5"/>
       <c r="F8" s="3" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>3949</v>
+        <v>3950</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>3950</v>
+        <v>3951</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -56293,40 +56294,40 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>3951</v>
+        <v>3952</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3" t="s">
-        <v>3952</v>
+        <v>3953</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>3953</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
-        <v>3956</v>
+        <v>3957</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3947</v>
+        <v>3948</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="5"/>
       <c r="F9" s="3" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>3949</v>
+        <v>3950</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>3950</v>
+        <v>3951</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -56334,40 +56335,40 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
-        <v>3951</v>
+        <v>3952</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3" t="s">
-        <v>3952</v>
+        <v>3953</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>3953</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>3957</v>
+        <v>3958</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>3947</v>
+        <v>3948</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="5"/>
       <c r="F10" s="3" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>3949</v>
+        <v>3950</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>3950</v>
+        <v>3951</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -56375,20 +56376,20 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
-        <v>3951</v>
+        <v>3952</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3" t="s">
-        <v>3952</v>
+        <v>3953</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>3953</v>
+        <v>3954</v>
       </c>
     </row>
   </sheetData>

--- a/Selected_Downloads.xlsx
+++ b/Selected_Downloads.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Revistas" sheetId="1" state="visible" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4177" uniqueCount="4177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4152" uniqueCount="4152">
   <si>
     <t>Index</t>
   </si>
@@ -10402,21 +10402,27 @@
     <t xml:space="preserve">O Diabo, Lutero e a Reforma</t>
   </si>
   <si>
-    <t xml:space="preserve">Maçonismo vs Catolicismo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gothic Violence</t>
   </si>
   <si>
+    <t xml:space="preserve">Mika Ma</t>
+  </si>
+  <si>
     <t xml:space="preserve">Internet Far Right</t>
   </si>
   <si>
     <t xml:space="preserve">Harassment Architecture</t>
   </si>
   <si>
+    <t xml:space="preserve">Mike Ma</t>
+  </si>
+  <si>
     <t xml:space="preserve">Day of the Rope</t>
   </si>
   <si>
+    <t xml:space="preserve">Devon Stack</t>
+  </si>
+  <si>
     <t xml:space="preserve">Always the Hoprizon </t>
   </si>
   <si>
@@ -10429,6 +10435,9 @@
     <t>Thomas777</t>
   </si>
   <si>
+    <t xml:space="preserve">Harold Wallace Rosenthal</t>
+  </si>
+  <si>
     <t>bub_gb_6d0_7XDSscgC</t>
   </si>
   <si>
@@ -11548,9 +11557,6 @@
     <t xml:space="preserve"> Richard Glazier</t>
   </si>
   <si>
-    <t>2901</t>
-  </si>
-  <si>
     <t>gri_33125010793681</t>
   </si>
   <si>
@@ -11578,27 +11584,15 @@
     <t xml:space="preserve">Reissue of the edition of 1684. Cf. Fowler Ports. of Montano (v. 1) and Soria (v. 2) signed by Jérôme David. Plates in v. 2 and v. 5 engraved by David, in v. 4 by David and Camillo Cungi Each vol. has also its own t.p.: libro 1.̊ Architettvra con diversi ornamenti cavati dall'antico ... 1684, 1691. 42 leaves of plates -- libro 2.̊ Scielta d. varii tempietti antichi ... date in luce per Gio. Batt̃a Soria ... [n.d.] [2], 48 leaves of plates -- libro 3.̊ Raccolta de tempii e sepolcri disegnati dall'antico ... [n.d.] XXXXVIIII leaves of plates -- libro 4.̊ Diversi ornamenti capricciosi per deposito o altari ... dati in luce da Giovanbatista Soria ... 1684. 40 leaves of plates -- libro 5.̊ Tabernacoli diversi ... dati in luce da Giovanbatista Soria ... 1684. 25 leaves of plates Plates 41 and 42 of v. 1 also numbered 4 and 2 1 ̊libro. Si contengono li cinque ordini con le loro regole et ornamenti cauati dall' antico -- 2 ̊libro. Li tempij antichi di Roma con le loro piãte, alsate, e spacchate -- 3 ̊libro. Li tempij, e sepolcri antichi con le loro piante, alzate, e spacchate -- 4 ̊libro. Comprendono uarie inventioni di altari e depositi moderni -- 5 ̊libro. Diuersi disegni di tabernacoli moderni Fowler Borroni Salvadori, F. Il Cicognara Library's copy 1, 5 v. in 4. Plate 39 of v. 4 bound into v. 5 between leaves 1 and 2. Library's copy 2 bound in 1 v., 42 cm., with binder's title (spine): Montani studio di architet[t]ur[a]</t>
   </si>
   <si>
-    <t>2902</t>
-  </si>
-  <si>
     <t>gri_33125010793749</t>
   </si>
   <si>
-    <t>2903</t>
-  </si>
-  <si>
     <t>gri_33125010793806</t>
   </si>
   <si>
-    <t>2904</t>
-  </si>
-  <si>
     <t>gri_33125010793863</t>
   </si>
   <si>
-    <t>2815</t>
-  </si>
-  <si>
     <t>gri_33125008700045</t>
   </si>
   <si>
@@ -11620,9 +11614,6 @@
     <t xml:space="preserve">3 v. : 48 cm "Pte. II, Libro I": Stvdio ... sopra uarj ornamenti de cappelle, e diuersi sepolcri, tratti da più chiese di Roma. Pte. III: Stvdio ... sopra varie chiese, cappelle di Roma, e palazzo di Caprarola, et altre fabriche Vol. 1 contains 143 leaves [i.e. 3 leaves, 140 leaves of plates]; v. 2: 62 leaves of plates [i.e. 1 leaf, 61 leaves of plates (3 folded)]; v. 3: 83 leaves of plates [i.e. 1 leaf, 80 leaves of plates (20 folded, l comprising 3 plate nos., 80-82)] In v. 1, D. de Rossi singles out Alessandro Specchi as the principal contributor of measurements, drawing and engraving. In that vol. and successive vols. plates are attributed to C. Quadri (drawing) and A. Barbey and F. Bartoli (engraving) (54); v. 2, unsigned but Specchi and F. Aquila are mentioned on the t.p.; v. 3, of those signed (24), G. Valvassori and F. Vasconi provided 16 Includes index to v. 1 "Pte. II, Libro I": Stvdio ... sopra uarj ornamenti de cappelle, e diuersi sepolcri, tratti da più chiese di Roma. Pte. III: Stvdio ... sopra varie chiese, cappelle di Roma, e palazzo di Caprarola, et altre fabriche</t>
   </si>
   <si>
-    <t>2817</t>
-  </si>
-  <si>
     <t>gri_33125008700102</t>
   </si>
   <si>
@@ -11632,9 +11623,6 @@
     <t xml:space="preserve">3 v. : 48 cm "Pte. II, Libro I": Stvdio ... sopra uarj ornamenti de cappelle, e diuersi sepolcri, tratti da più chiese di Roma. Pte. III: Stvdio ... sopra varie chiese, cappelle di Roma, e palazzo di Caprarola, et altre fabriche Vol. 1 contains 143 leaves [i.e. 3 leaves, 140 leaves of plates]; v. 2: 62 leaves of plates [i.e. 1 leaf, 61 leaves of plates (3 folded)]; v. 3: 83 leaves of plates [i.e. 1 leaf, 80 leaves of plates (20 folded, l comprising 3 plate nos., 80-82)] In v. 1, D. de Rossi singles out Alessandro Specchi as the principal contributor of measurements, drawing and engraving. In that vol. and successive vols. plates are attributed to C. Quadri (drawing) and A. Barbey and F. Bartoli (engraving) (54); v. 2, unsigned but Specchi and F. Aquila are mentioned on the t.p.; v. 3, of those signed (24), G. Valvassori and F. Vasconi provided 16 Includes index to v. 1</t>
   </si>
   <si>
-    <t>2949</t>
-  </si>
-  <si>
     <t>gri_33125011212012</t>
   </si>
   <si>
@@ -11647,24 +11635,15 @@
     <t xml:space="preserve">3 v. : 48 cm Pte. II: Stvdio ... sopra uarj ornamenti de cappelle, e diuersi sepolcri, tratti da più chiese di Roma. Pte. III: Stvdio ... sopra varie chiese, cappelle di Roma, e palazzo di Caprarola, et altre fabriche Vol. 1 contains 143 leaves [i.e. 3 leaves, 140 leaves of plates]; v. 2: 62 leaves of plates [i.e. 1 leaf, 61 leaves of plates (3 folded)]; v. 3: 83 leaves of plates [i.e. 1 leaf, 80 leaves of plates (20 folded, l comprising 3 plate nos., 80-82)] In v. 1, D. de Rossi singles out Alessandro Specchi as the principal contributor of measurements, drawing and engraving. In that vol. and successive vols. plates are attributed to C. Quadri (drawing) and A. Barbey and F. Bartoli (engraving) (54); v. 2, unsigned but Specchi and F. Aquila are mentioned on the t.p.; v. 3, of those signed (24), G. Valvassori and F. Vasconi provided 16 Includes index to v. 1</t>
   </si>
   <si>
-    <t>2950</t>
-  </si>
-  <si>
     <t>gri_33125011212079</t>
   </si>
   <si>
     <t xml:space="preserve">3 v. : 48 cm Pte. II: Stvdio ... sopra uarj ornamenti de cappelle, e diuersi sepolcri, tratti da più chiese di Roma. Pte. III: Stvdio ... sopra varie chiese, cappelle di Roma, e palazzo di Caprarola, et altre fabriche Vol. 1 contains 143 leaves [i.e. 3 leaves, 140 leaves of plates]; v. 2: 62 leaves of plates [i.e. 1 leaf, 61 leaves of plates (3 folded)]; v. 3: 83 leaves of plates [i.e. 1 leaf, 80 leaves of plates (20 folded, l comprising 3 plate nos., 80-82)] In v. 1, D. de Rossi singles out Alessandro Specchi as the principal contributor of measurements, drawing and engraving. In that vol. and successive vols. plates are attributed to C. Quadri (drawing) and A. Barbey and F. Bartoli (engraving) (54); v. 2, unsigned but Specchi and F. Aquila are mentioned on the t.p.; v. 3, of those signed (24), G. Valvassori and F. Vasconi provided 16 Includes index to v. 1</t>
   </si>
   <si>
-    <t>2951</t>
-  </si>
-  <si>
     <t>gri_33125011212087</t>
   </si>
   <si>
-    <t>2929</t>
-  </si>
-  <si>
     <t>gri_33125011099369</t>
   </si>
   <si>
@@ -11692,9 +11671,6 @@
     <t xml:space="preserve">[4] p., [34] leaves of plates (6 folded) : 41 cm. (fol.) Engravings by Jean Conrad Reiff</t>
   </si>
   <si>
-    <t>2985</t>
-  </si>
-  <si>
     <t>gri_33125012603508</t>
   </si>
   <si>
@@ -11719,87 +11695,45 @@
     <t xml:space="preserve">14 v. (700 leaves of plates) : 33 cm Vol. 14 has imprint: Immer Impr</t>
   </si>
   <si>
-    <t>2986</t>
-  </si>
-  <si>
     <t>gri_33125012603516</t>
   </si>
   <si>
-    <t>2987</t>
-  </si>
-  <si>
     <t>gri_33125012603565</t>
   </si>
   <si>
-    <t>2988</t>
-  </si>
-  <si>
     <t>gri_33125012603573</t>
   </si>
   <si>
-    <t>2989</t>
-  </si>
-  <si>
     <t>gri_33125012603631</t>
   </si>
   <si>
-    <t>2990</t>
-  </si>
-  <si>
     <t>gri_33125012603698</t>
   </si>
   <si>
-    <t>2991</t>
-  </si>
-  <si>
     <t>gri_33125012603755</t>
   </si>
   <si>
-    <t>2992</t>
-  </si>
-  <si>
     <t>gri_33125012603813</t>
   </si>
   <si>
-    <t>2993</t>
-  </si>
-  <si>
     <t>gri_33125012603870</t>
   </si>
   <si>
-    <t>2994</t>
-  </si>
-  <si>
     <t>gri_33125012603938</t>
   </si>
   <si>
-    <t>2995</t>
-  </si>
-  <si>
     <t>gri_33125012603995</t>
   </si>
   <si>
-    <t>2996</t>
-  </si>
-  <si>
     <t>gri_33125012604050</t>
   </si>
   <si>
-    <t>2997</t>
-  </si>
-  <si>
     <t>gri_33125012604118</t>
   </si>
   <si>
-    <t>2998</t>
-  </si>
-  <si>
     <t>gri_33125012604175</t>
   </si>
   <si>
-    <t>2734</t>
-  </si>
-  <si>
     <t>gri_33125007531623</t>
   </si>
   <si>
@@ -11818,15 +11752,15 @@
     <t xml:space="preserve">60 p. : 40 cm In portfolio</t>
   </si>
   <si>
-    <t>2818</t>
-  </si>
-  <si>
     <t>gri_33125008701613</t>
   </si>
   <si>
     <t xml:space="preserve">Livres à dentelles</t>
   </si>
   <si>
+    <t xml:space="preserve">Emmanuel Bocher</t>
+  </si>
+  <si>
     <t>1887</t>
   </si>
   <si>
@@ -11842,22 +11776,13 @@
     <t xml:space="preserve">4 v. : 37 cm Cover title Issued unbound in portfolios Includes a facsimile reproduction of G. Ostaus's La vera perfettione del disegno, published in Venice by F. de Franceschi in 1591 (v. 1-2) and Domenico de Sera's Livre de lingerie, published in Paris by Marnef, 1583 (v.3-4)</t>
   </si>
   <si>
-    <t>2819</t>
-  </si>
-  <si>
     <t>gri_33125008701662</t>
   </si>
   <si>
-    <t>2820</t>
-  </si>
-  <si>
     <t>gri_33125008701738</t>
   </si>
   <si>
     <t>fr</t>
-  </si>
-  <si>
-    <t>2821</t>
   </si>
   <si>
     <t>gri_33125008702066</t>
@@ -12681,11 +12606,10 @@
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -44763,7 +44687,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>3959</v>
+        <v>3934</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>6</v>
@@ -44776,10 +44700,10 @@
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
-        <v>3960</v>
+        <v>3935</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>3961</v>
+        <v>3936</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11" t="s">
@@ -44793,10 +44717,10 @@
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17" t="s">
-        <v>3962</v>
+        <v>3937</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>3963</v>
+        <v>3938</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="18" t="s">
@@ -44810,10 +44734,10 @@
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="17" t="s">
-        <v>3964</v>
+        <v>3939</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>3965</v>
+        <v>3940</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="18" t="s">
@@ -44827,10 +44751,10 @@
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="17" t="s">
-        <v>3966</v>
+        <v>3941</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>3967</v>
+        <v>3942</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
@@ -44844,10 +44768,10 @@
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17" t="s">
-        <v>3968</v>
+        <v>3943</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>3969</v>
+        <v>3944</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="17" t="s">
@@ -44861,10 +44785,10 @@
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17" t="s">
-        <v>3970</v>
+        <v>3945</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>3971</v>
+        <v>3946</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="17" t="s">
@@ -44878,10 +44802,10 @@
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17" t="s">
-        <v>3972</v>
+        <v>3947</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>3971</v>
+        <v>3946</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="17" t="s">
@@ -44895,10 +44819,10 @@
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17" t="s">
-        <v>3973</v>
+        <v>3948</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>3974</v>
+        <v>3949</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="17" t="s">
@@ -44912,10 +44836,10 @@
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="19" t="s">
-        <v>3975</v>
+        <v>3950</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>3976</v>
+        <v>3951</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="17" t="s">
@@ -44946,10 +44870,10 @@
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="20" t="s">
-        <v>3977</v>
+        <v>3952</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>3978</v>
+        <v>3953</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="17" t="s">
@@ -44963,10 +44887,10 @@
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="17" t="s">
-        <v>3979</v>
+        <v>3954</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>3980</v>
+        <v>3955</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="17" t="s">
@@ -44980,14 +44904,14 @@
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
-        <v>3981</v>
+        <v>3956</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>3982</v>
+        <v>3957</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="17" t="s">
-        <v>3983</v>
+        <v>3958</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="11"/>
@@ -44997,14 +44921,14 @@
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11" t="s">
-        <v>3984</v>
+        <v>3959</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>3985</v>
+        <v>3960</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="17" t="s">
-        <v>3983</v>
+        <v>3958</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="11"/>
@@ -45014,14 +44938,14 @@
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11" t="s">
-        <v>3986</v>
+        <v>3961</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>3987</v>
+        <v>3962</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="17" t="s">
-        <v>3983</v>
+        <v>3958</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="11"/>
@@ -45031,14 +44955,14 @@
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
-        <v>3988</v>
+        <v>3963</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>3989</v>
+        <v>3964</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="17" t="s">
-        <v>3983</v>
+        <v>3958</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="11"/>
@@ -45048,14 +44972,14 @@
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>3990</v>
+        <v>3965</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>3991</v>
+        <v>3966</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="17" t="s">
-        <v>3983</v>
+        <v>3958</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="11"/>
@@ -45065,14 +44989,14 @@
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
-        <v>3992</v>
+        <v>3967</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>3993</v>
+        <v>3968</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11" t="s">
-        <v>3983</v>
+        <v>3958</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="11"/>
@@ -45082,14 +45006,14 @@
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11" t="s">
-        <v>3994</v>
+        <v>3969</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>3995</v>
+        <v>3970</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="17" t="s">
-        <v>3983</v>
+        <v>3958</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="11"/>
@@ -45099,14 +45023,14 @@
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="18" t="s">
-        <v>3996</v>
+        <v>3971</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>3997</v>
+        <v>3972</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="17" t="s">
-        <v>3983</v>
+        <v>3958</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="11"/>
@@ -45116,14 +45040,14 @@
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
-        <v>3998</v>
+        <v>3973</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>3999</v>
+        <v>3974</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="17" t="s">
-        <v>3983</v>
+        <v>3958</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="11"/>
@@ -45133,14 +45057,14 @@
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11" t="s">
-        <v>4000</v>
+        <v>3975</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>4001</v>
+        <v>3976</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="17" t="s">
-        <v>3983</v>
+        <v>3958</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="11"/>
@@ -45150,14 +45074,14 @@
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11" t="s">
-        <v>4002</v>
+        <v>3977</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>4003</v>
+        <v>3978</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11" t="s">
-        <v>4004</v>
+        <v>3979</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="11"/>
@@ -45167,14 +45091,14 @@
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11" t="s">
-        <v>4005</v>
+        <v>3980</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>4006</v>
+        <v>3981</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11" t="s">
-        <v>4004</v>
+        <v>3979</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="11"/>
@@ -45184,14 +45108,14 @@
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11" t="s">
-        <v>4007</v>
+        <v>3982</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>4008</v>
+        <v>3983</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="11" t="s">
-        <v>4004</v>
+        <v>3979</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="11"/>
@@ -45201,14 +45125,14 @@
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11" t="s">
-        <v>4009</v>
+        <v>3984</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>4010</v>
+        <v>3985</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11" t="s">
-        <v>4011</v>
+        <v>3986</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="11"/>
@@ -45218,14 +45142,14 @@
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="19" t="s">
-        <v>4012</v>
+        <v>3987</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>4013</v>
+        <v>3988</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="19" t="s">
-        <v>4004</v>
+        <v>3979</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="11"/>
@@ -45235,14 +45159,14 @@
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="19" t="s">
-        <v>4014</v>
+        <v>3989</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>4015</v>
+        <v>3990</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="19" t="s">
-        <v>4004</v>
+        <v>3979</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="11"/>
@@ -45252,14 +45176,14 @@
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="19" t="s">
-        <v>4016</v>
+        <v>3991</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>4017</v>
+        <v>3992</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="19" t="s">
-        <v>4004</v>
+        <v>3979</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="11"/>
@@ -45269,14 +45193,14 @@
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11" t="s">
-        <v>4018</v>
+        <v>3993</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>4019</v>
+        <v>3994</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="11" t="s">
-        <v>4020</v>
+        <v>3995</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="11"/>
@@ -45286,14 +45210,14 @@
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11" t="s">
-        <v>4021</v>
+        <v>3996</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>4022</v>
+        <v>3997</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
-        <v>4020</v>
+        <v>3995</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="11"/>
@@ -45303,14 +45227,14 @@
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11" t="s">
-        <v>4023</v>
+        <v>3998</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>4022</v>
+        <v>3997</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11" t="s">
-        <v>4020</v>
+        <v>3995</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="11"/>
@@ -45320,14 +45244,14 @@
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11" t="s">
-        <v>4024</v>
+        <v>3999</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>4025</v>
+        <v>4000</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11" t="s">
-        <v>4020</v>
+        <v>3995</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="11"/>
@@ -45337,14 +45261,14 @@
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11" t="s">
-        <v>4026</v>
+        <v>4001</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>4027</v>
+        <v>4002</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="11" t="s">
-        <v>4020</v>
+        <v>3995</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="11"/>
@@ -45354,14 +45278,14 @@
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="19" t="s">
-        <v>4028</v>
+        <v>4003</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>4029</v>
+        <v>4004</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11" t="s">
-        <v>4030</v>
+        <v>4005</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="11"/>
@@ -45371,14 +45295,14 @@
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="19" t="s">
-        <v>4031</v>
+        <v>4006</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>4032</v>
+        <v>4007</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11" t="s">
-        <v>4030</v>
+        <v>4005</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="11"/>
@@ -45388,14 +45312,14 @@
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="19" t="s">
-        <v>4033</v>
+        <v>4008</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>4034</v>
+        <v>4009</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="s">
-        <v>4030</v>
+        <v>4005</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="11"/>
@@ -45405,14 +45329,14 @@
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="19" t="s">
-        <v>4035</v>
+        <v>4010</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>4036</v>
+        <v>4011</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11" t="s">
-        <v>4030</v>
+        <v>4005</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="11"/>
@@ -45422,14 +45346,14 @@
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="19" t="s">
-        <v>4037</v>
+        <v>4012</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>4038</v>
+        <v>4013</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
-        <v>4030</v>
+        <v>4005</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="11"/>
@@ -45439,14 +45363,14 @@
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="19" t="s">
-        <v>4039</v>
+        <v>4014</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>4040</v>
+        <v>4015</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11" t="s">
-        <v>4030</v>
+        <v>4005</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" s="11"/>
@@ -45456,14 +45380,14 @@
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="19" t="s">
-        <v>4041</v>
+        <v>4016</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>4042</v>
+        <v>4017</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11" t="s">
-        <v>4030</v>
+        <v>4005</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="11"/>
@@ -45473,14 +45397,14 @@
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="19" t="s">
-        <v>4043</v>
+        <v>4018</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>4044</v>
+        <v>4019</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11" t="s">
-        <v>4030</v>
+        <v>4005</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="11"/>
@@ -45490,14 +45414,14 @@
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="19" t="s">
-        <v>4045</v>
+        <v>4020</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>4042</v>
+        <v>4017</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="11" t="s">
-        <v>4030</v>
+        <v>4005</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="11"/>
@@ -45507,14 +45431,14 @@
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="19" t="s">
-        <v>4046</v>
+        <v>4021</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>4047</v>
+        <v>4022</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11" t="s">
-        <v>4030</v>
+        <v>4005</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="11"/>
@@ -45524,14 +45448,14 @@
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="19" t="s">
-        <v>4048</v>
+        <v>4023</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>4049</v>
+        <v>4024</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11" t="s">
-        <v>4030</v>
+        <v>4005</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="11"/>
@@ -45541,14 +45465,14 @@
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="19" t="s">
-        <v>4050</v>
+        <v>4025</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>4051</v>
+        <v>4026</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11" t="s">
-        <v>4030</v>
+        <v>4005</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="11"/>
@@ -45558,14 +45482,14 @@
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="19" t="s">
-        <v>4052</v>
+        <v>4027</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>4053</v>
+        <v>4028</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11" t="s">
-        <v>4030</v>
+        <v>4005</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="11"/>
@@ -45575,14 +45499,14 @@
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="19" t="s">
-        <v>4054</v>
+        <v>4029</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>4055</v>
+        <v>4030</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11" t="s">
-        <v>4030</v>
+        <v>4005</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="11"/>
@@ -45592,14 +45516,14 @@
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11" t="s">
-        <v>4056</v>
+        <v>4031</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>4057</v>
+        <v>4032</v>
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="11" t="s">
-        <v>4058</v>
+        <v>4033</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="11"/>
@@ -45609,14 +45533,14 @@
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="17" t="s">
-        <v>4059</v>
+        <v>4034</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>4060</v>
+        <v>4035</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17" t="s">
-        <v>4058</v>
+        <v>4033</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="11"/>
@@ -45626,14 +45550,14 @@
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11" t="s">
-        <v>4061</v>
+        <v>4036</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>4062</v>
+        <v>4037</v>
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="11" t="s">
-        <v>4063</v>
+        <v>4038</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="11"/>
@@ -45643,14 +45567,14 @@
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11" t="s">
-        <v>4064</v>
+        <v>4039</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>4065</v>
+        <v>4040</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="17" t="s">
-        <v>4063</v>
+        <v>4038</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="11"/>
@@ -45660,14 +45584,14 @@
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11" t="s">
-        <v>4066</v>
+        <v>4041</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>4067</v>
+        <v>4042</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="17" t="s">
-        <v>4063</v>
+        <v>4038</v>
       </c>
       <c r="G54" s="14"/>
       <c r="H54" s="11"/>
@@ -45677,14 +45601,14 @@
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11" t="s">
-        <v>4068</v>
+        <v>4043</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>4069</v>
+        <v>4044</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="17" t="s">
-        <v>4063</v>
+        <v>4038</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="11"/>
@@ -45694,14 +45618,14 @@
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11" t="s">
-        <v>4070</v>
+        <v>4045</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>4071</v>
+        <v>4046</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="17" t="s">
-        <v>4063</v>
+        <v>4038</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="11"/>
@@ -45711,14 +45635,14 @@
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11" t="s">
-        <v>4072</v>
+        <v>4047</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>4073</v>
+        <v>4048</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="21" t="s">
-        <v>4074</v>
+        <v>4049</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="11"/>
@@ -45728,14 +45652,14 @@
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11" t="s">
-        <v>4075</v>
+        <v>4050</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>4076</v>
+        <v>4051</v>
       </c>
       <c r="E58" s="11"/>
       <c r="F58" s="21" t="s">
-        <v>4074</v>
+        <v>4049</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="11"/>
@@ -45745,14 +45669,14 @@
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11" t="s">
-        <v>4077</v>
+        <v>4052</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>4078</v>
+        <v>4053</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="21" t="s">
-        <v>4074</v>
+        <v>4049</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="11"/>
@@ -45762,14 +45686,14 @@
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11" t="s">
-        <v>4079</v>
+        <v>4054</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>4080</v>
+        <v>4055</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="21" t="s">
-        <v>4074</v>
+        <v>4049</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="11"/>
@@ -45779,14 +45703,14 @@
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11" t="s">
-        <v>4081</v>
+        <v>4056</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>4082</v>
+        <v>4057</v>
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="21" t="s">
-        <v>4074</v>
+        <v>4049</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="11"/>
@@ -45796,14 +45720,14 @@
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11" t="s">
-        <v>4083</v>
+        <v>4058</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>4084</v>
+        <v>4059</v>
       </c>
       <c r="E62" s="11"/>
       <c r="F62" s="21" t="s">
-        <v>4074</v>
+        <v>4049</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="11"/>
@@ -45813,14 +45737,14 @@
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11" t="s">
-        <v>4085</v>
+        <v>4060</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>4086</v>
+        <v>4061</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="21" t="s">
-        <v>4074</v>
+        <v>4049</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="11"/>
@@ -45830,14 +45754,14 @@
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11" t="s">
-        <v>4087</v>
+        <v>4062</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>4088</v>
+        <v>4063</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="21" t="s">
-        <v>4074</v>
+        <v>4049</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="11"/>
@@ -45847,14 +45771,14 @@
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11" t="s">
-        <v>4089</v>
+        <v>4064</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>4090</v>
+        <v>4065</v>
       </c>
       <c r="E65" s="11"/>
       <c r="F65" s="21" t="s">
-        <v>4074</v>
+        <v>4049</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="11"/>
@@ -45864,14 +45788,14 @@
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11" t="s">
-        <v>4091</v>
+        <v>4066</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>4092</v>
+        <v>4067</v>
       </c>
       <c r="E66" s="11"/>
       <c r="F66" s="11" t="s">
-        <v>4093</v>
+        <v>4068</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="11"/>
@@ -45881,14 +45805,14 @@
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11" t="s">
-        <v>4093</v>
+        <v>4068</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>4094</v>
+        <v>4069</v>
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="11" t="s">
-        <v>4093</v>
+        <v>4068</v>
       </c>
       <c r="G67" s="14"/>
       <c r="H67" s="11"/>
@@ -45898,14 +45822,14 @@
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11" t="s">
-        <v>4095</v>
+        <v>4070</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>4096</v>
+        <v>4071</v>
       </c>
       <c r="E68" s="11"/>
       <c r="F68" s="11" t="s">
-        <v>4093</v>
+        <v>4068</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" s="11"/>
@@ -45915,14 +45839,14 @@
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11" t="s">
-        <v>4097</v>
+        <v>4072</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>4098</v>
+        <v>4073</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="11" t="s">
-        <v>4093</v>
+        <v>4068</v>
       </c>
       <c r="G69" s="14"/>
       <c r="H69" s="11"/>
@@ -45932,14 +45856,14 @@
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11" t="s">
-        <v>4099</v>
+        <v>4074</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>4098</v>
+        <v>4073</v>
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="11" t="s">
-        <v>4093</v>
+        <v>4068</v>
       </c>
       <c r="G70" s="14"/>
       <c r="H70" s="11"/>
@@ -45949,14 +45873,14 @@
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11" t="s">
-        <v>4100</v>
+        <v>4075</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>4098</v>
+        <v>4073</v>
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="11" t="s">
-        <v>4093</v>
+        <v>4068</v>
       </c>
       <c r="G71" s="14"/>
       <c r="H71" s="11"/>
@@ -45966,14 +45890,14 @@
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11" t="s">
-        <v>4101</v>
+        <v>4076</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>4098</v>
+        <v>4073</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="11" t="s">
-        <v>4093</v>
+        <v>4068</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="11"/>
@@ -45983,14 +45907,14 @@
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11" t="s">
-        <v>4102</v>
+        <v>4077</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>4103</v>
+        <v>4078</v>
       </c>
       <c r="E73" s="11"/>
       <c r="F73" s="11" t="s">
-        <v>4093</v>
+        <v>4068</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="11"/>
@@ -46000,14 +45924,14 @@
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11" t="s">
-        <v>4104</v>
+        <v>4079</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>4103</v>
+        <v>4078</v>
       </c>
       <c r="E74" s="11"/>
       <c r="F74" s="11" t="s">
-        <v>4093</v>
+        <v>4068</v>
       </c>
       <c r="G74" s="14"/>
       <c r="H74" s="11"/>
@@ -46017,14 +45941,14 @@
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11" t="s">
-        <v>4105</v>
+        <v>4080</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>4106</v>
+        <v>4081</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="11" t="s">
-        <v>4093</v>
+        <v>4068</v>
       </c>
       <c r="G75" s="14"/>
       <c r="H75" s="11"/>
@@ -46034,14 +45958,14 @@
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11" t="s">
-        <v>4107</v>
+        <v>4082</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>4108</v>
+        <v>4083</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="11" t="s">
-        <v>4093</v>
+        <v>4068</v>
       </c>
       <c r="G76" s="14"/>
       <c r="H76" s="11"/>
@@ -46051,14 +45975,14 @@
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11" t="s">
-        <v>4109</v>
+        <v>4084</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>4110</v>
+        <v>4085</v>
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="11" t="s">
-        <v>4093</v>
+        <v>4068</v>
       </c>
       <c r="G77" s="14"/>
       <c r="H77" s="11"/>
@@ -46068,14 +45992,14 @@
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11" t="s">
-        <v>4111</v>
+        <v>4086</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>4110</v>
+        <v>4085</v>
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="11" t="s">
-        <v>4093</v>
+        <v>4068</v>
       </c>
       <c r="G78" s="14"/>
       <c r="H78" s="11"/>
@@ -46085,14 +46009,14 @@
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11" t="s">
-        <v>4112</v>
+        <v>4087</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>4110</v>
+        <v>4085</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="11" t="s">
-        <v>4093</v>
+        <v>4068</v>
       </c>
       <c r="G79" s="14"/>
       <c r="H79" s="11"/>
@@ -46102,14 +46026,14 @@
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11" t="s">
-        <v>4113</v>
+        <v>4088</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>4110</v>
+        <v>4085</v>
       </c>
       <c r="E80" s="11"/>
       <c r="F80" s="11" t="s">
-        <v>4093</v>
+        <v>4068</v>
       </c>
       <c r="G80" s="14"/>
       <c r="H80" s="11"/>
@@ -46119,14 +46043,14 @@
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11" t="s">
-        <v>4114</v>
+        <v>4089</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>4110</v>
+        <v>4085</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="11" t="s">
-        <v>4093</v>
+        <v>4068</v>
       </c>
       <c r="G81" s="14"/>
       <c r="H81" s="11"/>
@@ -46136,14 +46060,14 @@
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11" t="s">
-        <v>4115</v>
+        <v>4090</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>4110</v>
+        <v>4085</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="11" t="s">
-        <v>4093</v>
+        <v>4068</v>
       </c>
       <c r="G82" s="14"/>
       <c r="H82" s="11"/>
@@ -46153,14 +46077,14 @@
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11" t="s">
-        <v>4116</v>
+        <v>4091</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>4110</v>
+        <v>4085</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11" t="s">
-        <v>4093</v>
+        <v>4068</v>
       </c>
       <c r="G83" s="14"/>
       <c r="H83" s="11"/>
@@ -46170,14 +46094,14 @@
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11" t="s">
-        <v>4117</v>
+        <v>4092</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>4110</v>
+        <v>4085</v>
       </c>
       <c r="E84" s="11"/>
       <c r="F84" s="11" t="s">
-        <v>4093</v>
+        <v>4068</v>
       </c>
       <c r="G84" s="14"/>
       <c r="H84" s="11"/>
@@ -46187,14 +46111,14 @@
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11" t="s">
-        <v>4118</v>
+        <v>4093</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>4110</v>
+        <v>4085</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="11" t="s">
-        <v>4093</v>
+        <v>4068</v>
       </c>
       <c r="G85" s="14"/>
       <c r="H85" s="11"/>
@@ -46204,14 +46128,14 @@
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11" t="s">
-        <v>4119</v>
+        <v>4094</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>4120</v>
+        <v>4095</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11" t="s">
-        <v>4121</v>
+        <v>4096</v>
       </c>
       <c r="G86" s="14"/>
       <c r="H86" s="11"/>
@@ -46221,14 +46145,14 @@
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11" t="s">
-        <v>4122</v>
+        <v>4097</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>4123</v>
+        <v>4098</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="11" t="s">
-        <v>4121</v>
+        <v>4096</v>
       </c>
       <c r="G87" s="14"/>
       <c r="H87" s="11"/>
@@ -46238,14 +46162,14 @@
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11" t="s">
-        <v>4124</v>
+        <v>4099</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>4125</v>
+        <v>4100</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11" t="s">
-        <v>4121</v>
+        <v>4096</v>
       </c>
       <c r="G88" s="14"/>
       <c r="H88" s="11"/>
@@ -46255,14 +46179,14 @@
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11" t="s">
-        <v>4126</v>
+        <v>4101</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>4127</v>
+        <v>4102</v>
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="11" t="s">
-        <v>4128</v>
+        <v>4103</v>
       </c>
       <c r="G89" s="14"/>
       <c r="H89" s="11"/>
@@ -46272,14 +46196,14 @@
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11" t="s">
-        <v>4129</v>
+        <v>4104</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>4127</v>
+        <v>4102</v>
       </c>
       <c r="E90" s="11"/>
       <c r="F90" s="11" t="s">
-        <v>4128</v>
+        <v>4103</v>
       </c>
       <c r="G90" s="14"/>
       <c r="H90" s="11"/>
@@ -46289,14 +46213,14 @@
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11" t="s">
-        <v>4130</v>
+        <v>4105</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>4127</v>
+        <v>4102</v>
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="11" t="s">
-        <v>4128</v>
+        <v>4103</v>
       </c>
       <c r="G91" s="14"/>
       <c r="H91" s="11"/>
@@ -46306,14 +46230,14 @@
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11" t="s">
-        <v>4131</v>
+        <v>4106</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>4127</v>
+        <v>4102</v>
       </c>
       <c r="E92" s="11"/>
       <c r="F92" s="11" t="s">
-        <v>4128</v>
+        <v>4103</v>
       </c>
       <c r="G92" s="14"/>
       <c r="H92" s="11"/>
@@ -46323,14 +46247,14 @@
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11" t="s">
-        <v>4132</v>
+        <v>4107</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>4127</v>
+        <v>4102</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="11" t="s">
-        <v>4128</v>
+        <v>4103</v>
       </c>
       <c r="G93" s="14"/>
       <c r="H93" s="11"/>
@@ -46340,14 +46264,14 @@
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11" t="s">
-        <v>4133</v>
+        <v>4108</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>4127</v>
+        <v>4102</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="11" t="s">
-        <v>4128</v>
+        <v>4103</v>
       </c>
       <c r="G94" s="14"/>
       <c r="H94" s="11"/>
@@ -46366,115 +46290,115 @@
     </row>
     <row r="97" ht="16.5">
       <c r="C97" s="17" t="s">
-        <v>4134</v>
+        <v>4109</v>
       </c>
       <c r="D97" s="11"/>
       <c r="F97" s="11"/>
     </row>
     <row r="98" ht="16.5">
       <c r="C98" s="17" t="s">
-        <v>4135</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="99" ht="16.5">
       <c r="C99" s="17" t="s">
-        <v>4136</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="100" ht="16.5">
       <c r="C100" s="17" t="s">
-        <v>4137</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="101" ht="16.5">
       <c r="C101" s="17" t="s">
-        <v>4138</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="102" ht="16.5">
       <c r="C102" s="17" t="s">
-        <v>4139</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="103" ht="16.5">
       <c r="C103" s="17" t="s">
-        <v>4140</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="104" ht="16.5">
       <c r="C104" s="17" t="s">
-        <v>4141</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="105" ht="16.5">
       <c r="C105" s="17" t="s">
-        <v>4142</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="106" ht="16.5">
       <c r="C106" s="17" t="s">
-        <v>4143</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="107" ht="16.5">
       <c r="C107" s="17" t="s">
-        <v>4144</v>
+        <v>4119</v>
       </c>
     </row>
     <row r="108" ht="16.5">
       <c r="C108" s="17" t="s">
-        <v>4145</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="109" ht="16.5">
       <c r="C109" s="17" t="s">
-        <v>4146</v>
+        <v>4121</v>
       </c>
     </row>
     <row r="110" ht="16.5">
       <c r="C110" s="17" t="s">
-        <v>4147</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="111" ht="16.5">
       <c r="C111" s="17" t="s">
-        <v>4148</v>
+        <v>4123</v>
       </c>
       <c r="D111" s="11"/>
       <c r="F111" s="11"/>
     </row>
     <row r="112" ht="16.5">
       <c r="C112" s="17" t="s">
-        <v>4149</v>
+        <v>4124</v>
       </c>
       <c r="F112" s="11"/>
     </row>
     <row r="113" ht="16.5">
       <c r="C113" s="17" t="s">
-        <v>4150</v>
+        <v>4125</v>
       </c>
       <c r="F113" s="11"/>
     </row>
     <row r="114" ht="16.5">
       <c r="C114" s="17" t="s">
-        <v>4151</v>
+        <v>4126</v>
       </c>
       <c r="F114" s="11"/>
     </row>
     <row r="115" ht="16.5">
       <c r="C115" s="17" t="s">
-        <v>4152</v>
+        <v>4127</v>
       </c>
     </row>
     <row r="116" ht="16.5">
       <c r="C116" s="20" t="s">
-        <v>4153</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="117" ht="14.25"/>
     <row r="118" ht="16.5">
       <c r="C118" s="17" t="s">
-        <v>4154</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="119" ht="16.5">
@@ -46483,14 +46407,14 @@
     </row>
     <row r="120" ht="16.5">
       <c r="C120" s="17" t="s">
-        <v>4155</v>
+        <v>4130</v>
       </c>
       <c r="D120" s="11"/>
       <c r="F120" s="11"/>
     </row>
     <row r="121" ht="16.5">
       <c r="C121" s="17" t="s">
-        <v>4156</v>
+        <v>4131</v>
       </c>
       <c r="D121" s="11"/>
     </row>
@@ -46500,14 +46424,14 @@
     </row>
     <row r="123" ht="16.5">
       <c r="C123" s="11" t="s">
-        <v>4157</v>
+        <v>4132</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>4158</v>
+        <v>4133</v>
       </c>
       <c r="E123" s="17"/>
       <c r="F123" s="11" t="s">
-        <v>4159</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="124" ht="16.5"/>
@@ -46522,18 +46446,18 @@
     </row>
     <row r="131" ht="16.5">
       <c r="C131" s="11" t="s">
-        <v>4160</v>
+        <v>4135</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>4161</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="132" ht="16.5">
       <c r="C132" s="11" t="s">
-        <v>4162</v>
+        <v>4137</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>4161</v>
+        <v>4136</v>
       </c>
       <c r="F132" s="11"/>
     </row>
@@ -46550,39 +46474,39 @@
     <row r="135" ht="14.25"/>
     <row r="136" ht="16.5">
       <c r="C136" s="11" t="s">
-        <v>4163</v>
+        <v>4138</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>4164</v>
+        <v>4139</v>
       </c>
     </row>
     <row r="137" ht="16.5">
       <c r="C137" s="11" t="s">
-        <v>4165</v>
+        <v>4140</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>4164</v>
+        <v>4139</v>
       </c>
     </row>
     <row r="138" ht="16.5">
       <c r="C138" s="11" t="s">
-        <v>4166</v>
+        <v>4141</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>4164</v>
+        <v>4139</v>
       </c>
     </row>
     <row r="139" ht="16.5">
       <c r="C139" s="11" t="s">
-        <v>4167</v>
+        <v>4142</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>4168</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="140" ht="16.5">
       <c r="C140" s="11" t="s">
-        <v>4169</v>
+        <v>4144</v>
       </c>
       <c r="D140" s="11"/>
       <c r="F140" s="11"/>
@@ -46594,21 +46518,21 @@
     </row>
     <row r="144" ht="16.5">
       <c r="C144" s="22" t="s">
-        <v>4170</v>
+        <v>4145</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>4171</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="146" ht="14.25"/>
     <row r="147" ht="16.5">
       <c r="C147" s="11" t="s">
-        <v>4172</v>
+        <v>4147</v>
       </c>
     </row>
     <row r="148" ht="16.5">
       <c r="C148" s="11" t="s">
-        <v>4173</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="149" ht="14.25"/>
@@ -46626,18 +46550,18 @@
     </row>
     <row r="160" ht="16.5">
       <c r="C160" s="11" t="s">
-        <v>4174</v>
+        <v>4149</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>4175</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="167" ht="16.5">
       <c r="C167" s="11" t="s">
-        <v>4176</v>
+        <v>4151</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>4015</v>
+        <v>3990</v>
       </c>
     </row>
   </sheetData>
@@ -47770,7 +47694,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A103" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -50377,16 +50301,18 @@
         <v>3456</v>
       </c>
     </row>
-    <row r="128" ht="14.25">
-      <c r="C128" t="s">
-        <v>3457</v>
-      </c>
-    </row>
+    <row r="128" ht="14.25"/>
     <row r="129" ht="14.25"/>
     <row r="130" ht="14.25"/>
     <row r="131" ht="14.25">
       <c r="C131" t="s">
+        <v>3457</v>
+      </c>
+      <c r="D131" t="s">
         <v>3458</v>
+      </c>
+      <c r="E131" s="6">
+        <v>2021</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>3459</v>
@@ -50396,13 +50322,25 @@
       <c r="C132" t="s">
         <v>3460</v>
       </c>
+      <c r="D132" t="s">
+        <v>3461</v>
+      </c>
+      <c r="E132" s="6">
+        <v>2019</v>
+      </c>
       <c r="F132" t="s">
         <v>3459</v>
       </c>
     </row>
     <row r="133" ht="14.25">
       <c r="C133" t="s">
-        <v>3461</v>
+        <v>3462</v>
+      </c>
+      <c r="D133" t="s">
+        <v>3463</v>
+      </c>
+      <c r="E133" s="6">
+        <v>2018</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>3459</v>
@@ -50410,10 +50348,13 @@
     </row>
     <row r="134" ht="14.25">
       <c r="C134" s="3" t="s">
-        <v>3462</v>
+        <v>3464</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>3463</v>
+        <v>3465</v>
+      </c>
+      <c r="E134" s="6">
+        <v>2021</v>
       </c>
       <c r="F134" t="s">
         <v>3459</v>
@@ -50421,13 +50362,21 @@
     </row>
     <row r="135" ht="14.25">
       <c r="C135" s="3" t="s">
-        <v>3464</v>
+        <v>3466</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>3465</v>
+        <v>3467</v>
+      </c>
+      <c r="E135" s="6">
+        <v>2021</v>
       </c>
       <c r="F135" t="s">
         <v>3459</v>
+      </c>
+    </row>
+    <row r="142" ht="14.25">
+      <c r="C142" t="s">
+        <v>3468</v>
       </c>
     </row>
     <row r="148" ht="14.25"/>
@@ -50531,22 +50480,22 @@
         <v>397</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3466</v>
+        <v>3469</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3467</v>
+        <v>3470</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>3468</v>
+        <v>3471</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>3469</v>
+        <v>3472</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>3471</v>
+        <v>3474</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>2864</v>
@@ -50561,22 +50510,22 @@
     <row r="6" ht="14.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>3472</v>
+        <v>3475</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>3476</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3477</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3478</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>3473</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>3474</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>3475</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>3470</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>3476</v>
+        <v>3479</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>2864</v>
@@ -50587,19 +50536,19 @@
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="5" t="s">
-        <v>3477</v>
+        <v>3480</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>3478</v>
+        <v>3481</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>2863</v>
@@ -50613,22 +50562,22 @@
     </row>
     <row r="8" s="0" customFormat="1" ht="14.25">
       <c r="A8" s="5" t="s">
-        <v>3481</v>
+        <v>3484</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>3482</v>
+        <v>3485</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>3483</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>3480</v>
       </c>
       <c r="E8" s="5">
         <v>1937</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3220</v>
@@ -50642,22 +50591,22 @@
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="5" t="s">
-        <v>3484</v>
+        <v>3487</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3486</v>
+        <v>3489</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="E9" s="5">
         <v>1936</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3220</v>
@@ -50666,24 +50615,24 @@
         <v>2864</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>3487</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="5" t="s">
-        <v>3488</v>
+        <v>3491</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>3490</v>
+        <v>3493</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>2863</v>
@@ -50697,19 +50646,19 @@
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="5" t="s">
-        <v>3491</v>
+        <v>3494</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>3492</v>
+        <v>3495</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>3493</v>
+        <v>3496</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>2863</v>
@@ -50724,19 +50673,19 @@
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="5" t="s">
-        <v>3494</v>
+        <v>3497</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>3495</v>
+        <v>3498</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3496</v>
+        <v>3499</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>2863</v>
@@ -50751,19 +50700,19 @@
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="5" t="s">
-        <v>3497</v>
+        <v>3500</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>3498</v>
+        <v>3501</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>3499</v>
+        <v>3502</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>2863</v>
@@ -50778,19 +50727,19 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="5" t="s">
-        <v>3500</v>
+        <v>3503</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>3501</v>
+        <v>3504</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>3502</v>
+        <v>3505</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>2863</v>
@@ -50805,19 +50754,19 @@
     </row>
     <row r="15" ht="14.25">
       <c r="A15" s="5" t="s">
-        <v>3503</v>
+        <v>3506</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>3504</v>
+        <v>3507</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>3505</v>
+        <v>3508</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>2863</v>
@@ -50832,19 +50781,19 @@
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="5" t="s">
-        <v>3506</v>
+        <v>3509</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>3507</v>
+        <v>3510</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>3508</v>
+        <v>3511</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>2863</v>
@@ -50859,19 +50808,19 @@
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="5" t="s">
-        <v>3509</v>
+        <v>3512</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>3510</v>
+        <v>3513</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>3511</v>
+        <v>3514</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>2863</v>
@@ -50885,20 +50834,20 @@
     </row>
     <row r="18" s="0" customFormat="1" ht="14.25">
       <c r="A18" s="5" t="s">
-        <v>3512</v>
+        <v>3515</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3513</v>
+        <v>3516</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>3514</v>
+        <v>3517</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>2863</v>
@@ -50912,29 +50861,29 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="2" t="s">
-        <v>3515</v>
+        <v>3518</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>3516</v>
+        <v>3519</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>3517</v>
+        <v>3520</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>3518</v>
+        <v>3521</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>3519</v>
+        <v>3522</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -50948,20 +50897,20 @@
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="2" t="s">
-        <v>3520</v>
+        <v>3523</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>3521</v>
+        <v>3524</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>3522</v>
+        <v>3525</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>2863</v>
@@ -50984,20 +50933,20 @@
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="2" t="s">
-        <v>3523</v>
+        <v>3526</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>3524</v>
+        <v>3527</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>3525</v>
+        <v>3528</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3411</v>
@@ -51006,7 +50955,7 @@
         <v>2864</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>3526</v>
+        <v>3529</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -51020,29 +50969,29 @@
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="2" t="s">
-        <v>3527</v>
+        <v>3530</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>3528</v>
+        <v>3531</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>3529</v>
+        <v>3532</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>3530</v>
+        <v>3533</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>3531</v>
+        <v>3534</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -51056,29 +51005,29 @@
     </row>
     <row r="23" ht="14.25">
       <c r="A23" s="2" t="s">
-        <v>3532</v>
+        <v>3535</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>3533</v>
+        <v>3536</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>3534</v>
+        <v>3537</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>3535</v>
+        <v>3538</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>3536</v>
+        <v>3539</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -51095,26 +51044,26 @@
         <v>1856</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>3537</v>
+        <v>3540</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>3538</v>
+        <v>3541</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>3539</v>
+        <v>3542</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>3540</v>
+        <v>3543</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -51131,17 +51080,17 @@
         <v>619</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>3541</v>
+        <v>3544</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>3542</v>
+        <v>3545</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>2863</v>
@@ -51167,26 +51116,26 @@
         <v>1770</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>3543</v>
+        <v>3546</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>3544</v>
+        <v>3547</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>3530</v>
+        <v>3533</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>3545</v>
+        <v>3548</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -51203,26 +51152,26 @@
         <v>1103</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>3546</v>
+        <v>3549</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>3547</v>
+        <v>3550</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>3548</v>
+        <v>3551</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>3549</v>
+        <v>3552</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -51236,23 +51185,23 @@
     </row>
     <row r="28" ht="14.25">
       <c r="A28" s="2" t="s">
-        <v>3550</v>
+        <v>3553</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>3551</v>
+        <v>3554</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>3552</v>
+        <v>3555</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>3476</v>
+        <v>3479</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>2864</v>
@@ -51273,17 +51222,17 @@
         <v>8</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>3553</v>
+        <v>3556</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>3554</v>
+        <v>3557</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3411</v>
@@ -51292,7 +51241,7 @@
         <v>2864</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>3555</v>
+        <v>3558</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -51309,17 +51258,17 @@
         <v>9</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>3556</v>
+        <v>3559</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>3557</v>
+        <v>3560</v>
       </c>
       <c r="D30" t="s">
-        <v>3558</v>
+        <v>3561</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>3411</v>
@@ -51328,7 +51277,7 @@
         <v>2864</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>3559</v>
+        <v>3562</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -51342,23 +51291,23 @@
         <v>397</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3560</v>
+        <v>3563</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>3564</v>
+      </c>
+      <c r="D31" t="s">
         <v>3561</v>
-      </c>
-      <c r="D31" t="s">
-        <v>3558</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>3562</v>
+        <v>3565</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -51372,23 +51321,23 @@
         <v>3116</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>3563</v>
+        <v>3566</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>3564</v>
+        <v>3567</v>
       </c>
       <c r="D32" t="s">
-        <v>3558</v>
+        <v>3561</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>3565</v>
+        <v>3568</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -51402,23 +51351,23 @@
         <v>3120</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>3566</v>
+        <v>3569</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>3567</v>
+        <v>3570</v>
       </c>
       <c r="D33" t="s">
-        <v>3558</v>
+        <v>3561</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3343</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>3568</v>
+        <v>3571</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -51432,23 +51381,23 @@
         <v>3417</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>3569</v>
+        <v>3572</v>
       </c>
       <c r="C34" t="s">
-        <v>3570</v>
+        <v>3573</v>
       </c>
       <c r="D34" t="s">
-        <v>3558</v>
+        <v>3561</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>3571</v>
+        <v>3574</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -51462,23 +51411,23 @@
         <v>3124</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>3572</v>
+        <v>3575</v>
       </c>
       <c r="C35" t="s">
-        <v>3573</v>
+        <v>3576</v>
       </c>
       <c r="D35" t="s">
-        <v>3558</v>
+        <v>3561</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>3574</v>
+        <v>3577</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -51492,23 +51441,23 @@
         <v>3440</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>3575</v>
+        <v>3578</v>
       </c>
       <c r="C36" t="s">
-        <v>3576</v>
+        <v>3579</v>
       </c>
       <c r="D36" t="s">
-        <v>3558</v>
+        <v>3561</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>3577</v>
+        <v>3580</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -51522,23 +51471,23 @@
         <v>3444</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>3578</v>
+        <v>3581</v>
       </c>
       <c r="C37" t="s">
-        <v>3579</v>
+        <v>3582</v>
       </c>
       <c r="D37" t="s">
-        <v>3558</v>
+        <v>3561</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>3580</v>
+        <v>3583</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -51552,23 +51501,23 @@
         <v>3448</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>3581</v>
+        <v>3584</v>
       </c>
       <c r="C38" t="s">
-        <v>3582</v>
+        <v>3585</v>
       </c>
       <c r="D38" t="s">
-        <v>3558</v>
+        <v>3561</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>3583</v>
+        <v>3586</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -51579,20 +51528,20 @@
     </row>
     <row r="39" ht="14.25">
       <c r="A39" s="2" t="s">
-        <v>3584</v>
+        <v>3587</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>3585</v>
+        <v>3588</v>
       </c>
       <c r="C39" t="s">
-        <v>3586</v>
+        <v>3589</v>
       </c>
       <c r="D39" t="s">
-        <v>3558</v>
+        <v>3561</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>2864</v>
@@ -51612,19 +51561,19 @@
     <row r="41" ht="14.25"/>
     <row r="42" ht="14.25">
       <c r="A42" s="5" t="s">
-        <v>3587</v>
+        <v>3590</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>3588</v>
+        <v>3591</v>
       </c>
       <c r="C42" t="s">
-        <v>3589</v>
+        <v>3592</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>3590</v>
+        <v>3593</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>2863</v>
@@ -51638,19 +51587,19 @@
     </row>
     <row r="43" ht="14.25">
       <c r="A43" s="5" t="s">
-        <v>3591</v>
+        <v>3594</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>3592</v>
+        <v>3595</v>
       </c>
       <c r="C43" t="s">
+        <v>3596</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>3593</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3590</v>
-      </c>
       <c r="F43" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>2863</v>
@@ -51667,26 +51616,26 @@
         <v>3116</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>3594</v>
+        <v>3597</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>3595</v>
+        <v>3598</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>3590</v>
+        <v>3593</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>2863</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>3596</v>
+        <v>3599</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>3590</v>
+        <v>3593</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -51699,19 +51648,19 @@
     <row r="46" ht="14.25"/>
     <row r="47" ht="14.25">
       <c r="A47" s="5" t="s">
-        <v>3597</v>
+        <v>3600</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>3598</v>
+        <v>3601</v>
       </c>
       <c r="C47" t="s">
-        <v>3599</v>
+        <v>3602</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>3600</v>
+        <v>3603</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3132</v>
@@ -51720,25 +51669,25 @@
         <v>2864</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>3601</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="48" ht="14.25"/>
     <row r="49" ht="14.25">
       <c r="A49" s="2" t="s">
-        <v>3602</v>
+        <v>3605</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>3603</v>
+        <v>3606</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>3604</v>
+        <v>3607</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>3605</v>
+        <v>3608</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3132</v>
@@ -51747,7 +51696,7 @@
         <v>2864</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>3606</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="50" ht="14.25">
@@ -51755,16 +51704,16 @@
         <v>3057</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>3607</v>
+        <v>3610</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>3611</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>3608</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>3605</v>
-      </c>
       <c r="F50" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>3132</v>
@@ -51773,7 +51722,7 @@
         <v>2864</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>3609</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="51" ht="14.25"/>
@@ -51782,19 +51731,19 @@
     <row r="54" ht="14.25"/>
     <row r="55" ht="14.25">
       <c r="A55" s="5" t="s">
-        <v>3610</v>
+        <v>3613</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>3611</v>
+        <v>3614</v>
       </c>
       <c r="C55" t="s">
-        <v>3612</v>
+        <v>3615</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>3613</v>
+        <v>3616</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>3132</v>
@@ -51803,24 +51752,24 @@
         <v>2864</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>3606</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="56" ht="14.25">
       <c r="A56" s="2" t="s">
-        <v>3614</v>
+        <v>3617</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>3615</v>
+        <v>3618</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>3616</v>
+        <v>3619</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>3617</v>
+        <v>3620</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>3132</v>
@@ -51829,23 +51778,23 @@
         <v>2864</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>3618</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="57" ht="14.25"/>
     <row r="59" ht="14.25">
       <c r="A59" s="5"/>
       <c r="B59" s="3" t="s">
-        <v>3619</v>
+        <v>3622</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>3620</v>
+        <v>3623</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>3621</v>
+        <v>3624</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>2863</v>
@@ -51860,19 +51809,19 @@
     </row>
     <row r="60" ht="14.25">
       <c r="A60" s="5" t="s">
-        <v>3622</v>
+        <v>3625</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>3623</v>
+        <v>3626</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>3624</v>
+        <v>3627</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>3625</v>
+        <v>3628</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>2863</v>
@@ -51901,7 +51850,7 @@
         <v>3151</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>2863</v>
@@ -51927,7 +51876,7 @@
         <v>3151</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>2863</v>
@@ -51953,7 +51902,7 @@
         <v>3151</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>2863</v>
@@ -51979,7 +51928,7 @@
         <v>3151</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>2863</v>
@@ -52005,7 +51954,7 @@
         <v>3151</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>2863</v>
@@ -52031,7 +51980,7 @@
         <v>3151</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>2863</v>
@@ -52057,7 +52006,7 @@
         <v>3151</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>2863</v>
@@ -52083,7 +52032,7 @@
         <v>3151</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>2863</v>
@@ -52109,7 +52058,7 @@
         <v>3151</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>2863</v>
@@ -52126,17 +52075,17 @@
         <v>139</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>3626</v>
+        <v>3629</v>
       </c>
       <c r="C74" t="s">
-        <v>3627</v>
+        <v>3630</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>3628</v>
+        <v>3631</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="3" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>2863</v>
@@ -52153,17 +52102,17 @@
         <v>140</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>3629</v>
+        <v>3632</v>
       </c>
       <c r="C75" t="s">
-        <v>3630</v>
+        <v>3633</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>3631</v>
+        <v>3634</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="3" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>2863</v>
@@ -52172,7 +52121,7 @@
         <v>2864</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>3632</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="76" ht="14.25">
@@ -52180,17 +52129,17 @@
         <v>143</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>3633</v>
+        <v>3636</v>
       </c>
       <c r="C76" t="s">
-        <v>3634</v>
+        <v>3637</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>3635</v>
+        <v>3638</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="3" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>2863</v>
@@ -52207,17 +52156,17 @@
         <v>137</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>3636</v>
+        <v>3639</v>
       </c>
       <c r="C77" t="s">
-        <v>3637</v>
+        <v>3640</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>3638</v>
+        <v>3641</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="3" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>2863</v>
@@ -52237,17 +52186,17 @@
         <v>23</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>3639</v>
+        <v>3642</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>3640</v>
+        <v>3643</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>3641</v>
+        <v>3644</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="3" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>2863</v>
@@ -52264,17 +52213,17 @@
         <v>24</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>3642</v>
+        <v>3645</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>3643</v>
+        <v>3646</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>3081</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="3" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>2863</v>
@@ -52291,17 +52240,17 @@
         <v>25</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>3644</v>
+        <v>3647</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>3645</v>
+        <v>3648</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>3646</v>
+        <v>3649</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="3" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>2863</v>
@@ -52318,17 +52267,17 @@
         <v>26</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>3647</v>
+        <v>3650</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>3648</v>
+        <v>3651</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>3649</v>
+        <v>3652</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="3" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>2863</v>
@@ -52345,17 +52294,17 @@
         <v>27</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>3650</v>
+        <v>3653</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>3651</v>
+        <v>3654</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>3095</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="3" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>2863</v>
@@ -52376,17 +52325,17 @@
         <v>75</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>3652</v>
+        <v>3655</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>3653</v>
+        <v>3656</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>3095</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="3" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>2863</v>
@@ -52403,17 +52352,17 @@
         <v>76</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>3654</v>
+        <v>3657</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>3655</v>
+        <v>3658</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>3095</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="3" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>2863</v>
@@ -52430,19 +52379,19 @@
         <v>67</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>3656</v>
+        <v>3659</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>3657</v>
+        <v>3660</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>3658</v>
+        <v>3661</v>
       </c>
       <c r="E91" s="2">
         <v>1921</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>2863</v>
@@ -52459,17 +52408,17 @@
         <v>6</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>3659</v>
+        <v>3662</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>3660</v>
+        <v>3663</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>3658</v>
+        <v>3661</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>2863</v>
@@ -52484,13 +52433,13 @@
         <v>2</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>3661</v>
+        <v>3664</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>3662</v>
+        <v>3665</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>3663</v>
+        <v>3666</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="8"/>
@@ -52507,13 +52456,13 @@
         <v>3</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>3664</v>
+        <v>3667</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>3665</v>
+        <v>3668</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>3666</v>
+        <v>3669</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="8"/>
@@ -52530,13 +52479,13 @@
         <v>8</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>3667</v>
+        <v>3670</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>3668</v>
+        <v>3671</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>3621</v>
+        <v>3624</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="8"/>
@@ -52553,13 +52502,13 @@
         <v>10</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>3669</v>
+        <v>3672</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>3670</v>
+        <v>3673</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>3671</v>
+        <v>3674</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="8"/>
@@ -52576,13 +52525,13 @@
         <v>11</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>3672</v>
+        <v>3675</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>3673</v>
+        <v>3676</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>3674</v>
+        <v>3677</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="8"/>
@@ -52603,13 +52552,13 @@
         <v>21</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>3675</v>
+        <v>3678</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>3676</v>
+        <v>3679</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>3677</v>
+        <v>3680</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="8"/>
@@ -52626,13 +52575,13 @@
         <v>47</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>3678</v>
+        <v>3681</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>3679</v>
+        <v>3682</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>3677</v>
+        <v>3680</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="8"/>
@@ -52649,13 +52598,13 @@
         <v>29</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>3680</v>
+        <v>3683</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>3681</v>
+        <v>3684</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>3682</v>
+        <v>3685</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="8"/>
@@ -52672,13 +52621,13 @@
         <v>35</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>3683</v>
+        <v>3686</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>3684</v>
+        <v>3687</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>3682</v>
+        <v>3685</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="8"/>
@@ -52695,13 +52644,13 @@
         <v>91</v>
       </c>
       <c r="B106" s="3" t="s">
+        <v>3688</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>3689</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>3685</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>3686</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>3682</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="8"/>
@@ -52718,10 +52667,10 @@
         <v>18</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>3687</v>
+        <v>3690</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>3688</v>
+        <v>3691</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>3253</v>
@@ -52741,10 +52690,10 @@
         <v>17</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>3689</v>
+        <v>3692</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>3690</v>
+        <v>3693</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>3253</v>
@@ -52764,13 +52713,13 @@
         <v>69</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>3691</v>
+        <v>3694</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>3692</v>
+        <v>3695</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>3693</v>
+        <v>3696</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="8"/>
@@ -52787,13 +52736,13 @@
         <v>624</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>3694</v>
+        <v>3697</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>3695</v>
+        <v>3698</v>
       </c>
       <c r="D114" t="s">
-        <v>3696</v>
+        <v>3699</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="8"/>
@@ -52804,7 +52753,7 @@
         <v>2864</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>3697</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="115" ht="14.25">
@@ -52816,13 +52765,13 @@
         <v>3</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>3698</v>
+        <v>3701</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>3699</v>
+        <v>3702</v>
       </c>
       <c r="D116" t="s">
-        <v>3700</v>
+        <v>3703</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="8"/>
@@ -52833,7 +52782,7 @@
         <v>2864</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>3701</v>
+        <v>3704</v>
       </c>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
@@ -52847,13 +52796,13 @@
         <v>4</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>3702</v>
+        <v>3705</v>
       </c>
       <c r="C117" s="3" t="s">
+        <v>3706</v>
+      </c>
+      <c r="D117" t="s">
         <v>3703</v>
-      </c>
-      <c r="D117" t="s">
-        <v>3700</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="8"/>
@@ -52864,7 +52813,7 @@
         <v>2864</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>3704</v>
+        <v>3707</v>
       </c>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
@@ -52878,13 +52827,13 @@
         <v>5</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>3705</v>
+        <v>3708</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>3706</v>
+        <v>3709</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>3700</v>
+        <v>3703</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="8"/>
@@ -52895,7 +52844,7 @@
         <v>2864</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>3707</v>
+        <v>3710</v>
       </c>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
@@ -52909,13 +52858,13 @@
         <v>6</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>3708</v>
+        <v>3711</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>3709</v>
+        <v>3712</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>3700</v>
+        <v>3703</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="8"/>
@@ -52926,7 +52875,7 @@
         <v>2864</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>3710</v>
+        <v>3713</v>
       </c>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
@@ -52944,10 +52893,10 @@
         <v>397</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>3711</v>
+        <v>3714</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>3712</v>
+        <v>3715</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>3431</v>
@@ -52961,7 +52910,7 @@
         <v>3343</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>3713</v>
+        <v>3716</v>
       </c>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
@@ -53138,20 +53087,20 @@
     </row>
     <row r="131" ht="14.25">
       <c r="C131" t="s">
-        <v>3714</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="132" ht="14.25">
       <c r="C132" t="s">
-        <v>3715</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="137" ht="14.25">
       <c r="C137" t="s">
-        <v>3716</v>
+        <v>3719</v>
       </c>
       <c r="D137" t="s">
-        <v>3717</v>
+        <v>3720</v>
       </c>
       <c r="H137" s="3" t="s">
         <v>3343</v>
@@ -53159,28 +53108,28 @@
     </row>
     <row r="141" ht="14.25">
       <c r="C141" t="s">
-        <v>3718</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="142" ht="14.25">
       <c r="C142" t="s">
-        <v>3719</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="146" ht="14.25">
       <c r="C146" t="s">
-        <v>3720</v>
+        <v>3723</v>
       </c>
       <c r="D146" t="s">
-        <v>3721</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="149" ht="14.25">
       <c r="C149" t="s">
-        <v>3722</v>
+        <v>3725</v>
       </c>
       <c r="D149" t="s">
-        <v>3723</v>
+        <v>3726</v>
       </c>
       <c r="E149" s="5">
         <v>1923</v>
@@ -53190,12 +53139,12 @@
     <row r="151" ht="14.25"/>
     <row r="152" ht="14.25">
       <c r="C152" t="s">
-        <v>3724</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="154" ht="16.5">
       <c r="C154" s="11" t="s">
-        <v>3725</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="155" ht="14.25"/>
@@ -53219,7 +53168,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3724</v>
+        <v>3727</v>
       </c>
     </row>
   </sheetData>
@@ -53233,7 +53182,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -53278,10 +53227,10 @@
     </row>
     <row r="2">
       <c r="C2" s="6" t="s">
-        <v>3726</v>
+        <v>3729</v>
       </c>
       <c r="D2" t="s">
-        <v>3727</v>
+        <v>3730</v>
       </c>
       <c r="E2" s="5">
         <v>2018</v>
@@ -53289,10 +53238,10 @@
     </row>
     <row r="3">
       <c r="C3" s="6" t="s">
-        <v>3728</v>
+        <v>3731</v>
       </c>
       <c r="D3" t="s">
-        <v>3729</v>
+        <v>3732</v>
       </c>
       <c r="E3" s="5">
         <v>1979</v>
@@ -53301,13 +53250,13 @@
     <row r="4" ht="14.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>3730</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>3731</v>
+        <v>3733</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>3734</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>3732</v>
+        <v>3735</v>
       </c>
       <c r="E4" s="2">
         <v>1981</v>
@@ -53329,10 +53278,10 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="7" t="s">
-        <v>3733</v>
+        <v>3736</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>3734</v>
+        <v>3737</v>
       </c>
       <c r="E5" s="2">
         <v>2004</v>
@@ -53358,7 +53307,7 @@
         <v>3446</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>3734</v>
+        <v>3737</v>
       </c>
       <c r="E6" s="2">
         <v>1995</v>
@@ -53378,13 +53327,13 @@
     <row r="7" ht="14.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>3735</v>
+        <v>3738</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>3736</v>
+        <v>3739</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>3737</v>
+        <v>3740</v>
       </c>
       <c r="E7" s="2">
         <v>2004</v>
@@ -53402,13 +53351,13 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3"/>
       <c r="C8" s="7" t="s">
-        <v>3738</v>
+        <v>3741</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>3737</v>
+        <v>3740</v>
       </c>
       <c r="E8" s="2">
         <v>2005</v>
@@ -53426,13 +53375,13 @@
       <c r="P8" s="3"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="3"/>
       <c r="C9" s="7" t="s">
-        <v>3739</v>
+        <v>3742</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>3737</v>
+        <v>3740</v>
       </c>
       <c r="E9" s="2">
         <v>2006</v>
@@ -53450,13 +53399,13 @@
       <c r="P9" s="3"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="3"/>
       <c r="C10" s="7" t="s">
+        <v>3743</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>3740</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>3737</v>
       </c>
       <c r="E10" s="2">
         <v>2007</v>
@@ -53477,10 +53426,10 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="7" t="s">
-        <v>3741</v>
+        <v>3744</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>3737</v>
+        <v>3740</v>
       </c>
       <c r="E11" s="2">
         <v>2017</v>
@@ -53501,10 +53450,10 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="7" t="s">
-        <v>3742</v>
+        <v>3745</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>3737</v>
+        <v>3740</v>
       </c>
       <c r="E12" s="2">
         <v>2015</v>
@@ -53523,15 +53472,17 @@
     </row>
     <row r="13" ht="14.25">
       <c r="B13" s="3" t="s">
-        <v>3743</v>
+        <v>3746</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>3744</v>
+        <v>3747</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>3745</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>3748</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2005</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -53547,15 +53498,17 @@
     <row r="14" ht="14.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>3746</v>
+        <v>3749</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>3747</v>
+        <v>3750</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>3745</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>3748</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2009</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -53572,12 +53525,14 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="7" t="s">
+        <v>3751</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>3748</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3745</v>
-      </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <v>2017</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -53594,10 +53549,10 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="7" t="s">
-        <v>3749</v>
+        <v>3752</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3750</v>
+        <v>3753</v>
       </c>
       <c r="E16" s="2">
         <v>1963</v>
@@ -53620,10 +53575,10 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="7" t="s">
-        <v>3751</v>
+        <v>3754</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>3750</v>
+        <v>3753</v>
       </c>
       <c r="E17" s="2">
         <v>1964</v>
@@ -53646,10 +53601,10 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="7" t="s">
-        <v>3752</v>
+        <v>3755</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>3750</v>
+        <v>3753</v>
       </c>
       <c r="E18" s="2">
         <v>1965</v>
@@ -53672,10 +53627,10 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="7" t="s">
+        <v>3756</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>3753</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>3750</v>
       </c>
       <c r="E19" s="2">
         <v>1967</v>
@@ -53698,10 +53653,10 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="7" t="s">
-        <v>3754</v>
+        <v>3757</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>3750</v>
+        <v>3753</v>
       </c>
       <c r="E20" s="2">
         <v>1975</v>
@@ -53724,10 +53679,10 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="7" t="s">
-        <v>3755</v>
+        <v>3758</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>3750</v>
+        <v>3753</v>
       </c>
       <c r="E21" s="2">
         <v>1977</v>
@@ -53750,10 +53705,10 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
-        <v>3756</v>
+        <v>3759</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>3750</v>
+        <v>3753</v>
       </c>
       <c r="E22" s="2">
         <v>1979</v>
@@ -53776,10 +53731,10 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="7" t="s">
-        <v>3757</v>
+        <v>3760</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>3750</v>
+        <v>3753</v>
       </c>
       <c r="E23" s="2">
         <v>1981</v>
@@ -53802,10 +53757,10 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="7" t="s">
-        <v>3758</v>
+        <v>3761</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>3750</v>
+        <v>3753</v>
       </c>
       <c r="E24" s="2">
         <v>1985</v>
@@ -53828,10 +53783,10 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="7" t="s">
-        <v>3759</v>
+        <v>3762</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>3750</v>
+        <v>3753</v>
       </c>
       <c r="E25" s="2">
         <v>1987</v>
@@ -53854,10 +53809,10 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="7" t="s">
-        <v>3760</v>
+        <v>3763</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>3750</v>
+        <v>3753</v>
       </c>
       <c r="E26" s="2">
         <v>1993</v>
@@ -53880,10 +53835,10 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="7" t="s">
-        <v>3761</v>
+        <v>3764</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>3750</v>
+        <v>3753</v>
       </c>
       <c r="E27" s="2">
         <v>1995</v>
@@ -53906,10 +53861,10 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="7" t="s">
-        <v>3762</v>
+        <v>3765</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>3750</v>
+        <v>3753</v>
       </c>
       <c r="E28" s="2">
         <v>2002</v>
@@ -53932,10 +53887,10 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="7" t="s">
-        <v>3763</v>
+        <v>3766</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>3750</v>
+        <v>3753</v>
       </c>
       <c r="E29" s="2">
         <v>2002</v>
@@ -53958,10 +53913,10 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="7" t="s">
-        <v>3764</v>
+        <v>3767</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>3750</v>
+        <v>3753</v>
       </c>
       <c r="E30" s="2">
         <v>2005</v>
@@ -53984,10 +53939,10 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="7" t="s">
-        <v>3765</v>
+        <v>3768</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>3750</v>
+        <v>3753</v>
       </c>
       <c r="E31" s="2">
         <v>2004</v>
@@ -54010,10 +53965,10 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="7" t="s">
-        <v>3766</v>
+        <v>3769</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>3750</v>
+        <v>3753</v>
       </c>
       <c r="E32" s="2">
         <v>2012</v>
@@ -54035,13 +53990,13 @@
     <row r="33" ht="14.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>3767</v>
+        <v>3770</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>3768</v>
+        <v>3771</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>3769</v>
+        <v>3772</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="3"/>
@@ -54059,13 +54014,13 @@
     </row>
     <row r="34" ht="14.25">
       <c r="B34" s="3" t="s">
-        <v>3770</v>
+        <v>3773</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>3771</v>
+        <v>3774</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>3769</v>
+        <v>3772</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
@@ -54084,13 +54039,13 @@
     <row r="35" ht="14.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>3772</v>
+        <v>3775</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>3773</v>
+        <v>3776</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>3774</v>
+        <v>3777</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>
@@ -54107,13 +54062,13 @@
     </row>
     <row r="36" ht="14.25">
       <c r="B36" s="3" t="s">
-        <v>3775</v>
+        <v>3778</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>3776</v>
+        <v>3779</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>3777</v>
+        <v>3780</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="3"/>
@@ -54131,13 +54086,13 @@
     <row r="37" ht="14.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>3778</v>
+        <v>3781</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>3779</v>
+        <v>3782</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>3777</v>
+        <v>3780</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
@@ -54154,13 +54109,13 @@
     </row>
     <row r="38" ht="14.25">
       <c r="B38" s="3" t="s">
+        <v>3783</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>3784</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>3780</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>3781</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>3777</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
@@ -54178,13 +54133,13 @@
     <row r="39" ht="14.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>3782</v>
+        <v>3785</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>3783</v>
+        <v>3786</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>3777</v>
+        <v>3780</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
@@ -54202,142 +54157,142 @@
     <row r="40" ht="14.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>3784</v>
+        <v>3787</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>3785</v>
+        <v>3788</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>3786</v>
+        <v>3789</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>3787</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>3788</v>
+        <v>3791</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>3792</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>3789</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3786</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>3787</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="42" ht="14.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>3790</v>
+        <v>3793</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>3791</v>
+        <v>3794</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>3786</v>
+        <v>3789</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>3792</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>3793</v>
+        <v>3796</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>3794</v>
+        <v>3797</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>3786</v>
+        <v>3789</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>3795</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>3796</v>
+        <v>3799</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>3797</v>
+        <v>3800</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>3786</v>
+        <v>3789</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>3795</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="45" ht="14.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
+        <v>3801</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>3802</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>3789</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>3798</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>3799</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>3786</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>3795</v>
       </c>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>3800</v>
+        <v>3803</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>3801</v>
+        <v>3804</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>3786</v>
+        <v>3789</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>3795</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>3802</v>
+        <v>3805</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>3803</v>
+        <v>3806</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>3786</v>
+        <v>3789</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>3795</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="B48" t="s">
-        <v>3804</v>
+        <v>3807</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>3805</v>
+        <v>3808</v>
       </c>
       <c r="E48" s="5"/>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>3806</v>
+        <v>3809</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>3807</v>
+        <v>3810</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>3808</v>
+        <v>3811</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -54358,13 +54313,13 @@
     <row r="50" ht="14.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>3809</v>
+        <v>3812</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>3807</v>
+        <v>3810</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>3808</v>
+        <v>3811</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -54385,13 +54340,13 @@
     <row r="51" ht="14.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
+        <v>3813</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>3810</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>3807</v>
-      </c>
       <c r="D51" s="3" t="s">
-        <v>3808</v>
+        <v>3811</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -54412,13 +54367,13 @@
     <row r="52" ht="14.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
+        <v>3814</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>3810</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>3811</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>3807</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>3808</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -54439,13 +54394,13 @@
     <row r="53" ht="14.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
-        <v>3812</v>
+        <v>3815</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>3807</v>
+        <v>3810</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>3808</v>
+        <v>3811</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -54466,13 +54421,13 @@
     <row r="54" ht="14.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
-        <v>3813</v>
+        <v>3816</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>3807</v>
+        <v>3810</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>3808</v>
+        <v>3811</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -54493,13 +54448,13 @@
     <row r="55" ht="14.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>3814</v>
+        <v>3817</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>3807</v>
+        <v>3810</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>3808</v>
+        <v>3811</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -54520,13 +54475,13 @@
     <row r="56" ht="14.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
-        <v>3815</v>
+        <v>3818</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>3807</v>
+        <v>3810</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>3808</v>
+        <v>3811</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -54547,13 +54502,13 @@
     <row r="57" ht="14.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>3816</v>
+        <v>3819</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>3807</v>
+        <v>3810</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>3808</v>
+        <v>3811</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -54574,13 +54529,13 @@
     <row r="58" ht="14.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
-        <v>3817</v>
+        <v>3820</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>3807</v>
+        <v>3810</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>3808</v>
+        <v>3811</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -54636,33 +54591,33 @@
     <row r="64" ht="14.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
-        <v>3818</v>
+        <v>3821</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>3819</v>
+        <v>3822</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
         <v>2864</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>3821</v>
+        <v>3824</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>3822</v>
+        <v>3825</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>3823</v>
+        <v>3826</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>3824</v>
+        <v>3827</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>3825</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="65" ht="14.25">
@@ -54693,48 +54648,48 @@
     </row>
     <row r="69" ht="14.25">
       <c r="C69" s="6" t="s">
-        <v>3826</v>
+        <v>3829</v>
       </c>
       <c r="D69" t="s">
-        <v>3827</v>
+        <v>3830</v>
       </c>
       <c r="E69" s="5"/>
     </row>
     <row r="70" ht="14.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
-        <v>3828</v>
+        <v>3831</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>3829</v>
+        <v>3832</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
         <v>3343</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>3830</v>
+        <v>3833</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>3831</v>
+        <v>3834</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>3832</v>
+        <v>3835</v>
       </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3" t="s">
-        <v>3833</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="71" ht="14.25">
       <c r="C71" s="6" t="s">
-        <v>3834</v>
+        <v>3837</v>
       </c>
       <c r="D71" t="s">
-        <v>3835</v>
+        <v>3838</v>
       </c>
       <c r="E71" s="5"/>
     </row>
@@ -54744,44 +54699,42 @@
     </row>
     <row r="73" ht="14.25">
       <c r="B73" t="s">
-        <v>3836</v>
+        <v>3839</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>3837</v>
+        <v>3840</v>
       </c>
       <c r="D73" t="s">
-        <v>3838</v>
+        <v>3841</v>
       </c>
       <c r="E73" s="5"/>
     </row>
     <row r="76" ht="14.25"/>
     <row r="77" ht="14.25">
-      <c r="A77" s="5" t="s">
-        <v>3839</v>
-      </c>
+      <c r="A77" s="5"/>
       <c r="B77" s="3" t="s">
-        <v>3840</v>
+        <v>3842</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>3841</v>
+        <v>3843</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>3842</v>
+        <v>3844</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>3843</v>
+        <v>3845</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>3845</v>
+        <v>3847</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>3846</v>
+        <v>3848</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -54795,40 +54748,38 @@
       </c>
       <c r="P77" s="3"/>
       <c r="Q77" s="3" t="s">
-        <v>3847</v>
+        <v>3849</v>
       </c>
       <c r="R77" s="3"/>
       <c r="S77" s="3" t="s">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="3" t="s">
+        <v>3851</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>3843</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>3844</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>3845</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>3823</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>3846</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>3847</v>
+      </c>
+      <c r="I78" s="3" t="s">
         <v>3848</v>
-      </c>
-    </row>
-    <row r="78" ht="14.25">
-      <c r="A78" s="5" t="s">
-        <v>3849</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>3850</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>3841</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>3842</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>3843</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>3820</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>3844</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>3845</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>3846</v>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
@@ -54842,40 +54793,38 @@
       </c>
       <c r="P78" s="3"/>
       <c r="Q78" s="3" t="s">
-        <v>3847</v>
+        <v>3849</v>
       </c>
       <c r="R78" s="3"/>
       <c r="S78" s="3" t="s">
-        <v>3848</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="79" ht="14.25">
-      <c r="A79" s="5" t="s">
-        <v>3851</v>
-      </c>
+      <c r="A79" s="5"/>
       <c r="B79" s="3" t="s">
         <v>3852</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>3841</v>
+        <v>3843</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>3842</v>
+        <v>3844</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>3843</v>
+        <v>3845</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>3845</v>
+        <v>3847</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>3846</v>
+        <v>3848</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -54889,40 +54838,38 @@
       </c>
       <c r="P79" s="3"/>
       <c r="Q79" s="3" t="s">
-        <v>3847</v>
+        <v>3849</v>
       </c>
       <c r="R79" s="3"/>
       <c r="S79" s="3" t="s">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="3" t="s">
+        <v>3853</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>3843</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>3844</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>3845</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>3823</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>3846</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>3847</v>
+      </c>
+      <c r="I80" s="3" t="s">
         <v>3848</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25">
-      <c r="A80" s="5" t="s">
-        <v>3853</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>3854</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>3841</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>3842</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>3843</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>3820</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>3844</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>3845</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>3846</v>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
@@ -54936,312 +54883,298 @@
       </c>
       <c r="P80" s="3"/>
       <c r="Q80" s="3" t="s">
-        <v>3847</v>
+        <v>3849</v>
       </c>
       <c r="R80" s="3"/>
       <c r="S80" s="3" t="s">
-        <v>3848</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="81" ht="14.25">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="5"/>
+      <c r="B81" s="3" t="s">
+        <v>3854</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>3855</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>3856</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>3857</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="5" t="s">
-        <v>3858</v>
+        <v>3856</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>3845</v>
+        <v>3847</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>3859</v>
+        <v>3857</v>
       </c>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3" t="s">
-        <v>3860</v>
+        <v>3858</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P81" s="3"/>
       <c r="Q81" s="3" t="s">
-        <v>3861</v>
+        <v>3859</v>
       </c>
       <c r="R81" s="3"/>
       <c r="S81" s="3" t="s">
-        <v>3862</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="82" ht="14.25">
-      <c r="A82" s="5" t="s">
-        <v>3863</v>
-      </c>
+      <c r="A82" s="5"/>
       <c r="B82" s="3" t="s">
-        <v>3864</v>
+        <v>3861</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>3857</v>
+        <v>3855</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="5" t="s">
-        <v>3858</v>
+        <v>3856</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>3865</v>
+        <v>3862</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>3845</v>
+        <v>3847</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>3859</v>
+        <v>3857</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3" t="s">
-        <v>3860</v>
+        <v>3858</v>
       </c>
       <c r="O82" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P82" s="3"/>
       <c r="Q82" s="3" t="s">
-        <v>3861</v>
+        <v>3859</v>
       </c>
       <c r="R82" s="3"/>
       <c r="S82" s="3" t="s">
-        <v>3866</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="83" ht="14.25">
-      <c r="A83" s="5" t="s">
-        <v>3867</v>
-      </c>
+      <c r="A83" s="5"/>
       <c r="B83" s="3" t="s">
-        <v>3868</v>
+        <v>3864</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>3857</v>
+        <v>3855</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="5" t="s">
-        <v>3869</v>
+        <v>3865</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>3845</v>
+        <v>3847</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>3870</v>
+        <v>3866</v>
       </c>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3" t="s">
-        <v>3860</v>
+        <v>3858</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P83" s="3"/>
       <c r="Q83" s="3" t="s">
-        <v>3861</v>
+        <v>3859</v>
       </c>
       <c r="R83" s="3"/>
       <c r="S83" s="3" t="s">
-        <v>3871</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="84" ht="14.25">
-      <c r="A84" s="5" t="s">
-        <v>3872</v>
-      </c>
+      <c r="A84" s="5"/>
       <c r="B84" s="3" t="s">
-        <v>3873</v>
+        <v>3868</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>3857</v>
+        <v>3855</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="5" t="s">
-        <v>3869</v>
+        <v>3865</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>3845</v>
+        <v>3847</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>3859</v>
+        <v>3857</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3" t="s">
-        <v>3860</v>
+        <v>3858</v>
       </c>
       <c r="O84" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P84" s="3"/>
       <c r="Q84" s="3" t="s">
-        <v>3861</v>
+        <v>3859</v>
       </c>
       <c r="R84" s="3"/>
       <c r="S84" s="3" t="s">
-        <v>3874</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="85" ht="14.25">
-      <c r="A85" s="5" t="s">
-        <v>3875</v>
-      </c>
+      <c r="A85" s="5"/>
       <c r="B85" s="3" t="s">
-        <v>3876</v>
+        <v>3870</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>3857</v>
+        <v>3855</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="5" t="s">
-        <v>3869</v>
+        <v>3865</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>3845</v>
+        <v>3847</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>3859</v>
+        <v>3857</v>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3" t="s">
-        <v>3860</v>
+        <v>3858</v>
       </c>
       <c r="O85" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P85" s="3"/>
       <c r="Q85" s="3" t="s">
-        <v>3861</v>
+        <v>3859</v>
       </c>
       <c r="R85" s="3"/>
       <c r="S85" s="3" t="s">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25">
+      <c r="A86" s="5"/>
+      <c r="B86" s="3" t="s">
+        <v>3871</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>3872</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>3873</v>
+      </c>
+      <c r="E86" s="5" t="s">
         <v>3874</v>
       </c>
-    </row>
-    <row r="86" ht="14.25">
-      <c r="A86" s="5" t="s">
-        <v>3877</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>3878</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>3879</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>3880</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>3881</v>
-      </c>
       <c r="F86" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>3882</v>
+        <v>3875</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>3883</v>
+        <v>3876</v>
       </c>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3" t="s">
-        <v>3884</v>
+        <v>3877</v>
       </c>
       <c r="O86" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P86" s="3"/>
       <c r="Q86" s="3" t="s">
-        <v>3885</v>
+        <v>3878</v>
       </c>
       <c r="R86" s="3"/>
       <c r="S86" s="3" t="s">
-        <v>3886</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="87" ht="14.25">
-      <c r="A87" s="5" t="s">
-        <v>3887</v>
-      </c>
+      <c r="A87" s="5"/>
       <c r="B87" s="3" t="s">
-        <v>3888</v>
+        <v>3880</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>3889</v>
+        <v>3881</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>3890</v>
+        <v>3882</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>3891</v>
+        <v>3883</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>3892</v>
+        <v>3884</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>3893</v>
+        <v>3885</v>
       </c>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
@@ -55255,40 +55188,38 @@
       </c>
       <c r="P87" s="3"/>
       <c r="Q87" s="3" t="s">
-        <v>3894</v>
+        <v>3886</v>
       </c>
       <c r="R87" s="3"/>
       <c r="S87" s="3" t="s">
-        <v>3895</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="88" ht="14.25">
-      <c r="A88" s="5" t="s">
-        <v>3896</v>
-      </c>
+      <c r="A88" s="5"/>
       <c r="B88" s="3" t="s">
-        <v>3897</v>
+        <v>3888</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>3889</v>
+        <v>3881</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>3890</v>
+        <v>3882</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>3891</v>
+        <v>3883</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>3892</v>
+        <v>3884</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>3893</v>
+        <v>3885</v>
       </c>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
@@ -55302,40 +55233,38 @@
       </c>
       <c r="P88" s="3"/>
       <c r="Q88" s="3" t="s">
-        <v>3894</v>
+        <v>3886</v>
       </c>
       <c r="R88" s="3"/>
       <c r="S88" s="3" t="s">
-        <v>3895</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="89" ht="14.25">
-      <c r="A89" s="5" t="s">
-        <v>3898</v>
-      </c>
+      <c r="A89" s="5"/>
       <c r="B89" s="3" t="s">
-        <v>3899</v>
+        <v>3889</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>3889</v>
+        <v>3881</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>3890</v>
+        <v>3882</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>3891</v>
+        <v>3883</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>3892</v>
+        <v>3884</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>3893</v>
+        <v>3885</v>
       </c>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
@@ -55349,40 +55278,38 @@
       </c>
       <c r="P89" s="3"/>
       <c r="Q89" s="3" t="s">
-        <v>3894</v>
+        <v>3886</v>
       </c>
       <c r="R89" s="3"/>
       <c r="S89" s="3" t="s">
-        <v>3895</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="90" ht="14.25">
-      <c r="A90" s="5" t="s">
-        <v>3900</v>
-      </c>
+      <c r="A90" s="5"/>
       <c r="B90" s="3" t="s">
-        <v>3901</v>
+        <v>3890</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>3889</v>
+        <v>3881</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>3890</v>
+        <v>3882</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>3891</v>
+        <v>3883</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>3892</v>
+        <v>3884</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>3893</v>
+        <v>3885</v>
       </c>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
@@ -55396,40 +55323,38 @@
       </c>
       <c r="P90" s="3"/>
       <c r="Q90" s="3" t="s">
-        <v>3894</v>
+        <v>3886</v>
       </c>
       <c r="R90" s="3"/>
       <c r="S90" s="3" t="s">
-        <v>3895</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="91" ht="14.25">
-      <c r="A91" s="5" t="s">
-        <v>3902</v>
-      </c>
+      <c r="A91" s="5"/>
       <c r="B91" s="3" t="s">
-        <v>3903</v>
+        <v>3891</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>3889</v>
+        <v>3881</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>3890</v>
+        <v>3882</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>3891</v>
+        <v>3883</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>3892</v>
+        <v>3884</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>3893</v>
+        <v>3885</v>
       </c>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
@@ -55443,40 +55368,38 @@
       </c>
       <c r="P91" s="3"/>
       <c r="Q91" s="3" t="s">
-        <v>3894</v>
+        <v>3886</v>
       </c>
       <c r="R91" s="3"/>
       <c r="S91" s="3" t="s">
-        <v>3895</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="92" ht="14.25">
-      <c r="A92" s="5" t="s">
-        <v>3904</v>
-      </c>
+      <c r="A92" s="5"/>
       <c r="B92" s="3" t="s">
-        <v>3905</v>
+        <v>3892</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>3889</v>
+        <v>3881</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>3890</v>
+        <v>3882</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>3891</v>
+        <v>3883</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>3892</v>
+        <v>3884</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>3893</v>
+        <v>3885</v>
       </c>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
@@ -55490,40 +55413,38 @@
       </c>
       <c r="P92" s="3"/>
       <c r="Q92" s="3" t="s">
-        <v>3894</v>
+        <v>3886</v>
       </c>
       <c r="R92" s="3"/>
       <c r="S92" s="3" t="s">
-        <v>3895</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="93" ht="14.25">
-      <c r="A93" s="5" t="s">
-        <v>3906</v>
-      </c>
+      <c r="A93" s="5"/>
       <c r="B93" s="3" t="s">
-        <v>3907</v>
+        <v>3893</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>3889</v>
+        <v>3881</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>3890</v>
+        <v>3882</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>3891</v>
+        <v>3883</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>3892</v>
+        <v>3884</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>3893</v>
+        <v>3885</v>
       </c>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
@@ -55537,40 +55458,38 @@
       </c>
       <c r="P93" s="3"/>
       <c r="Q93" s="3" t="s">
-        <v>3894</v>
+        <v>3886</v>
       </c>
       <c r="R93" s="3"/>
       <c r="S93" s="3" t="s">
-        <v>3895</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="94" ht="14.25">
-      <c r="A94" s="5" t="s">
-        <v>3908</v>
-      </c>
+      <c r="A94" s="5"/>
       <c r="B94" s="3" t="s">
-        <v>3909</v>
+        <v>3894</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>3889</v>
+        <v>3881</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>3890</v>
+        <v>3882</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>3891</v>
+        <v>3883</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>3892</v>
+        <v>3884</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>3893</v>
+        <v>3885</v>
       </c>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
@@ -55584,40 +55503,38 @@
       </c>
       <c r="P94" s="3"/>
       <c r="Q94" s="3" t="s">
-        <v>3894</v>
+        <v>3886</v>
       </c>
       <c r="R94" s="3"/>
       <c r="S94" s="3" t="s">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25">
+      <c r="A95" s="5"/>
+      <c r="B95" s="3" t="s">
         <v>3895</v>
       </c>
-    </row>
-    <row r="95" ht="14.25">
-      <c r="A95" s="5" t="s">
-        <v>3910</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>3911</v>
-      </c>
       <c r="C95" s="3" t="s">
-        <v>3889</v>
+        <v>3881</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>3890</v>
+        <v>3882</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>3891</v>
+        <v>3883</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>3892</v>
+        <v>3884</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>3893</v>
+        <v>3885</v>
       </c>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
@@ -55631,40 +55548,38 @@
       </c>
       <c r="P95" s="3"/>
       <c r="Q95" s="3" t="s">
-        <v>3894</v>
+        <v>3886</v>
       </c>
       <c r="R95" s="3"/>
       <c r="S95" s="3" t="s">
-        <v>3895</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="96" ht="14.25">
-      <c r="A96" s="5" t="s">
-        <v>3912</v>
-      </c>
+      <c r="A96" s="5"/>
       <c r="B96" s="3" t="s">
-        <v>3913</v>
+        <v>3896</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>3889</v>
+        <v>3881</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>3890</v>
+        <v>3882</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>3891</v>
+        <v>3883</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>3892</v>
+        <v>3884</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>3893</v>
+        <v>3885</v>
       </c>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
@@ -55678,40 +55593,38 @@
       </c>
       <c r="P96" s="3"/>
       <c r="Q96" s="3" t="s">
-        <v>3894</v>
+        <v>3886</v>
       </c>
       <c r="R96" s="3"/>
       <c r="S96" s="3" t="s">
-        <v>3895</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="97" ht="14.25">
-      <c r="A97" s="5" t="s">
-        <v>3914</v>
-      </c>
+      <c r="A97" s="5"/>
       <c r="B97" s="3" t="s">
-        <v>3915</v>
+        <v>3897</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>3889</v>
+        <v>3881</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>3890</v>
+        <v>3882</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>3891</v>
+        <v>3883</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>3892</v>
+        <v>3884</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>3893</v>
+        <v>3885</v>
       </c>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
@@ -55725,40 +55638,38 @@
       </c>
       <c r="P97" s="3"/>
       <c r="Q97" s="3" t="s">
-        <v>3894</v>
+        <v>3886</v>
       </c>
       <c r="R97" s="3"/>
       <c r="S97" s="3" t="s">
-        <v>3895</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="98" ht="14.25">
-      <c r="A98" s="5" t="s">
-        <v>3916</v>
-      </c>
+      <c r="A98" s="5"/>
       <c r="B98" s="3" t="s">
-        <v>3917</v>
+        <v>3898</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>3889</v>
+        <v>3881</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>3890</v>
+        <v>3882</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>3891</v>
+        <v>3883</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>3892</v>
+        <v>3884</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>3893</v>
+        <v>3885</v>
       </c>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
@@ -55772,40 +55683,38 @@
       </c>
       <c r="P98" s="3"/>
       <c r="Q98" s="3" t="s">
-        <v>3894</v>
+        <v>3886</v>
       </c>
       <c r="R98" s="3"/>
       <c r="S98" s="3" t="s">
-        <v>3895</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="99" ht="14.25">
-      <c r="A99" s="5" t="s">
-        <v>3918</v>
-      </c>
+      <c r="A99" s="5"/>
       <c r="B99" s="3" t="s">
-        <v>3919</v>
+        <v>3899</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>3889</v>
+        <v>3881</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>3890</v>
+        <v>3882</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>3891</v>
+        <v>3883</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>3892</v>
+        <v>3884</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>3893</v>
+        <v>3885</v>
       </c>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
@@ -55819,40 +55728,38 @@
       </c>
       <c r="P99" s="3"/>
       <c r="Q99" s="3" t="s">
-        <v>3894</v>
+        <v>3886</v>
       </c>
       <c r="R99" s="3"/>
       <c r="S99" s="3" t="s">
-        <v>3895</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="100" ht="14.25">
-      <c r="A100" s="5" t="s">
-        <v>3920</v>
-      </c>
+      <c r="A100" s="5"/>
       <c r="B100" s="3" t="s">
-        <v>3921</v>
+        <v>3900</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>3889</v>
+        <v>3881</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>3890</v>
+        <v>3882</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>3891</v>
+        <v>3883</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>3892</v>
+        <v>3884</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>3893</v>
+        <v>3885</v>
       </c>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
@@ -55866,40 +55773,38 @@
       </c>
       <c r="P100" s="3"/>
       <c r="Q100" s="3" t="s">
-        <v>3894</v>
+        <v>3886</v>
       </c>
       <c r="R100" s="3"/>
       <c r="S100" s="3" t="s">
-        <v>3895</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="101" ht="14.25">
-      <c r="A101" s="5" t="s">
-        <v>3922</v>
-      </c>
+      <c r="A101" s="5"/>
       <c r="B101" s="3" t="s">
-        <v>3923</v>
+        <v>3901</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>3924</v>
+        <v>3902</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>3925</v>
+        <v>3903</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>3831</v>
+        <v>3834</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>3892</v>
+        <v>3884</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>3926</v>
+        <v>3904</v>
       </c>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
@@ -55913,195 +55818,195 @@
       </c>
       <c r="P101" s="3"/>
       <c r="Q101" s="3" t="s">
-        <v>3927</v>
+        <v>3905</v>
       </c>
       <c r="R101" s="3"/>
       <c r="S101" s="3" t="s">
-        <v>3928</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="102" ht="14.25">
-      <c r="A102" s="5" t="s">
-        <v>3929</v>
-      </c>
+      <c r="A102" s="5"/>
       <c r="B102" s="3" t="s">
-        <v>3930</v>
+        <v>3907</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>3931</v>
-      </c>
-      <c r="D102" s="3"/>
+        <v>3908</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>3909</v>
+      </c>
       <c r="E102" s="5" t="s">
-        <v>3932</v>
+        <v>3910</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>3892</v>
+        <v>3884</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>3933</v>
+        <v>3911</v>
       </c>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
       <c r="N102" s="3" t="s">
-        <v>3934</v>
+        <v>3912</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>1428</v>
       </c>
       <c r="P102" s="3"/>
       <c r="Q102" s="3" t="s">
-        <v>3935</v>
+        <v>3913</v>
       </c>
       <c r="R102" s="3"/>
       <c r="S102" s="3" t="s">
-        <v>3936</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="103" ht="14.25">
-      <c r="A103" s="5" t="s">
-        <v>3937</v>
-      </c>
+      <c r="A103" s="5"/>
       <c r="B103" s="3" t="s">
-        <v>3938</v>
+        <v>3915</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>3931</v>
-      </c>
-      <c r="D103" s="3"/>
+        <v>3908</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>3909</v>
+      </c>
       <c r="E103" s="5" t="s">
-        <v>3932</v>
+        <v>3910</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>3892</v>
+        <v>3884</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>3933</v>
+        <v>3911</v>
       </c>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
       <c r="N103" s="3" t="s">
-        <v>3860</v>
+        <v>3858</v>
       </c>
       <c r="O103" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P103" s="3"/>
       <c r="Q103" s="3" t="s">
-        <v>3935</v>
+        <v>3913</v>
       </c>
       <c r="R103" s="3"/>
       <c r="S103" s="3" t="s">
-        <v>3936</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="104" ht="14.25">
-      <c r="A104" s="5" t="s">
-        <v>3939</v>
-      </c>
+      <c r="A104" s="5"/>
       <c r="B104" s="3" t="s">
-        <v>3940</v>
+        <v>3916</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>3931</v>
-      </c>
-      <c r="D104" s="3"/>
+        <v>3908</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>3909</v>
+      </c>
       <c r="E104" s="5" t="s">
-        <v>3932</v>
+        <v>3910</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>3892</v>
+        <v>3884</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>3933</v>
+        <v>3911</v>
       </c>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
       <c r="N104" s="3" t="s">
-        <v>3941</v>
+        <v>3917</v>
       </c>
       <c r="O104" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P104" s="3"/>
       <c r="Q104" s="3" t="s">
-        <v>3935</v>
+        <v>3913</v>
       </c>
       <c r="R104" s="3" t="s">
         <v>29</v>
       </c>
       <c r="S104" s="3" t="s">
-        <v>3936</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="105" ht="14.25">
-      <c r="A105" s="5" t="s">
-        <v>3942</v>
-      </c>
+      <c r="A105" s="5"/>
       <c r="B105" s="3" t="s">
-        <v>3943</v>
+        <v>3918</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>3931</v>
-      </c>
-      <c r="D105" s="3"/>
+        <v>3908</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>3909</v>
+      </c>
       <c r="E105" s="5" t="s">
-        <v>3932</v>
+        <v>3910</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>3820</v>
+        <v>3823</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>3844</v>
+        <v>3846</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>3892</v>
+        <v>3884</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>3933</v>
+        <v>3911</v>
       </c>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
       <c r="N105" s="3" t="s">
-        <v>3941</v>
+        <v>3917</v>
       </c>
       <c r="O105" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P105" s="3"/>
       <c r="Q105" s="3" t="s">
-        <v>3935</v>
+        <v>3913</v>
       </c>
       <c r="R105" s="3" t="s">
         <v>29</v>
       </c>
       <c r="S105" s="3" t="s">
-        <v>3936</v>
+        <v>3914</v>
       </c>
     </row>
   </sheetData>
@@ -56123,22 +56028,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3944</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3945</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3946</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" t="s">
-        <v>3944</v>
+        <v>3919</v>
       </c>
     </row>
   </sheetData>
@@ -56190,21 +56095,21 @@
     <row r="6" ht="14.25">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>3947</v>
+        <v>3922</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>3948</v>
+        <v>3923</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="5"/>
       <c r="F6" s="3" t="s">
-        <v>3949</v>
+        <v>3924</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>3950</v>
+        <v>3925</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>3951</v>
+        <v>3926</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -56212,40 +56117,40 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
-        <v>3952</v>
+        <v>3927</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3" t="s">
-        <v>3953</v>
+        <v>3928</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>3954</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>3955</v>
+        <v>3930</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3948</v>
+        <v>3923</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="5"/>
       <c r="F7" s="3" t="s">
-        <v>3949</v>
+        <v>3924</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>3950</v>
+        <v>3925</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>3951</v>
+        <v>3926</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -56253,40 +56158,40 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>3952</v>
+        <v>3927</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3" t="s">
-        <v>3953</v>
+        <v>3928</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>3954</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>3956</v>
+        <v>3931</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3948</v>
+        <v>3923</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="5"/>
       <c r="F8" s="3" t="s">
-        <v>3949</v>
+        <v>3924</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>3950</v>
+        <v>3925</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>3951</v>
+        <v>3926</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -56294,40 +56199,40 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>3952</v>
+        <v>3927</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3" t="s">
-        <v>3953</v>
+        <v>3928</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>3954</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
-        <v>3957</v>
+        <v>3932</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3948</v>
+        <v>3923</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="5"/>
       <c r="F9" s="3" t="s">
-        <v>3949</v>
+        <v>3924</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>3950</v>
+        <v>3925</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>3951</v>
+        <v>3926</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -56335,40 +56240,40 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
-        <v>3952</v>
+        <v>3927</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3" t="s">
-        <v>3953</v>
+        <v>3928</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>3954</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>3958</v>
+        <v>3933</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>3948</v>
+        <v>3923</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="5"/>
       <c r="F10" s="3" t="s">
-        <v>3949</v>
+        <v>3924</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>3950</v>
+        <v>3925</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>3951</v>
+        <v>3926</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -56376,20 +56281,20 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
-        <v>3952</v>
+        <v>3927</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>397</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3" t="s">
-        <v>3953</v>
+        <v>3928</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>3954</v>
+        <v>3929</v>
       </c>
     </row>
   </sheetData>

--- a/Selected_Downloads.xlsx
+++ b/Selected_Downloads.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Revistas" sheetId="1" state="visible" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4152" uniqueCount="4152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4156" uniqueCount="4156">
   <si>
     <t>Index</t>
   </si>
@@ -10306,6 +10306,123 @@
     <t xml:space="preserve">James Shelby Downard Books</t>
   </si>
   <si>
+    <t>degeneratemodern00jone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degenerate moderns : modernity as rationalized sexual misbehavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jones, E. Michael</t>
+  </si>
+  <si>
+    <t>/Pol/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes bibliographical references</t>
+  </si>
+  <si>
+    <t>dionysosrisingbi0000jone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dionysos rising : the birth of cultural revolution out of the spirit of music </t>
+  </si>
+  <si>
+    <t xml:space="preserve">181 p  Includes bibliographical references (p. 171-194) and index Richard Wagner : chromaticism, adultery, and the beginning of our cultural revolution -- Friedrich Nietzsche : transvaluation of all values as the prosecution of the cultural war -- Arnold Schönberg : craving the law and the totalitarian reaction -- Sympathy for the devil : Theodor Adorno, Aleister Crowley, Mick Jagger</t>
+  </si>
+  <si>
+    <t>jewishrevolution0000jone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Jewish revolutionary spirit : and its impact on world history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1200 p. ; 24 cm Includes bibliographical references (p. 1079-1159) and index</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>jones-e.-m.-libido-dominandi-2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libido Dominandi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The book's subtitle: "Sexual Liberation and Political Control".[from rear board:]". . . Over the course of the two-hundred-year span covered by this book, the development of technologies of communication, reproduction, and psychic control -- including psychotherapy, behaviorism, advertising, sensitivity training, pornography, and, when push came to shove, plain old blackmail -- allowed the Enlightenment and its heirs to turn Augustine's insight on its head and create masters out of men's vices. *Libido Dominandi* is the story of how that happened. . .</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>livingmachinesba0000jone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Living machines : Bauhaus architecture as sexual ideology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">128 p. : 23 cm Includes bibliographical references (p. [123]) and index</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>slaughterofcitie0000jone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The slaughter of cities : urban renewal as ethnic cleansing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">x, 668 pages ; 24 cm Includes bibliographical references (p. 642-652) and index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manifesto For the Abolition of Interest-Slavery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gottfried Feder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gruesome Harvest: The Costly Attempt To Exterminate The People of Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ralph Franklin Keeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Diabo, Lutero e a Reforma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gothic Violence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mika Ma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet Far Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harassment Architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Ma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day of the Rope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devon Stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always the Hoprizon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murdoch Murdoch</t>
+  </si>
+  <si>
+    <t>Steelstorm</t>
+  </si>
+  <si>
+    <t>Thomas777</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perception Of Oppression</t>
   </si>
   <si>
@@ -10318,123 +10435,6 @@
     <t xml:space="preserve">Leaving the Cathedral</t>
   </si>
   <si>
-    <t>degeneratemodern00jone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Degenerate moderns : modernity as rationalized sexual misbehavior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jones, E. Michael</t>
-  </si>
-  <si>
-    <t>/Pol/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Includes bibliographical references</t>
-  </si>
-  <si>
-    <t>dionysosrisingbi0000jone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dionysos rising : the birth of cultural revolution out of the spirit of music </t>
-  </si>
-  <si>
-    <t xml:space="preserve">181 p  Includes bibliographical references (p. 171-194) and index Richard Wagner : chromaticism, adultery, and the beginning of our cultural revolution -- Friedrich Nietzsche : transvaluation of all values as the prosecution of the cultural war -- Arnold Schönberg : craving the law and the totalitarian reaction -- Sympathy for the devil : Theodor Adorno, Aleister Crowley, Mick Jagger</t>
-  </si>
-  <si>
-    <t>jewishrevolution0000jone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Jewish revolutionary spirit : and its impact on world history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1200 p. ; 24 cm Includes bibliographical references (p. 1079-1159) and index</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>jones-e.-m.-libido-dominandi-2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libido Dominandi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The book's subtitle: "Sexual Liberation and Political Control".[from rear board:]". . . Over the course of the two-hundred-year span covered by this book, the development of technologies of communication, reproduction, and psychic control -- including psychotherapy, behaviorism, advertising, sensitivity training, pornography, and, when push came to shove, plain old blackmail -- allowed the Enlightenment and its heirs to turn Augustine's insight on its head and create masters out of men's vices. *Libido Dominandi* is the story of how that happened. . .</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>livingmachinesba0000jone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Living machines : Bauhaus architecture as sexual ideology </t>
-  </si>
-  <si>
-    <t xml:space="preserve">128 p. : 23 cm Includes bibliographical references (p. [123]) and index</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>slaughterofcitie0000jone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The slaughter of cities : urban renewal as ethnic cleansing </t>
-  </si>
-  <si>
-    <t xml:space="preserve">x, 668 pages ; 24 cm Includes bibliographical references (p. 642-652) and index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manifesto For the Abolition of Interest-Slavery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gottfried Feder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gruesome Harvest: The Costly Attempt To Exterminate The People of Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ralph Franklin Keeling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Diabo, Lutero e a Reforma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gothic Violence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mika Ma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internet Far Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harassment Architecture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mike Ma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day of the Rope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devon Stack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Always the Hoprizon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murdoch Murdoch</t>
-  </si>
-  <si>
-    <t>Steelstorm</t>
-  </si>
-  <si>
-    <t>Thomas777</t>
-  </si>
-  <si>
     <t xml:space="preserve">Harold Wallace Rosenthal</t>
   </si>
   <si>
@@ -11218,6 +11218,9 @@
     <t xml:space="preserve">The Firebrand of Bolshevism: The True Story Of The Bolseviki</t>
   </si>
   <si>
+    <t xml:space="preserve">Edward Gibbon Works</t>
+  </si>
+  <si>
     <t xml:space="preserve">Making Dystopia: The Strange Rise and Survival of Architectural Barbarism</t>
   </si>
   <si>
@@ -12010,6 +12013,12 @@
     <t xml:space="preserve">Preston B. Nichols</t>
   </si>
   <si>
+    <t xml:space="preserve">The Milner Fabian Conspiracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ioan Ratiu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hollywood's War on God</t>
   </si>
   <si>
@@ -12028,6 +12037,9 @@
     <t xml:space="preserve">Esoteric Hollywood 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Esoteric Hollywood 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Operation Culture Creation and Hollywood Mind Control</t>
   </si>
   <si>
@@ -12334,13 +12346,13 @@
     <t xml:space="preserve">Leon De Poncis</t>
   </si>
   <si>
+    <t>Vatican</t>
+  </si>
+  <si>
     <t xml:space="preserve">Windswept House</t>
   </si>
   <si>
     <t xml:space="preserve">Malachi Martin</t>
-  </si>
-  <si>
-    <t>Vatican</t>
   </si>
   <si>
     <t xml:space="preserve">The Jesuits</t>
@@ -12575,7 +12587,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -12607,9 +12619,6 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -44652,268 +44661,268 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A144" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" style="11" width="9.140625"/>
-    <col customWidth="1" min="3" max="3" style="11" width="89.8515625"/>
-    <col customWidth="1" min="4" max="4" style="11" width="35.7109375"/>
+    <col customWidth="1" min="3" max="3" style="11" width="71.421875"/>
+    <col customWidth="1" min="4" max="4" style="11" width="43.8515625"/>
     <col min="5" max="5" style="11" width="9.140625"/>
     <col customWidth="1" min="6" max="6" style="11" width="24.57421875"/>
-    <col customWidth="1" min="7" max="7" style="14" width="18.00390625"/>
+    <col customWidth="1" min="7" max="7" style="13" width="18.00390625"/>
     <col min="8" max="16384" style="11" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>3934</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="14" t="s">
+        <v>3935</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" ht="16.5">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
-        <v>3935</v>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16" t="s">
+        <v>3936</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>3936</v>
+        <v>3937</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11" t="s">
-        <v>3428</v>
-      </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+        <v>3467</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" ht="16.5">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
-        <v>3937</v>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16" t="s">
+        <v>3938</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>3938</v>
+        <v>3939</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="18" t="s">
-        <v>3428</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="F3" s="17" t="s">
+        <v>3467</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" ht="16.5">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17" t="s">
-        <v>3939</v>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="s">
+        <v>3940</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>3940</v>
+        <v>3941</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="18" t="s">
-        <v>3428</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="F4" s="17" t="s">
+        <v>3467</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" ht="16.5">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="s">
-        <v>3941</v>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
+        <v>3942</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>3942</v>
+        <v>3943</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
-        <v>3428</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+        <v>3467</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" ht="16.5">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17" t="s">
-        <v>3943</v>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16" t="s">
+        <v>3944</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>3944</v>
+        <v>3945</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="17" t="s">
-        <v>3428</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="F6" s="16" t="s">
+        <v>3467</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" ht="16.5">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17" t="s">
-        <v>3945</v>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16" t="s">
+        <v>3946</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>3946</v>
+        <v>3947</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="17" t="s">
-        <v>3428</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>3467</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" ht="16.5">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16" t="s">
+        <v>3948</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>3947</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>3946</v>
-      </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="17" t="s">
-        <v>3428</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="F8" s="16" t="s">
+        <v>3467</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" ht="16.5">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="s">
-        <v>3948</v>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
+        <v>3949</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>3949</v>
+        <v>3950</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="17" t="s">
-        <v>3428</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="F9" s="16" t="s">
+        <v>3467</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" ht="16.5">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="19" t="s">
-        <v>3950</v>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="18" t="s">
+        <v>3951</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>3951</v>
+        <v>3952</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="17" t="s">
-        <v>3428</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="F10" s="16" t="s">
+        <v>3467</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" ht="16.5">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17" t="s">
-        <v>3428</v>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16" t="s">
+        <v>3467</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>3426</v>
+        <v>3465</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="17" t="s">
-        <v>3428</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="F11" s="16" t="s">
+        <v>3467</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" ht="16.5">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="20" t="s">
-        <v>3952</v>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="19" t="s">
+        <v>3953</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>3953</v>
+        <v>3954</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="17" t="s">
-        <v>3428</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="F12" s="16" t="s">
+        <v>3467</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" ht="16.5">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17" t="s">
-        <v>3954</v>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16" t="s">
+        <v>3955</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>3955</v>
+        <v>3956</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="17" t="s">
-        <v>3428</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+      <c r="F13" s="16" t="s">
+        <v>3467</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" ht="16.5">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
-        <v>3956</v>
+        <v>3957</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>3957</v>
+        <v>3958</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="17" t="s">
-        <v>3958</v>
-      </c>
-      <c r="G14" s="14"/>
+      <c r="F14" s="16" t="s">
+        <v>3959</v>
+      </c>
+      <c r="G14" s="13"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
@@ -44921,16 +44930,16 @@
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11" t="s">
+        <v>3960</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>3961</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="16" t="s">
         <v>3959</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>3960</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="17" t="s">
-        <v>3958</v>
-      </c>
-      <c r="G15" s="14"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
@@ -44938,16 +44947,16 @@
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11" t="s">
-        <v>3961</v>
+        <v>3962</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>3962</v>
+        <v>3963</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="17" t="s">
-        <v>3958</v>
-      </c>
-      <c r="G16" s="14"/>
+      <c r="F16" s="16" t="s">
+        <v>3959</v>
+      </c>
+      <c r="G16" s="13"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
@@ -44955,16 +44964,16 @@
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
-        <v>3963</v>
-      </c>
-      <c r="D17" s="18" t="s">
         <v>3964</v>
       </c>
+      <c r="D17" s="17" t="s">
+        <v>3965</v>
+      </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="17" t="s">
-        <v>3958</v>
-      </c>
-      <c r="G17" s="14"/>
+      <c r="F17" s="16" t="s">
+        <v>3959</v>
+      </c>
+      <c r="G17" s="13"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
@@ -44972,16 +44981,16 @@
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>3965</v>
+        <v>3966</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>3966</v>
+        <v>3967</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="17" t="s">
-        <v>3958</v>
-      </c>
-      <c r="G18" s="14"/>
+      <c r="F18" s="16" t="s">
+        <v>3959</v>
+      </c>
+      <c r="G18" s="13"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
@@ -44989,16 +44998,16 @@
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
-        <v>3967</v>
+        <v>3968</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>3968</v>
+        <v>3969</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11" t="s">
-        <v>3958</v>
-      </c>
-      <c r="G19" s="14"/>
+        <v>3959</v>
+      </c>
+      <c r="G19" s="13"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
@@ -45006,50 +45015,50 @@
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11" t="s">
-        <v>3969</v>
+        <v>3970</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>3970</v>
+        <v>3971</v>
       </c>
       <c r="E20" s="11"/>
-      <c r="F20" s="17" t="s">
-        <v>3958</v>
-      </c>
-      <c r="G20" s="14"/>
+      <c r="F20" s="16" t="s">
+        <v>3959</v>
+      </c>
+      <c r="G20" s="13"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
     </row>
     <row r="21" ht="16.5">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="18" t="s">
-        <v>3971</v>
-      </c>
-      <c r="D21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>3972</v>
       </c>
+      <c r="D21" s="17" t="s">
+        <v>3973</v>
+      </c>
       <c r="E21" s="11"/>
-      <c r="F21" s="17" t="s">
-        <v>3958</v>
-      </c>
-      <c r="G21" s="14"/>
+      <c r="F21" s="16" t="s">
+        <v>3959</v>
+      </c>
+      <c r="G21" s="13"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="18"/>
+      <c r="I21" s="17"/>
     </row>
     <row r="22" ht="16.5">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
-        <v>3973</v>
-      </c>
-      <c r="D22" s="18" t="s">
         <v>3974</v>
       </c>
+      <c r="D22" s="17" t="s">
+        <v>3975</v>
+      </c>
       <c r="E22" s="11"/>
-      <c r="F22" s="17" t="s">
-        <v>3958</v>
-      </c>
-      <c r="G22" s="14"/>
+      <c r="F22" s="16" t="s">
+        <v>3959</v>
+      </c>
+      <c r="G22" s="13"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
     </row>
@@ -45057,16 +45066,16 @@
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11" t="s">
-        <v>3975</v>
+        <v>3976</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>3976</v>
+        <v>3977</v>
       </c>
       <c r="E23" s="11"/>
-      <c r="F23" s="17" t="s">
-        <v>3958</v>
-      </c>
-      <c r="G23" s="14"/>
+      <c r="F23" s="16" t="s">
+        <v>3959</v>
+      </c>
+      <c r="G23" s="13"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
     </row>
@@ -45074,16 +45083,16 @@
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11" t="s">
-        <v>3977</v>
+        <v>3978</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>3978</v>
+        <v>3979</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11" t="s">
-        <v>3979</v>
-      </c>
-      <c r="G24" s="14"/>
+        <v>3980</v>
+      </c>
+      <c r="G24" s="13"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
     </row>
@@ -45091,16 +45100,16 @@
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11" t="s">
-        <v>3980</v>
+        <v>3981</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>3981</v>
+        <v>3982</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11" t="s">
-        <v>3979</v>
-      </c>
-      <c r="G25" s="14"/>
+        <v>3980</v>
+      </c>
+      <c r="G25" s="13"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
     </row>
@@ -45108,16 +45117,16 @@
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11" t="s">
-        <v>3982</v>
-      </c>
-      <c r="D26" s="17" t="s">
         <v>3983</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="D26" s="16" t="s">
+        <v>3984</v>
+      </c>
+      <c r="E26" s="16"/>
       <c r="F26" s="11" t="s">
-        <v>3979</v>
-      </c>
-      <c r="G26" s="14"/>
+        <v>3980</v>
+      </c>
+      <c r="G26" s="13"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
     </row>
@@ -45125,84 +45134,84 @@
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11" t="s">
-        <v>3984</v>
+        <v>3985</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>3985</v>
+        <v>3986</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11" t="s">
-        <v>3986</v>
-      </c>
-      <c r="G27" s="14"/>
+        <v>3987</v>
+      </c>
+      <c r="G27" s="13"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
     </row>
     <row r="28" ht="16.5">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="19" t="s">
-        <v>3987</v>
-      </c>
-      <c r="D28" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>3988</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19" t="s">
-        <v>3979</v>
-      </c>
-      <c r="G28" s="14"/>
+      <c r="D28" s="18" t="s">
+        <v>3989</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18" t="s">
+        <v>3980</v>
+      </c>
+      <c r="G28" s="13"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
     </row>
     <row r="29" ht="16.5">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="19" t="s">
-        <v>3989</v>
-      </c>
-      <c r="D29" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>3990</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19" t="s">
-        <v>3979</v>
-      </c>
-      <c r="G29" s="14"/>
+      <c r="D29" s="18" t="s">
+        <v>3991</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18" t="s">
+        <v>3980</v>
+      </c>
+      <c r="G29" s="13"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
     </row>
     <row r="30" ht="16.5">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
-      <c r="C30" s="19" t="s">
-        <v>3991</v>
-      </c>
-      <c r="D30" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>3992</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19" t="s">
-        <v>3979</v>
-      </c>
-      <c r="G30" s="14"/>
+      <c r="D30" s="18" t="s">
+        <v>3993</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18" t="s">
+        <v>3980</v>
+      </c>
+      <c r="G30" s="13"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
     </row>
     <row r="31" ht="16.5">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
-      <c r="C31" s="11" t="s">
-        <v>3993</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="18" t="s">
         <v>3994</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="11" t="s">
+      <c r="D31" s="18" t="s">
         <v>3995</v>
       </c>
-      <c r="G31" s="14"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18" t="s">
+        <v>3980</v>
+      </c>
+      <c r="G31" s="13"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
     </row>
@@ -45215,11 +45224,11 @@
       <c r="D32" s="11" t="s">
         <v>3997</v>
       </c>
-      <c r="E32" s="11"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="11" t="s">
-        <v>3995</v>
-      </c>
-      <c r="G32" s="14"/>
+        <v>3998</v>
+      </c>
+      <c r="G32" s="13"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
     </row>
@@ -45227,16 +45236,16 @@
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11" t="s">
-        <v>3998</v>
+        <v>3999</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>3997</v>
+        <v>4000</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11" t="s">
-        <v>3995</v>
-      </c>
-      <c r="G33" s="14"/>
+        <v>3998</v>
+      </c>
+      <c r="G33" s="13"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
     </row>
@@ -45244,16 +45253,16 @@
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11" t="s">
-        <v>3999</v>
+        <v>4001</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>4000</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11" t="s">
-        <v>3995</v>
-      </c>
-      <c r="G34" s="14"/>
+        <v>3998</v>
+      </c>
+      <c r="G34" s="13"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
     </row>
@@ -45261,288 +45270,288 @@
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11" t="s">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>4002</v>
-      </c>
-      <c r="E35" s="17"/>
+        <v>4000</v>
+      </c>
+      <c r="E35" s="11"/>
       <c r="F35" s="11" t="s">
-        <v>3995</v>
-      </c>
-      <c r="G35" s="14"/>
+        <v>3998</v>
+      </c>
+      <c r="G35" s="13"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
     </row>
     <row r="36" ht="16.5">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="11" t="s">
         <v>4003</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="11" t="s">
         <v>4004</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11" t="s">
-        <v>4005</v>
-      </c>
-      <c r="G36" s="14"/>
+        <v>3998</v>
+      </c>
+      <c r="G36" s="13"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
     </row>
     <row r="37" ht="16.5">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="11" t="s">
+        <v>4005</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>4006</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>4007</v>
-      </c>
-      <c r="E37" s="11"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="11" t="s">
-        <v>4005</v>
-      </c>
-      <c r="G37" s="14"/>
+        <v>3998</v>
+      </c>
+      <c r="G37" s="13"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
     </row>
     <row r="38" ht="16.5">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="18" t="s">
+        <v>4007</v>
+      </c>
+      <c r="D38" s="16" t="s">
         <v>4008</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>4009</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="s">
-        <v>4005</v>
-      </c>
-      <c r="G38" s="14"/>
+        <v>4009</v>
+      </c>
+      <c r="G38" s="13"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
     </row>
-    <row r="39" ht="16.5">
+    <row r="39" ht="33">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="18" t="s">
         <v>4010</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="16" t="s">
         <v>4011</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11" t="s">
-        <v>4005</v>
-      </c>
-      <c r="G39" s="14"/>
+        <v>4009</v>
+      </c>
+      <c r="G39" s="13"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" ht="16.5">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="18" t="s">
         <v>4012</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="16" t="s">
         <v>4013</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
-        <v>4005</v>
-      </c>
-      <c r="G40" s="14"/>
+        <v>4009</v>
+      </c>
+      <c r="G40" s="13"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
     </row>
     <row r="41" ht="16.5">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="18" t="s">
         <v>4014</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="16" t="s">
         <v>4015</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11" t="s">
-        <v>4005</v>
-      </c>
-      <c r="G41" s="14"/>
+        <v>4009</v>
+      </c>
+      <c r="G41" s="13"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
     </row>
-    <row r="42" ht="16.5">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="18" t="s">
         <v>4016</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="16" t="s">
         <v>4017</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11" t="s">
-        <v>4005</v>
-      </c>
-      <c r="G42" s="14"/>
+        <v>4009</v>
+      </c>
+      <c r="G42" s="13"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
     </row>
     <row r="43" ht="16.5">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="18" t="s">
         <v>4018</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="16" t="s">
         <v>4019</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11" t="s">
-        <v>4005</v>
-      </c>
-      <c r="G43" s="14"/>
+        <v>4009</v>
+      </c>
+      <c r="G43" s="13"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
     </row>
     <row r="44" ht="16.5">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="18" t="s">
         <v>4020</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>4017</v>
+      <c r="D44" s="16" t="s">
+        <v>4021</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="11" t="s">
-        <v>4005</v>
-      </c>
-      <c r="G44" s="14"/>
+        <v>4009</v>
+      </c>
+      <c r="G44" s="13"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
     </row>
     <row r="45" ht="16.5">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
-      <c r="C45" s="19" t="s">
-        <v>4021</v>
-      </c>
-      <c r="D45" s="17" t="s">
+      <c r="C45" s="18" t="s">
         <v>4022</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>4023</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11" t="s">
-        <v>4005</v>
-      </c>
-      <c r="G45" s="14"/>
+        <v>4009</v>
+      </c>
+      <c r="G45" s="13"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
     </row>
     <row r="46" ht="16.5">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
-      <c r="C46" s="19" t="s">
-        <v>4023</v>
-      </c>
-      <c r="D46" s="17" t="s">
+      <c r="C46" s="18" t="s">
         <v>4024</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>4021</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11" t="s">
-        <v>4005</v>
-      </c>
-      <c r="G46" s="14"/>
+        <v>4009</v>
+      </c>
+      <c r="G46" s="13"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
     </row>
-    <row r="47" ht="16.5">
+    <row r="47" ht="33">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="18" t="s">
         <v>4025</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="16" t="s">
         <v>4026</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11" t="s">
-        <v>4005</v>
-      </c>
-      <c r="G47" s="14"/>
+        <v>4009</v>
+      </c>
+      <c r="G47" s="13"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
     </row>
     <row r="48" ht="16.5">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="18" t="s">
         <v>4027</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="16" t="s">
         <v>4028</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11" t="s">
-        <v>4005</v>
-      </c>
-      <c r="G48" s="14"/>
+        <v>4009</v>
+      </c>
+      <c r="G48" s="13"/>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
     </row>
     <row r="49" ht="16.5">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="18" t="s">
         <v>4029</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="16" t="s">
         <v>4030</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11" t="s">
-        <v>4005</v>
-      </c>
-      <c r="G49" s="14"/>
+        <v>4009</v>
+      </c>
+      <c r="G49" s="13"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
     </row>
-    <row r="50" ht="16.5">
+    <row r="50" ht="33">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="18" t="s">
         <v>4031</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="16" t="s">
         <v>4032</v>
       </c>
-      <c r="E50" s="17"/>
+      <c r="E50" s="11"/>
       <c r="F50" s="11" t="s">
-        <v>4033</v>
-      </c>
-      <c r="G50" s="14"/>
+        <v>4009</v>
+      </c>
+      <c r="G50" s="13"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
     </row>
     <row r="51" ht="16.5">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="18" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D51" s="16" t="s">
         <v>4034</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>4035</v>
-      </c>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17" t="s">
-        <v>4033</v>
-      </c>
-      <c r="G51" s="14"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11" t="s">
+        <v>4009</v>
+      </c>
+      <c r="G51" s="13"/>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
     </row>
@@ -45550,33 +45559,33 @@
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11" t="s">
+        <v>4035</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>4036</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="E52" s="16"/>
+      <c r="F52" s="11" t="s">
         <v>4037</v>
       </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="11" t="s">
-        <v>4038</v>
-      </c>
-      <c r="G52" s="14"/>
+      <c r="G52" s="13"/>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
     </row>
     <row r="53" ht="16.5">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="16" t="s">
+        <v>4038</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>4039</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>4040</v>
-      </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="17" t="s">
-        <v>4038</v>
-      </c>
-      <c r="G53" s="14"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16" t="s">
+        <v>4037</v>
+      </c>
+      <c r="G53" s="13"/>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
     </row>
@@ -45584,16 +45593,16 @@
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11" t="s">
+        <v>4040</v>
+      </c>
+      <c r="D54" s="16" t="s">
         <v>4041</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="E54" s="16"/>
+      <c r="F54" s="11" t="s">
         <v>4042</v>
       </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="17" t="s">
-        <v>4038</v>
-      </c>
-      <c r="G54" s="14"/>
+      <c r="G54" s="13"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
     </row>
@@ -45607,10 +45616,10 @@
         <v>4044</v>
       </c>
       <c r="E55" s="11"/>
-      <c r="F55" s="17" t="s">
-        <v>4038</v>
-      </c>
-      <c r="G55" s="14"/>
+      <c r="F55" s="16" t="s">
+        <v>4042</v>
+      </c>
+      <c r="G55" s="13"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
     </row>
@@ -45624,10 +45633,10 @@
         <v>4046</v>
       </c>
       <c r="E56" s="11"/>
-      <c r="F56" s="17" t="s">
-        <v>4038</v>
-      </c>
-      <c r="G56" s="14"/>
+      <c r="F56" s="16" t="s">
+        <v>4042</v>
+      </c>
+      <c r="G56" s="13"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
     </row>
@@ -45641,10 +45650,10 @@
         <v>4048</v>
       </c>
       <c r="E57" s="11"/>
-      <c r="F57" s="21" t="s">
-        <v>4049</v>
-      </c>
-      <c r="G57" s="14"/>
+      <c r="F57" s="16" t="s">
+        <v>4042</v>
+      </c>
+      <c r="G57" s="13"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
     </row>
@@ -45652,16 +45661,16 @@
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11" t="s">
+        <v>4049</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>4050</v>
       </c>
-      <c r="D58" s="11" t="s">
-        <v>4051</v>
-      </c>
       <c r="E58" s="11"/>
-      <c r="F58" s="21" t="s">
-        <v>4049</v>
-      </c>
-      <c r="G58" s="14"/>
+      <c r="F58" s="16" t="s">
+        <v>4042</v>
+      </c>
+      <c r="G58" s="13"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
     </row>
@@ -45669,16 +45678,16 @@
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11" t="s">
+        <v>4051</v>
+      </c>
+      <c r="D59" s="11" t="s">
         <v>4052</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="E59" s="11"/>
+      <c r="F59" s="20" t="s">
         <v>4053</v>
       </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="21" t="s">
-        <v>4049</v>
-      </c>
-      <c r="G59" s="14"/>
+      <c r="G59" s="13"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
     </row>
@@ -45692,10 +45701,10 @@
         <v>4055</v>
       </c>
       <c r="E60" s="11"/>
-      <c r="F60" s="21" t="s">
-        <v>4049</v>
-      </c>
-      <c r="G60" s="14"/>
+      <c r="F60" s="20" t="s">
+        <v>4053</v>
+      </c>
+      <c r="G60" s="13"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
     </row>
@@ -45709,10 +45718,10 @@
         <v>4057</v>
       </c>
       <c r="E61" s="11"/>
-      <c r="F61" s="21" t="s">
-        <v>4049</v>
-      </c>
-      <c r="G61" s="14"/>
+      <c r="F61" s="20" t="s">
+        <v>4053</v>
+      </c>
+      <c r="G61" s="13"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
     </row>
@@ -45726,10 +45735,10 @@
         <v>4059</v>
       </c>
       <c r="E62" s="11"/>
-      <c r="F62" s="21" t="s">
-        <v>4049</v>
-      </c>
-      <c r="G62" s="14"/>
+      <c r="F62" s="20" t="s">
+        <v>4053</v>
+      </c>
+      <c r="G62" s="13"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
     </row>
@@ -45743,10 +45752,10 @@
         <v>4061</v>
       </c>
       <c r="E63" s="11"/>
-      <c r="F63" s="21" t="s">
-        <v>4049</v>
-      </c>
-      <c r="G63" s="14"/>
+      <c r="F63" s="20" t="s">
+        <v>4053</v>
+      </c>
+      <c r="G63" s="13"/>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
     </row>
@@ -45760,10 +45769,10 @@
         <v>4063</v>
       </c>
       <c r="E64" s="11"/>
-      <c r="F64" s="21" t="s">
-        <v>4049</v>
-      </c>
-      <c r="G64" s="14"/>
+      <c r="F64" s="20" t="s">
+        <v>4053</v>
+      </c>
+      <c r="G64" s="13"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
     </row>
@@ -45777,10 +45786,10 @@
         <v>4065</v>
       </c>
       <c r="E65" s="11"/>
-      <c r="F65" s="21" t="s">
-        <v>4049</v>
-      </c>
-      <c r="G65" s="14"/>
+      <c r="F65" s="20" t="s">
+        <v>4053</v>
+      </c>
+      <c r="G65" s="13"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
     </row>
@@ -45794,10 +45803,10 @@
         <v>4067</v>
       </c>
       <c r="E66" s="11"/>
-      <c r="F66" s="11" t="s">
-        <v>4068</v>
-      </c>
-      <c r="G66" s="14"/>
+      <c r="F66" s="20" t="s">
+        <v>4053</v>
+      </c>
+      <c r="G66" s="13"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
     </row>
@@ -45811,10 +45820,10 @@
         <v>4069</v>
       </c>
       <c r="E67" s="11"/>
-      <c r="F67" s="11" t="s">
-        <v>4068</v>
-      </c>
-      <c r="G67" s="14"/>
+      <c r="F67" s="20" t="s">
+        <v>4053</v>
+      </c>
+      <c r="G67" s="13"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
     </row>
@@ -45829,9 +45838,9 @@
       </c>
       <c r="E68" s="11"/>
       <c r="F68" s="11" t="s">
-        <v>4068</v>
-      </c>
-      <c r="G68" s="14"/>
+        <v>4072</v>
+      </c>
+      <c r="G68" s="13"/>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
     </row>
@@ -45846,9 +45855,9 @@
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="11" t="s">
-        <v>4068</v>
-      </c>
-      <c r="G69" s="14"/>
+        <v>4072</v>
+      </c>
+      <c r="G69" s="13"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
     </row>
@@ -45859,13 +45868,13 @@
         <v>4074</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>4073</v>
+        <v>4075</v>
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="11" t="s">
-        <v>4068</v>
-      </c>
-      <c r="G70" s="14"/>
+        <v>4072</v>
+      </c>
+      <c r="G70" s="13"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
     </row>
@@ -45873,16 +45882,16 @@
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11" t="s">
-        <v>4075</v>
+        <v>4076</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>4073</v>
+        <v>4077</v>
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="11" t="s">
-        <v>4068</v>
-      </c>
-      <c r="G71" s="14"/>
+        <v>4072</v>
+      </c>
+      <c r="G71" s="13"/>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
     </row>
@@ -45890,16 +45899,16 @@
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11" t="s">
-        <v>4076</v>
+        <v>4078</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>4073</v>
+        <v>4077</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="11" t="s">
-        <v>4068</v>
-      </c>
-      <c r="G72" s="14"/>
+        <v>4072</v>
+      </c>
+      <c r="G72" s="13"/>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
     </row>
@@ -45907,16 +45916,16 @@
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11" t="s">
+        <v>4079</v>
+      </c>
+      <c r="D73" s="11" t="s">
         <v>4077</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>4078</v>
       </c>
       <c r="E73" s="11"/>
       <c r="F73" s="11" t="s">
-        <v>4068</v>
-      </c>
-      <c r="G73" s="14"/>
+        <v>4072</v>
+      </c>
+      <c r="G73" s="13"/>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
     </row>
@@ -45924,16 +45933,16 @@
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11" t="s">
-        <v>4079</v>
+        <v>4080</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>4078</v>
+        <v>4077</v>
       </c>
       <c r="E74" s="11"/>
       <c r="F74" s="11" t="s">
-        <v>4068</v>
-      </c>
-      <c r="G74" s="14"/>
+        <v>4072</v>
+      </c>
+      <c r="G74" s="13"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
     </row>
@@ -45941,16 +45950,16 @@
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11" t="s">
-        <v>4080</v>
+        <v>4081</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>4081</v>
+        <v>4082</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="11" t="s">
-        <v>4068</v>
-      </c>
-      <c r="G75" s="14"/>
+        <v>4072</v>
+      </c>
+      <c r="G75" s="13"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
     </row>
@@ -45958,16 +45967,16 @@
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11" t="s">
+        <v>4083</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>4082</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>4083</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="11" t="s">
-        <v>4068</v>
-      </c>
-      <c r="G76" s="14"/>
+        <v>4072</v>
+      </c>
+      <c r="G76" s="13"/>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
     </row>
@@ -45982,9 +45991,9 @@
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="11" t="s">
-        <v>4068</v>
-      </c>
-      <c r="G77" s="14"/>
+        <v>4072</v>
+      </c>
+      <c r="G77" s="13"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
     </row>
@@ -45995,13 +46004,13 @@
         <v>4086</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>4085</v>
+        <v>4087</v>
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="11" t="s">
-        <v>4068</v>
-      </c>
-      <c r="G78" s="14"/>
+        <v>4072</v>
+      </c>
+      <c r="G78" s="13"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
     </row>
@@ -46009,16 +46018,16 @@
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11" t="s">
-        <v>4087</v>
+        <v>4088</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>4085</v>
+        <v>4089</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="11" t="s">
-        <v>4068</v>
-      </c>
-      <c r="G79" s="14"/>
+        <v>4072</v>
+      </c>
+      <c r="G79" s="13"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
     </row>
@@ -46026,16 +46035,16 @@
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11" t="s">
-        <v>4088</v>
+        <v>4090</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>4085</v>
+        <v>4089</v>
       </c>
       <c r="E80" s="11"/>
       <c r="F80" s="11" t="s">
-        <v>4068</v>
-      </c>
-      <c r="G80" s="14"/>
+        <v>4072</v>
+      </c>
+      <c r="G80" s="13"/>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
     </row>
@@ -46043,16 +46052,16 @@
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11" t="s">
+        <v>4091</v>
+      </c>
+      <c r="D81" s="11" t="s">
         <v>4089</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>4085</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="11" t="s">
-        <v>4068</v>
-      </c>
-      <c r="G81" s="14"/>
+        <v>4072</v>
+      </c>
+      <c r="G81" s="13"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
     </row>
@@ -46060,16 +46069,16 @@
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11" t="s">
-        <v>4090</v>
+        <v>4092</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>4085</v>
+        <v>4089</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="11" t="s">
-        <v>4068</v>
-      </c>
-      <c r="G82" s="14"/>
+        <v>4072</v>
+      </c>
+      <c r="G82" s="13"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
     </row>
@@ -46077,16 +46086,16 @@
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11" t="s">
-        <v>4091</v>
+        <v>4093</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>4085</v>
+        <v>4089</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11" t="s">
-        <v>4068</v>
-      </c>
-      <c r="G83" s="14"/>
+        <v>4072</v>
+      </c>
+      <c r="G83" s="13"/>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
     </row>
@@ -46094,16 +46103,16 @@
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11" t="s">
-        <v>4092</v>
+        <v>4094</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>4085</v>
+        <v>4089</v>
       </c>
       <c r="E84" s="11"/>
       <c r="F84" s="11" t="s">
-        <v>4068</v>
-      </c>
-      <c r="G84" s="14"/>
+        <v>4072</v>
+      </c>
+      <c r="G84" s="13"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
     </row>
@@ -46111,16 +46120,16 @@
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11" t="s">
-        <v>4093</v>
+        <v>4095</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>4085</v>
+        <v>4089</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="11" t="s">
-        <v>4068</v>
-      </c>
-      <c r="G85" s="14"/>
+        <v>4072</v>
+      </c>
+      <c r="G85" s="13"/>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
     </row>
@@ -46128,16 +46137,16 @@
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11" t="s">
-        <v>4094</v>
+        <v>4096</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>4095</v>
+        <v>4089</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11" t="s">
-        <v>4096</v>
-      </c>
-      <c r="G86" s="14"/>
+        <v>4072</v>
+      </c>
+      <c r="G86" s="13"/>
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
     </row>
@@ -46148,13 +46157,13 @@
         <v>4097</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>4098</v>
-      </c>
-      <c r="E87" s="17"/>
+        <v>4089</v>
+      </c>
+      <c r="E87" s="11"/>
       <c r="F87" s="11" t="s">
-        <v>4096</v>
-      </c>
-      <c r="G87" s="14"/>
+        <v>4072</v>
+      </c>
+      <c r="G87" s="13"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
     </row>
@@ -46162,16 +46171,16 @@
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11" t="s">
+        <v>4098</v>
+      </c>
+      <c r="D88" s="11" t="s">
         <v>4099</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>4100</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11" t="s">
-        <v>4096</v>
-      </c>
-      <c r="G88" s="14"/>
+        <v>4100</v>
+      </c>
+      <c r="G88" s="13"/>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
     </row>
@@ -46184,11 +46193,11 @@
       <c r="D89" s="11" t="s">
         <v>4102</v>
       </c>
-      <c r="E89" s="11"/>
+      <c r="E89" s="16"/>
       <c r="F89" s="11" t="s">
-        <v>4103</v>
-      </c>
-      <c r="G89" s="14"/>
+        <v>4100</v>
+      </c>
+      <c r="G89" s="13"/>
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
     </row>
@@ -46196,16 +46205,16 @@
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11" t="s">
+        <v>4103</v>
+      </c>
+      <c r="D90" s="11" t="s">
         <v>4104</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>4102</v>
       </c>
       <c r="E90" s="11"/>
       <c r="F90" s="11" t="s">
-        <v>4103</v>
-      </c>
-      <c r="G90" s="14"/>
+        <v>4105</v>
+      </c>
+      <c r="G90" s="13"/>
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
     </row>
@@ -46213,16 +46222,16 @@
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11" t="s">
-        <v>4105</v>
+        <v>4106</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="11" t="s">
-        <v>4103</v>
-      </c>
-      <c r="G91" s="14"/>
+        <v>4105</v>
+      </c>
+      <c r="G91" s="13"/>
       <c r="H91" s="11"/>
       <c r="I91" s="11"/>
     </row>
@@ -46230,16 +46239,16 @@
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11" t="s">
-        <v>4106</v>
+        <v>4108</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="E92" s="11"/>
       <c r="F92" s="11" t="s">
-        <v>4103</v>
-      </c>
-      <c r="G92" s="14"/>
+        <v>4105</v>
+      </c>
+      <c r="G92" s="13"/>
       <c r="H92" s="11"/>
       <c r="I92" s="11"/>
     </row>
@@ -46247,16 +46256,16 @@
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11" t="s">
+        <v>4109</v>
+      </c>
+      <c r="D93" s="11" t="s">
         <v>4107</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>4102</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="11" t="s">
-        <v>4103</v>
-      </c>
-      <c r="G93" s="14"/>
+        <v>4105</v>
+      </c>
+      <c r="G93" s="13"/>
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
     </row>
@@ -46264,241 +46273,259 @@
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11" t="s">
-        <v>4108</v>
+        <v>4110</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>4102</v>
+        <v>4107</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="11" t="s">
-        <v>4103</v>
-      </c>
-      <c r="G94" s="14"/>
+        <v>4105</v>
+      </c>
+      <c r="G94" s="13"/>
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
     </row>
     <row r="95" ht="16.5">
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="11"/>
-    </row>
-    <row r="96" ht="14.25">
-      <c r="C96" s="18"/>
-      <c r="D96" s="11"/>
-      <c r="F96" s="11"/>
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11" t="s">
+        <v>4111</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>4107</v>
+      </c>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11" t="s">
+        <v>4105</v>
+      </c>
+      <c r="G95" s="13"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+    </row>
+    <row r="96" ht="16.5">
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11" t="s">
+        <v>4112</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>4107</v>
+      </c>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11" t="s">
+        <v>4105</v>
+      </c>
+      <c r="G96" s="13"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
     </row>
     <row r="97" ht="16.5">
-      <c r="C97" s="17" t="s">
-        <v>4109</v>
-      </c>
+      <c r="C97" s="11"/>
       <c r="D97" s="11"/>
+      <c r="E97" s="16"/>
       <c r="F97" s="11"/>
     </row>
-    <row r="98" ht="16.5">
-      <c r="C98" s="17" t="s">
-        <v>4110</v>
-      </c>
+    <row r="98" ht="14.25">
+      <c r="C98" s="17"/>
+      <c r="D98" s="11"/>
+      <c r="F98" s="11"/>
     </row>
     <row r="99" ht="16.5">
-      <c r="C99" s="17" t="s">
-        <v>4111</v>
-      </c>
+      <c r="C99" s="16" t="s">
+        <v>4113</v>
+      </c>
+      <c r="D99" s="11"/>
+      <c r="F99" s="11"/>
     </row>
     <row r="100" ht="16.5">
-      <c r="C100" s="17" t="s">
-        <v>4112</v>
+      <c r="C100" s="16" t="s">
+        <v>4114</v>
       </c>
     </row>
     <row r="101" ht="16.5">
-      <c r="C101" s="17" t="s">
-        <v>4113</v>
+      <c r="C101" s="16" t="s">
+        <v>4115</v>
       </c>
     </row>
     <row r="102" ht="16.5">
-      <c r="C102" s="17" t="s">
-        <v>4114</v>
+      <c r="C102" s="16" t="s">
+        <v>4116</v>
       </c>
     </row>
     <row r="103" ht="16.5">
-      <c r="C103" s="17" t="s">
-        <v>4115</v>
+      <c r="C103" s="16" t="s">
+        <v>4117</v>
       </c>
     </row>
     <row r="104" ht="16.5">
-      <c r="C104" s="17" t="s">
-        <v>4116</v>
+      <c r="C104" s="16" t="s">
+        <v>4118</v>
       </c>
     </row>
     <row r="105" ht="16.5">
-      <c r="C105" s="17" t="s">
-        <v>4117</v>
+      <c r="C105" s="16" t="s">
+        <v>4119</v>
       </c>
     </row>
     <row r="106" ht="16.5">
-      <c r="C106" s="17" t="s">
-        <v>4118</v>
+      <c r="C106" s="16" t="s">
+        <v>4120</v>
       </c>
     </row>
     <row r="107" ht="16.5">
-      <c r="C107" s="17" t="s">
-        <v>4119</v>
+      <c r="C107" s="16" t="s">
+        <v>4121</v>
       </c>
     </row>
     <row r="108" ht="16.5">
-      <c r="C108" s="17" t="s">
-        <v>4120</v>
+      <c r="C108" s="16" t="s">
+        <v>4122</v>
       </c>
     </row>
     <row r="109" ht="16.5">
-      <c r="C109" s="17" t="s">
-        <v>4121</v>
+      <c r="C109" s="16" t="s">
+        <v>4123</v>
       </c>
     </row>
     <row r="110" ht="16.5">
-      <c r="C110" s="17" t="s">
-        <v>4122</v>
+      <c r="C110" s="16" t="s">
+        <v>4124</v>
       </c>
     </row>
     <row r="111" ht="16.5">
-      <c r="C111" s="17" t="s">
-        <v>4123</v>
-      </c>
-      <c r="D111" s="11"/>
-      <c r="F111" s="11"/>
+      <c r="C111" s="16" t="s">
+        <v>4125</v>
+      </c>
     </row>
     <row r="112" ht="16.5">
-      <c r="C112" s="17" t="s">
-        <v>4124</v>
-      </c>
-      <c r="F112" s="11"/>
+      <c r="C112" s="16" t="s">
+        <v>4126</v>
+      </c>
     </row>
     <row r="113" ht="16.5">
-      <c r="C113" s="17" t="s">
-        <v>4125</v>
-      </c>
+      <c r="C113" s="16" t="s">
+        <v>4127</v>
+      </c>
+      <c r="D113" s="11"/>
       <c r="F113" s="11"/>
     </row>
     <row r="114" ht="16.5">
-      <c r="C114" s="17" t="s">
-        <v>4126</v>
+      <c r="C114" s="16" t="s">
+        <v>4128</v>
       </c>
       <c r="F114" s="11"/>
     </row>
     <row r="115" ht="16.5">
-      <c r="C115" s="17" t="s">
-        <v>4127</v>
-      </c>
+      <c r="C115" s="16" t="s">
+        <v>4129</v>
+      </c>
+      <c r="F115" s="11"/>
     </row>
     <row r="116" ht="16.5">
-      <c r="C116" s="20" t="s">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="117" ht="14.25"/>
+      <c r="C116" s="16" t="s">
+        <v>4130</v>
+      </c>
+      <c r="F116" s="11"/>
+    </row>
+    <row r="117" ht="16.5">
+      <c r="C117" s="16" t="s">
+        <v>4131</v>
+      </c>
+    </row>
     <row r="118" ht="16.5">
-      <c r="C118" s="17" t="s">
-        <v>4129</v>
-      </c>
-    </row>
-    <row r="119" ht="16.5">
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-    </row>
+      <c r="C118" s="19" t="s">
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="119" ht="14.25"/>
     <row r="120" ht="16.5">
-      <c r="C120" s="17" t="s">
-        <v>4130</v>
-      </c>
-      <c r="D120" s="11"/>
-      <c r="F120" s="11"/>
+      <c r="C120" s="16" t="s">
+        <v>4133</v>
+      </c>
     </row>
     <row r="121" ht="16.5">
-      <c r="C121" s="17" t="s">
-        <v>4131</v>
-      </c>
+      <c r="C121" s="11"/>
       <c r="D121" s="11"/>
     </row>
     <row r="122" ht="16.5">
-      <c r="C122" s="11"/>
+      <c r="C122" s="16" t="s">
+        <v>4134</v>
+      </c>
+      <c r="D122" s="11"/>
       <c r="F122" s="11"/>
     </row>
     <row r="123" ht="16.5">
-      <c r="C123" s="11" t="s">
-        <v>4132</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>4133</v>
-      </c>
-      <c r="E123" s="17"/>
-      <c r="F123" s="11" t="s">
-        <v>4134</v>
-      </c>
-    </row>
-    <row r="124" ht="16.5"/>
-    <row r="125" ht="16.5"/>
+      <c r="C123" s="16" t="s">
+        <v>4135</v>
+      </c>
+      <c r="D123" s="11"/>
+    </row>
+    <row r="124" ht="16.5">
+      <c r="C124" s="11"/>
+      <c r="F124" s="11"/>
+    </row>
+    <row r="125" ht="16.5">
+      <c r="C125" s="11" t="s">
+        <v>4136</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>4137</v>
+      </c>
+      <c r="E125" s="16"/>
+      <c r="F125" s="11" t="s">
+        <v>4138</v>
+      </c>
+    </row>
     <row r="126" ht="16.5"/>
     <row r="127" ht="16.5"/>
-    <row r="128" ht="16.5">
-      <c r="F128" s="11"/>
-    </row>
-    <row r="129" ht="16.5">
-      <c r="F129" s="11"/>
+    <row r="128" ht="16.5"/>
+    <row r="129" ht="16.5"/>
+    <row r="130" ht="16.5">
+      <c r="F130" s="11"/>
     </row>
     <row r="131" ht="16.5">
-      <c r="C131" s="11" t="s">
-        <v>4135</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>4136</v>
-      </c>
-    </row>
-    <row r="132" ht="16.5">
-      <c r="C132" s="11" t="s">
-        <v>4137</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>4136</v>
-      </c>
-      <c r="F132" s="11"/>
-    </row>
-    <row r="133" ht="14.25">
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="F133" s="11"/>
-    </row>
-    <row r="134" ht="14.25">
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
+      <c r="F131" s="11"/>
+    </row>
+    <row r="133" ht="16.5">
+      <c r="C133" s="11" t="s">
+        <v>4139</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="134" ht="16.5">
+      <c r="C134" s="11" t="s">
+        <v>4141</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>4140</v>
+      </c>
       <c r="F134" s="11"/>
     </row>
-    <row r="135" ht="14.25"/>
-    <row r="136" ht="16.5">
-      <c r="C136" s="11" t="s">
-        <v>4138</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>4139</v>
-      </c>
-    </row>
-    <row r="137" ht="16.5">
-      <c r="C137" s="11" t="s">
-        <v>4140</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>4139</v>
-      </c>
-    </row>
+    <row r="135" ht="14.25">
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="F135" s="11"/>
+    </row>
+    <row r="136" ht="14.25">
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="F136" s="11"/>
+    </row>
+    <row r="137" ht="14.25"/>
     <row r="138" ht="16.5">
       <c r="C138" s="11" t="s">
-        <v>4141</v>
+        <v>4142</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>4139</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="139" ht="16.5">
       <c r="C139" s="11" t="s">
-        <v>4142</v>
+        <v>4144</v>
       </c>
       <c r="D139" s="11" t="s">
         <v>4143</v>
@@ -46506,62 +46533,80 @@
     </row>
     <row r="140" ht="16.5">
       <c r="C140" s="11" t="s">
-        <v>4144</v>
-      </c>
-      <c r="D140" s="11"/>
-      <c r="F140" s="11"/>
-    </row>
-    <row r="141" ht="14.25">
-      <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
-      <c r="F141" s="11"/>
-    </row>
-    <row r="144" ht="16.5">
-      <c r="C144" s="22" t="s">
         <v>4145</v>
       </c>
-      <c r="D144" s="11" t="s">
+      <c r="D140" s="11" t="s">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="141" ht="16.5">
+      <c r="C141" s="11" t="s">
         <v>4146</v>
       </c>
-    </row>
-    <row r="146" ht="14.25"/>
-    <row r="147" ht="16.5">
-      <c r="C147" s="11" t="s">
+      <c r="D141" s="11" t="s">
         <v>4147</v>
       </c>
     </row>
-    <row r="148" ht="16.5">
-      <c r="C148" s="11" t="s">
+    <row r="142" ht="16.5">
+      <c r="C142" s="11" t="s">
         <v>4148</v>
       </c>
-    </row>
-    <row r="149" ht="14.25"/>
-    <row r="150" ht="16.5"/>
+      <c r="D142" s="11" t="s">
+        <v>4053</v>
+      </c>
+      <c r="F142" s="11"/>
+    </row>
+    <row r="143" ht="14.25">
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="F143" s="11"/>
+    </row>
+    <row r="146" ht="16.5">
+      <c r="C146" s="21" t="s">
+        <v>4149</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="148" ht="14.25"/>
+    <row r="149" ht="16.5">
+      <c r="C149" s="11" t="s">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="150" ht="16.5">
+      <c r="C150" s="11" t="s">
+        <v>4152</v>
+      </c>
+    </row>
     <row r="151" ht="14.25"/>
-    <row r="152" ht="14.25">
-      <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
-      <c r="F152" s="11"/>
-    </row>
-    <row r="154" ht="16.5"/>
-    <row r="155" ht="16.5">
-      <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
-    </row>
-    <row r="160" ht="16.5">
-      <c r="C160" s="11" t="s">
-        <v>4149</v>
-      </c>
-      <c r="D160" s="11" t="s">
-        <v>4150</v>
-      </c>
-    </row>
-    <row r="167" ht="16.5">
-      <c r="C167" s="11" t="s">
-        <v>4151</v>
-      </c>
-      <c r="D167" s="11" t="s">
-        <v>3990</v>
+    <row r="152" ht="16.5"/>
+    <row r="153" ht="14.25"/>
+    <row r="154" ht="14.25">
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="F154" s="11"/>
+    </row>
+    <row r="156" ht="16.5"/>
+    <row r="157" ht="16.5">
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+    </row>
+    <row r="162" ht="16.5">
+      <c r="C162" s="11" t="s">
+        <v>4153</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="169" ht="16.5">
+      <c r="C169" s="11" t="s">
+        <v>4155</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>3991</v>
       </c>
     </row>
   </sheetData>
@@ -50103,53 +50148,32 @@
       </c>
     </row>
     <row r="99" ht="14.25"/>
-    <row r="101" ht="14.25">
-      <c r="C101" t="s">
-        <v>3425</v>
-      </c>
-      <c r="D101" t="s">
-        <v>3426</v>
-      </c>
-    </row>
-    <row r="102" ht="14.25">
-      <c r="C102" t="s">
-        <v>3427</v>
-      </c>
-      <c r="D102" t="s">
-        <v>3426</v>
-      </c>
-    </row>
-    <row r="103" ht="14.25">
-      <c r="C103" t="s">
-        <v>3428</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>3426</v>
-      </c>
-    </row>
+    <row r="101" ht="14.25"/>
+    <row r="102" ht="14.25"/>
+    <row r="103" ht="14.25"/>
     <row r="104" ht="14.25">
       <c r="A104" s="2" t="s">
         <v>3116</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>3429</v>
+        <v>3425</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>3430</v>
+        <v>3426</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>3431</v>
+        <v>3427</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="3" t="s">
-        <v>3432</v>
+        <v>3428</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3" t="s">
         <v>3343</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>3433</v>
+        <v>3429</